--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tom.tidhar\Documents\GitHub\STI-HIV-coinfection\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="10230" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="pars" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="5" r:id="rId2"/>
     <sheet name="base" sheetId="15" r:id="rId3"/>
-    <sheet name="base (old)" sheetId="18" r:id="rId4"/>
-    <sheet name="data (old)" sheetId="19" r:id="rId5"/>
-    <sheet name="PrEPX" sheetId="17" r:id="rId6"/>
+    <sheet name="timepars" sheetId="20" r:id="rId4"/>
+    <sheet name="PrEPX" sheetId="21" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -25,7 +29,7 @@
     <author>Michael Traeger</author>
   </authors>
   <commentList>
-    <comment ref="M4" authorId="0">
+    <comment ref="M4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,10 +53,10 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="1">
+    <comment ref="C13" authorId="1" shapeId="0">
       <text/>
     </comment>
-    <comment ref="C15" authorId="1">
+    <comment ref="C15" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0">
+    <comment ref="C16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="1">
+    <comment ref="C17" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="1">
+    <comment ref="C20" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="0">
+    <comment ref="C21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="0">
+    <comment ref="C25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -230,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0">
+    <comment ref="C26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -279,7 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="0">
+    <comment ref="C27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -314,7 +318,7 @@
     <author>Michael Traeger</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -338,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -362,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1">
+    <comment ref="G1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -389,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -415,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -439,7 +443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -463,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -487,7 +491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -515,7 +519,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -540,7 +544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -566,7 +570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -595,7 +599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -621,7 +625,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -645,7 +649,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -669,7 +673,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -693,7 +697,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -717,7 +721,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0">
+    <comment ref="D8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -741,7 +745,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="1">
+    <comment ref="D11" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -769,7 +773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U11" authorId="1">
+    <comment ref="U11" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -793,7 +797,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0">
+    <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -817,7 +821,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0">
+    <comment ref="I12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -841,7 +845,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0">
+    <comment ref="A13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -876,7 +880,7 @@
     <author>Michael Traeger</author>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -900,7 +904,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -931,69 +935,11 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Michael Traeger</author>
-  </authors>
-  <commentList>
-    <comment ref="H2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Michael Traeger:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-I will send you data from PrEPX regarding condom use, but consider using factor of 0.3 compared to non-PrEP users</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Michael Traeger:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-From 2016 GPCS - I think this should be 6% = 0.06</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
     <author>Tom Tidhar</author>
     <author>Michael Traeger</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="V16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1013,11 +959,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-It is assumed that 7.2% of MSM are HIV+ (see excel formula for this column)</t>
+http://www.natap.org/2018/IAC/IAC_100.htm</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="V17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1037,388 +983,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mostly from Kirby reports</t>
+https://kirby.unsw.edu.au/sites/default/files/kirby/report/SERP_National-BBV%26STI-Surveillance%26Monitoring-Report-2016_UPD170627.pdf</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Michael Traeger:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This may help with your estimate. 
-From Kirby paper, estimated proportion of men aged 16-69 who identify as gay == 1.88%
-Taken from —ASHR2—Second Australian study of Health and relationships.
-https://journals.plos.org/plosone/article/comments?id=10.1371/journal.pone.0204138</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-https://kirby.unsw.edu.au/sites/default/files/kirby/report/SERP_Annual-Surveillance-Report-2017_compressed.pdf
-page 147
-note that these are national % prevalence numbers</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Total MSM minus PLHIV</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Same as Total PLHIV column</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-calculated by multiplying prevalence (%) by population size</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-https://www2.health.vic.gov.au/~/media/Health/Files/Collections/Factsheets/D/dhhs-epi-fact-sheet-sti-june-2017
-http://www9.health.gov.au/cda/source/rpt_4.cfm
-also helpful; numbers very similar</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-https://www2.health.vic.gov.au/~/media/Health/Files/Collections/Factsheets/D/dhhs-epi-fact-sheet-sti-june-2017
-"Nineteen per cent of the total cases (n=1229) were females"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-https://www2.health.vic.gov.au/~/media/Health/Files/Collections/Factsheets/D/dhhs-epi-fact-sheet-sti-june-2017
-"gonorrhoea cases occur predominantly among men who have sex with men
-(MSM) with 82 per cent reported as MSM in 2016; this is similar to previous years"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-https://www2.health.vic.gov.au/Api/downloadmedia/%7B27A4188D-7167-49F4-9F08-63165A44D80F%7D
-81% of notifications are male.
-82% of male are MSM.
-then this column = total victoria notifications * 81% * 82%
-This was used to find number of MSM notifications.
-Compare with june 2017 fact sheet, which says that 78% of notifications reported as MSM</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-https://www2.health.vic.gov.au/Api/downloadmedia/%7B27A4188D-7167-49F4-9F08-63165A44D80F%7D
-"Of the cases with enhanced surveillance data available, 10 per cent were HIV positive compared to 13 and 17 per
-cent in 2016 and 2015, respectively"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-= number of MSM notifications in Vic  * proportion of notifications which were HIV+</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-= number of MSM notifications in Vic  * proportion of notifications which were HIV+</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-https://www2.health.vic.gov.au/public-health/infectious-diseases/infectious-diseases-surveillance/search-infectious-diseases-data/HIVAIDS%20monthly%20surveillance%20report%20-%20December%202013</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-http://www.natap.org/2018/IAC/IAC_100.htm</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-https://kirby.unsw.edu.au/sites/default/files/kirby/report/SERP_National-BBV%26STI-Surveillance%26Monitoring-Report-2016_UPD170627.pdf</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D11" authorId="1">
+    <comment ref="V20" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1443,54 +1012,6 @@
 For MSM, it is higher at 91.2%.
 See proportion undiagnosed in Kirby report =8.8%
 https://kirby.unsw.edu.au/report/hiv-australia-annual-surveillance-short-report-2018</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U11" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Michael Traeger:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Victorian Health STI surveillance report</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-https://www2.health.vic.gov.au/public-health/infectious-diseases/infectious-diseases-surveillance/search-infectious-diseases-data/hiv-in-victoria-surveillance-report-for-april-june-2018</t>
         </r>
       </text>
     </comment>
@@ -1499,7 +1020,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="156">
   <si>
     <t>Waiting list</t>
   </si>
@@ -1639,18 +1160,6 @@
     <t>Uncertainty</t>
   </si>
   <si>
-    <t>Victorian HIV- GBM population size</t>
-  </si>
-  <si>
-    <t>Prop diagnosed</t>
-  </si>
-  <si>
-    <t>Prop on treatment</t>
-  </si>
-  <si>
-    <t>Prop virally suppressed</t>
-  </si>
-  <si>
     <t>Relative rate of diagnosis of HIV</t>
   </si>
   <si>
@@ -1708,9 +1217,6 @@
     <t>f_infect_HIV</t>
   </si>
   <si>
-    <t>Victorian HIV+ GBM population size</t>
-  </si>
-  <si>
     <t>%male</t>
   </si>
   <si>
@@ -1777,36 +1283,12 @@
     <t>Nick's data</t>
   </si>
   <si>
-    <t>Gon. notifications among HIV- GBM</t>
-  </si>
-  <si>
-    <t>Gon. notifications among HIV+ GBM</t>
-  </si>
-  <si>
     <t>Proportion of gonorrhoea+ who are symptomatic</t>
   </si>
   <si>
-    <t>Gon. prevalence estimate among HIV-negative GBM</t>
-  </si>
-  <si>
-    <t>Gon. prevalence estimate among HIV-positive GBM</t>
-  </si>
-  <si>
-    <t>People living with gon. amongst HIV-</t>
-  </si>
-  <si>
-    <t>People living with gon. amongst HIV+</t>
-  </si>
-  <si>
     <t>% of gon. notifications which were HIV+</t>
   </si>
   <si>
-    <t>Victorian MSM gon. notifications</t>
-  </si>
-  <si>
-    <t>Victorian infectious gon. notifications</t>
-  </si>
-  <si>
     <t>Time between gon. testing, low risk HIV- no prep</t>
   </si>
   <si>
@@ -1928,12 +1410,90 @@
   </si>
   <si>
     <t>Check</t>
+  </si>
+  <si>
+    <t>t_testing</t>
+  </si>
+  <si>
+    <t>HIV_low_risk</t>
+  </si>
+  <si>
+    <t>HIV_high_risk</t>
+  </si>
+  <si>
+    <t>HIV_prep</t>
+  </si>
+  <si>
+    <t>new_infection</t>
+  </si>
+  <si>
+    <t>old_infection</t>
+  </si>
+  <si>
+    <t>mid_infection</t>
+  </si>
+  <si>
+    <t>Inf</t>
+  </si>
+  <si>
+    <t>condom_usage</t>
+  </si>
+  <si>
+    <t>gel_up</t>
+  </si>
+  <si>
+    <t>gel_down</t>
+  </si>
+  <si>
+    <t>care_cascade</t>
+  </si>
+  <si>
+    <t>diagnosed</t>
+  </si>
+  <si>
+    <t>diagnosed_treated</t>
+  </si>
+  <si>
+    <t>treated_virally_suppressed</t>
+  </si>
+  <si>
+    <t>treatment_eff</t>
+  </si>
+  <si>
+    <t>par</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>subpop</t>
+  </si>
+  <si>
+    <t>population_year</t>
+  </si>
+  <si>
+    <t>population_value</t>
+  </si>
+  <si>
+    <t>Year of population size estimate</t>
+  </si>
+  <si>
+    <t>Population size estimate</t>
+  </si>
+  <si>
+    <t>new_to_mid</t>
+  </si>
+  <si>
+    <t>mid_to_old</t>
+  </si>
+  <si>
+    <t>test_wait</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2241,7 +1801,7 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2347,7 +1907,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2368,9 +1927,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2390,9 +1946,6 @@
     <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2417,6 +1970,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Bad" xfId="15" builtinId="27" customBuiltin="1"/>
@@ -2739,14 +2293,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="5" customWidth="1"/>
@@ -2757,7 +2311,7 @@
     <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2781,10 +2335,10 @@
         <v>45</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -2800,17 +2354,17 @@
       <c r="I2" s="10">
         <v>0.05</v>
       </c>
-      <c r="L2" s="110"/>
+      <c r="L2" s="103"/>
       <c r="M2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C3" s="34">
         <v>0.06</v>
@@ -2820,19 +2374,19 @@
       <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="112"/>
+      <c r="L3" s="105"/>
       <c r="M3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="104">
+      <c r="C4" s="97">
         <v>1</v>
       </c>
       <c r="D4" s="22">
@@ -2843,19 +2397,19 @@
         <f>C4+$I$2*C4</f>
         <v>1.05</v>
       </c>
-      <c r="L4" s="107"/>
+      <c r="L4" s="100"/>
       <c r="M4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="104">
+      <c r="C5" s="97">
         <v>1</v>
       </c>
       <c r="D5" s="22">
@@ -2868,17 +2422,17 @@
       </c>
       <c r="L5" s="28"/>
       <c r="M5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="106">
+      <c r="C6" s="99">
         <v>0.04</v>
       </c>
       <c r="D6" s="22">
@@ -2896,19 +2450,19 @@
         <f>(1+C7)^(12*(2040-2007))</f>
         <v>5.0031885420339695</v>
       </c>
-      <c r="L6" s="118"/>
+      <c r="L6" s="111"/>
       <c r="M6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="89">
+      <c r="C7" s="85">
         <v>4.0741237836483535E-3</v>
       </c>
       <c r="D7" s="24">
@@ -2922,7 +2476,7 @@
       <c r="G7" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="86">
+      <c r="I7" s="82">
         <f>((data!G12/data!G2) ^ (C2/((data!A12-data!A2))) - 1)</f>
         <v>4.0741237836483535E-3</v>
       </c>
@@ -2931,14 +2485,14 @@
         <v>4.6046927083333387E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="106">
+      <c r="C8" s="99">
         <f>0.001*12*C2</f>
         <v>1E-3</v>
       </c>
@@ -2951,12 +2505,12 @@
         <v>1.0499999999999999E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C9" s="35">
         <f>0.5</f>
@@ -2965,14 +2519,14 @@
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
     </row>
-    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="104">
+      <c r="C10" s="97">
         <f>0.001*12*C2</f>
         <v>1E-3</v>
       </c>
@@ -2985,14 +2539,14 @@
         <v>1.0499999999999999E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="105">
+      <c r="C11" s="98">
         <f>0.001*12*C2</f>
         <v>1E-3</v>
       </c>
@@ -3008,7 +2562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>28</v>
       </c>
@@ -3030,7 +2584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>30</v>
       </c>
@@ -3049,14 +2603,14 @@
         <v>0.13650000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="103">
+      <c r="C14" s="96">
         <f>0.42</f>
         <v>0.42</v>
       </c>
@@ -3069,14 +2623,14 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="103">
+      <c r="C15" s="96">
         <v>0.97</v>
       </c>
       <c r="D15" s="26">
@@ -3087,14 +2641,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="108">
+      <c r="C16" s="101">
         <v>0.8</v>
       </c>
       <c r="D16" s="26">
@@ -3106,7 +2660,7 @@
         <v>0.84000000000000008</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>42</v>
       </c>
@@ -3125,12 +2679,12 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="93" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C18" s="29">
         <v>0.4</v>
@@ -3144,12 +2698,12 @@
         <v>0.42000000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C19" s="29">
         <v>0.4</v>
@@ -3165,25 +2719,25 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="117">
+      <c r="C20" s="110">
         <v>0</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
     </row>
-    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="113">
+        <v>73</v>
+      </c>
+      <c r="C21" s="106">
         <f>6.2</f>
         <v>6.2</v>
       </c>
@@ -3196,12 +2750,12 @@
         <v>6.51</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C22" s="29">
         <v>7</v>
@@ -3215,14 +2769,14 @@
         <v>7.35</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="104">
+        <v>57</v>
+      </c>
+      <c r="C23" s="97">
         <v>0.1</v>
       </c>
       <c r="D23" s="27">
@@ -3234,14 +2788,14 @@
         <v>0.10500000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="104">
+        <v>58</v>
+      </c>
+      <c r="C24" s="97">
         <v>0.17</v>
       </c>
       <c r="D24" s="27">
@@ -3253,14 +2807,14 @@
         <v>0.17850000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="114">
+        <v>59</v>
+      </c>
+      <c r="C25" s="107">
         <v>0.38800000000000001</v>
       </c>
       <c r="D25" s="27">
@@ -3272,14 +2826,14 @@
         <v>0.40739999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="115">
+        <v>75</v>
+      </c>
+      <c r="C26" s="108">
         <v>0.45</v>
       </c>
       <c r="D26" s="26">
@@ -3293,10 +2847,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C27" s="32">
         <v>1</v>
@@ -3312,12 +2866,12 @@
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" s="111">
+        <v>121</v>
+      </c>
+      <c r="C28" s="104">
         <f>1-C26</f>
         <v>0.55000000000000004</v>
       </c>
@@ -3332,12 +2886,12 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="109">
+        <v>123</v>
+      </c>
+      <c r="C29" s="102">
         <v>0.5</v>
       </c>
       <c r="D29" s="26">
@@ -3349,8 +2903,30 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="1">
+        <v>42714</v>
+      </c>
+    </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="116">
+      <c r="B39" s="109">
         <f>C14*(C16-C18)</f>
         <v>0.16800000000000001</v>
       </c>
@@ -3380,7 +2956,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3409,7 +2985,7 @@
     <col min="22" max="22" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>31</v>
       </c>
@@ -3420,62 +2996,62 @@
         <v>32</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="U1" s="90" t="s">
-        <v>108</v>
+        <v>116</v>
+      </c>
+      <c r="U1" s="86" t="s">
+        <v>95</v>
       </c>
       <c r="V1" s="16"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>2007</v>
       </c>
@@ -3497,10 +3073,10 @@
         <f>42714</f>
         <v>42714</v>
       </c>
-      <c r="H2" s="88">
+      <c r="H2" s="84">
         <v>2.32876712328767E-2</v>
       </c>
-      <c r="I2" s="88">
+      <c r="I2" s="84">
         <v>3.4931506849315071E-2</v>
       </c>
       <c r="J2" s="39">
@@ -3511,42 +3087,42 @@
         <f t="shared" ref="K2:K12" si="1">C2</f>
         <v>3075.4079999999999</v>
       </c>
-      <c r="L2" s="72">
+      <c r="L2" s="71">
         <f>ROUND(H2*J2,0)</f>
         <v>923</v>
       </c>
-      <c r="M2" s="72">
+      <c r="M2" s="71">
         <f t="shared" ref="M2" si="2">ROUND(I2*K2,0)</f>
         <v>107</v>
       </c>
       <c r="N2" s="13">
         <v>1007</v>
       </c>
-      <c r="O2" s="76">
+      <c r="O2" s="75">
         <v>0.81</v>
       </c>
-      <c r="P2" s="76">
+      <c r="P2" s="75">
         <v>0.82</v>
       </c>
-      <c r="Q2" s="77">
+      <c r="Q2" s="76">
         <f>N2*O2*P2</f>
         <v>668.84940000000006</v>
       </c>
-      <c r="R2" s="73">
+      <c r="R2" s="72">
         <v>0.17</v>
       </c>
-      <c r="S2" s="75">
+      <c r="S2" s="74">
         <f>Q2-T2</f>
         <v>555.14500200000009</v>
       </c>
-      <c r="T2" s="75">
+      <c r="T2" s="74">
         <f>Q2*R2</f>
         <v>113.70439800000001</v>
       </c>
       <c r="U2" s="17"/>
       <c r="V2" s="17"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2008</v>
       </c>
@@ -3562,8 +3138,8 @@
         <f>1.05*G2</f>
         <v>44849.700000000004</v>
       </c>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
       <c r="J3" s="39">
         <f t="shared" si="0"/>
         <v>41620.521600000007</v>
@@ -3577,31 +3153,31 @@
       <c r="N3" s="13">
         <v>922</v>
       </c>
-      <c r="O3" s="76">
+      <c r="O3" s="75">
         <v>0.81</v>
       </c>
-      <c r="P3" s="76">
+      <c r="P3" s="75">
         <v>0.82</v>
       </c>
-      <c r="Q3" s="77">
+      <c r="Q3" s="76">
         <f t="shared" ref="Q3:Q12" si="4">N3*O3*P3</f>
         <v>612.39239999999995</v>
       </c>
-      <c r="R3" s="73">
+      <c r="R3" s="72">
         <v>0.17</v>
       </c>
-      <c r="S3" s="75">
+      <c r="S3" s="74">
         <f t="shared" ref="S3:S12" si="5">Q3-T3</f>
         <v>508.28569199999993</v>
       </c>
-      <c r="T3" s="75">
+      <c r="T3" s="74">
         <f t="shared" ref="T3:T12" si="6">Q3*R3</f>
         <v>104.106708</v>
       </c>
       <c r="U3" s="17"/>
       <c r="V3" s="17"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2009</v>
       </c>
@@ -3617,8 +3193,8 @@
         <f t="shared" ref="G4:G11" si="7">1.05*G3</f>
         <v>47092.185000000005</v>
       </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
       <c r="J4" s="39">
         <f t="shared" si="0"/>
         <v>43701.547680000003</v>
@@ -3632,31 +3208,31 @@
       <c r="N4" s="13">
         <v>1480</v>
       </c>
-      <c r="O4" s="76">
+      <c r="O4" s="75">
         <v>0.81</v>
       </c>
-      <c r="P4" s="76">
+      <c r="P4" s="75">
         <v>0.82</v>
       </c>
-      <c r="Q4" s="77">
+      <c r="Q4" s="76">
         <f t="shared" si="4"/>
         <v>983.01600000000008</v>
       </c>
-      <c r="R4" s="73">
+      <c r="R4" s="72">
         <v>0.17</v>
       </c>
-      <c r="S4" s="75">
+      <c r="S4" s="74">
         <f t="shared" si="5"/>
         <v>815.90328</v>
       </c>
-      <c r="T4" s="75">
+      <c r="T4" s="74">
         <f t="shared" si="6"/>
         <v>167.11272000000002</v>
       </c>
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2010</v>
       </c>
@@ -3680,10 +3256,10 @@
         <f t="shared" si="7"/>
         <v>49446.794250000006</v>
       </c>
-      <c r="H5" s="88">
+      <c r="H5" s="84">
         <v>4.0273972602739724E-2</v>
       </c>
-      <c r="I5" s="88">
+      <c r="I5" s="84">
         <v>4.3150684931506846E-2</v>
       </c>
       <c r="J5" s="39">
@@ -3694,42 +3270,42 @@
         <f t="shared" si="1"/>
         <v>3560.1691860000005</v>
       </c>
-      <c r="L5" s="71">
+      <c r="L5" s="70">
         <f t="shared" ref="L5:L11" si="8">ROUND(H5*J5,0)</f>
         <v>1848</v>
       </c>
-      <c r="M5" s="71">
+      <c r="M5" s="70">
         <f t="shared" ref="M5:M12" si="9">ROUND(I5*K5,0)</f>
         <v>154</v>
       </c>
       <c r="N5" s="13">
         <v>1758</v>
       </c>
-      <c r="O5" s="76">
+      <c r="O5" s="75">
         <v>0.81</v>
       </c>
-      <c r="P5" s="76">
+      <c r="P5" s="75">
         <v>0.82</v>
       </c>
-      <c r="Q5" s="77">
+      <c r="Q5" s="76">
         <f t="shared" si="4"/>
         <v>1167.6635999999999</v>
       </c>
-      <c r="R5" s="73">
+      <c r="R5" s="72">
         <v>0.17</v>
       </c>
-      <c r="S5" s="75">
+      <c r="S5" s="74">
         <f t="shared" si="5"/>
         <v>969.16078799999991</v>
       </c>
-      <c r="T5" s="75">
+      <c r="T5" s="74">
         <f t="shared" si="6"/>
         <v>198.50281199999998</v>
       </c>
       <c r="U5" s="18"/>
       <c r="V5" s="18"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2011</v>
       </c>
@@ -3747,10 +3323,10 @@
         <f t="shared" si="7"/>
         <v>51919.133962500011</v>
       </c>
-      <c r="H6" s="88">
+      <c r="H6" s="84">
         <v>3.7534246575342468E-2</v>
       </c>
-      <c r="I6" s="88">
+      <c r="I6" s="84">
         <v>4.726027397260274E-2</v>
       </c>
       <c r="J6" s="39">
@@ -3761,42 +3337,42 @@
         <f t="shared" si="1"/>
         <v>3738.1776453000011</v>
       </c>
-      <c r="L6" s="71">
+      <c r="L6" s="70">
         <f t="shared" si="8"/>
         <v>1808</v>
       </c>
-      <c r="M6" s="71">
+      <c r="M6" s="70">
         <f t="shared" si="9"/>
         <v>177</v>
       </c>
       <c r="N6" s="13">
         <v>1863</v>
       </c>
-      <c r="O6" s="76">
+      <c r="O6" s="75">
         <v>0.81</v>
       </c>
-      <c r="P6" s="76">
+      <c r="P6" s="75">
         <v>0.82</v>
       </c>
-      <c r="Q6" s="77">
+      <c r="Q6" s="76">
         <f t="shared" si="4"/>
         <v>1237.4046000000001</v>
       </c>
-      <c r="R6" s="73">
+      <c r="R6" s="72">
         <v>0.17</v>
       </c>
-      <c r="S6" s="75">
+      <c r="S6" s="74">
         <f t="shared" si="5"/>
         <v>1027.0458180000001</v>
       </c>
-      <c r="T6" s="75">
+      <c r="T6" s="74">
         <f t="shared" si="6"/>
         <v>210.35878200000002</v>
       </c>
       <c r="U6" s="18"/>
       <c r="V6" s="18"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2012</v>
       </c>
@@ -3820,10 +3396,10 @@
         <f t="shared" si="7"/>
         <v>54515.090660625014</v>
       </c>
-      <c r="H7" s="88">
+      <c r="H7" s="84">
         <v>4.876712328767123E-2</v>
       </c>
-      <c r="I7" s="88">
+      <c r="I7" s="84">
         <v>5.3835616438356167E-2</v>
       </c>
       <c r="J7" s="39">
@@ -3834,42 +3410,42 @@
         <f t="shared" si="1"/>
         <v>3925.0865275650012</v>
       </c>
-      <c r="L7" s="71">
+      <c r="L7" s="70">
         <f t="shared" si="8"/>
         <v>2467</v>
       </c>
-      <c r="M7" s="71">
+      <c r="M7" s="70">
         <f t="shared" si="9"/>
         <v>211</v>
       </c>
       <c r="N7" s="13">
         <v>2436</v>
       </c>
-      <c r="O7" s="76">
+      <c r="O7" s="75">
         <v>0.81</v>
       </c>
-      <c r="P7" s="76">
+      <c r="P7" s="75">
         <v>0.82</v>
       </c>
-      <c r="Q7" s="77">
+      <c r="Q7" s="76">
         <f t="shared" si="4"/>
         <v>1617.9911999999999</v>
       </c>
-      <c r="R7" s="73">
+      <c r="R7" s="72">
         <v>0.17</v>
       </c>
-      <c r="S7" s="75">
+      <c r="S7" s="74">
         <f t="shared" si="5"/>
         <v>1342.9326959999999</v>
       </c>
-      <c r="T7" s="75">
+      <c r="T7" s="74">
         <f t="shared" si="6"/>
         <v>275.05850400000003</v>
       </c>
       <c r="U7" s="18"/>
       <c r="V7" s="18"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2013</v>
       </c>
@@ -3893,10 +3469,10 @@
         <f t="shared" si="7"/>
         <v>57240.845193656263</v>
       </c>
-      <c r="H8" s="88">
+      <c r="H8" s="84">
         <v>5.2876712328767124E-2</v>
       </c>
-      <c r="I8" s="88">
+      <c r="I8" s="84">
         <v>6.2671232876712321E-2</v>
       </c>
       <c r="J8" s="39">
@@ -3907,42 +3483,42 @@
         <f t="shared" si="1"/>
         <v>4121.3408539432512</v>
       </c>
-      <c r="L8" s="71">
+      <c r="L8" s="70">
         <f t="shared" si="8"/>
         <v>2809</v>
       </c>
-      <c r="M8" s="71">
+      <c r="M8" s="70">
         <f t="shared" si="9"/>
         <v>258</v>
       </c>
       <c r="N8" s="13">
         <v>2978</v>
       </c>
-      <c r="O8" s="76">
+      <c r="O8" s="75">
         <v>0.81</v>
       </c>
-      <c r="P8" s="76">
+      <c r="P8" s="75">
         <v>0.82</v>
       </c>
-      <c r="Q8" s="77">
+      <c r="Q8" s="76">
         <f t="shared" si="4"/>
         <v>1977.9876000000002</v>
       </c>
-      <c r="R8" s="73">
+      <c r="R8" s="72">
         <v>0.17</v>
       </c>
-      <c r="S8" s="75">
+      <c r="S8" s="74">
         <f t="shared" si="5"/>
         <v>1641.7297080000001</v>
       </c>
-      <c r="T8" s="75">
+      <c r="T8" s="74">
         <f t="shared" si="6"/>
         <v>336.25789200000003</v>
       </c>
       <c r="U8" s="18"/>
       <c r="V8" s="18"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2014</v>
       </c>
@@ -3966,10 +3542,10 @@
         <f t="shared" si="7"/>
         <v>60102.887453339077</v>
       </c>
-      <c r="H9" s="88">
+      <c r="H9" s="84">
         <v>5.1506849315068493E-2</v>
       </c>
-      <c r="I9" s="88">
+      <c r="I9" s="84">
         <v>5.321917808219178E-2</v>
       </c>
       <c r="J9" s="39">
@@ -3980,42 +3556,42 @@
         <f t="shared" si="1"/>
         <v>4327.407896640414</v>
       </c>
-      <c r="L9" s="71">
+      <c r="L9" s="70">
         <f t="shared" si="8"/>
         <v>2873</v>
       </c>
-      <c r="M9" s="71">
+      <c r="M9" s="70">
         <f t="shared" si="9"/>
         <v>230</v>
       </c>
       <c r="N9" s="13">
         <v>3269</v>
       </c>
-      <c r="O9" s="76">
+      <c r="O9" s="75">
         <v>0.81</v>
       </c>
-      <c r="P9" s="76">
+      <c r="P9" s="75">
         <v>0.82</v>
       </c>
-      <c r="Q9" s="77">
+      <c r="Q9" s="76">
         <f t="shared" si="4"/>
         <v>2171.2698</v>
       </c>
-      <c r="R9" s="73">
+      <c r="R9" s="72">
         <v>0.17</v>
       </c>
-      <c r="S9" s="75">
+      <c r="S9" s="74">
         <f t="shared" si="5"/>
         <v>1802.1539339999999</v>
       </c>
-      <c r="T9" s="75">
+      <c r="T9" s="74">
         <f t="shared" si="6"/>
         <v>369.11586600000004</v>
       </c>
       <c r="U9" s="18"/>
       <c r="V9" s="18"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2015</v>
       </c>
@@ -4039,10 +3615,10 @@
         <f t="shared" si="7"/>
         <v>63108.03182600603</v>
       </c>
-      <c r="H10" s="88">
+      <c r="H10" s="84">
         <v>6.6575342465753418E-2</v>
       </c>
-      <c r="I10" s="88">
+      <c r="I10" s="84">
         <v>6.7191780821917804E-2</v>
       </c>
       <c r="J10" s="39">
@@ -4053,42 +3629,42 @@
         <f t="shared" si="1"/>
         <v>4543.7782914724339</v>
       </c>
-      <c r="L10" s="71">
+      <c r="L10" s="70">
         <f t="shared" si="8"/>
         <v>3899</v>
       </c>
-      <c r="M10" s="71">
+      <c r="M10" s="70">
         <f t="shared" si="9"/>
         <v>305</v>
       </c>
       <c r="N10" s="13">
         <v>4865</v>
       </c>
-      <c r="O10" s="76">
+      <c r="O10" s="75">
         <v>0.81</v>
       </c>
-      <c r="P10" s="76">
+      <c r="P10" s="75">
         <v>0.82</v>
       </c>
-      <c r="Q10" s="77">
+      <c r="Q10" s="76">
         <f t="shared" si="4"/>
         <v>3231.3330000000001</v>
       </c>
-      <c r="R10" s="74">
+      <c r="R10" s="73">
         <v>0.17</v>
       </c>
-      <c r="S10" s="75">
+      <c r="S10" s="74">
         <f t="shared" si="5"/>
         <v>2682.00639</v>
       </c>
-      <c r="T10" s="75">
+      <c r="T10" s="74">
         <f t="shared" si="6"/>
         <v>549.32661000000007</v>
       </c>
       <c r="U10" s="18"/>
       <c r="V10" s="18"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2016</v>
       </c>
@@ -4112,10 +3688,10 @@
         <f t="shared" si="7"/>
         <v>66263.43341730634</v>
       </c>
-      <c r="H11" s="88">
+      <c r="H11" s="84">
         <v>6.3287671232876708E-2</v>
       </c>
-      <c r="I11" s="88">
+      <c r="I11" s="84">
         <v>6.9246575342465755E-2</v>
       </c>
       <c r="J11" s="39">
@@ -4126,43 +3702,43 @@
         <f t="shared" si="1"/>
         <v>4770.9672060460571</v>
       </c>
-      <c r="L11" s="71">
+      <c r="L11" s="70">
         <f t="shared" si="8"/>
         <v>3892</v>
       </c>
-      <c r="M11" s="71">
+      <c r="M11" s="70">
         <f t="shared" si="9"/>
         <v>330</v>
       </c>
       <c r="N11" s="13">
         <v>6265</v>
       </c>
-      <c r="O11" s="76">
+      <c r="O11" s="75">
         <v>0.81</v>
       </c>
-      <c r="P11" s="76">
+      <c r="P11" s="75">
         <v>0.82</v>
       </c>
-      <c r="Q11" s="77">
+      <c r="Q11" s="76">
         <f t="shared" si="4"/>
         <v>4161.2130000000006</v>
       </c>
-      <c r="R11" s="74">
+      <c r="R11" s="73">
         <v>0.13</v>
       </c>
-      <c r="S11" s="75">
+      <c r="S11" s="74">
         <f t="shared" si="5"/>
         <v>3620.2553100000005</v>
       </c>
-      <c r="T11" s="75">
+      <c r="T11" s="74">
         <f t="shared" si="6"/>
         <v>540.95769000000007</v>
       </c>
-      <c r="U11" s="91">
+      <c r="U11" s="87">
         <v>0.18</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2017</v>
       </c>
@@ -4180,11 +3756,11 @@
         <f>1.05*G11</f>
         <v>69576.605088171666</v>
       </c>
-      <c r="H12" s="88">
-        <f>0.01*(PrEPX!B12*PrEPX!B15+PrEPX!B3*PrEPX!B6)/(PrEPX!B3+PrEPX!B12)</f>
-        <v>4.4545382820313367E-2</v>
-      </c>
-      <c r="I12" s="88">
+      <c r="H12" s="84" t="e">
+        <f>0.01*(#REF!*#REF!+#REF!*#REF!)/(#REF!+#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I12" s="84">
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="J12" s="39">
@@ -4196,36 +3772,36 @@
         <v>5009.5155663483602</v>
       </c>
       <c r="L12" s="15"/>
-      <c r="M12" s="71">
+      <c r="M12" s="70">
         <f t="shared" si="9"/>
         <v>234</v>
       </c>
       <c r="N12" s="13">
         <v>7289</v>
       </c>
-      <c r="O12" s="76">
+      <c r="O12" s="75">
         <v>0.81</v>
       </c>
-      <c r="P12" s="76">
+      <c r="P12" s="75">
         <v>0.7</v>
       </c>
-      <c r="Q12" s="77">
+      <c r="Q12" s="76">
         <f t="shared" si="4"/>
         <v>4132.8630000000003</v>
       </c>
-      <c r="R12" s="73">
+      <c r="R12" s="72">
         <v>0.1</v>
       </c>
-      <c r="S12" s="75">
+      <c r="S12" s="74">
         <f t="shared" si="5"/>
         <v>3719.5767000000001</v>
       </c>
-      <c r="T12" s="75">
+      <c r="T12" s="74">
         <f t="shared" si="6"/>
         <v>413.28630000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2018</v>
       </c>
@@ -4233,45 +3809,45 @@
       <c r="C13" s="21"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
-      <c r="J14" s="87"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J14" s="83"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
-      <c r="J15" s="87"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J15" s="83"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G24" s="12"/>
     </row>
   </sheetData>
@@ -4287,7 +3863,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4318,81 +3894,81 @@
     <col min="24" max="24" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C1" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="H1" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="51" t="s">
+      <c r="I1" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="J1" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="K1" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>59</v>
-      </c>
       <c r="M1" s="44" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="N1" s="45" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="O1" s="46" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="P1" s="49" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="Q1" s="45" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="R1" s="51" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="S1" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="T1" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="U1" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="V1" s="49" t="s">
-        <v>77</v>
-      </c>
       <c r="W1" s="50" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="X1" s="51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -4413,11 +3989,11 @@
         <f>pars!$C$14</f>
         <v>0.42</v>
       </c>
-      <c r="H2" s="64">
+      <c r="H2" s="63">
         <f>pars!C14*pars!C17</f>
         <v>0.126</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="66">
         <f>G2*pars!C17</f>
         <v>0.126</v>
       </c>
@@ -4430,25 +4006,25 @@
       <c r="L2" s="40">
         <v>0.9</v>
       </c>
-      <c r="M2" s="92">
+      <c r="M2" s="88">
         <f>365*((PrEPX!C3/PrEPX!C5)+(PrEPX!D3/PrEPX!D5))/(PrEPX!C3+PrEPX!D3)</f>
         <v>239.17702721631844</v>
       </c>
-      <c r="N2" s="92">
+      <c r="N2" s="88">
         <v>90</v>
       </c>
-      <c r="O2" s="92">
+      <c r="O2" s="88">
         <f>365*((PrEPX!C21/PrEPX!C23)+(PrEPX!D21/PrEPX!D23))/(PrEPX!C21+PrEPX!D21)</f>
         <v>191.92035691894674</v>
       </c>
-      <c r="P2" s="92">
+      <c r="P2" s="88">
         <f>365/PrEPX!E5</f>
         <v>91.25</v>
       </c>
-      <c r="Q2" s="101">
+      <c r="Q2" s="94">
         <v>90</v>
       </c>
-      <c r="R2" s="102">
+      <c r="R2" s="95">
         <f>365/PrEPX!E23</f>
         <v>101.38888888888889</v>
       </c>
@@ -4471,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2010</v>
       </c>
@@ -4490,20 +4066,20 @@
       <c r="J3" s="43"/>
       <c r="K3" s="40"/>
       <c r="L3" s="40"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="82"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="78"/>
       <c r="S3" s="41"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="68"/>
       <c r="V3" s="41"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="69"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="W3" s="69"/>
+      <c r="X3" s="68"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -4520,21 +4096,21 @@
       <c r="J4" s="43"/>
       <c r="K4" s="40"/>
       <c r="L4" s="40"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="82"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="78"/>
       <c r="S4" s="41"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="68"/>
       <c r="V4" s="41"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="69"/>
-    </row>
-    <row r="5" spans="1:24" s="93" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="93">
+      <c r="W4" s="69"/>
+      <c r="X4" s="68"/>
+    </row>
+    <row r="5" spans="1:24" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="89">
         <v>2018</v>
       </c>
       <c r="B5" s="62">
@@ -4544,27 +4120,27 @@
       <c r="D5" s="42"/>
       <c r="E5" s="52"/>
       <c r="F5" s="53"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="100"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="93"/>
       <c r="J5" s="43"/>
       <c r="K5" s="40"/>
       <c r="L5" s="40"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="82"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="78"/>
       <c r="S5" s="41"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="69"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="68"/>
       <c r="V5" s="41"/>
-      <c r="W5" s="70"/>
-      <c r="X5" s="69"/>
-    </row>
-    <row r="6" spans="1:24" s="93" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="93">
+      <c r="W5" s="69"/>
+      <c r="X5" s="68"/>
+    </row>
+    <row r="6" spans="1:24" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="89">
         <v>2019</v>
       </c>
       <c r="B6" s="62">
@@ -4574,27 +4150,27 @@
       <c r="D6" s="42"/>
       <c r="E6" s="52"/>
       <c r="F6" s="53"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="100"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="93"/>
       <c r="J6" s="43"/>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="82"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="78"/>
       <c r="S6" s="41"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="68"/>
       <c r="V6" s="41"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="69"/>
-    </row>
-    <row r="7" spans="1:24" s="93" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="93">
+      <c r="W6" s="69"/>
+      <c r="X6" s="68"/>
+    </row>
+    <row r="7" spans="1:24" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="89">
         <v>2025</v>
       </c>
       <c r="B7" s="62"/>
@@ -4602,26 +4178,26 @@
       <c r="D7" s="42"/>
       <c r="E7" s="52"/>
       <c r="F7" s="53"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="100"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="93"/>
       <c r="J7" s="43"/>
       <c r="K7" s="40"/>
       <c r="L7" s="40"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="82"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="78"/>
       <c r="S7" s="41"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="41"/>
-      <c r="W7" s="70"/>
-      <c r="X7" s="69"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="W7" s="69"/>
+      <c r="X7" s="68"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2030</v>
       </c>
@@ -4638,20 +4214,20 @@
       <c r="J8" s="43"/>
       <c r="K8" s="40"/>
       <c r="L8" s="40"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="82"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="78"/>
       <c r="S8" s="41"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="41"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="69"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="W8" s="69"/>
+      <c r="X8" s="68"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2040</v>
       </c>
@@ -4670,15 +4246,15 @@
       <c r="F9" s="56">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G9" s="66">
+      <c r="G9" s="65">
         <f>$G$2</f>
         <v>0.42</v>
       </c>
-      <c r="H9" s="65">
+      <c r="H9" s="64">
         <f>H2</f>
         <v>0.126</v>
       </c>
-      <c r="I9" s="68">
+      <c r="I9" s="67">
         <f>I2</f>
         <v>0.126</v>
       </c>
@@ -4691,25 +4267,25 @@
       <c r="L9" s="40">
         <v>0.9</v>
       </c>
-      <c r="M9" s="92">
+      <c r="M9" s="88">
         <f t="shared" ref="M9:R9" si="0">M2</f>
         <v>239.17702721631844</v>
       </c>
-      <c r="N9" s="92">
+      <c r="N9" s="88">
         <v>90</v>
       </c>
-      <c r="O9" s="92">
+      <c r="O9" s="88">
         <f t="shared" si="0"/>
         <v>191.92035691894674</v>
       </c>
-      <c r="P9" s="92">
+      <c r="P9" s="88">
         <f t="shared" si="0"/>
         <v>91.25</v>
       </c>
-      <c r="Q9" s="101">
+      <c r="Q9" s="94">
         <v>90</v>
       </c>
-      <c r="R9" s="102">
+      <c r="R9" s="95">
         <f t="shared" si="0"/>
         <v>101.38888888888889</v>
       </c>
@@ -4740,416 +4316,477 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="93" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="93" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" style="93" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" style="93" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" style="93" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" style="93" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" style="93" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" style="93" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" style="93" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" style="93" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" style="93" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" style="93" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.140625" style="93" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.28515625" style="93" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" style="93" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="45.28515625" style="93" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="42.5703125" style="93" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="38.140625" style="93" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.5703125" style="93" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.7109375" style="93" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="93" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.5703125" style="93" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.7109375" style="93" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.28515625" style="93" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="93"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="89" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="94" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="95" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="94" t="s">
-        <v>102</v>
-      </c>
-      <c r="N1" s="95" t="s">
-        <v>103</v>
-      </c>
-      <c r="O1" s="96" t="s">
-        <v>104</v>
-      </c>
-      <c r="P1" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q1" s="95" t="s">
-        <v>106</v>
-      </c>
-      <c r="R1" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="S1" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="T1" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="U1" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="V1" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="W1" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="X1" s="51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="93">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N1" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="O1" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="P1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q1" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="R1" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="S1" t="s">
+        <v>140</v>
+      </c>
+      <c r="T1" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="U1" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="V1" t="s">
+        <v>141</v>
+      </c>
+      <c r="W1" s="89" t="s">
+        <v>141</v>
+      </c>
+      <c r="X1" s="89" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA1" s="89" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="J2" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="M2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N2" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="O2" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="P2" s="89" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q2" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="R2" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="S2" s="89" t="s">
+        <v>131</v>
+      </c>
+      <c r="T2" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="U2" s="89" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="K3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L3" t="s">
+        <v>154</v>
+      </c>
+      <c r="V3" t="s">
+        <v>142</v>
+      </c>
+      <c r="W3" t="s">
+        <v>143</v>
+      </c>
+      <c r="X3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y3" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z3" s="89" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA3" s="89" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2000</v>
       </c>
-      <c r="B2" s="61">
-        <v>0.01</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="42">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E2" s="52">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F2" s="53">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G2" s="36">
-        <f>pars!$C$14</f>
+      <c r="B4" s="112">
+        <v>1</v>
+      </c>
+      <c r="C4" s="112">
+        <v>3</v>
+      </c>
+      <c r="D4" s="112">
+        <v>10</v>
+      </c>
+      <c r="E4" s="112">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="112">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="112">
+        <v>5</v>
+      </c>
+      <c r="H4" s="112">
+        <f>3/12</f>
+        <v>0.25</v>
+      </c>
+      <c r="I4" s="112">
+        <f>3/12</f>
+        <v>0.25</v>
+      </c>
+      <c r="J4" s="112">
+        <f>3/12</f>
+        <v>0.25</v>
+      </c>
+      <c r="K4" s="112" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" s="112">
+        <v>2</v>
+      </c>
+      <c r="M4" s="112">
         <v>0.42</v>
       </c>
-      <c r="H2" s="64">
-        <f>0.3*G2</f>
-        <v>0.126</v>
-      </c>
-      <c r="I2" s="67">
-        <f>G2</f>
-        <v>0.42</v>
-      </c>
-      <c r="J2" s="43">
-        <v>0.69</v>
-      </c>
-      <c r="K2" s="40">
-        <v>0.69</v>
-      </c>
-      <c r="L2" s="40">
+      <c r="N4" s="112">
+        <v>0.35</v>
+      </c>
+      <c r="O4" s="112">
+        <v>0.1</v>
+      </c>
+      <c r="P4" s="112">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="112">
+        <v>0</v>
+      </c>
+      <c r="R4" s="112">
+        <v>0</v>
+      </c>
+      <c r="S4" s="112">
+        <v>0</v>
+      </c>
+      <c r="T4" s="112">
+        <v>0</v>
+      </c>
+      <c r="U4" s="112">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="112">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="112">
+        <v>0.5</v>
+      </c>
+      <c r="AA4" s="112">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="89">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="89">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="89">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="89">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="89">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="89">
+        <v>2007</v>
+      </c>
+      <c r="V11" s="112">
+        <v>0.7</v>
+      </c>
+      <c r="W11" s="112">
+        <v>0.75</v>
+      </c>
+      <c r="X11" s="112">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="89">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="89">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="89">
+        <v>2010</v>
+      </c>
+      <c r="V14" s="112">
+        <v>0.7</v>
+      </c>
+      <c r="W14" s="112">
+        <v>0.75</v>
+      </c>
+      <c r="X14" s="112">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="89">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="89">
+        <v>2012</v>
+      </c>
+      <c r="V16" s="112">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="W16" s="112">
+        <v>0.82</v>
+      </c>
+      <c r="X16" s="112">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="89">
+        <v>2013</v>
+      </c>
+      <c r="V17" s="112">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="W17" s="112">
+        <v>0.86</v>
+      </c>
+      <c r="X17" s="112">
         <v>0.9</v>
       </c>
-      <c r="M2" s="79">
-        <v>100</v>
-      </c>
-      <c r="N2" s="79">
-        <v>45</v>
-      </c>
-      <c r="O2" s="79">
-        <v>75</v>
-      </c>
-      <c r="P2" s="81">
-        <v>100</v>
-      </c>
-      <c r="Q2" s="80">
-        <v>45</v>
-      </c>
-      <c r="R2" s="82">
-        <v>75</v>
-      </c>
-      <c r="S2" s="42">
-        <v>0</v>
-      </c>
-      <c r="T2" s="52">
-        <v>0</v>
-      </c>
-      <c r="U2" s="53">
-        <v>0</v>
-      </c>
-      <c r="V2" s="42">
-        <v>0</v>
-      </c>
-      <c r="W2" s="52">
-        <v>0</v>
-      </c>
-      <c r="X2" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="93">
-        <v>2010</v>
-      </c>
-      <c r="B3" s="62">
-        <v>0.03</v>
-      </c>
-      <c r="C3" s="58">
-        <v>1</v>
-      </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="69"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="93">
+    </row>
+    <row r="18" spans="1:24" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="89">
+        <v>2014</v>
+      </c>
+      <c r="V18" s="112">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="W18" s="112">
+        <v>0.89</v>
+      </c>
+      <c r="X18" s="112">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="89">
+        <v>2015</v>
+      </c>
+      <c r="V19" s="112">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="W19" s="112">
+        <v>0.92</v>
+      </c>
+      <c r="X19" s="112">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="89">
         <v>2016</v>
       </c>
-      <c r="B4" s="62">
-        <v>0.06</v>
-      </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="69"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="93">
+      <c r="V20" s="112">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="W20" s="112">
+        <v>0.95</v>
+      </c>
+      <c r="X20" s="112">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="89">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="89">
         <v>2018</v>
       </c>
-      <c r="B5" s="78">
-        <v>0.18</v>
-      </c>
-      <c r="C5" s="58">
-        <v>1</v>
-      </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="70"/>
-      <c r="X5" s="69"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="93">
-        <v>2023</v>
-      </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="69"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="93">
-        <v>2030</v>
-      </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="58">
-        <v>1</v>
-      </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="70"/>
-      <c r="X7" s="69"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="93">
-        <v>2040</v>
-      </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="59">
-        <v>1</v>
-      </c>
-      <c r="D8" s="54">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E8" s="55">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F8" s="56">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G8" s="66">
-        <f>$G$2</f>
-        <v>0.42</v>
-      </c>
-      <c r="H8" s="65">
-        <f>0.3*G8</f>
-        <v>0.126</v>
-      </c>
-      <c r="I8" s="68">
-        <f t="shared" ref="I8" si="0">G8</f>
-        <v>0.42</v>
-      </c>
-      <c r="J8" s="43">
-        <v>0.69</v>
-      </c>
-      <c r="K8" s="40">
-        <v>0.69</v>
-      </c>
-      <c r="L8" s="40">
-        <v>0.9</v>
-      </c>
-      <c r="M8" s="79">
-        <v>100</v>
-      </c>
-      <c r="N8" s="79">
-        <v>45</v>
-      </c>
-      <c r="O8" s="79">
-        <v>75</v>
-      </c>
-      <c r="P8" s="81">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="80">
-        <v>45</v>
-      </c>
-      <c r="R8" s="82">
-        <v>75</v>
-      </c>
-      <c r="S8" s="54">
-        <v>0</v>
-      </c>
-      <c r="T8" s="55">
-        <v>0</v>
-      </c>
-      <c r="U8" s="56">
-        <v>0</v>
-      </c>
-      <c r="V8" s="54">
-        <v>0</v>
-      </c>
-      <c r="W8" s="55">
-        <v>0</v>
-      </c>
-      <c r="X8" s="56">
-        <v>0</v>
+    </row>
+    <row r="23" spans="1:24" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="89">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="89">
+        <v>2020</v>
       </c>
     </row>
   </sheetData>
@@ -5159,876 +4796,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V24"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E29" sqref="E29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="93" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="93" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="93" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="93" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="93" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="93" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.85546875" style="93" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51" style="93" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.5703125" style="93" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.85546875" style="93" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.42578125" style="93" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.7109375" style="93" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35" style="93" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7" style="93" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="93" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.42578125" style="93" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.85546875" style="93" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.5703125" style="93" customWidth="1"/>
-    <col min="20" max="20" width="20.85546875" style="93" customWidth="1"/>
-    <col min="21" max="21" width="17.5703125" style="93" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.42578125" style="93" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="93"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="U1" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="V1" s="16"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>2007</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="39">
-        <f>G2*7.2/100</f>
-        <v>3075.4079999999999</v>
-      </c>
-      <c r="D2" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="E2" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="F2" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="G2" s="37">
-        <v>42714</v>
-      </c>
-      <c r="H2" s="88">
-        <v>2.3287671232876714E-2</v>
-      </c>
-      <c r="I2" s="88">
-        <v>3.4931506849315071E-2</v>
-      </c>
-      <c r="J2" s="39">
-        <f>G2-K2</f>
-        <v>39638.591999999997</v>
-      </c>
-      <c r="K2" s="39">
-        <f>C2</f>
-        <v>3075.4079999999999</v>
-      </c>
-      <c r="L2" s="72">
-        <f t="shared" ref="L2:M2" si="0">ROUND(H2*J2,0)</f>
-        <v>923</v>
-      </c>
-      <c r="M2" s="72">
-        <f t="shared" si="0"/>
-        <v>107</v>
-      </c>
-      <c r="N2" s="13">
-        <v>1007</v>
-      </c>
-      <c r="O2" s="76">
-        <v>0.81</v>
-      </c>
-      <c r="P2" s="76">
-        <v>0.82</v>
-      </c>
-      <c r="Q2" s="77">
-        <f>N2*O2*P2</f>
-        <v>668.84940000000006</v>
-      </c>
-      <c r="R2" s="73">
-        <v>0.17</v>
-      </c>
-      <c r="S2" s="75">
-        <f>Q2-T2</f>
-        <v>555.14500200000009</v>
-      </c>
-      <c r="T2" s="75">
-        <f>Q2*R2</f>
-        <v>113.70439800000001</v>
-      </c>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
-        <v>2008</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="39">
-        <f t="shared" ref="C3:C12" si="1">G3*7.2/100</f>
-        <v>3229.1784000000002</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="39">
-        <f>1.05*G2</f>
-        <v>44849.700000000004</v>
-      </c>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="39">
-        <f t="shared" ref="J3:J12" si="2">G3-K3</f>
-        <v>41620.521600000007</v>
-      </c>
-      <c r="K3" s="39">
-        <f t="shared" ref="K3:K12" si="3">C3</f>
-        <v>3229.1784000000002</v>
-      </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="13">
-        <v>922</v>
-      </c>
-      <c r="O3" s="76">
-        <v>0.81</v>
-      </c>
-      <c r="P3" s="76">
-        <v>0.82</v>
-      </c>
-      <c r="Q3" s="77">
-        <f t="shared" ref="Q3:Q11" si="4">N3*O3*P3</f>
-        <v>612.39239999999995</v>
-      </c>
-      <c r="R3" s="73">
-        <v>0.17</v>
-      </c>
-      <c r="S3" s="75">
-        <f t="shared" ref="S3:S11" si="5">Q3-T3</f>
-        <v>508.28569199999993</v>
-      </c>
-      <c r="T3" s="75">
-        <f t="shared" ref="T3:T11" si="6">Q3*R3</f>
-        <v>104.106708</v>
-      </c>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
-        <v>2009</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="39">
-        <f t="shared" si="1"/>
-        <v>3390.6373200000003</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="39">
-        <f t="shared" ref="G4:G11" si="7">1.05*G3</f>
-        <v>47092.185000000005</v>
-      </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="39">
-        <f t="shared" si="2"/>
-        <v>43701.547680000003</v>
-      </c>
-      <c r="K4" s="39">
-        <f t="shared" si="3"/>
-        <v>3390.6373200000003</v>
-      </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="13">
-        <v>1480</v>
-      </c>
-      <c r="O4" s="76">
-        <v>0.81</v>
-      </c>
-      <c r="P4" s="76">
-        <v>0.82</v>
-      </c>
-      <c r="Q4" s="77">
-        <f t="shared" si="4"/>
-        <v>983.01600000000008</v>
-      </c>
-      <c r="R4" s="73">
-        <v>0.17</v>
-      </c>
-      <c r="S4" s="75">
-        <f t="shared" si="5"/>
-        <v>815.90328</v>
-      </c>
-      <c r="T4" s="75">
-        <f t="shared" si="6"/>
-        <v>167.11272000000002</v>
-      </c>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
-        <v>2010</v>
-      </c>
-      <c r="B5" s="13">
-        <v>178</v>
-      </c>
-      <c r="C5" s="39">
-        <f t="shared" si="1"/>
-        <v>3560.1691860000005</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="G5" s="39">
-        <f t="shared" si="7"/>
-        <v>49446.794250000006</v>
-      </c>
-      <c r="H5" s="88">
-        <v>4.0273972602739724E-2</v>
-      </c>
-      <c r="I5" s="88">
-        <v>4.3150684931506846E-2</v>
-      </c>
-      <c r="J5" s="39">
-        <f t="shared" si="2"/>
-        <v>45886.625064000007</v>
-      </c>
-      <c r="K5" s="39">
-        <f t="shared" si="3"/>
-        <v>3560.1691860000005</v>
-      </c>
-      <c r="L5" s="71">
-        <f t="shared" ref="L5:M11" si="8">ROUND(H5*J5,0)</f>
-        <v>1848</v>
-      </c>
-      <c r="M5" s="71">
-        <f t="shared" si="8"/>
-        <v>154</v>
-      </c>
-      <c r="N5" s="13">
-        <v>1758</v>
-      </c>
-      <c r="O5" s="76">
-        <v>0.81</v>
-      </c>
-      <c r="P5" s="76">
-        <v>0.82</v>
-      </c>
-      <c r="Q5" s="77">
-        <f t="shared" si="4"/>
-        <v>1167.6635999999999</v>
-      </c>
-      <c r="R5" s="73">
-        <v>0.17</v>
-      </c>
-      <c r="S5" s="75">
-        <f t="shared" si="5"/>
-        <v>969.16078799999991</v>
-      </c>
-      <c r="T5" s="75">
-        <f t="shared" si="6"/>
-        <v>198.50281199999998</v>
-      </c>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
-        <v>2011</v>
-      </c>
-      <c r="B6" s="13">
-        <v>218</v>
-      </c>
-      <c r="C6" s="39">
-        <f t="shared" si="1"/>
-        <v>3738.1776453000011</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="39">
-        <f t="shared" si="7"/>
-        <v>51919.133962500011</v>
-      </c>
-      <c r="H6" s="88">
-        <v>3.7534246575342468E-2</v>
-      </c>
-      <c r="I6" s="88">
-        <v>4.726027397260274E-2</v>
-      </c>
-      <c r="J6" s="39">
-        <f t="shared" si="2"/>
-        <v>48180.956317200013</v>
-      </c>
-      <c r="K6" s="39">
-        <f t="shared" si="3"/>
-        <v>3738.1776453000011</v>
-      </c>
-      <c r="L6" s="71">
-        <f t="shared" si="8"/>
-        <v>1808</v>
-      </c>
-      <c r="M6" s="71">
-        <f t="shared" si="8"/>
-        <v>177</v>
-      </c>
-      <c r="N6" s="13">
-        <v>1863</v>
-      </c>
-      <c r="O6" s="76">
-        <v>0.81</v>
-      </c>
-      <c r="P6" s="76">
-        <v>0.82</v>
-      </c>
-      <c r="Q6" s="77">
-        <f t="shared" si="4"/>
-        <v>1237.4046000000001</v>
-      </c>
-      <c r="R6" s="73">
-        <v>0.17</v>
-      </c>
-      <c r="S6" s="75">
-        <f t="shared" si="5"/>
-        <v>1027.0458180000001</v>
-      </c>
-      <c r="T6" s="75">
-        <f t="shared" si="6"/>
-        <v>210.35878200000002</v>
-      </c>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>2012</v>
-      </c>
-      <c r="B7" s="13">
-        <v>200</v>
-      </c>
-      <c r="C7" s="39">
-        <f t="shared" si="1"/>
-        <v>3925.0865275650012</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0.82</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0.88</v>
-      </c>
-      <c r="G7" s="39">
-        <f t="shared" si="7"/>
-        <v>54515.090660625014</v>
-      </c>
-      <c r="H7" s="88">
-        <v>4.876712328767123E-2</v>
-      </c>
-      <c r="I7" s="88">
-        <v>5.3835616438356167E-2</v>
-      </c>
-      <c r="J7" s="39">
-        <f t="shared" si="2"/>
-        <v>50590.004133060014</v>
-      </c>
-      <c r="K7" s="39">
-        <f t="shared" si="3"/>
-        <v>3925.0865275650012</v>
-      </c>
-      <c r="L7" s="71">
-        <f t="shared" si="8"/>
-        <v>2467</v>
-      </c>
-      <c r="M7" s="71">
-        <f t="shared" si="8"/>
-        <v>211</v>
-      </c>
-      <c r="N7" s="13">
-        <v>2436</v>
-      </c>
-      <c r="O7" s="76">
-        <v>0.81</v>
-      </c>
-      <c r="P7" s="76">
-        <v>0.82</v>
-      </c>
-      <c r="Q7" s="77">
-        <f t="shared" si="4"/>
-        <v>1617.9911999999999</v>
-      </c>
-      <c r="R7" s="73">
-        <v>0.17</v>
-      </c>
-      <c r="S7" s="75">
-        <f t="shared" si="5"/>
-        <v>1342.9326959999999</v>
-      </c>
-      <c r="T7" s="75">
-        <f t="shared" si="6"/>
-        <v>275.05850400000003</v>
-      </c>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
-        <v>2013</v>
-      </c>
-      <c r="B8" s="13">
-        <v>218</v>
-      </c>
-      <c r="C8" s="39">
-        <f t="shared" si="1"/>
-        <v>4121.3408539432512</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="E8" s="38">
-        <v>0.86</v>
-      </c>
-      <c r="F8" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="G8" s="39">
-        <f t="shared" si="7"/>
-        <v>57240.845193656263</v>
-      </c>
-      <c r="H8" s="88">
-        <v>5.2876712328767124E-2</v>
-      </c>
-      <c r="I8" s="88">
-        <v>6.2671232876712321E-2</v>
-      </c>
-      <c r="J8" s="39">
-        <f t="shared" si="2"/>
-        <v>53119.504339713014</v>
-      </c>
-      <c r="K8" s="39">
-        <f t="shared" si="3"/>
-        <v>4121.3408539432512</v>
-      </c>
-      <c r="L8" s="71">
-        <f t="shared" si="8"/>
-        <v>2809</v>
-      </c>
-      <c r="M8" s="71">
-        <f t="shared" si="8"/>
-        <v>258</v>
-      </c>
-      <c r="N8" s="13">
-        <v>2981</v>
-      </c>
-      <c r="O8" s="76">
-        <v>0.81</v>
-      </c>
-      <c r="P8" s="76">
-        <v>0.82</v>
-      </c>
-      <c r="Q8" s="77">
-        <f t="shared" si="4"/>
-        <v>1979.9802</v>
-      </c>
-      <c r="R8" s="73">
-        <v>0.17</v>
-      </c>
-      <c r="S8" s="75">
-        <f t="shared" si="5"/>
-        <v>1643.383566</v>
-      </c>
-      <c r="T8" s="75">
-        <f t="shared" si="6"/>
-        <v>336.59663399999999</v>
-      </c>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>2014</v>
-      </c>
-      <c r="B9" s="13">
-        <v>219</v>
-      </c>
-      <c r="C9" s="39">
-        <f t="shared" si="1"/>
-        <v>4327.407896640414</v>
-      </c>
-      <c r="D9" s="13">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="E9" s="38">
-        <v>0.89</v>
-      </c>
-      <c r="F9" s="38">
-        <v>0.9</v>
-      </c>
-      <c r="G9" s="39">
-        <f t="shared" si="7"/>
-        <v>60102.887453339077</v>
-      </c>
-      <c r="H9" s="88">
-        <v>5.1506849315068493E-2</v>
-      </c>
-      <c r="I9" s="88">
-        <v>5.321917808219178E-2</v>
-      </c>
-      <c r="J9" s="39">
-        <f t="shared" si="2"/>
-        <v>55775.479556698665</v>
-      </c>
-      <c r="K9" s="39">
-        <f t="shared" si="3"/>
-        <v>4327.407896640414</v>
-      </c>
-      <c r="L9" s="71">
-        <f t="shared" si="8"/>
-        <v>2873</v>
-      </c>
-      <c r="M9" s="71">
-        <f t="shared" si="8"/>
-        <v>230</v>
-      </c>
-      <c r="N9" s="13">
-        <v>3273</v>
-      </c>
-      <c r="O9" s="76">
-        <v>0.81</v>
-      </c>
-      <c r="P9" s="76">
-        <v>0.82</v>
-      </c>
-      <c r="Q9" s="77">
-        <f t="shared" si="4"/>
-        <v>2173.9265999999998</v>
-      </c>
-      <c r="R9" s="73">
-        <v>0.17</v>
-      </c>
-      <c r="S9" s="75">
-        <f t="shared" si="5"/>
-        <v>1804.3590779999997</v>
-      </c>
-      <c r="T9" s="75">
-        <f t="shared" si="6"/>
-        <v>369.567522</v>
-      </c>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B10" s="13">
-        <v>206</v>
-      </c>
-      <c r="C10" s="39">
-        <f t="shared" si="1"/>
-        <v>4543.7782914724339</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0.92</v>
-      </c>
-      <c r="F10" s="13">
-        <v>0.92</v>
-      </c>
-      <c r="G10" s="39">
-        <f t="shared" si="7"/>
-        <v>63108.03182600603</v>
-      </c>
-      <c r="H10" s="88">
-        <v>6.6575342465753418E-2</v>
-      </c>
-      <c r="I10" s="88">
-        <v>6.7191780821917804E-2</v>
-      </c>
-      <c r="J10" s="39">
-        <f t="shared" si="2"/>
-        <v>58564.253534533593</v>
-      </c>
-      <c r="K10" s="39">
-        <f t="shared" si="3"/>
-        <v>4543.7782914724339</v>
-      </c>
-      <c r="L10" s="71">
-        <f t="shared" si="8"/>
-        <v>3899</v>
-      </c>
-      <c r="M10" s="71">
-        <f t="shared" si="8"/>
-        <v>305</v>
-      </c>
-      <c r="N10" s="13">
-        <v>4864</v>
-      </c>
-      <c r="O10" s="76">
-        <v>0.81</v>
-      </c>
-      <c r="P10" s="76">
-        <v>0.82</v>
-      </c>
-      <c r="Q10" s="77">
-        <f t="shared" si="4"/>
-        <v>3230.6687999999999</v>
-      </c>
-      <c r="R10" s="74">
-        <v>0.17</v>
-      </c>
-      <c r="S10" s="75">
-        <f t="shared" si="5"/>
-        <v>2681.4551039999997</v>
-      </c>
-      <c r="T10" s="75">
-        <f t="shared" si="6"/>
-        <v>549.21369600000003</v>
-      </c>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B11" s="13">
-        <v>233</v>
-      </c>
-      <c r="C11" s="39">
-        <f t="shared" si="1"/>
-        <v>4770.9672060460571</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="E11" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0.94</v>
-      </c>
-      <c r="G11" s="39">
-        <f t="shared" si="7"/>
-        <v>66263.43341730634</v>
-      </c>
-      <c r="H11" s="88">
-        <v>6.3287671232876708E-2</v>
-      </c>
-      <c r="I11" s="88">
-        <v>6.9246575342465755E-2</v>
-      </c>
-      <c r="J11" s="39">
-        <f>G11-K11</f>
-        <v>61492.466211260282</v>
-      </c>
-      <c r="K11" s="39">
-        <f t="shared" si="3"/>
-        <v>4770.9672060460571</v>
-      </c>
-      <c r="L11" s="71">
-        <f t="shared" si="8"/>
-        <v>3892</v>
-      </c>
-      <c r="M11" s="71">
-        <f t="shared" si="8"/>
-        <v>330</v>
-      </c>
-      <c r="N11" s="13">
-        <v>6263</v>
-      </c>
-      <c r="O11" s="76">
-        <v>0.81</v>
-      </c>
-      <c r="P11" s="76">
-        <v>0.82</v>
-      </c>
-      <c r="Q11" s="77">
-        <f t="shared" si="4"/>
-        <v>4159.8846000000003</v>
-      </c>
-      <c r="R11" s="74">
-        <v>0.13</v>
-      </c>
-      <c r="S11" s="75">
-        <f t="shared" si="5"/>
-        <v>3619.0996020000002</v>
-      </c>
-      <c r="T11" s="75">
-        <f t="shared" si="6"/>
-        <v>540.78499800000009</v>
-      </c>
-      <c r="U11" s="91">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B12" s="13">
-        <v>194</v>
-      </c>
-      <c r="C12" s="39">
-        <f t="shared" si="1"/>
-        <v>5009.5155663483602</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="39">
-        <f>1.05*G11</f>
-        <v>69576.605088171666</v>
-      </c>
-      <c r="J12" s="39">
-        <f t="shared" si="2"/>
-        <v>64567.089521823305</v>
-      </c>
-      <c r="K12" s="39">
-        <f t="shared" si="3"/>
-        <v>5009.5155663483602</v>
-      </c>
-      <c r="L12" s="15"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="21"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="J14" s="87"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-      <c r="J15" s="87"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G24" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -6038,336 +4805,325 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" style="89" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="89" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" style="89" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.85546875" style="89" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.140625" style="89" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="93" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="93">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="89" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="89">
         <v>6925</v>
       </c>
-      <c r="C3" s="93">
+      <c r="C3" s="89">
         <v>5115</v>
       </c>
-      <c r="D3" s="93">
+      <c r="D3" s="89">
         <v>431</v>
       </c>
-      <c r="E3" s="93">
+      <c r="E3" s="89">
         <v>1379</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="93">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="89">
         <v>100</v>
       </c>
-      <c r="C4" s="93">
+      <c r="C4" s="89">
         <v>91.21</v>
       </c>
-      <c r="D4" s="93">
+      <c r="D4" s="89">
         <v>7.69</v>
       </c>
-      <c r="E4" s="93">
+      <c r="E4" s="89">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="93" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="93">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="89">
         <v>1.59</v>
       </c>
-      <c r="C5" s="93">
+      <c r="C5" s="89">
         <v>1.48</v>
       </c>
-      <c r="D5" s="93">
+      <c r="D5" s="89">
         <v>2.42</v>
       </c>
-      <c r="E5" s="93">
+      <c r="E5" s="89">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="93" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="93">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="89">
         <v>3.21</v>
       </c>
-      <c r="C6" s="93">
+      <c r="C6" s="89">
         <v>0</v>
       </c>
-      <c r="D6" s="93">
+      <c r="D6" s="89">
         <v>19.559999999999999</v>
       </c>
-      <c r="E6" s="93">
+      <c r="E6" s="89">
         <v>25.18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="93" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="93">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="89">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C7" s="93">
+      <c r="C7" s="89">
         <v>0</v>
       </c>
-      <c r="D7" s="93">
+      <c r="D7" s="89">
         <v>47.38</v>
       </c>
-      <c r="E7" s="93">
+      <c r="E7" s="89">
         <v>100.82</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="93"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-    </row>
-    <row r="9" spans="1:5" s="98" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12">
+    <row r="9" spans="1:5" s="91" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="89" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="89" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="89">
         <v>2074</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="89">
         <v>1330</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="89">
         <v>476</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="89">
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="89">
         <v>100</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="89">
         <v>64.13</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="89">
         <v>22.95</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="89">
         <v>12.92</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="89">
         <v>4.55</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="89">
         <v>4.1900000000000004</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="89">
         <v>4.71</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="89">
         <v>5.53</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="89">
         <v>8.61</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="89">
         <v>0</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="89">
         <v>13.18</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="89">
         <v>27.21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="89">
         <v>41.3</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="89">
         <v>0</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="89">
         <v>61.17</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="89">
         <v>154.75</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="98" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21">
+    <row r="18" spans="1:5" s="91" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="89" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="89" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="89">
         <v>1356</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="89">
         <v>1154</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="89">
         <v>156</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="89">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="89">
         <v>100</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="89">
         <v>85.1</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="89">
         <v>11.5</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="89">
         <v>3.4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="89">
         <v>2</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="89">
         <v>1.83</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="89">
         <v>2.68</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="89">
         <v>3.6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="89">
         <v>4.67</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="89">
         <v>0</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="89">
         <v>15.68</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="89">
         <v>27.21</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>118</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="89">
         <v>9.33</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="89">
         <v>0</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="89">
         <v>43.56</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="89">
         <v>98.07</v>
       </c>
     </row>

--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -4319,7 +4319,7 @@
   <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4616,9 +4616,6 @@
       <c r="U4" s="112">
         <v>0</v>
       </c>
-      <c r="Y4" s="112">
-        <v>1</v>
-      </c>
       <c r="Z4" s="112">
         <v>0.5</v>
       </c>

--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="10230" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="pars" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="5" r:id="rId2"/>
     <sheet name="base" sheetId="15" r:id="rId3"/>
-    <sheet name="timepars" sheetId="20" r:id="rId4"/>
-    <sheet name="PrEPX" sheetId="21" r:id="rId5"/>
+    <sheet name="PrEPX" sheetId="21" r:id="rId4"/>
+    <sheet name="timepars" sheetId="20" r:id="rId5"/>
+    <sheet name="scen_1" sheetId="23" r:id="rId6"/>
+    <sheet name="scen_2" sheetId="22" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -1020,7 +1022,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="158">
   <si>
     <t>Waiting list</t>
   </si>
@@ -1488,6 +1490,12 @@
   </si>
   <si>
     <t>test_wait</t>
+  </si>
+  <si>
+    <t>relative_foi</t>
+  </si>
+  <si>
+    <t>num_prep</t>
   </si>
 </sst>
 </file>
@@ -2294,7 +2302,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4315,11 +4323,348 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.5703125" style="89" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="89" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" style="89" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.85546875" style="89" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.140625" style="89" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="89"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="89" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="89">
+        <v>6925</v>
+      </c>
+      <c r="C3" s="89">
+        <v>5115</v>
+      </c>
+      <c r="D3" s="89">
+        <v>431</v>
+      </c>
+      <c r="E3" s="89">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="89">
+        <v>100</v>
+      </c>
+      <c r="C4" s="89">
+        <v>91.21</v>
+      </c>
+      <c r="D4" s="89">
+        <v>7.69</v>
+      </c>
+      <c r="E4" s="89">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="89">
+        <v>1.59</v>
+      </c>
+      <c r="C5" s="89">
+        <v>1.48</v>
+      </c>
+      <c r="D5" s="89">
+        <v>2.42</v>
+      </c>
+      <c r="E5" s="89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="89">
+        <v>3.21</v>
+      </c>
+      <c r="C6" s="89">
+        <v>0</v>
+      </c>
+      <c r="D6" s="89">
+        <v>19.559999999999999</v>
+      </c>
+      <c r="E6" s="89">
+        <v>25.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="89">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C7" s="89">
+        <v>0</v>
+      </c>
+      <c r="D7" s="89">
+        <v>47.38</v>
+      </c>
+      <c r="E7" s="89">
+        <v>100.82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="91" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="89" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="89" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="89">
+        <v>2074</v>
+      </c>
+      <c r="C12" s="89">
+        <v>1330</v>
+      </c>
+      <c r="D12" s="89">
+        <v>476</v>
+      </c>
+      <c r="E12" s="89">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="89">
+        <v>100</v>
+      </c>
+      <c r="C13" s="89">
+        <v>64.13</v>
+      </c>
+      <c r="D13" s="89">
+        <v>22.95</v>
+      </c>
+      <c r="E13" s="89">
+        <v>12.92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="89">
+        <v>4.55</v>
+      </c>
+      <c r="C14" s="89">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D14" s="89">
+        <v>4.71</v>
+      </c>
+      <c r="E14" s="89">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="89">
+        <v>8.61</v>
+      </c>
+      <c r="C15" s="89">
+        <v>0</v>
+      </c>
+      <c r="D15" s="89">
+        <v>13.18</v>
+      </c>
+      <c r="E15" s="89">
+        <v>27.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="89">
+        <v>41.3</v>
+      </c>
+      <c r="C16" s="89">
+        <v>0</v>
+      </c>
+      <c r="D16" s="89">
+        <v>61.17</v>
+      </c>
+      <c r="E16" s="89">
+        <v>154.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="91" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="89" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="89" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="89">
+        <v>1356</v>
+      </c>
+      <c r="C21" s="89">
+        <v>1154</v>
+      </c>
+      <c r="D21" s="89">
+        <v>156</v>
+      </c>
+      <c r="E21" s="89">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="89">
+        <v>100</v>
+      </c>
+      <c r="C22" s="89">
+        <v>85.1</v>
+      </c>
+      <c r="D22" s="89">
+        <v>11.5</v>
+      </c>
+      <c r="E22" s="89">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="89">
+        <v>2</v>
+      </c>
+      <c r="C23" s="89">
+        <v>1.83</v>
+      </c>
+      <c r="D23" s="89">
+        <v>2.68</v>
+      </c>
+      <c r="E23" s="89">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="89">
+        <v>4.67</v>
+      </c>
+      <c r="C24" s="89">
+        <v>0</v>
+      </c>
+      <c r="D24" s="89">
+        <v>15.68</v>
+      </c>
+      <c r="E24" s="89">
+        <v>27.21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="89">
+        <v>9.33</v>
+      </c>
+      <c r="C25" s="89">
+        <v>0</v>
+      </c>
+      <c r="D25" s="89">
+        <v>43.56</v>
+      </c>
+      <c r="E25" s="89">
+        <v>98.07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4349,9 +4694,14 @@
     <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="18" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>146</v>
       </c>
@@ -4433,8 +4783,23 @@
       <c r="AA1" s="89" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>147</v>
       </c>
@@ -4492,8 +4857,17 @@
       <c r="U2" s="89" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC2" s="89" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD2" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE2" s="89" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -4549,7 +4923,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2000</v>
       </c>
@@ -4616,44 +4990,62 @@
       <c r="U4" s="112">
         <v>0</v>
       </c>
+      <c r="Y4" s="112">
+        <v>1</v>
+      </c>
       <c r="Z4" s="112">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="112">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" s="112" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.04</v>
+      </c>
+      <c r="AB4" s="112">
+        <v>0.7</v>
+      </c>
+      <c r="AC4" s="112">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="112">
+        <v>10</v>
+      </c>
+      <c r="AE4" s="112">
+        <v>0.05</v>
+      </c>
+      <c r="AF4" s="112">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2001</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="89">
         <v>2002</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="89">
         <v>2003</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="89">
         <v>2004</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="89">
         <v>2005</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="89">
         <v>2006</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="89">
         <v>2007</v>
       </c>
@@ -4667,17 +5059,17 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="89">
         <v>2008</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="89">
         <v>2009</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="89">
         <v>2010</v>
       </c>
@@ -4691,12 +5083,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="89">
         <v>2011</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="89">
         <v>2012</v>
       </c>
@@ -4792,336 +5184,482 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A16"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" style="89" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="89" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.42578125" style="89" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.85546875" style="89" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.140625" style="89" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="89"/>
+    <col min="1" max="1" width="9" style="89" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="89" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="89" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="89" t="s">
+        <v>147</v>
+      </c>
       <c r="B2" s="89" t="s">
-        <v>97</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="89" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="89">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="112">
+        <v>0.05</v>
+      </c>
+      <c r="C4" s="112">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="89">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="89">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="89">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="89">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="89">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="89">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="89">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="89">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="89">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="89">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="89">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="89">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="89">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="89">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="112">
+        <v>0.05</v>
+      </c>
+      <c r="C18" s="112">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="89">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="112">
+        <v>1</v>
+      </c>
+      <c r="C19" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="89">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="89">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="89">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="89">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="89">
+        <v>2020</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="89" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="89" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="89" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="89" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="89" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="89" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="89" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="89" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="89" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="89" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="89"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="89" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="89" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>131</v>
       </c>
       <c r="C2" s="89" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="D2" s="89" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="E2" s="89" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="F2" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="J2" s="89" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="89" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="89">
-        <v>6925</v>
-      </c>
-      <c r="C3" s="89">
-        <v>5115</v>
-      </c>
-      <c r="D3" s="89">
-        <v>431</v>
-      </c>
-      <c r="E3" s="89">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="89">
-        <v>100</v>
-      </c>
-      <c r="C4" s="89">
-        <v>91.21</v>
-      </c>
-      <c r="D4" s="89">
-        <v>7.69</v>
-      </c>
-      <c r="E4" s="89">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="89" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="89">
-        <v>1.59</v>
-      </c>
-      <c r="C5" s="89">
-        <v>1.48</v>
-      </c>
-      <c r="D5" s="89">
-        <v>2.42</v>
-      </c>
-      <c r="E5" s="89">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="89" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="89">
-        <v>3.21</v>
-      </c>
-      <c r="C6" s="89">
-        <v>0</v>
-      </c>
-      <c r="D6" s="89">
-        <v>19.559999999999999</v>
-      </c>
-      <c r="E6" s="89">
-        <v>25.18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="89">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C7" s="89">
-        <v>0</v>
-      </c>
-      <c r="D7" s="89">
-        <v>47.38</v>
-      </c>
-      <c r="E7" s="89">
-        <v>100.82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="91" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="89" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="89" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="89" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="89" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="89" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="89">
-        <v>2074</v>
-      </c>
-      <c r="C12" s="89">
-        <v>1330</v>
-      </c>
-      <c r="D12" s="89">
-        <v>476</v>
-      </c>
-      <c r="E12" s="89">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="89" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="89">
-        <v>100</v>
-      </c>
-      <c r="C13" s="89">
-        <v>64.13</v>
-      </c>
-      <c r="D13" s="89">
-        <v>22.95</v>
-      </c>
-      <c r="E13" s="89">
-        <v>12.92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="89" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="89">
-        <v>4.55</v>
-      </c>
-      <c r="C14" s="89">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="D14" s="89">
-        <v>4.71</v>
-      </c>
-      <c r="E14" s="89">
-        <v>5.53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="89" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="89">
-        <v>8.61</v>
-      </c>
-      <c r="C15" s="89">
-        <v>0</v>
-      </c>
-      <c r="D15" s="89">
-        <v>13.18</v>
-      </c>
-      <c r="E15" s="89">
-        <v>27.21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="89" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="89">
-        <v>41.3</v>
-      </c>
-      <c r="C16" s="89">
-        <v>0</v>
-      </c>
-      <c r="D16" s="89">
-        <v>61.17</v>
-      </c>
-      <c r="E16" s="89">
-        <v>154.75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="91" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="89" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="89" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="89" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="89" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="89">
-        <v>1356</v>
-      </c>
-      <c r="C21" s="89">
-        <v>1154</v>
-      </c>
-      <c r="D21" s="89">
-        <v>156</v>
-      </c>
-      <c r="E21" s="89">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="89" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="89">
-        <v>100</v>
-      </c>
-      <c r="C22" s="89">
-        <v>85.1</v>
-      </c>
-      <c r="D22" s="89">
-        <v>11.5</v>
-      </c>
-      <c r="E22" s="89">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="89" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="89">
+        <v>148</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" s="89" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="89">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="112">
+        <v>1</v>
+      </c>
+      <c r="C4" s="112">
+        <v>3</v>
+      </c>
+      <c r="D4" s="112">
+        <v>10</v>
+      </c>
+      <c r="E4" s="112">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="112">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="112">
+        <v>5</v>
+      </c>
+      <c r="H4" s="112">
+        <f>3/12</f>
+        <v>0.25</v>
+      </c>
+      <c r="I4" s="112">
+        <f>3/12</f>
+        <v>0.25</v>
+      </c>
+      <c r="J4" s="112">
+        <f>3/12</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="89">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="89">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="89">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="89">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="89">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="89">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="89">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="89">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="89">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="89">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="89">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="89">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="89">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="89">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="112">
+        <v>1</v>
+      </c>
+      <c r="C18" s="112">
+        <v>3</v>
+      </c>
+      <c r="D18" s="112">
+        <v>10</v>
+      </c>
+      <c r="E18" s="112">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="112">
+        <v>1.5</v>
+      </c>
+      <c r="G18" s="112">
+        <v>5</v>
+      </c>
+      <c r="H18" s="112">
+        <f>3/12</f>
+        <v>0.25</v>
+      </c>
+      <c r="I18" s="112">
+        <f>3/12</f>
+        <v>0.25</v>
+      </c>
+      <c r="J18" s="112">
+        <f>3/12</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="89">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="112">
         <v>2</v>
       </c>
-      <c r="C23" s="89">
-        <v>1.83</v>
-      </c>
-      <c r="D23" s="89">
-        <v>2.68</v>
-      </c>
-      <c r="E23" s="89">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="89" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="89">
-        <v>4.67</v>
-      </c>
-      <c r="C24" s="89">
-        <v>0</v>
-      </c>
-      <c r="D24" s="89">
-        <v>15.68</v>
-      </c>
-      <c r="E24" s="89">
-        <v>27.21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="89" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="89">
-        <v>9.33</v>
-      </c>
-      <c r="C25" s="89">
-        <v>0</v>
-      </c>
-      <c r="D25" s="89">
-        <v>43.56</v>
-      </c>
-      <c r="E25" s="89">
-        <v>98.07</v>
+      <c r="C19" s="112">
+        <v>6</v>
+      </c>
+      <c r="D19" s="112">
+        <v>20</v>
+      </c>
+      <c r="E19" s="112">
+        <v>1</v>
+      </c>
+      <c r="F19" s="112">
+        <v>3</v>
+      </c>
+      <c r="G19" s="112">
+        <v>10</v>
+      </c>
+      <c r="H19" s="112">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="112">
+        <v>0.5</v>
+      </c>
+      <c r="J19" s="112">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="89">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="89">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="89">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="89">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="89">
+        <v>2020</v>
       </c>
     </row>
   </sheetData>

--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="pars" sheetId="1" r:id="rId1"/>
@@ -1022,7 +1022,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="160">
   <si>
     <t>Waiting list</t>
   </si>
@@ -1216,9 +1216,6 @@
     <t>r_diag_HIV</t>
   </si>
   <si>
-    <t>f_infect_HIV</t>
-  </si>
-  <si>
     <t>%male</t>
   </si>
   <si>
@@ -1435,9 +1432,6 @@
     <t>mid_infection</t>
   </si>
   <si>
-    <t>Inf</t>
-  </si>
-  <si>
     <t>condom_usage</t>
   </si>
   <si>
@@ -1496,6 +1490,18 @@
   </si>
   <si>
     <t>num_prep</t>
+  </si>
+  <si>
+    <t>eff_condom_NA</t>
+  </si>
+  <si>
+    <t>f_infect_HIV_NA</t>
+  </si>
+  <si>
+    <t>People living with HIV in 2007</t>
+  </si>
+  <si>
+    <t>init_PLHIV_NA</t>
   </si>
 </sst>
 </file>
@@ -2299,10 +2305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2343,7 +2349,7 @@
         <v>45</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2364,7 +2370,7 @@
       </c>
       <c r="L2" s="103"/>
       <c r="M2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2372,7 +2378,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="C3" s="34">
         <v>0.06</v>
@@ -2384,7 +2390,7 @@
       </c>
       <c r="L3" s="105"/>
       <c r="M3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2407,7 +2413,7 @@
       </c>
       <c r="L4" s="100"/>
       <c r="M4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2430,7 +2436,7 @@
       </c>
       <c r="L5" s="28"/>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2460,12 +2466,12 @@
       </c>
       <c r="L6" s="111"/>
       <c r="M6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>22</v>
@@ -2654,7 +2660,7 @@
         <v>38</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="C16" s="101">
         <v>0.8</v>
@@ -2689,10 +2695,10 @@
     </row>
     <row r="18" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" s="29">
         <v>0.4</v>
@@ -2708,10 +2714,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="C19" s="29">
         <v>0.4</v>
@@ -2727,7 +2733,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>44</v>
@@ -2740,10 +2746,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="106">
         <f>6.2</f>
@@ -2760,10 +2766,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="29">
         <v>7</v>
@@ -2836,10 +2842,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="108">
         <v>0.45</v>
@@ -2855,10 +2861,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" s="32">
         <v>1</v>
@@ -2874,10 +2880,10 @@
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C28" s="104">
         <f>1-C26</f>
@@ -2894,10 +2900,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C29" s="102">
         <v>0.5</v>
@@ -2911,45 +2917,43 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2007</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="102">
+        <v>3075</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C31" s="1">
+      <c r="B32" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="1">
         <v>42714</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="109">
-        <f>C14*(C16-C18)</f>
-        <v>0.16800000000000001</v>
-      </c>
-    </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="7">
-        <f>C19*(1-C14)</f>
-        <v>0.23200000000000004</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="7">
-        <f>B39/B40</f>
-        <v>0.72413793103448265</v>
-      </c>
+      <c r="B40" s="109"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2964,7 +2968,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H16" sqref="H16"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3004,58 +3008,58 @@
         <v>32</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>119</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I1" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="R1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="O1" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="T1" s="11" t="s">
-        <v>116</v>
-      </c>
       <c r="U1" s="86" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V1" s="16"/>
     </row>
@@ -3940,40 +3944,40 @@
         <v>55</v>
       </c>
       <c r="M1" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="O1" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="P1" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="Q1" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="R1" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="R1" s="51" t="s">
-        <v>94</v>
-      </c>
       <c r="S1" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="50" t="s">
+      <c r="U1" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="51" t="s">
+      <c r="V1" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="W1" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="W1" s="50" t="s">
+      <c r="X1" s="51" t="s">
         <v>70</v>
-      </c>
-      <c r="X1" s="51" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -4342,26 +4346,26 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="89" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="89" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="D2" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="E2" s="89" t="s">
         <v>99</v>
-      </c>
-      <c r="E2" s="89" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="89">
         <v>6925</v>
@@ -4378,7 +4382,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="89" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="89">
         <v>100</v>
@@ -4395,7 +4399,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="89" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="89">
         <v>1.59</v>
@@ -4412,7 +4416,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="89">
         <v>3.21</v>
@@ -4429,7 +4433,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="89">
         <v>5.0999999999999996</v>
@@ -4447,26 +4451,26 @@
     <row r="9" spans="1:5" s="91" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="89" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="89" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="D11" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="89" t="s">
+      <c r="E11" s="89" t="s">
         <v>99</v>
-      </c>
-      <c r="E11" s="89" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" s="89">
         <v>2074</v>
@@ -4483,7 +4487,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="89" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="89">
         <v>100</v>
@@ -4500,7 +4504,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="89" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" s="89">
         <v>4.55</v>
@@ -4517,7 +4521,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="89">
         <v>8.61</v>
@@ -4534,7 +4538,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="89">
         <v>41.3</v>
@@ -4552,26 +4556,26 @@
     <row r="18" spans="1:5" s="91" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="89" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="89" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="89" t="s">
+      <c r="D20" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="89" t="s">
+      <c r="E20" s="89" t="s">
         <v>99</v>
-      </c>
-      <c r="E20" s="89" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" s="89">
         <v>1356</v>
@@ -4588,7 +4592,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="89" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" s="89">
         <v>100</v>
@@ -4605,7 +4609,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="89" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" s="89">
         <v>2</v>
@@ -4622,7 +4626,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24" s="89">
         <v>4.67</v>
@@ -4639,7 +4643,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25" s="89">
         <v>9.33</v>
@@ -4663,8 +4667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AF5" sqref="AF5"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4703,224 +4707,224 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C1" s="89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D1" s="89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E1" s="89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F1" s="89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G1" s="89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H1" s="89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I1" s="89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J1" s="89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L1" s="89" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N1" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="O1" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="P1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="R1" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="S1" t="s">
         <v>138</v>
       </c>
-      <c r="N1" s="89" t="s">
+      <c r="T1" s="89" t="s">
         <v>138</v>
       </c>
-      <c r="O1" s="89" t="s">
+      <c r="U1" s="89" t="s">
         <v>138</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>139</v>
       </c>
-      <c r="Q1" s="89" t="s">
+      <c r="W1" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="R1" s="89" t="s">
+      <c r="X1" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="S1" t="s">
-        <v>140</v>
-      </c>
-      <c r="T1" s="89" t="s">
-        <v>140</v>
-      </c>
-      <c r="U1" s="89" t="s">
-        <v>140</v>
-      </c>
-      <c r="V1" t="s">
-        <v>141</v>
-      </c>
-      <c r="W1" s="89" t="s">
-        <v>141</v>
-      </c>
-      <c r="X1" s="89" t="s">
-        <v>141</v>
-      </c>
       <c r="Y1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Z1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AA1" s="89" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AB1" t="s">
         <v>39</v>
       </c>
       <c r="AC1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AD1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AE1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="F2" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="G2" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="I2" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="J2" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="H2" s="89" t="s">
-        <v>133</v>
-      </c>
-      <c r="I2" s="89" t="s">
-        <v>133</v>
-      </c>
-      <c r="J2" s="89" t="s">
-        <v>133</v>
-      </c>
       <c r="M2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N2" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="89" t="s">
+      <c r="O2" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="O2" s="89" t="s">
-        <v>133</v>
-      </c>
       <c r="P2" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="Q2" s="89" t="s">
+      <c r="R2" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="R2" s="89" t="s">
-        <v>133</v>
-      </c>
       <c r="S2" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="T2" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="T2" s="89" t="s">
+      <c r="U2" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="U2" s="89" t="s">
-        <v>133</v>
-      </c>
       <c r="AC2" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD2" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="AD2" s="89" t="s">
+      <c r="AE2" s="89" t="s">
         <v>132</v>
-      </c>
-      <c r="AE2" s="89" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B3" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" t="s">
         <v>134</v>
       </c>
-      <c r="C3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="G3" s="89" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="89" t="s">
-        <v>136</v>
-      </c>
-      <c r="G3" s="89" t="s">
+      <c r="H3" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="89" t="s">
+      <c r="J3" s="89" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="89" t="s">
-        <v>136</v>
-      </c>
-      <c r="J3" s="89" t="s">
-        <v>135</v>
-      </c>
       <c r="K3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="V3" t="s">
+        <v>140</v>
+      </c>
+      <c r="W3" t="s">
+        <v>141</v>
+      </c>
+      <c r="X3" t="s">
         <v>142</v>
       </c>
-      <c r="W3" t="s">
-        <v>143</v>
-      </c>
-      <c r="X3" t="s">
-        <v>144</v>
-      </c>
       <c r="Y3" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z3" s="89" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA3" s="89" t="s">
         <v>142</v>
-      </c>
-      <c r="Z3" s="89" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA3" s="89" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
@@ -4931,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="112">
         <v>10</v>
@@ -4940,10 +4944,10 @@
         <v>0.5</v>
       </c>
       <c r="F4" s="112">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="G4" s="112">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4" s="112">
         <f>3/12</f>
@@ -4957,8 +4961,8 @@
         <f>3/12</f>
         <v>0.25</v>
       </c>
-      <c r="K4" s="112" t="s">
-        <v>137</v>
+      <c r="K4" s="112">
+        <v>1</v>
       </c>
       <c r="L4" s="112">
         <v>2</v>
@@ -5012,7 +5016,7 @@
         <v>0.05</v>
       </c>
       <c r="AF4" s="112">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
@@ -5188,39 +5192,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="89" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="89" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="89"/>
+    <col min="3" max="3" width="11" style="89" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="89"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="89" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C1" s="89" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="89" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="89" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="89" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
@@ -5231,7 +5236,7 @@
         <v>0.05</v>
       </c>
       <c r="C4" s="112">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
@@ -5307,7 +5312,7 @@
         <v>0.05</v>
       </c>
       <c r="C18" s="112">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
@@ -5355,8 +5360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5376,98 +5381,98 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="89" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C1" s="89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D1" s="89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E1" s="89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F1" s="89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G1" s="89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H1" s="89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I1" s="89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J1" s="89" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="89" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="F2" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="G2" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="H2" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="I2" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="J2" s="89" t="s">
         <v>132</v>
-      </c>
-      <c r="H2" s="89" t="s">
-        <v>133</v>
-      </c>
-      <c r="I2" s="89" t="s">
-        <v>133</v>
-      </c>
-      <c r="J2" s="89" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="89" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B3" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="89" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="89" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="89" t="s">
+      <c r="E3" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="G3" s="89" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="89" t="s">
-        <v>136</v>
-      </c>
-      <c r="G3" s="89" t="s">
+      <c r="H3" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="89" t="s">
+      <c r="J3" s="89" t="s">
         <v>134</v>
-      </c>
-      <c r="I3" s="89" t="s">
-        <v>136</v>
-      </c>
-      <c r="J3" s="89" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
@@ -5478,7 +5483,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="112">
         <v>10</v>
@@ -5487,10 +5492,10 @@
         <v>0.5</v>
       </c>
       <c r="F4" s="112">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="G4" s="112">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4" s="112">
         <f>3/12</f>
@@ -5578,7 +5583,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" s="112">
         <v>10</v>
@@ -5587,10 +5592,10 @@
         <v>0.5</v>
       </c>
       <c r="F18" s="112">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="G18" s="112">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H18" s="112">
         <f>3/12</f>
@@ -5613,7 +5618,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="112">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19" s="112">
         <v>20</v>
@@ -5622,10 +5627,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="112">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G19" s="112">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H19" s="112">
         <v>0.5</v>

--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780"/>
   </bookViews>
   <sheets>
-    <sheet name="pars" sheetId="1" r:id="rId1"/>
+    <sheet name="pars" sheetId="24" r:id="rId1"/>
     <sheet name="data" sheetId="5" r:id="rId2"/>
-    <sheet name="base" sheetId="15" r:id="rId3"/>
-    <sheet name="PrEPX" sheetId="21" r:id="rId4"/>
-    <sheet name="timepars" sheetId="20" r:id="rId5"/>
-    <sheet name="scen_1" sheetId="23" r:id="rId6"/>
-    <sheet name="scen_2" sheetId="22" r:id="rId7"/>
+    <sheet name="timepars" sheetId="20" r:id="rId3"/>
+    <sheet name="scen_1" sheetId="23" r:id="rId4"/>
+    <sheet name="scen_2" sheetId="22" r:id="rId5"/>
+    <sheet name="pars_old" sheetId="1" r:id="rId6"/>
+    <sheet name="base_old" sheetId="15" r:id="rId7"/>
+    <sheet name="PrEPX_old" sheetId="21" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -55,10 +56,10 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="1" shapeId="0">
+    <comment ref="C8" authorId="1" shapeId="0">
       <text/>
     </comment>
-    <comment ref="C15" authorId="1" shapeId="0">
+    <comment ref="C11" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,137 +79,35 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Is this used in this particular model? I know this is based on the blinded clinical trials, but I would update. Unless this really needs to be from a blinded RCT, I would consider using this study, and open label extension which compares incidence to the non-PrEP control group in the previous stage of the study.
-relative reduction of 97% (CI 81-100)
-https://www.ncbi.nlm.nih.gov/pubmed/28747274</t>
+I'm guessing this is from GCPS. However I would say that the proportion of "high risk" MSM on PrEP is much higher. We estimate that 30-40% of MSM eligible for PrEP in victoria (high risk) are on PrEP.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+https://www.ncbi.nlm.nih.gov/pubmed/7082980</t>
         </r>
       </text>
     </comment>
     <comment ref="C16" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Tom Tidhar:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>from:</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Condom Effectiveness for HIV Prevention by Consistency
-of Use Among Men Who Have Sex With Men in the
-United States
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Estimated condom effectiveness was 72.3% (95% CI: 60.7% to 80.5%) for receptive anal sex, 62.9% (95% CI: 46.3% to 74.3%) for insertive anal sex, and 70.5% (95% CI: 58.2% to 79.2%) for any receptive or insertive anal sex (Table 3).
-Choosing the upper bound for receptive and insertive anal sex</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C17" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Michael Traeger:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-From Holt et al GCPS paper: Of men not on PrEP - 39% Consistent condom use
-From my PrEPX data during follow-up (at least 6 months of PrEP use): 13% ALWAYS use condoms. (unpublished)
-Depending how you want to define " relative condom use". If just in terms of "consistent condom use", perhaps a factor of 0.3.
-https://www.ncbi.nlm.nih.gov/pubmed/29885813</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C20" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Michael Traeger:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-I'm guessing this is from GCPS. However I would say that the proportion of "high risk" MSM on PrEP is much higher. We estimate that 30-40% of MSM eligible for PrEP in victoria (high risk) are on PrEP.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C21" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-https://www.ncbi.nlm.nih.gov/pubmed/7082980</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -236,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0">
+    <comment ref="C17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -285,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="0" shapeId="0">
+    <comment ref="C18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -879,10 +778,11 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Tom Tidhar</author>
     <author>Michael Traeger</author>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="S16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -892,7 +792,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Michael Traeger:</t>
+          <t>Tom Tidhar:</t>
         </r>
         <r>
           <rPr>
@@ -902,11 +802,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-I will send you data from PrEPX regarding condom use, but consider using factor of 0.3 compared to non-PrEP users</t>
+http://www.natap.org/2018/IAC/IAC_100.htm</t>
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="S17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -916,6 +816,30 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+https://kirby.unsw.edu.au/sites/default/files/kirby/report/SERP_National-BBV%26STI-Surveillance%26Monitoring-Report-2016_UPD170627.pdf</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S20" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Michael Traeger:</t>
         </r>
         <r>
@@ -926,7 +850,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-From 2016 GPCS - I think this should be 6% = 0.06</t>
+Michael Traeger:
+The 88% diagnosed from Kirby reports refers to all PLHIV. 
+For MSM, it is higher at 91.2%.
+See proportion undiagnosed in Kirby report =8.8%
+https://kirby.unsw.edu.au/report/hiv-australia-annual-surveillance-short-report-2018</t>
         </r>
       </text>
     </comment>
@@ -941,7 +869,7 @@
     <author>Michael Traeger</author>
   </authors>
   <commentList>
-    <comment ref="V16" authorId="0" shapeId="0">
+    <comment ref="M4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -961,11 +889,14 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-http://www.natap.org/2018/IAC/IAC_100.htm</t>
+see Table 1 of "Achieving 90-90-90 Human Immunodeficiency Virus (HIV) Targets Will Not Be Enough to Achieve the HIV Incidence Reduction Target in Australia"</t>
         </r>
       </text>
     </comment>
-    <comment ref="V17" authorId="0" shapeId="0">
+    <comment ref="C13" authorId="1" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="C15" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -975,7 +906,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Tom Tidhar:</t>
+          <t>Michael Traeger:</t>
         </r>
         <r>
           <rPr>
@@ -985,11 +916,13 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-https://kirby.unsw.edu.au/sites/default/files/kirby/report/SERP_National-BBV%26STI-Surveillance%26Monitoring-Report-2016_UPD170627.pdf</t>
+Is this used in this particular model? I know this is based on the blinded clinical trials, but I would update. Unless this really needs to be from a blinded RCT, I would consider using this study, and open label extension which compares incidence to the non-PrEP control group in the previous stage of the study.
+relative reduction of 97% (CI 81-100)
+https://www.ncbi.nlm.nih.gov/pubmed/28747274</t>
         </r>
       </text>
     </comment>
-    <comment ref="V20" authorId="1" shapeId="0">
+    <comment ref="C16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -999,6 +932,55 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">Tom Tidhar:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>from:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Condom Effectiveness for HIV Prevention by Consistency
+of Use Among Men Who Have Sex With Men in the
+United States
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Estimated condom effectiveness was 72.3% (95% CI: 60.7% to 80.5%) for receptive anal sex, 62.9% (95% CI: 46.3% to 74.3%) for insertive anal sex, and 70.5% (95% CI: 58.2% to 79.2%) for any receptive or insertive anal sex (Table 3).
+Choosing the upper bound for receptive and insertive anal sex</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Michael Traeger:</t>
         </r>
         <r>
@@ -1009,11 +991,217 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Michael Traeger:
-The 88% diagnosed from Kirby reports refers to all PLHIV. 
-For MSM, it is higher at 91.2%.
-See proportion undiagnosed in Kirby report =8.8%
-https://kirby.unsw.edu.au/report/hiv-australia-annual-surveillance-short-report-2018</t>
+From Holt et al GCPS paper: Of men not on PrEP - 39% Consistent condom use
+From my PrEPX data during follow-up (at least 6 months of PrEP use): 13% ALWAYS use condoms. (unpublished)
+Depending how you want to define " relative condom use". If just in terms of "consistent condom use", perhaps a factor of 0.3.
+https://www.ncbi.nlm.nih.gov/pubmed/29885813</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C20" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Michael Traeger:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+I'm guessing this is from GCPS. However I would say that the proportion of "high risk" MSM on PrEP is much higher. We estimate that 30-40% of MSM eligible for PrEP in victoria (high risk) are on PrEP.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+https://www.ncbi.nlm.nih.gov/pubmed/7082980</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Gay community periodic survey (melbourne) 2016.
+"Over a third
+of men were in a seroconcordant relationship (34.9%), about two in five men were in serodiscordant
+relationships (38.8%) and the remainder (26.3%) reported being in a serononconcordant relationship"
+MT: This is for relationships - not sure if it's reflective of casual partner mixing?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+https://www.ncbi.nlm.nih.gov/pubmed/28257898
+page 556
+or:
+Epidemic Network Modeling for the Prediction of the Transmission of Gonorrhea in Norway
+page 49
+which suggests 45%
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Michael:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> I'd go with the 89. This comes from MSHC and is more relevant for our population. Also what I've referenced in my PrEPX paper</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+made up</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Michael Traeger</author>
+  </authors>
+  <commentList>
+    <comment ref="H2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Michael Traeger:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+I will send you data from PrEPX regarding condom use, but consider using factor of 0.3 compared to non-PrEP users</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Michael Traeger:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+From 2016 GPCS - I think this should be 6% = 0.06</t>
         </r>
       </text>
     </comment>
@@ -1022,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="160">
   <si>
     <t>Waiting list</t>
   </si>
@@ -1632,7 +1820,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1669,8 +1857,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1795,6 +1989,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1815,7 +2120,7 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1985,6 +2290,41 @@
     <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Bad" xfId="15" builtinId="27" customBuiltin="1"/>
@@ -2305,24 +2645,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="89" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="89" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="89" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="89"/>
+    <col min="9" max="9" width="11.5703125" style="89" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.85546875" style="89"/>
+    <col min="12" max="12" width="10.85546875" style="89" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="89" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="89"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2369,591 +2712,418 @@
         <v>0.05</v>
       </c>
       <c r="L2" s="103"/>
-      <c r="M2" t="s">
+      <c r="M2" s="89" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="34">
-        <v>0.06</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="85">
+        <v>4.0741237836483535E-3</v>
+      </c>
+      <c r="D3" s="24">
+        <f>C3-$I$2*C3</f>
+        <v>3.8704175944659358E-3</v>
+      </c>
+      <c r="E3" s="24">
+        <f>C3+$I$2*C3</f>
+        <v>4.2778299728307712E-3</v>
+      </c>
+      <c r="G3" s="89" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="105"/>
-      <c r="M3" t="s">
+      <c r="M3" s="89" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="97">
-        <v>1</v>
-      </c>
-      <c r="D4" s="22">
+        <v>15</v>
+      </c>
+      <c r="C4" s="99">
+        <f>0.001*12*C2</f>
+        <v>1E-3</v>
+      </c>
+      <c r="D4" s="25">
         <f>C4-$I$2*C4</f>
-        <v>0.95</v>
+        <v>9.5E-4</v>
       </c>
       <c r="E4" s="22">
         <f>C4+$I$2*C4</f>
-        <v>1.05</v>
+        <v>1.0499999999999999E-3</v>
       </c>
       <c r="L4" s="100"/>
-      <c r="M4" t="s">
+      <c r="M4" s="89" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="97">
-        <v>1</v>
+        <f>0.001*12*C2</f>
+        <v>1E-3</v>
       </c>
       <c r="D5" s="22">
         <f>C5-$I$2*C5</f>
-        <v>0.95</v>
+        <v>9.5E-4</v>
       </c>
       <c r="E5" s="22">
         <f>C5+$I$2*C5</f>
-        <v>1.05</v>
+        <v>1.0499999999999999E-3</v>
       </c>
       <c r="L5" s="28"/>
-      <c r="M5" t="s">
+      <c r="M5" s="89" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="99">
-        <v>0.04</v>
+        <v>17</v>
+      </c>
+      <c r="C6" s="98">
+        <f>0.001*12*C2</f>
+        <v>1E-3</v>
       </c>
       <c r="D6" s="22">
         <f>C6-$I$2*C6</f>
-        <v>3.7999999999999999E-2</v>
+        <v>9.5E-4</v>
       </c>
       <c r="E6" s="22">
         <f>C6+$I$2*C6</f>
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="G6" t="s">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="G6" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="J6">
-        <f>(1+C7)^(12*(2040-2007))</f>
+      <c r="J6" s="89">
+        <f>(1+C3)^(12*(2040-2007))</f>
         <v>5.0031885420339695</v>
       </c>
       <c r="L6" s="111"/>
-      <c r="M6" t="s">
+      <c r="M6" s="89" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="85">
-        <v>4.0741237836483535E-3</v>
-      </c>
-      <c r="D7" s="24">
+      <c r="A7" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="29">
+        <v>7.5</v>
+      </c>
+      <c r="D7" s="26">
         <f>C7-$I$2*C7</f>
-        <v>3.8704175944659358E-3</v>
-      </c>
-      <c r="E7" s="24">
+        <v>7.125</v>
+      </c>
+      <c r="E7" s="26">
         <f>C7+$I$2*C7</f>
-        <v>4.2778299728307712E-3</v>
-      </c>
-      <c r="G7" t="s">
+        <v>7.875</v>
+      </c>
+      <c r="G7" s="89" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="82">
         <f>((data!G12/data!G2) ^ (C2/((data!A12-data!A2))) - 1)</f>
         <v>4.0741237836483535E-3</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="89">
         <f>(data!G7-data!G2)/(data!A7-data!A2)/data!G2*C2</f>
         <v>4.6046927083333387E-3</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="99">
-        <f>0.001*12*C2</f>
-        <v>1E-3</v>
-      </c>
-      <c r="D8" s="25">
+      <c r="A8" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="29">
+        <v>0.13</v>
+      </c>
+      <c r="D8" s="24">
         <f>C8-$I$2*C8</f>
-        <v>9.5E-4</v>
-      </c>
-      <c r="E8" s="22">
+        <v>0.1235</v>
+      </c>
+      <c r="E8" s="24">
         <f>C8+$I$2*C8</f>
-        <v>1.0499999999999999E-3</v>
+        <v>0.13650000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="35">
-        <f>0.5</f>
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+        <v>127</v>
+      </c>
+      <c r="C9" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="26">
+        <f t="shared" ref="D9:D10" si="0">C9-$I$2*C9</f>
+        <v>0.38</v>
+      </c>
+      <c r="E9" s="26">
+        <f t="shared" ref="E9:E10" si="1">C9+$I$2*C9</f>
+        <v>0.42000000000000004</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="97">
-        <f>0.001*12*C2</f>
-        <v>1E-3</v>
-      </c>
-      <c r="D10" s="22">
-        <f>C10-$I$2*C10</f>
-        <v>9.5E-4</v>
-      </c>
-      <c r="E10" s="22">
-        <f>C10+$I$2*C10</f>
-        <v>1.0499999999999999E-3</v>
+        <v>126</v>
+      </c>
+      <c r="C10" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D10" s="26">
+        <f t="shared" si="0"/>
+        <v>0.38</v>
+      </c>
+      <c r="E10" s="26">
+        <f t="shared" si="1"/>
+        <v>0.42000000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="98">
-        <f>0.001*12*C2</f>
-        <v>1E-3</v>
-      </c>
-      <c r="D11" s="22">
-        <f>C11-$I$2*C11</f>
-        <v>9.5E-4</v>
-      </c>
-      <c r="E11" s="22">
-        <f>C11+$I$2*C11</f>
-        <v>1.0499999999999999E-3</v>
-      </c>
-      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="110">
+        <v>0</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="G11" s="89" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="29">
-        <v>7.5</v>
+      <c r="A12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="106">
+        <f>6.2</f>
+        <v>6.2</v>
       </c>
       <c r="D12" s="26">
-        <f>C12-$I$2*C12</f>
-        <v>7.125</v>
+        <f t="shared" ref="D12:D20" si="2">C12-$I$2*C12</f>
+        <v>5.8900000000000006</v>
       </c>
       <c r="E12" s="26">
-        <f>C12+$I$2*C12</f>
-        <v>7.875</v>
-      </c>
-      <c r="G12" t="s">
+        <f t="shared" ref="E12:E20" si="3">C12+$I$2*C12</f>
+        <v>6.51</v>
+      </c>
+      <c r="G12" s="89" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>29</v>
+      <c r="A13" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="C13" s="29">
-        <v>0.13</v>
-      </c>
-      <c r="D13" s="24">
-        <f>C13-$I$2*C13</f>
-        <v>0.1235</v>
-      </c>
-      <c r="E13" s="24">
-        <f>C13+$I$2*C13</f>
-        <v>0.13650000000000001</v>
+        <v>7</v>
+      </c>
+      <c r="D13" s="26">
+        <f t="shared" si="2"/>
+        <v>6.65</v>
+      </c>
+      <c r="E13" s="26">
+        <f t="shared" si="3"/>
+        <v>7.35</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="96">
-        <f>0.42</f>
-        <v>0.42</v>
-      </c>
-      <c r="D14" s="26">
-        <f t="shared" ref="D14:D19" si="0">C14-$I$2*C14</f>
-        <v>0.39899999999999997</v>
-      </c>
-      <c r="E14" s="26">
-        <f t="shared" ref="E14:E19" si="1">C14+$I$2*C14</f>
-        <v>0.441</v>
+      <c r="A14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="97">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="27">
+        <f t="shared" si="2"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E14" s="27">
+        <f t="shared" si="3"/>
+        <v>0.10500000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="96">
-        <v>0.97</v>
-      </c>
-      <c r="D15" s="26">
-        <f t="shared" si="0"/>
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="E15" s="26">
+      <c r="A15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="97">
+        <v>0.17</v>
+      </c>
+      <c r="D15" s="27">
+        <f t="shared" si="2"/>
+        <v>0.1615</v>
+      </c>
+      <c r="E15" s="27">
+        <f t="shared" si="3"/>
+        <v>0.17850000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="107">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="D16" s="27">
+        <f t="shared" si="2"/>
+        <v>0.36860000000000004</v>
+      </c>
+      <c r="E16" s="27">
+        <f t="shared" si="3"/>
+        <v>0.40739999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="108">
+        <v>0.45</v>
+      </c>
+      <c r="D17" s="26">
+        <f t="shared" si="2"/>
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="E17" s="26">
+        <f t="shared" si="3"/>
+        <v>0.47250000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="32">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="101">
-        <v>0.8</v>
-      </c>
-      <c r="D16" s="26">
-        <f t="shared" si="0"/>
-        <v>0.76</v>
-      </c>
-      <c r="E16" s="26">
-        <f t="shared" si="1"/>
-        <v>0.84000000000000008</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="29">
-        <v>0.3</v>
-      </c>
-      <c r="D17" s="26">
-        <f t="shared" si="0"/>
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="E17" s="26">
-        <f t="shared" si="1"/>
-        <v>0.315</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="29">
-        <v>0.4</v>
-      </c>
       <c r="D18" s="26">
-        <f t="shared" ref="D18" si="2">C18-$I$2*C18</f>
-        <v>0.38</v>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
       </c>
       <c r="E18" s="26">
-        <f t="shared" ref="E18" si="3">C18+$I$2*C18</f>
-        <v>0.42000000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="29">
-        <v>0.4</v>
+        <v>120</v>
+      </c>
+      <c r="C19" s="104">
+        <f>1-C17</f>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D19" s="26">
-        <f t="shared" si="0"/>
-        <v>0.38</v>
+        <f t="shared" si="2"/>
+        <v>0.52250000000000008</v>
       </c>
       <c r="E19" s="26">
-        <f t="shared" si="1"/>
-        <v>0.42000000000000004</v>
+        <f t="shared" si="3"/>
+        <v>0.57750000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="110">
-        <v>0</v>
-      </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+        <v>122</v>
+      </c>
+      <c r="C20" s="102">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="26">
+        <f t="shared" si="2"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E20" s="26">
+        <f t="shared" si="3"/>
+        <v>0.52500000000000002</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="106">
-        <f>6.2</f>
-        <v>6.2</v>
-      </c>
-      <c r="D21" s="26">
-        <f t="shared" ref="D21:D27" si="4">C21-$I$2*C21</f>
-        <v>5.8900000000000006</v>
-      </c>
-      <c r="E21" s="26">
-        <f t="shared" ref="E21:E27" si="5">C21+$I$2*C21</f>
-        <v>6.51</v>
+        <v>149</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="90">
+        <v>2007</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="29">
-        <v>7</v>
-      </c>
-      <c r="D22" s="26">
-        <f t="shared" si="4"/>
-        <v>6.65</v>
-      </c>
-      <c r="E22" s="26">
-        <f t="shared" si="5"/>
-        <v>7.35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="97">
-        <v>0.1</v>
-      </c>
-      <c r="D23" s="27">
-        <f t="shared" si="4"/>
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="E23" s="27">
-        <f t="shared" si="5"/>
-        <v>0.10500000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="97">
-        <v>0.17</v>
-      </c>
-      <c r="D24" s="27">
-        <f t="shared" si="4"/>
-        <v>0.1615</v>
-      </c>
-      <c r="E24" s="27">
-        <f t="shared" si="5"/>
-        <v>0.17850000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="107">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="D25" s="27">
-        <f t="shared" si="4"/>
-        <v>0.36860000000000004</v>
-      </c>
-      <c r="E25" s="27">
-        <f t="shared" si="5"/>
-        <v>0.40739999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="108">
-        <v>0.45</v>
-      </c>
-      <c r="D26" s="26">
-        <f t="shared" si="4"/>
-        <v>0.42749999999999999</v>
-      </c>
-      <c r="E26" s="26">
-        <f t="shared" si="5"/>
-        <v>0.47250000000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="32">
-        <v>1</v>
-      </c>
-      <c r="D27" s="26">
-        <f t="shared" si="4"/>
-        <v>0.95</v>
-      </c>
-      <c r="E27" s="26">
-        <f t="shared" si="5"/>
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="104">
-        <f>1-C26</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D28" s="26">
-        <f t="shared" ref="D28" si="6">C28-$I$2*C28</f>
-        <v>0.52250000000000008</v>
-      </c>
-      <c r="E28" s="26">
-        <f t="shared" ref="E28" si="7">C28+$I$2*C28</f>
-        <v>0.57750000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="102">
-        <v>0.5</v>
-      </c>
-      <c r="D29" s="26">
-        <f t="shared" ref="D29" si="8">C29-$I$2*C29</f>
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="E29" s="26">
-        <f t="shared" ref="E29" si="9">C29+$I$2*C29</f>
-        <v>0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="102">
-        <v>3075</v>
-      </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B22" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C22" s="90">
         <v>42714</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="109"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="109"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3871,6 +4041,2298 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF24"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="90" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="113" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="113" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="113" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="113" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="113" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="16" style="113" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="113" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="113" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="15" style="113" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="113" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="113" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="113" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="113" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" style="113" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28" style="113" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="113" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.85546875" style="113" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28" style="113" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="113" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" style="113" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="113" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15" style="113" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.85546875" style="113" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="113" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15" style="113" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11" style="113" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="118" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="119" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="120" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="119" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="120" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" s="118" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="119" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="119" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="119" t="s">
+        <v>129</v>
+      </c>
+      <c r="N1" s="119" t="s">
+        <v>129</v>
+      </c>
+      <c r="O1" s="119" t="s">
+        <v>129</v>
+      </c>
+      <c r="P1" s="119" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q1" s="119" t="s">
+        <v>129</v>
+      </c>
+      <c r="R1" s="120" t="s">
+        <v>129</v>
+      </c>
+      <c r="S1" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="T1" s="119" t="s">
+        <v>139</v>
+      </c>
+      <c r="U1" s="120" t="s">
+        <v>139</v>
+      </c>
+      <c r="V1" s="118" t="s">
+        <v>143</v>
+      </c>
+      <c r="W1" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="X1" s="120" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y1" s="133" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z1" s="135" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA1" s="133" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB1" s="134" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC1" s="134" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD1" s="134" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE1" s="134" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF1" s="135" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="121" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="122" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="123" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="121" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="122" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="123" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" s="121" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" s="122" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="122" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="122" t="s">
+        <v>131</v>
+      </c>
+      <c r="N2" s="122" t="s">
+        <v>131</v>
+      </c>
+      <c r="O2" s="122" t="s">
+        <v>131</v>
+      </c>
+      <c r="P2" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q2" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="R2" s="123" t="s">
+        <v>132</v>
+      </c>
+      <c r="S2" s="121"/>
+      <c r="T2" s="122"/>
+      <c r="U2" s="123"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="123"/>
+      <c r="Y2" s="136"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="136" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB2" s="137" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC2" s="137" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD2" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE2" s="137" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF2" s="138" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="121"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="121" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" s="122" t="s">
+        <v>135</v>
+      </c>
+      <c r="L3" s="122" t="s">
+        <v>134</v>
+      </c>
+      <c r="M3" s="122" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" s="122" t="s">
+        <v>135</v>
+      </c>
+      <c r="O3" s="122" t="s">
+        <v>134</v>
+      </c>
+      <c r="P3" s="122" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q3" s="122" t="s">
+        <v>135</v>
+      </c>
+      <c r="R3" s="123" t="s">
+        <v>134</v>
+      </c>
+      <c r="S3" s="121" t="s">
+        <v>140</v>
+      </c>
+      <c r="T3" s="122" t="s">
+        <v>141</v>
+      </c>
+      <c r="U3" s="123" t="s">
+        <v>142</v>
+      </c>
+      <c r="V3" s="121" t="s">
+        <v>140</v>
+      </c>
+      <c r="W3" s="122" t="s">
+        <v>141</v>
+      </c>
+      <c r="X3" s="123" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y3" s="136" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z3" s="138" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="137"/>
+      <c r="AC3" s="137"/>
+      <c r="AD3" s="137"/>
+      <c r="AE3" s="137"/>
+      <c r="AF3" s="138"/>
+    </row>
+    <row r="4" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="60">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="124">
+        <v>1</v>
+      </c>
+      <c r="C4" s="125">
+        <v>10</v>
+      </c>
+      <c r="D4" s="126">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="117">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="117">
+        <v>0.7</v>
+      </c>
+      <c r="G4" s="124">
+        <v>0.42</v>
+      </c>
+      <c r="H4" s="125">
+        <v>0.35</v>
+      </c>
+      <c r="I4" s="126">
+        <v>0.1</v>
+      </c>
+      <c r="J4" s="124">
+        <v>1</v>
+      </c>
+      <c r="K4" s="125">
+        <v>4</v>
+      </c>
+      <c r="L4" s="125">
+        <v>10</v>
+      </c>
+      <c r="M4" s="125">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="125">
+        <v>4</v>
+      </c>
+      <c r="O4" s="125">
+        <v>4</v>
+      </c>
+      <c r="P4" s="125">
+        <f>3/12</f>
+        <v>0.25</v>
+      </c>
+      <c r="Q4" s="125">
+        <f>3/12</f>
+        <v>0.25</v>
+      </c>
+      <c r="R4" s="126">
+        <f>3/12</f>
+        <v>0.25</v>
+      </c>
+      <c r="S4" s="124"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="126"/>
+      <c r="V4" s="124">
+        <v>1</v>
+      </c>
+      <c r="W4" s="125">
+        <v>1</v>
+      </c>
+      <c r="X4" s="126">
+        <v>0.04</v>
+      </c>
+      <c r="Y4" s="139">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="141">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="139">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="140">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="140">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="140">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="140">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="61">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="127"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="127"/>
+      <c r="T5" s="128"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="129"/>
+      <c r="Y5" s="142"/>
+      <c r="Z5" s="144"/>
+      <c r="AA5" s="142"/>
+      <c r="AB5" s="143"/>
+      <c r="AC5" s="143"/>
+      <c r="AD5" s="143"/>
+      <c r="AE5" s="143"/>
+      <c r="AF5" s="144"/>
+    </row>
+    <row r="6" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="61">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="127"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="128"/>
+      <c r="Q6" s="128"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="127"/>
+      <c r="T6" s="128"/>
+      <c r="U6" s="129"/>
+      <c r="V6" s="127"/>
+      <c r="W6" s="128"/>
+      <c r="X6" s="129"/>
+      <c r="Y6" s="142"/>
+      <c r="Z6" s="144"/>
+      <c r="AA6" s="142"/>
+      <c r="AB6" s="143"/>
+      <c r="AC6" s="143"/>
+      <c r="AD6" s="143"/>
+      <c r="AE6" s="143"/>
+      <c r="AF6" s="144"/>
+    </row>
+    <row r="7" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="61">
+        <v>2003</v>
+      </c>
+      <c r="B7" s="127"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="128"/>
+      <c r="N7" s="128"/>
+      <c r="O7" s="128"/>
+      <c r="P7" s="128"/>
+      <c r="Q7" s="128"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="127"/>
+      <c r="T7" s="128"/>
+      <c r="U7" s="129"/>
+      <c r="V7" s="127"/>
+      <c r="W7" s="128"/>
+      <c r="X7" s="129"/>
+      <c r="Y7" s="142"/>
+      <c r="Z7" s="144"/>
+      <c r="AA7" s="142"/>
+      <c r="AB7" s="143"/>
+      <c r="AC7" s="143"/>
+      <c r="AD7" s="143"/>
+      <c r="AE7" s="143"/>
+      <c r="AF7" s="144"/>
+    </row>
+    <row r="8" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="61">
+        <v>2004</v>
+      </c>
+      <c r="B8" s="127"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="128"/>
+      <c r="M8" s="128"/>
+      <c r="N8" s="128"/>
+      <c r="O8" s="128"/>
+      <c r="P8" s="128"/>
+      <c r="Q8" s="128"/>
+      <c r="R8" s="129"/>
+      <c r="S8" s="127"/>
+      <c r="T8" s="128"/>
+      <c r="U8" s="129"/>
+      <c r="V8" s="127"/>
+      <c r="W8" s="128"/>
+      <c r="X8" s="129"/>
+      <c r="Y8" s="142"/>
+      <c r="Z8" s="144"/>
+      <c r="AA8" s="142"/>
+      <c r="AB8" s="143"/>
+      <c r="AC8" s="143"/>
+      <c r="AD8" s="143"/>
+      <c r="AE8" s="143"/>
+      <c r="AF8" s="144"/>
+    </row>
+    <row r="9" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="61">
+        <v>2005</v>
+      </c>
+      <c r="B9" s="127"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="128"/>
+      <c r="P9" s="128"/>
+      <c r="Q9" s="128"/>
+      <c r="R9" s="129"/>
+      <c r="S9" s="127"/>
+      <c r="T9" s="128"/>
+      <c r="U9" s="129"/>
+      <c r="V9" s="127"/>
+      <c r="W9" s="128"/>
+      <c r="X9" s="129"/>
+      <c r="Y9" s="142"/>
+      <c r="Z9" s="144"/>
+      <c r="AA9" s="142"/>
+      <c r="AB9" s="143"/>
+      <c r="AC9" s="143"/>
+      <c r="AD9" s="143"/>
+      <c r="AE9" s="143"/>
+      <c r="AF9" s="144"/>
+    </row>
+    <row r="10" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="61">
+        <v>2006</v>
+      </c>
+      <c r="B10" s="127"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="128"/>
+      <c r="R10" s="129"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="128"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="142"/>
+      <c r="Z10" s="144"/>
+      <c r="AA10" s="142"/>
+      <c r="AB10" s="143"/>
+      <c r="AC10" s="143"/>
+      <c r="AD10" s="143"/>
+      <c r="AE10" s="143"/>
+      <c r="AF10" s="144"/>
+    </row>
+    <row r="11" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="61">
+        <v>2007</v>
+      </c>
+      <c r="B11" s="127"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="128"/>
+      <c r="N11" s="128"/>
+      <c r="O11" s="128"/>
+      <c r="P11" s="128"/>
+      <c r="Q11" s="128"/>
+      <c r="R11" s="129"/>
+      <c r="S11" s="127">
+        <v>0.7</v>
+      </c>
+      <c r="T11" s="128">
+        <v>0.75</v>
+      </c>
+      <c r="U11" s="129">
+        <v>0.8</v>
+      </c>
+      <c r="V11" s="127"/>
+      <c r="W11" s="128"/>
+      <c r="X11" s="129"/>
+      <c r="Y11" s="142"/>
+      <c r="Z11" s="144"/>
+      <c r="AA11" s="142"/>
+      <c r="AB11" s="143"/>
+      <c r="AC11" s="143"/>
+      <c r="AD11" s="143"/>
+      <c r="AE11" s="143"/>
+      <c r="AF11" s="144"/>
+    </row>
+    <row r="12" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="61">
+        <v>2008</v>
+      </c>
+      <c r="B12" s="127"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="128"/>
+      <c r="M12" s="128"/>
+      <c r="N12" s="128"/>
+      <c r="O12" s="128"/>
+      <c r="P12" s="128"/>
+      <c r="Q12" s="128"/>
+      <c r="R12" s="129"/>
+      <c r="S12" s="127"/>
+      <c r="T12" s="128"/>
+      <c r="U12" s="129"/>
+      <c r="V12" s="127"/>
+      <c r="W12" s="128"/>
+      <c r="X12" s="129"/>
+      <c r="Y12" s="142"/>
+      <c r="Z12" s="144"/>
+      <c r="AA12" s="142"/>
+      <c r="AB12" s="143"/>
+      <c r="AC12" s="143"/>
+      <c r="AD12" s="143"/>
+      <c r="AE12" s="143"/>
+      <c r="AF12" s="144"/>
+    </row>
+    <row r="13" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="61">
+        <v>2009</v>
+      </c>
+      <c r="B13" s="127"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="128"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="128"/>
+      <c r="P13" s="128"/>
+      <c r="Q13" s="128"/>
+      <c r="R13" s="129"/>
+      <c r="S13" s="127"/>
+      <c r="T13" s="128"/>
+      <c r="U13" s="129"/>
+      <c r="V13" s="127"/>
+      <c r="W13" s="128"/>
+      <c r="X13" s="129"/>
+      <c r="Y13" s="142"/>
+      <c r="Z13" s="144"/>
+      <c r="AA13" s="142"/>
+      <c r="AB13" s="143"/>
+      <c r="AC13" s="143"/>
+      <c r="AD13" s="143"/>
+      <c r="AE13" s="143"/>
+      <c r="AF13" s="144"/>
+    </row>
+    <row r="14" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="61">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="127"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="128"/>
+      <c r="M14" s="128"/>
+      <c r="N14" s="128"/>
+      <c r="O14" s="128"/>
+      <c r="P14" s="128"/>
+      <c r="Q14" s="128"/>
+      <c r="R14" s="129"/>
+      <c r="S14" s="127">
+        <v>0.7</v>
+      </c>
+      <c r="T14" s="128">
+        <v>0.75</v>
+      </c>
+      <c r="U14" s="129">
+        <v>0.8</v>
+      </c>
+      <c r="V14" s="127"/>
+      <c r="W14" s="128"/>
+      <c r="X14" s="129"/>
+      <c r="Y14" s="142"/>
+      <c r="Z14" s="144"/>
+      <c r="AA14" s="142"/>
+      <c r="AB14" s="143"/>
+      <c r="AC14" s="143"/>
+      <c r="AD14" s="143"/>
+      <c r="AE14" s="143"/>
+      <c r="AF14" s="144"/>
+    </row>
+    <row r="15" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="61">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="127"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="128"/>
+      <c r="M15" s="128"/>
+      <c r="N15" s="128"/>
+      <c r="O15" s="128"/>
+      <c r="P15" s="128"/>
+      <c r="Q15" s="128"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="127"/>
+      <c r="T15" s="128"/>
+      <c r="U15" s="129"/>
+      <c r="V15" s="127"/>
+      <c r="W15" s="128"/>
+      <c r="X15" s="129"/>
+      <c r="Y15" s="142"/>
+      <c r="Z15" s="144"/>
+      <c r="AA15" s="142"/>
+      <c r="AB15" s="143"/>
+      <c r="AC15" s="143"/>
+      <c r="AD15" s="143"/>
+      <c r="AE15" s="143"/>
+      <c r="AF15" s="144"/>
+    </row>
+    <row r="16" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="61">
+        <v>2012</v>
+      </c>
+      <c r="B16" s="127"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="128"/>
+      <c r="M16" s="128"/>
+      <c r="N16" s="128"/>
+      <c r="O16" s="128"/>
+      <c r="P16" s="128"/>
+      <c r="Q16" s="128"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="127">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="T16" s="128">
+        <v>0.82</v>
+      </c>
+      <c r="U16" s="129">
+        <v>0.88</v>
+      </c>
+      <c r="V16" s="127"/>
+      <c r="W16" s="128"/>
+      <c r="X16" s="129"/>
+      <c r="Y16" s="142"/>
+      <c r="Z16" s="144"/>
+      <c r="AA16" s="142"/>
+      <c r="AB16" s="143"/>
+      <c r="AC16" s="143"/>
+      <c r="AD16" s="143"/>
+      <c r="AE16" s="143"/>
+      <c r="AF16" s="144"/>
+    </row>
+    <row r="17" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="61">
+        <v>2013</v>
+      </c>
+      <c r="B17" s="127"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="128"/>
+      <c r="P17" s="128"/>
+      <c r="Q17" s="128"/>
+      <c r="R17" s="129"/>
+      <c r="S17" s="127">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="T17" s="128">
+        <v>0.86</v>
+      </c>
+      <c r="U17" s="129">
+        <v>0.9</v>
+      </c>
+      <c r="V17" s="127"/>
+      <c r="W17" s="128"/>
+      <c r="X17" s="129"/>
+      <c r="Y17" s="142"/>
+      <c r="Z17" s="144"/>
+      <c r="AA17" s="142"/>
+      <c r="AB17" s="143"/>
+      <c r="AC17" s="143"/>
+      <c r="AD17" s="143"/>
+      <c r="AE17" s="143"/>
+      <c r="AF17" s="144"/>
+    </row>
+    <row r="18" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="61">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="127"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="128"/>
+      <c r="M18" s="128"/>
+      <c r="N18" s="128"/>
+      <c r="O18" s="128"/>
+      <c r="P18" s="128"/>
+      <c r="Q18" s="128"/>
+      <c r="R18" s="129"/>
+      <c r="S18" s="127">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="T18" s="128">
+        <v>0.89</v>
+      </c>
+      <c r="U18" s="129">
+        <v>0.9</v>
+      </c>
+      <c r="V18" s="127"/>
+      <c r="W18" s="128"/>
+      <c r="X18" s="129"/>
+      <c r="Y18" s="142"/>
+      <c r="Z18" s="144"/>
+      <c r="AA18" s="142"/>
+      <c r="AB18" s="143"/>
+      <c r="AC18" s="143"/>
+      <c r="AD18" s="143"/>
+      <c r="AE18" s="143"/>
+      <c r="AF18" s="144"/>
+    </row>
+    <row r="19" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="61">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="127"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="128"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="128"/>
+      <c r="P19" s="128"/>
+      <c r="Q19" s="128"/>
+      <c r="R19" s="129"/>
+      <c r="S19" s="127">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="T19" s="128">
+        <v>0.92</v>
+      </c>
+      <c r="U19" s="129">
+        <v>0.92</v>
+      </c>
+      <c r="V19" s="127"/>
+      <c r="W19" s="128"/>
+      <c r="X19" s="129"/>
+      <c r="Y19" s="142"/>
+      <c r="Z19" s="144"/>
+      <c r="AA19" s="142"/>
+      <c r="AB19" s="143"/>
+      <c r="AC19" s="143"/>
+      <c r="AD19" s="143"/>
+      <c r="AE19" s="143"/>
+      <c r="AF19" s="144"/>
+    </row>
+    <row r="20" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="61">
+        <v>2016</v>
+      </c>
+      <c r="B20" s="127"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="129"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="128"/>
+      <c r="L20" s="128"/>
+      <c r="M20" s="128"/>
+      <c r="N20" s="128"/>
+      <c r="O20" s="128"/>
+      <c r="P20" s="128"/>
+      <c r="Q20" s="128"/>
+      <c r="R20" s="129"/>
+      <c r="S20" s="127">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="T20" s="128">
+        <v>0.95</v>
+      </c>
+      <c r="U20" s="129">
+        <v>0.94</v>
+      </c>
+      <c r="V20" s="127"/>
+      <c r="W20" s="128"/>
+      <c r="X20" s="129"/>
+      <c r="Y20" s="142"/>
+      <c r="Z20" s="144"/>
+      <c r="AA20" s="142"/>
+      <c r="AB20" s="143"/>
+      <c r="AC20" s="143"/>
+      <c r="AD20" s="143"/>
+      <c r="AE20" s="143"/>
+      <c r="AF20" s="144"/>
+    </row>
+    <row r="21" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="61">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="127"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="129"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="128"/>
+      <c r="M21" s="128"/>
+      <c r="N21" s="128"/>
+      <c r="O21" s="128"/>
+      <c r="P21" s="128"/>
+      <c r="Q21" s="128"/>
+      <c r="R21" s="129"/>
+      <c r="S21" s="127"/>
+      <c r="T21" s="128"/>
+      <c r="U21" s="129"/>
+      <c r="V21" s="127"/>
+      <c r="W21" s="128"/>
+      <c r="X21" s="129"/>
+      <c r="Y21" s="142"/>
+      <c r="Z21" s="144"/>
+      <c r="AA21" s="142"/>
+      <c r="AB21" s="143"/>
+      <c r="AC21" s="143"/>
+      <c r="AD21" s="143"/>
+      <c r="AE21" s="143"/>
+      <c r="AF21" s="144"/>
+    </row>
+    <row r="22" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="61">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="127"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="127"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="128"/>
+      <c r="N22" s="128"/>
+      <c r="O22" s="128"/>
+      <c r="P22" s="128"/>
+      <c r="Q22" s="128"/>
+      <c r="R22" s="129"/>
+      <c r="S22" s="127"/>
+      <c r="T22" s="128"/>
+      <c r="U22" s="129"/>
+      <c r="V22" s="127"/>
+      <c r="W22" s="128"/>
+      <c r="X22" s="129"/>
+      <c r="Y22" s="142"/>
+      <c r="Z22" s="144"/>
+      <c r="AA22" s="142"/>
+      <c r="AB22" s="143"/>
+      <c r="AC22" s="143"/>
+      <c r="AD22" s="143"/>
+      <c r="AE22" s="143"/>
+      <c r="AF22" s="144"/>
+    </row>
+    <row r="23" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="61">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="127"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="129"/>
+      <c r="J23" s="127"/>
+      <c r="K23" s="128"/>
+      <c r="L23" s="128"/>
+      <c r="M23" s="128"/>
+      <c r="N23" s="128"/>
+      <c r="O23" s="128"/>
+      <c r="P23" s="128"/>
+      <c r="Q23" s="128"/>
+      <c r="R23" s="129"/>
+      <c r="S23" s="127"/>
+      <c r="T23" s="128"/>
+      <c r="U23" s="129"/>
+      <c r="V23" s="127"/>
+      <c r="W23" s="128"/>
+      <c r="X23" s="129"/>
+      <c r="Y23" s="142"/>
+      <c r="Z23" s="144"/>
+      <c r="AA23" s="142"/>
+      <c r="AB23" s="143"/>
+      <c r="AC23" s="143"/>
+      <c r="AD23" s="143"/>
+      <c r="AE23" s="143"/>
+      <c r="AF23" s="144"/>
+    </row>
+    <row r="24" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="115">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="130"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="131"/>
+      <c r="M24" s="131"/>
+      <c r="N24" s="131"/>
+      <c r="O24" s="131"/>
+      <c r="P24" s="131"/>
+      <c r="Q24" s="131"/>
+      <c r="R24" s="132"/>
+      <c r="S24" s="130"/>
+      <c r="T24" s="131"/>
+      <c r="U24" s="132"/>
+      <c r="V24" s="130"/>
+      <c r="W24" s="131"/>
+      <c r="X24" s="132"/>
+      <c r="Y24" s="145"/>
+      <c r="Z24" s="147"/>
+      <c r="AA24" s="145"/>
+      <c r="AB24" s="146"/>
+      <c r="AC24" s="146"/>
+      <c r="AD24" s="146"/>
+      <c r="AE24" s="146"/>
+      <c r="AF24" s="147"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="89" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="89" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="89" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="89"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="89" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="89">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="112">
+        <v>0.05</v>
+      </c>
+      <c r="C4" s="112">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="89">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="89">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="89">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="89">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="89">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="89">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="89">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="89">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="89">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="89">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="89">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="89">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="89">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="89">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="112">
+        <v>0.05</v>
+      </c>
+      <c r="C18" s="112">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="89">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="112">
+        <v>1</v>
+      </c>
+      <c r="C19" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="89">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="89">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="89">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="89">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="89">
+        <v>2020</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="89" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="89" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="89" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="89" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="89" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="89" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="89" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="89" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="89" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="89" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="89"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="89" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="89" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="89" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="89" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" s="89" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="89" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="J3" s="89" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="89">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="112">
+        <v>1</v>
+      </c>
+      <c r="C4" s="112">
+        <v>4</v>
+      </c>
+      <c r="D4" s="112">
+        <v>10</v>
+      </c>
+      <c r="E4" s="112">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="112">
+        <v>4</v>
+      </c>
+      <c r="G4" s="112">
+        <v>4</v>
+      </c>
+      <c r="H4" s="112">
+        <f>3/12</f>
+        <v>0.25</v>
+      </c>
+      <c r="I4" s="112">
+        <f>3/12</f>
+        <v>0.25</v>
+      </c>
+      <c r="J4" s="112">
+        <f>3/12</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="89">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="89">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="89">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="89">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="89">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="89">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="89">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="89">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="89">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="89">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="89">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="89">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="89">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="89">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="112">
+        <v>1</v>
+      </c>
+      <c r="C18" s="112">
+        <v>4</v>
+      </c>
+      <c r="D18" s="112">
+        <v>10</v>
+      </c>
+      <c r="E18" s="112">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="112">
+        <v>4</v>
+      </c>
+      <c r="G18" s="112">
+        <v>4</v>
+      </c>
+      <c r="H18" s="112">
+        <f>3/12</f>
+        <v>0.25</v>
+      </c>
+      <c r="I18" s="112">
+        <f>3/12</f>
+        <v>0.25</v>
+      </c>
+      <c r="J18" s="112">
+        <f>3/12</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="89">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="112">
+        <v>2</v>
+      </c>
+      <c r="C19" s="112">
+        <v>8</v>
+      </c>
+      <c r="D19" s="112">
+        <v>20</v>
+      </c>
+      <c r="E19" s="112">
+        <v>1</v>
+      </c>
+      <c r="F19" s="112">
+        <v>8</v>
+      </c>
+      <c r="G19" s="112">
+        <v>8</v>
+      </c>
+      <c r="H19" s="112">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="112">
+        <v>0.5</v>
+      </c>
+      <c r="J19" s="112">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="89">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="89">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="89">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="89">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="89">
+        <v>2020</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M40"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="33">
+        <f>1/12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="I2" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="L2" s="103"/>
+      <c r="M2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="34">
+        <v>0.06</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="105"/>
+      <c r="M3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="97">
+        <v>1</v>
+      </c>
+      <c r="D4" s="22">
+        <f>C4-$I$2*C4</f>
+        <v>0.95</v>
+      </c>
+      <c r="E4" s="22">
+        <f>C4+$I$2*C4</f>
+        <v>1.05</v>
+      </c>
+      <c r="L4" s="100"/>
+      <c r="M4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="97">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22">
+        <f>C5-$I$2*C5</f>
+        <v>0.95</v>
+      </c>
+      <c r="E5" s="22">
+        <f>C5+$I$2*C5</f>
+        <v>1.05</v>
+      </c>
+      <c r="L5" s="28"/>
+      <c r="M5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="99">
+        <v>0.04</v>
+      </c>
+      <c r="D6" s="22">
+        <f>C6-$I$2*C6</f>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E6" s="22">
+        <f>C6+$I$2*C6</f>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <f>(1+C7)^(12*(2040-2007))</f>
+        <v>5.0031885420339695</v>
+      </c>
+      <c r="L6" s="111"/>
+      <c r="M6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="85">
+        <v>4.0741237836483535E-3</v>
+      </c>
+      <c r="D7" s="24">
+        <f>C7-$I$2*C7</f>
+        <v>3.8704175944659358E-3</v>
+      </c>
+      <c r="E7" s="24">
+        <f>C7+$I$2*C7</f>
+        <v>4.2778299728307712E-3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="82">
+        <f>((data!G12/data!G2) ^ (C2/((data!A12-data!A2))) - 1)</f>
+        <v>4.0741237836483535E-3</v>
+      </c>
+      <c r="J7">
+        <f>(data!G7-data!G2)/(data!A7-data!A2)/data!G2*C2</f>
+        <v>4.6046927083333387E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="99">
+        <f>0.001*12*C2</f>
+        <v>1E-3</v>
+      </c>
+      <c r="D8" s="25">
+        <f>C8-$I$2*C8</f>
+        <v>9.5E-4</v>
+      </c>
+      <c r="E8" s="22">
+        <f>C8+$I$2*C8</f>
+        <v>1.0499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="35">
+        <f>0.5</f>
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="97">
+        <f>0.001*12*C2</f>
+        <v>1E-3</v>
+      </c>
+      <c r="D10" s="22">
+        <f>C10-$I$2*C10</f>
+        <v>9.5E-4</v>
+      </c>
+      <c r="E10" s="22">
+        <f>C10+$I$2*C10</f>
+        <v>1.0499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="98">
+        <f>0.001*12*C2</f>
+        <v>1E-3</v>
+      </c>
+      <c r="D11" s="22">
+        <f>C11-$I$2*C11</f>
+        <v>9.5E-4</v>
+      </c>
+      <c r="E11" s="22">
+        <f>C11+$I$2*C11</f>
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="29">
+        <v>7.5</v>
+      </c>
+      <c r="D12" s="26">
+        <f>C12-$I$2*C12</f>
+        <v>7.125</v>
+      </c>
+      <c r="E12" s="26">
+        <f>C12+$I$2*C12</f>
+        <v>7.875</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="29">
+        <v>0.13</v>
+      </c>
+      <c r="D13" s="24">
+        <f>C13-$I$2*C13</f>
+        <v>0.1235</v>
+      </c>
+      <c r="E13" s="24">
+        <f>C13+$I$2*C13</f>
+        <v>0.13650000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="96">
+        <f>0.42</f>
+        <v>0.42</v>
+      </c>
+      <c r="D14" s="26">
+        <f t="shared" ref="D14:D19" si="0">C14-$I$2*C14</f>
+        <v>0.39899999999999997</v>
+      </c>
+      <c r="E14" s="26">
+        <f t="shared" ref="E14:E19" si="1">C14+$I$2*C14</f>
+        <v>0.441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="96">
+        <v>0.97</v>
+      </c>
+      <c r="D15" s="26">
+        <f t="shared" si="0"/>
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="E15" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="101">
+        <v>0.8</v>
+      </c>
+      <c r="D16" s="26">
+        <f t="shared" si="0"/>
+        <v>0.76</v>
+      </c>
+      <c r="E16" s="26">
+        <f t="shared" si="1"/>
+        <v>0.84000000000000008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="D17" s="26">
+        <f t="shared" si="0"/>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="E17" s="26">
+        <f t="shared" si="1"/>
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D18" s="26">
+        <f t="shared" ref="D18" si="2">C18-$I$2*C18</f>
+        <v>0.38</v>
+      </c>
+      <c r="E18" s="26">
+        <f t="shared" ref="E18" si="3">C18+$I$2*C18</f>
+        <v>0.42000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D19" s="26">
+        <f t="shared" si="0"/>
+        <v>0.38</v>
+      </c>
+      <c r="E19" s="26">
+        <f t="shared" si="1"/>
+        <v>0.42000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="110">
+        <v>0</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="106">
+        <f>6.2</f>
+        <v>6.2</v>
+      </c>
+      <c r="D21" s="26">
+        <f t="shared" ref="D21:D27" si="4">C21-$I$2*C21</f>
+        <v>5.8900000000000006</v>
+      </c>
+      <c r="E21" s="26">
+        <f t="shared" ref="E21:E27" si="5">C21+$I$2*C21</f>
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="29">
+        <v>7</v>
+      </c>
+      <c r="D22" s="26">
+        <f t="shared" si="4"/>
+        <v>6.65</v>
+      </c>
+      <c r="E22" s="26">
+        <f t="shared" si="5"/>
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="97">
+        <v>0.1</v>
+      </c>
+      <c r="D23" s="27">
+        <f t="shared" si="4"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E23" s="27">
+        <f t="shared" si="5"/>
+        <v>0.10500000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="97">
+        <v>0.17</v>
+      </c>
+      <c r="D24" s="27">
+        <f t="shared" si="4"/>
+        <v>0.1615</v>
+      </c>
+      <c r="E24" s="27">
+        <f t="shared" si="5"/>
+        <v>0.17850000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="107">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="D25" s="27">
+        <f t="shared" si="4"/>
+        <v>0.36860000000000004</v>
+      </c>
+      <c r="E25" s="27">
+        <f t="shared" si="5"/>
+        <v>0.40739999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="108">
+        <v>0.45</v>
+      </c>
+      <c r="D26" s="26">
+        <f t="shared" si="4"/>
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="E26" s="26">
+        <f t="shared" si="5"/>
+        <v>0.47250000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="32">
+        <v>1</v>
+      </c>
+      <c r="D27" s="26">
+        <f t="shared" si="4"/>
+        <v>0.95</v>
+      </c>
+      <c r="E27" s="26">
+        <f t="shared" si="5"/>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="104">
+        <f>1-C26</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D28" s="26">
+        <f t="shared" ref="D28" si="6">C28-$I$2*C28</f>
+        <v>0.52250000000000008</v>
+      </c>
+      <c r="E28" s="26">
+        <f t="shared" ref="E28" si="7">C28+$I$2*C28</f>
+        <v>0.57750000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="102">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="26">
+        <f t="shared" ref="D29" si="8">C29-$I$2*C29</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E29" s="26">
+        <f t="shared" ref="E29" si="9">C29+$I$2*C29</f>
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="102">
+        <v>3075</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="1">
+        <v>42714</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="109"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="125" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -3998,15 +6460,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G2" s="36">
-        <f>pars!$C$14</f>
+        <f>pars_old!$C$14</f>
         <v>0.42</v>
       </c>
       <c r="H2" s="63">
-        <f>pars!C14*pars!C17</f>
+        <f>pars_old!C14*pars_old!C17</f>
         <v>0.126</v>
       </c>
       <c r="I2" s="66">
-        <f>G2*pars!C17</f>
+        <f>G2*pars_old!C17</f>
         <v>0.126</v>
       </c>
       <c r="J2" s="43">
@@ -4019,25 +6481,25 @@
         <v>0.9</v>
       </c>
       <c r="M2" s="88">
-        <f>365*((PrEPX!C3/PrEPX!C5)+(PrEPX!D3/PrEPX!D5))/(PrEPX!C3+PrEPX!D3)</f>
+        <f>365*((PrEPX_old!C3/PrEPX_old!C5)+(PrEPX_old!D3/PrEPX_old!D5))/(PrEPX_old!C3+PrEPX_old!D3)</f>
         <v>239.17702721631844</v>
       </c>
       <c r="N2" s="88">
         <v>90</v>
       </c>
       <c r="O2" s="88">
-        <f>365*((PrEPX!C21/PrEPX!C23)+(PrEPX!D21/PrEPX!D23))/(PrEPX!C21+PrEPX!D21)</f>
+        <f>365*((PrEPX_old!C21/PrEPX_old!C23)+(PrEPX_old!D21/PrEPX_old!D23))/(PrEPX_old!C21+PrEPX_old!D21)</f>
         <v>191.92035691894674</v>
       </c>
       <c r="P2" s="88">
-        <f>365/PrEPX!E5</f>
+        <f>365/PrEPX_old!E5</f>
         <v>91.25</v>
       </c>
       <c r="Q2" s="94">
         <v>90</v>
       </c>
       <c r="R2" s="95">
-        <f>365/PrEPX!E23</f>
+        <f>365/PrEPX_old!E23</f>
         <v>101.38888888888889</v>
       </c>
       <c r="S2" s="42">
@@ -4326,7 +6788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -4661,1013 +7123,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF24"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:L4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="89" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="I1" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="K1" t="s">
-        <v>153</v>
-      </c>
-      <c r="L1" s="89" t="s">
-        <v>153</v>
-      </c>
-      <c r="M1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N1" s="89" t="s">
-        <v>136</v>
-      </c>
-      <c r="O1" s="89" t="s">
-        <v>136</v>
-      </c>
-      <c r="P1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q1" s="89" t="s">
-        <v>137</v>
-      </c>
-      <c r="R1" s="89" t="s">
-        <v>137</v>
-      </c>
-      <c r="S1" t="s">
-        <v>138</v>
-      </c>
-      <c r="T1" s="89" t="s">
-        <v>138</v>
-      </c>
-      <c r="U1" s="89" t="s">
-        <v>138</v>
-      </c>
-      <c r="V1" t="s">
-        <v>139</v>
-      </c>
-      <c r="W1" s="89" t="s">
-        <v>139</v>
-      </c>
-      <c r="X1" s="89" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA1" s="89" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="89" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="89" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="89" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F2" s="89" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" s="89" t="s">
-        <v>131</v>
-      </c>
-      <c r="H2" s="89" t="s">
-        <v>132</v>
-      </c>
-      <c r="I2" s="89" t="s">
-        <v>132</v>
-      </c>
-      <c r="J2" s="89" t="s">
-        <v>132</v>
-      </c>
-      <c r="M2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N2" s="89" t="s">
-        <v>131</v>
-      </c>
-      <c r="O2" s="89" t="s">
-        <v>132</v>
-      </c>
-      <c r="P2" s="89" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q2" s="89" t="s">
-        <v>131</v>
-      </c>
-      <c r="R2" s="89" t="s">
-        <v>132</v>
-      </c>
-      <c r="S2" s="89" t="s">
-        <v>130</v>
-      </c>
-      <c r="T2" s="89" t="s">
-        <v>131</v>
-      </c>
-      <c r="U2" s="89" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC2" s="89" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD2" s="89" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE2" s="89" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" s="89" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="89" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" s="89" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" s="89" t="s">
-        <v>134</v>
-      </c>
-      <c r="H3" s="89" t="s">
-        <v>133</v>
-      </c>
-      <c r="I3" s="89" t="s">
-        <v>135</v>
-      </c>
-      <c r="J3" s="89" t="s">
-        <v>134</v>
-      </c>
-      <c r="K3" t="s">
-        <v>151</v>
-      </c>
-      <c r="L3" t="s">
-        <v>152</v>
-      </c>
-      <c r="V3" t="s">
-        <v>140</v>
-      </c>
-      <c r="W3" t="s">
-        <v>141</v>
-      </c>
-      <c r="X3" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y3" s="89" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z3" s="89" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA3" s="89" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2000</v>
-      </c>
-      <c r="B4" s="112">
-        <v>1</v>
-      </c>
-      <c r="C4" s="112">
-        <v>4</v>
-      </c>
-      <c r="D4" s="112">
-        <v>10</v>
-      </c>
-      <c r="E4" s="112">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="112">
-        <v>4</v>
-      </c>
-      <c r="G4" s="112">
-        <v>4</v>
-      </c>
-      <c r="H4" s="112">
-        <f>3/12</f>
-        <v>0.25</v>
-      </c>
-      <c r="I4" s="112">
-        <f>3/12</f>
-        <v>0.25</v>
-      </c>
-      <c r="J4" s="112">
-        <f>3/12</f>
-        <v>0.25</v>
-      </c>
-      <c r="K4" s="112">
-        <v>1</v>
-      </c>
-      <c r="L4" s="112">
-        <v>2</v>
-      </c>
-      <c r="M4" s="112">
-        <v>0.42</v>
-      </c>
-      <c r="N4" s="112">
-        <v>0.35</v>
-      </c>
-      <c r="O4" s="112">
-        <v>0.1</v>
-      </c>
-      <c r="P4" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="112">
-        <v>0</v>
-      </c>
-      <c r="R4" s="112">
-        <v>0</v>
-      </c>
-      <c r="S4" s="112">
-        <v>0</v>
-      </c>
-      <c r="T4" s="112">
-        <v>0</v>
-      </c>
-      <c r="U4" s="112">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="112">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="112">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="112">
-        <v>0.04</v>
-      </c>
-      <c r="AB4" s="112">
-        <v>0.7</v>
-      </c>
-      <c r="AC4" s="112">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="112">
-        <v>10</v>
-      </c>
-      <c r="AE4" s="112">
-        <v>0.05</v>
-      </c>
-      <c r="AF4" s="112">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="89">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="89">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="89">
-        <v>2007</v>
-      </c>
-      <c r="V11" s="112">
-        <v>0.7</v>
-      </c>
-      <c r="W11" s="112">
-        <v>0.75</v>
-      </c>
-      <c r="X11" s="112">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="89">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="89">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="89">
-        <v>2010</v>
-      </c>
-      <c r="V14" s="112">
-        <v>0.7</v>
-      </c>
-      <c r="W14" s="112">
-        <v>0.75</v>
-      </c>
-      <c r="X14" s="112">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="89">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="89">
-        <v>2012</v>
-      </c>
-      <c r="V16" s="112">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="W16" s="112">
-        <v>0.82</v>
-      </c>
-      <c r="X16" s="112">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="89">
-        <v>2013</v>
-      </c>
-      <c r="V17" s="112">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="W17" s="112">
-        <v>0.86</v>
-      </c>
-      <c r="X17" s="112">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="89">
-        <v>2014</v>
-      </c>
-      <c r="V18" s="112">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="W18" s="112">
-        <v>0.89</v>
-      </c>
-      <c r="X18" s="112">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="89">
-        <v>2015</v>
-      </c>
-      <c r="V19" s="112">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="W19" s="112">
-        <v>0.92</v>
-      </c>
-      <c r="X19" s="112">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="89">
-        <v>2016</v>
-      </c>
-      <c r="V20" s="112">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="W20" s="112">
-        <v>0.95</v>
-      </c>
-      <c r="X20" s="112">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="89">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="89">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="89">
-        <v>2020</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9" style="89" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="89" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="89" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="89"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="89" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="89" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="89" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="89" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89">
-        <v>2000</v>
-      </c>
-      <c r="B4" s="112">
-        <v>0.05</v>
-      </c>
-      <c r="C4" s="112">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="89">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="89">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="89">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="89">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="89">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="89">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="89">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="89">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="89">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="89">
-        <v>2014</v>
-      </c>
-      <c r="B18" s="112">
-        <v>0.05</v>
-      </c>
-      <c r="C18" s="112">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="89">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="112">
-        <v>1</v>
-      </c>
-      <c r="C19" s="112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="89">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="89">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="89">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="89">
-        <v>2020</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9" style="89" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="89" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="89" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="89" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="89" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="89" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="89" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="89" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="89" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="89" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="89"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="I1" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" s="89" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="89" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="89" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="89" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="89" t="s">
-        <v>131</v>
-      </c>
-      <c r="F2" s="89" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" s="89" t="s">
-        <v>131</v>
-      </c>
-      <c r="H2" s="89" t="s">
-        <v>132</v>
-      </c>
-      <c r="I2" s="89" t="s">
-        <v>132</v>
-      </c>
-      <c r="J2" s="89" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" s="89" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="89" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="89" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="89" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" s="89" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" s="89" t="s">
-        <v>134</v>
-      </c>
-      <c r="H3" s="89" t="s">
-        <v>133</v>
-      </c>
-      <c r="I3" s="89" t="s">
-        <v>135</v>
-      </c>
-      <c r="J3" s="89" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89">
-        <v>2000</v>
-      </c>
-      <c r="B4" s="112">
-        <v>1</v>
-      </c>
-      <c r="C4" s="112">
-        <v>4</v>
-      </c>
-      <c r="D4" s="112">
-        <v>10</v>
-      </c>
-      <c r="E4" s="112">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="112">
-        <v>4</v>
-      </c>
-      <c r="G4" s="112">
-        <v>4</v>
-      </c>
-      <c r="H4" s="112">
-        <f>3/12</f>
-        <v>0.25</v>
-      </c>
-      <c r="I4" s="112">
-        <f>3/12</f>
-        <v>0.25</v>
-      </c>
-      <c r="J4" s="112">
-        <f>3/12</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="89">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="89">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="89">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="89">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="89">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="89">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="89">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="89">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="89">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="89">
-        <v>2014</v>
-      </c>
-      <c r="B18" s="112">
-        <v>1</v>
-      </c>
-      <c r="C18" s="112">
-        <v>4</v>
-      </c>
-      <c r="D18" s="112">
-        <v>10</v>
-      </c>
-      <c r="E18" s="112">
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="112">
-        <v>4</v>
-      </c>
-      <c r="G18" s="112">
-        <v>4</v>
-      </c>
-      <c r="H18" s="112">
-        <f>3/12</f>
-        <v>0.25</v>
-      </c>
-      <c r="I18" s="112">
-        <f>3/12</f>
-        <v>0.25</v>
-      </c>
-      <c r="J18" s="112">
-        <f>3/12</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="89">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="112">
-        <v>2</v>
-      </c>
-      <c r="C19" s="112">
-        <v>8</v>
-      </c>
-      <c r="D19" s="112">
-        <v>20</v>
-      </c>
-      <c r="E19" s="112">
-        <v>1</v>
-      </c>
-      <c r="F19" s="112">
-        <v>8</v>
-      </c>
-      <c r="G19" s="112">
-        <v>8</v>
-      </c>
-      <c r="H19" s="112">
-        <v>0.5</v>
-      </c>
-      <c r="I19" s="112">
-        <v>0.5</v>
-      </c>
-      <c r="J19" s="112">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="89">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="89">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="89">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="89">
-        <v>2020</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="pars" sheetId="24" r:id="rId1"/>
     <sheet name="data" sheetId="5" r:id="rId2"/>
     <sheet name="timepars" sheetId="20" r:id="rId3"/>
-    <sheet name="scen_1" sheetId="23" r:id="rId4"/>
-    <sheet name="scen_2" sheetId="22" r:id="rId5"/>
+    <sheet name="scen_1" sheetId="25" r:id="rId4"/>
+    <sheet name="scen_2" sheetId="26" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -779,7 +779,416 @@
     <author>Michael Traeger</author>
   </authors>
   <commentList>
-    <comment ref="S16" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Proportion of the susceptible population that is at high risk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Relative force of infection multiplier for each risk group </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Number of people on PrEP. Seemed to make more sense than proportion of people on PrEP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Effectiveness of condoms. This number doesn't actually matter because it gets absorbed into the force of infection. But its needed for a gel condom analysis</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Condom usage between risk groups. Might be set this to zero then absorb any relative risk into the relative_foi parameter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Time between HIV tests (in years)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Care cascade data</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Effectiveness of each care stage in reducing infectiousness. The number of people in each infected compartment are multiplied by these values to get an overall relative proportion positive</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This is the time (in years) in each undiagnosed group before people move on to the next one (if they don't get diagnosed). i.e. people spend 1 year in the "&lt;1 year since infection" group, then 2 years in the "1-3 years since infection" group, then stay in the "3+ years since infection" group until they get diagnosed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Proportions of people changing to gel condoms. From the geldom analysis. Can just leave at 0.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Time between tests for people within 1 year of infection</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Time between tests for people infected 1-3 years ago</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Time between tests for people infected over 3 years ago</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Proportion of PLHIV who are diagnosed.
+This is not a parameter, but it could be used for calibration</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Proportion of diagnosed PLHIV who are on treatment</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Proportion of PLHIV on treatment who are virally suppressed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+i.e. PrEP is 97% effective</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -803,7 +1212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S17" authorId="0" shapeId="0">
+    <comment ref="T17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -827,7 +1236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S20" authorId="1" shapeId="0">
+    <comment ref="T20" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -852,6 +1261,112 @@
 For MSM, it is higher at 91.2%.
 See proportion undiagnosed in Kirby report =8.8%
 https://kirby.unsw.edu.au/report/hiv-australia-annual-surveillance-short-report-2018</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Tom Tidhar</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Time between HIV tests (in years)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Time between tests for people within 1 year of infection</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Time between tests for people infected 1-3 years ago</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Time between tests for people infected over 3 years ago</t>
         </r>
       </text>
     </comment>
@@ -860,7 +1375,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="106">
   <si>
     <t>Waiting list</t>
   </si>
@@ -1175,6 +1690,9 @@
   </si>
   <si>
     <t>num_prep</t>
+  </si>
+  <si>
+    <t>prop_high_risk</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1705,7 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1303,6 +1821,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1348,7 +1879,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1403,6 +1934,17 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1573,7 +2115,7 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1654,6 +2196,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1699,17 +2242,17 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1718,13 +2261,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1733,6 +2276,7 @@
     <xf numFmtId="2" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Bad" xfId="15" builtinId="27" customBuiltin="1"/>
@@ -2055,25 +2599,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="51" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="52" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="51" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="51" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="51"/>
-    <col min="9" max="9" width="11.5703125" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.85546875" style="51"/>
-    <col min="12" max="12" width="10.85546875" style="51" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="51" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="51"/>
+    <col min="6" max="6" width="11.42578125" style="52" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="52" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="52"/>
+    <col min="9" max="9" width="11.5703125" style="52" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.85546875" style="52"/>
+    <col min="12" max="12" width="10.85546875" style="52" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2119,8 +2663,8 @@
       <c r="I2" s="9">
         <v>0.05</v>
       </c>
-      <c r="L2" s="58"/>
-      <c r="M2" s="51" t="s">
+      <c r="L2" s="59"/>
+      <c r="M2" s="52" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2131,7 +2675,7 @@
       <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="49">
         <v>4.0741237836483535E-3</v>
       </c>
       <c r="D3" s="23">
@@ -2142,11 +2686,11 @@
         <f>C3+$I$2*C3</f>
         <v>4.2778299728307712E-3</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="60"/>
-      <c r="M3" s="51" t="s">
+      <c r="L3" s="61"/>
+      <c r="M3" s="52" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2157,7 +2701,7 @@
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="56">
         <f>0.001*12*C2</f>
         <v>1E-3</v>
       </c>
@@ -2169,8 +2713,8 @@
         <f>C4+$I$2*C4</f>
         <v>1.0499999999999999E-3</v>
       </c>
-      <c r="L4" s="56"/>
-      <c r="M4" s="51" t="s">
+      <c r="L4" s="57"/>
+      <c r="M4" s="52" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2181,7 +2725,7 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="54">
         <f>0.001*12*C2</f>
         <v>1E-3</v>
       </c>
@@ -2194,7 +2738,7 @@
         <v>1.0499999999999999E-3</v>
       </c>
       <c r="L5" s="27"/>
-      <c r="M5" s="51" t="s">
+      <c r="M5" s="52" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2205,7 +2749,7 @@
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="55">
         <f>0.001*12*C2</f>
         <v>1E-3</v>
       </c>
@@ -2217,15 +2761,15 @@
         <f>C6+$I$2*C6</f>
         <v>1.0499999999999999E-3</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="51">
+      <c r="J6" s="52">
         <f>(1+C3)^(12*(2040-2007))</f>
         <v>5.0031885420339695</v>
       </c>
-      <c r="L6" s="66"/>
-      <c r="M6" s="51" t="s">
+      <c r="L6" s="67"/>
+      <c r="M6" s="52" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2247,14 +2791,14 @@
         <f>C7+$I$2*C7</f>
         <v>7.875</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="46">
         <f>((data!G12/data!G2) ^ (C2/((data!A12-data!A2))) - 1)</f>
         <v>4.0741237836483535E-3</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="52">
         <f>(data!G7-data!G2)/(data!A7-data!A2)/data!G2*C2</f>
         <v>4.6046927083333387E-3</v>
       </c>
@@ -2323,12 +2867,12 @@
       <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="66">
         <v>0</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
-      <c r="G11" s="51" t="s">
+      <c r="G11" s="52" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2339,7 +2883,7 @@
       <c r="B12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="61">
+      <c r="C12" s="62">
         <f>6.2</f>
         <v>6.2</v>
       </c>
@@ -2351,7 +2895,7 @@
         <f t="shared" ref="E12:E20" si="3">C12+$I$2*C12</f>
         <v>6.51</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="52" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2381,7 +2925,7 @@
       <c r="B14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="54">
         <v>0.1</v>
       </c>
       <c r="D14" s="26">
@@ -2400,7 +2944,7 @@
       <c r="B15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="54">
         <v>0.17</v>
       </c>
       <c r="D15" s="26">
@@ -2419,7 +2963,7 @@
       <c r="B16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="62">
+      <c r="C16" s="63">
         <v>0.38800000000000001</v>
       </c>
       <c r="D16" s="26">
@@ -2438,7 +2982,7 @@
       <c r="B17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="63">
+      <c r="C17" s="64">
         <v>0.45</v>
       </c>
       <c r="D17" s="25">
@@ -2476,7 +3020,7 @@
       <c r="B19" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="59">
+      <c r="C19" s="60">
         <f>1-C17</f>
         <v>0.55000000000000004</v>
       </c>
@@ -2496,7 +3040,7 @@
       <c r="B20" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="58">
         <v>0.5</v>
       </c>
       <c r="D20" s="25">
@@ -2515,7 +3059,7 @@
       <c r="B21" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="52">
+      <c r="C21" s="53">
         <v>2007</v>
       </c>
     </row>
@@ -2526,12 +3070,12 @@
       <c r="B22" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="52">
+      <c r="C22" s="53">
         <v>42714</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="64"/>
+      <c r="B30" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2636,7 +3180,7 @@
       <c r="T1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="U1" s="50" t="s">
         <v>55</v>
       </c>
       <c r="V1" s="15"/>
@@ -2663,10 +3207,10 @@
         <f>42714</f>
         <v>42714</v>
       </c>
-      <c r="H2" s="47">
+      <c r="H2" s="48">
         <v>2.32876712328767E-2</v>
       </c>
-      <c r="I2" s="47">
+      <c r="I2" s="48">
         <v>3.4931506849315071E-2</v>
       </c>
       <c r="J2" s="35">
@@ -2677,35 +3221,35 @@
         <f t="shared" ref="K2:K12" si="1">C2</f>
         <v>3075.4079999999999</v>
       </c>
-      <c r="L2" s="39">
+      <c r="L2" s="40">
         <f>ROUND(H2*J2,0)</f>
         <v>923</v>
       </c>
-      <c r="M2" s="39">
+      <c r="M2" s="40">
         <f t="shared" ref="M2" si="2">ROUND(I2*K2,0)</f>
         <v>107</v>
       </c>
       <c r="N2" s="12">
         <v>1007</v>
       </c>
-      <c r="O2" s="43">
+      <c r="O2" s="44">
         <v>0.81</v>
       </c>
-      <c r="P2" s="43">
+      <c r="P2" s="44">
         <v>0.82</v>
       </c>
-      <c r="Q2" s="44">
+      <c r="Q2" s="45">
         <f>N2*O2*P2</f>
         <v>668.84940000000006</v>
       </c>
-      <c r="R2" s="40">
+      <c r="R2" s="41">
         <v>0.17</v>
       </c>
-      <c r="S2" s="42">
+      <c r="S2" s="43">
         <f>Q2-T2</f>
         <v>555.14500200000009</v>
       </c>
-      <c r="T2" s="42">
+      <c r="T2" s="43">
         <f>Q2*R2</f>
         <v>113.70439800000001</v>
       </c>
@@ -2728,8 +3272,8 @@
         <f>1.05*G2</f>
         <v>44849.700000000004</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
       <c r="J3" s="35">
         <f t="shared" si="0"/>
         <v>41620.521600000007</v>
@@ -2743,24 +3287,24 @@
       <c r="N3" s="12">
         <v>922</v>
       </c>
-      <c r="O3" s="43">
+      <c r="O3" s="44">
         <v>0.81</v>
       </c>
-      <c r="P3" s="43">
+      <c r="P3" s="44">
         <v>0.82</v>
       </c>
-      <c r="Q3" s="44">
+      <c r="Q3" s="45">
         <f t="shared" ref="Q3:Q12" si="4">N3*O3*P3</f>
         <v>612.39239999999995</v>
       </c>
-      <c r="R3" s="40">
+      <c r="R3" s="41">
         <v>0.17</v>
       </c>
-      <c r="S3" s="42">
+      <c r="S3" s="43">
         <f t="shared" ref="S3:S12" si="5">Q3-T3</f>
         <v>508.28569199999993</v>
       </c>
-      <c r="T3" s="42">
+      <c r="T3" s="43">
         <f t="shared" ref="T3:T12" si="6">Q3*R3</f>
         <v>104.106708</v>
       </c>
@@ -2783,8 +3327,8 @@
         <f t="shared" ref="G4:G11" si="7">1.05*G3</f>
         <v>47092.185000000005</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
       <c r="J4" s="35">
         <f t="shared" si="0"/>
         <v>43701.547680000003</v>
@@ -2798,24 +3342,24 @@
       <c r="N4" s="12">
         <v>1480</v>
       </c>
-      <c r="O4" s="43">
+      <c r="O4" s="44">
         <v>0.81</v>
       </c>
-      <c r="P4" s="43">
+      <c r="P4" s="44">
         <v>0.82</v>
       </c>
-      <c r="Q4" s="44">
+      <c r="Q4" s="45">
         <f t="shared" si="4"/>
         <v>983.01600000000008</v>
       </c>
-      <c r="R4" s="40">
+      <c r="R4" s="41">
         <v>0.17</v>
       </c>
-      <c r="S4" s="42">
+      <c r="S4" s="43">
         <f t="shared" si="5"/>
         <v>815.90328</v>
       </c>
-      <c r="T4" s="42">
+      <c r="T4" s="43">
         <f t="shared" si="6"/>
         <v>167.11272000000002</v>
       </c>
@@ -2846,10 +3390,10 @@
         <f t="shared" si="7"/>
         <v>49446.794250000006</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="48">
         <v>4.0273972602739724E-2</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="48">
         <v>4.3150684931506846E-2</v>
       </c>
       <c r="J5" s="35">
@@ -2860,35 +3404,35 @@
         <f t="shared" si="1"/>
         <v>3560.1691860000005</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="39">
         <f t="shared" ref="L5:L11" si="8">ROUND(H5*J5,0)</f>
         <v>1848</v>
       </c>
-      <c r="M5" s="38">
+      <c r="M5" s="39">
         <f t="shared" ref="M5:M12" si="9">ROUND(I5*K5,0)</f>
         <v>154</v>
       </c>
       <c r="N5" s="12">
         <v>1758</v>
       </c>
-      <c r="O5" s="43">
+      <c r="O5" s="44">
         <v>0.81</v>
       </c>
-      <c r="P5" s="43">
+      <c r="P5" s="44">
         <v>0.82</v>
       </c>
-      <c r="Q5" s="44">
+      <c r="Q5" s="45">
         <f t="shared" si="4"/>
         <v>1167.6635999999999</v>
       </c>
-      <c r="R5" s="40">
+      <c r="R5" s="41">
         <v>0.17</v>
       </c>
-      <c r="S5" s="42">
+      <c r="S5" s="43">
         <f t="shared" si="5"/>
         <v>969.16078799999991</v>
       </c>
-      <c r="T5" s="42">
+      <c r="T5" s="43">
         <f t="shared" si="6"/>
         <v>198.50281199999998</v>
       </c>
@@ -2913,10 +3457,10 @@
         <f t="shared" si="7"/>
         <v>51919.133962500011</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="48">
         <v>3.7534246575342468E-2</v>
       </c>
-      <c r="I6" s="47">
+      <c r="I6" s="48">
         <v>4.726027397260274E-2</v>
       </c>
       <c r="J6" s="35">
@@ -2927,35 +3471,35 @@
         <f t="shared" si="1"/>
         <v>3738.1776453000011</v>
       </c>
-      <c r="L6" s="38">
+      <c r="L6" s="39">
         <f t="shared" si="8"/>
         <v>1808</v>
       </c>
-      <c r="M6" s="38">
+      <c r="M6" s="39">
         <f t="shared" si="9"/>
         <v>177</v>
       </c>
       <c r="N6" s="12">
         <v>1863</v>
       </c>
-      <c r="O6" s="43">
+      <c r="O6" s="44">
         <v>0.81</v>
       </c>
-      <c r="P6" s="43">
+      <c r="P6" s="44">
         <v>0.82</v>
       </c>
-      <c r="Q6" s="44">
+      <c r="Q6" s="45">
         <f t="shared" si="4"/>
         <v>1237.4046000000001</v>
       </c>
-      <c r="R6" s="40">
+      <c r="R6" s="41">
         <v>0.17</v>
       </c>
-      <c r="S6" s="42">
+      <c r="S6" s="43">
         <f t="shared" si="5"/>
         <v>1027.0458180000001</v>
       </c>
-      <c r="T6" s="42">
+      <c r="T6" s="43">
         <f t="shared" si="6"/>
         <v>210.35878200000002</v>
       </c>
@@ -2986,10 +3530,10 @@
         <f t="shared" si="7"/>
         <v>54515.090660625014</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="48">
         <v>4.876712328767123E-2</v>
       </c>
-      <c r="I7" s="47">
+      <c r="I7" s="48">
         <v>5.3835616438356167E-2</v>
       </c>
       <c r="J7" s="35">
@@ -3000,35 +3544,35 @@
         <f t="shared" si="1"/>
         <v>3925.0865275650012</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L7" s="39">
         <f t="shared" si="8"/>
         <v>2467</v>
       </c>
-      <c r="M7" s="38">
+      <c r="M7" s="39">
         <f t="shared" si="9"/>
         <v>211</v>
       </c>
       <c r="N7" s="12">
         <v>2436</v>
       </c>
-      <c r="O7" s="43">
+      <c r="O7" s="44">
         <v>0.81</v>
       </c>
-      <c r="P7" s="43">
+      <c r="P7" s="44">
         <v>0.82</v>
       </c>
-      <c r="Q7" s="44">
+      <c r="Q7" s="45">
         <f t="shared" si="4"/>
         <v>1617.9911999999999</v>
       </c>
-      <c r="R7" s="40">
+      <c r="R7" s="41">
         <v>0.17</v>
       </c>
-      <c r="S7" s="42">
+      <c r="S7" s="43">
         <f t="shared" si="5"/>
         <v>1342.9326959999999</v>
       </c>
-      <c r="T7" s="42">
+      <c r="T7" s="43">
         <f t="shared" si="6"/>
         <v>275.05850400000003</v>
       </c>
@@ -3059,10 +3603,10 @@
         <f t="shared" si="7"/>
         <v>57240.845193656263</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="48">
         <v>5.2876712328767124E-2</v>
       </c>
-      <c r="I8" s="47">
+      <c r="I8" s="48">
         <v>6.2671232876712321E-2</v>
       </c>
       <c r="J8" s="35">
@@ -3073,35 +3617,35 @@
         <f t="shared" si="1"/>
         <v>4121.3408539432512</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="39">
         <f t="shared" si="8"/>
         <v>2809</v>
       </c>
-      <c r="M8" s="38">
+      <c r="M8" s="39">
         <f t="shared" si="9"/>
         <v>258</v>
       </c>
       <c r="N8" s="12">
         <v>2978</v>
       </c>
-      <c r="O8" s="43">
+      <c r="O8" s="44">
         <v>0.81</v>
       </c>
-      <c r="P8" s="43">
+      <c r="P8" s="44">
         <v>0.82</v>
       </c>
-      <c r="Q8" s="44">
+      <c r="Q8" s="45">
         <f t="shared" si="4"/>
         <v>1977.9876000000002</v>
       </c>
-      <c r="R8" s="40">
+      <c r="R8" s="41">
         <v>0.17</v>
       </c>
-      <c r="S8" s="42">
+      <c r="S8" s="43">
         <f t="shared" si="5"/>
         <v>1641.7297080000001</v>
       </c>
-      <c r="T8" s="42">
+      <c r="T8" s="43">
         <f t="shared" si="6"/>
         <v>336.25789200000003</v>
       </c>
@@ -3132,10 +3676,10 @@
         <f t="shared" si="7"/>
         <v>60102.887453339077</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="48">
         <v>5.1506849315068493E-2</v>
       </c>
-      <c r="I9" s="47">
+      <c r="I9" s="48">
         <v>5.321917808219178E-2</v>
       </c>
       <c r="J9" s="35">
@@ -3146,35 +3690,35 @@
         <f t="shared" si="1"/>
         <v>4327.407896640414</v>
       </c>
-      <c r="L9" s="38">
+      <c r="L9" s="39">
         <f t="shared" si="8"/>
         <v>2873</v>
       </c>
-      <c r="M9" s="38">
+      <c r="M9" s="39">
         <f t="shared" si="9"/>
         <v>230</v>
       </c>
       <c r="N9" s="12">
         <v>3269</v>
       </c>
-      <c r="O9" s="43">
+      <c r="O9" s="44">
         <v>0.81</v>
       </c>
-      <c r="P9" s="43">
+      <c r="P9" s="44">
         <v>0.82</v>
       </c>
-      <c r="Q9" s="44">
+      <c r="Q9" s="45">
         <f t="shared" si="4"/>
         <v>2171.2698</v>
       </c>
-      <c r="R9" s="40">
+      <c r="R9" s="41">
         <v>0.17</v>
       </c>
-      <c r="S9" s="42">
+      <c r="S9" s="43">
         <f t="shared" si="5"/>
         <v>1802.1539339999999</v>
       </c>
-      <c r="T9" s="42">
+      <c r="T9" s="43">
         <f t="shared" si="6"/>
         <v>369.11586600000004</v>
       </c>
@@ -3205,10 +3749,10 @@
         <f t="shared" si="7"/>
         <v>63108.03182600603</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="48">
         <v>6.6575342465753418E-2</v>
       </c>
-      <c r="I10" s="47">
+      <c r="I10" s="48">
         <v>6.7191780821917804E-2</v>
       </c>
       <c r="J10" s="35">
@@ -3219,35 +3763,35 @@
         <f t="shared" si="1"/>
         <v>4543.7782914724339</v>
       </c>
-      <c r="L10" s="38">
+      <c r="L10" s="39">
         <f t="shared" si="8"/>
         <v>3899</v>
       </c>
-      <c r="M10" s="38">
+      <c r="M10" s="39">
         <f t="shared" si="9"/>
         <v>305</v>
       </c>
       <c r="N10" s="12">
         <v>4865</v>
       </c>
-      <c r="O10" s="43">
+      <c r="O10" s="44">
         <v>0.81</v>
       </c>
-      <c r="P10" s="43">
+      <c r="P10" s="44">
         <v>0.82</v>
       </c>
-      <c r="Q10" s="44">
+      <c r="Q10" s="45">
         <f t="shared" si="4"/>
         <v>3231.3330000000001</v>
       </c>
-      <c r="R10" s="41">
+      <c r="R10" s="42">
         <v>0.17</v>
       </c>
-      <c r="S10" s="42">
+      <c r="S10" s="43">
         <f t="shared" si="5"/>
         <v>2682.00639</v>
       </c>
-      <c r="T10" s="42">
+      <c r="T10" s="43">
         <f t="shared" si="6"/>
         <v>549.32661000000007</v>
       </c>
@@ -3278,10 +3822,10 @@
         <f t="shared" si="7"/>
         <v>66263.43341730634</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="48">
         <v>6.3287671232876708E-2</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="48">
         <v>6.9246575342465755E-2</v>
       </c>
       <c r="J11" s="35">
@@ -3292,39 +3836,39 @@
         <f t="shared" si="1"/>
         <v>4770.9672060460571</v>
       </c>
-      <c r="L11" s="38">
+      <c r="L11" s="39">
         <f t="shared" si="8"/>
         <v>3892</v>
       </c>
-      <c r="M11" s="38">
+      <c r="M11" s="39">
         <f t="shared" si="9"/>
         <v>330</v>
       </c>
       <c r="N11" s="12">
         <v>6265</v>
       </c>
-      <c r="O11" s="43">
+      <c r="O11" s="44">
         <v>0.81</v>
       </c>
-      <c r="P11" s="43">
+      <c r="P11" s="44">
         <v>0.82</v>
       </c>
-      <c r="Q11" s="44">
+      <c r="Q11" s="45">
         <f t="shared" si="4"/>
         <v>4161.2130000000006</v>
       </c>
-      <c r="R11" s="41">
+      <c r="R11" s="42">
         <v>0.13</v>
       </c>
-      <c r="S11" s="42">
+      <c r="S11" s="43">
         <f t="shared" si="5"/>
         <v>3620.2553100000005</v>
       </c>
-      <c r="T11" s="42">
+      <c r="T11" s="43">
         <f t="shared" si="6"/>
         <v>540.95769000000007</v>
       </c>
-      <c r="U11" s="50">
+      <c r="U11" s="51">
         <v>0.18</v>
       </c>
     </row>
@@ -3346,11 +3890,11 @@
         <f>1.05*G11</f>
         <v>69576.605088171666</v>
       </c>
-      <c r="H12" s="47" t="e">
+      <c r="H12" s="48" t="e">
         <f>0.01*(#REF!*#REF!+#REF!*#REF!)/(#REF!+#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I12" s="47">
+      <c r="I12" s="48">
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="J12" s="35">
@@ -3362,31 +3906,31 @@
         <v>5009.5155663483602</v>
       </c>
       <c r="L12" s="14"/>
-      <c r="M12" s="38">
+      <c r="M12" s="39">
         <f t="shared" si="9"/>
         <v>234</v>
       </c>
       <c r="N12" s="12">
         <v>7289</v>
       </c>
-      <c r="O12" s="43">
+      <c r="O12" s="44">
         <v>0.81</v>
       </c>
-      <c r="P12" s="43">
+      <c r="P12" s="44">
         <v>0.7</v>
       </c>
-      <c r="Q12" s="44">
+      <c r="Q12" s="45">
         <f t="shared" si="4"/>
         <v>4132.8630000000003</v>
       </c>
-      <c r="R12" s="40">
+      <c r="R12" s="41">
         <v>0.1</v>
       </c>
-      <c r="S12" s="42">
+      <c r="S12" s="43">
         <f t="shared" si="5"/>
         <v>3719.5767000000001</v>
       </c>
-      <c r="T12" s="42">
+      <c r="T12" s="43">
         <f t="shared" si="6"/>
         <v>413.28630000000004</v>
       </c>
@@ -3401,11 +3945,11 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
-      <c r="J14" s="46"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
-      <c r="J15" s="46"/>
+      <c r="J15" s="47"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
@@ -3449,1145 +3993,1178 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF24"/>
+  <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="68" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="68" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="68" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="16" style="68" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="15" style="68" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" style="68" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.85546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28" style="68" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.85546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28" style="68" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.85546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15" style="68" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.85546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15" style="68" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11" style="68" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="69" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="69" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="69" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="69" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="69" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="16" style="69" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="69" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="15" style="69" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="69" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" style="69" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.85546875" style="69" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28" style="69" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.85546875" style="69" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="28" style="69" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" style="69" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15" style="69" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.85546875" style="69" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15" style="69" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11" style="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="D1" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="E1" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="F1" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="G1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="73" t="s">
+      <c r="H1" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="I1" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="J1" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="73" t="s">
+      <c r="K1" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="74" t="s">
+      <c r="L1" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="74" t="s">
+      <c r="M1" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="N1" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="74" t="s">
+      <c r="O1" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="74" t="s">
+      <c r="P1" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="74" t="s">
+      <c r="Q1" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="Q1" s="74" t="s">
+      <c r="R1" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="75" t="s">
+      <c r="S1" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="S1" s="73" t="s">
+      <c r="T1" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="74" t="s">
+      <c r="U1" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="75" t="s">
+      <c r="V1" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="V1" s="73" t="s">
+      <c r="W1" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="74" t="s">
+      <c r="X1" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="X1" s="75" t="s">
+      <c r="Y1" s="77" t="s">
         <v>92</v>
-      </c>
-      <c r="Y1" s="88" t="s">
-        <v>102</v>
       </c>
       <c r="Z1" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="AA1" s="88" t="s">
+      <c r="AA1" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB1" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="AB1" s="89" t="s">
+      <c r="AC1" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="AC1" s="89" t="s">
+      <c r="AD1" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="AD1" s="89" t="s">
+      <c r="AE1" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="AE1" s="89" t="s">
+      <c r="AF1" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="AF1" s="90" t="s">
+      <c r="AG1" s="92" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="D2" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="E2" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="76" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="I2" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="J2" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="76" t="s">
+      <c r="K2" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="77" t="s">
+      <c r="L2" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="L2" s="77" t="s">
+      <c r="M2" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="77" t="s">
+      <c r="N2" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="N2" s="77" t="s">
+      <c r="O2" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="O2" s="77" t="s">
+      <c r="P2" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="P2" s="77" t="s">
+      <c r="Q2" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="Q2" s="77" t="s">
+      <c r="R2" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="R2" s="78" t="s">
+      <c r="S2" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="S2" s="76"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="91"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="80"/>
       <c r="Z2" s="93"/>
-      <c r="AA2" s="91" t="s">
+      <c r="AA2" s="95"/>
+      <c r="AB2" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="AB2" s="92" t="s">
+      <c r="AC2" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="AC2" s="92" t="s">
+      <c r="AD2" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="AD2" s="92" t="s">
+      <c r="AE2" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="AE2" s="92" t="s">
+      <c r="AF2" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="AF2" s="93" t="s">
+      <c r="AG2" s="95" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="76" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="77" t="s">
+      <c r="L3" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="L3" s="77" t="s">
+      <c r="M3" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="M3" s="77" t="s">
+      <c r="N3" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="N3" s="77" t="s">
+      <c r="O3" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="O3" s="77" t="s">
+      <c r="P3" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="P3" s="77" t="s">
+      <c r="Q3" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="Q3" s="77" t="s">
+      <c r="R3" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="R3" s="78" t="s">
+      <c r="S3" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="S3" s="76" t="s">
+      <c r="T3" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="T3" s="77" t="s">
+      <c r="U3" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="U3" s="78" t="s">
+      <c r="V3" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="V3" s="76" t="s">
+      <c r="W3" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="W3" s="77" t="s">
+      <c r="X3" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="X3" s="78" t="s">
+      <c r="Y3" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="Y3" s="91" t="s">
+      <c r="Z3" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="Z3" s="93" t="s">
+      <c r="AA3" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="92"/>
-      <c r="AC3" s="92"/>
-      <c r="AD3" s="92"/>
-      <c r="AE3" s="92"/>
-      <c r="AF3" s="93"/>
-    </row>
-    <row r="4" spans="1:32" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36">
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="95"/>
+    </row>
+    <row r="4" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37">
         <v>2000</v>
       </c>
-      <c r="B4" s="79">
+      <c r="B4" s="36">
+        <v>0.13</v>
+      </c>
+      <c r="C4" s="81">
         <v>1</v>
       </c>
-      <c r="C4" s="80">
+      <c r="D4" s="82">
         <v>10</v>
       </c>
-      <c r="D4" s="81">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="72">
-        <v>2000</v>
-      </c>
-      <c r="F4" s="72">
+      <c r="E4" s="83">
+        <v>0.03</v>
+      </c>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74">
         <v>0.7</v>
       </c>
-      <c r="G4" s="79">
+      <c r="H4" s="81">
         <v>0.42</v>
       </c>
-      <c r="H4" s="80">
+      <c r="I4" s="82">
         <v>0.35</v>
       </c>
-      <c r="I4" s="81">
+      <c r="J4" s="83">
         <v>0.1</v>
       </c>
-      <c r="J4" s="79">
+      <c r="K4" s="81">
         <v>1</v>
       </c>
-      <c r="K4" s="80">
+      <c r="L4" s="82">
         <v>4</v>
       </c>
-      <c r="L4" s="80">
+      <c r="M4" s="82">
         <v>10</v>
       </c>
-      <c r="M4" s="80">
+      <c r="N4" s="82">
         <v>0.5</v>
       </c>
-      <c r="N4" s="80">
+      <c r="O4" s="82">
         <v>4</v>
       </c>
-      <c r="O4" s="80">
+      <c r="P4" s="82">
         <v>4</v>
       </c>
-      <c r="P4" s="80">
+      <c r="Q4" s="82">
         <f>3/12</f>
         <v>0.25</v>
       </c>
-      <c r="Q4" s="80">
+      <c r="R4" s="82">
         <f>3/12</f>
         <v>0.25</v>
       </c>
-      <c r="R4" s="81">
+      <c r="S4" s="83">
         <f>3/12</f>
         <v>0.25</v>
       </c>
-      <c r="S4" s="79"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="79">
+      <c r="T4" s="81"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="81">
         <v>1</v>
       </c>
-      <c r="W4" s="80">
+      <c r="X4" s="82">
         <v>1</v>
       </c>
-      <c r="X4" s="81">
+      <c r="Y4" s="83">
         <v>0.04</v>
       </c>
-      <c r="Y4" s="94">
+      <c r="Z4" s="96">
         <v>1</v>
       </c>
-      <c r="Z4" s="96">
+      <c r="AA4" s="98">
         <v>2</v>
       </c>
-      <c r="AA4" s="94">
+      <c r="AB4" s="96">
         <v>0</v>
       </c>
-      <c r="AB4" s="95">
+      <c r="AC4" s="97">
         <v>0</v>
       </c>
-      <c r="AC4" s="95">
+      <c r="AD4" s="97">
         <v>0</v>
       </c>
-      <c r="AD4" s="95">
+      <c r="AE4" s="97">
         <v>0</v>
       </c>
-      <c r="AE4" s="95">
+      <c r="AF4" s="97">
         <v>0</v>
       </c>
-      <c r="AF4" s="96">
+      <c r="AG4" s="98">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37">
+    <row r="5" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38">
         <v>2001</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="83"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="97"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="85"/>
+      <c r="Y5" s="86"/>
       <c r="Z5" s="99"/>
-      <c r="AA5" s="97"/>
-      <c r="AB5" s="98"/>
-      <c r="AC5" s="98"/>
-      <c r="AD5" s="98"/>
-      <c r="AE5" s="98"/>
-      <c r="AF5" s="99"/>
-    </row>
-    <row r="6" spans="1:32" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37">
+      <c r="AA5" s="101"/>
+      <c r="AB5" s="99"/>
+      <c r="AC5" s="100"/>
+      <c r="AD5" s="100"/>
+      <c r="AE5" s="100"/>
+      <c r="AF5" s="100"/>
+      <c r="AG5" s="101"/>
+    </row>
+    <row r="6" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38">
         <v>2002</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="82"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="84"/>
-      <c r="Y6" s="97"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="85"/>
+      <c r="Y6" s="86"/>
       <c r="Z6" s="99"/>
-      <c r="AA6" s="97"/>
-      <c r="AB6" s="98"/>
-      <c r="AC6" s="98"/>
-      <c r="AD6" s="98"/>
-      <c r="AE6" s="98"/>
-      <c r="AF6" s="99"/>
-    </row>
-    <row r="7" spans="1:32" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37">
+      <c r="AA6" s="101"/>
+      <c r="AB6" s="99"/>
+      <c r="AC6" s="100"/>
+      <c r="AD6" s="100"/>
+      <c r="AE6" s="100"/>
+      <c r="AF6" s="100"/>
+      <c r="AG6" s="101"/>
+    </row>
+    <row r="7" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38">
         <v>2003</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="83"/>
-      <c r="U7" s="84"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="83"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="97"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="84"/>
+      <c r="U7" s="85"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="84"/>
+      <c r="X7" s="85"/>
+      <c r="Y7" s="86"/>
       <c r="Z7" s="99"/>
-      <c r="AA7" s="97"/>
-      <c r="AB7" s="98"/>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="98"/>
-      <c r="AF7" s="99"/>
-    </row>
-    <row r="8" spans="1:32" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37">
+      <c r="AA7" s="101"/>
+      <c r="AB7" s="99"/>
+      <c r="AC7" s="100"/>
+      <c r="AD7" s="100"/>
+      <c r="AE7" s="100"/>
+      <c r="AF7" s="100"/>
+      <c r="AG7" s="101"/>
+    </row>
+    <row r="8" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38">
         <v>2004</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="84"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="84"/>
-      <c r="Y8" s="97"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="84"/>
+      <c r="U8" s="85"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="84"/>
+      <c r="X8" s="85"/>
+      <c r="Y8" s="86"/>
       <c r="Z8" s="99"/>
-      <c r="AA8" s="97"/>
-      <c r="AB8" s="98"/>
-      <c r="AC8" s="98"/>
-      <c r="AD8" s="98"/>
-      <c r="AE8" s="98"/>
-      <c r="AF8" s="99"/>
-    </row>
-    <row r="9" spans="1:32" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37">
+      <c r="AA8" s="101"/>
+      <c r="AB8" s="99"/>
+      <c r="AC8" s="100"/>
+      <c r="AD8" s="100"/>
+      <c r="AE8" s="100"/>
+      <c r="AF8" s="100"/>
+      <c r="AG8" s="101"/>
+    </row>
+    <row r="9" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38">
         <v>2005</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="84"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="97"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="84"/>
+      <c r="U9" s="85"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="85"/>
+      <c r="Y9" s="86"/>
       <c r="Z9" s="99"/>
-      <c r="AA9" s="97"/>
-      <c r="AB9" s="98"/>
-      <c r="AC9" s="98"/>
-      <c r="AD9" s="98"/>
-      <c r="AE9" s="98"/>
-      <c r="AF9" s="99"/>
-    </row>
-    <row r="10" spans="1:32" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37">
+      <c r="AA9" s="101"/>
+      <c r="AB9" s="99"/>
+      <c r="AC9" s="100"/>
+      <c r="AD9" s="100"/>
+      <c r="AE9" s="100"/>
+      <c r="AF9" s="100"/>
+      <c r="AG9" s="101"/>
+    </row>
+    <row r="10" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38">
         <v>2006</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="84"/>
-      <c r="V10" s="82"/>
-      <c r="W10" s="83"/>
-      <c r="X10" s="84"/>
-      <c r="Y10" s="97"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="86"/>
+      <c r="T10" s="84"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="84"/>
+      <c r="X10" s="85"/>
+      <c r="Y10" s="86"/>
       <c r="Z10" s="99"/>
-      <c r="AA10" s="97"/>
-      <c r="AB10" s="98"/>
-      <c r="AC10" s="98"/>
-      <c r="AD10" s="98"/>
-      <c r="AE10" s="98"/>
-      <c r="AF10" s="99"/>
-    </row>
-    <row r="11" spans="1:32" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37">
+      <c r="AA10" s="101"/>
+      <c r="AB10" s="99"/>
+      <c r="AC10" s="100"/>
+      <c r="AD10" s="100"/>
+      <c r="AE10" s="100"/>
+      <c r="AF10" s="100"/>
+      <c r="AG10" s="101"/>
+    </row>
+    <row r="11" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
         <v>2007</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="82">
+      <c r="B11" s="53"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="86"/>
+      <c r="T11" s="84">
         <v>0.7</v>
       </c>
-      <c r="T11" s="83">
+      <c r="U11" s="85">
         <v>0.75</v>
       </c>
-      <c r="U11" s="84">
+      <c r="V11" s="86">
         <v>0.8</v>
       </c>
-      <c r="V11" s="82"/>
-      <c r="W11" s="83"/>
-      <c r="X11" s="84"/>
-      <c r="Y11" s="97"/>
+      <c r="W11" s="84"/>
+      <c r="X11" s="85"/>
+      <c r="Y11" s="86"/>
       <c r="Z11" s="99"/>
-      <c r="AA11" s="97"/>
-      <c r="AB11" s="98"/>
-      <c r="AC11" s="98"/>
-      <c r="AD11" s="98"/>
-      <c r="AE11" s="98"/>
-      <c r="AF11" s="99"/>
-    </row>
-    <row r="12" spans="1:32" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37">
+      <c r="AA11" s="101"/>
+      <c r="AB11" s="99"/>
+      <c r="AC11" s="100"/>
+      <c r="AD11" s="100"/>
+      <c r="AE11" s="100"/>
+      <c r="AF11" s="100"/>
+      <c r="AG11" s="101"/>
+    </row>
+    <row r="12" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38">
         <v>2008</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="83"/>
-      <c r="U12" s="84"/>
-      <c r="V12" s="82"/>
-      <c r="W12" s="83"/>
-      <c r="X12" s="84"/>
-      <c r="Y12" s="97"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="84"/>
+      <c r="U12" s="85"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="84"/>
+      <c r="X12" s="85"/>
+      <c r="Y12" s="86"/>
       <c r="Z12" s="99"/>
-      <c r="AA12" s="97"/>
-      <c r="AB12" s="98"/>
-      <c r="AC12" s="98"/>
-      <c r="AD12" s="98"/>
-      <c r="AE12" s="98"/>
-      <c r="AF12" s="99"/>
-    </row>
-    <row r="13" spans="1:32" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37">
+      <c r="AA12" s="101"/>
+      <c r="AB12" s="99"/>
+      <c r="AC12" s="100"/>
+      <c r="AD12" s="100"/>
+      <c r="AE12" s="100"/>
+      <c r="AF12" s="100"/>
+      <c r="AG12" s="101"/>
+    </row>
+    <row r="13" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38">
         <v>2009</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="83"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="82"/>
-      <c r="W13" s="83"/>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="97"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="71">
+        <v>0</v>
+      </c>
+      <c r="G13" s="71"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="85"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="84"/>
+      <c r="U13" s="85"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="85"/>
+      <c r="Y13" s="86"/>
       <c r="Z13" s="99"/>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="98"/>
-      <c r="AC13" s="98"/>
-      <c r="AD13" s="98"/>
-      <c r="AE13" s="98"/>
-      <c r="AF13" s="99"/>
-    </row>
-    <row r="14" spans="1:32" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37">
+      <c r="AA13" s="101"/>
+      <c r="AB13" s="99"/>
+      <c r="AC13" s="100"/>
+      <c r="AD13" s="100"/>
+      <c r="AE13" s="100"/>
+      <c r="AF13" s="100"/>
+      <c r="AG13" s="101"/>
+    </row>
+    <row r="14" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
         <v>2010</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="82">
+      <c r="B14" s="53"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="71">
+        <v>1500</v>
+      </c>
+      <c r="G14" s="71"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="84">
         <v>0.7</v>
       </c>
-      <c r="T14" s="83">
+      <c r="U14" s="85">
         <v>0.75</v>
       </c>
-      <c r="U14" s="84">
+      <c r="V14" s="86">
         <v>0.8</v>
       </c>
-      <c r="V14" s="82"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="84"/>
-      <c r="Y14" s="97"/>
+      <c r="W14" s="84"/>
+      <c r="X14" s="85"/>
+      <c r="Y14" s="86"/>
       <c r="Z14" s="99"/>
-      <c r="AA14" s="97"/>
-      <c r="AB14" s="98"/>
-      <c r="AC14" s="98"/>
-      <c r="AD14" s="98"/>
-      <c r="AE14" s="98"/>
-      <c r="AF14" s="99"/>
-    </row>
-    <row r="15" spans="1:32" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37">
+      <c r="AA14" s="101"/>
+      <c r="AB14" s="99"/>
+      <c r="AC14" s="100"/>
+      <c r="AD14" s="100"/>
+      <c r="AE14" s="100"/>
+      <c r="AF14" s="100"/>
+      <c r="AG14" s="101"/>
+    </row>
+    <row r="15" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38">
         <v>2011</v>
       </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="83"/>
-      <c r="U15" s="84"/>
-      <c r="V15" s="82"/>
-      <c r="W15" s="83"/>
-      <c r="X15" s="84"/>
-      <c r="Y15" s="97"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="84"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="86"/>
+      <c r="W15" s="84"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="86"/>
       <c r="Z15" s="99"/>
-      <c r="AA15" s="97"/>
-      <c r="AB15" s="98"/>
-      <c r="AC15" s="98"/>
-      <c r="AD15" s="98"/>
-      <c r="AE15" s="98"/>
-      <c r="AF15" s="99"/>
-    </row>
-    <row r="16" spans="1:32" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37">
+      <c r="AA15" s="101"/>
+      <c r="AB15" s="99"/>
+      <c r="AC15" s="100"/>
+      <c r="AD15" s="100"/>
+      <c r="AE15" s="100"/>
+      <c r="AF15" s="100"/>
+      <c r="AG15" s="101"/>
+    </row>
+    <row r="16" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38">
         <v>2012</v>
       </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="82">
+      <c r="B16" s="53"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="86"/>
+      <c r="T16" s="84">
         <v>0.91200000000000003</v>
       </c>
-      <c r="T16" s="83">
+      <c r="U16" s="85">
         <v>0.82</v>
       </c>
-      <c r="U16" s="84">
+      <c r="V16" s="86">
         <v>0.88</v>
       </c>
-      <c r="V16" s="82"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="84"/>
-      <c r="Y16" s="97"/>
+      <c r="W16" s="84"/>
+      <c r="X16" s="85"/>
+      <c r="Y16" s="86"/>
       <c r="Z16" s="99"/>
-      <c r="AA16" s="97"/>
-      <c r="AB16" s="98"/>
-      <c r="AC16" s="98"/>
-      <c r="AD16" s="98"/>
-      <c r="AE16" s="98"/>
-      <c r="AF16" s="99"/>
-    </row>
-    <row r="17" spans="1:32" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37">
+      <c r="AA16" s="101"/>
+      <c r="AB16" s="99"/>
+      <c r="AC16" s="100"/>
+      <c r="AD16" s="100"/>
+      <c r="AE16" s="100"/>
+      <c r="AF16" s="100"/>
+      <c r="AG16" s="101"/>
+    </row>
+    <row r="17" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38">
         <v>2013</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="82">
+      <c r="B17" s="53"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="84">
         <v>0.91200000000000003</v>
       </c>
-      <c r="T17" s="83">
+      <c r="U17" s="85">
         <v>0.86</v>
       </c>
-      <c r="U17" s="84">
+      <c r="V17" s="86">
         <v>0.9</v>
       </c>
-      <c r="V17" s="82"/>
-      <c r="W17" s="83"/>
-      <c r="X17" s="84"/>
-      <c r="Y17" s="97"/>
+      <c r="W17" s="84"/>
+      <c r="X17" s="85"/>
+      <c r="Y17" s="86"/>
       <c r="Z17" s="99"/>
-      <c r="AA17" s="97"/>
-      <c r="AB17" s="98"/>
-      <c r="AC17" s="98"/>
-      <c r="AD17" s="98"/>
-      <c r="AE17" s="98"/>
-      <c r="AF17" s="99"/>
-    </row>
-    <row r="18" spans="1:32" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37">
+      <c r="AA17" s="101"/>
+      <c r="AB17" s="99"/>
+      <c r="AC17" s="100"/>
+      <c r="AD17" s="100"/>
+      <c r="AE17" s="100"/>
+      <c r="AF17" s="100"/>
+      <c r="AG17" s="101"/>
+    </row>
+    <row r="18" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="38">
         <v>2014</v>
       </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="82">
+      <c r="B18" s="53"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="86"/>
+      <c r="T18" s="84">
         <v>0.91200000000000003</v>
       </c>
-      <c r="T18" s="83">
+      <c r="U18" s="85">
         <v>0.89</v>
       </c>
-      <c r="U18" s="84">
+      <c r="V18" s="86">
         <v>0.9</v>
       </c>
-      <c r="V18" s="82"/>
-      <c r="W18" s="83"/>
-      <c r="X18" s="84"/>
-      <c r="Y18" s="97"/>
+      <c r="W18" s="84"/>
+      <c r="X18" s="85"/>
+      <c r="Y18" s="86"/>
       <c r="Z18" s="99"/>
-      <c r="AA18" s="97"/>
-      <c r="AB18" s="98"/>
-      <c r="AC18" s="98"/>
-      <c r="AD18" s="98"/>
-      <c r="AE18" s="98"/>
-      <c r="AF18" s="99"/>
-    </row>
-    <row r="19" spans="1:32" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37">
+      <c r="AA18" s="101"/>
+      <c r="AB18" s="99"/>
+      <c r="AC18" s="100"/>
+      <c r="AD18" s="100"/>
+      <c r="AE18" s="100"/>
+      <c r="AF18" s="100"/>
+      <c r="AG18" s="101"/>
+    </row>
+    <row r="19" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38">
         <v>2015</v>
       </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="84"/>
-      <c r="S19" s="82">
+      <c r="B19" s="53"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="84">
         <v>0.91200000000000003</v>
       </c>
-      <c r="T19" s="83">
+      <c r="U19" s="85">
         <v>0.92</v>
       </c>
-      <c r="U19" s="84">
+      <c r="V19" s="86">
         <v>0.92</v>
       </c>
-      <c r="V19" s="82"/>
-      <c r="W19" s="83"/>
-      <c r="X19" s="84"/>
-      <c r="Y19" s="97"/>
+      <c r="W19" s="84"/>
+      <c r="X19" s="85"/>
+      <c r="Y19" s="86"/>
       <c r="Z19" s="99"/>
-      <c r="AA19" s="97"/>
-      <c r="AB19" s="98"/>
-      <c r="AC19" s="98"/>
-      <c r="AD19" s="98"/>
-      <c r="AE19" s="98"/>
-      <c r="AF19" s="99"/>
-    </row>
-    <row r="20" spans="1:32" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37">
+      <c r="AA19" s="101"/>
+      <c r="AB19" s="99"/>
+      <c r="AC19" s="100"/>
+      <c r="AD19" s="100"/>
+      <c r="AE19" s="100"/>
+      <c r="AF19" s="100"/>
+      <c r="AG19" s="101"/>
+    </row>
+    <row r="20" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38">
         <v>2016</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="83"/>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="84"/>
-      <c r="S20" s="82">
+      <c r="B20" s="53"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="71">
+        <v>4000</v>
+      </c>
+      <c r="G20" s="71"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="85"/>
+      <c r="S20" s="86"/>
+      <c r="T20" s="84">
         <v>0.91200000000000003</v>
       </c>
-      <c r="T20" s="83">
+      <c r="U20" s="85">
         <v>0.95</v>
       </c>
-      <c r="U20" s="84">
+      <c r="V20" s="86">
         <v>0.94</v>
       </c>
-      <c r="V20" s="82"/>
-      <c r="W20" s="83"/>
-      <c r="X20" s="84"/>
-      <c r="Y20" s="97"/>
+      <c r="W20" s="84"/>
+      <c r="X20" s="85"/>
+      <c r="Y20" s="86"/>
       <c r="Z20" s="99"/>
-      <c r="AA20" s="97"/>
-      <c r="AB20" s="98"/>
-      <c r="AC20" s="98"/>
-      <c r="AD20" s="98"/>
-      <c r="AE20" s="98"/>
-      <c r="AF20" s="99"/>
-    </row>
-    <row r="21" spans="1:32" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37">
+      <c r="AA20" s="101"/>
+      <c r="AB20" s="99"/>
+      <c r="AC20" s="100"/>
+      <c r="AD20" s="100"/>
+      <c r="AE20" s="100"/>
+      <c r="AF20" s="100"/>
+      <c r="AG20" s="101"/>
+    </row>
+    <row r="21" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38">
         <v>2017</v>
       </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="83"/>
-      <c r="O21" s="83"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="82"/>
-      <c r="T21" s="83"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="82"/>
-      <c r="W21" s="83"/>
-      <c r="X21" s="84"/>
-      <c r="Y21" s="97"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="86"/>
+      <c r="T21" s="84"/>
+      <c r="U21" s="85"/>
+      <c r="V21" s="86"/>
+      <c r="W21" s="84"/>
+      <c r="X21" s="85"/>
+      <c r="Y21" s="86"/>
       <c r="Z21" s="99"/>
-      <c r="AA21" s="97"/>
-      <c r="AB21" s="98"/>
-      <c r="AC21" s="98"/>
-      <c r="AD21" s="98"/>
-      <c r="AE21" s="98"/>
-      <c r="AF21" s="99"/>
-    </row>
-    <row r="22" spans="1:32" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37">
+      <c r="AA21" s="101"/>
+      <c r="AB21" s="99"/>
+      <c r="AC21" s="100"/>
+      <c r="AD21" s="100"/>
+      <c r="AE21" s="100"/>
+      <c r="AF21" s="100"/>
+      <c r="AG21" s="101"/>
+    </row>
+    <row r="22" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38">
         <v>2018</v>
       </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="83"/>
-      <c r="O22" s="83"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="82"/>
-      <c r="T22" s="83"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="82"/>
-      <c r="W22" s="83"/>
-      <c r="X22" s="84"/>
-      <c r="Y22" s="97"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="85"/>
+      <c r="S22" s="86"/>
+      <c r="T22" s="84"/>
+      <c r="U22" s="85"/>
+      <c r="V22" s="86"/>
+      <c r="W22" s="84"/>
+      <c r="X22" s="85"/>
+      <c r="Y22" s="86"/>
       <c r="Z22" s="99"/>
-      <c r="AA22" s="97"/>
-      <c r="AB22" s="98"/>
-      <c r="AC22" s="98"/>
-      <c r="AD22" s="98"/>
-      <c r="AE22" s="98"/>
-      <c r="AF22" s="99"/>
-    </row>
-    <row r="23" spans="1:32" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37">
+      <c r="AA22" s="101"/>
+      <c r="AB22" s="99"/>
+      <c r="AC22" s="100"/>
+      <c r="AD22" s="100"/>
+      <c r="AE22" s="100"/>
+      <c r="AF22" s="100"/>
+      <c r="AG22" s="101"/>
+    </row>
+    <row r="23" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38">
         <v>2019</v>
       </c>
-      <c r="B23" s="82"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="83"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="84"/>
-      <c r="S23" s="82"/>
-      <c r="T23" s="83"/>
-      <c r="U23" s="84"/>
-      <c r="V23" s="82"/>
-      <c r="W23" s="83"/>
-      <c r="X23" s="84"/>
-      <c r="Y23" s="97"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="85"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="84"/>
+      <c r="U23" s="85"/>
+      <c r="V23" s="86"/>
+      <c r="W23" s="84"/>
+      <c r="X23" s="85"/>
+      <c r="Y23" s="86"/>
       <c r="Z23" s="99"/>
-      <c r="AA23" s="97"/>
-      <c r="AB23" s="98"/>
-      <c r="AC23" s="98"/>
-      <c r="AD23" s="98"/>
-      <c r="AE23" s="98"/>
-      <c r="AF23" s="99"/>
-    </row>
-    <row r="24" spans="1:32" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="70">
+      <c r="AA23" s="101"/>
+      <c r="AB23" s="99"/>
+      <c r="AC23" s="100"/>
+      <c r="AD23" s="100"/>
+      <c r="AE23" s="100"/>
+      <c r="AF23" s="100"/>
+      <c r="AG23" s="101"/>
+    </row>
+    <row r="24" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="72">
         <v>2020</v>
       </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="87"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="86"/>
-      <c r="U24" s="87"/>
-      <c r="V24" s="85"/>
-      <c r="W24" s="86"/>
-      <c r="X24" s="87"/>
-      <c r="Y24" s="100"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="89"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="88"/>
+      <c r="V24" s="89"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="88"/>
+      <c r="Y24" s="89"/>
       <c r="Z24" s="102"/>
-      <c r="AA24" s="100"/>
-      <c r="AB24" s="101"/>
-      <c r="AC24" s="101"/>
-      <c r="AD24" s="101"/>
-      <c r="AE24" s="101"/>
-      <c r="AF24" s="102"/>
+      <c r="AA24" s="104"/>
+      <c r="AB24" s="102"/>
+      <c r="AC24" s="103"/>
+      <c r="AD24" s="103"/>
+      <c r="AE24" s="103"/>
+      <c r="AF24" s="103"/>
+      <c r="AG24" s="104"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4598,484 +5175,604 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="51"/>
+    <col min="1" max="1" width="9" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="69" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="37" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="B2" s="38"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51">
+      <c r="B3" s="38"/>
+    </row>
+    <row r="4" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37">
         <v>2000</v>
       </c>
-      <c r="B4" s="67">
-        <v>0.05</v>
-      </c>
-      <c r="C4" s="67">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51">
+      <c r="B4" s="74"/>
+    </row>
+    <row r="5" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38">
         <v>2001</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51">
+      <c r="B5" s="71"/>
+    </row>
+    <row r="6" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38">
         <v>2002</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51">
+      <c r="B6" s="71"/>
+    </row>
+    <row r="7" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38">
         <v>2003</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51">
+      <c r="B7" s="71"/>
+    </row>
+    <row r="8" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38">
         <v>2004</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51">
+      <c r="B8" s="71"/>
+    </row>
+    <row r="9" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38">
         <v>2005</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51">
+      <c r="B9" s="71"/>
+    </row>
+    <row r="10" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38">
         <v>2006</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51">
+      <c r="B10" s="71"/>
+    </row>
+    <row r="11" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
         <v>2007</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51">
+      <c r="B11" s="71"/>
+    </row>
+    <row r="12" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38">
         <v>2008</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51">
+      <c r="B12" s="71"/>
+    </row>
+    <row r="13" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38">
         <v>2009</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51">
+      <c r="B13" s="71"/>
+    </row>
+    <row r="14" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
         <v>2010</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51">
+      <c r="B14" s="71"/>
+    </row>
+    <row r="15" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38">
         <v>2011</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51">
+      <c r="B15" s="71"/>
+    </row>
+    <row r="16" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38">
         <v>2012</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51">
+      <c r="B16" s="71"/>
+    </row>
+    <row r="17" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38">
         <v>2013</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51">
+      <c r="B17" s="71"/>
+    </row>
+    <row r="18" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="38">
         <v>2014</v>
       </c>
-      <c r="B18" s="67">
-        <v>0.05</v>
-      </c>
-      <c r="C18" s="67">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="51">
+      <c r="B18" s="71"/>
+    </row>
+    <row r="19" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38">
         <v>2015</v>
       </c>
-      <c r="B19" s="67">
-        <v>1</v>
-      </c>
-      <c r="C19" s="67">
+      <c r="B19" s="71">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="51">
+    <row r="20" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38">
         <v>2016</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51">
+      <c r="B20" s="71"/>
+    </row>
+    <row r="21" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38">
         <v>2017</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51">
+      <c r="B21" s="71"/>
+    </row>
+    <row r="22" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38">
         <v>2018</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51">
+      <c r="B22" s="71"/>
+    </row>
+    <row r="23" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38">
         <v>2019</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51">
+      <c r="B23" s="71"/>
+    </row>
+    <row r="24" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="72">
         <v>2020</v>
       </c>
+      <c r="B24" s="73"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="51" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="51" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="51" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="51"/>
+    <col min="1" max="1" width="9" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="69" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="15" style="69" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="69" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="69" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="77" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="80" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="80" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51">
+    <row r="4" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37">
         <v>2000</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="81"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="83"/>
+    </row>
+    <row r="5" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="84"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="86"/>
+    </row>
+    <row r="6" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="84"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="86"/>
+    </row>
+    <row r="7" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38">
+        <v>2003</v>
+      </c>
+      <c r="B7" s="84"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="86"/>
+    </row>
+    <row r="8" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38">
+        <v>2004</v>
+      </c>
+      <c r="B8" s="84"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="86"/>
+    </row>
+    <row r="9" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38">
+        <v>2005</v>
+      </c>
+      <c r="B9" s="84"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="86"/>
+    </row>
+    <row r="10" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38">
+        <v>2006</v>
+      </c>
+      <c r="B10" s="84"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="86"/>
+    </row>
+    <row r="11" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
+        <v>2007</v>
+      </c>
+      <c r="B11" s="84"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="86"/>
+    </row>
+    <row r="12" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38">
+        <v>2008</v>
+      </c>
+      <c r="B12" s="84"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="86"/>
+    </row>
+    <row r="13" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38">
+        <v>2009</v>
+      </c>
+      <c r="B13" s="84"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="86"/>
+    </row>
+    <row r="14" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="84"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="86"/>
+    </row>
+    <row r="15" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="84"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="86"/>
+    </row>
+    <row r="16" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38">
+        <v>2012</v>
+      </c>
+      <c r="B16" s="84"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="86"/>
+    </row>
+    <row r="17" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38">
+        <v>2013</v>
+      </c>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="86"/>
+    </row>
+    <row r="18" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="38">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="84"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="86"/>
+    </row>
+    <row r="19" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="84">
+        <v>2</v>
+      </c>
+      <c r="C19" s="85">
+        <v>8</v>
+      </c>
+      <c r="D19" s="85">
+        <v>20</v>
+      </c>
+      <c r="E19" s="85">
         <v>1</v>
       </c>
-      <c r="C4" s="67">
-        <v>4</v>
-      </c>
-      <c r="D4" s="67">
-        <v>10</v>
-      </c>
-      <c r="E4" s="67">
+      <c r="F19" s="85">
+        <v>8</v>
+      </c>
+      <c r="G19" s="85">
+        <v>8</v>
+      </c>
+      <c r="H19" s="85">
         <v>0.5</v>
       </c>
-      <c r="F4" s="67">
-        <v>4</v>
-      </c>
-      <c r="G4" s="67">
-        <v>4</v>
-      </c>
-      <c r="H4" s="67">
-        <f>3/12</f>
-        <v>0.25</v>
-      </c>
-      <c r="I4" s="67">
-        <f>3/12</f>
-        <v>0.25</v>
-      </c>
-      <c r="J4" s="67">
-        <f>3/12</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51">
-        <v>2014</v>
-      </c>
-      <c r="B18" s="67">
-        <v>1</v>
-      </c>
-      <c r="C18" s="67">
-        <v>4</v>
-      </c>
-      <c r="D18" s="67">
-        <v>10</v>
-      </c>
-      <c r="E18" s="67">
+      <c r="I19" s="85">
         <v>0.5</v>
       </c>
-      <c r="F18" s="67">
-        <v>4</v>
-      </c>
-      <c r="G18" s="67">
-        <v>4</v>
-      </c>
-      <c r="H18" s="67">
-        <f>3/12</f>
-        <v>0.25</v>
-      </c>
-      <c r="I18" s="67">
-        <f>3/12</f>
-        <v>0.25</v>
-      </c>
-      <c r="J18" s="67">
-        <f>3/12</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="51">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="67">
-        <v>2</v>
-      </c>
-      <c r="C19" s="67">
-        <v>8</v>
-      </c>
-      <c r="D19" s="67">
-        <v>20</v>
-      </c>
-      <c r="E19" s="67">
-        <v>1</v>
-      </c>
-      <c r="F19" s="67">
-        <v>8</v>
-      </c>
-      <c r="G19" s="67">
-        <v>8</v>
-      </c>
-      <c r="H19" s="67">
+      <c r="J19" s="86">
         <v>0.5</v>
       </c>
-      <c r="I19" s="67">
-        <v>0.5</v>
-      </c>
-      <c r="J19" s="67">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="51">
+    </row>
+    <row r="20" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38">
         <v>2016</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51">
+      <c r="B20" s="84"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="86"/>
+    </row>
+    <row r="21" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38">
         <v>2017</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51">
+      <c r="B21" s="84"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="86"/>
+    </row>
+    <row r="22" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38">
         <v>2018</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51">
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="86"/>
+    </row>
+    <row r="23" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38">
         <v>2019</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51">
+      <c r="B23" s="84"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="86"/>
+    </row>
+    <row r="24" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="72">
         <v>2020</v>
       </c>
+      <c r="B24" s="87"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="89"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="pars" sheetId="24" r:id="rId1"/>
@@ -1701,9 +1701,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -2172,9 +2172,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2184,7 +2184,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2210,11 +2210,11 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="4" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="4" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2599,7 +2599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2679,11 +2679,11 @@
         <v>4.0741237836483535E-3</v>
       </c>
       <c r="D3" s="23">
-        <f>C3-$I$2*C3</f>
+        <f t="shared" ref="D3:D8" si="0">C3-$I$2*C3</f>
         <v>3.8704175944659358E-3</v>
       </c>
       <c r="E3" s="23">
-        <f>C3+$I$2*C3</f>
+        <f t="shared" ref="E3:E8" si="1">C3+$I$2*C3</f>
         <v>4.2778299728307712E-3</v>
       </c>
       <c r="G3" s="52" t="s">
@@ -2706,11 +2706,11 @@
         <v>1E-3</v>
       </c>
       <c r="D4" s="24">
-        <f>C4-$I$2*C4</f>
+        <f t="shared" si="0"/>
         <v>9.5E-4</v>
       </c>
       <c r="E4" s="21">
-        <f>C4+$I$2*C4</f>
+        <f t="shared" si="1"/>
         <v>1.0499999999999999E-3</v>
       </c>
       <c r="L4" s="57"/>
@@ -2730,11 +2730,11 @@
         <v>1E-3</v>
       </c>
       <c r="D5" s="21">
-        <f>C5-$I$2*C5</f>
+        <f t="shared" si="0"/>
         <v>9.5E-4</v>
       </c>
       <c r="E5" s="21">
-        <f>C5+$I$2*C5</f>
+        <f t="shared" si="1"/>
         <v>1.0499999999999999E-3</v>
       </c>
       <c r="L5" s="27"/>
@@ -2754,11 +2754,11 @@
         <v>1E-3</v>
       </c>
       <c r="D6" s="21">
-        <f>C6-$I$2*C6</f>
+        <f t="shared" si="0"/>
         <v>9.5E-4</v>
       </c>
       <c r="E6" s="21">
-        <f>C6+$I$2*C6</f>
+        <f t="shared" si="1"/>
         <v>1.0499999999999999E-3</v>
       </c>
       <c r="G6" s="52" t="s">
@@ -2784,11 +2784,11 @@
         <v>7.5</v>
       </c>
       <c r="D7" s="25">
-        <f>C7-$I$2*C7</f>
+        <f t="shared" si="0"/>
         <v>7.125</v>
       </c>
       <c r="E7" s="25">
-        <f>C7+$I$2*C7</f>
+        <f t="shared" si="1"/>
         <v>7.875</v>
       </c>
       <c r="G7" s="52" t="s">
@@ -2814,11 +2814,11 @@
         <v>0.13</v>
       </c>
       <c r="D8" s="23">
-        <f>C8-$I$2*C8</f>
+        <f t="shared" si="0"/>
         <v>0.1235</v>
       </c>
       <c r="E8" s="23">
-        <f>C8+$I$2*C8</f>
+        <f t="shared" si="1"/>
         <v>0.13650000000000001</v>
       </c>
     </row>
@@ -2833,11 +2833,11 @@
         <v>0.4</v>
       </c>
       <c r="D9" s="25">
-        <f t="shared" ref="D9:D10" si="0">C9-$I$2*C9</f>
+        <f t="shared" ref="D9:D10" si="2">C9-$I$2*C9</f>
         <v>0.38</v>
       </c>
       <c r="E9" s="25">
-        <f t="shared" ref="E9:E10" si="1">C9+$I$2*C9</f>
+        <f t="shared" ref="E9:E10" si="3">C9+$I$2*C9</f>
         <v>0.42000000000000004</v>
       </c>
     </row>
@@ -2852,11 +2852,11 @@
         <v>0.4</v>
       </c>
       <c r="D10" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.38</v>
       </c>
       <c r="E10" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.42000000000000004</v>
       </c>
     </row>
@@ -2888,11 +2888,11 @@
         <v>6.2</v>
       </c>
       <c r="D12" s="25">
-        <f t="shared" ref="D12:D20" si="2">C12-$I$2*C12</f>
+        <f t="shared" ref="D12:D20" si="4">C12-$I$2*C12</f>
         <v>5.8900000000000006</v>
       </c>
       <c r="E12" s="25">
-        <f t="shared" ref="E12:E20" si="3">C12+$I$2*C12</f>
+        <f t="shared" ref="E12:E20" si="5">C12+$I$2*C12</f>
         <v>6.51</v>
       </c>
       <c r="G12" s="52" t="s">
@@ -2910,11 +2910,11 @@
         <v>7</v>
       </c>
       <c r="D13" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.65</v>
       </c>
       <c r="E13" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.35</v>
       </c>
     </row>
@@ -2929,11 +2929,11 @@
         <v>0.1</v>
       </c>
       <c r="D14" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="E14" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.10500000000000001</v>
       </c>
     </row>
@@ -2948,11 +2948,11 @@
         <v>0.17</v>
       </c>
       <c r="D15" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.1615</v>
       </c>
       <c r="E15" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.17850000000000002</v>
       </c>
     </row>
@@ -2967,11 +2967,11 @@
         <v>0.38800000000000001</v>
       </c>
       <c r="D16" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.36860000000000004</v>
       </c>
       <c r="E16" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.40739999999999998</v>
       </c>
     </row>
@@ -2986,11 +2986,11 @@
         <v>0.45</v>
       </c>
       <c r="D17" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.42749999999999999</v>
       </c>
       <c r="E17" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.47250000000000003</v>
       </c>
     </row>
@@ -3005,11 +3005,11 @@
         <v>1</v>
       </c>
       <c r="D18" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.95</v>
       </c>
       <c r="E18" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.05</v>
       </c>
     </row>
@@ -3025,11 +3025,11 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="D19" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.52250000000000008</v>
       </c>
       <c r="E19" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.57750000000000001</v>
       </c>
     </row>
@@ -3044,11 +3044,11 @@
         <v>0.5</v>
       </c>
       <c r="D20" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.47499999999999998</v>
       </c>
       <c r="E20" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.52500000000000002</v>
       </c>
     </row>
@@ -3090,7 +3090,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3996,7 +3996,7 @@
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5346,7 +5346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>

--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pars" sheetId="24" r:id="rId1"/>
@@ -2599,7 +2599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -3088,9 +3088,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="pars" sheetId="24" r:id="rId1"/>
@@ -3088,9 +3088,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E14" sqref="E14"/>
+      <selection pane="topRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3377,9 +3377,7 @@
         <f t="shared" si="3"/>
         <v>3560.1691860000005</v>
       </c>
-      <c r="D5" s="12">
-        <v>0.7</v>
-      </c>
+      <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>0.75</v>
       </c>
@@ -3590,9 +3588,7 @@
         <f t="shared" si="3"/>
         <v>4121.3408539432512</v>
       </c>
-      <c r="D8" s="12">
-        <v>0.91200000000000003</v>
-      </c>
+      <c r="D8" s="12"/>
       <c r="E8" s="34">
         <v>0.86</v>
       </c>
@@ -3664,7 +3660,7 @@
         <v>4327.407896640414</v>
       </c>
       <c r="D9" s="12">
-        <v>0.91200000000000003</v>
+        <v>0.88</v>
       </c>
       <c r="E9" s="34">
         <v>0.89</v>
@@ -3737,7 +3733,7 @@
         <v>4543.7782914724339</v>
       </c>
       <c r="D10" s="12">
-        <v>0.91200000000000003</v>
+        <v>0.88</v>
       </c>
       <c r="E10" s="12">
         <v>0.92</v>
@@ -3810,7 +3806,7 @@
         <v>4770.9672060460571</v>
       </c>
       <c r="D11" s="12">
-        <v>0.91200000000000003</v>
+        <v>0.89</v>
       </c>
       <c r="E11" s="12">
         <v>0.95</v>
@@ -3883,7 +3879,9 @@
         <f t="shared" si="3"/>
         <v>5009.5155663483602</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="11">
+        <v>0.9</v>
+      </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="35">
@@ -3941,6 +3939,9 @@
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="20"/>
+      <c r="D13" s="12">
+        <v>0.9</v>
+      </c>
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -3993,10 +3994,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5166,6 +5167,68 @@
       <c r="AF24" s="103"/>
       <c r="AG24" s="104"/>
     </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="38">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="38">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="38">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="38">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="72">
+        <v>2025</v>
+      </c>
+      <c r="U29" s="69">
+        <v>0.95</v>
+      </c>
+      <c r="V29" s="69">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="38">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" s="38">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="38">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="38">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="72">
+        <v>2030</v>
+      </c>
+      <c r="U34" s="69">
+        <v>0.99</v>
+      </c>
+      <c r="V34" s="69">
+        <v>0.99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="pars" sheetId="24" r:id="rId1"/>
@@ -3996,7 +3996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
@@ -5409,8 +5409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5736,31 +5736,31 @@
         <v>2015</v>
       </c>
       <c r="B19" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="85">
         <v>2</v>
       </c>
-      <c r="C19" s="85">
-        <v>8</v>
-      </c>
       <c r="D19" s="85">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E19" s="85">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F19" s="85">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G19" s="85">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H19" s="85">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="I19" s="85">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="J19" s="86">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">

--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="pars" sheetId="24" r:id="rId1"/>
@@ -971,7 +971,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -995,7 +995,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0">
+    <comment ref="AC1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1375,7 +1375,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="104">
   <si>
     <t>Waiting list</t>
   </si>
@@ -1398,18 +1398,9 @@
     <t>5 in a year may be normal</t>
   </si>
   <si>
-    <t>Dialysis costs ($)</t>
-  </si>
-  <si>
-    <t>mean of 55; range 4-70</t>
-  </si>
-  <si>
     <t>5% probability per year converted to rate</t>
   </si>
   <si>
-    <t>160 days</t>
-  </si>
-  <si>
     <t>dt</t>
   </si>
   <si>
@@ -1693,6 +1684,9 @@
   </si>
   <si>
     <t>prop_high_risk</t>
+  </si>
+  <si>
+    <t>medimix</t>
   </si>
 </sst>
 </file>
@@ -1879,7 +1873,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2095,6 +2089,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2115,7 +2118,7 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2277,6 +2280,10 @@
     <xf numFmtId="2" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Bad" xfId="15" builtinId="27" customBuiltin="1"/>
@@ -2597,10 +2604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2641,18 +2648,18 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" s="32">
         <f>1/12</f>
@@ -2665,15 +2672,15 @@
       </c>
       <c r="L2" s="59"/>
       <c r="M2" s="52" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" s="49">
         <v>4.0741237836483535E-3</v>
@@ -2686,20 +2693,17 @@
         <f t="shared" ref="E3:E8" si="1">C3+$I$2*C3</f>
         <v>4.2778299728307712E-3</v>
       </c>
-      <c r="G3" s="52" t="s">
-        <v>8</v>
-      </c>
       <c r="L3" s="61"/>
       <c r="M3" s="52" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="56">
         <f>0.001*12*C2</f>
@@ -2715,15 +2719,15 @@
       </c>
       <c r="L4" s="57"/>
       <c r="M4" s="52" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" s="54">
         <f>0.001*12*C2</f>
@@ -2739,15 +2743,15 @@
       </c>
       <c r="L5" s="27"/>
       <c r="M5" s="52" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="55">
         <f>0.001*12*C2</f>
@@ -2762,7 +2766,7 @@
         <v>1.0499999999999999E-3</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J6" s="52">
         <f>(1+C3)^(12*(2040-2007))</f>
@@ -2770,15 +2774,15 @@
       </c>
       <c r="L6" s="67"/>
       <c r="M6" s="52" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" s="28">
         <v>7.5</v>
@@ -2805,10 +2809,10 @@
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="28">
         <v>0.13</v>
@@ -2824,10 +2828,10 @@
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="C9" s="28">
         <v>0.4</v>
@@ -2843,10 +2847,10 @@
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C10" s="28">
         <v>0.4</v>
@@ -2862,26 +2866,23 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" s="66">
         <v>0</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
-      <c r="G11" s="52" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C12" s="62">
         <f>6.2</f>
@@ -2895,16 +2896,13 @@
         <f t="shared" ref="E12:E20" si="5">C12+$I$2*C12</f>
         <v>6.51</v>
       </c>
-      <c r="G12" s="52" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C13" s="28">
         <v>7</v>
@@ -2920,10 +2918,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14" s="54">
         <v>0.1</v>
@@ -2939,10 +2937,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15" s="54">
         <v>0.17</v>
@@ -2958,10 +2956,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16" s="63">
         <v>0.38800000000000001</v>
@@ -2977,10 +2975,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C17" s="64">
         <v>0.45</v>
@@ -2996,10 +2994,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C18" s="31">
         <v>1</v>
@@ -3015,10 +3013,10 @@
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C19" s="60">
         <f>1-C17</f>
@@ -3035,10 +3033,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C20" s="58">
         <v>0.5</v>
@@ -3054,10 +3052,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C21" s="53">
         <v>2007</v>
@@ -3065,17 +3063,17 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C22" s="53">
         <v>42714</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="65"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3121,67 +3119,67 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>68</v>
-      </c>
       <c r="I1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="N1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="10" t="s">
+      <c r="R1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="U1" s="50" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V1" s="15"/>
     </row>
@@ -3994,10 +3992,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AH34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4022,168 +4020,172 @@
     <col min="23" max="23" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="19.85546875" style="69" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="28" style="69" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.85546875" style="69" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15" style="69" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.85546875" style="69" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15" style="69" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11" style="69" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28" style="69" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.85546875" style="69" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15" style="69" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.85546875" style="69" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15" style="69" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11" style="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C1" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="U1" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="V1" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="W1" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y1" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z1" s="105" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="77" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" s="76" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="M1" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="O1" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q1" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="R1" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="S1" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="T1" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="U1" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="V1" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="W1" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="X1" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y1" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z1" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA1" s="92" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB1" s="90" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC1" s="91" t="s">
-        <v>86</v>
+      <c r="AA1" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB1" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC1" s="90" t="s">
+        <v>83</v>
       </c>
       <c r="AD1" s="91" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AE1" s="91" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AF1" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG1" s="92" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="AG1" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH1" s="92" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B2" s="53"/>
       <c r="C2" s="78" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D2" s="79" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E2" s="80" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F2" s="38"/>
       <c r="G2" s="38"/>
       <c r="H2" s="78" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I2" s="79" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J2" s="80" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K2" s="78" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L2" s="79" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M2" s="79" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N2" s="79" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O2" s="79" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P2" s="79" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="79" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R2" s="79" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="S2" s="80" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="T2" s="78"/>
       <c r="U2" s="79"/>
@@ -4191,30 +4193,30 @@
       <c r="W2" s="78"/>
       <c r="X2" s="79"/>
       <c r="Y2" s="80"/>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="93" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC2" s="94" t="s">
-        <v>80</v>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="93" t="s">
+        <v>76</v>
       </c>
       <c r="AD2" s="94" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AE2" s="94" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF2" s="94" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG2" s="95" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="AG2" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH2" s="95" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="78"/>
@@ -4226,64 +4228,64 @@
       <c r="I3" s="79"/>
       <c r="J3" s="80"/>
       <c r="K3" s="78" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L3" s="79" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M3" s="79" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N3" s="79" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O3" s="79" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P3" s="79" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q3" s="79" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R3" s="79" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S3" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="T3" s="78" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="U3" s="79" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="V3" s="80" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="W3" s="78" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="X3" s="79" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Y3" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z3" s="93" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA3" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="94"/>
+        <v>88</v>
+      </c>
+      <c r="AA3" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB3" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC3" s="93"/>
       <c r="AD3" s="94"/>
       <c r="AE3" s="94"/>
       <c r="AF3" s="94"/>
-      <c r="AG3" s="95"/>
-    </row>
-    <row r="4" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="95"/>
+    </row>
+    <row r="4" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37">
         <v>2000</v>
       </c>
@@ -4354,16 +4356,16 @@
       <c r="Y4" s="83">
         <v>0.04</v>
       </c>
-      <c r="Z4" s="96">
+      <c r="Z4" s="106">
         <v>1</v>
       </c>
-      <c r="AA4" s="98">
+      <c r="AA4" s="96">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="98">
         <v>2</v>
       </c>
-      <c r="AB4" s="96">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="97">
+      <c r="AC4" s="96">
         <v>0</v>
       </c>
       <c r="AD4" s="97">
@@ -4375,11 +4377,14 @@
       <c r="AF4" s="97">
         <v>0</v>
       </c>
-      <c r="AG4" s="98">
+      <c r="AG4" s="97">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH4" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38">
         <v>2001</v>
       </c>
@@ -4407,16 +4412,17 @@
       <c r="W5" s="84"/>
       <c r="X5" s="85"/>
       <c r="Y5" s="86"/>
-      <c r="Z5" s="99"/>
-      <c r="AA5" s="101"/>
-      <c r="AB5" s="99"/>
-      <c r="AC5" s="100"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="99"/>
+      <c r="AB5" s="101"/>
+      <c r="AC5" s="99"/>
       <c r="AD5" s="100"/>
       <c r="AE5" s="100"/>
       <c r="AF5" s="100"/>
-      <c r="AG5" s="101"/>
-    </row>
-    <row r="6" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG5" s="100"/>
+      <c r="AH5" s="101"/>
+    </row>
+    <row r="6" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38">
         <v>2002</v>
       </c>
@@ -4444,16 +4450,17 @@
       <c r="W6" s="84"/>
       <c r="X6" s="85"/>
       <c r="Y6" s="86"/>
-      <c r="Z6" s="99"/>
-      <c r="AA6" s="101"/>
-      <c r="AB6" s="99"/>
-      <c r="AC6" s="100"/>
+      <c r="Z6" s="107"/>
+      <c r="AA6" s="99"/>
+      <c r="AB6" s="101"/>
+      <c r="AC6" s="99"/>
       <c r="AD6" s="100"/>
       <c r="AE6" s="100"/>
       <c r="AF6" s="100"/>
-      <c r="AG6" s="101"/>
-    </row>
-    <row r="7" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG6" s="100"/>
+      <c r="AH6" s="101"/>
+    </row>
+    <row r="7" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38">
         <v>2003</v>
       </c>
@@ -4481,16 +4488,17 @@
       <c r="W7" s="84"/>
       <c r="X7" s="85"/>
       <c r="Y7" s="86"/>
-      <c r="Z7" s="99"/>
-      <c r="AA7" s="101"/>
-      <c r="AB7" s="99"/>
-      <c r="AC7" s="100"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="99"/>
+      <c r="AB7" s="101"/>
+      <c r="AC7" s="99"/>
       <c r="AD7" s="100"/>
       <c r="AE7" s="100"/>
       <c r="AF7" s="100"/>
-      <c r="AG7" s="101"/>
-    </row>
-    <row r="8" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG7" s="100"/>
+      <c r="AH7" s="101"/>
+    </row>
+    <row r="8" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38">
         <v>2004</v>
       </c>
@@ -4518,16 +4526,17 @@
       <c r="W8" s="84"/>
       <c r="X8" s="85"/>
       <c r="Y8" s="86"/>
-      <c r="Z8" s="99"/>
-      <c r="AA8" s="101"/>
-      <c r="AB8" s="99"/>
-      <c r="AC8" s="100"/>
+      <c r="Z8" s="107"/>
+      <c r="AA8" s="99"/>
+      <c r="AB8" s="101"/>
+      <c r="AC8" s="99"/>
       <c r="AD8" s="100"/>
       <c r="AE8" s="100"/>
       <c r="AF8" s="100"/>
-      <c r="AG8" s="101"/>
-    </row>
-    <row r="9" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG8" s="100"/>
+      <c r="AH8" s="101"/>
+    </row>
+    <row r="9" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38">
         <v>2005</v>
       </c>
@@ -4555,16 +4564,17 @@
       <c r="W9" s="84"/>
       <c r="X9" s="85"/>
       <c r="Y9" s="86"/>
-      <c r="Z9" s="99"/>
-      <c r="AA9" s="101"/>
-      <c r="AB9" s="99"/>
-      <c r="AC9" s="100"/>
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="99"/>
+      <c r="AB9" s="101"/>
+      <c r="AC9" s="99"/>
       <c r="AD9" s="100"/>
       <c r="AE9" s="100"/>
       <c r="AF9" s="100"/>
-      <c r="AG9" s="101"/>
-    </row>
-    <row r="10" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG9" s="100"/>
+      <c r="AH9" s="101"/>
+    </row>
+    <row r="10" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38">
         <v>2006</v>
       </c>
@@ -4592,16 +4602,17 @@
       <c r="W10" s="84"/>
       <c r="X10" s="85"/>
       <c r="Y10" s="86"/>
-      <c r="Z10" s="99"/>
-      <c r="AA10" s="101"/>
-      <c r="AB10" s="99"/>
-      <c r="AC10" s="100"/>
+      <c r="Z10" s="107"/>
+      <c r="AA10" s="99"/>
+      <c r="AB10" s="101"/>
+      <c r="AC10" s="99"/>
       <c r="AD10" s="100"/>
       <c r="AE10" s="100"/>
       <c r="AF10" s="100"/>
-      <c r="AG10" s="101"/>
-    </row>
-    <row r="11" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG10" s="100"/>
+      <c r="AH10" s="101"/>
+    </row>
+    <row r="11" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>2007</v>
       </c>
@@ -4635,16 +4646,17 @@
       <c r="W11" s="84"/>
       <c r="X11" s="85"/>
       <c r="Y11" s="86"/>
-      <c r="Z11" s="99"/>
-      <c r="AA11" s="101"/>
-      <c r="AB11" s="99"/>
-      <c r="AC11" s="100"/>
+      <c r="Z11" s="107"/>
+      <c r="AA11" s="99"/>
+      <c r="AB11" s="101"/>
+      <c r="AC11" s="99"/>
       <c r="AD11" s="100"/>
       <c r="AE11" s="100"/>
       <c r="AF11" s="100"/>
-      <c r="AG11" s="101"/>
-    </row>
-    <row r="12" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG11" s="100"/>
+      <c r="AH11" s="101"/>
+    </row>
+    <row r="12" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>2008</v>
       </c>
@@ -4672,16 +4684,17 @@
       <c r="W12" s="84"/>
       <c r="X12" s="85"/>
       <c r="Y12" s="86"/>
-      <c r="Z12" s="99"/>
-      <c r="AA12" s="101"/>
-      <c r="AB12" s="99"/>
-      <c r="AC12" s="100"/>
+      <c r="Z12" s="107"/>
+      <c r="AA12" s="99"/>
+      <c r="AB12" s="101"/>
+      <c r="AC12" s="99"/>
       <c r="AD12" s="100"/>
       <c r="AE12" s="100"/>
       <c r="AF12" s="100"/>
-      <c r="AG12" s="101"/>
-    </row>
-    <row r="13" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG12" s="100"/>
+      <c r="AH12" s="101"/>
+    </row>
+    <row r="13" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>2009</v>
       </c>
@@ -4711,16 +4724,17 @@
       <c r="W13" s="84"/>
       <c r="X13" s="85"/>
       <c r="Y13" s="86"/>
-      <c r="Z13" s="99"/>
-      <c r="AA13" s="101"/>
-      <c r="AB13" s="99"/>
-      <c r="AC13" s="100"/>
+      <c r="Z13" s="107"/>
+      <c r="AA13" s="99"/>
+      <c r="AB13" s="101"/>
+      <c r="AC13" s="99"/>
       <c r="AD13" s="100"/>
       <c r="AE13" s="100"/>
       <c r="AF13" s="100"/>
-      <c r="AG13" s="101"/>
-    </row>
-    <row r="14" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG13" s="100"/>
+      <c r="AH13" s="101"/>
+    </row>
+    <row r="14" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>2010</v>
       </c>
@@ -4756,16 +4770,17 @@
       <c r="W14" s="84"/>
       <c r="X14" s="85"/>
       <c r="Y14" s="86"/>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="101"/>
-      <c r="AB14" s="99"/>
-      <c r="AC14" s="100"/>
+      <c r="Z14" s="107"/>
+      <c r="AA14" s="99"/>
+      <c r="AB14" s="101"/>
+      <c r="AC14" s="99"/>
       <c r="AD14" s="100"/>
       <c r="AE14" s="100"/>
       <c r="AF14" s="100"/>
-      <c r="AG14" s="101"/>
-    </row>
-    <row r="15" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG14" s="100"/>
+      <c r="AH14" s="101"/>
+    </row>
+    <row r="15" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>2011</v>
       </c>
@@ -4793,16 +4808,17 @@
       <c r="W15" s="84"/>
       <c r="X15" s="85"/>
       <c r="Y15" s="86"/>
-      <c r="Z15" s="99"/>
-      <c r="AA15" s="101"/>
-      <c r="AB15" s="99"/>
-      <c r="AC15" s="100"/>
+      <c r="Z15" s="107"/>
+      <c r="AA15" s="99"/>
+      <c r="AB15" s="101"/>
+      <c r="AC15" s="99"/>
       <c r="AD15" s="100"/>
       <c r="AE15" s="100"/>
       <c r="AF15" s="100"/>
-      <c r="AG15" s="101"/>
-    </row>
-    <row r="16" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG15" s="100"/>
+      <c r="AH15" s="101"/>
+    </row>
+    <row r="16" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
         <v>2012</v>
       </c>
@@ -4836,16 +4852,17 @@
       <c r="W16" s="84"/>
       <c r="X16" s="85"/>
       <c r="Y16" s="86"/>
-      <c r="Z16" s="99"/>
-      <c r="AA16" s="101"/>
-      <c r="AB16" s="99"/>
-      <c r="AC16" s="100"/>
+      <c r="Z16" s="107"/>
+      <c r="AA16" s="99"/>
+      <c r="AB16" s="101"/>
+      <c r="AC16" s="99"/>
       <c r="AD16" s="100"/>
       <c r="AE16" s="100"/>
       <c r="AF16" s="100"/>
-      <c r="AG16" s="101"/>
-    </row>
-    <row r="17" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG16" s="100"/>
+      <c r="AH16" s="101"/>
+    </row>
+    <row r="17" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <v>2013</v>
       </c>
@@ -4879,16 +4896,17 @@
       <c r="W17" s="84"/>
       <c r="X17" s="85"/>
       <c r="Y17" s="86"/>
-      <c r="Z17" s="99"/>
-      <c r="AA17" s="101"/>
-      <c r="AB17" s="99"/>
-      <c r="AC17" s="100"/>
+      <c r="Z17" s="107"/>
+      <c r="AA17" s="99"/>
+      <c r="AB17" s="101"/>
+      <c r="AC17" s="99"/>
       <c r="AD17" s="100"/>
       <c r="AE17" s="100"/>
       <c r="AF17" s="100"/>
-      <c r="AG17" s="101"/>
-    </row>
-    <row r="18" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG17" s="100"/>
+      <c r="AH17" s="101"/>
+    </row>
+    <row r="18" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38">
         <v>2014</v>
       </c>
@@ -4922,16 +4940,17 @@
       <c r="W18" s="84"/>
       <c r="X18" s="85"/>
       <c r="Y18" s="86"/>
-      <c r="Z18" s="99"/>
-      <c r="AA18" s="101"/>
-      <c r="AB18" s="99"/>
-      <c r="AC18" s="100"/>
+      <c r="Z18" s="107"/>
+      <c r="AA18" s="99"/>
+      <c r="AB18" s="101"/>
+      <c r="AC18" s="99"/>
       <c r="AD18" s="100"/>
       <c r="AE18" s="100"/>
       <c r="AF18" s="100"/>
-      <c r="AG18" s="101"/>
-    </row>
-    <row r="19" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG18" s="100"/>
+      <c r="AH18" s="101"/>
+    </row>
+    <row r="19" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <v>2015</v>
       </c>
@@ -4965,16 +4984,17 @@
       <c r="W19" s="84"/>
       <c r="X19" s="85"/>
       <c r="Y19" s="86"/>
-      <c r="Z19" s="99"/>
-      <c r="AA19" s="101"/>
-      <c r="AB19" s="99"/>
-      <c r="AC19" s="100"/>
+      <c r="Z19" s="107"/>
+      <c r="AA19" s="99"/>
+      <c r="AB19" s="101"/>
+      <c r="AC19" s="99"/>
       <c r="AD19" s="100"/>
       <c r="AE19" s="100"/>
       <c r="AF19" s="100"/>
-      <c r="AG19" s="101"/>
-    </row>
-    <row r="20" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG19" s="100"/>
+      <c r="AH19" s="101"/>
+    </row>
+    <row r="20" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>2016</v>
       </c>
@@ -5010,16 +5030,17 @@
       <c r="W20" s="84"/>
       <c r="X20" s="85"/>
       <c r="Y20" s="86"/>
-      <c r="Z20" s="99"/>
-      <c r="AA20" s="101"/>
-      <c r="AB20" s="99"/>
-      <c r="AC20" s="100"/>
+      <c r="Z20" s="107"/>
+      <c r="AA20" s="99"/>
+      <c r="AB20" s="101"/>
+      <c r="AC20" s="99"/>
       <c r="AD20" s="100"/>
       <c r="AE20" s="100"/>
       <c r="AF20" s="100"/>
-      <c r="AG20" s="101"/>
-    </row>
-    <row r="21" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG20" s="100"/>
+      <c r="AH20" s="101"/>
+    </row>
+    <row r="21" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <v>2017</v>
       </c>
@@ -5047,16 +5068,17 @@
       <c r="W21" s="84"/>
       <c r="X21" s="85"/>
       <c r="Y21" s="86"/>
-      <c r="Z21" s="99"/>
-      <c r="AA21" s="101"/>
-      <c r="AB21" s="99"/>
-      <c r="AC21" s="100"/>
+      <c r="Z21" s="107"/>
+      <c r="AA21" s="99"/>
+      <c r="AB21" s="101"/>
+      <c r="AC21" s="99"/>
       <c r="AD21" s="100"/>
       <c r="AE21" s="100"/>
       <c r="AF21" s="100"/>
-      <c r="AG21" s="101"/>
-    </row>
-    <row r="22" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG21" s="100"/>
+      <c r="AH21" s="101"/>
+    </row>
+    <row r="22" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>2018</v>
       </c>
@@ -5084,16 +5106,17 @@
       <c r="W22" s="84"/>
       <c r="X22" s="85"/>
       <c r="Y22" s="86"/>
-      <c r="Z22" s="99"/>
-      <c r="AA22" s="101"/>
-      <c r="AB22" s="99"/>
-      <c r="AC22" s="100"/>
+      <c r="Z22" s="107"/>
+      <c r="AA22" s="99"/>
+      <c r="AB22" s="101"/>
+      <c r="AC22" s="99"/>
       <c r="AD22" s="100"/>
       <c r="AE22" s="100"/>
       <c r="AF22" s="100"/>
-      <c r="AG22" s="101"/>
-    </row>
-    <row r="23" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG22" s="100"/>
+      <c r="AH22" s="101"/>
+    </row>
+    <row r="23" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="38">
         <v>2019</v>
       </c>
@@ -5121,16 +5144,17 @@
       <c r="W23" s="84"/>
       <c r="X23" s="85"/>
       <c r="Y23" s="86"/>
-      <c r="Z23" s="99"/>
-      <c r="AA23" s="101"/>
-      <c r="AB23" s="99"/>
-      <c r="AC23" s="100"/>
+      <c r="Z23" s="107"/>
+      <c r="AA23" s="99"/>
+      <c r="AB23" s="101"/>
+      <c r="AC23" s="99"/>
       <c r="AD23" s="100"/>
       <c r="AE23" s="100"/>
       <c r="AF23" s="100"/>
-      <c r="AG23" s="101"/>
-    </row>
-    <row r="24" spans="1:33" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG23" s="100"/>
+      <c r="AH23" s="101"/>
+    </row>
+    <row r="24" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="72">
         <v>2020</v>
       </c>
@@ -5158,36 +5182,37 @@
       <c r="W24" s="87"/>
       <c r="X24" s="88"/>
       <c r="Y24" s="89"/>
-      <c r="Z24" s="102"/>
-      <c r="AA24" s="104"/>
-      <c r="AB24" s="102"/>
-      <c r="AC24" s="103"/>
+      <c r="Z24" s="108"/>
+      <c r="AA24" s="102"/>
+      <c r="AB24" s="104"/>
+      <c r="AC24" s="102"/>
       <c r="AD24" s="103"/>
       <c r="AE24" s="103"/>
       <c r="AF24" s="103"/>
-      <c r="AG24" s="104"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG24" s="103"/>
+      <c r="AH24" s="104"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="38">
         <v>2021</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="38">
         <v>2022</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <v>2023</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
         <v>2024</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="72">
         <v>2025</v>
       </c>
@@ -5198,17 +5223,17 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="38">
         <v>2026</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="38">
         <v>2027</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="38">
         <v>2028</v>
       </c>
@@ -5253,21 +5278,21 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B2" s="38"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B3" s="38"/>
     </row>
@@ -5409,7 +5434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
@@ -5427,98 +5452,98 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E1" s="76" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F1" s="76" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G1" s="76" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H1" s="76" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I1" s="76" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J1" s="77" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C2" s="79" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D2" s="79" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E2" s="79" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F2" s="79" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G2" s="79" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H2" s="79" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I2" s="79" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J2" s="80" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D3" s="79" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E3" s="79" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F3" s="79" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G3" s="79" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H3" s="79" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I3" s="79" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J3" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">

--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -971,7 +971,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="AB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -995,7 +995,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0">
+    <comment ref="AD1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1375,7 +1375,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="105">
   <si>
     <t>Waiting list</t>
   </si>
@@ -1687,6 +1687,9 @@
   </si>
   <si>
     <t>medimix</t>
+  </si>
+  <si>
+    <t>prop_medi</t>
   </si>
 </sst>
 </file>
@@ -3992,10 +3995,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH34"/>
+  <dimension ref="A1:AI34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4020,18 +4023,18 @@
     <col min="23" max="23" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="19.85546875" style="69" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="28" style="69" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28" style="69" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.85546875" style="69" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15" style="69" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.85546875" style="69" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15" style="69" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11" style="69" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="28" style="69" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" style="69" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15" style="69" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.85546875" style="69" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15" style="69" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11" style="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>90</v>
       </c>
@@ -4108,34 +4111,37 @@
         <v>89</v>
       </c>
       <c r="Z1" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA1" s="105" t="s">
         <v>103</v>
       </c>
-      <c r="AA1" s="90" t="s">
+      <c r="AB1" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="AB1" s="92" t="s">
+      <c r="AC1" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="AC1" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD1" s="91" t="s">
+      <c r="AD1" s="90" t="s">
         <v>83</v>
       </c>
       <c r="AE1" s="91" t="s">
         <v>83</v>
       </c>
       <c r="AF1" s="91" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG1" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="AH1" s="92" t="s">
+      <c r="AH1" s="91" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI1" s="92" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>91</v>
       </c>
@@ -4193,28 +4199,28 @@
       <c r="W2" s="78"/>
       <c r="X2" s="79"/>
       <c r="Y2" s="80"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="93" t="s">
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="95"/>
+      <c r="AD2" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="AD2" s="94" t="s">
+      <c r="AE2" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="AE2" s="94" t="s">
+      <c r="AF2" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="AF2" s="94" t="s">
+      <c r="AG2" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="AG2" s="94" t="s">
+      <c r="AH2" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="AH2" s="95" t="s">
+      <c r="AI2" s="95" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>92</v>
       </c>
@@ -4272,20 +4278,20 @@
       <c r="Y3" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="AA3" s="93" t="s">
+      <c r="AB3" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="AB3" s="95" t="s">
+      <c r="AC3" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="94"/>
+      <c r="AD3" s="93"/>
       <c r="AE3" s="94"/>
       <c r="AF3" s="94"/>
       <c r="AG3" s="94"/>
-      <c r="AH3" s="95"/>
-    </row>
-    <row r="4" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="95"/>
+    </row>
+    <row r="4" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37">
         <v>2000</v>
       </c>
@@ -4359,16 +4365,16 @@
       <c r="Z4" s="106">
         <v>1</v>
       </c>
-      <c r="AA4" s="96">
+      <c r="AA4" s="106">
         <v>1</v>
       </c>
-      <c r="AB4" s="98">
+      <c r="AB4" s="96">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="98">
         <v>2</v>
       </c>
-      <c r="AC4" s="96">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="97">
+      <c r="AD4" s="96">
         <v>0</v>
       </c>
       <c r="AE4" s="97">
@@ -4380,11 +4386,14 @@
       <c r="AG4" s="97">
         <v>0</v>
       </c>
-      <c r="AH4" s="98">
+      <c r="AH4" s="97">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI4" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38">
         <v>2001</v>
       </c>
@@ -4413,16 +4422,17 @@
       <c r="X5" s="85"/>
       <c r="Y5" s="86"/>
       <c r="Z5" s="107"/>
-      <c r="AA5" s="99"/>
-      <c r="AB5" s="101"/>
-      <c r="AC5" s="99"/>
-      <c r="AD5" s="100"/>
+      <c r="AA5" s="107"/>
+      <c r="AB5" s="99"/>
+      <c r="AC5" s="101"/>
+      <c r="AD5" s="99"/>
       <c r="AE5" s="100"/>
       <c r="AF5" s="100"/>
       <c r="AG5" s="100"/>
-      <c r="AH5" s="101"/>
-    </row>
-    <row r="6" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH5" s="100"/>
+      <c r="AI5" s="101"/>
+    </row>
+    <row r="6" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38">
         <v>2002</v>
       </c>
@@ -4451,16 +4461,17 @@
       <c r="X6" s="85"/>
       <c r="Y6" s="86"/>
       <c r="Z6" s="107"/>
-      <c r="AA6" s="99"/>
-      <c r="AB6" s="101"/>
-      <c r="AC6" s="99"/>
-      <c r="AD6" s="100"/>
+      <c r="AA6" s="107"/>
+      <c r="AB6" s="99"/>
+      <c r="AC6" s="101"/>
+      <c r="AD6" s="99"/>
       <c r="AE6" s="100"/>
       <c r="AF6" s="100"/>
       <c r="AG6" s="100"/>
-      <c r="AH6" s="101"/>
-    </row>
-    <row r="7" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH6" s="100"/>
+      <c r="AI6" s="101"/>
+    </row>
+    <row r="7" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38">
         <v>2003</v>
       </c>
@@ -4489,16 +4500,17 @@
       <c r="X7" s="85"/>
       <c r="Y7" s="86"/>
       <c r="Z7" s="107"/>
-      <c r="AA7" s="99"/>
-      <c r="AB7" s="101"/>
-      <c r="AC7" s="99"/>
-      <c r="AD7" s="100"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="99"/>
+      <c r="AC7" s="101"/>
+      <c r="AD7" s="99"/>
       <c r="AE7" s="100"/>
       <c r="AF7" s="100"/>
       <c r="AG7" s="100"/>
-      <c r="AH7" s="101"/>
-    </row>
-    <row r="8" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH7" s="100"/>
+      <c r="AI7" s="101"/>
+    </row>
+    <row r="8" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38">
         <v>2004</v>
       </c>
@@ -4527,16 +4539,17 @@
       <c r="X8" s="85"/>
       <c r="Y8" s="86"/>
       <c r="Z8" s="107"/>
-      <c r="AA8" s="99"/>
-      <c r="AB8" s="101"/>
-      <c r="AC8" s="99"/>
-      <c r="AD8" s="100"/>
+      <c r="AA8" s="107"/>
+      <c r="AB8" s="99"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="99"/>
       <c r="AE8" s="100"/>
       <c r="AF8" s="100"/>
       <c r="AG8" s="100"/>
-      <c r="AH8" s="101"/>
-    </row>
-    <row r="9" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH8" s="100"/>
+      <c r="AI8" s="101"/>
+    </row>
+    <row r="9" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38">
         <v>2005</v>
       </c>
@@ -4565,16 +4578,17 @@
       <c r="X9" s="85"/>
       <c r="Y9" s="86"/>
       <c r="Z9" s="107"/>
-      <c r="AA9" s="99"/>
-      <c r="AB9" s="101"/>
-      <c r="AC9" s="99"/>
-      <c r="AD9" s="100"/>
+      <c r="AA9" s="107"/>
+      <c r="AB9" s="99"/>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="99"/>
       <c r="AE9" s="100"/>
       <c r="AF9" s="100"/>
       <c r="AG9" s="100"/>
-      <c r="AH9" s="101"/>
-    </row>
-    <row r="10" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH9" s="100"/>
+      <c r="AI9" s="101"/>
+    </row>
+    <row r="10" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38">
         <v>2006</v>
       </c>
@@ -4603,16 +4617,17 @@
       <c r="X10" s="85"/>
       <c r="Y10" s="86"/>
       <c r="Z10" s="107"/>
-      <c r="AA10" s="99"/>
-      <c r="AB10" s="101"/>
-      <c r="AC10" s="99"/>
-      <c r="AD10" s="100"/>
+      <c r="AA10" s="107"/>
+      <c r="AB10" s="99"/>
+      <c r="AC10" s="101"/>
+      <c r="AD10" s="99"/>
       <c r="AE10" s="100"/>
       <c r="AF10" s="100"/>
       <c r="AG10" s="100"/>
-      <c r="AH10" s="101"/>
-    </row>
-    <row r="11" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH10" s="100"/>
+      <c r="AI10" s="101"/>
+    </row>
+    <row r="11" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>2007</v>
       </c>
@@ -4647,16 +4662,17 @@
       <c r="X11" s="85"/>
       <c r="Y11" s="86"/>
       <c r="Z11" s="107"/>
-      <c r="AA11" s="99"/>
-      <c r="AB11" s="101"/>
-      <c r="AC11" s="99"/>
-      <c r="AD11" s="100"/>
+      <c r="AA11" s="107"/>
+      <c r="AB11" s="99"/>
+      <c r="AC11" s="101"/>
+      <c r="AD11" s="99"/>
       <c r="AE11" s="100"/>
       <c r="AF11" s="100"/>
       <c r="AG11" s="100"/>
-      <c r="AH11" s="101"/>
-    </row>
-    <row r="12" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH11" s="100"/>
+      <c r="AI11" s="101"/>
+    </row>
+    <row r="12" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>2008</v>
       </c>
@@ -4685,16 +4701,17 @@
       <c r="X12" s="85"/>
       <c r="Y12" s="86"/>
       <c r="Z12" s="107"/>
-      <c r="AA12" s="99"/>
-      <c r="AB12" s="101"/>
-      <c r="AC12" s="99"/>
-      <c r="AD12" s="100"/>
+      <c r="AA12" s="107"/>
+      <c r="AB12" s="99"/>
+      <c r="AC12" s="101"/>
+      <c r="AD12" s="99"/>
       <c r="AE12" s="100"/>
       <c r="AF12" s="100"/>
       <c r="AG12" s="100"/>
-      <c r="AH12" s="101"/>
-    </row>
-    <row r="13" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH12" s="100"/>
+      <c r="AI12" s="101"/>
+    </row>
+    <row r="13" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>2009</v>
       </c>
@@ -4725,16 +4742,17 @@
       <c r="X13" s="85"/>
       <c r="Y13" s="86"/>
       <c r="Z13" s="107"/>
-      <c r="AA13" s="99"/>
-      <c r="AB13" s="101"/>
-      <c r="AC13" s="99"/>
-      <c r="AD13" s="100"/>
+      <c r="AA13" s="107"/>
+      <c r="AB13" s="99"/>
+      <c r="AC13" s="101"/>
+      <c r="AD13" s="99"/>
       <c r="AE13" s="100"/>
       <c r="AF13" s="100"/>
       <c r="AG13" s="100"/>
-      <c r="AH13" s="101"/>
-    </row>
-    <row r="14" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH13" s="100"/>
+      <c r="AI13" s="101"/>
+    </row>
+    <row r="14" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>2010</v>
       </c>
@@ -4771,16 +4789,17 @@
       <c r="X14" s="85"/>
       <c r="Y14" s="86"/>
       <c r="Z14" s="107"/>
-      <c r="AA14" s="99"/>
-      <c r="AB14" s="101"/>
-      <c r="AC14" s="99"/>
-      <c r="AD14" s="100"/>
+      <c r="AA14" s="107"/>
+      <c r="AB14" s="99"/>
+      <c r="AC14" s="101"/>
+      <c r="AD14" s="99"/>
       <c r="AE14" s="100"/>
       <c r="AF14" s="100"/>
       <c r="AG14" s="100"/>
-      <c r="AH14" s="101"/>
-    </row>
-    <row r="15" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH14" s="100"/>
+      <c r="AI14" s="101"/>
+    </row>
+    <row r="15" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>2011</v>
       </c>
@@ -4809,16 +4828,17 @@
       <c r="X15" s="85"/>
       <c r="Y15" s="86"/>
       <c r="Z15" s="107"/>
-      <c r="AA15" s="99"/>
-      <c r="AB15" s="101"/>
-      <c r="AC15" s="99"/>
-      <c r="AD15" s="100"/>
+      <c r="AA15" s="107"/>
+      <c r="AB15" s="99"/>
+      <c r="AC15" s="101"/>
+      <c r="AD15" s="99"/>
       <c r="AE15" s="100"/>
       <c r="AF15" s="100"/>
       <c r="AG15" s="100"/>
-      <c r="AH15" s="101"/>
-    </row>
-    <row r="16" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH15" s="100"/>
+      <c r="AI15" s="101"/>
+    </row>
+    <row r="16" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
         <v>2012</v>
       </c>
@@ -4853,16 +4873,17 @@
       <c r="X16" s="85"/>
       <c r="Y16" s="86"/>
       <c r="Z16" s="107"/>
-      <c r="AA16" s="99"/>
-      <c r="AB16" s="101"/>
-      <c r="AC16" s="99"/>
-      <c r="AD16" s="100"/>
+      <c r="AA16" s="107"/>
+      <c r="AB16" s="99"/>
+      <c r="AC16" s="101"/>
+      <c r="AD16" s="99"/>
       <c r="AE16" s="100"/>
       <c r="AF16" s="100"/>
       <c r="AG16" s="100"/>
-      <c r="AH16" s="101"/>
-    </row>
-    <row r="17" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH16" s="100"/>
+      <c r="AI16" s="101"/>
+    </row>
+    <row r="17" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <v>2013</v>
       </c>
@@ -4897,16 +4918,17 @@
       <c r="X17" s="85"/>
       <c r="Y17" s="86"/>
       <c r="Z17" s="107"/>
-      <c r="AA17" s="99"/>
-      <c r="AB17" s="101"/>
-      <c r="AC17" s="99"/>
-      <c r="AD17" s="100"/>
+      <c r="AA17" s="107"/>
+      <c r="AB17" s="99"/>
+      <c r="AC17" s="101"/>
+      <c r="AD17" s="99"/>
       <c r="AE17" s="100"/>
       <c r="AF17" s="100"/>
       <c r="AG17" s="100"/>
-      <c r="AH17" s="101"/>
-    </row>
-    <row r="18" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH17" s="100"/>
+      <c r="AI17" s="101"/>
+    </row>
+    <row r="18" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38">
         <v>2014</v>
       </c>
@@ -4941,16 +4963,17 @@
       <c r="X18" s="85"/>
       <c r="Y18" s="86"/>
       <c r="Z18" s="107"/>
-      <c r="AA18" s="99"/>
-      <c r="AB18" s="101"/>
-      <c r="AC18" s="99"/>
-      <c r="AD18" s="100"/>
+      <c r="AA18" s="107"/>
+      <c r="AB18" s="99"/>
+      <c r="AC18" s="101"/>
+      <c r="AD18" s="99"/>
       <c r="AE18" s="100"/>
       <c r="AF18" s="100"/>
       <c r="AG18" s="100"/>
-      <c r="AH18" s="101"/>
-    </row>
-    <row r="19" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH18" s="100"/>
+      <c r="AI18" s="101"/>
+    </row>
+    <row r="19" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <v>2015</v>
       </c>
@@ -4985,16 +5008,17 @@
       <c r="X19" s="85"/>
       <c r="Y19" s="86"/>
       <c r="Z19" s="107"/>
-      <c r="AA19" s="99"/>
-      <c r="AB19" s="101"/>
-      <c r="AC19" s="99"/>
-      <c r="AD19" s="100"/>
+      <c r="AA19" s="107"/>
+      <c r="AB19" s="99"/>
+      <c r="AC19" s="101"/>
+      <c r="AD19" s="99"/>
       <c r="AE19" s="100"/>
       <c r="AF19" s="100"/>
       <c r="AG19" s="100"/>
-      <c r="AH19" s="101"/>
-    </row>
-    <row r="20" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH19" s="100"/>
+      <c r="AI19" s="101"/>
+    </row>
+    <row r="20" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>2016</v>
       </c>
@@ -5031,16 +5055,17 @@
       <c r="X20" s="85"/>
       <c r="Y20" s="86"/>
       <c r="Z20" s="107"/>
-      <c r="AA20" s="99"/>
-      <c r="AB20" s="101"/>
-      <c r="AC20" s="99"/>
-      <c r="AD20" s="100"/>
+      <c r="AA20" s="107"/>
+      <c r="AB20" s="99"/>
+      <c r="AC20" s="101"/>
+      <c r="AD20" s="99"/>
       <c r="AE20" s="100"/>
       <c r="AF20" s="100"/>
       <c r="AG20" s="100"/>
-      <c r="AH20" s="101"/>
-    </row>
-    <row r="21" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH20" s="100"/>
+      <c r="AI20" s="101"/>
+    </row>
+    <row r="21" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <v>2017</v>
       </c>
@@ -5069,16 +5094,17 @@
       <c r="X21" s="85"/>
       <c r="Y21" s="86"/>
       <c r="Z21" s="107"/>
-      <c r="AA21" s="99"/>
-      <c r="AB21" s="101"/>
-      <c r="AC21" s="99"/>
-      <c r="AD21" s="100"/>
+      <c r="AA21" s="107"/>
+      <c r="AB21" s="99"/>
+      <c r="AC21" s="101"/>
+      <c r="AD21" s="99"/>
       <c r="AE21" s="100"/>
       <c r="AF21" s="100"/>
       <c r="AG21" s="100"/>
-      <c r="AH21" s="101"/>
-    </row>
-    <row r="22" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH21" s="100"/>
+      <c r="AI21" s="101"/>
+    </row>
+    <row r="22" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>2018</v>
       </c>
@@ -5107,16 +5133,17 @@
       <c r="X22" s="85"/>
       <c r="Y22" s="86"/>
       <c r="Z22" s="107"/>
-      <c r="AA22" s="99"/>
-      <c r="AB22" s="101"/>
-      <c r="AC22" s="99"/>
-      <c r="AD22" s="100"/>
+      <c r="AA22" s="107"/>
+      <c r="AB22" s="99"/>
+      <c r="AC22" s="101"/>
+      <c r="AD22" s="99"/>
       <c r="AE22" s="100"/>
       <c r="AF22" s="100"/>
       <c r="AG22" s="100"/>
-      <c r="AH22" s="101"/>
-    </row>
-    <row r="23" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH22" s="100"/>
+      <c r="AI22" s="101"/>
+    </row>
+    <row r="23" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="38">
         <v>2019</v>
       </c>
@@ -5145,16 +5172,17 @@
       <c r="X23" s="85"/>
       <c r="Y23" s="86"/>
       <c r="Z23" s="107"/>
-      <c r="AA23" s="99"/>
-      <c r="AB23" s="101"/>
-      <c r="AC23" s="99"/>
-      <c r="AD23" s="100"/>
+      <c r="AA23" s="107"/>
+      <c r="AB23" s="99"/>
+      <c r="AC23" s="101"/>
+      <c r="AD23" s="99"/>
       <c r="AE23" s="100"/>
       <c r="AF23" s="100"/>
       <c r="AG23" s="100"/>
-      <c r="AH23" s="101"/>
-    </row>
-    <row r="24" spans="1:34" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH23" s="100"/>
+      <c r="AI23" s="101"/>
+    </row>
+    <row r="24" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="72">
         <v>2020</v>
       </c>
@@ -5183,36 +5211,37 @@
       <c r="X24" s="88"/>
       <c r="Y24" s="89"/>
       <c r="Z24" s="108"/>
-      <c r="AA24" s="102"/>
-      <c r="AB24" s="104"/>
-      <c r="AC24" s="102"/>
-      <c r="AD24" s="103"/>
+      <c r="AA24" s="108"/>
+      <c r="AB24" s="102"/>
+      <c r="AC24" s="104"/>
+      <c r="AD24" s="102"/>
       <c r="AE24" s="103"/>
       <c r="AF24" s="103"/>
       <c r="AG24" s="103"/>
-      <c r="AH24" s="104"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH24" s="103"/>
+      <c r="AI24" s="104"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="38">
         <v>2021</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="38">
         <v>2022</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <v>2023</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
         <v>2024</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="72">
         <v>2025</v>
       </c>
@@ -5223,17 +5252,17 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="38">
         <v>2026</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="38">
         <v>2027</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="38">
         <v>2028</v>
       </c>

--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pars" sheetId="24" r:id="rId1"/>
@@ -847,11 +847,35 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Number of people on PrEP. Seemed to make more sense than proportion of people on PrEP</t>
+Relative force of infection multiplier for each risk group </t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Number of people on PrEP. Seemed to make more sense than proportion of people on PrEP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -872,30 +896,6 @@
           </rPr>
           <t xml:space="preserve">
 Effectiveness of condoms. This number doesn't actually matter because it gets absorbed into the force of infection. But its needed for a gel condom analysis</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Condom usage between risk groups. Might be set this to zero then absorb any relative risk into the relative_foi parameter</t>
         </r>
       </text>
     </comment>
@@ -919,11 +919,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Time between HIV tests (in years)</t>
+Condom usage between risk groups. Might be set this to zero then absorb any relative risk into the relative_foi parameter</t>
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -943,7 +943,31 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Care cascade data</t>
+Condom usage between risk groups. Might be set this to zero then absorb any relative risk into the relative_foi parameter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Time between HIV tests (in years)</t>
         </r>
       </text>
     </comment>
@@ -967,11 +991,35 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Effectiveness of each care stage in reducing infectiousness. The number of people in each infected compartment are multiplied by these values to get an overall relative proportion positive</t>
+Care cascade data</t>
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Effectiveness of each care stage in reducing infectiousness. The number of people in each infected compartment are multiplied by these values to get an overall relative proportion positive</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -995,7 +1043,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0">
+    <comment ref="AF1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1019,7 +1067,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0">
+    <comment ref="Q3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1043,7 +1091,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
+    <comment ref="R3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1063,35 +1111,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Time between tests for people infected 1-3 years ago</t>
+Time between tests for people infected over 3 years ago</t>
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Time between tests for people infected over 3 years ago</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T3" authorId="0" shapeId="0">
+    <comment ref="W3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="0" shapeId="0">
+    <comment ref="X3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1140,7 +1164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="0" shapeId="0">
+    <comment ref="Y3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1188,7 +1212,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="T16" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+i.e. PrEP is 97% effective</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1212,7 +1260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T17" authorId="0" shapeId="0">
+    <comment ref="W17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1236,7 +1284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T20" authorId="1" shapeId="0">
+    <comment ref="W20" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1342,30 +1390,6 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Time between tests for people infected 1-3 years ago</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
 Time between tests for people infected over 3 years ago</t>
         </r>
       </text>
@@ -1375,7 +1399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="105">
   <si>
     <t>Waiting list</t>
   </si>
@@ -1620,9 +1644,6 @@
     <t>old_infection</t>
   </si>
   <si>
-    <t>mid_infection</t>
-  </si>
-  <si>
     <t>condom_usage</t>
   </si>
   <si>
@@ -1671,9 +1692,6 @@
     <t>new_to_mid</t>
   </si>
   <si>
-    <t>mid_to_old</t>
-  </si>
-  <si>
     <t>test_wait</t>
   </si>
   <si>
@@ -1690,6 +1708,12 @@
   </si>
   <si>
     <t>prop_medi</t>
+  </si>
+  <si>
+    <t>aus</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
 </sst>
 </file>
@@ -1876,7 +1900,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -2101,6 +2125,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2121,7 +2207,7 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2287,6 +2373,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Bad" xfId="15" builtinId="27" customBuiltin="1"/>
@@ -3055,10 +3151,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" s="53">
         <v>2007</v>
@@ -3066,10 +3162,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" s="53">
         <v>42714</v>
@@ -3089,9 +3185,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D14" sqref="D14"/>
+      <selection pane="topRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3215,11 +3311,11 @@
         <v>3.4931506849315071E-2</v>
       </c>
       <c r="J2" s="35">
-        <f t="shared" ref="J2:J12" si="0">G2-K2</f>
+        <f>G2-K2</f>
         <v>39638.591999999997</v>
       </c>
       <c r="K2" s="35">
-        <f t="shared" ref="K2:K12" si="1">C2</f>
+        <f>C2</f>
         <v>3075.4079999999999</v>
       </c>
       <c r="L2" s="40">
@@ -3227,7 +3323,7 @@
         <v>923</v>
       </c>
       <c r="M2" s="40">
-        <f t="shared" ref="M2" si="2">ROUND(I2*K2,0)</f>
+        <f t="shared" ref="M2" si="0">ROUND(I2*K2,0)</f>
         <v>107</v>
       </c>
       <c r="N2" s="12">
@@ -3263,7 +3359,7 @@
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="35">
-        <f t="shared" ref="C3:C12" si="3">G3*7.2/100</f>
+        <f t="shared" ref="C3:C12" si="1">G3*7.2/100</f>
         <v>3229.1784000000002</v>
       </c>
       <c r="D3" s="11"/>
@@ -3276,11 +3372,11 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="35">
-        <f t="shared" si="0"/>
+        <f>G3-K3</f>
         <v>41620.521600000007</v>
       </c>
       <c r="K3" s="35">
-        <f t="shared" si="1"/>
+        <f>C3</f>
         <v>3229.1784000000002</v>
       </c>
       <c r="L3" s="14"/>
@@ -3295,18 +3391,18 @@
         <v>0.82</v>
       </c>
       <c r="Q3" s="45">
-        <f t="shared" ref="Q3:Q12" si="4">N3*O3*P3</f>
+        <f t="shared" ref="Q3:Q12" si="2">N3*O3*P3</f>
         <v>612.39239999999995</v>
       </c>
       <c r="R3" s="41">
         <v>0.17</v>
       </c>
       <c r="S3" s="43">
-        <f t="shared" ref="S3:S12" si="5">Q3-T3</f>
+        <f t="shared" ref="S3:S12" si="3">Q3-T3</f>
         <v>508.28569199999993</v>
       </c>
       <c r="T3" s="43">
-        <f t="shared" ref="T3:T12" si="6">Q3*R3</f>
+        <f t="shared" ref="T3:T12" si="4">Q3*R3</f>
         <v>104.106708</v>
       </c>
       <c r="U3" s="16"/>
@@ -3318,24 +3414,24 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3390.6373200000003</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="35">
-        <f t="shared" ref="G4:G11" si="7">1.05*G3</f>
+        <f t="shared" ref="G4:G11" si="5">1.05*G3</f>
         <v>47092.185000000005</v>
       </c>
       <c r="H4" s="48"/>
       <c r="I4" s="48"/>
       <c r="J4" s="35">
-        <f t="shared" si="0"/>
+        <f>G4-K4</f>
         <v>43701.547680000003</v>
       </c>
       <c r="K4" s="35">
-        <f t="shared" si="1"/>
+        <f>C4</f>
         <v>3390.6373200000003</v>
       </c>
       <c r="L4" s="14"/>
@@ -3350,18 +3446,18 @@
         <v>0.82</v>
       </c>
       <c r="Q4" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>983.01600000000008</v>
       </c>
       <c r="R4" s="41">
         <v>0.17</v>
       </c>
       <c r="S4" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>815.90328</v>
       </c>
       <c r="T4" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>167.11272000000002</v>
       </c>
       <c r="U4" s="17"/>
@@ -3375,7 +3471,7 @@
         <v>178</v>
       </c>
       <c r="C5" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3560.1691860000005</v>
       </c>
       <c r="D5" s="12"/>
@@ -3386,7 +3482,7 @@
         <v>0.8</v>
       </c>
       <c r="G5" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>49446.794250000006</v>
       </c>
       <c r="H5" s="48">
@@ -3396,19 +3492,19 @@
         <v>4.3150684931506846E-2</v>
       </c>
       <c r="J5" s="35">
-        <f t="shared" si="0"/>
+        <f>G5-K5</f>
         <v>45886.625064000007</v>
       </c>
       <c r="K5" s="35">
-        <f t="shared" si="1"/>
+        <f>C5</f>
         <v>3560.1691860000005</v>
       </c>
       <c r="L5" s="39">
-        <f t="shared" ref="L5:L11" si="8">ROUND(H5*J5,0)</f>
+        <f t="shared" ref="L5:L11" si="6">ROUND(H5*J5,0)</f>
         <v>1848</v>
       </c>
       <c r="M5" s="39">
-        <f t="shared" ref="M5:M12" si="9">ROUND(I5*K5,0)</f>
+        <f t="shared" ref="M5:M12" si="7">ROUND(I5*K5,0)</f>
         <v>154</v>
       </c>
       <c r="N5" s="12">
@@ -3421,18 +3517,18 @@
         <v>0.82</v>
       </c>
       <c r="Q5" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1167.6635999999999</v>
       </c>
       <c r="R5" s="41">
         <v>0.17</v>
       </c>
       <c r="S5" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>969.16078799999991</v>
       </c>
       <c r="T5" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>198.50281199999998</v>
       </c>
       <c r="U5" s="17"/>
@@ -3446,14 +3542,14 @@
         <v>218</v>
       </c>
       <c r="C6" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3738.1776453000011</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>51919.133962500011</v>
       </c>
       <c r="H6" s="48">
@@ -3463,19 +3559,19 @@
         <v>4.726027397260274E-2</v>
       </c>
       <c r="J6" s="35">
-        <f t="shared" si="0"/>
+        <f>G6-K6</f>
         <v>48180.956317200013</v>
       </c>
       <c r="K6" s="35">
-        <f t="shared" si="1"/>
+        <f>C6</f>
         <v>3738.1776453000011</v>
       </c>
       <c r="L6" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1808</v>
       </c>
       <c r="M6" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>177</v>
       </c>
       <c r="N6" s="12">
@@ -3488,18 +3584,18 @@
         <v>0.82</v>
       </c>
       <c r="Q6" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1237.4046000000001</v>
       </c>
       <c r="R6" s="41">
         <v>0.17</v>
       </c>
       <c r="S6" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1027.0458180000001</v>
       </c>
       <c r="T6" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>210.35878200000002</v>
       </c>
       <c r="U6" s="17"/>
@@ -3513,7 +3609,7 @@
         <v>200</v>
       </c>
       <c r="C7" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3925.0865275650012</v>
       </c>
       <c r="D7" s="12">
@@ -3526,7 +3622,7 @@
         <v>0.88</v>
       </c>
       <c r="G7" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>54515.090660625014</v>
       </c>
       <c r="H7" s="48">
@@ -3536,19 +3632,19 @@
         <v>5.3835616438356167E-2</v>
       </c>
       <c r="J7" s="35">
-        <f t="shared" si="0"/>
+        <f>G7-K7</f>
         <v>50590.004133060014</v>
       </c>
       <c r="K7" s="35">
-        <f t="shared" si="1"/>
+        <f>C7</f>
         <v>3925.0865275650012</v>
       </c>
       <c r="L7" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2467</v>
       </c>
       <c r="M7" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>211</v>
       </c>
       <c r="N7" s="12">
@@ -3561,18 +3657,18 @@
         <v>0.82</v>
       </c>
       <c r="Q7" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1617.9911999999999</v>
       </c>
       <c r="R7" s="41">
         <v>0.17</v>
       </c>
       <c r="S7" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1342.9326959999999</v>
       </c>
       <c r="T7" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>275.05850400000003</v>
       </c>
       <c r="U7" s="17"/>
@@ -3586,7 +3682,7 @@
         <v>218</v>
       </c>
       <c r="C8" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4121.3408539432512</v>
       </c>
       <c r="D8" s="12"/>
@@ -3597,7 +3693,7 @@
         <v>0.9</v>
       </c>
       <c r="G8" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>57240.845193656263</v>
       </c>
       <c r="H8" s="48">
@@ -3607,19 +3703,19 @@
         <v>6.2671232876712321E-2</v>
       </c>
       <c r="J8" s="35">
-        <f t="shared" si="0"/>
+        <f>G8-K8</f>
         <v>53119.504339713014</v>
       </c>
       <c r="K8" s="35">
-        <f t="shared" si="1"/>
+        <f>C8</f>
         <v>4121.3408539432512</v>
       </c>
       <c r="L8" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2809</v>
       </c>
       <c r="M8" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>258</v>
       </c>
       <c r="N8" s="12">
@@ -3632,18 +3728,18 @@
         <v>0.82</v>
       </c>
       <c r="Q8" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1977.9876000000002</v>
       </c>
       <c r="R8" s="41">
         <v>0.17</v>
       </c>
       <c r="S8" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1641.7297080000001</v>
       </c>
       <c r="T8" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>336.25789200000003</v>
       </c>
       <c r="U8" s="17"/>
@@ -3657,7 +3753,7 @@
         <v>219</v>
       </c>
       <c r="C9" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4327.407896640414</v>
       </c>
       <c r="D9" s="12">
@@ -3670,7 +3766,7 @@
         <v>0.9</v>
       </c>
       <c r="G9" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>60102.887453339077</v>
       </c>
       <c r="H9" s="48">
@@ -3680,19 +3776,19 @@
         <v>5.321917808219178E-2</v>
       </c>
       <c r="J9" s="35">
-        <f t="shared" si="0"/>
+        <f>G9-K9</f>
         <v>55775.479556698665</v>
       </c>
       <c r="K9" s="35">
-        <f t="shared" si="1"/>
+        <f>C9</f>
         <v>4327.407896640414</v>
       </c>
       <c r="L9" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2873</v>
       </c>
       <c r="M9" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>230</v>
       </c>
       <c r="N9" s="12">
@@ -3705,18 +3801,18 @@
         <v>0.82</v>
       </c>
       <c r="Q9" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2171.2698</v>
       </c>
       <c r="R9" s="41">
         <v>0.17</v>
       </c>
       <c r="S9" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1802.1539339999999</v>
       </c>
       <c r="T9" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>369.11586600000004</v>
       </c>
       <c r="U9" s="17"/>
@@ -3730,7 +3826,7 @@
         <v>206</v>
       </c>
       <c r="C10" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4543.7782914724339</v>
       </c>
       <c r="D10" s="12">
@@ -3743,7 +3839,7 @@
         <v>0.92</v>
       </c>
       <c r="G10" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>63108.03182600603</v>
       </c>
       <c r="H10" s="48">
@@ -3753,19 +3849,19 @@
         <v>6.7191780821917804E-2</v>
       </c>
       <c r="J10" s="35">
-        <f t="shared" si="0"/>
+        <f>G10-K10</f>
         <v>58564.253534533593</v>
       </c>
       <c r="K10" s="35">
-        <f t="shared" si="1"/>
+        <f>C10</f>
         <v>4543.7782914724339</v>
       </c>
       <c r="L10" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3899</v>
       </c>
       <c r="M10" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>305</v>
       </c>
       <c r="N10" s="12">
@@ -3778,18 +3874,18 @@
         <v>0.82</v>
       </c>
       <c r="Q10" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3231.3330000000001</v>
       </c>
       <c r="R10" s="42">
         <v>0.17</v>
       </c>
       <c r="S10" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2682.00639</v>
       </c>
       <c r="T10" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>549.32661000000007</v>
       </c>
       <c r="U10" s="17"/>
@@ -3803,7 +3899,7 @@
         <v>233</v>
       </c>
       <c r="C11" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4770.9672060460571</v>
       </c>
       <c r="D11" s="12">
@@ -3816,7 +3912,7 @@
         <v>0.94</v>
       </c>
       <c r="G11" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>66263.43341730634</v>
       </c>
       <c r="H11" s="48">
@@ -3826,19 +3922,19 @@
         <v>6.9246575342465755E-2</v>
       </c>
       <c r="J11" s="35">
-        <f t="shared" si="0"/>
+        <f>G11-K11</f>
         <v>61492.466211260282</v>
       </c>
       <c r="K11" s="35">
-        <f t="shared" si="1"/>
+        <f>C11</f>
         <v>4770.9672060460571</v>
       </c>
       <c r="L11" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3892</v>
       </c>
       <c r="M11" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>330</v>
       </c>
       <c r="N11" s="12">
@@ -3851,18 +3947,18 @@
         <v>0.82</v>
       </c>
       <c r="Q11" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4161.2130000000006</v>
       </c>
       <c r="R11" s="42">
         <v>0.13</v>
       </c>
       <c r="S11" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3620.2553100000005</v>
       </c>
       <c r="T11" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>540.95769000000007</v>
       </c>
       <c r="U11" s="51">
@@ -3877,7 +3973,7 @@
         <v>194</v>
       </c>
       <c r="C12" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5009.5155663483602</v>
       </c>
       <c r="D12" s="11">
@@ -3897,16 +3993,16 @@
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="J12" s="35">
-        <f t="shared" si="0"/>
+        <f>G12-K12</f>
         <v>64567.089521823305</v>
       </c>
       <c r="K12" s="35">
-        <f t="shared" si="1"/>
+        <f>C12</f>
         <v>5009.5155663483602</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>234</v>
       </c>
       <c r="N12" s="12">
@@ -3919,18 +4015,18 @@
         <v>0.7</v>
       </c>
       <c r="Q12" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4132.8630000000003</v>
       </c>
       <c r="R12" s="41">
         <v>0.1</v>
       </c>
       <c r="S12" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3719.5767000000001</v>
       </c>
       <c r="T12" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>413.28630000000004</v>
       </c>
     </row>
@@ -3995,10 +4091,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI34"/>
+  <dimension ref="A1:AK34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4008,142 +4104,149 @@
     <col min="3" max="3" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="69" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" style="69" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="69" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="69" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="16" style="69" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="69" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="15" style="69" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="69" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="69" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="69" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="69" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="16" style="69" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.7109375" style="69" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" style="69" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.85546875" style="69" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28" style="69" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="15" style="69" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="69" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" style="69" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="19.85546875" style="69" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="28" style="69" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="28" style="69" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.85546875" style="69" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15" style="69" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.85546875" style="69" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15" style="69" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11" style="69" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.85546875" style="69" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28" style="69" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="28" style="69" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15" style="69" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.85546875" style="69" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15" style="69" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11" style="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C1" s="75" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E1" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="77" t="s">
-        <v>82</v>
-      </c>
       <c r="K1" s="75" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="L1" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="M1" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="N1" s="76" t="s">
-        <v>75</v>
+        <v>81</v>
+      </c>
+      <c r="M1" s="109" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="114" t="s">
+        <v>81</v>
       </c>
       <c r="O1" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="P1" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q1" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="75" t="s">
         <v>75</v>
       </c>
       <c r="R1" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="S1" s="77" t="s">
+      <c r="S1" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="T1" s="75" t="s">
-        <v>85</v>
+      <c r="T1" s="76" t="s">
+        <v>75</v>
       </c>
       <c r="U1" s="76" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="V1" s="77" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="W1" s="75" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="X1" s="76" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="Y1" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z1" s="105" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA1" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB1" s="90" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC1" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD1" s="90" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z1" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA1" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB1" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC1" s="105" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD1" s="105" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE1" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF1" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG1" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH1" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI1" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="AE1" s="91" t="s">
+      <c r="AJ1" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="AF1" s="91" t="s">
+      <c r="AK1" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="AG1" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH1" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI1" s="92" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="53"/>
       <c r="C2" s="78" t="s">
@@ -4155,143 +4258,169 @@
       <c r="E2" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="78" t="s">
+      <c r="F2" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="79" t="s">
+      <c r="G2" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="80" t="s">
+      <c r="H2" s="80" t="s">
         <v>78</v>
       </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
       <c r="K2" s="78" t="s">
         <v>76</v>
       </c>
       <c r="L2" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="115" t="s">
         <v>76</v>
-      </c>
-      <c r="M2" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" s="79" t="s">
-        <v>77</v>
       </c>
       <c r="O2" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="P2" s="79" t="s">
+      <c r="P2" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="Q2" s="79" t="s">
+      <c r="T2" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="U2" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="R2" s="79" t="s">
+      <c r="V2" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="S2" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="T2" s="78"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="80"/>
       <c r="W2" s="78"/>
       <c r="X2" s="79"/>
       <c r="Y2" s="80"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="93" t="s">
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="80"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="AE2" s="94" t="s">
+      <c r="AG2" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="AF2" s="94" t="s">
+      <c r="AH2" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="AG2" s="94" t="s">
+      <c r="AI2" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="AH2" s="94" t="s">
+      <c r="AJ2" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="AI2" s="95" t="s">
+      <c r="AK2" s="95" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="53"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="80"/>
+      <c r="C3" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
       <c r="K3" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" s="110" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" s="115" t="s">
+        <v>104</v>
+      </c>
+      <c r="O3" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="P3" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q3" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="L3" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" s="79" t="s">
+      <c r="R3" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="N3" s="79" t="s">
+      <c r="S3" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="O3" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="P3" s="79" t="s">
+      <c r="T3" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="Q3" s="79" t="s">
+      <c r="U3" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="R3" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="S3" s="80" t="s">
+      <c r="V3" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="T3" s="78" t="s">
+      <c r="W3" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="X3" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="U3" s="79" t="s">
+      <c r="Y3" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="V3" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="W3" s="78" t="s">
+      <c r="Z3" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA3" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="X3" s="79" t="s">
+      <c r="AB3" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="Y3" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB3" s="93" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC3" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD3" s="93"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
+      <c r="AE3" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF3" s="93"/>
       <c r="AG3" s="94"/>
       <c r="AH3" s="94"/>
-      <c r="AI3" s="95"/>
-    </row>
-    <row r="4" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="95"/>
+    </row>
+    <row r="4" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37">
         <v>2000</v>
       </c>
@@ -4302,85 +4431,84 @@
         <v>1</v>
       </c>
       <c r="D4" s="82">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E4" s="83">
         <v>0.03</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74">
+      <c r="F4" s="81">
+        <v>1</v>
+      </c>
+      <c r="G4" s="82">
+        <v>1</v>
+      </c>
+      <c r="H4" s="83">
+        <v>0.03</v>
+      </c>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74">
         <v>0.7</v>
-      </c>
-      <c r="H4" s="81">
-        <v>0.42</v>
-      </c>
-      <c r="I4" s="82">
-        <v>0.35</v>
-      </c>
-      <c r="J4" s="83">
-        <v>0.1</v>
       </c>
       <c r="K4" s="81">
         <v>1</v>
       </c>
       <c r="L4" s="82">
+        <v>0</v>
+      </c>
+      <c r="M4" s="111">
+        <v>0</v>
+      </c>
+      <c r="N4" s="116">
+        <v>1</v>
+      </c>
+      <c r="O4" s="82">
+        <v>0</v>
+      </c>
+      <c r="P4" s="83">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="81">
+        <v>1</v>
+      </c>
+      <c r="R4" s="82">
+        <v>10</v>
+      </c>
+      <c r="S4" s="82">
+        <v>0.5</v>
+      </c>
+      <c r="T4" s="82">
         <v>4</v>
       </c>
-      <c r="M4" s="82">
-        <v>10</v>
-      </c>
-      <c r="N4" s="82">
-        <v>0.5</v>
-      </c>
-      <c r="O4" s="82">
-        <v>4</v>
-      </c>
-      <c r="P4" s="82">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="82">
+      <c r="U4" s="82">
         <f>3/12</f>
         <v>0.25</v>
       </c>
-      <c r="R4" s="82">
+      <c r="V4" s="83">
         <f>3/12</f>
         <v>0.25</v>
       </c>
-      <c r="S4" s="83">
-        <f>3/12</f>
-        <v>0.25</v>
-      </c>
-      <c r="T4" s="81"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="81">
+      <c r="W4" s="81"/>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="81">
         <v>1</v>
       </c>
-      <c r="X4" s="82">
+      <c r="AA4" s="82">
         <v>1</v>
       </c>
-      <c r="Y4" s="83">
+      <c r="AB4" s="83">
         <v>0.04</v>
       </c>
-      <c r="Z4" s="106">
+      <c r="AC4" s="106">
         <v>1</v>
       </c>
-      <c r="AA4" s="106">
+      <c r="AD4" s="106">
         <v>1</v>
       </c>
-      <c r="AB4" s="96">
+      <c r="AE4" s="96">
         <v>1</v>
       </c>
-      <c r="AC4" s="98">
-        <v>2</v>
-      </c>
-      <c r="AD4" s="96">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="97">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="97">
+      <c r="AF4" s="96">
         <v>0</v>
       </c>
       <c r="AG4" s="97">
@@ -4389,11 +4517,17 @@
       <c r="AH4" s="97">
         <v>0</v>
       </c>
-      <c r="AI4" s="98">
+      <c r="AI4" s="97">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ4" s="97">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38">
         <v>2001</v>
       </c>
@@ -4401,38 +4535,40 @@
       <c r="C5" s="84"/>
       <c r="D5" s="85"/>
       <c r="E5" s="86"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="86"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="84"/>
       <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="117"/>
       <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="84"/>
       <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="84"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
       <c r="U5" s="85"/>
       <c r="V5" s="86"/>
       <c r="W5" s="84"/>
       <c r="X5" s="85"/>
       <c r="Y5" s="86"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="99"/>
-      <c r="AC5" s="101"/>
-      <c r="AD5" s="99"/>
-      <c r="AE5" s="100"/>
-      <c r="AF5" s="100"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="85"/>
+      <c r="AB5" s="86"/>
+      <c r="AC5" s="107"/>
+      <c r="AD5" s="107"/>
+      <c r="AE5" s="99"/>
+      <c r="AF5" s="99"/>
       <c r="AG5" s="100"/>
       <c r="AH5" s="100"/>
-      <c r="AI5" s="101"/>
-    </row>
-    <row r="6" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI5" s="100"/>
+      <c r="AJ5" s="100"/>
+      <c r="AK5" s="101"/>
+    </row>
+    <row r="6" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38">
         <v>2002</v>
       </c>
@@ -4440,38 +4576,40 @@
       <c r="C6" s="84"/>
       <c r="D6" s="85"/>
       <c r="E6" s="86"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="86"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
       <c r="K6" s="84"/>
       <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="117"/>
       <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="85"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="84"/>
       <c r="R6" s="85"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="84"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
       <c r="U6" s="85"/>
       <c r="V6" s="86"/>
       <c r="W6" s="84"/>
       <c r="X6" s="85"/>
       <c r="Y6" s="86"/>
-      <c r="Z6" s="107"/>
-      <c r="AA6" s="107"/>
-      <c r="AB6" s="99"/>
-      <c r="AC6" s="101"/>
-      <c r="AD6" s="99"/>
-      <c r="AE6" s="100"/>
-      <c r="AF6" s="100"/>
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="85"/>
+      <c r="AB6" s="86"/>
+      <c r="AC6" s="107"/>
+      <c r="AD6" s="107"/>
+      <c r="AE6" s="99"/>
+      <c r="AF6" s="99"/>
       <c r="AG6" s="100"/>
       <c r="AH6" s="100"/>
-      <c r="AI6" s="101"/>
-    </row>
-    <row r="7" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI6" s="100"/>
+      <c r="AJ6" s="100"/>
+      <c r="AK6" s="101"/>
+    </row>
+    <row r="7" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38">
         <v>2003</v>
       </c>
@@ -4479,38 +4617,40 @@
       <c r="C7" s="84"/>
       <c r="D7" s="85"/>
       <c r="E7" s="86"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="86"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="84"/>
       <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="117"/>
       <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="84"/>
       <c r="R7" s="85"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="84"/>
+      <c r="S7" s="85"/>
+      <c r="T7" s="85"/>
       <c r="U7" s="85"/>
       <c r="V7" s="86"/>
       <c r="W7" s="84"/>
       <c r="X7" s="85"/>
       <c r="Y7" s="86"/>
-      <c r="Z7" s="107"/>
-      <c r="AA7" s="107"/>
-      <c r="AB7" s="99"/>
-      <c r="AC7" s="101"/>
-      <c r="AD7" s="99"/>
-      <c r="AE7" s="100"/>
-      <c r="AF7" s="100"/>
+      <c r="Z7" s="84"/>
+      <c r="AA7" s="85"/>
+      <c r="AB7" s="86"/>
+      <c r="AC7" s="107"/>
+      <c r="AD7" s="107"/>
+      <c r="AE7" s="99"/>
+      <c r="AF7" s="99"/>
       <c r="AG7" s="100"/>
       <c r="AH7" s="100"/>
-      <c r="AI7" s="101"/>
-    </row>
-    <row r="8" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI7" s="100"/>
+      <c r="AJ7" s="100"/>
+      <c r="AK7" s="101"/>
+    </row>
+    <row r="8" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38">
         <v>2004</v>
       </c>
@@ -4518,38 +4658,40 @@
       <c r="C8" s="84"/>
       <c r="D8" s="85"/>
       <c r="E8" s="86"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="86"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
       <c r="K8" s="84"/>
       <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="117"/>
       <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="85"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="84"/>
       <c r="R8" s="85"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="84"/>
+      <c r="S8" s="85"/>
+      <c r="T8" s="85"/>
       <c r="U8" s="85"/>
       <c r="V8" s="86"/>
       <c r="W8" s="84"/>
       <c r="X8" s="85"/>
       <c r="Y8" s="86"/>
-      <c r="Z8" s="107"/>
-      <c r="AA8" s="107"/>
-      <c r="AB8" s="99"/>
-      <c r="AC8" s="101"/>
-      <c r="AD8" s="99"/>
-      <c r="AE8" s="100"/>
-      <c r="AF8" s="100"/>
+      <c r="Z8" s="84"/>
+      <c r="AA8" s="85"/>
+      <c r="AB8" s="86"/>
+      <c r="AC8" s="107"/>
+      <c r="AD8" s="107"/>
+      <c r="AE8" s="99"/>
+      <c r="AF8" s="99"/>
       <c r="AG8" s="100"/>
       <c r="AH8" s="100"/>
-      <c r="AI8" s="101"/>
-    </row>
-    <row r="9" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI8" s="100"/>
+      <c r="AJ8" s="100"/>
+      <c r="AK8" s="101"/>
+    </row>
+    <row r="9" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38">
         <v>2005</v>
       </c>
@@ -4557,38 +4699,40 @@
       <c r="C9" s="84"/>
       <c r="D9" s="85"/>
       <c r="E9" s="86"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="86"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
       <c r="K9" s="84"/>
       <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="117"/>
       <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="85"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="84"/>
       <c r="R9" s="85"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="84"/>
+      <c r="S9" s="85"/>
+      <c r="T9" s="85"/>
       <c r="U9" s="85"/>
       <c r="V9" s="86"/>
       <c r="W9" s="84"/>
       <c r="X9" s="85"/>
       <c r="Y9" s="86"/>
-      <c r="Z9" s="107"/>
-      <c r="AA9" s="107"/>
-      <c r="AB9" s="99"/>
-      <c r="AC9" s="101"/>
-      <c r="AD9" s="99"/>
-      <c r="AE9" s="100"/>
-      <c r="AF9" s="100"/>
+      <c r="Z9" s="84"/>
+      <c r="AA9" s="85"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="107"/>
+      <c r="AD9" s="107"/>
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="99"/>
       <c r="AG9" s="100"/>
       <c r="AH9" s="100"/>
-      <c r="AI9" s="101"/>
-    </row>
-    <row r="10" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI9" s="100"/>
+      <c r="AJ9" s="100"/>
+      <c r="AK9" s="101"/>
+    </row>
+    <row r="10" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38">
         <v>2006</v>
       </c>
@@ -4596,38 +4740,40 @@
       <c r="C10" s="84"/>
       <c r="D10" s="85"/>
       <c r="E10" s="86"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="86"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
       <c r="K10" s="84"/>
       <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="117"/>
       <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="84"/>
       <c r="R10" s="85"/>
-      <c r="S10" s="86"/>
-      <c r="T10" s="84"/>
+      <c r="S10" s="85"/>
+      <c r="T10" s="85"/>
       <c r="U10" s="85"/>
       <c r="V10" s="86"/>
       <c r="W10" s="84"/>
       <c r="X10" s="85"/>
       <c r="Y10" s="86"/>
-      <c r="Z10" s="107"/>
-      <c r="AA10" s="107"/>
-      <c r="AB10" s="99"/>
-      <c r="AC10" s="101"/>
-      <c r="AD10" s="99"/>
-      <c r="AE10" s="100"/>
-      <c r="AF10" s="100"/>
+      <c r="Z10" s="84"/>
+      <c r="AA10" s="85"/>
+      <c r="AB10" s="86"/>
+      <c r="AC10" s="107"/>
+      <c r="AD10" s="107"/>
+      <c r="AE10" s="99"/>
+      <c r="AF10" s="99"/>
       <c r="AG10" s="100"/>
       <c r="AH10" s="100"/>
-      <c r="AI10" s="101"/>
-    </row>
-    <row r="11" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI10" s="100"/>
+      <c r="AJ10" s="100"/>
+      <c r="AK10" s="101"/>
+    </row>
+    <row r="11" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>2007</v>
       </c>
@@ -4635,44 +4781,46 @@
       <c r="C11" s="84"/>
       <c r="D11" s="85"/>
       <c r="E11" s="86"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="86"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
       <c r="K11" s="84"/>
       <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="117"/>
       <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="85"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="84"/>
       <c r="R11" s="85"/>
-      <c r="S11" s="86"/>
-      <c r="T11" s="84">
+      <c r="S11" s="85"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="84">
         <v>0.7</v>
       </c>
-      <c r="U11" s="85">
+      <c r="X11" s="85">
         <v>0.75</v>
       </c>
-      <c r="V11" s="86">
+      <c r="Y11" s="86">
         <v>0.8</v>
       </c>
-      <c r="W11" s="84"/>
-      <c r="X11" s="85"/>
-      <c r="Y11" s="86"/>
-      <c r="Z11" s="107"/>
-      <c r="AA11" s="107"/>
-      <c r="AB11" s="99"/>
-      <c r="AC11" s="101"/>
-      <c r="AD11" s="99"/>
-      <c r="AE11" s="100"/>
-      <c r="AF11" s="100"/>
+      <c r="Z11" s="84"/>
+      <c r="AA11" s="85"/>
+      <c r="AB11" s="86"/>
+      <c r="AC11" s="107"/>
+      <c r="AD11" s="107"/>
+      <c r="AE11" s="99"/>
+      <c r="AF11" s="99"/>
       <c r="AG11" s="100"/>
       <c r="AH11" s="100"/>
-      <c r="AI11" s="101"/>
-    </row>
-    <row r="12" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI11" s="100"/>
+      <c r="AJ11" s="100"/>
+      <c r="AK11" s="101"/>
+    </row>
+    <row r="12" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>2008</v>
       </c>
@@ -4680,38 +4828,40 @@
       <c r="C12" s="84"/>
       <c r="D12" s="85"/>
       <c r="E12" s="86"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="86"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
       <c r="K12" s="84"/>
       <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="117"/>
       <c r="O12" s="85"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="85"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="84"/>
       <c r="R12" s="85"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="84"/>
+      <c r="S12" s="85"/>
+      <c r="T12" s="85"/>
       <c r="U12" s="85"/>
       <c r="V12" s="86"/>
       <c r="W12" s="84"/>
       <c r="X12" s="85"/>
       <c r="Y12" s="86"/>
-      <c r="Z12" s="107"/>
-      <c r="AA12" s="107"/>
-      <c r="AB12" s="99"/>
-      <c r="AC12" s="101"/>
-      <c r="AD12" s="99"/>
-      <c r="AE12" s="100"/>
-      <c r="AF12" s="100"/>
+      <c r="Z12" s="84"/>
+      <c r="AA12" s="85"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="107"/>
+      <c r="AD12" s="107"/>
+      <c r="AE12" s="99"/>
+      <c r="AF12" s="99"/>
       <c r="AG12" s="100"/>
       <c r="AH12" s="100"/>
-      <c r="AI12" s="101"/>
-    </row>
-    <row r="13" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI12" s="100"/>
+      <c r="AJ12" s="100"/>
+      <c r="AK12" s="101"/>
+    </row>
+    <row r="13" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>2009</v>
       </c>
@@ -4719,40 +4869,42 @@
       <c r="C13" s="84"/>
       <c r="D13" s="85"/>
       <c r="E13" s="86"/>
-      <c r="F13" s="71">
+      <c r="F13" s="84"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="71">
         <v>0</v>
       </c>
-      <c r="G13" s="71"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="86"/>
+      <c r="J13" s="71"/>
       <c r="K13" s="84"/>
       <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="117"/>
       <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="85"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="84"/>
       <c r="R13" s="85"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="84"/>
+      <c r="S13" s="85"/>
+      <c r="T13" s="85"/>
       <c r="U13" s="85"/>
       <c r="V13" s="86"/>
       <c r="W13" s="84"/>
       <c r="X13" s="85"/>
       <c r="Y13" s="86"/>
-      <c r="Z13" s="107"/>
-      <c r="AA13" s="107"/>
-      <c r="AB13" s="99"/>
-      <c r="AC13" s="101"/>
-      <c r="AD13" s="99"/>
-      <c r="AE13" s="100"/>
-      <c r="AF13" s="100"/>
+      <c r="Z13" s="84"/>
+      <c r="AA13" s="85"/>
+      <c r="AB13" s="86"/>
+      <c r="AC13" s="107"/>
+      <c r="AD13" s="107"/>
+      <c r="AE13" s="99"/>
+      <c r="AF13" s="99"/>
       <c r="AG13" s="100"/>
       <c r="AH13" s="100"/>
-      <c r="AI13" s="101"/>
-    </row>
-    <row r="14" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI13" s="100"/>
+      <c r="AJ13" s="100"/>
+      <c r="AK13" s="101"/>
+    </row>
+    <row r="14" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>2010</v>
       </c>
@@ -4760,46 +4912,48 @@
       <c r="C14" s="84"/>
       <c r="D14" s="85"/>
       <c r="E14" s="86"/>
-      <c r="F14" s="71">
+      <c r="F14" s="84"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="71">
         <v>1500</v>
       </c>
-      <c r="G14" s="71"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="86"/>
+      <c r="J14" s="71"/>
       <c r="K14" s="84"/>
       <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="117"/>
       <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="85"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="84"/>
       <c r="R14" s="85"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="84">
+      <c r="S14" s="85"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="84">
         <v>0.7</v>
       </c>
-      <c r="U14" s="85">
+      <c r="X14" s="85">
         <v>0.75</v>
       </c>
-      <c r="V14" s="86">
+      <c r="Y14" s="86">
         <v>0.8</v>
       </c>
-      <c r="W14" s="84"/>
-      <c r="X14" s="85"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="107"/>
-      <c r="AA14" s="107"/>
-      <c r="AB14" s="99"/>
-      <c r="AC14" s="101"/>
-      <c r="AD14" s="99"/>
-      <c r="AE14" s="100"/>
-      <c r="AF14" s="100"/>
+      <c r="Z14" s="84"/>
+      <c r="AA14" s="85"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="107"/>
+      <c r="AD14" s="107"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="99"/>
       <c r="AG14" s="100"/>
       <c r="AH14" s="100"/>
-      <c r="AI14" s="101"/>
-    </row>
-    <row r="15" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI14" s="100"/>
+      <c r="AJ14" s="100"/>
+      <c r="AK14" s="101"/>
+    </row>
+    <row r="15" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>2011</v>
       </c>
@@ -4807,38 +4961,40 @@
       <c r="C15" s="84"/>
       <c r="D15" s="85"/>
       <c r="E15" s="86"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="86"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
       <c r="K15" s="84"/>
       <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
+      <c r="M15" s="112"/>
+      <c r="N15" s="117"/>
       <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="85"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="84"/>
       <c r="R15" s="85"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="84"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="85"/>
       <c r="U15" s="85"/>
       <c r="V15" s="86"/>
       <c r="W15" s="84"/>
       <c r="X15" s="85"/>
       <c r="Y15" s="86"/>
-      <c r="Z15" s="107"/>
-      <c r="AA15" s="107"/>
-      <c r="AB15" s="99"/>
-      <c r="AC15" s="101"/>
-      <c r="AD15" s="99"/>
-      <c r="AE15" s="100"/>
-      <c r="AF15" s="100"/>
+      <c r="Z15" s="84"/>
+      <c r="AA15" s="85"/>
+      <c r="AB15" s="86"/>
+      <c r="AC15" s="107"/>
+      <c r="AD15" s="107"/>
+      <c r="AE15" s="99"/>
+      <c r="AF15" s="99"/>
       <c r="AG15" s="100"/>
       <c r="AH15" s="100"/>
-      <c r="AI15" s="101"/>
-    </row>
-    <row r="16" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI15" s="100"/>
+      <c r="AJ15" s="100"/>
+      <c r="AK15" s="101"/>
+    </row>
+    <row r="16" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
         <v>2012</v>
       </c>
@@ -4846,44 +5002,46 @@
       <c r="C16" s="84"/>
       <c r="D16" s="85"/>
       <c r="E16" s="86"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="86"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
       <c r="K16" s="84"/>
       <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="117"/>
       <c r="O16" s="85"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="85"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="84"/>
       <c r="R16" s="85"/>
-      <c r="S16" s="86"/>
-      <c r="T16" s="84">
+      <c r="S16" s="85"/>
+      <c r="T16" s="85"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="86"/>
+      <c r="W16" s="84">
         <v>0.91200000000000003</v>
       </c>
-      <c r="U16" s="85">
+      <c r="X16" s="85">
         <v>0.82</v>
       </c>
-      <c r="V16" s="86">
+      <c r="Y16" s="86">
         <v>0.88</v>
       </c>
-      <c r="W16" s="84"/>
-      <c r="X16" s="85"/>
-      <c r="Y16" s="86"/>
-      <c r="Z16" s="107"/>
-      <c r="AA16" s="107"/>
-      <c r="AB16" s="99"/>
-      <c r="AC16" s="101"/>
-      <c r="AD16" s="99"/>
-      <c r="AE16" s="100"/>
-      <c r="AF16" s="100"/>
+      <c r="Z16" s="84"/>
+      <c r="AA16" s="85"/>
+      <c r="AB16" s="86"/>
+      <c r="AC16" s="107"/>
+      <c r="AD16" s="107"/>
+      <c r="AE16" s="99"/>
+      <c r="AF16" s="99"/>
       <c r="AG16" s="100"/>
       <c r="AH16" s="100"/>
-      <c r="AI16" s="101"/>
-    </row>
-    <row r="17" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI16" s="100"/>
+      <c r="AJ16" s="100"/>
+      <c r="AK16" s="101"/>
+    </row>
+    <row r="17" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <v>2013</v>
       </c>
@@ -4891,44 +5049,46 @@
       <c r="C17" s="84"/>
       <c r="D17" s="85"/>
       <c r="E17" s="86"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="86"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
       <c r="K17" s="84"/>
       <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="117"/>
       <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="84"/>
       <c r="R17" s="85"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="84">
+      <c r="S17" s="85"/>
+      <c r="T17" s="85"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="86"/>
+      <c r="W17" s="84">
         <v>0.91200000000000003</v>
       </c>
-      <c r="U17" s="85">
+      <c r="X17" s="85">
         <v>0.86</v>
       </c>
-      <c r="V17" s="86">
+      <c r="Y17" s="86">
         <v>0.9</v>
       </c>
-      <c r="W17" s="84"/>
-      <c r="X17" s="85"/>
-      <c r="Y17" s="86"/>
-      <c r="Z17" s="107"/>
-      <c r="AA17" s="107"/>
-      <c r="AB17" s="99"/>
-      <c r="AC17" s="101"/>
-      <c r="AD17" s="99"/>
-      <c r="AE17" s="100"/>
-      <c r="AF17" s="100"/>
+      <c r="Z17" s="84"/>
+      <c r="AA17" s="85"/>
+      <c r="AB17" s="86"/>
+      <c r="AC17" s="107"/>
+      <c r="AD17" s="107"/>
+      <c r="AE17" s="99"/>
+      <c r="AF17" s="99"/>
       <c r="AG17" s="100"/>
       <c r="AH17" s="100"/>
-      <c r="AI17" s="101"/>
-    </row>
-    <row r="18" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI17" s="100"/>
+      <c r="AJ17" s="100"/>
+      <c r="AK17" s="101"/>
+    </row>
+    <row r="18" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38">
         <v>2014</v>
       </c>
@@ -4936,44 +5096,46 @@
       <c r="C18" s="84"/>
       <c r="D18" s="85"/>
       <c r="E18" s="86"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="86"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
       <c r="K18" s="84"/>
       <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
+      <c r="M18" s="112"/>
+      <c r="N18" s="117"/>
       <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="84"/>
       <c r="R18" s="85"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="84">
+      <c r="S18" s="85"/>
+      <c r="T18" s="85"/>
+      <c r="U18" s="85"/>
+      <c r="V18" s="86"/>
+      <c r="W18" s="84">
         <v>0.91200000000000003</v>
       </c>
-      <c r="U18" s="85">
+      <c r="X18" s="85">
         <v>0.89</v>
       </c>
-      <c r="V18" s="86">
+      <c r="Y18" s="86">
         <v>0.9</v>
       </c>
-      <c r="W18" s="84"/>
-      <c r="X18" s="85"/>
-      <c r="Y18" s="86"/>
-      <c r="Z18" s="107"/>
-      <c r="AA18" s="107"/>
-      <c r="AB18" s="99"/>
-      <c r="AC18" s="101"/>
-      <c r="AD18" s="99"/>
-      <c r="AE18" s="100"/>
-      <c r="AF18" s="100"/>
+      <c r="Z18" s="84"/>
+      <c r="AA18" s="85"/>
+      <c r="AB18" s="86"/>
+      <c r="AC18" s="107"/>
+      <c r="AD18" s="107"/>
+      <c r="AE18" s="99"/>
+      <c r="AF18" s="99"/>
       <c r="AG18" s="100"/>
       <c r="AH18" s="100"/>
-      <c r="AI18" s="101"/>
-    </row>
-    <row r="19" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI18" s="100"/>
+      <c r="AJ18" s="100"/>
+      <c r="AK18" s="101"/>
+    </row>
+    <row r="19" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <v>2015</v>
       </c>
@@ -4981,44 +5143,46 @@
       <c r="C19" s="84"/>
       <c r="D19" s="85"/>
       <c r="E19" s="86"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="86"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
       <c r="K19" s="84"/>
       <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="85"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="117"/>
       <c r="O19" s="85"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="85"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="84"/>
       <c r="R19" s="85"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="84">
+      <c r="S19" s="85"/>
+      <c r="T19" s="85"/>
+      <c r="U19" s="85"/>
+      <c r="V19" s="86"/>
+      <c r="W19" s="84">
         <v>0.91200000000000003</v>
       </c>
-      <c r="U19" s="85">
+      <c r="X19" s="85">
         <v>0.92</v>
       </c>
-      <c r="V19" s="86">
+      <c r="Y19" s="86">
         <v>0.92</v>
       </c>
-      <c r="W19" s="84"/>
-      <c r="X19" s="85"/>
-      <c r="Y19" s="86"/>
-      <c r="Z19" s="107"/>
-      <c r="AA19" s="107"/>
-      <c r="AB19" s="99"/>
-      <c r="AC19" s="101"/>
-      <c r="AD19" s="99"/>
-      <c r="AE19" s="100"/>
-      <c r="AF19" s="100"/>
+      <c r="Z19" s="84"/>
+      <c r="AA19" s="85"/>
+      <c r="AB19" s="86"/>
+      <c r="AC19" s="107"/>
+      <c r="AD19" s="107"/>
+      <c r="AE19" s="99"/>
+      <c r="AF19" s="99"/>
       <c r="AG19" s="100"/>
       <c r="AH19" s="100"/>
-      <c r="AI19" s="101"/>
-    </row>
-    <row r="20" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI19" s="100"/>
+      <c r="AJ19" s="100"/>
+      <c r="AK19" s="101"/>
+    </row>
+    <row r="20" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>2016</v>
       </c>
@@ -5026,46 +5190,48 @@
       <c r="C20" s="84"/>
       <c r="D20" s="85"/>
       <c r="E20" s="86"/>
-      <c r="F20" s="71">
+      <c r="F20" s="84"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="71">
         <v>4000</v>
       </c>
-      <c r="G20" s="71"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="86"/>
+      <c r="J20" s="71"/>
       <c r="K20" s="84"/>
       <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="85"/>
+      <c r="M20" s="112"/>
+      <c r="N20" s="117"/>
       <c r="O20" s="85"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="85"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="84"/>
       <c r="R20" s="85"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="84">
+      <c r="S20" s="85"/>
+      <c r="T20" s="85"/>
+      <c r="U20" s="85"/>
+      <c r="V20" s="86"/>
+      <c r="W20" s="84">
         <v>0.91200000000000003</v>
       </c>
-      <c r="U20" s="85">
+      <c r="X20" s="85">
         <v>0.95</v>
       </c>
-      <c r="V20" s="86">
+      <c r="Y20" s="86">
         <v>0.94</v>
       </c>
-      <c r="W20" s="84"/>
-      <c r="X20" s="85"/>
-      <c r="Y20" s="86"/>
-      <c r="Z20" s="107"/>
-      <c r="AA20" s="107"/>
-      <c r="AB20" s="99"/>
-      <c r="AC20" s="101"/>
-      <c r="AD20" s="99"/>
-      <c r="AE20" s="100"/>
-      <c r="AF20" s="100"/>
+      <c r="Z20" s="84"/>
+      <c r="AA20" s="85"/>
+      <c r="AB20" s="86"/>
+      <c r="AC20" s="107"/>
+      <c r="AD20" s="107"/>
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="99"/>
       <c r="AG20" s="100"/>
       <c r="AH20" s="100"/>
-      <c r="AI20" s="101"/>
-    </row>
-    <row r="21" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI20" s="100"/>
+      <c r="AJ20" s="100"/>
+      <c r="AK20" s="101"/>
+    </row>
+    <row r="21" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <v>2017</v>
       </c>
@@ -5073,38 +5239,40 @@
       <c r="C21" s="84"/>
       <c r="D21" s="85"/>
       <c r="E21" s="86"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="86"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
       <c r="K21" s="84"/>
       <c r="L21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="85"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="117"/>
       <c r="O21" s="85"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="85"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="84"/>
       <c r="R21" s="85"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="84"/>
+      <c r="S21" s="85"/>
+      <c r="T21" s="85"/>
       <c r="U21" s="85"/>
       <c r="V21" s="86"/>
       <c r="W21" s="84"/>
       <c r="X21" s="85"/>
       <c r="Y21" s="86"/>
-      <c r="Z21" s="107"/>
-      <c r="AA21" s="107"/>
-      <c r="AB21" s="99"/>
-      <c r="AC21" s="101"/>
-      <c r="AD21" s="99"/>
-      <c r="AE21" s="100"/>
-      <c r="AF21" s="100"/>
+      <c r="Z21" s="84"/>
+      <c r="AA21" s="85"/>
+      <c r="AB21" s="86"/>
+      <c r="AC21" s="107"/>
+      <c r="AD21" s="107"/>
+      <c r="AE21" s="99"/>
+      <c r="AF21" s="99"/>
       <c r="AG21" s="100"/>
       <c r="AH21" s="100"/>
-      <c r="AI21" s="101"/>
-    </row>
-    <row r="22" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI21" s="100"/>
+      <c r="AJ21" s="100"/>
+      <c r="AK21" s="101"/>
+    </row>
+    <row r="22" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>2018</v>
       </c>
@@ -5112,38 +5280,40 @@
       <c r="C22" s="84"/>
       <c r="D22" s="85"/>
       <c r="E22" s="86"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="86"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
       <c r="K22" s="84"/>
       <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="117"/>
       <c r="O22" s="85"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="85"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="84"/>
       <c r="R22" s="85"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="84"/>
+      <c r="S22" s="85"/>
+      <c r="T22" s="85"/>
       <c r="U22" s="85"/>
       <c r="V22" s="86"/>
       <c r="W22" s="84"/>
       <c r="X22" s="85"/>
       <c r="Y22" s="86"/>
-      <c r="Z22" s="107"/>
-      <c r="AA22" s="107"/>
-      <c r="AB22" s="99"/>
-      <c r="AC22" s="101"/>
-      <c r="AD22" s="99"/>
-      <c r="AE22" s="100"/>
-      <c r="AF22" s="100"/>
+      <c r="Z22" s="84"/>
+      <c r="AA22" s="85"/>
+      <c r="AB22" s="86"/>
+      <c r="AC22" s="107"/>
+      <c r="AD22" s="107"/>
+      <c r="AE22" s="99"/>
+      <c r="AF22" s="99"/>
       <c r="AG22" s="100"/>
       <c r="AH22" s="100"/>
-      <c r="AI22" s="101"/>
-    </row>
-    <row r="23" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI22" s="100"/>
+      <c r="AJ22" s="100"/>
+      <c r="AK22" s="101"/>
+    </row>
+    <row r="23" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="38">
         <v>2019</v>
       </c>
@@ -5151,38 +5321,40 @@
       <c r="C23" s="84"/>
       <c r="D23" s="85"/>
       <c r="E23" s="86"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="86"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
       <c r="K23" s="84"/>
       <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="85"/>
+      <c r="M23" s="112"/>
+      <c r="N23" s="117"/>
       <c r="O23" s="85"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="85"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="84"/>
       <c r="R23" s="85"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="84"/>
+      <c r="S23" s="85"/>
+      <c r="T23" s="85"/>
       <c r="U23" s="85"/>
       <c r="V23" s="86"/>
       <c r="W23" s="84"/>
       <c r="X23" s="85"/>
       <c r="Y23" s="86"/>
-      <c r="Z23" s="107"/>
-      <c r="AA23" s="107"/>
-      <c r="AB23" s="99"/>
-      <c r="AC23" s="101"/>
-      <c r="AD23" s="99"/>
-      <c r="AE23" s="100"/>
-      <c r="AF23" s="100"/>
+      <c r="Z23" s="84"/>
+      <c r="AA23" s="85"/>
+      <c r="AB23" s="86"/>
+      <c r="AC23" s="107"/>
+      <c r="AD23" s="107"/>
+      <c r="AE23" s="99"/>
+      <c r="AF23" s="99"/>
       <c r="AG23" s="100"/>
       <c r="AH23" s="100"/>
-      <c r="AI23" s="101"/>
-    </row>
-    <row r="24" spans="1:35" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI23" s="100"/>
+      <c r="AJ23" s="100"/>
+      <c r="AK23" s="101"/>
+    </row>
+    <row r="24" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="72">
         <v>2020</v>
       </c>
@@ -5190,96 +5362,98 @@
       <c r="C24" s="87"/>
       <c r="D24" s="88"/>
       <c r="E24" s="89"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="89"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
       <c r="K24" s="87"/>
       <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
+      <c r="M24" s="113"/>
+      <c r="N24" s="118"/>
       <c r="O24" s="88"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="88"/>
+      <c r="P24" s="89"/>
+      <c r="Q24" s="87"/>
       <c r="R24" s="88"/>
-      <c r="S24" s="89"/>
-      <c r="T24" s="87"/>
+      <c r="S24" s="88"/>
+      <c r="T24" s="88"/>
       <c r="U24" s="88"/>
       <c r="V24" s="89"/>
       <c r="W24" s="87"/>
       <c r="X24" s="88"/>
       <c r="Y24" s="89"/>
-      <c r="Z24" s="108"/>
-      <c r="AA24" s="108"/>
-      <c r="AB24" s="102"/>
-      <c r="AC24" s="104"/>
-      <c r="AD24" s="102"/>
-      <c r="AE24" s="103"/>
-      <c r="AF24" s="103"/>
+      <c r="Z24" s="87"/>
+      <c r="AA24" s="88"/>
+      <c r="AB24" s="89"/>
+      <c r="AC24" s="108"/>
+      <c r="AD24" s="108"/>
+      <c r="AE24" s="102"/>
+      <c r="AF24" s="102"/>
       <c r="AG24" s="103"/>
       <c r="AH24" s="103"/>
-      <c r="AI24" s="104"/>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI24" s="103"/>
+      <c r="AJ24" s="103"/>
+      <c r="AK24" s="104"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="38">
         <v>2021</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="38">
         <v>2022</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <v>2023</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
         <v>2024</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="72">
         <v>2025</v>
       </c>
-      <c r="U29" s="69">
+      <c r="X29" s="69">
         <v>0.95</v>
       </c>
-      <c r="V29" s="69">
+      <c r="Y29" s="69">
         <v>0.95</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="38">
         <v>2026</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="38">
         <v>2027</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="38">
         <v>2028</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="38">
         <v>2029</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="72">
         <v>2030</v>
       </c>
-      <c r="U34" s="69">
+      <c r="X34" s="69">
         <v>0.99</v>
       </c>
-      <c r="V34" s="69">
+      <c r="Y34" s="69">
         <v>0.99</v>
       </c>
     </row>
@@ -5307,21 +5481,21 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="38"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="38"/>
     </row>
@@ -5461,27 +5635,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="69" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="15" style="69" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="69" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="69" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="52"/>
+    <col min="3" max="3" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15" style="69" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="69" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="69" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="75" t="s">
         <v>75</v>
@@ -5498,22 +5671,13 @@
       <c r="F1" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="77" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="78" t="s">
         <v>76</v>
@@ -5522,60 +5686,42 @@
         <v>76</v>
       </c>
       <c r="D2" s="79" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" s="79" t="s">
         <v>77</v>
       </c>
       <c r="F2" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="79" t="s">
+      <c r="G2" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="80" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="78" t="s">
         <v>79</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="F3" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="79" t="s">
+      <c r="G3" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="J3" s="80" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37">
         <v>2000</v>
       </c>
@@ -5584,12 +5730,9 @@
       <c r="D4" s="82"/>
       <c r="E4" s="82"/>
       <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="83"/>
-    </row>
-    <row r="5" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="83"/>
+    </row>
+    <row r="5" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38">
         <v>2001</v>
       </c>
@@ -5598,12 +5741,9 @@
       <c r="D5" s="85"/>
       <c r="E5" s="85"/>
       <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="86"/>
-    </row>
-    <row r="6" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="86"/>
+    </row>
+    <row r="6" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38">
         <v>2002</v>
       </c>
@@ -5612,12 +5752,9 @@
       <c r="D6" s="85"/>
       <c r="E6" s="85"/>
       <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="86"/>
-    </row>
-    <row r="7" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="86"/>
+    </row>
+    <row r="7" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38">
         <v>2003</v>
       </c>
@@ -5626,12 +5763,9 @@
       <c r="D7" s="85"/>
       <c r="E7" s="85"/>
       <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="86"/>
-    </row>
-    <row r="8" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="86"/>
+    </row>
+    <row r="8" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38">
         <v>2004</v>
       </c>
@@ -5640,12 +5774,9 @@
       <c r="D8" s="85"/>
       <c r="E8" s="85"/>
       <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="86"/>
-    </row>
-    <row r="9" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="86"/>
+    </row>
+    <row r="9" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38">
         <v>2005</v>
       </c>
@@ -5654,12 +5785,9 @@
       <c r="D9" s="85"/>
       <c r="E9" s="85"/>
       <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="86"/>
-    </row>
-    <row r="10" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="86"/>
+    </row>
+    <row r="10" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38">
         <v>2006</v>
       </c>
@@ -5668,12 +5796,9 @@
       <c r="D10" s="85"/>
       <c r="E10" s="85"/>
       <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="86"/>
-    </row>
-    <row r="11" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="86"/>
+    </row>
+    <row r="11" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>2007</v>
       </c>
@@ -5682,12 +5807,9 @@
       <c r="D11" s="85"/>
       <c r="E11" s="85"/>
       <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="86"/>
-    </row>
-    <row r="12" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="86"/>
+    </row>
+    <row r="12" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>2008</v>
       </c>
@@ -5696,12 +5818,9 @@
       <c r="D12" s="85"/>
       <c r="E12" s="85"/>
       <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="86"/>
-    </row>
-    <row r="13" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="86"/>
+    </row>
+    <row r="13" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>2009</v>
       </c>
@@ -5710,12 +5829,9 @@
       <c r="D13" s="85"/>
       <c r="E13" s="85"/>
       <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="86"/>
-    </row>
-    <row r="14" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="86"/>
+    </row>
+    <row r="14" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>2010</v>
       </c>
@@ -5724,12 +5840,9 @@
       <c r="D14" s="85"/>
       <c r="E14" s="85"/>
       <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="86"/>
-    </row>
-    <row r="15" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="86"/>
+    </row>
+    <row r="15" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>2011</v>
       </c>
@@ -5738,12 +5851,9 @@
       <c r="D15" s="85"/>
       <c r="E15" s="85"/>
       <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="86"/>
-    </row>
-    <row r="16" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="86"/>
+    </row>
+    <row r="16" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
         <v>2012</v>
       </c>
@@ -5752,12 +5862,9 @@
       <c r="D16" s="85"/>
       <c r="E16" s="85"/>
       <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="86"/>
-    </row>
-    <row r="17" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="86"/>
+    </row>
+    <row r="17" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <v>2013</v>
       </c>
@@ -5766,12 +5873,9 @@
       <c r="D17" s="85"/>
       <c r="E17" s="85"/>
       <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="86"/>
-    </row>
-    <row r="18" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="86"/>
+    </row>
+    <row r="18" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38">
         <v>2014</v>
       </c>
@@ -5780,12 +5884,9 @@
       <c r="D18" s="85"/>
       <c r="E18" s="85"/>
       <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="86"/>
-    </row>
-    <row r="19" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="86"/>
+    </row>
+    <row r="19" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <v>2015</v>
       </c>
@@ -5793,31 +5894,22 @@
         <v>0.5</v>
       </c>
       <c r="C19" s="85">
+        <v>5</v>
+      </c>
+      <c r="D19" s="85">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="85">
         <v>2</v>
       </c>
-      <c r="D19" s="85">
-        <v>5</v>
-      </c>
-      <c r="E19" s="85">
-        <v>0.25</v>
-      </c>
       <c r="F19" s="85">
-        <v>2</v>
-      </c>
-      <c r="G19" s="85">
-        <v>2</v>
-      </c>
-      <c r="H19" s="85">
         <v>0.125</v>
       </c>
-      <c r="I19" s="85">
+      <c r="G19" s="86">
         <v>0.125</v>
       </c>
-      <c r="J19" s="86">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>2016</v>
       </c>
@@ -5826,12 +5918,9 @@
       <c r="D20" s="85"/>
       <c r="E20" s="85"/>
       <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="86"/>
-    </row>
-    <row r="21" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="86"/>
+    </row>
+    <row r="21" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <v>2017</v>
       </c>
@@ -5840,12 +5929,9 @@
       <c r="D21" s="85"/>
       <c r="E21" s="85"/>
       <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="86"/>
-    </row>
-    <row r="22" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="86"/>
+    </row>
+    <row r="22" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>2018</v>
       </c>
@@ -5854,12 +5940,9 @@
       <c r="D22" s="85"/>
       <c r="E22" s="85"/>
       <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="86"/>
-    </row>
-    <row r="23" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="86"/>
+    </row>
+    <row r="23" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="38">
         <v>2019</v>
       </c>
@@ -5868,12 +5951,9 @@
       <c r="D23" s="85"/>
       <c r="E23" s="85"/>
       <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="86"/>
-    </row>
-    <row r="24" spans="1:10" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="86"/>
+    </row>
+    <row r="24" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="72">
         <v>2020</v>
       </c>
@@ -5882,10 +5962,7 @@
       <c r="D24" s="88"/>
       <c r="E24" s="88"/>
       <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="89"/>
+      <c r="G24" s="89"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -216,7 +216,7 @@
     <author>Michael Traeger</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -264,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1" shapeId="0">
+    <comment ref="K1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -291,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -317,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -341,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -365,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -389,7 +389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -417,7 +417,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -442,7 +442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -468,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -497,7 +497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -523,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -547,7 +547,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -595,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -619,7 +619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0" shapeId="0">
+    <comment ref="H8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -643,7 +643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="1" shapeId="0">
+    <comment ref="H11" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -671,7 +671,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U11" authorId="1" shapeId="0">
+    <comment ref="AB11" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -719,7 +719,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0">
+    <comment ref="P12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1399,7 +1399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="111">
   <si>
     <t>Waiting list</t>
   </si>
@@ -1467,18 +1467,9 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Total PLHIV</t>
-  </si>
-  <si>
-    <t>New diagnoses</t>
-  </si>
-  <si>
     <t>eff_condom</t>
   </si>
   <si>
-    <t>Total MSM</t>
-  </si>
-  <si>
     <t>prop_prep_base</t>
   </si>
   <si>
@@ -1587,15 +1578,6 @@
     <t>Total Gon cases HIV+</t>
   </si>
   <si>
-    <t>Prop HIV diagnosed</t>
-  </si>
-  <si>
-    <t>Prop HIV on treatment</t>
-  </si>
-  <si>
-    <t>Prop HIV virally suppressed</t>
-  </si>
-  <si>
     <t>Gon prev: HIV- all</t>
   </si>
   <si>
@@ -1714,6 +1696,42 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>PLHIV_int</t>
+  </si>
+  <si>
+    <t>PLHIV_tot</t>
+  </si>
+  <si>
+    <t>HIV_diag_tot</t>
+  </si>
+  <si>
+    <t>HIV_diag_aus</t>
+  </si>
+  <si>
+    <t>HIV_diag_int</t>
+  </si>
+  <si>
+    <t>PLHIV_aus</t>
+  </si>
+  <si>
+    <t>pop_tot</t>
+  </si>
+  <si>
+    <t>pop_aus</t>
+  </si>
+  <si>
+    <t>pop_int</t>
+  </si>
+  <si>
+    <t>prop_HIV_diagnosed</t>
+  </si>
+  <si>
+    <t>prop_HIV_treated</t>
+  </si>
+  <si>
+    <t>prop_HIV_virally_suppressed</t>
   </si>
 </sst>
 </file>
@@ -2207,7 +2225,7 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2383,6 +2401,15 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Bad" xfId="15" builtinId="27" customBuiltin="1"/>
@@ -2747,10 +2774,10 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2771,12 +2798,12 @@
       </c>
       <c r="L2" s="59"/>
       <c r="M2" s="52" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>13</v>
@@ -2794,7 +2821,7 @@
       </c>
       <c r="L3" s="61"/>
       <c r="M3" s="52" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2818,7 +2845,7 @@
       </c>
       <c r="L4" s="57"/>
       <c r="M4" s="52" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2842,7 +2869,7 @@
       </c>
       <c r="L5" s="27"/>
       <c r="M5" s="52" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2873,7 +2900,7 @@
       </c>
       <c r="L6" s="67"/>
       <c r="M6" s="52" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2898,11 +2925,11 @@
         <v>6</v>
       </c>
       <c r="I7" s="46">
-        <f>((data!G12/data!G2) ^ (C2/((data!A12-data!A2))) - 1)</f>
+        <f>((data!K12/data!K2) ^ (C2/((data!A12-data!A2))) - 1)</f>
         <v>4.0741237836483535E-3</v>
       </c>
       <c r="J7" s="52">
-        <f>(data!G7-data!G2)/(data!A7-data!A2)/data!G2*C2</f>
+        <f>(data!K7-data!K2)/(data!A7-data!A2)/data!K2*C2</f>
         <v>4.6046927083333387E-3</v>
       </c>
     </row>
@@ -2927,10 +2954,10 @@
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C9" s="28">
         <v>0.4</v>
@@ -2946,10 +2973,10 @@
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C10" s="28">
         <v>0.4</v>
@@ -2965,10 +2992,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="66">
         <v>0</v>
@@ -2978,10 +3005,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12" s="62">
         <f>6.2</f>
@@ -2998,10 +3025,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13" s="28">
         <v>7</v>
@@ -3017,10 +3044,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" s="54">
         <v>0.1</v>
@@ -3036,10 +3063,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15" s="54">
         <v>0.17</v>
@@ -3055,10 +3082,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16" s="63">
         <v>0.38800000000000001</v>
@@ -3074,10 +3101,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C17" s="64">
         <v>0.45</v>
@@ -3093,10 +3120,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C18" s="31">
         <v>1</v>
@@ -3112,10 +3139,10 @@
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C19" s="60">
         <f>1-C17</f>
@@ -3132,10 +3159,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C20" s="58">
         <v>0.5</v>
@@ -3151,10 +3178,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C21" s="53">
         <v>2007</v>
@@ -3162,10 +3189,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C22" s="53">
         <v>42714</v>
@@ -3183,904 +3210,1092 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:AC24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H13" sqref="H13"/>
+      <selection pane="topRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11" style="52" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="10.28515625" style="52" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" customWidth="1"/>
     <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="62.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="62.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>22</v>
+      <c r="B1" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" s="119"/>
+      <c r="O1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="U1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="R1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="U1" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="V1" s="15"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AB1" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" s="15"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>2007</v>
       </c>
       <c r="B2" s="11"/>
-      <c r="C2" s="35">
-        <f>G2*7.2/100</f>
+      <c r="C2" s="11"/>
+      <c r="E2" s="35">
+        <f>K2*7.2/100</f>
         <v>3075.4079999999999</v>
       </c>
-      <c r="D2" s="12">
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="12">
         <v>0.7</v>
       </c>
-      <c r="E2" s="12">
+      <c r="I2" s="12">
         <v>0.75</v>
       </c>
-      <c r="F2" s="12">
+      <c r="J2" s="12">
         <v>0.8</v>
       </c>
-      <c r="G2" s="33">
+      <c r="K2" s="33">
         <f>42714</f>
         <v>42714</v>
       </c>
-      <c r="H2" s="48">
+      <c r="L2" s="35">
+        <f>K2-M2</f>
+        <v>41714</v>
+      </c>
+      <c r="M2" s="33">
+        <v>1000</v>
+      </c>
+      <c r="N2" s="120"/>
+      <c r="O2" s="48">
         <v>2.32876712328767E-2</v>
       </c>
-      <c r="I2" s="48">
+      <c r="P2" s="48">
         <v>3.4931506849315071E-2</v>
       </c>
-      <c r="J2" s="35">
-        <f>G2-K2</f>
+      <c r="Q2" s="35">
+        <f>K2-R2</f>
         <v>39638.591999999997</v>
       </c>
-      <c r="K2" s="35">
-        <f>C2</f>
+      <c r="R2" s="35">
+        <f>E2</f>
         <v>3075.4079999999999</v>
       </c>
-      <c r="L2" s="40">
-        <f>ROUND(H2*J2,0)</f>
+      <c r="S2" s="40">
+        <f>ROUND(O2*Q2,0)</f>
         <v>923</v>
       </c>
-      <c r="M2" s="40">
-        <f t="shared" ref="M2" si="0">ROUND(I2*K2,0)</f>
+      <c r="T2" s="40">
+        <f t="shared" ref="T2" si="0">ROUND(P2*R2,0)</f>
         <v>107</v>
       </c>
-      <c r="N2" s="12">
+      <c r="U2" s="12">
         <v>1007</v>
       </c>
-      <c r="O2" s="44">
+      <c r="V2" s="44">
         <v>0.81</v>
       </c>
-      <c r="P2" s="44">
+      <c r="W2" s="44">
         <v>0.82</v>
       </c>
-      <c r="Q2" s="45">
-        <f>N2*O2*P2</f>
+      <c r="X2" s="45">
+        <f>U2*V2*W2</f>
         <v>668.84940000000006</v>
       </c>
-      <c r="R2" s="41">
+      <c r="Y2" s="41">
         <v>0.17</v>
       </c>
-      <c r="S2" s="43">
-        <f>Q2-T2</f>
+      <c r="Z2" s="43">
+        <f>X2-AA2</f>
         <v>555.14500200000009</v>
       </c>
-      <c r="T2" s="43">
-        <f>Q2*R2</f>
+      <c r="AA2" s="43">
+        <f>X2*Y2</f>
         <v>113.70439800000001</v>
       </c>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2008</v>
       </c>
       <c r="B3" s="13"/>
-      <c r="C3" s="35">
-        <f t="shared" ref="C3:C12" si="1">G3*7.2/100</f>
+      <c r="C3" s="11"/>
+      <c r="E3" s="35">
+        <f t="shared" ref="E3:E12" si="1">K3*7.2/100</f>
         <v>3229.1784000000002</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="35">
-        <f>1.05*G2</f>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="35">
+        <f>1.05*K2</f>
         <v>44849.700000000004</v>
       </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="35">
-        <f>G3-K3</f>
+      <c r="L3" s="35">
+        <f t="shared" ref="L3:L13" si="2">K3-M3</f>
+        <v>43599.700000000004</v>
+      </c>
+      <c r="M3" s="35">
+        <f>M2*1.25</f>
+        <v>1250</v>
+      </c>
+      <c r="N3" s="121"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="35">
+        <f>K3-R3</f>
         <v>41620.521600000007</v>
       </c>
-      <c r="K3" s="35">
-        <f>C3</f>
+      <c r="R3" s="35">
+        <f>E3</f>
         <v>3229.1784000000002</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="12">
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="12">
         <v>922</v>
       </c>
-      <c r="O3" s="44">
+      <c r="V3" s="44">
         <v>0.81</v>
       </c>
-      <c r="P3" s="44">
+      <c r="W3" s="44">
         <v>0.82</v>
       </c>
-      <c r="Q3" s="45">
-        <f t="shared" ref="Q3:Q12" si="2">N3*O3*P3</f>
+      <c r="X3" s="45">
+        <f t="shared" ref="X3:X12" si="3">U3*V3*W3</f>
         <v>612.39239999999995</v>
       </c>
-      <c r="R3" s="41">
+      <c r="Y3" s="41">
         <v>0.17</v>
       </c>
-      <c r="S3" s="43">
-        <f t="shared" ref="S3:S12" si="3">Q3-T3</f>
+      <c r="Z3" s="43">
+        <f t="shared" ref="Z3:Z12" si="4">X3-AA3</f>
         <v>508.28569199999993</v>
       </c>
-      <c r="T3" s="43">
-        <f t="shared" ref="T3:T12" si="4">Q3*R3</f>
+      <c r="AA3" s="43">
+        <f t="shared" ref="AA3:AA12" si="5">X3*Y3</f>
         <v>104.106708</v>
       </c>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2009</v>
       </c>
       <c r="B4" s="13"/>
-      <c r="C4" s="35">
+      <c r="C4" s="11"/>
+      <c r="E4" s="35">
         <f t="shared" si="1"/>
         <v>3390.6373200000003</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="35">
-        <f t="shared" ref="G4:G11" si="5">1.05*G3</f>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="35">
+        <f t="shared" ref="K4:K11" si="6">1.05*K3</f>
         <v>47092.185000000005</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="35">
-        <f>G4-K4</f>
+      <c r="L4" s="35">
+        <f t="shared" si="2"/>
+        <v>45529.685000000005</v>
+      </c>
+      <c r="M4" s="35">
+        <f t="shared" ref="M4:M12" si="7">M3*1.25</f>
+        <v>1562.5</v>
+      </c>
+      <c r="N4" s="121"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="35">
+        <f>K4-R4</f>
         <v>43701.547680000003</v>
       </c>
-      <c r="K4" s="35">
-        <f>C4</f>
+      <c r="R4" s="35">
+        <f>E4</f>
         <v>3390.6373200000003</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="12">
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="12">
         <v>1480</v>
       </c>
-      <c r="O4" s="44">
+      <c r="V4" s="44">
         <v>0.81</v>
       </c>
-      <c r="P4" s="44">
+      <c r="W4" s="44">
         <v>0.82</v>
       </c>
-      <c r="Q4" s="45">
-        <f t="shared" si="2"/>
+      <c r="X4" s="45">
+        <f t="shared" si="3"/>
         <v>983.01600000000008</v>
       </c>
-      <c r="R4" s="41">
+      <c r="Y4" s="41">
         <v>0.17</v>
       </c>
-      <c r="S4" s="43">
-        <f t="shared" si="3"/>
+      <c r="Z4" s="43">
+        <f t="shared" si="4"/>
         <v>815.90328</v>
       </c>
-      <c r="T4" s="43">
-        <f t="shared" si="4"/>
+      <c r="AA4" s="43">
+        <f t="shared" si="5"/>
         <v>167.11272000000002</v>
       </c>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2010</v>
       </c>
       <c r="B5" s="12">
         <v>178</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="11"/>
+      <c r="E5" s="35">
         <f t="shared" si="1"/>
         <v>3560.1691860000005</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12">
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12">
         <v>0.75</v>
       </c>
-      <c r="F5" s="12">
+      <c r="J5" s="12">
         <v>0.8</v>
       </c>
-      <c r="G5" s="35">
+      <c r="K5" s="35">
+        <f t="shared" si="6"/>
+        <v>49446.794250000006</v>
+      </c>
+      <c r="L5" s="35">
+        <f t="shared" si="2"/>
+        <v>47493.669250000006</v>
+      </c>
+      <c r="M5" s="35">
+        <f t="shared" si="7"/>
+        <v>1953.125</v>
+      </c>
+      <c r="N5" s="121"/>
+      <c r="O5" s="48">
+        <v>4.0273972602739724E-2</v>
+      </c>
+      <c r="P5" s="48">
+        <v>4.3150684931506846E-2</v>
+      </c>
+      <c r="Q5" s="35">
+        <f>K5-R5</f>
+        <v>45886.625064000007</v>
+      </c>
+      <c r="R5" s="35">
+        <f>E5</f>
+        <v>3560.1691860000005</v>
+      </c>
+      <c r="S5" s="39">
+        <f t="shared" ref="S5:S11" si="8">ROUND(O5*Q5,0)</f>
+        <v>1848</v>
+      </c>
+      <c r="T5" s="39">
+        <f t="shared" ref="T5:T12" si="9">ROUND(P5*R5,0)</f>
+        <v>154</v>
+      </c>
+      <c r="U5" s="12">
+        <v>1758</v>
+      </c>
+      <c r="V5" s="44">
+        <v>0.81</v>
+      </c>
+      <c r="W5" s="44">
+        <v>0.82</v>
+      </c>
+      <c r="X5" s="45">
+        <f t="shared" si="3"/>
+        <v>1167.6635999999999</v>
+      </c>
+      <c r="Y5" s="41">
+        <v>0.17</v>
+      </c>
+      <c r="Z5" s="43">
+        <f t="shared" si="4"/>
+        <v>969.16078799999991</v>
+      </c>
+      <c r="AA5" s="43">
         <f t="shared" si="5"/>
-        <v>49446.794250000006</v>
-      </c>
-      <c r="H5" s="48">
-        <v>4.0273972602739724E-2</v>
-      </c>
-      <c r="I5" s="48">
-        <v>4.3150684931506846E-2</v>
-      </c>
-      <c r="J5" s="35">
-        <f>G5-K5</f>
-        <v>45886.625064000007</v>
-      </c>
-      <c r="K5" s="35">
-        <f>C5</f>
-        <v>3560.1691860000005</v>
-      </c>
-      <c r="L5" s="39">
-        <f t="shared" ref="L5:L11" si="6">ROUND(H5*J5,0)</f>
-        <v>1848</v>
-      </c>
-      <c r="M5" s="39">
-        <f t="shared" ref="M5:M12" si="7">ROUND(I5*K5,0)</f>
-        <v>154</v>
-      </c>
-      <c r="N5" s="12">
-        <v>1758</v>
-      </c>
-      <c r="O5" s="44">
-        <v>0.81</v>
-      </c>
-      <c r="P5" s="44">
-        <v>0.82</v>
-      </c>
-      <c r="Q5" s="45">
-        <f t="shared" si="2"/>
-        <v>1167.6635999999999</v>
-      </c>
-      <c r="R5" s="41">
-        <v>0.17</v>
-      </c>
-      <c r="S5" s="43">
-        <f t="shared" si="3"/>
-        <v>969.16078799999991</v>
-      </c>
-      <c r="T5" s="43">
-        <f t="shared" si="4"/>
         <v>198.50281199999998</v>
       </c>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>2011</v>
       </c>
       <c r="B6" s="12">
         <v>218</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="11"/>
+      <c r="E6" s="35">
         <f t="shared" si="1"/>
         <v>3738.1776453000011</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="35">
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="35">
+        <f t="shared" si="6"/>
+        <v>51919.133962500011</v>
+      </c>
+      <c r="L6" s="35">
+        <f t="shared" si="2"/>
+        <v>49477.727712500011</v>
+      </c>
+      <c r="M6" s="35">
+        <f t="shared" si="7"/>
+        <v>2441.40625</v>
+      </c>
+      <c r="N6" s="121"/>
+      <c r="O6" s="48">
+        <v>3.7534246575342468E-2</v>
+      </c>
+      <c r="P6" s="48">
+        <v>4.726027397260274E-2</v>
+      </c>
+      <c r="Q6" s="35">
+        <f>K6-R6</f>
+        <v>48180.956317200013</v>
+      </c>
+      <c r="R6" s="35">
+        <f>E6</f>
+        <v>3738.1776453000011</v>
+      </c>
+      <c r="S6" s="39">
+        <f t="shared" si="8"/>
+        <v>1808</v>
+      </c>
+      <c r="T6" s="39">
+        <f t="shared" si="9"/>
+        <v>177</v>
+      </c>
+      <c r="U6" s="12">
+        <v>1863</v>
+      </c>
+      <c r="V6" s="44">
+        <v>0.81</v>
+      </c>
+      <c r="W6" s="44">
+        <v>0.82</v>
+      </c>
+      <c r="X6" s="45">
+        <f t="shared" si="3"/>
+        <v>1237.4046000000001</v>
+      </c>
+      <c r="Y6" s="41">
+        <v>0.17</v>
+      </c>
+      <c r="Z6" s="43">
+        <f t="shared" si="4"/>
+        <v>1027.0458180000001</v>
+      </c>
+      <c r="AA6" s="43">
         <f t="shared" si="5"/>
-        <v>51919.133962500011</v>
-      </c>
-      <c r="H6" s="48">
-        <v>3.7534246575342468E-2</v>
-      </c>
-      <c r="I6" s="48">
-        <v>4.726027397260274E-2</v>
-      </c>
-      <c r="J6" s="35">
-        <f>G6-K6</f>
-        <v>48180.956317200013</v>
-      </c>
-      <c r="K6" s="35">
-        <f>C6</f>
-        <v>3738.1776453000011</v>
-      </c>
-      <c r="L6" s="39">
-        <f t="shared" si="6"/>
-        <v>1808</v>
-      </c>
-      <c r="M6" s="39">
-        <f t="shared" si="7"/>
-        <v>177</v>
-      </c>
-      <c r="N6" s="12">
-        <v>1863</v>
-      </c>
-      <c r="O6" s="44">
-        <v>0.81</v>
-      </c>
-      <c r="P6" s="44">
-        <v>0.82</v>
-      </c>
-      <c r="Q6" s="45">
-        <f t="shared" si="2"/>
-        <v>1237.4046000000001</v>
-      </c>
-      <c r="R6" s="41">
-        <v>0.17</v>
-      </c>
-      <c r="S6" s="43">
-        <f t="shared" si="3"/>
-        <v>1027.0458180000001</v>
-      </c>
-      <c r="T6" s="43">
-        <f t="shared" si="4"/>
         <v>210.35878200000002</v>
       </c>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>2012</v>
       </c>
       <c r="B7" s="12">
         <v>200</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="11"/>
+      <c r="E7" s="35">
         <f t="shared" si="1"/>
         <v>3925.0865275650012</v>
       </c>
-      <c r="D7" s="12">
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="12">
         <v>0.91200000000000003</v>
       </c>
-      <c r="E7" s="12">
+      <c r="I7" s="12">
         <v>0.82</v>
       </c>
-      <c r="F7" s="12">
+      <c r="J7" s="12">
         <v>0.88</v>
       </c>
-      <c r="G7" s="35">
+      <c r="K7" s="35">
+        <f t="shared" si="6"/>
+        <v>54515.090660625014</v>
+      </c>
+      <c r="L7" s="35">
+        <f t="shared" si="2"/>
+        <v>51463.332848125014</v>
+      </c>
+      <c r="M7" s="35">
+        <f t="shared" si="7"/>
+        <v>3051.7578125</v>
+      </c>
+      <c r="N7" s="121"/>
+      <c r="O7" s="48">
+        <v>4.876712328767123E-2</v>
+      </c>
+      <c r="P7" s="48">
+        <v>5.3835616438356167E-2</v>
+      </c>
+      <c r="Q7" s="35">
+        <f>K7-R7</f>
+        <v>50590.004133060014</v>
+      </c>
+      <c r="R7" s="35">
+        <f>E7</f>
+        <v>3925.0865275650012</v>
+      </c>
+      <c r="S7" s="39">
+        <f t="shared" si="8"/>
+        <v>2467</v>
+      </c>
+      <c r="T7" s="39">
+        <f t="shared" si="9"/>
+        <v>211</v>
+      </c>
+      <c r="U7" s="12">
+        <v>2436</v>
+      </c>
+      <c r="V7" s="44">
+        <v>0.81</v>
+      </c>
+      <c r="W7" s="44">
+        <v>0.82</v>
+      </c>
+      <c r="X7" s="45">
+        <f t="shared" si="3"/>
+        <v>1617.9911999999999</v>
+      </c>
+      <c r="Y7" s="41">
+        <v>0.17</v>
+      </c>
+      <c r="Z7" s="43">
+        <f t="shared" si="4"/>
+        <v>1342.9326959999999</v>
+      </c>
+      <c r="AA7" s="43">
         <f t="shared" si="5"/>
-        <v>54515.090660625014</v>
-      </c>
-      <c r="H7" s="48">
-        <v>4.876712328767123E-2</v>
-      </c>
-      <c r="I7" s="48">
-        <v>5.3835616438356167E-2</v>
-      </c>
-      <c r="J7" s="35">
-        <f>G7-K7</f>
-        <v>50590.004133060014</v>
-      </c>
-      <c r="K7" s="35">
-        <f>C7</f>
-        <v>3925.0865275650012</v>
-      </c>
-      <c r="L7" s="39">
-        <f t="shared" si="6"/>
-        <v>2467</v>
-      </c>
-      <c r="M7" s="39">
-        <f t="shared" si="7"/>
-        <v>211</v>
-      </c>
-      <c r="N7" s="12">
-        <v>2436</v>
-      </c>
-      <c r="O7" s="44">
-        <v>0.81</v>
-      </c>
-      <c r="P7" s="44">
-        <v>0.82</v>
-      </c>
-      <c r="Q7" s="45">
-        <f t="shared" si="2"/>
-        <v>1617.9911999999999</v>
-      </c>
-      <c r="R7" s="41">
-        <v>0.17</v>
-      </c>
-      <c r="S7" s="43">
-        <f t="shared" si="3"/>
-        <v>1342.9326959999999</v>
-      </c>
-      <c r="T7" s="43">
-        <f t="shared" si="4"/>
         <v>275.05850400000003</v>
       </c>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>2013</v>
       </c>
       <c r="B8" s="12">
         <v>218</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="11"/>
+      <c r="E8" s="35">
         <f t="shared" si="1"/>
         <v>4121.3408539432512</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="34">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="34">
         <v>0.86</v>
       </c>
-      <c r="F8" s="12">
+      <c r="J8" s="12">
         <v>0.9</v>
       </c>
-      <c r="G8" s="35">
+      <c r="K8" s="35">
+        <f t="shared" si="6"/>
+        <v>57240.845193656263</v>
+      </c>
+      <c r="L8" s="35">
+        <f t="shared" si="2"/>
+        <v>53426.147928031263</v>
+      </c>
+      <c r="M8" s="35">
+        <f t="shared" si="7"/>
+        <v>3814.697265625</v>
+      </c>
+      <c r="N8" s="121"/>
+      <c r="O8" s="48">
+        <v>5.2876712328767124E-2</v>
+      </c>
+      <c r="P8" s="48">
+        <v>6.2671232876712321E-2</v>
+      </c>
+      <c r="Q8" s="35">
+        <f>K8-R8</f>
+        <v>53119.504339713014</v>
+      </c>
+      <c r="R8" s="35">
+        <f>E8</f>
+        <v>4121.3408539432512</v>
+      </c>
+      <c r="S8" s="39">
+        <f t="shared" si="8"/>
+        <v>2809</v>
+      </c>
+      <c r="T8" s="39">
+        <f t="shared" si="9"/>
+        <v>258</v>
+      </c>
+      <c r="U8" s="12">
+        <v>2978</v>
+      </c>
+      <c r="V8" s="44">
+        <v>0.81</v>
+      </c>
+      <c r="W8" s="44">
+        <v>0.82</v>
+      </c>
+      <c r="X8" s="45">
+        <f t="shared" si="3"/>
+        <v>1977.9876000000002</v>
+      </c>
+      <c r="Y8" s="41">
+        <v>0.17</v>
+      </c>
+      <c r="Z8" s="43">
+        <f t="shared" si="4"/>
+        <v>1641.7297080000001</v>
+      </c>
+      <c r="AA8" s="43">
         <f t="shared" si="5"/>
-        <v>57240.845193656263</v>
-      </c>
-      <c r="H8" s="48">
-        <v>5.2876712328767124E-2</v>
-      </c>
-      <c r="I8" s="48">
-        <v>6.2671232876712321E-2</v>
-      </c>
-      <c r="J8" s="35">
-        <f>G8-K8</f>
-        <v>53119.504339713014</v>
-      </c>
-      <c r="K8" s="35">
-        <f>C8</f>
-        <v>4121.3408539432512</v>
-      </c>
-      <c r="L8" s="39">
-        <f t="shared" si="6"/>
-        <v>2809</v>
-      </c>
-      <c r="M8" s="39">
-        <f t="shared" si="7"/>
-        <v>258</v>
-      </c>
-      <c r="N8" s="12">
-        <v>2978</v>
-      </c>
-      <c r="O8" s="44">
-        <v>0.81</v>
-      </c>
-      <c r="P8" s="44">
-        <v>0.82</v>
-      </c>
-      <c r="Q8" s="45">
-        <f t="shared" si="2"/>
-        <v>1977.9876000000002</v>
-      </c>
-      <c r="R8" s="41">
-        <v>0.17</v>
-      </c>
-      <c r="S8" s="43">
-        <f t="shared" si="3"/>
-        <v>1641.7297080000001</v>
-      </c>
-      <c r="T8" s="43">
-        <f t="shared" si="4"/>
         <v>336.25789200000003</v>
       </c>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>2014</v>
       </c>
       <c r="B9" s="12">
         <v>219</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="11"/>
+      <c r="E9" s="35">
         <f t="shared" si="1"/>
         <v>4327.407896640414</v>
       </c>
-      <c r="D9" s="12">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="12">
         <v>0.88</v>
       </c>
-      <c r="E9" s="34">
+      <c r="I9" s="34">
         <v>0.89</v>
       </c>
-      <c r="F9" s="34">
+      <c r="J9" s="34">
         <v>0.9</v>
       </c>
-      <c r="G9" s="35">
+      <c r="K9" s="35">
+        <f t="shared" si="6"/>
+        <v>60102.887453339077</v>
+      </c>
+      <c r="L9" s="35">
+        <f t="shared" si="2"/>
+        <v>55334.515871307827</v>
+      </c>
+      <c r="M9" s="35">
+        <f t="shared" si="7"/>
+        <v>4768.37158203125</v>
+      </c>
+      <c r="N9" s="121"/>
+      <c r="O9" s="48">
+        <v>5.1506849315068493E-2</v>
+      </c>
+      <c r="P9" s="48">
+        <v>5.321917808219178E-2</v>
+      </c>
+      <c r="Q9" s="35">
+        <f>K9-R9</f>
+        <v>55775.479556698665</v>
+      </c>
+      <c r="R9" s="35">
+        <f>E9</f>
+        <v>4327.407896640414</v>
+      </c>
+      <c r="S9" s="39">
+        <f t="shared" si="8"/>
+        <v>2873</v>
+      </c>
+      <c r="T9" s="39">
+        <f t="shared" si="9"/>
+        <v>230</v>
+      </c>
+      <c r="U9" s="12">
+        <v>3269</v>
+      </c>
+      <c r="V9" s="44">
+        <v>0.81</v>
+      </c>
+      <c r="W9" s="44">
+        <v>0.82</v>
+      </c>
+      <c r="X9" s="45">
+        <f t="shared" si="3"/>
+        <v>2171.2698</v>
+      </c>
+      <c r="Y9" s="41">
+        <v>0.17</v>
+      </c>
+      <c r="Z9" s="43">
+        <f t="shared" si="4"/>
+        <v>1802.1539339999999</v>
+      </c>
+      <c r="AA9" s="43">
         <f t="shared" si="5"/>
-        <v>60102.887453339077</v>
-      </c>
-      <c r="H9" s="48">
-        <v>5.1506849315068493E-2</v>
-      </c>
-      <c r="I9" s="48">
-        <v>5.321917808219178E-2</v>
-      </c>
-      <c r="J9" s="35">
-        <f>G9-K9</f>
-        <v>55775.479556698665</v>
-      </c>
-      <c r="K9" s="35">
-        <f>C9</f>
-        <v>4327.407896640414</v>
-      </c>
-      <c r="L9" s="39">
-        <f t="shared" si="6"/>
-        <v>2873</v>
-      </c>
-      <c r="M9" s="39">
-        <f t="shared" si="7"/>
-        <v>230</v>
-      </c>
-      <c r="N9" s="12">
-        <v>3269</v>
-      </c>
-      <c r="O9" s="44">
-        <v>0.81</v>
-      </c>
-      <c r="P9" s="44">
-        <v>0.82</v>
-      </c>
-      <c r="Q9" s="45">
-        <f t="shared" si="2"/>
-        <v>2171.2698</v>
-      </c>
-      <c r="R9" s="41">
-        <v>0.17</v>
-      </c>
-      <c r="S9" s="43">
-        <f t="shared" si="3"/>
-        <v>1802.1539339999999</v>
-      </c>
-      <c r="T9" s="43">
-        <f t="shared" si="4"/>
         <v>369.11586600000004</v>
       </c>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>2015</v>
       </c>
       <c r="B10" s="12">
         <v>206</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="11"/>
+      <c r="E10" s="35">
         <f t="shared" si="1"/>
         <v>4543.7782914724339</v>
       </c>
-      <c r="D10" s="12">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="12">
         <v>0.88</v>
       </c>
-      <c r="E10" s="12">
+      <c r="I10" s="12">
         <v>0.92</v>
       </c>
-      <c r="F10" s="12">
+      <c r="J10" s="12">
         <v>0.92</v>
       </c>
-      <c r="G10" s="35">
+      <c r="K10" s="35">
+        <f t="shared" si="6"/>
+        <v>63108.03182600603</v>
+      </c>
+      <c r="L10" s="35">
+        <f t="shared" si="2"/>
+        <v>57147.567348466968</v>
+      </c>
+      <c r="M10" s="35">
+        <f t="shared" si="7"/>
+        <v>5960.4644775390625</v>
+      </c>
+      <c r="N10" s="121"/>
+      <c r="O10" s="48">
+        <v>6.6575342465753418E-2</v>
+      </c>
+      <c r="P10" s="48">
+        <v>6.7191780821917804E-2</v>
+      </c>
+      <c r="Q10" s="35">
+        <f>K10-R10</f>
+        <v>58564.253534533593</v>
+      </c>
+      <c r="R10" s="35">
+        <f>E10</f>
+        <v>4543.7782914724339</v>
+      </c>
+      <c r="S10" s="39">
+        <f t="shared" si="8"/>
+        <v>3899</v>
+      </c>
+      <c r="T10" s="39">
+        <f t="shared" si="9"/>
+        <v>305</v>
+      </c>
+      <c r="U10" s="12">
+        <v>4865</v>
+      </c>
+      <c r="V10" s="44">
+        <v>0.81</v>
+      </c>
+      <c r="W10" s="44">
+        <v>0.82</v>
+      </c>
+      <c r="X10" s="45">
+        <f t="shared" si="3"/>
+        <v>3231.3330000000001</v>
+      </c>
+      <c r="Y10" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="Z10" s="43">
+        <f t="shared" si="4"/>
+        <v>2682.00639</v>
+      </c>
+      <c r="AA10" s="43">
         <f t="shared" si="5"/>
-        <v>63108.03182600603</v>
-      </c>
-      <c r="H10" s="48">
-        <v>6.6575342465753418E-2</v>
-      </c>
-      <c r="I10" s="48">
-        <v>6.7191780821917804E-2</v>
-      </c>
-      <c r="J10" s="35">
-        <f>G10-K10</f>
-        <v>58564.253534533593</v>
-      </c>
-      <c r="K10" s="35">
-        <f>C10</f>
-        <v>4543.7782914724339</v>
-      </c>
-      <c r="L10" s="39">
-        <f t="shared" si="6"/>
-        <v>3899</v>
-      </c>
-      <c r="M10" s="39">
-        <f t="shared" si="7"/>
-        <v>305</v>
-      </c>
-      <c r="N10" s="12">
-        <v>4865</v>
-      </c>
-      <c r="O10" s="44">
-        <v>0.81</v>
-      </c>
-      <c r="P10" s="44">
-        <v>0.82</v>
-      </c>
-      <c r="Q10" s="45">
-        <f t="shared" si="2"/>
-        <v>3231.3330000000001</v>
-      </c>
-      <c r="R10" s="42">
-        <v>0.17</v>
-      </c>
-      <c r="S10" s="43">
-        <f t="shared" si="3"/>
-        <v>2682.00639</v>
-      </c>
-      <c r="T10" s="43">
-        <f t="shared" si="4"/>
         <v>549.32661000000007</v>
       </c>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>2016</v>
       </c>
       <c r="B11" s="12">
         <v>233</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="11"/>
+      <c r="E11" s="35">
         <f t="shared" si="1"/>
         <v>4770.9672060460571</v>
       </c>
-      <c r="D11" s="12">
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="12">
         <v>0.89</v>
       </c>
-      <c r="E11" s="12">
+      <c r="I11" s="12">
         <v>0.95</v>
       </c>
-      <c r="F11" s="12">
+      <c r="J11" s="12">
         <v>0.94</v>
       </c>
-      <c r="G11" s="35">
+      <c r="K11" s="35">
+        <f t="shared" si="6"/>
+        <v>66263.43341730634</v>
+      </c>
+      <c r="L11" s="35">
+        <f t="shared" si="2"/>
+        <v>58812.852820382512</v>
+      </c>
+      <c r="M11" s="35">
+        <f t="shared" si="7"/>
+        <v>7450.5805969238281</v>
+      </c>
+      <c r="N11" s="121"/>
+      <c r="O11" s="48">
+        <v>6.3287671232876708E-2</v>
+      </c>
+      <c r="P11" s="48">
+        <v>6.9246575342465755E-2</v>
+      </c>
+      <c r="Q11" s="35">
+        <f>K11-R11</f>
+        <v>61492.466211260282</v>
+      </c>
+      <c r="R11" s="35">
+        <f>E11</f>
+        <v>4770.9672060460571</v>
+      </c>
+      <c r="S11" s="39">
+        <f t="shared" si="8"/>
+        <v>3892</v>
+      </c>
+      <c r="T11" s="39">
+        <f t="shared" si="9"/>
+        <v>330</v>
+      </c>
+      <c r="U11" s="12">
+        <v>6265</v>
+      </c>
+      <c r="V11" s="44">
+        <v>0.81</v>
+      </c>
+      <c r="W11" s="44">
+        <v>0.82</v>
+      </c>
+      <c r="X11" s="45">
+        <f t="shared" si="3"/>
+        <v>4161.2130000000006</v>
+      </c>
+      <c r="Y11" s="42">
+        <v>0.13</v>
+      </c>
+      <c r="Z11" s="43">
+        <f t="shared" si="4"/>
+        <v>3620.2553100000005</v>
+      </c>
+      <c r="AA11" s="43">
         <f t="shared" si="5"/>
-        <v>66263.43341730634</v>
-      </c>
-      <c r="H11" s="48">
-        <v>6.3287671232876708E-2</v>
-      </c>
-      <c r="I11" s="48">
-        <v>6.9246575342465755E-2</v>
-      </c>
-      <c r="J11" s="35">
-        <f>G11-K11</f>
-        <v>61492.466211260282</v>
-      </c>
-      <c r="K11" s="35">
-        <f>C11</f>
-        <v>4770.9672060460571</v>
-      </c>
-      <c r="L11" s="39">
-        <f t="shared" si="6"/>
-        <v>3892</v>
-      </c>
-      <c r="M11" s="39">
-        <f t="shared" si="7"/>
-        <v>330</v>
-      </c>
-      <c r="N11" s="12">
-        <v>6265</v>
-      </c>
-      <c r="O11" s="44">
-        <v>0.81</v>
-      </c>
-      <c r="P11" s="44">
-        <v>0.82</v>
-      </c>
-      <c r="Q11" s="45">
-        <f t="shared" si="2"/>
-        <v>4161.2130000000006</v>
-      </c>
-      <c r="R11" s="42">
-        <v>0.13</v>
-      </c>
-      <c r="S11" s="43">
-        <f t="shared" si="3"/>
-        <v>3620.2553100000005</v>
-      </c>
-      <c r="T11" s="43">
-        <f t="shared" si="4"/>
         <v>540.95769000000007</v>
       </c>
-      <c r="U11" s="51">
+      <c r="AB11" s="51">
         <v>0.18</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>2017</v>
       </c>
       <c r="B12" s="12">
         <v>194</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="11"/>
+      <c r="E12" s="35">
         <f t="shared" si="1"/>
         <v>5009.5155663483602</v>
       </c>
-      <c r="D12" s="11">
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="11">
         <v>0.9</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="35">
-        <f>1.05*G11</f>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="35">
+        <f>1.05*K11</f>
         <v>69576.605088171666</v>
       </c>
-      <c r="H12" s="48" t="e">
+      <c r="L12" s="35">
+        <f t="shared" si="2"/>
+        <v>60263.37934201688</v>
+      </c>
+      <c r="M12" s="35">
+        <f t="shared" si="7"/>
+        <v>9313.2257461547852</v>
+      </c>
+      <c r="N12" s="121"/>
+      <c r="O12" s="48" t="e">
         <f>0.01*(#REF!*#REF!+#REF!*#REF!)/(#REF!+#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I12" s="48">
+      <c r="P12" s="48">
         <v>4.6699999999999998E-2</v>
       </c>
-      <c r="J12" s="35">
-        <f>G12-K12</f>
+      <c r="Q12" s="35">
+        <f>K12-R12</f>
         <v>64567.089521823305</v>
       </c>
-      <c r="K12" s="35">
-        <f>C12</f>
+      <c r="R12" s="35">
+        <f>E12</f>
         <v>5009.5155663483602</v>
       </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="39">
-        <f t="shared" si="7"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="39">
+        <f t="shared" si="9"/>
         <v>234</v>
       </c>
-      <c r="N12" s="12">
+      <c r="U12" s="12">
         <v>7289</v>
       </c>
-      <c r="O12" s="44">
+      <c r="V12" s="44">
         <v>0.81</v>
       </c>
-      <c r="P12" s="44">
+      <c r="W12" s="44">
         <v>0.7</v>
       </c>
-      <c r="Q12" s="45">
-        <f t="shared" si="2"/>
+      <c r="X12" s="45">
+        <f t="shared" si="3"/>
         <v>4132.8630000000003</v>
       </c>
-      <c r="R12" s="41">
+      <c r="Y12" s="41">
         <v>0.1</v>
       </c>
-      <c r="S12" s="43">
-        <f t="shared" si="3"/>
+      <c r="Z12" s="43">
+        <f t="shared" si="4"/>
         <v>3719.5767000000001</v>
       </c>
-      <c r="T12" s="43">
-        <f t="shared" si="4"/>
+      <c r="AA12" s="43">
+        <f t="shared" si="5"/>
         <v>413.28630000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>2018</v>
       </c>
       <c r="B13" s="11"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="12">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="12">
         <v>0.9</v>
       </c>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="J14" s="47"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="J15" s="47"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G24" s="11"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="121"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D14" s="11"/>
+      <c r="Q14" s="47"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D15" s="11"/>
+      <c r="Q15" s="47"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4133,177 +4348,177 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C1" s="75" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E1" s="77" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F1" s="75" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G1" s="76" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H1" s="77" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K1" s="75" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L1" s="76" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M1" s="109" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N1" s="114" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O1" s="76" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="P1" s="77" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q1" s="75" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="R1" s="76" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="S1" s="76" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="T1" s="76" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="U1" s="76" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="V1" s="77" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="W1" s="75" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="X1" s="76" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Y1" s="77" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Z1" s="75" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AA1" s="76" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AB1" s="77" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AC1" s="105" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AD1" s="105" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="AE1" s="90" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AF1" s="90" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AG1" s="91" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH1" s="91" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI1" s="91" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AJ1" s="91" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AK1" s="92" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B2" s="53"/>
       <c r="C2" s="78" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D2" s="79" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E2" s="80" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G2" s="79" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H2" s="80" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I2" s="38"/>
       <c r="J2" s="38"/>
       <c r="K2" s="78" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="L2" s="79" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="M2" s="110" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="N2" s="115" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O2" s="79" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="P2" s="80" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q2" s="78" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="R2" s="79" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="S2" s="79" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="T2" s="79" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="U2" s="79" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="V2" s="80" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="W2" s="78"/>
       <c r="X2" s="79"/>
@@ -4313,105 +4528,105 @@
       <c r="AB2" s="80"/>
       <c r="AE2" s="93"/>
       <c r="AF2" s="93" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AG2" s="94" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH2" s="94" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AI2" s="94" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AJ2" s="94" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AK2" s="95" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="78" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D3" s="79" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E3" s="80" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F3" s="78" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G3" s="79" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H3" s="80" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I3" s="38"/>
       <c r="J3" s="38"/>
       <c r="K3" s="78" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="L3" s="79" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M3" s="110" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="N3" s="115" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="O3" s="79" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="P3" s="80" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="Q3" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="R3" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="S3" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="T3" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="U3" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="V3" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="W3" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="R3" s="79" t="s">
+      <c r="X3" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="S3" s="79" t="s">
+      <c r="Y3" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z3" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="T3" s="79" t="s">
+      <c r="AA3" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="U3" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="V3" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="W3" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="X3" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y3" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z3" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA3" s="79" t="s">
-        <v>86</v>
-      </c>
       <c r="AB3" s="80" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AE3" s="93" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="AF3" s="93"/>
       <c r="AG3" s="94"/>
@@ -5481,21 +5696,21 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B2" s="38"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B3" s="38"/>
     </row>
@@ -5654,71 +5869,71 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E1" s="76" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F1" s="76" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G1" s="77" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C2" s="79" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D2" s="79" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E2" s="79" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F2" s="79" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G2" s="80" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D3" s="79" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E3" s="79" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F3" s="79" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G3" s="80" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">

--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="pars" sheetId="24" r:id="rId1"/>
     <sheet name="data" sheetId="5" r:id="rId2"/>
-    <sheet name="timepars" sheetId="20" r:id="rId3"/>
-    <sheet name="scen_1" sheetId="25" r:id="rId4"/>
-    <sheet name="scen_2" sheetId="26" r:id="rId5"/>
+    <sheet name="mixing" sheetId="27" r:id="rId3"/>
+    <sheet name="timepars" sheetId="20" r:id="rId4"/>
+    <sheet name="scen_1" sheetId="25" r:id="rId5"/>
+    <sheet name="scen_2" sheetId="26" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -212,59 +213,11 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Michael Traeger</author>
     <author>Tom Tidhar</author>
-    <author>Michael Traeger</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-It is assumed that 7.2% of MSM are HIV+ (see excel formula for this column)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Mostly from Kirby reports</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="1" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -291,7 +244,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+It is assumed that 7.2% of MSM are HIV+ (see excel formula for this column)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mostly from Kirby reports</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -317,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -341,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -365,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -389,7 +390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -417,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -442,7 +443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -468,7 +469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -497,7 +498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -523,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -547,7 +548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -571,7 +572,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -595,7 +596,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="K7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -619,7 +620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0" shapeId="0">
+    <comment ref="K8" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -643,7 +644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="1" shapeId="0">
+    <comment ref="K11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -671,7 +672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB11" authorId="1" shapeId="0">
+    <comment ref="AB11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -695,7 +696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="E12" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -719,7 +720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P12" authorId="0" shapeId="0">
+    <comment ref="P12" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -743,7 +744,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0">
+    <comment ref="A13" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -875,7 +876,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -899,7 +900,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -923,7 +924,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -947,7 +948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -971,7 +972,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -995,7 +996,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1016,30 +1017,6 @@
           </rPr>
           <t xml:space="preserve">
 Effectiveness of each care stage in reducing infectiousness. The number of people in each infected compartment are multiplied by these values to get an overall relative proportion positive</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-This is the time (in years) in each undiagnosed group before people move on to the next one (if they don't get diagnosed). i.e. people spend 1 year in the "&lt;1 year since infection" group, then 2 years in the "1-3 years since infection" group, then stay in the "3+ years since infection" group until they get diagnosed</t>
         </r>
       </text>
     </comment>
@@ -1063,11 +1040,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Proportions of people changing to gel condoms. From the geldom analysis. Can just leave at 0.</t>
+This is the time (in years) in each undiagnosed group before people move on to the next one (if they don't get diagnosed). i.e. people spend 1 year in the "&lt;1 year since infection" group, then 2 years in the "1-3 years since infection" group, then stay in the "3+ years since infection" group until they get diagnosed</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0" shapeId="0">
+    <comment ref="AG1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1087,7 +1064,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Time between tests for people within 1 year of infection</t>
+Proportions of people changing to gel condoms. From the geldom analysis. Can just leave at 0.</t>
         </r>
       </text>
     </comment>
@@ -1111,11 +1088,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Time between tests for people infected over 3 years ago</t>
+Time between tests for people within 1 year of infection</t>
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="0" shapeId="0">
+    <comment ref="S3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1135,8 +1112,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Proportion of PLHIV who are diagnosed.
-This is not a parameter, but it could be used for calibration</t>
+Time between tests for people infected over 3 years ago</t>
         </r>
       </text>
     </comment>
@@ -1160,7 +1136,8 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Proportion of diagnosed PLHIV who are on treatment</t>
+Proportion of PLHIV who are diagnosed.
+This is not a parameter, but it could be used for calibration</t>
         </r>
       </text>
     </comment>
@@ -1184,6 +1161,30 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
+Proportion of diagnosed PLHIV who are on treatment</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
 Proportion of PLHIV on treatment who are virally suppressed</t>
         </r>
       </text>
@@ -1236,7 +1237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W16" authorId="0" shapeId="0">
+    <comment ref="X16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1260,7 +1261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W17" authorId="0" shapeId="0">
+    <comment ref="X17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1284,7 +1285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W20" authorId="1" shapeId="0">
+    <comment ref="X20" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1399,7 +1400,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="119">
   <si>
     <t>Waiting list</t>
   </si>
@@ -1732,6 +1733,31 @@
   </si>
   <si>
     <t>prop_HIV_virally_suppressed</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>lo_aus</t>
+  </si>
+  <si>
+    <t>hi_aus</t>
+  </si>
+  <si>
+    <t>pr_aus</t>
+  </si>
+  <si>
+    <t>lo_int</t>
+  </si>
+  <si>
+    <t>hi_int</t>
+  </si>
+  <si>
+    <t>pr_int</t>
+  </si>
+  <si>
+    <t>e.g. the first row represents the weighting with which low risk people who are medicare eligible interact with other groups.
+i.e. all 1's means that a low risk medicare eligible person is mixing uniformly with everyone</t>
   </si>
 </sst>
 </file>
@@ -1744,7 +1770,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1873,6 +1899,13 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1918,7 +1951,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -2205,6 +2238,342 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2225,7 +2594,7 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2251,33 +2620,20 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2295,12 +2651,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2321,16 +2671,10 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="8" fillId="4" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2387,10 +2731,6 @@
     <xf numFmtId="2" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2402,14 +2742,151 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Bad" xfId="15" builtinId="27" customBuiltin="1"/>
@@ -2740,17 +3217,17 @@
   <cols>
     <col min="1" max="1" width="49.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="52" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="43" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="52" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="52" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="52"/>
-    <col min="9" max="9" width="11.5703125" style="52" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.85546875" style="52"/>
-    <col min="12" max="12" width="10.85546875" style="52" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="52"/>
+    <col min="6" max="6" width="11.42578125" style="43" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="43" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="43"/>
+    <col min="9" max="9" width="11.5703125" style="43" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.85546875" style="43"/>
+    <col min="12" max="12" width="10.85546875" style="43" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2787,17 +3264,17 @@
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="27">
         <f>1/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
       <c r="I2" s="9">
         <v>0.05</v>
       </c>
-      <c r="L2" s="59"/>
-      <c r="M2" s="52" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="43" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2808,19 +3285,19 @@
       <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="41">
         <v>4.0741237836483535E-3</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="18">
         <f t="shared" ref="D3:D8" si="0">C3-$I$2*C3</f>
         <v>3.8704175944659358E-3</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="18">
         <f t="shared" ref="E3:E8" si="1">C3+$I$2*C3</f>
         <v>4.2778299728307712E-3</v>
       </c>
-      <c r="L3" s="61"/>
-      <c r="M3" s="52" t="s">
+      <c r="L3" s="52"/>
+      <c r="M3" s="43" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2831,20 +3308,20 @@
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="56">
+      <c r="C4" s="47">
         <f>0.001*12*C2</f>
         <v>1E-3</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="19">
         <f t="shared" si="0"/>
         <v>9.5E-4</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="16">
         <f t="shared" si="1"/>
         <v>1.0499999999999999E-3</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="52" t="s">
+      <c r="L4" s="48"/>
+      <c r="M4" s="43" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2855,20 +3332,20 @@
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="45">
         <f>0.001*12*C2</f>
         <v>1E-3</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="16">
         <f t="shared" si="0"/>
         <v>9.5E-4</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="16">
         <f t="shared" si="1"/>
         <v>1.0499999999999999E-3</v>
       </c>
-      <c r="L5" s="27"/>
-      <c r="M5" s="52" t="s">
+      <c r="L5" s="22"/>
+      <c r="M5" s="43" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2879,77 +3356,80 @@
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="46">
         <f>0.001*12*C2</f>
         <v>1E-3</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="16">
         <f t="shared" si="0"/>
         <v>9.5E-4</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="16">
         <f t="shared" si="1"/>
         <v>1.0499999999999999E-3</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="52">
+      <c r="J6" s="43">
         <f>(1+C3)^(12*(2040-2007))</f>
         <v>5.0031885420339695</v>
       </c>
-      <c r="L6" s="67"/>
-      <c r="M6" s="52" t="s">
+      <c r="L6" s="58"/>
+      <c r="M6" s="43" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="23">
         <v>7.5</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="20">
         <f t="shared" si="0"/>
         <v>7.125</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="20">
         <f t="shared" si="1"/>
         <v>7.875</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="46">
-        <f>((data!K12/data!K2) ^ (C2/((data!A12-data!A2))) - 1)</f>
+      <c r="I7" s="39">
+        <f>((data!B12/data!B2) ^ (C2/((data!A12-data!A2))) - 1)</f>
         <v>4.0741237836483535E-3</v>
       </c>
-      <c r="J7" s="52">
-        <f>(data!K7-data!K2)/(data!A7-data!A2)/data!K2*C2</f>
-        <v>4.6046927083333387E-3</v>
+      <c r="J7" s="43">
+        <f>(data!B7-data!B2)/(data!A7-data!A2)/data!B2*C2</f>
+        <v>4.6046927083333352E-3</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="23">
         <v>0.13</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="18">
         <f t="shared" si="0"/>
         <v>0.1235</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="18">
         <f t="shared" si="1"/>
         <v>0.13650000000000001</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2959,14 +3439,14 @@
       <c r="B9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="23">
         <v>0.4</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="20">
         <f t="shared" ref="D9:D10" si="2">C9-$I$2*C9</f>
         <v>0.38</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="20">
         <f t="shared" ref="E9:E10" si="3">C9+$I$2*C9</f>
         <v>0.42000000000000004</v>
       </c>
@@ -2978,14 +3458,14 @@
       <c r="B10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="23">
         <v>0.4</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="20">
         <f t="shared" si="2"/>
         <v>0.38</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="20">
         <f t="shared" si="3"/>
         <v>0.42000000000000004</v>
       </c>
@@ -2997,11 +3477,11 @@
       <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="66">
+      <c r="C11" s="57">
         <v>0</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -3010,15 +3490,15 @@
       <c r="B12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="62">
+      <c r="C12" s="53">
         <f>6.2</f>
         <v>6.2</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="20">
         <f t="shared" ref="D12:D20" si="4">C12-$I$2*C12</f>
         <v>5.8900000000000006</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="20">
         <f t="shared" ref="E12:E20" si="5">C12+$I$2*C12</f>
         <v>6.51</v>
       </c>
@@ -3030,14 +3510,14 @@
       <c r="B13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="23">
         <v>7</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="20">
         <f t="shared" si="4"/>
         <v>6.65</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="20">
         <f t="shared" si="5"/>
         <v>7.35</v>
       </c>
@@ -3049,14 +3529,14 @@
       <c r="B14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="45">
         <v>0.1</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="21">
         <f t="shared" si="4"/>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="21">
         <f t="shared" si="5"/>
         <v>0.10500000000000001</v>
       </c>
@@ -3068,14 +3548,14 @@
       <c r="B15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="45">
         <v>0.17</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="21">
         <f t="shared" si="4"/>
         <v>0.1615</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="21">
         <f t="shared" si="5"/>
         <v>0.17850000000000002</v>
       </c>
@@ -3087,14 +3567,14 @@
       <c r="B16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="63">
+      <c r="C16" s="54">
         <v>0.38800000000000001</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="21">
         <f t="shared" si="4"/>
         <v>0.36860000000000004</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="21">
         <f t="shared" si="5"/>
         <v>0.40739999999999998</v>
       </c>
@@ -3106,14 +3586,14 @@
       <c r="B17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="64">
+      <c r="C17" s="55">
         <v>0.45</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="20">
         <f t="shared" si="4"/>
         <v>0.42749999999999999</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="20">
         <f t="shared" si="5"/>
         <v>0.47250000000000003</v>
       </c>
@@ -3125,14 +3605,14 @@
       <c r="B18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="26">
         <v>1</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="20">
         <f t="shared" si="4"/>
         <v>0.95</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="20">
         <f t="shared" si="5"/>
         <v>1.05</v>
       </c>
@@ -3144,15 +3624,15 @@
       <c r="B19" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="60">
+      <c r="C19" s="51">
         <f>1-C17</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="20">
         <f t="shared" si="4"/>
         <v>0.52250000000000008</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="20">
         <f t="shared" si="5"/>
         <v>0.57750000000000001</v>
       </c>
@@ -3164,14 +3644,14 @@
       <c r="B20" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="58">
+      <c r="C20" s="49">
         <v>0.5</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="20">
         <f t="shared" si="4"/>
         <v>0.47499999999999998</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="20">
         <f t="shared" si="5"/>
         <v>0.52500000000000002</v>
       </c>
@@ -3183,7 +3663,7 @@
       <c r="B21" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="53">
+      <c r="C21" s="44">
         <v>2007</v>
       </c>
     </row>
@@ -3194,12 +3674,12 @@
       <c r="B22" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="53">
+      <c r="C22" s="44">
         <v>42714</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="65"/>
+      <c r="B29" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3212,24 +3692,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J2" sqref="J2"/>
+      <selection pane="topRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11" style="52" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="10.28515625" style="52" customWidth="1"/>
+    <col min="1" max="1" width="5" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.28515625" style="43" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11" style="43" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="43" customWidth="1"/>
     <col min="15" max="15" width="17.28515625" customWidth="1"/>
     <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -3247,1055 +3728,1082 @@
     <col min="29" max="29" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:29" s="140" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="131" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="132" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="133" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="134" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="F1" s="135" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="G1" s="133" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="H1" s="131" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="I1" s="132" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="J1" s="133" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="K1" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="L1" s="132" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="M1" s="148" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="N1" s="119"/>
-      <c r="O1" s="10" t="s">
+      <c r="N1" s="136"/>
+      <c r="O1" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="137" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="AB1" s="50" t="s">
+      <c r="AB1" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" s="15"/>
+      <c r="AC1" s="139"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>2007</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="E2" s="35">
-        <f>K2*7.2/100</f>
+      <c r="B2" s="113">
+        <v>42714</v>
+      </c>
+      <c r="C2" s="114">
+        <f>B2-D2</f>
+        <v>38830.909090909088</v>
+      </c>
+      <c r="D2" s="115">
+        <f>B2/11</f>
+        <v>3883.090909090909</v>
+      </c>
+      <c r="E2" s="120"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="113">
+        <f>B2*7.2/100</f>
         <v>3075.4079999999999</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="12">
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="118">
         <v>0.7</v>
       </c>
-      <c r="I2" s="12">
+      <c r="L2" s="119">
         <v>0.75</v>
       </c>
-      <c r="J2" s="12">
+      <c r="M2" s="149">
         <v>0.8</v>
       </c>
-      <c r="K2" s="33">
-        <f>42714</f>
-        <v>42714</v>
-      </c>
-      <c r="L2" s="35">
-        <f>K2-M2</f>
-        <v>41714</v>
-      </c>
-      <c r="M2" s="33">
-        <v>1000</v>
-      </c>
-      <c r="N2" s="120"/>
-      <c r="O2" s="48">
+      <c r="N2" s="106"/>
+      <c r="O2" s="40">
         <v>2.32876712328767E-2</v>
       </c>
-      <c r="P2" s="48">
+      <c r="P2" s="40">
         <v>3.4931506849315071E-2</v>
       </c>
-      <c r="Q2" s="35">
-        <f>K2-R2</f>
+      <c r="Q2" s="28">
+        <f>B2-R2</f>
         <v>39638.591999999997</v>
       </c>
-      <c r="R2" s="35">
-        <f>E2</f>
+      <c r="R2" s="28">
+        <f t="shared" ref="R2:R12" si="0">H2</f>
         <v>3075.4079999999999</v>
       </c>
-      <c r="S2" s="40">
+      <c r="S2" s="33">
         <f>ROUND(O2*Q2,0)</f>
         <v>923</v>
       </c>
-      <c r="T2" s="40">
-        <f t="shared" ref="T2" si="0">ROUND(P2*R2,0)</f>
+      <c r="T2" s="33">
+        <f t="shared" ref="T2" si="1">ROUND(P2*R2,0)</f>
         <v>107</v>
       </c>
-      <c r="U2" s="12">
+      <c r="U2" s="11">
         <v>1007</v>
       </c>
-      <c r="V2" s="44">
+      <c r="V2" s="37">
         <v>0.81</v>
       </c>
-      <c r="W2" s="44">
+      <c r="W2" s="37">
         <v>0.82</v>
       </c>
-      <c r="X2" s="45">
+      <c r="X2" s="38">
         <f>U2*V2*W2</f>
         <v>668.84940000000006</v>
       </c>
-      <c r="Y2" s="41">
+      <c r="Y2" s="34">
         <v>0.17</v>
       </c>
-      <c r="Z2" s="43">
+      <c r="Z2" s="36">
         <f>X2-AA2</f>
         <v>555.14500200000009</v>
       </c>
-      <c r="AA2" s="43">
+      <c r="AA2" s="36">
         <f>X2*Y2</f>
         <v>113.70439800000001</v>
       </c>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>2008</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="11"/>
-      <c r="E3" s="35">
-        <f t="shared" ref="E3:E12" si="1">K3*7.2/100</f>
-        <v>3229.1784000000002</v>
-      </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="35">
-        <f>1.05*K2</f>
-        <v>44849.700000000004</v>
-      </c>
-      <c r="L3" s="35">
-        <f t="shared" ref="L3:L13" si="2">K3-M3</f>
-        <v>43599.700000000004</v>
-      </c>
-      <c r="M3" s="35">
-        <f>M2*1.25</f>
-        <v>1250</v>
-      </c>
-      <c r="N3" s="121"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="35">
-        <f>K3-R3</f>
-        <v>41620.521600000007</v>
-      </c>
-      <c r="R3" s="35">
-        <f>E3</f>
-        <v>3229.1784000000002</v>
-      </c>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="12">
+      <c r="B3" s="113">
+        <f>SUM(C3:D3)</f>
+        <v>44849.7</v>
+      </c>
+      <c r="C3" s="114">
+        <f>1.05*C2</f>
+        <v>40772.454545454544</v>
+      </c>
+      <c r="D3" s="115">
+        <f>D2*1.05</f>
+        <v>4077.2454545454548</v>
+      </c>
+      <c r="E3" s="129"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="113">
+        <f>B3*7.2/100</f>
+        <v>3229.1783999999998</v>
+      </c>
+      <c r="I3" s="114"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="28">
+        <f>B3-R3</f>
+        <v>41620.5216</v>
+      </c>
+      <c r="R3" s="28">
+        <f t="shared" si="0"/>
+        <v>3229.1783999999998</v>
+      </c>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="11">
         <v>922</v>
       </c>
-      <c r="V3" s="44">
+      <c r="V3" s="37">
         <v>0.81</v>
       </c>
-      <c r="W3" s="44">
+      <c r="W3" s="37">
         <v>0.82</v>
       </c>
-      <c r="X3" s="45">
-        <f t="shared" ref="X3:X12" si="3">U3*V3*W3</f>
+      <c r="X3" s="38">
+        <f t="shared" ref="X3:X12" si="2">U3*V3*W3</f>
         <v>612.39239999999995</v>
       </c>
-      <c r="Y3" s="41">
+      <c r="Y3" s="34">
         <v>0.17</v>
       </c>
-      <c r="Z3" s="43">
-        <f t="shared" ref="Z3:Z12" si="4">X3-AA3</f>
+      <c r="Z3" s="36">
+        <f t="shared" ref="Z3:Z12" si="3">X3-AA3</f>
         <v>508.28569199999993</v>
       </c>
-      <c r="AA3" s="43">
-        <f t="shared" ref="AA3:AA12" si="5">X3*Y3</f>
+      <c r="AA3" s="36">
+        <f t="shared" ref="AA3:AA12" si="4">X3*Y3</f>
         <v>104.106708</v>
       </c>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>2009</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="11"/>
-      <c r="E4" s="35">
-        <f t="shared" si="1"/>
+      <c r="B4" s="113">
+        <f t="shared" ref="B4:B12" si="5">SUM(C4:D4)</f>
+        <v>47092.184999999998</v>
+      </c>
+      <c r="C4" s="114">
+        <f t="shared" ref="C4:C11" si="6">1.05*C3</f>
+        <v>42811.077272727271</v>
+      </c>
+      <c r="D4" s="115">
+        <f t="shared" ref="D4:D12" si="7">D3*1.05</f>
+        <v>4281.107727272728</v>
+      </c>
+      <c r="E4" s="129"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="113">
+        <f>B4*7.2/100</f>
         <v>3390.6373200000003</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="35">
-        <f t="shared" ref="K4:K11" si="6">1.05*K3</f>
-        <v>47092.185000000005</v>
-      </c>
-      <c r="L4" s="35">
+      <c r="I4" s="114"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="28">
+        <f>B4-R4</f>
+        <v>43701.547679999996</v>
+      </c>
+      <c r="R4" s="28">
+        <f t="shared" si="0"/>
+        <v>3390.6373200000003</v>
+      </c>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="11">
+        <v>1480</v>
+      </c>
+      <c r="V4" s="37">
+        <v>0.81</v>
+      </c>
+      <c r="W4" s="37">
+        <v>0.82</v>
+      </c>
+      <c r="X4" s="38">
         <f t="shared" si="2"/>
-        <v>45529.685000000005</v>
-      </c>
-      <c r="M4" s="35">
-        <f t="shared" ref="M4:M12" si="7">M3*1.25</f>
-        <v>1562.5</v>
-      </c>
-      <c r="N4" s="121"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="35">
-        <f>K4-R4</f>
-        <v>43701.547680000003</v>
-      </c>
-      <c r="R4" s="35">
-        <f>E4</f>
-        <v>3390.6373200000003</v>
-      </c>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="12">
-        <v>1480</v>
-      </c>
-      <c r="V4" s="44">
-        <v>0.81</v>
-      </c>
-      <c r="W4" s="44">
-        <v>0.82</v>
-      </c>
-      <c r="X4" s="45">
+        <v>983.01600000000008</v>
+      </c>
+      <c r="Y4" s="34">
+        <v>0.17</v>
+      </c>
+      <c r="Z4" s="36">
         <f t="shared" si="3"/>
-        <v>983.01600000000008</v>
-      </c>
-      <c r="Y4" s="41">
-        <v>0.17</v>
-      </c>
-      <c r="Z4" s="43">
+        <v>815.90328</v>
+      </c>
+      <c r="AA4" s="36">
         <f t="shared" si="4"/>
-        <v>815.90328</v>
-      </c>
-      <c r="AA4" s="43">
+        <v>167.11272000000002</v>
+      </c>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>2010</v>
+      </c>
+      <c r="B5" s="113">
         <f t="shared" si="5"/>
-        <v>167.11272000000002</v>
-      </c>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>2010</v>
-      </c>
-      <c r="B5" s="12">
+        <v>49446.794249999999</v>
+      </c>
+      <c r="C5" s="114">
+        <f t="shared" si="6"/>
+        <v>44951.631136363634</v>
+      </c>
+      <c r="D5" s="115">
+        <f t="shared" si="7"/>
+        <v>4495.1631136363649</v>
+      </c>
+      <c r="E5" s="118">
         <v>178</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="E5" s="35">
-        <f t="shared" si="1"/>
-        <v>3560.1691860000005</v>
-      </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12">
+      <c r="F5" s="121"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="113">
+        <f>B5*7.2/100</f>
+        <v>3560.1691859999996</v>
+      </c>
+      <c r="I5" s="114"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="119">
         <v>0.75</v>
       </c>
-      <c r="J5" s="12">
+      <c r="M5" s="149">
         <v>0.8</v>
       </c>
-      <c r="K5" s="35">
-        <f t="shared" si="6"/>
-        <v>49446.794250000006</v>
-      </c>
-      <c r="L5" s="35">
-        <f t="shared" si="2"/>
-        <v>47493.669250000006</v>
-      </c>
-      <c r="M5" s="35">
-        <f t="shared" si="7"/>
-        <v>1953.125</v>
-      </c>
-      <c r="N5" s="121"/>
-      <c r="O5" s="48">
+      <c r="N5" s="107"/>
+      <c r="O5" s="40">
         <v>4.0273972602739724E-2</v>
       </c>
-      <c r="P5" s="48">
+      <c r="P5" s="40">
         <v>4.3150684931506846E-2</v>
       </c>
-      <c r="Q5" s="35">
-        <f>K5-R5</f>
-        <v>45886.625064000007</v>
-      </c>
-      <c r="R5" s="35">
-        <f>E5</f>
-        <v>3560.1691860000005</v>
-      </c>
-      <c r="S5" s="39">
+      <c r="Q5" s="28">
+        <f>B5-R5</f>
+        <v>45886.625064</v>
+      </c>
+      <c r="R5" s="28">
+        <f t="shared" si="0"/>
+        <v>3560.1691859999996</v>
+      </c>
+      <c r="S5" s="32">
         <f t="shared" ref="S5:S11" si="8">ROUND(O5*Q5,0)</f>
         <v>1848</v>
       </c>
-      <c r="T5" s="39">
+      <c r="T5" s="32">
         <f t="shared" ref="T5:T12" si="9">ROUND(P5*R5,0)</f>
         <v>154</v>
       </c>
-      <c r="U5" s="12">
+      <c r="U5" s="11">
         <v>1758</v>
       </c>
-      <c r="V5" s="44">
+      <c r="V5" s="37">
         <v>0.81</v>
       </c>
-      <c r="W5" s="44">
+      <c r="W5" s="37">
         <v>0.82</v>
       </c>
-      <c r="X5" s="45">
+      <c r="X5" s="38">
+        <f t="shared" si="2"/>
+        <v>1167.6635999999999</v>
+      </c>
+      <c r="Y5" s="34">
+        <v>0.17</v>
+      </c>
+      <c r="Z5" s="36">
         <f t="shared" si="3"/>
-        <v>1167.6635999999999</v>
-      </c>
-      <c r="Y5" s="41">
-        <v>0.17</v>
-      </c>
-      <c r="Z5" s="43">
+        <v>969.16078799999991</v>
+      </c>
+      <c r="AA5" s="36">
         <f t="shared" si="4"/>
-        <v>969.16078799999991</v>
-      </c>
-      <c r="AA5" s="43">
+        <v>198.50281199999998</v>
+      </c>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2011</v>
+      </c>
+      <c r="B6" s="113">
         <f t="shared" si="5"/>
-        <v>198.50281199999998</v>
-      </c>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>2011</v>
-      </c>
-      <c r="B6" s="12">
+        <v>51919.133962500004</v>
+      </c>
+      <c r="C6" s="114">
+        <f t="shared" si="6"/>
+        <v>47199.21269318182</v>
+      </c>
+      <c r="D6" s="115">
+        <f t="shared" si="7"/>
+        <v>4719.9212693181835</v>
+      </c>
+      <c r="E6" s="118">
         <v>218</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="E6" s="35">
-        <f t="shared" si="1"/>
-        <v>3738.1776453000011</v>
-      </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="35">
-        <f t="shared" si="6"/>
-        <v>51919.133962500011</v>
-      </c>
-      <c r="L6" s="35">
-        <f t="shared" si="2"/>
-        <v>49477.727712500011</v>
-      </c>
-      <c r="M6" s="35">
-        <f t="shared" si="7"/>
-        <v>2441.40625</v>
-      </c>
-      <c r="N6" s="121"/>
-      <c r="O6" s="48">
+      <c r="F6" s="121"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="113">
+        <f>B6*7.2/100</f>
+        <v>3738.1776453000002</v>
+      </c>
+      <c r="I6" s="114"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="40">
         <v>3.7534246575342468E-2</v>
       </c>
-      <c r="P6" s="48">
+      <c r="P6" s="40">
         <v>4.726027397260274E-2</v>
       </c>
-      <c r="Q6" s="35">
-        <f>K6-R6</f>
-        <v>48180.956317200013</v>
-      </c>
-      <c r="R6" s="35">
-        <f>E6</f>
-        <v>3738.1776453000011</v>
-      </c>
-      <c r="S6" s="39">
+      <c r="Q6" s="28">
+        <f>B6-R6</f>
+        <v>48180.956317200005</v>
+      </c>
+      <c r="R6" s="28">
+        <f t="shared" si="0"/>
+        <v>3738.1776453000002</v>
+      </c>
+      <c r="S6" s="32">
         <f t="shared" si="8"/>
         <v>1808</v>
       </c>
-      <c r="T6" s="39">
+      <c r="T6" s="32">
         <f t="shared" si="9"/>
         <v>177</v>
       </c>
-      <c r="U6" s="12">
+      <c r="U6" s="11">
         <v>1863</v>
       </c>
-      <c r="V6" s="44">
+      <c r="V6" s="37">
         <v>0.81</v>
       </c>
-      <c r="W6" s="44">
+      <c r="W6" s="37">
         <v>0.82</v>
       </c>
-      <c r="X6" s="45">
+      <c r="X6" s="38">
+        <f t="shared" si="2"/>
+        <v>1237.4046000000001</v>
+      </c>
+      <c r="Y6" s="34">
+        <v>0.17</v>
+      </c>
+      <c r="Z6" s="36">
         <f t="shared" si="3"/>
-        <v>1237.4046000000001</v>
-      </c>
-      <c r="Y6" s="41">
-        <v>0.17</v>
-      </c>
-      <c r="Z6" s="43">
+        <v>1027.0458180000001</v>
+      </c>
+      <c r="AA6" s="36">
         <f t="shared" si="4"/>
-        <v>1027.0458180000001</v>
-      </c>
-      <c r="AA6" s="43">
+        <v>210.35878200000002</v>
+      </c>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>2012</v>
+      </c>
+      <c r="B7" s="113">
         <f t="shared" si="5"/>
-        <v>210.35878200000002</v>
-      </c>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>2012</v>
-      </c>
-      <c r="B7" s="12">
+        <v>54515.090660625006</v>
+      </c>
+      <c r="C7" s="114">
+        <f t="shared" si="6"/>
+        <v>49559.173327840916</v>
+      </c>
+      <c r="D7" s="115">
+        <f t="shared" si="7"/>
+        <v>4955.9173327840927</v>
+      </c>
+      <c r="E7" s="118">
         <v>200</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="E7" s="35">
-        <f t="shared" si="1"/>
-        <v>3925.0865275650012</v>
-      </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="12">
+      <c r="F7" s="121"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="113">
+        <f>B7*7.2/100</f>
+        <v>3925.0865275650008</v>
+      </c>
+      <c r="I7" s="114"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="118">
         <v>0.91200000000000003</v>
       </c>
-      <c r="I7" s="12">
+      <c r="L7" s="119">
         <v>0.82</v>
       </c>
-      <c r="J7" s="12">
+      <c r="M7" s="149">
         <v>0.88</v>
       </c>
-      <c r="K7" s="35">
-        <f t="shared" si="6"/>
-        <v>54515.090660625014</v>
-      </c>
-      <c r="L7" s="35">
-        <f t="shared" si="2"/>
-        <v>51463.332848125014</v>
-      </c>
-      <c r="M7" s="35">
-        <f t="shared" si="7"/>
-        <v>3051.7578125</v>
-      </c>
-      <c r="N7" s="121"/>
-      <c r="O7" s="48">
+      <c r="N7" s="107"/>
+      <c r="O7" s="40">
         <v>4.876712328767123E-2</v>
       </c>
-      <c r="P7" s="48">
+      <c r="P7" s="40">
         <v>5.3835616438356167E-2</v>
       </c>
-      <c r="Q7" s="35">
-        <f>K7-R7</f>
-        <v>50590.004133060014</v>
-      </c>
-      <c r="R7" s="35">
-        <f>E7</f>
-        <v>3925.0865275650012</v>
-      </c>
-      <c r="S7" s="39">
+      <c r="Q7" s="28">
+        <f>B7-R7</f>
+        <v>50590.004133060007</v>
+      </c>
+      <c r="R7" s="28">
+        <f t="shared" si="0"/>
+        <v>3925.0865275650008</v>
+      </c>
+      <c r="S7" s="32">
         <f t="shared" si="8"/>
         <v>2467</v>
       </c>
-      <c r="T7" s="39">
+      <c r="T7" s="32">
         <f t="shared" si="9"/>
         <v>211</v>
       </c>
-      <c r="U7" s="12">
+      <c r="U7" s="11">
         <v>2436</v>
       </c>
-      <c r="V7" s="44">
+      <c r="V7" s="37">
         <v>0.81</v>
       </c>
-      <c r="W7" s="44">
+      <c r="W7" s="37">
         <v>0.82</v>
       </c>
-      <c r="X7" s="45">
+      <c r="X7" s="38">
+        <f t="shared" si="2"/>
+        <v>1617.9911999999999</v>
+      </c>
+      <c r="Y7" s="34">
+        <v>0.17</v>
+      </c>
+      <c r="Z7" s="36">
         <f t="shared" si="3"/>
-        <v>1617.9911999999999</v>
-      </c>
-      <c r="Y7" s="41">
-        <v>0.17</v>
-      </c>
-      <c r="Z7" s="43">
+        <v>1342.9326959999999</v>
+      </c>
+      <c r="AA7" s="36">
         <f t="shared" si="4"/>
-        <v>1342.9326959999999</v>
-      </c>
-      <c r="AA7" s="43">
+        <v>275.05850400000003</v>
+      </c>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>2013</v>
+      </c>
+      <c r="B8" s="113">
         <f t="shared" si="5"/>
-        <v>275.05850400000003</v>
-      </c>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>2013</v>
-      </c>
-      <c r="B8" s="12">
+        <v>57240.845193656263</v>
+      </c>
+      <c r="C8" s="114">
+        <f t="shared" si="6"/>
+        <v>52037.131994232965</v>
+      </c>
+      <c r="D8" s="115">
+        <f t="shared" si="7"/>
+        <v>5203.7131994232977</v>
+      </c>
+      <c r="E8" s="118">
         <v>218</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="E8" s="35">
-        <f t="shared" si="1"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="113">
+        <f>B8*7.2/100</f>
         <v>4121.3408539432512</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="34">
+      <c r="I8" s="114"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="123">
         <v>0.86</v>
       </c>
-      <c r="J8" s="12">
+      <c r="M8" s="149">
         <v>0.9</v>
       </c>
-      <c r="K8" s="35">
-        <f t="shared" si="6"/>
-        <v>57240.845193656263</v>
-      </c>
-      <c r="L8" s="35">
-        <f t="shared" si="2"/>
-        <v>53426.147928031263</v>
-      </c>
-      <c r="M8" s="35">
-        <f t="shared" si="7"/>
-        <v>3814.697265625</v>
-      </c>
-      <c r="N8" s="121"/>
-      <c r="O8" s="48">
+      <c r="N8" s="107"/>
+      <c r="O8" s="40">
         <v>5.2876712328767124E-2</v>
       </c>
-      <c r="P8" s="48">
+      <c r="P8" s="40">
         <v>6.2671232876712321E-2</v>
       </c>
-      <c r="Q8" s="35">
-        <f>K8-R8</f>
+      <c r="Q8" s="28">
+        <f>B8-R8</f>
         <v>53119.504339713014</v>
       </c>
-      <c r="R8" s="35">
-        <f>E8</f>
+      <c r="R8" s="28">
+        <f t="shared" si="0"/>
         <v>4121.3408539432512</v>
       </c>
-      <c r="S8" s="39">
+      <c r="S8" s="32">
         <f t="shared" si="8"/>
         <v>2809</v>
       </c>
-      <c r="T8" s="39">
+      <c r="T8" s="32">
         <f t="shared" si="9"/>
         <v>258</v>
       </c>
-      <c r="U8" s="12">
+      <c r="U8" s="11">
         <v>2978</v>
       </c>
-      <c r="V8" s="44">
+      <c r="V8" s="37">
         <v>0.81</v>
       </c>
-      <c r="W8" s="44">
+      <c r="W8" s="37">
         <v>0.82</v>
       </c>
-      <c r="X8" s="45">
+      <c r="X8" s="38">
+        <f t="shared" si="2"/>
+        <v>1977.9876000000002</v>
+      </c>
+      <c r="Y8" s="34">
+        <v>0.17</v>
+      </c>
+      <c r="Z8" s="36">
         <f t="shared" si="3"/>
-        <v>1977.9876000000002</v>
-      </c>
-      <c r="Y8" s="41">
-        <v>0.17</v>
-      </c>
-      <c r="Z8" s="43">
+        <v>1641.7297080000001</v>
+      </c>
+      <c r="AA8" s="36">
         <f t="shared" si="4"/>
-        <v>1641.7297080000001</v>
-      </c>
-      <c r="AA8" s="43">
+        <v>336.25789200000003</v>
+      </c>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="113">
         <f t="shared" si="5"/>
-        <v>336.25789200000003</v>
-      </c>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>2014</v>
-      </c>
-      <c r="B9" s="12">
+        <v>60102.887453339077</v>
+      </c>
+      <c r="C9" s="114">
+        <f t="shared" si="6"/>
+        <v>54638.988593944618</v>
+      </c>
+      <c r="D9" s="115">
+        <f t="shared" si="7"/>
+        <v>5463.8988593944632</v>
+      </c>
+      <c r="E9" s="118">
         <v>219</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="E9" s="35">
-        <f t="shared" si="1"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="113">
+        <f>B9*7.2/100</f>
         <v>4327.407896640414</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="12">
+      <c r="I9" s="114"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="118">
         <v>0.88</v>
       </c>
-      <c r="I9" s="34">
+      <c r="L9" s="123">
         <v>0.89</v>
       </c>
-      <c r="J9" s="34">
+      <c r="M9" s="151">
         <v>0.9</v>
       </c>
-      <c r="K9" s="35">
-        <f t="shared" si="6"/>
-        <v>60102.887453339077</v>
-      </c>
-      <c r="L9" s="35">
-        <f t="shared" si="2"/>
-        <v>55334.515871307827</v>
-      </c>
-      <c r="M9" s="35">
-        <f t="shared" si="7"/>
-        <v>4768.37158203125</v>
-      </c>
-      <c r="N9" s="121"/>
-      <c r="O9" s="48">
+      <c r="N9" s="107"/>
+      <c r="O9" s="40">
         <v>5.1506849315068493E-2</v>
       </c>
-      <c r="P9" s="48">
+      <c r="P9" s="40">
         <v>5.321917808219178E-2</v>
       </c>
-      <c r="Q9" s="35">
-        <f>K9-R9</f>
+      <c r="Q9" s="28">
+        <f>B9-R9</f>
         <v>55775.479556698665</v>
       </c>
-      <c r="R9" s="35">
-        <f>E9</f>
+      <c r="R9" s="28">
+        <f t="shared" si="0"/>
         <v>4327.407896640414</v>
       </c>
-      <c r="S9" s="39">
+      <c r="S9" s="32">
         <f t="shared" si="8"/>
         <v>2873</v>
       </c>
-      <c r="T9" s="39">
+      <c r="T9" s="32">
         <f t="shared" si="9"/>
         <v>230</v>
       </c>
-      <c r="U9" s="12">
+      <c r="U9" s="11">
         <v>3269</v>
       </c>
-      <c r="V9" s="44">
+      <c r="V9" s="37">
         <v>0.81</v>
       </c>
-      <c r="W9" s="44">
+      <c r="W9" s="37">
         <v>0.82</v>
       </c>
-      <c r="X9" s="45">
+      <c r="X9" s="38">
+        <f t="shared" si="2"/>
+        <v>2171.2698</v>
+      </c>
+      <c r="Y9" s="34">
+        <v>0.17</v>
+      </c>
+      <c r="Z9" s="36">
         <f t="shared" si="3"/>
-        <v>2171.2698</v>
-      </c>
-      <c r="Y9" s="41">
-        <v>0.17</v>
-      </c>
-      <c r="Z9" s="43">
+        <v>1802.1539339999999</v>
+      </c>
+      <c r="AA9" s="36">
         <f t="shared" si="4"/>
-        <v>1802.1539339999999</v>
-      </c>
-      <c r="AA9" s="43">
+        <v>369.11586600000004</v>
+      </c>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>2015</v>
+      </c>
+      <c r="B10" s="113">
         <f t="shared" si="5"/>
-        <v>369.11586600000004</v>
-      </c>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>2015</v>
-      </c>
-      <c r="B10" s="12">
+        <v>63108.031826006038</v>
+      </c>
+      <c r="C10" s="114">
+        <f t="shared" si="6"/>
+        <v>57370.938023641851</v>
+      </c>
+      <c r="D10" s="115">
+        <f t="shared" si="7"/>
+        <v>5737.0938023641866</v>
+      </c>
+      <c r="E10" s="118">
         <v>206</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="E10" s="35">
-        <f t="shared" si="1"/>
-        <v>4543.7782914724339</v>
-      </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="12">
+      <c r="F10" s="121"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="113">
+        <f>B10*7.2/100</f>
+        <v>4543.7782914724348</v>
+      </c>
+      <c r="I10" s="114"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="118">
         <v>0.88</v>
       </c>
-      <c r="I10" s="12">
+      <c r="L10" s="119">
         <v>0.92</v>
       </c>
-      <c r="J10" s="12">
+      <c r="M10" s="149">
         <v>0.92</v>
       </c>
-      <c r="K10" s="35">
-        <f t="shared" si="6"/>
-        <v>63108.03182600603</v>
-      </c>
-      <c r="L10" s="35">
-        <f t="shared" si="2"/>
-        <v>57147.567348466968</v>
-      </c>
-      <c r="M10" s="35">
-        <f t="shared" si="7"/>
-        <v>5960.4644775390625</v>
-      </c>
-      <c r="N10" s="121"/>
-      <c r="O10" s="48">
+      <c r="N10" s="107"/>
+      <c r="O10" s="40">
         <v>6.6575342465753418E-2</v>
       </c>
-      <c r="P10" s="48">
+      <c r="P10" s="40">
         <v>6.7191780821917804E-2</v>
       </c>
-      <c r="Q10" s="35">
-        <f>K10-R10</f>
-        <v>58564.253534533593</v>
-      </c>
-      <c r="R10" s="35">
-        <f>E10</f>
-        <v>4543.7782914724339</v>
-      </c>
-      <c r="S10" s="39">
+      <c r="Q10" s="28">
+        <f>B10-R10</f>
+        <v>58564.2535345336</v>
+      </c>
+      <c r="R10" s="28">
+        <f t="shared" si="0"/>
+        <v>4543.7782914724348</v>
+      </c>
+      <c r="S10" s="32">
         <f t="shared" si="8"/>
         <v>3899</v>
       </c>
-      <c r="T10" s="39">
+      <c r="T10" s="32">
         <f t="shared" si="9"/>
         <v>305</v>
       </c>
-      <c r="U10" s="12">
+      <c r="U10" s="11">
         <v>4865</v>
       </c>
-      <c r="V10" s="44">
+      <c r="V10" s="37">
         <v>0.81</v>
       </c>
-      <c r="W10" s="44">
+      <c r="W10" s="37">
         <v>0.82</v>
       </c>
-      <c r="X10" s="45">
+      <c r="X10" s="38">
+        <f t="shared" si="2"/>
+        <v>3231.3330000000001</v>
+      </c>
+      <c r="Y10" s="35">
+        <v>0.17</v>
+      </c>
+      <c r="Z10" s="36">
         <f t="shared" si="3"/>
-        <v>3231.3330000000001</v>
-      </c>
-      <c r="Y10" s="42">
-        <v>0.17</v>
-      </c>
-      <c r="Z10" s="43">
+        <v>2682.00639</v>
+      </c>
+      <c r="AA10" s="36">
         <f t="shared" si="4"/>
-        <v>2682.00639</v>
-      </c>
-      <c r="AA10" s="43">
+        <v>549.32661000000007</v>
+      </c>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="113">
         <f t="shared" si="5"/>
-        <v>549.32661000000007</v>
-      </c>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>2016</v>
-      </c>
-      <c r="B11" s="12">
+        <v>66263.43341730634</v>
+      </c>
+      <c r="C11" s="114">
+        <f t="shared" si="6"/>
+        <v>60239.484924823948</v>
+      </c>
+      <c r="D11" s="115">
+        <f t="shared" si="7"/>
+        <v>6023.9484924823964</v>
+      </c>
+      <c r="E11" s="118">
         <v>233</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="E11" s="35">
-        <f t="shared" si="1"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="113">
+        <f>B11*7.2/100</f>
         <v>4770.9672060460571</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="12">
+      <c r="I11" s="114"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="118">
         <v>0.89</v>
       </c>
-      <c r="I11" s="12">
+      <c r="L11" s="119">
         <v>0.95</v>
       </c>
-      <c r="J11" s="12">
+      <c r="M11" s="149">
         <v>0.94</v>
       </c>
-      <c r="K11" s="35">
-        <f t="shared" si="6"/>
-        <v>66263.43341730634</v>
-      </c>
-      <c r="L11" s="35">
-        <f t="shared" si="2"/>
-        <v>58812.852820382512</v>
-      </c>
-      <c r="M11" s="35">
-        <f t="shared" si="7"/>
-        <v>7450.5805969238281</v>
-      </c>
-      <c r="N11" s="121"/>
-      <c r="O11" s="48">
+      <c r="N11" s="107"/>
+      <c r="O11" s="40">
         <v>6.3287671232876708E-2</v>
       </c>
-      <c r="P11" s="48">
+      <c r="P11" s="40">
         <v>6.9246575342465755E-2</v>
       </c>
-      <c r="Q11" s="35">
-        <f>K11-R11</f>
+      <c r="Q11" s="28">
+        <f>B11-R11</f>
         <v>61492.466211260282</v>
       </c>
-      <c r="R11" s="35">
-        <f>E11</f>
+      <c r="R11" s="28">
+        <f t="shared" si="0"/>
         <v>4770.9672060460571</v>
       </c>
-      <c r="S11" s="39">
+      <c r="S11" s="32">
         <f t="shared" si="8"/>
         <v>3892</v>
       </c>
-      <c r="T11" s="39">
+      <c r="T11" s="32">
         <f t="shared" si="9"/>
         <v>330</v>
       </c>
-      <c r="U11" s="12">
+      <c r="U11" s="11">
         <v>6265</v>
       </c>
-      <c r="V11" s="44">
+      <c r="V11" s="37">
         <v>0.81</v>
       </c>
-      <c r="W11" s="44">
+      <c r="W11" s="37">
         <v>0.82</v>
       </c>
-      <c r="X11" s="45">
+      <c r="X11" s="38">
+        <f t="shared" si="2"/>
+        <v>4161.2130000000006</v>
+      </c>
+      <c r="Y11" s="35">
+        <v>0.13</v>
+      </c>
+      <c r="Z11" s="36">
         <f t="shared" si="3"/>
-        <v>4161.2130000000006</v>
-      </c>
-      <c r="Y11" s="42">
-        <v>0.13</v>
-      </c>
-      <c r="Z11" s="43">
+        <v>3620.2553100000005</v>
+      </c>
+      <c r="AA11" s="36">
         <f t="shared" si="4"/>
-        <v>3620.2553100000005</v>
-      </c>
-      <c r="AA11" s="43">
+        <v>540.95769000000007</v>
+      </c>
+      <c r="AB11" s="42">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B12" s="113">
         <f t="shared" si="5"/>
-        <v>540.95769000000007</v>
-      </c>
-      <c r="AB11" s="51">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>2017</v>
-      </c>
-      <c r="B12" s="12">
+        <v>69576.605088171666</v>
+      </c>
+      <c r="C12" s="114">
+        <f>1.05*C11</f>
+        <v>63251.459171065151</v>
+      </c>
+      <c r="D12" s="115">
+        <f t="shared" si="7"/>
+        <v>6325.1459171065162</v>
+      </c>
+      <c r="E12" s="118">
         <v>194</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="E12" s="35">
-        <f t="shared" si="1"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="113">
+        <f>B12*7.2/100</f>
         <v>5009.5155663483602</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="11">
+      <c r="I12" s="114"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="120">
         <v>0.9</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="35">
-        <f>1.05*K11</f>
-        <v>69576.605088171666</v>
-      </c>
-      <c r="L12" s="35">
-        <f t="shared" si="2"/>
-        <v>60263.37934201688</v>
-      </c>
-      <c r="M12" s="35">
-        <f t="shared" si="7"/>
-        <v>9313.2257461547852</v>
-      </c>
-      <c r="N12" s="121"/>
-      <c r="O12" s="48" t="e">
+      <c r="L12" s="121"/>
+      <c r="M12" s="150"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="40" t="e">
         <f>0.01*(#REF!*#REF!+#REF!*#REF!)/(#REF!+#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="P12" s="48">
+      <c r="P12" s="40">
         <v>4.6699999999999998E-2</v>
       </c>
-      <c r="Q12" s="35">
-        <f>K12-R12</f>
+      <c r="Q12" s="28">
+        <f>B12-R12</f>
         <v>64567.089521823305</v>
       </c>
-      <c r="R12" s="35">
-        <f>E12</f>
+      <c r="R12" s="28">
+        <f t="shared" si="0"/>
         <v>5009.5155663483602</v>
       </c>
-      <c r="S12" s="14"/>
-      <c r="T12" s="39">
+      <c r="S12" s="12"/>
+      <c r="T12" s="32">
         <f t="shared" si="9"/>
         <v>234</v>
       </c>
-      <c r="U12" s="12">
+      <c r="U12" s="11">
         <v>7289</v>
       </c>
-      <c r="V12" s="44">
+      <c r="V12" s="37">
         <v>0.81</v>
       </c>
-      <c r="W12" s="44">
+      <c r="W12" s="37">
         <v>0.7</v>
       </c>
-      <c r="X12" s="45">
+      <c r="X12" s="38">
+        <f t="shared" si="2"/>
+        <v>4132.8630000000003</v>
+      </c>
+      <c r="Y12" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="Z12" s="36">
         <f t="shared" si="3"/>
-        <v>4132.8630000000003</v>
-      </c>
-      <c r="Y12" s="41">
-        <v>0.1</v>
-      </c>
-      <c r="Z12" s="43">
+        <v>3719.5767000000001</v>
+      </c>
+      <c r="AA12" s="36">
         <f t="shared" si="4"/>
-        <v>3719.5767000000001</v>
-      </c>
-      <c r="AA12" s="43">
-        <f t="shared" si="5"/>
         <v>413.28630000000004</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>2018</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="12">
+      <c r="B13" s="116"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="118">
         <v>0.9</v>
       </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="121"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="D14" s="11"/>
-      <c r="Q14" s="47"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="152"/>
+      <c r="N13" s="146"/>
+    </row>
+    <row r="14" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="142">
+        <v>2019</v>
+      </c>
+      <c r="B14" s="126"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="141"/>
+      <c r="L14" s="145"/>
+      <c r="M14" s="153"/>
+      <c r="N14" s="146"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="D15" s="11"/>
-      <c r="Q15" s="47"/>
+      <c r="G15" s="10"/>
+      <c r="Q15" s="147"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="D16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-    </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-    </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-    </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-    </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-    </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-    </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="N18" s="10"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="N21" s="10"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="N22" s="10"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="N24" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4305,1370 +4813,1625 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="154"/>
+      <c r="B1" s="155" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="156" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="156" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="171" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="156" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="157" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="158" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="159">
+        <v>1</v>
+      </c>
+      <c r="C2" s="160">
+        <v>1</v>
+      </c>
+      <c r="D2" s="160">
+        <v>1</v>
+      </c>
+      <c r="E2" s="176">
+        <v>1</v>
+      </c>
+      <c r="F2" s="160">
+        <v>1</v>
+      </c>
+      <c r="G2" s="161">
+        <v>1</v>
+      </c>
+      <c r="I2" s="170" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="170"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="162" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="163">
+        <v>1</v>
+      </c>
+      <c r="C3" s="164">
+        <v>1</v>
+      </c>
+      <c r="D3" s="164">
+        <v>1</v>
+      </c>
+      <c r="E3" s="174">
+        <v>1</v>
+      </c>
+      <c r="F3" s="164">
+        <v>1</v>
+      </c>
+      <c r="G3" s="165">
+        <v>1</v>
+      </c>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="170"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="170"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="162" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="163">
+        <v>1</v>
+      </c>
+      <c r="C4" s="164">
+        <v>1</v>
+      </c>
+      <c r="D4" s="164">
+        <v>1</v>
+      </c>
+      <c r="E4" s="174">
+        <v>1</v>
+      </c>
+      <c r="F4" s="164">
+        <v>1</v>
+      </c>
+      <c r="G4" s="165">
+        <v>1</v>
+      </c>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="170"/>
+      <c r="L4" s="170"/>
+      <c r="M4" s="170"/>
+      <c r="N4" s="170"/>
+      <c r="O4" s="170"/>
+      <c r="P4" s="170"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="172" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="173">
+        <v>1</v>
+      </c>
+      <c r="C5" s="174">
+        <v>1</v>
+      </c>
+      <c r="D5" s="174">
+        <v>1</v>
+      </c>
+      <c r="E5" s="174">
+        <v>1</v>
+      </c>
+      <c r="F5" s="174">
+        <v>1</v>
+      </c>
+      <c r="G5" s="175">
+        <v>1</v>
+      </c>
+      <c r="I5" s="170"/>
+      <c r="J5" s="170"/>
+      <c r="K5" s="170"/>
+      <c r="L5" s="170"/>
+      <c r="M5" s="170"/>
+      <c r="N5" s="170"/>
+      <c r="O5" s="170"/>
+      <c r="P5" s="170"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="162" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="163">
+        <v>1</v>
+      </c>
+      <c r="C6" s="164">
+        <v>1</v>
+      </c>
+      <c r="D6" s="164">
+        <v>1</v>
+      </c>
+      <c r="E6" s="174">
+        <v>1</v>
+      </c>
+      <c r="F6" s="164">
+        <v>1</v>
+      </c>
+      <c r="G6" s="165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="166" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="167">
+        <v>1</v>
+      </c>
+      <c r="C7" s="168">
+        <v>1</v>
+      </c>
+      <c r="D7" s="168">
+        <v>1</v>
+      </c>
+      <c r="E7" s="177">
+        <v>1</v>
+      </c>
+      <c r="F7" s="168">
+        <v>1</v>
+      </c>
+      <c r="G7" s="169">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I2:P5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK34"/>
+  <dimension ref="A1:AL34"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="69" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="69" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="69" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="69" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="69" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="69" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="69" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="16" style="69" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="69" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="15" style="69" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="69" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.140625" style="69" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.85546875" style="69" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="28" style="69" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.85546875" style="69" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28" style="69" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="28" style="69" customWidth="1"/>
-    <col min="31" max="31" width="13.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15" style="69" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.85546875" style="69" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15" style="69" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11" style="69" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="60" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="60" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="60" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="16" style="60" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="15" style="60" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28" style="60" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="28" style="60" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="28" style="60" customWidth="1"/>
+    <col min="32" max="32" width="13.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15" style="60" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15" style="60" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11" style="60" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="H1" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="75" t="s">
+      <c r="L1" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="76" t="s">
+      <c r="M1" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="109" t="s">
+      <c r="N1" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="114" t="s">
+      <c r="O1" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="76" t="s">
+      <c r="P1" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="77" t="s">
+      <c r="Q1" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="75" t="s">
+      <c r="R1" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="76" t="s">
+      <c r="S1" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="S1" s="76" t="s">
+      <c r="T1" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="76" t="s">
+      <c r="U1" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="U1" s="76" t="s">
+      <c r="V1" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="77" t="s">
+      <c r="W1" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="W1" s="75" t="s">
+      <c r="X1" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="X1" s="76" t="s">
+      <c r="Y1" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="Y1" s="77" t="s">
+      <c r="Z1" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="Z1" s="75" t="s">
+      <c r="AA1" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="AA1" s="76" t="s">
+      <c r="AB1" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="AB1" s="77" t="s">
+      <c r="AC1" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="AC1" s="105" t="s">
+      <c r="AD1" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="AD1" s="105" t="s">
+      <c r="AE1" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="AE1" s="90" t="s">
+      <c r="AF1" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="AF1" s="90" t="s">
+      <c r="AG1" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="AG1" s="91" t="s">
+      <c r="AH1" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="AH1" s="91" t="s">
+      <c r="AI1" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="AI1" s="91" t="s">
+      <c r="AJ1" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="AJ1" s="91" t="s">
+      <c r="AK1" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="AK1" s="92" t="s">
+      <c r="AL1" s="83" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="78" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="E2" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="78" t="s">
+      <c r="I2" s="69"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="79" t="s">
+      <c r="M2" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="110" t="s">
+      <c r="N2" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="N2" s="115" t="s">
+      <c r="O2" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="79" t="s">
+      <c r="P2" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="80" t="s">
+      <c r="Q2" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="78" t="s">
+      <c r="R2" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="R2" s="79" t="s">
+      <c r="S2" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="S2" s="79" t="s">
+      <c r="T2" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="T2" s="79" t="s">
+      <c r="U2" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="U2" s="79" t="s">
+      <c r="V2" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="V2" s="80" t="s">
+      <c r="W2" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="W2" s="78"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="80"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93" t="s">
+      <c r="X2" s="69"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="109"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="AG2" s="94" t="s">
+      <c r="AH2" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="AH2" s="94" t="s">
+      <c r="AI2" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="AI2" s="94" t="s">
+      <c r="AJ2" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="AJ2" s="94" t="s">
+      <c r="AK2" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="AK2" s="95" t="s">
+      <c r="AL2" s="86" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="78" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="F3" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="79" t="s">
+      <c r="G3" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="H3" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="78" t="s">
+      <c r="I3" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="79" t="s">
+      <c r="J3" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="31"/>
+      <c r="L3" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="110" t="s">
+      <c r="M3" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="115" t="s">
+      <c r="N3" s="97" t="s">
+        <v>97</v>
+      </c>
+      <c r="O3" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="79" t="s">
+      <c r="P3" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="P3" s="80" t="s">
+      <c r="Q3" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="Q3" s="78" t="s">
+      <c r="R3" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="R3" s="79" t="s">
+      <c r="S3" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="S3" s="79" t="s">
+      <c r="T3" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="T3" s="79" t="s">
+      <c r="U3" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="U3" s="79" t="s">
+      <c r="V3" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="V3" s="80" t="s">
+      <c r="W3" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="W3" s="78" t="s">
+      <c r="X3" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="X3" s="79" t="s">
+      <c r="Y3" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="Y3" s="80" t="s">
+      <c r="Z3" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="Z3" s="78" t="s">
+      <c r="AA3" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="AA3" s="79" t="s">
+      <c r="AB3" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="AB3" s="80" t="s">
+      <c r="AC3" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="AE3" s="93" t="s">
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="AF3" s="93"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="94"/>
-      <c r="AK3" s="95"/>
-    </row>
-    <row r="4" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37">
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="85"/>
+      <c r="AI3" s="85"/>
+      <c r="AJ3" s="85"/>
+      <c r="AK3" s="85"/>
+      <c r="AL3" s="86"/>
+    </row>
+    <row r="4" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
         <v>2000</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="29">
         <v>0.13</v>
       </c>
-      <c r="C4" s="81">
+      <c r="C4" s="72">
         <v>1</v>
       </c>
-      <c r="D4" s="82">
+      <c r="D4" s="73">
         <v>1</v>
       </c>
-      <c r="E4" s="83">
+      <c r="E4" s="74">
         <v>0.03</v>
       </c>
-      <c r="F4" s="81">
+      <c r="F4" s="72">
         <v>1</v>
       </c>
-      <c r="G4" s="82">
+      <c r="G4" s="73">
         <v>1</v>
       </c>
-      <c r="H4" s="83">
+      <c r="H4" s="74">
         <v>0.03</v>
       </c>
-      <c r="I4" s="74"/>
+      <c r="I4" s="72"/>
       <c r="J4" s="74">
+        <v>0</v>
+      </c>
+      <c r="K4" s="65">
         <v>0.7</v>
       </c>
-      <c r="K4" s="81">
+      <c r="L4" s="72">
         <v>1</v>
       </c>
-      <c r="L4" s="82">
+      <c r="M4" s="73">
         <v>0</v>
       </c>
-      <c r="M4" s="111">
+      <c r="N4" s="98">
         <v>0</v>
       </c>
-      <c r="N4" s="116">
+      <c r="O4" s="103">
         <v>1</v>
       </c>
-      <c r="O4" s="82">
+      <c r="P4" s="73">
         <v>0</v>
       </c>
-      <c r="P4" s="83">
+      <c r="Q4" s="74">
         <v>0</v>
       </c>
-      <c r="Q4" s="81">
+      <c r="R4" s="72">
         <v>1</v>
       </c>
-      <c r="R4" s="82">
+      <c r="S4" s="73">
         <v>10</v>
       </c>
-      <c r="S4" s="82">
+      <c r="T4" s="73">
         <v>0.5</v>
       </c>
-      <c r="T4" s="82">
+      <c r="U4" s="73">
         <v>4</v>
       </c>
-      <c r="U4" s="82">
+      <c r="V4" s="73">
         <f>3/12</f>
         <v>0.25</v>
       </c>
-      <c r="V4" s="83">
+      <c r="W4" s="74">
         <f>3/12</f>
         <v>0.25</v>
       </c>
-      <c r="W4" s="81"/>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="83"/>
-      <c r="Z4" s="81">
+      <c r="X4" s="72"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="72">
         <v>1</v>
       </c>
-      <c r="AA4" s="82">
+      <c r="AB4" s="73">
         <v>1</v>
       </c>
-      <c r="AB4" s="83">
+      <c r="AC4" s="74">
         <v>0.04</v>
       </c>
-      <c r="AC4" s="106">
+      <c r="AD4" s="110">
         <v>1</v>
       </c>
-      <c r="AD4" s="106">
+      <c r="AE4" s="110">
         <v>1</v>
       </c>
-      <c r="AE4" s="96">
+      <c r="AF4" s="87">
         <v>1</v>
       </c>
-      <c r="AF4" s="96">
+      <c r="AG4" s="87">
         <v>0</v>
       </c>
-      <c r="AG4" s="97">
+      <c r="AH4" s="88">
         <v>0</v>
       </c>
-      <c r="AH4" s="97">
+      <c r="AI4" s="88">
         <v>0</v>
       </c>
-      <c r="AI4" s="97">
+      <c r="AJ4" s="88">
         <v>0</v>
       </c>
-      <c r="AJ4" s="97">
+      <c r="AK4" s="88">
         <v>0</v>
       </c>
-      <c r="AK4" s="98">
+      <c r="AL4" s="89">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38">
+    <row r="5" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
         <v>2001</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="85"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="86"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="86"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="85"/>
-      <c r="AB5" s="86"/>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="99"/>
-      <c r="AF5" s="99"/>
-      <c r="AG5" s="100"/>
-      <c r="AH5" s="100"/>
-      <c r="AI5" s="100"/>
-      <c r="AJ5" s="100"/>
-      <c r="AK5" s="101"/>
-    </row>
-    <row r="6" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
+      <c r="B5" s="44"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="75"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="111"/>
+      <c r="AE5" s="111"/>
+      <c r="AF5" s="90"/>
+      <c r="AG5" s="90"/>
+      <c r="AH5" s="91"/>
+      <c r="AI5" s="91"/>
+      <c r="AJ5" s="91"/>
+      <c r="AK5" s="91"/>
+      <c r="AL5" s="92"/>
+    </row>
+    <row r="6" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
         <v>2002</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="117"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="85"/>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
-      <c r="U6" s="85"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="85"/>
-      <c r="Y6" s="86"/>
-      <c r="Z6" s="84"/>
-      <c r="AA6" s="85"/>
-      <c r="AB6" s="86"/>
-      <c r="AC6" s="107"/>
-      <c r="AD6" s="107"/>
-      <c r="AE6" s="99"/>
-      <c r="AF6" s="99"/>
-      <c r="AG6" s="100"/>
-      <c r="AH6" s="100"/>
-      <c r="AI6" s="100"/>
-      <c r="AJ6" s="100"/>
-      <c r="AK6" s="101"/>
-    </row>
-    <row r="7" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38">
+      <c r="B6" s="44"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="77"/>
+      <c r="AD6" s="111"/>
+      <c r="AE6" s="111"/>
+      <c r="AF6" s="90"/>
+      <c r="AG6" s="90"/>
+      <c r="AH6" s="91"/>
+      <c r="AI6" s="91"/>
+      <c r="AJ6" s="91"/>
+      <c r="AK6" s="91"/>
+      <c r="AL6" s="92"/>
+    </row>
+    <row r="7" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
         <v>2003</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="85"/>
-      <c r="T7" s="85"/>
-      <c r="U7" s="85"/>
-      <c r="V7" s="86"/>
-      <c r="W7" s="84"/>
-      <c r="X7" s="85"/>
-      <c r="Y7" s="86"/>
-      <c r="Z7" s="84"/>
-      <c r="AA7" s="85"/>
-      <c r="AB7" s="86"/>
-      <c r="AC7" s="107"/>
-      <c r="AD7" s="107"/>
-      <c r="AE7" s="99"/>
-      <c r="AF7" s="99"/>
-      <c r="AG7" s="100"/>
-      <c r="AH7" s="100"/>
-      <c r="AI7" s="100"/>
-      <c r="AJ7" s="100"/>
-      <c r="AK7" s="101"/>
-    </row>
-    <row r="8" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38">
+      <c r="B7" s="44"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="76"/>
+      <c r="U7" s="76"/>
+      <c r="V7" s="76"/>
+      <c r="W7" s="77"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="76"/>
+      <c r="Z7" s="77"/>
+      <c r="AA7" s="75"/>
+      <c r="AB7" s="76"/>
+      <c r="AC7" s="77"/>
+      <c r="AD7" s="111"/>
+      <c r="AE7" s="111"/>
+      <c r="AF7" s="90"/>
+      <c r="AG7" s="90"/>
+      <c r="AH7" s="91"/>
+      <c r="AI7" s="91"/>
+      <c r="AJ7" s="91"/>
+      <c r="AK7" s="91"/>
+      <c r="AL7" s="92"/>
+    </row>
+    <row r="8" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
         <v>2004</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="85"/>
-      <c r="U8" s="85"/>
-      <c r="V8" s="86"/>
-      <c r="W8" s="84"/>
-      <c r="X8" s="85"/>
-      <c r="Y8" s="86"/>
-      <c r="Z8" s="84"/>
-      <c r="AA8" s="85"/>
-      <c r="AB8" s="86"/>
-      <c r="AC8" s="107"/>
-      <c r="AD8" s="107"/>
-      <c r="AE8" s="99"/>
-      <c r="AF8" s="99"/>
-      <c r="AG8" s="100"/>
-      <c r="AH8" s="100"/>
-      <c r="AI8" s="100"/>
-      <c r="AJ8" s="100"/>
-      <c r="AK8" s="101"/>
-    </row>
-    <row r="9" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38">
+      <c r="B8" s="44"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="76"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="75"/>
+      <c r="Y8" s="76"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="75"/>
+      <c r="AB8" s="76"/>
+      <c r="AC8" s="77"/>
+      <c r="AD8" s="111"/>
+      <c r="AE8" s="111"/>
+      <c r="AF8" s="90"/>
+      <c r="AG8" s="90"/>
+      <c r="AH8" s="91"/>
+      <c r="AI8" s="91"/>
+      <c r="AJ8" s="91"/>
+      <c r="AK8" s="91"/>
+      <c r="AL8" s="92"/>
+    </row>
+    <row r="9" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
         <v>2005</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="85"/>
-      <c r="S9" s="85"/>
-      <c r="T9" s="85"/>
-      <c r="U9" s="85"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="84"/>
-      <c r="X9" s="85"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="84"/>
-      <c r="AA9" s="85"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="107"/>
-      <c r="AD9" s="107"/>
-      <c r="AE9" s="99"/>
-      <c r="AF9" s="99"/>
-      <c r="AG9" s="100"/>
-      <c r="AH9" s="100"/>
-      <c r="AI9" s="100"/>
-      <c r="AJ9" s="100"/>
-      <c r="AK9" s="101"/>
-    </row>
-    <row r="10" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
+      <c r="B9" s="44"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="77"/>
+      <c r="AA9" s="75"/>
+      <c r="AB9" s="76"/>
+      <c r="AC9" s="77"/>
+      <c r="AD9" s="111"/>
+      <c r="AE9" s="111"/>
+      <c r="AF9" s="90"/>
+      <c r="AG9" s="90"/>
+      <c r="AH9" s="91"/>
+      <c r="AI9" s="91"/>
+      <c r="AJ9" s="91"/>
+      <c r="AK9" s="91"/>
+      <c r="AL9" s="92"/>
+    </row>
+    <row r="10" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
         <v>2006</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="85"/>
-      <c r="S10" s="85"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="86"/>
-      <c r="W10" s="84"/>
-      <c r="X10" s="85"/>
-      <c r="Y10" s="86"/>
-      <c r="Z10" s="84"/>
-      <c r="AA10" s="85"/>
-      <c r="AB10" s="86"/>
-      <c r="AC10" s="107"/>
-      <c r="AD10" s="107"/>
-      <c r="AE10" s="99"/>
-      <c r="AF10" s="99"/>
-      <c r="AG10" s="100"/>
-      <c r="AH10" s="100"/>
-      <c r="AI10" s="100"/>
-      <c r="AJ10" s="100"/>
-      <c r="AK10" s="101"/>
-    </row>
-    <row r="11" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
+      <c r="B10" s="44"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="77"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="77"/>
+      <c r="AD10" s="111"/>
+      <c r="AE10" s="111"/>
+      <c r="AF10" s="90"/>
+      <c r="AG10" s="90"/>
+      <c r="AH10" s="91"/>
+      <c r="AI10" s="91"/>
+      <c r="AJ10" s="91"/>
+      <c r="AK10" s="91"/>
+      <c r="AL10" s="92"/>
+    </row>
+    <row r="11" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
         <v>2007</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="117"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="85"/>
-      <c r="S11" s="85"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="86"/>
-      <c r="W11" s="84">
+      <c r="B11" s="44"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="76"/>
+      <c r="T11" s="76"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="76"/>
+      <c r="W11" s="77"/>
+      <c r="X11" s="75">
         <v>0.7</v>
       </c>
-      <c r="X11" s="85">
+      <c r="Y11" s="76">
         <v>0.75</v>
       </c>
-      <c r="Y11" s="86">
+      <c r="Z11" s="77">
         <v>0.8</v>
       </c>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="86"/>
-      <c r="AC11" s="107"/>
-      <c r="AD11" s="107"/>
-      <c r="AE11" s="99"/>
-      <c r="AF11" s="99"/>
-      <c r="AG11" s="100"/>
-      <c r="AH11" s="100"/>
-      <c r="AI11" s="100"/>
-      <c r="AJ11" s="100"/>
-      <c r="AK11" s="101"/>
-    </row>
-    <row r="12" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="76"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="111"/>
+      <c r="AE11" s="111"/>
+      <c r="AF11" s="90"/>
+      <c r="AG11" s="90"/>
+      <c r="AH11" s="91"/>
+      <c r="AI11" s="91"/>
+      <c r="AJ11" s="91"/>
+      <c r="AK11" s="91"/>
+      <c r="AL11" s="92"/>
+    </row>
+    <row r="12" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
         <v>2008</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="117"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="85"/>
-      <c r="S12" s="85"/>
-      <c r="T12" s="85"/>
-      <c r="U12" s="85"/>
-      <c r="V12" s="86"/>
-      <c r="W12" s="84"/>
-      <c r="X12" s="85"/>
-      <c r="Y12" s="86"/>
-      <c r="Z12" s="84"/>
-      <c r="AA12" s="85"/>
-      <c r="AB12" s="86"/>
-      <c r="AC12" s="107"/>
-      <c r="AD12" s="107"/>
-      <c r="AE12" s="99"/>
-      <c r="AF12" s="99"/>
-      <c r="AG12" s="100"/>
-      <c r="AH12" s="100"/>
-      <c r="AI12" s="100"/>
-      <c r="AJ12" s="100"/>
-      <c r="AK12" s="101"/>
-    </row>
-    <row r="13" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
+      <c r="B12" s="44"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="75"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="76"/>
+      <c r="AC12" s="77"/>
+      <c r="AD12" s="111"/>
+      <c r="AE12" s="111"/>
+      <c r="AF12" s="90"/>
+      <c r="AG12" s="90"/>
+      <c r="AH12" s="91"/>
+      <c r="AI12" s="91"/>
+      <c r="AJ12" s="91"/>
+      <c r="AK12" s="91"/>
+      <c r="AL12" s="92"/>
+    </row>
+    <row r="13" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
         <v>2009</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="71">
+      <c r="B13" s="44"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="75">
         <v>0</v>
       </c>
-      <c r="J13" s="71"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="117"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="85"/>
-      <c r="S13" s="85"/>
-      <c r="T13" s="85"/>
-      <c r="U13" s="85"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="85"/>
-      <c r="Y13" s="86"/>
-      <c r="Z13" s="84"/>
-      <c r="AA13" s="85"/>
-      <c r="AB13" s="86"/>
-      <c r="AC13" s="107"/>
-      <c r="AD13" s="107"/>
-      <c r="AE13" s="99"/>
-      <c r="AF13" s="99"/>
-      <c r="AG13" s="100"/>
-      <c r="AH13" s="100"/>
-      <c r="AI13" s="100"/>
-      <c r="AJ13" s="100"/>
-      <c r="AK13" s="101"/>
-    </row>
-    <row r="14" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
+      <c r="J13" s="77"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="76"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="75"/>
+      <c r="Y13" s="76"/>
+      <c r="Z13" s="77"/>
+      <c r="AA13" s="75"/>
+      <c r="AB13" s="76"/>
+      <c r="AC13" s="77"/>
+      <c r="AD13" s="111"/>
+      <c r="AE13" s="111"/>
+      <c r="AF13" s="90"/>
+      <c r="AG13" s="90"/>
+      <c r="AH13" s="91"/>
+      <c r="AI13" s="91"/>
+      <c r="AJ13" s="91"/>
+      <c r="AK13" s="91"/>
+      <c r="AL13" s="92"/>
+    </row>
+    <row r="14" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
         <v>2010</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="71">
+      <c r="B14" s="44"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="75">
         <v>1500</v>
       </c>
-      <c r="J14" s="71"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="117"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="86"/>
-      <c r="W14" s="84">
+      <c r="J14" s="77">
+        <v>0</v>
+      </c>
+      <c r="K14" s="62"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="75">
         <v>0.7</v>
       </c>
-      <c r="X14" s="85">
+      <c r="Y14" s="76">
         <v>0.75</v>
       </c>
-      <c r="Y14" s="86">
+      <c r="Z14" s="77">
         <v>0.8</v>
       </c>
-      <c r="Z14" s="84"/>
-      <c r="AA14" s="85"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="107"/>
-      <c r="AD14" s="107"/>
-      <c r="AE14" s="99"/>
-      <c r="AF14" s="99"/>
-      <c r="AG14" s="100"/>
-      <c r="AH14" s="100"/>
-      <c r="AI14" s="100"/>
-      <c r="AJ14" s="100"/>
-      <c r="AK14" s="101"/>
-    </row>
-    <row r="15" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="76"/>
+      <c r="AC14" s="77"/>
+      <c r="AD14" s="111"/>
+      <c r="AE14" s="111"/>
+      <c r="AF14" s="90"/>
+      <c r="AG14" s="90"/>
+      <c r="AH14" s="91"/>
+      <c r="AI14" s="91"/>
+      <c r="AJ14" s="91"/>
+      <c r="AK14" s="91"/>
+      <c r="AL14" s="92"/>
+    </row>
+    <row r="15" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
         <v>2011</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="112"/>
-      <c r="N15" s="117"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="85"/>
-      <c r="S15" s="85"/>
-      <c r="T15" s="85"/>
-      <c r="U15" s="85"/>
-      <c r="V15" s="86"/>
-      <c r="W15" s="84"/>
-      <c r="X15" s="85"/>
-      <c r="Y15" s="86"/>
-      <c r="Z15" s="84"/>
-      <c r="AA15" s="85"/>
-      <c r="AB15" s="86"/>
-      <c r="AC15" s="107"/>
-      <c r="AD15" s="107"/>
-      <c r="AE15" s="99"/>
-      <c r="AF15" s="99"/>
-      <c r="AG15" s="100"/>
-      <c r="AH15" s="100"/>
-      <c r="AI15" s="100"/>
-      <c r="AJ15" s="100"/>
-      <c r="AK15" s="101"/>
-    </row>
-    <row r="16" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
+      <c r="B15" s="44"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="77">
+        <v>110</v>
+      </c>
+      <c r="K15" s="62"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="76"/>
+      <c r="T15" s="76"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="76"/>
+      <c r="W15" s="77"/>
+      <c r="X15" s="75"/>
+      <c r="Y15" s="76"/>
+      <c r="Z15" s="77"/>
+      <c r="AA15" s="75"/>
+      <c r="AB15" s="76"/>
+      <c r="AC15" s="77"/>
+      <c r="AD15" s="111"/>
+      <c r="AE15" s="111"/>
+      <c r="AF15" s="90"/>
+      <c r="AG15" s="90"/>
+      <c r="AH15" s="91"/>
+      <c r="AI15" s="91"/>
+      <c r="AJ15" s="91"/>
+      <c r="AK15" s="91"/>
+      <c r="AL15" s="92"/>
+    </row>
+    <row r="16" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
         <v>2012</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="112"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="85"/>
-      <c r="S16" s="85"/>
-      <c r="T16" s="85"/>
-      <c r="U16" s="85"/>
-      <c r="V16" s="86"/>
-      <c r="W16" s="84">
+      <c r="B16" s="44"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="77"/>
+      <c r="X16" s="75">
         <v>0.91200000000000003</v>
       </c>
-      <c r="X16" s="85">
+      <c r="Y16" s="76">
         <v>0.82</v>
       </c>
-      <c r="Y16" s="86">
+      <c r="Z16" s="77">
         <v>0.88</v>
       </c>
-      <c r="Z16" s="84"/>
-      <c r="AA16" s="85"/>
-      <c r="AB16" s="86"/>
-      <c r="AC16" s="107"/>
-      <c r="AD16" s="107"/>
-      <c r="AE16" s="99"/>
-      <c r="AF16" s="99"/>
-      <c r="AG16" s="100"/>
-      <c r="AH16" s="100"/>
-      <c r="AI16" s="100"/>
-      <c r="AJ16" s="100"/>
-      <c r="AK16" s="101"/>
-    </row>
-    <row r="17" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
+      <c r="AA16" s="75"/>
+      <c r="AB16" s="76"/>
+      <c r="AC16" s="77"/>
+      <c r="AD16" s="111"/>
+      <c r="AE16" s="111"/>
+      <c r="AF16" s="90"/>
+      <c r="AG16" s="90"/>
+      <c r="AH16" s="91"/>
+      <c r="AI16" s="91"/>
+      <c r="AJ16" s="91"/>
+      <c r="AK16" s="91"/>
+      <c r="AL16" s="92"/>
+    </row>
+    <row r="17" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
         <v>2013</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="112"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="85"/>
-      <c r="V17" s="86"/>
-      <c r="W17" s="84">
+      <c r="B17" s="44"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="76"/>
+      <c r="T17" s="76"/>
+      <c r="U17" s="76"/>
+      <c r="V17" s="76"/>
+      <c r="W17" s="77"/>
+      <c r="X17" s="75">
         <v>0.91200000000000003</v>
       </c>
-      <c r="X17" s="85">
+      <c r="Y17" s="76">
         <v>0.86</v>
       </c>
-      <c r="Y17" s="86">
+      <c r="Z17" s="77">
         <v>0.9</v>
       </c>
-      <c r="Z17" s="84"/>
-      <c r="AA17" s="85"/>
-      <c r="AB17" s="86"/>
-      <c r="AC17" s="107"/>
-      <c r="AD17" s="107"/>
-      <c r="AE17" s="99"/>
-      <c r="AF17" s="99"/>
-      <c r="AG17" s="100"/>
-      <c r="AH17" s="100"/>
-      <c r="AI17" s="100"/>
-      <c r="AJ17" s="100"/>
-      <c r="AK17" s="101"/>
-    </row>
-    <row r="18" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
+      <c r="AA17" s="75"/>
+      <c r="AB17" s="76"/>
+      <c r="AC17" s="77"/>
+      <c r="AD17" s="111"/>
+      <c r="AE17" s="111"/>
+      <c r="AF17" s="90"/>
+      <c r="AG17" s="90"/>
+      <c r="AH17" s="91"/>
+      <c r="AI17" s="91"/>
+      <c r="AJ17" s="91"/>
+      <c r="AK17" s="91"/>
+      <c r="AL17" s="92"/>
+    </row>
+    <row r="18" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
         <v>2014</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="112"/>
-      <c r="N18" s="117"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="85"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="85"/>
-      <c r="U18" s="85"/>
-      <c r="V18" s="86"/>
-      <c r="W18" s="84">
+      <c r="B18" s="44"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="76"/>
+      <c r="T18" s="76"/>
+      <c r="U18" s="76"/>
+      <c r="V18" s="76"/>
+      <c r="W18" s="77"/>
+      <c r="X18" s="75">
         <v>0.91200000000000003</v>
       </c>
-      <c r="X18" s="85">
+      <c r="Y18" s="76">
         <v>0.89</v>
       </c>
-      <c r="Y18" s="86">
+      <c r="Z18" s="77">
         <v>0.9</v>
       </c>
-      <c r="Z18" s="84"/>
-      <c r="AA18" s="85"/>
-      <c r="AB18" s="86"/>
-      <c r="AC18" s="107"/>
-      <c r="AD18" s="107"/>
-      <c r="AE18" s="99"/>
-      <c r="AF18" s="99"/>
-      <c r="AG18" s="100"/>
-      <c r="AH18" s="100"/>
-      <c r="AI18" s="100"/>
-      <c r="AJ18" s="100"/>
-      <c r="AK18" s="101"/>
-    </row>
-    <row r="19" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
+      <c r="AA18" s="75"/>
+      <c r="AB18" s="76"/>
+      <c r="AC18" s="77"/>
+      <c r="AD18" s="111"/>
+      <c r="AE18" s="111"/>
+      <c r="AF18" s="90"/>
+      <c r="AG18" s="90"/>
+      <c r="AH18" s="91"/>
+      <c r="AI18" s="91"/>
+      <c r="AJ18" s="91"/>
+      <c r="AK18" s="91"/>
+      <c r="AL18" s="92"/>
+    </row>
+    <row r="19" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
         <v>2015</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="117"/>
-      <c r="O19" s="85"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="85"/>
-      <c r="S19" s="85"/>
-      <c r="T19" s="85"/>
-      <c r="U19" s="85"/>
-      <c r="V19" s="86"/>
-      <c r="W19" s="84">
+      <c r="B19" s="44"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="104"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="75"/>
+      <c r="S19" s="76"/>
+      <c r="T19" s="76"/>
+      <c r="U19" s="76"/>
+      <c r="V19" s="76"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="75">
         <v>0.91200000000000003</v>
       </c>
-      <c r="X19" s="85">
+      <c r="Y19" s="76">
         <v>0.92</v>
       </c>
-      <c r="Y19" s="86">
+      <c r="Z19" s="77">
         <v>0.92</v>
       </c>
-      <c r="Z19" s="84"/>
-      <c r="AA19" s="85"/>
-      <c r="AB19" s="86"/>
-      <c r="AC19" s="107"/>
-      <c r="AD19" s="107"/>
-      <c r="AE19" s="99"/>
-      <c r="AF19" s="99"/>
-      <c r="AG19" s="100"/>
-      <c r="AH19" s="100"/>
-      <c r="AI19" s="100"/>
-      <c r="AJ19" s="100"/>
-      <c r="AK19" s="101"/>
-    </row>
-    <row r="20" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
+      <c r="AA19" s="75"/>
+      <c r="AB19" s="76"/>
+      <c r="AC19" s="77"/>
+      <c r="AD19" s="111"/>
+      <c r="AE19" s="111"/>
+      <c r="AF19" s="90"/>
+      <c r="AG19" s="90"/>
+      <c r="AH19" s="91"/>
+      <c r="AI19" s="91"/>
+      <c r="AJ19" s="91"/>
+      <c r="AK19" s="91"/>
+      <c r="AL19" s="92"/>
+    </row>
+    <row r="20" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
         <v>2016</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="71">
+      <c r="B20" s="44"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="75">
         <v>4000</v>
       </c>
-      <c r="J20" s="71"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="112"/>
-      <c r="N20" s="117"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="85"/>
-      <c r="S20" s="85"/>
-      <c r="T20" s="85"/>
-      <c r="U20" s="85"/>
-      <c r="V20" s="86"/>
-      <c r="W20" s="84">
+      <c r="J20" s="77">
+        <v>200</v>
+      </c>
+      <c r="K20" s="62"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="76"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="76"/>
+      <c r="V20" s="76"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="75">
         <v>0.91200000000000003</v>
       </c>
-      <c r="X20" s="85">
+      <c r="Y20" s="76">
         <v>0.95</v>
       </c>
-      <c r="Y20" s="86">
+      <c r="Z20" s="77">
         <v>0.94</v>
       </c>
-      <c r="Z20" s="84"/>
-      <c r="AA20" s="85"/>
-      <c r="AB20" s="86"/>
-      <c r="AC20" s="107"/>
-      <c r="AD20" s="107"/>
-      <c r="AE20" s="99"/>
-      <c r="AF20" s="99"/>
-      <c r="AG20" s="100"/>
-      <c r="AH20" s="100"/>
-      <c r="AI20" s="100"/>
-      <c r="AJ20" s="100"/>
-      <c r="AK20" s="101"/>
-    </row>
-    <row r="21" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
+      <c r="AA20" s="75"/>
+      <c r="AB20" s="76"/>
+      <c r="AC20" s="77"/>
+      <c r="AD20" s="111"/>
+      <c r="AE20" s="111"/>
+      <c r="AF20" s="90"/>
+      <c r="AG20" s="90"/>
+      <c r="AH20" s="91"/>
+      <c r="AI20" s="91"/>
+      <c r="AJ20" s="91"/>
+      <c r="AK20" s="91"/>
+      <c r="AL20" s="92"/>
+    </row>
+    <row r="21" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
         <v>2017</v>
       </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="112"/>
-      <c r="N21" s="117"/>
-      <c r="O21" s="85"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="85"/>
-      <c r="T21" s="85"/>
-      <c r="U21" s="85"/>
-      <c r="V21" s="86"/>
-      <c r="W21" s="84"/>
-      <c r="X21" s="85"/>
-      <c r="Y21" s="86"/>
-      <c r="Z21" s="84"/>
-      <c r="AA21" s="85"/>
-      <c r="AB21" s="86"/>
-      <c r="AC21" s="107"/>
-      <c r="AD21" s="107"/>
-      <c r="AE21" s="99"/>
-      <c r="AF21" s="99"/>
-      <c r="AG21" s="100"/>
-      <c r="AH21" s="100"/>
-      <c r="AI21" s="100"/>
-      <c r="AJ21" s="100"/>
-      <c r="AK21" s="101"/>
-    </row>
-    <row r="22" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38">
+      <c r="B21" s="44"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="76"/>
+      <c r="T21" s="76"/>
+      <c r="U21" s="76"/>
+      <c r="V21" s="76"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="76"/>
+      <c r="Z21" s="77"/>
+      <c r="AA21" s="75"/>
+      <c r="AB21" s="76"/>
+      <c r="AC21" s="77"/>
+      <c r="AD21" s="111"/>
+      <c r="AE21" s="111"/>
+      <c r="AF21" s="90"/>
+      <c r="AG21" s="90"/>
+      <c r="AH21" s="91"/>
+      <c r="AI21" s="91"/>
+      <c r="AJ21" s="91"/>
+      <c r="AK21" s="91"/>
+      <c r="AL21" s="92"/>
+    </row>
+    <row r="22" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="31">
         <v>2018</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="86"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="85"/>
-      <c r="U22" s="85"/>
-      <c r="V22" s="86"/>
-      <c r="W22" s="84"/>
-      <c r="X22" s="85"/>
-      <c r="Y22" s="86"/>
-      <c r="Z22" s="84"/>
-      <c r="AA22" s="85"/>
-      <c r="AB22" s="86"/>
-      <c r="AC22" s="107"/>
-      <c r="AD22" s="107"/>
-      <c r="AE22" s="99"/>
-      <c r="AF22" s="99"/>
-      <c r="AG22" s="100"/>
-      <c r="AH22" s="100"/>
-      <c r="AI22" s="100"/>
-      <c r="AJ22" s="100"/>
-      <c r="AK22" s="101"/>
-    </row>
-    <row r="23" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38">
+      <c r="B22" s="44"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="76"/>
+      <c r="T22" s="76"/>
+      <c r="U22" s="76"/>
+      <c r="V22" s="76"/>
+      <c r="W22" s="77"/>
+      <c r="X22" s="75"/>
+      <c r="Y22" s="76"/>
+      <c r="Z22" s="77"/>
+      <c r="AA22" s="75"/>
+      <c r="AB22" s="76"/>
+      <c r="AC22" s="77"/>
+      <c r="AD22" s="111"/>
+      <c r="AE22" s="111"/>
+      <c r="AF22" s="90"/>
+      <c r="AG22" s="90"/>
+      <c r="AH22" s="91"/>
+      <c r="AI22" s="91"/>
+      <c r="AJ22" s="91"/>
+      <c r="AK22" s="91"/>
+      <c r="AL22" s="92"/>
+    </row>
+    <row r="23" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
         <v>2019</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="112"/>
-      <c r="N23" s="117"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="85"/>
-      <c r="S23" s="85"/>
-      <c r="T23" s="85"/>
-      <c r="U23" s="85"/>
-      <c r="V23" s="86"/>
-      <c r="W23" s="84"/>
-      <c r="X23" s="85"/>
-      <c r="Y23" s="86"/>
-      <c r="Z23" s="84"/>
-      <c r="AA23" s="85"/>
-      <c r="AB23" s="86"/>
-      <c r="AC23" s="107"/>
-      <c r="AD23" s="107"/>
-      <c r="AE23" s="99"/>
-      <c r="AF23" s="99"/>
-      <c r="AG23" s="100"/>
-      <c r="AH23" s="100"/>
-      <c r="AI23" s="100"/>
-      <c r="AJ23" s="100"/>
-      <c r="AK23" s="101"/>
-    </row>
-    <row r="24" spans="1:37" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="72">
+      <c r="B23" s="44"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="76"/>
+      <c r="T23" s="76"/>
+      <c r="U23" s="76"/>
+      <c r="V23" s="76"/>
+      <c r="W23" s="77"/>
+      <c r="X23" s="75"/>
+      <c r="Y23" s="76"/>
+      <c r="Z23" s="77"/>
+      <c r="AA23" s="75"/>
+      <c r="AB23" s="76"/>
+      <c r="AC23" s="77"/>
+      <c r="AD23" s="111"/>
+      <c r="AE23" s="111"/>
+      <c r="AF23" s="90"/>
+      <c r="AG23" s="90"/>
+      <c r="AH23" s="91"/>
+      <c r="AI23" s="91"/>
+      <c r="AJ23" s="91"/>
+      <c r="AK23" s="91"/>
+      <c r="AL23" s="92"/>
+    </row>
+    <row r="24" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="63">
         <v>2020</v>
       </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="113"/>
-      <c r="N24" s="118"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="89"/>
-      <c r="Q24" s="87"/>
-      <c r="R24" s="88"/>
-      <c r="S24" s="88"/>
-      <c r="T24" s="88"/>
-      <c r="U24" s="88"/>
-      <c r="V24" s="89"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="88"/>
-      <c r="Y24" s="89"/>
-      <c r="Z24" s="87"/>
-      <c r="AA24" s="88"/>
-      <c r="AB24" s="89"/>
-      <c r="AC24" s="108"/>
-      <c r="AD24" s="108"/>
-      <c r="AE24" s="102"/>
-      <c r="AF24" s="102"/>
-      <c r="AG24" s="103"/>
-      <c r="AH24" s="103"/>
-      <c r="AI24" s="103"/>
-      <c r="AJ24" s="103"/>
-      <c r="AK24" s="104"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A25" s="38">
+      <c r="B24" s="61"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="78"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="80"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="79"/>
+      <c r="Z24" s="80"/>
+      <c r="AA24" s="78"/>
+      <c r="AB24" s="79"/>
+      <c r="AC24" s="80"/>
+      <c r="AD24" s="112"/>
+      <c r="AE24" s="112"/>
+      <c r="AF24" s="93"/>
+      <c r="AG24" s="93"/>
+      <c r="AH24" s="94"/>
+      <c r="AI24" s="94"/>
+      <c r="AJ24" s="94"/>
+      <c r="AK24" s="94"/>
+      <c r="AL24" s="95"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
         <v>2021</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A26" s="38">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
         <v>2022</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A27" s="38">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A27" s="31">
         <v>2023</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A28" s="38">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A28" s="31">
         <v>2024</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A29" s="72">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A29" s="63">
         <v>2025</v>
       </c>
-      <c r="X29" s="69">
+      <c r="Y29" s="60">
         <v>0.95</v>
       </c>
-      <c r="Y29" s="69">
+      <c r="Z29" s="60">
         <v>0.95</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A30" s="38">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A30" s="31">
         <v>2026</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A31" s="38">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A31" s="31">
         <v>2027</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A32" s="38">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A32" s="31">
         <v>2028</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="38">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="31">
         <v>2029</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="72">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="63">
         <v>2030</v>
       </c>
-      <c r="X34" s="69">
+      <c r="Y34" s="60">
         <v>0.99</v>
       </c>
-      <c r="Y34" s="69">
+      <c r="Z34" s="60">
         <v>0.99</v>
       </c>
     </row>
@@ -5679,7 +6442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
@@ -5689,158 +6452,158 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="69" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="52"/>
+    <col min="1" max="1" width="9" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="30" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="38"/>
-    </row>
-    <row r="4" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37">
+      <c r="B3" s="31"/>
+    </row>
+    <row r="4" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
         <v>2000</v>
       </c>
-      <c r="B4" s="74"/>
-    </row>
-    <row r="5" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38">
+      <c r="B4" s="65"/>
+    </row>
+    <row r="5" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
         <v>2001</v>
       </c>
-      <c r="B5" s="71"/>
-    </row>
-    <row r="6" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
+      <c r="B5" s="62"/>
+    </row>
+    <row r="6" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
         <v>2002</v>
       </c>
-      <c r="B6" s="71"/>
-    </row>
-    <row r="7" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38">
+      <c r="B6" s="62"/>
+    </row>
+    <row r="7" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
         <v>2003</v>
       </c>
-      <c r="B7" s="71"/>
-    </row>
-    <row r="8" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38">
+      <c r="B7" s="62"/>
+    </row>
+    <row r="8" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
         <v>2004</v>
       </c>
-      <c r="B8" s="71"/>
-    </row>
-    <row r="9" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38">
+      <c r="B8" s="62"/>
+    </row>
+    <row r="9" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
         <v>2005</v>
       </c>
-      <c r="B9" s="71"/>
-    </row>
-    <row r="10" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
+      <c r="B9" s="62"/>
+    </row>
+    <row r="10" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
         <v>2006</v>
       </c>
-      <c r="B10" s="71"/>
-    </row>
-    <row r="11" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
+      <c r="B10" s="62"/>
+    </row>
+    <row r="11" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
         <v>2007</v>
       </c>
-      <c r="B11" s="71"/>
-    </row>
-    <row r="12" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
+      <c r="B11" s="62"/>
+    </row>
+    <row r="12" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
         <v>2008</v>
       </c>
-      <c r="B12" s="71"/>
-    </row>
-    <row r="13" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
+      <c r="B12" s="62"/>
+    </row>
+    <row r="13" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
         <v>2009</v>
       </c>
-      <c r="B13" s="71"/>
-    </row>
-    <row r="14" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
+      <c r="B13" s="62"/>
+    </row>
+    <row r="14" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
         <v>2010</v>
       </c>
-      <c r="B14" s="71"/>
-    </row>
-    <row r="15" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
+      <c r="B14" s="62"/>
+    </row>
+    <row r="15" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
         <v>2011</v>
       </c>
-      <c r="B15" s="71"/>
-    </row>
-    <row r="16" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
+      <c r="B15" s="62"/>
+    </row>
+    <row r="16" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
         <v>2012</v>
       </c>
-      <c r="B16" s="71"/>
-    </row>
-    <row r="17" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
+      <c r="B16" s="62"/>
+    </row>
+    <row r="17" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
         <v>2013</v>
       </c>
-      <c r="B17" s="71"/>
-    </row>
-    <row r="18" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
+      <c r="B17" s="62"/>
+    </row>
+    <row r="18" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
         <v>2014</v>
       </c>
-      <c r="B18" s="71"/>
-    </row>
-    <row r="19" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
+      <c r="B18" s="62"/>
+    </row>
+    <row r="19" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
         <v>2015</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="62">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
+    <row r="20" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
         <v>2016</v>
       </c>
-      <c r="B20" s="71"/>
-    </row>
-    <row r="21" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
+      <c r="B20" s="62"/>
+    </row>
+    <row r="21" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
         <v>2017</v>
       </c>
-      <c r="B21" s="71"/>
-    </row>
-    <row r="22" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38">
+      <c r="B21" s="62"/>
+    </row>
+    <row r="22" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="31">
         <v>2018</v>
       </c>
-      <c r="B22" s="71"/>
-    </row>
-    <row r="23" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38">
+      <c r="B22" s="62"/>
+    </row>
+    <row r="23" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
         <v>2019</v>
       </c>
-      <c r="B23" s="71"/>
-    </row>
-    <row r="24" spans="1:2" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="72">
+      <c r="B23" s="62"/>
+    </row>
+    <row r="24" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="63">
         <v>2020</v>
       </c>
-      <c r="B24" s="73"/>
+      <c r="B24" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5848,7 +6611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -5858,326 +6621,326 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="69" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15" style="69" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="69" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="69" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="52"/>
+    <col min="1" max="1" width="9" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15" style="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="68" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="71" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="79" t="s">
+      <c r="F3" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37">
+    <row r="4" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
         <v>2000</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="83"/>
-    </row>
-    <row r="5" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
+    </row>
+    <row r="5" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
         <v>2001</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="86"/>
-    </row>
-    <row r="6" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+    </row>
+    <row r="6" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
         <v>2002</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="86"/>
-    </row>
-    <row r="7" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38">
+      <c r="B6" s="75"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
+    </row>
+    <row r="7" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
         <v>2003</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="86"/>
-    </row>
-    <row r="8" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38">
+      <c r="B7" s="75"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="77"/>
+    </row>
+    <row r="8" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
         <v>2004</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86"/>
-    </row>
-    <row r="9" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38">
+      <c r="B8" s="75"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="77"/>
+    </row>
+    <row r="9" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
         <v>2005</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="86"/>
-    </row>
-    <row r="10" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
+      <c r="B9" s="75"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="77"/>
+    </row>
+    <row r="10" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
         <v>2006</v>
       </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="86"/>
-    </row>
-    <row r="11" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
+      <c r="B10" s="75"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
+    </row>
+    <row r="11" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
         <v>2007</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="86"/>
-    </row>
-    <row r="12" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
+      <c r="B11" s="75"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
+    </row>
+    <row r="12" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
         <v>2008</v>
       </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="86"/>
-    </row>
-    <row r="13" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="77"/>
+    </row>
+    <row r="13" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
         <v>2009</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86"/>
-    </row>
-    <row r="14" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
+      <c r="B13" s="75"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="77"/>
+    </row>
+    <row r="14" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
         <v>2010</v>
       </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="86"/>
-    </row>
-    <row r="15" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
+      <c r="B14" s="75"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="77"/>
+    </row>
+    <row r="15" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
         <v>2011</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="86"/>
-    </row>
-    <row r="16" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
+      <c r="B15" s="75"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="77"/>
+    </row>
+    <row r="16" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
         <v>2012</v>
       </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="86"/>
-    </row>
-    <row r="17" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
+      <c r="B16" s="75"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="77"/>
+    </row>
+    <row r="17" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
         <v>2013</v>
       </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="86"/>
-    </row>
-    <row r="18" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="77"/>
+    </row>
+    <row r="18" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
         <v>2014</v>
       </c>
-      <c r="B18" s="84"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="86"/>
-    </row>
-    <row r="19" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
+      <c r="B18" s="75"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="77"/>
+    </row>
+    <row r="19" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
         <v>2015</v>
       </c>
-      <c r="B19" s="84">
+      <c r="B19" s="75">
         <v>0.5</v>
       </c>
-      <c r="C19" s="85">
+      <c r="C19" s="76">
         <v>5</v>
       </c>
-      <c r="D19" s="85">
+      <c r="D19" s="76">
         <v>0.25</v>
       </c>
-      <c r="E19" s="85">
+      <c r="E19" s="76">
         <v>2</v>
       </c>
-      <c r="F19" s="85">
+      <c r="F19" s="76">
         <v>0.125</v>
       </c>
-      <c r="G19" s="86">
+      <c r="G19" s="77">
         <v>0.125</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
+    <row r="20" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
         <v>2016</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="86"/>
-    </row>
-    <row r="21" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
+      <c r="B20" s="75"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="77"/>
+    </row>
+    <row r="21" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
         <v>2017</v>
       </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="86"/>
-    </row>
-    <row r="22" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38">
+      <c r="B21" s="75"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="77"/>
+    </row>
+    <row r="22" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="31">
         <v>2018</v>
       </c>
-      <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="86"/>
-    </row>
-    <row r="23" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38">
+      <c r="B22" s="75"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="77"/>
+    </row>
+    <row r="23" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
         <v>2019</v>
       </c>
-      <c r="B23" s="84"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="86"/>
-    </row>
-    <row r="24" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="72">
+      <c r="B23" s="75"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="77"/>
+    </row>
+    <row r="24" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="63">
         <v>2020</v>
       </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="89"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="pars" sheetId="24" r:id="rId1"/>
@@ -1343,6 +1343,40 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
+Number of people on PrEP. Seemed to make more sense than proportion of people on PrEP</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Tom Tidhar</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
 Time between HIV tests (in years)</t>
         </r>
       </text>
@@ -1400,7 +1434,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="119">
   <si>
     <t>Waiting list</t>
   </si>
@@ -4816,8 +4850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5029,7 +5063,7 @@
   <dimension ref="A1:AL34"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="I1" sqref="I1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6443,171 +6477,205 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="44" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="43"/>
+    <col min="3" max="3" width="11" style="60" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="31"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="69"/>
+      <c r="C2" s="71"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="31"/>
-    </row>
-    <row r="4" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>2000</v>
       </c>
-      <c r="B4" s="65"/>
-    </row>
-    <row r="5" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="72"/>
+      <c r="C4" s="74"/>
+    </row>
+    <row r="5" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>2001</v>
       </c>
-      <c r="B5" s="62"/>
-    </row>
-    <row r="6" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="75"/>
+      <c r="C5" s="77"/>
+    </row>
+    <row r="6" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>2002</v>
       </c>
-      <c r="B6" s="62"/>
-    </row>
-    <row r="7" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="75"/>
+      <c r="C6" s="77"/>
+    </row>
+    <row r="7" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>2003</v>
       </c>
-      <c r="B7" s="62"/>
-    </row>
-    <row r="8" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="75"/>
+      <c r="C7" s="77"/>
+    </row>
+    <row r="8" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>2004</v>
       </c>
-      <c r="B8" s="62"/>
-    </row>
-    <row r="9" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="75"/>
+      <c r="C8" s="77"/>
+    </row>
+    <row r="9" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>2005</v>
       </c>
-      <c r="B9" s="62"/>
-    </row>
-    <row r="10" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="75"/>
+      <c r="C9" s="77"/>
+    </row>
+    <row r="10" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>2006</v>
       </c>
-      <c r="B10" s="62"/>
-    </row>
-    <row r="11" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="75"/>
+      <c r="C10" s="77"/>
+    </row>
+    <row r="11" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>2007</v>
       </c>
-      <c r="B11" s="62"/>
-    </row>
-    <row r="12" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="75"/>
+      <c r="C11" s="77"/>
+    </row>
+    <row r="12" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>2008</v>
       </c>
-      <c r="B12" s="62"/>
-    </row>
-    <row r="13" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="75"/>
+      <c r="C12" s="77"/>
+    </row>
+    <row r="13" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>2009</v>
       </c>
-      <c r="B13" s="62"/>
-    </row>
-    <row r="14" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="75">
+        <v>0</v>
+      </c>
+      <c r="C13" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>2010</v>
       </c>
-      <c r="B14" s="62"/>
-    </row>
-    <row r="15" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="75"/>
+      <c r="C14" s="77"/>
+    </row>
+    <row r="15" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>2011</v>
       </c>
-      <c r="B15" s="62"/>
-    </row>
-    <row r="16" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="75"/>
+      <c r="C15" s="77"/>
+    </row>
+    <row r="16" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>2012</v>
       </c>
-      <c r="B16" s="62"/>
-    </row>
-    <row r="17" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="75"/>
+      <c r="C16" s="77"/>
+    </row>
+    <row r="17" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>2013</v>
       </c>
-      <c r="B17" s="62"/>
-    </row>
-    <row r="18" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="75"/>
+      <c r="C17" s="77"/>
+    </row>
+    <row r="18" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>2014</v>
       </c>
-      <c r="B18" s="62"/>
-    </row>
-    <row r="19" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="75"/>
+      <c r="C18" s="77"/>
+    </row>
+    <row r="19" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>2015</v>
       </c>
-      <c r="B19" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="75"/>
+      <c r="C19" s="77"/>
+    </row>
+    <row r="20" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>2016</v>
       </c>
-      <c r="B20" s="62"/>
-    </row>
-    <row r="21" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="75"/>
+      <c r="C20" s="77"/>
+    </row>
+    <row r="21" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>2017</v>
       </c>
-      <c r="B21" s="62"/>
-    </row>
-    <row r="22" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="75"/>
+      <c r="C21" s="77"/>
+    </row>
+    <row r="22" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>2018</v>
       </c>
-      <c r="B22" s="62"/>
-    </row>
-    <row r="23" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="75"/>
+      <c r="C22" s="77"/>
+    </row>
+    <row r="23" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
         <v>2019</v>
       </c>
-      <c r="B23" s="62"/>
-    </row>
-    <row r="24" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="75"/>
+      <c r="C23" s="77"/>
+    </row>
+    <row r="24" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="63">
         <v>2020</v>
       </c>
-      <c r="B24" s="64"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="pars" sheetId="24" r:id="rId1"/>
@@ -292,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="1" shapeId="0">
+    <comment ref="M1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -318,6 +318,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="O1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Total MSM minus PLHIV</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Same as Total PLHIV column</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="Q1" authorId="1" shapeId="0">
       <text>
         <r>
@@ -338,59 +386,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Total MSM minus PLHIV</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R1" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Same as Total PLHIV column</t>
+calculated by multiplying prevalence (%) by population size</t>
         </r>
       </text>
     </comment>
     <comment ref="S1" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-calculated by multiplying prevalence (%) by population size</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -418,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="1" shapeId="0">
+    <comment ref="T1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -443,7 +443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="1" shapeId="0">
+    <comment ref="U1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -469,7 +469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="1" shapeId="0">
+    <comment ref="V1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -498,7 +498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="1" shapeId="0">
+    <comment ref="W1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -524,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="1" shapeId="0">
+    <comment ref="X1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -548,7 +548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="1" shapeId="0">
+    <comment ref="Y1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -672,7 +672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB11" authorId="0" shapeId="0">
+    <comment ref="Z11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -720,7 +720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P12" authorId="1" shapeId="0">
+    <comment ref="N12" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -777,7 +777,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Tom Tidhar</author>
-    <author>Michael Traeger</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0">
@@ -920,11 +919,35 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Condom usage between risk groups. Might be set this to zero then absorb any relative risk into the relative_foi parameter</t>
+Time between HIV tests (in years)</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Effectiveness of each care stage in reducing infectiousness. The number of people in each infected compartment are multiplied by these values to get an overall relative proportion positive</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -948,7 +971,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -968,11 +991,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Time between HIV tests (in years)</t>
+Condom usage between risk groups. Might be set this to zero then absorb any relative risk into the relative_foi parameter</t>
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="AE1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -992,31 +1015,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Care cascade data</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Effectiveness of each care stage in reducing infectiousness. The number of people in each infected compartment are multiplied by these values to get an overall relative proportion positive</t>
+This is the time (in years) in each undiagnosed group before people move on to the next one (if they don't get diagnosed). i.e. people spend 1 year in the "&lt;1 year since infection" group, then 2 years in the "1-3 years since infection" group, then stay in the "3+ years since infection" group until they get diagnosed</t>
         </r>
       </text>
     </comment>
@@ -1040,11 +1039,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-This is the time (in years) in each undiagnosed group before people move on to the next one (if they don't get diagnosed). i.e. people spend 1 year in the "&lt;1 year since infection" group, then 2 years in the "1-3 years since infection" group, then stay in the "3+ years since infection" group until they get diagnosed</t>
+Proportions of people changing to gel condoms. From the geldom analysis. Can just leave at 0.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0">
+    <comment ref="L3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1064,7 +1063,31 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Proportions of people changing to gel condoms. From the geldom analysis. Can just leave at 0.</t>
+Time between tests for people within 1 year of infection</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Time between tests for people infected over 3 years ago</t>
         </r>
       </text>
     </comment>
@@ -1088,7 +1111,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Time between tests for people within 1 year of infection</t>
+Proportion of diagnosed PLHIV who are on treatment</t>
         </r>
       </text>
     </comment>
@@ -1112,79 +1135,6 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Time between tests for people infected over 3 years ago</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Proportion of PLHIV who are diagnosed.
-This is not a parameter, but it could be used for calibration</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Proportion of diagnosed PLHIV who are on treatment</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
 Proportion of PLHIV on treatment who are virally suppressed</t>
         </r>
       </text>
@@ -1234,82 +1184,6 @@
           </rPr>
           <t xml:space="preserve">
 i.e. PrEP is 97% effective</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X16" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-http://www.natap.org/2018/IAC/IAC_100.htm</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X17" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-https://kirby.unsw.edu.au/sites/default/files/kirby/report/SERP_National-BBV%26STI-Surveillance%26Monitoring-Report-2016_UPD170627.pdf</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X20" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Michael Traeger:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Michael Traeger:
-The 88% diagnosed from Kirby reports refers to all PLHIV. 
-For MSM, it is higher at 91.2%.
-See proportion undiagnosed in Kirby report =8.8%
-https://kirby.unsw.edu.au/report/hiv-australia-annual-surveillance-short-report-2018</t>
         </r>
       </text>
     </comment>
@@ -1434,7 +1308,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="117">
   <si>
     <t>Waiting list</t>
   </si>
@@ -1761,12 +1635,6 @@
   </si>
   <si>
     <t>prop_HIV_diagnosed</t>
-  </si>
-  <si>
-    <t>prop_HIV_treated</t>
-  </si>
-  <si>
-    <t>prop_HIV_virally_suppressed</t>
   </si>
   <si>
     <t>`</t>
@@ -1985,7 +1853,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -2345,11 +2213,277 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="medium">
         <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -2357,10 +2491,21 @@
     </border>
     <border>
       <left style="dotted">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -2369,242 +2514,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="dotted">
+        <color indexed="64"/>
       </left>
       <right style="hair">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2628,7 +2546,7 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2765,16 +2683,6 @@
     <xf numFmtId="2" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2804,9 +2712,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2816,10 +2721,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2874,27 +2775,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
@@ -2909,18 +2797,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Bad" xfId="15" builtinId="27" customBuiltin="1"/>
@@ -3463,7 +3381,7 @@
         <v>0.13650000000000001</v>
       </c>
       <c r="J8" s="43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3724,11 +3642,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC24"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F23" sqref="F23"/>
+      <selection pane="topRight" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3742,1102 +3660,1040 @@
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11" style="43" customWidth="1"/>
     <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="43" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="62.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="43" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="62.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="140" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+    <row r="1" spans="1:27" s="127" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="132" t="s">
+      <c r="C1" s="119" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="133" t="s">
+      <c r="D1" s="120" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="134" t="s">
+      <c r="E1" s="121" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="135" t="s">
+      <c r="F1" s="122" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="133" t="s">
+      <c r="G1" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="131" t="s">
+      <c r="H1" s="118" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="132" t="s">
+      <c r="I1" s="119" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="133" t="s">
+      <c r="J1" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="131" t="s">
+      <c r="K1" s="158" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="132" t="s">
-        <v>109</v>
-      </c>
-      <c r="M1" s="148" t="s">
-        <v>110</v>
-      </c>
-      <c r="N1" s="136"/>
-      <c r="O1" s="137" t="s">
+      <c r="L1" s="123"/>
+      <c r="M1" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="137" t="s">
+      <c r="N1" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="137" t="s">
+      <c r="O1" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="137" t="s">
+      <c r="P1" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="S1" s="137" t="s">
+      <c r="Q1" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="T1" s="137" t="s">
+      <c r="R1" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="U1" s="137" t="s">
+      <c r="S1" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="V1" s="137" t="s">
+      <c r="T1" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="137" t="s">
+      <c r="U1" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="137" t="s">
+      <c r="V1" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="137" t="s">
+      <c r="W1" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" s="137" t="s">
+      <c r="X1" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" s="137" t="s">
+      <c r="Y1" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="AB1" s="138" t="s">
+      <c r="Z1" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" s="139"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA1" s="126"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>2007</v>
       </c>
-      <c r="B2" s="113">
+      <c r="B2" s="103">
         <v>42714</v>
       </c>
-      <c r="C2" s="114">
+      <c r="C2" s="104">
         <f>B2-D2</f>
         <v>38830.909090909088</v>
       </c>
-      <c r="D2" s="115">
+      <c r="D2" s="105">
         <f>B2/11</f>
         <v>3883.090909090909</v>
       </c>
-      <c r="E2" s="120"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="113">
+      <c r="E2" s="109"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="103">
         <f>B2*7.2/100</f>
         <v>3075.4079999999999</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="118">
+      <c r="I2" s="104"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="159">
         <v>0.7</v>
       </c>
-      <c r="L2" s="119">
-        <v>0.75</v>
-      </c>
-      <c r="M2" s="149">
-        <v>0.8</v>
-      </c>
-      <c r="N2" s="106"/>
-      <c r="O2" s="40">
+      <c r="L2" s="96"/>
+      <c r="M2" s="40">
         <v>2.32876712328767E-2</v>
       </c>
-      <c r="P2" s="40">
+      <c r="N2" s="40">
         <v>3.4931506849315071E-2</v>
       </c>
-      <c r="Q2" s="28">
-        <f>B2-R2</f>
+      <c r="O2" s="28">
+        <f>B2-P2</f>
         <v>39638.591999999997</v>
       </c>
-      <c r="R2" s="28">
-        <f t="shared" ref="R2:R12" si="0">H2</f>
+      <c r="P2" s="28">
+        <f t="shared" ref="P2:P12" si="0">H2</f>
         <v>3075.4079999999999</v>
       </c>
-      <c r="S2" s="33">
-        <f>ROUND(O2*Q2,0)</f>
+      <c r="Q2" s="33">
+        <f>ROUND(M2*O2,0)</f>
         <v>923</v>
       </c>
-      <c r="T2" s="33">
-        <f t="shared" ref="T2" si="1">ROUND(P2*R2,0)</f>
+      <c r="R2" s="33">
+        <f t="shared" ref="R2" si="1">ROUND(N2*P2,0)</f>
         <v>107</v>
       </c>
-      <c r="U2" s="11">
+      <c r="S2" s="11">
         <v>1007</v>
       </c>
-      <c r="V2" s="37">
+      <c r="T2" s="37">
         <v>0.81</v>
       </c>
-      <c r="W2" s="37">
+      <c r="U2" s="37">
         <v>0.82</v>
       </c>
-      <c r="X2" s="38">
-        <f>U2*V2*W2</f>
+      <c r="V2" s="38">
+        <f>S2*T2*U2</f>
         <v>668.84940000000006</v>
       </c>
-      <c r="Y2" s="34">
+      <c r="W2" s="34">
         <v>0.17</v>
       </c>
-      <c r="Z2" s="36">
-        <f>X2-AA2</f>
+      <c r="X2" s="36">
+        <f>V2-Y2</f>
         <v>555.14500200000009</v>
       </c>
-      <c r="AA2" s="36">
-        <f>X2*Y2</f>
+      <c r="Y2" s="36">
+        <f>V2*W2</f>
         <v>113.70439800000001</v>
       </c>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2008</v>
       </c>
-      <c r="B3" s="113">
+      <c r="B3" s="103">
         <f>SUM(C3:D3)</f>
         <v>44849.7</v>
       </c>
-      <c r="C3" s="114">
+      <c r="C3" s="104">
         <f>1.05*C2</f>
         <v>40772.454545454544</v>
       </c>
-      <c r="D3" s="115">
+      <c r="D3" s="105">
         <f>D2*1.05</f>
         <v>4077.2454545454548</v>
       </c>
-      <c r="E3" s="129"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="113">
+      <c r="E3" s="116"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="103">
         <f>B3*7.2/100</f>
         <v>3229.1783999999998</v>
       </c>
-      <c r="I3" s="114"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="28">
-        <f>B3-R3</f>
+      <c r="I3" s="104"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="28">
+        <f>B3-P3</f>
         <v>41620.5216</v>
       </c>
-      <c r="R3" s="28">
+      <c r="P3" s="28">
         <f t="shared" si="0"/>
         <v>3229.1783999999998</v>
       </c>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="11">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="11">
         <v>922</v>
       </c>
-      <c r="V3" s="37">
+      <c r="T3" s="37">
         <v>0.81</v>
       </c>
-      <c r="W3" s="37">
+      <c r="U3" s="37">
         <v>0.82</v>
       </c>
-      <c r="X3" s="38">
-        <f t="shared" ref="X3:X12" si="2">U3*V3*W3</f>
+      <c r="V3" s="38">
+        <f t="shared" ref="V3:V12" si="2">S3*T3*U3</f>
         <v>612.39239999999995</v>
       </c>
-      <c r="Y3" s="34">
+      <c r="W3" s="34">
         <v>0.17</v>
       </c>
-      <c r="Z3" s="36">
-        <f t="shared" ref="Z3:Z12" si="3">X3-AA3</f>
+      <c r="X3" s="36">
+        <f t="shared" ref="X3:X12" si="3">V3-Y3</f>
         <v>508.28569199999993</v>
       </c>
-      <c r="AA3" s="36">
-        <f t="shared" ref="AA3:AA12" si="4">X3*Y3</f>
+      <c r="Y3" s="36">
+        <f t="shared" ref="Y3:Y12" si="4">V3*W3</f>
         <v>104.106708</v>
       </c>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2009</v>
       </c>
-      <c r="B4" s="113">
+      <c r="B4" s="103">
         <f t="shared" ref="B4:B12" si="5">SUM(C4:D4)</f>
         <v>47092.184999999998</v>
       </c>
-      <c r="C4" s="114">
+      <c r="C4" s="104">
         <f t="shared" ref="C4:C11" si="6">1.05*C3</f>
         <v>42811.077272727271</v>
       </c>
-      <c r="D4" s="115">
+      <c r="D4" s="105">
         <f t="shared" ref="D4:D12" si="7">D3*1.05</f>
         <v>4281.107727272728</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="113">
+      <c r="E4" s="116"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="103">
         <f>B4*7.2/100</f>
         <v>3390.6373200000003</v>
       </c>
-      <c r="I4" s="114"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="28">
-        <f>B4-R4</f>
+      <c r="I4" s="104"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="28">
+        <f>B4-P4</f>
         <v>43701.547679999996</v>
       </c>
-      <c r="R4" s="28">
+      <c r="P4" s="28">
         <f t="shared" si="0"/>
         <v>3390.6373200000003</v>
       </c>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="11">
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="11">
         <v>1480</v>
       </c>
-      <c r="V4" s="37">
+      <c r="T4" s="37">
         <v>0.81</v>
       </c>
-      <c r="W4" s="37">
+      <c r="U4" s="37">
         <v>0.82</v>
       </c>
-      <c r="X4" s="38">
+      <c r="V4" s="38">
         <f t="shared" si="2"/>
         <v>983.01600000000008</v>
       </c>
-      <c r="Y4" s="34">
+      <c r="W4" s="34">
         <v>0.17</v>
       </c>
-      <c r="Z4" s="36">
+      <c r="X4" s="36">
         <f t="shared" si="3"/>
         <v>815.90328</v>
       </c>
-      <c r="AA4" s="36">
+      <c r="Y4" s="36">
         <f t="shared" si="4"/>
         <v>167.11272000000002</v>
       </c>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2010</v>
       </c>
-      <c r="B5" s="113">
+      <c r="B5" s="103">
         <f t="shared" si="5"/>
         <v>49446.794249999999</v>
       </c>
-      <c r="C5" s="114">
+      <c r="C5" s="104">
         <f t="shared" si="6"/>
         <v>44951.631136363634</v>
       </c>
-      <c r="D5" s="115">
+      <c r="D5" s="105">
         <f t="shared" si="7"/>
         <v>4495.1631136363649</v>
       </c>
-      <c r="E5" s="118">
+      <c r="E5" s="108">
         <v>178</v>
       </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="113">
+      <c r="F5" s="110"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="103">
         <f>B5*7.2/100</f>
         <v>3560.1691859999996</v>
       </c>
-      <c r="I5" s="114"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="119">
-        <v>0.75</v>
-      </c>
-      <c r="M5" s="149">
-        <v>0.8</v>
-      </c>
-      <c r="N5" s="107"/>
-      <c r="O5" s="40">
+      <c r="I5" s="104"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="40">
         <v>4.0273972602739724E-2</v>
       </c>
-      <c r="P5" s="40">
+      <c r="N5" s="40">
         <v>4.3150684931506846E-2</v>
       </c>
-      <c r="Q5" s="28">
-        <f>B5-R5</f>
+      <c r="O5" s="28">
+        <f>B5-P5</f>
         <v>45886.625064</v>
       </c>
-      <c r="R5" s="28">
+      <c r="P5" s="28">
         <f t="shared" si="0"/>
         <v>3560.1691859999996</v>
       </c>
-      <c r="S5" s="32">
-        <f t="shared" ref="S5:S11" si="8">ROUND(O5*Q5,0)</f>
+      <c r="Q5" s="32">
+        <f t="shared" ref="Q5:Q11" si="8">ROUND(M5*O5,0)</f>
         <v>1848</v>
       </c>
-      <c r="T5" s="32">
-        <f t="shared" ref="T5:T12" si="9">ROUND(P5*R5,0)</f>
+      <c r="R5" s="32">
+        <f t="shared" ref="R5:R12" si="9">ROUND(N5*P5,0)</f>
         <v>154</v>
       </c>
-      <c r="U5" s="11">
+      <c r="S5" s="11">
         <v>1758</v>
       </c>
-      <c r="V5" s="37">
+      <c r="T5" s="37">
         <v>0.81</v>
       </c>
-      <c r="W5" s="37">
+      <c r="U5" s="37">
         <v>0.82</v>
       </c>
-      <c r="X5" s="38">
+      <c r="V5" s="38">
         <f t="shared" si="2"/>
         <v>1167.6635999999999</v>
       </c>
-      <c r="Y5" s="34">
+      <c r="W5" s="34">
         <v>0.17</v>
       </c>
-      <c r="Z5" s="36">
+      <c r="X5" s="36">
         <f t="shared" si="3"/>
         <v>969.16078799999991</v>
       </c>
-      <c r="AA5" s="36">
+      <c r="Y5" s="36">
         <f t="shared" si="4"/>
         <v>198.50281199999998</v>
       </c>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2011</v>
       </c>
-      <c r="B6" s="113">
+      <c r="B6" s="103">
         <f t="shared" si="5"/>
         <v>51919.133962500004</v>
       </c>
-      <c r="C6" s="114">
+      <c r="C6" s="104">
         <f t="shared" si="6"/>
         <v>47199.21269318182</v>
       </c>
-      <c r="D6" s="115">
+      <c r="D6" s="105">
         <f t="shared" si="7"/>
         <v>4719.9212693181835</v>
       </c>
-      <c r="E6" s="118">
+      <c r="E6" s="108">
         <v>218</v>
       </c>
-      <c r="F6" s="121"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="113">
+      <c r="F6" s="110"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="103">
         <f>B6*7.2/100</f>
         <v>3738.1776453000002</v>
       </c>
-      <c r="I6" s="114"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="121"/>
-      <c r="M6" s="150"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="40">
+      <c r="I6" s="104"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="160"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="40">
         <v>3.7534246575342468E-2</v>
       </c>
-      <c r="P6" s="40">
+      <c r="N6" s="40">
         <v>4.726027397260274E-2</v>
       </c>
-      <c r="Q6" s="28">
-        <f>B6-R6</f>
+      <c r="O6" s="28">
+        <f>B6-P6</f>
         <v>48180.956317200005</v>
       </c>
-      <c r="R6" s="28">
+      <c r="P6" s="28">
         <f t="shared" si="0"/>
         <v>3738.1776453000002</v>
       </c>
-      <c r="S6" s="32">
+      <c r="Q6" s="32">
         <f t="shared" si="8"/>
         <v>1808</v>
       </c>
-      <c r="T6" s="32">
+      <c r="R6" s="32">
         <f t="shared" si="9"/>
         <v>177</v>
       </c>
-      <c r="U6" s="11">
+      <c r="S6" s="11">
         <v>1863</v>
       </c>
-      <c r="V6" s="37">
+      <c r="T6" s="37">
         <v>0.81</v>
       </c>
-      <c r="W6" s="37">
+      <c r="U6" s="37">
         <v>0.82</v>
       </c>
-      <c r="X6" s="38">
+      <c r="V6" s="38">
         <f t="shared" si="2"/>
         <v>1237.4046000000001</v>
       </c>
-      <c r="Y6" s="34">
+      <c r="W6" s="34">
         <v>0.17</v>
       </c>
-      <c r="Z6" s="36">
+      <c r="X6" s="36">
         <f t="shared" si="3"/>
         <v>1027.0458180000001</v>
       </c>
-      <c r="AA6" s="36">
+      <c r="Y6" s="36">
         <f t="shared" si="4"/>
         <v>210.35878200000002</v>
       </c>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2012</v>
       </c>
-      <c r="B7" s="113">
+      <c r="B7" s="103">
         <f t="shared" si="5"/>
         <v>54515.090660625006</v>
       </c>
-      <c r="C7" s="114">
+      <c r="C7" s="104">
         <f t="shared" si="6"/>
         <v>49559.173327840916</v>
       </c>
-      <c r="D7" s="115">
+      <c r="D7" s="105">
         <f t="shared" si="7"/>
         <v>4955.9173327840927</v>
       </c>
-      <c r="E7" s="118">
+      <c r="E7" s="108">
         <v>200</v>
       </c>
-      <c r="F7" s="121"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="113">
+      <c r="F7" s="110"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="103">
         <f>B7*7.2/100</f>
         <v>3925.0865275650008</v>
       </c>
-      <c r="I7" s="114"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="118">
+      <c r="I7" s="104"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="159">
         <v>0.91200000000000003</v>
       </c>
-      <c r="L7" s="119">
-        <v>0.82</v>
-      </c>
-      <c r="M7" s="149">
-        <v>0.88</v>
-      </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="40">
+      <c r="L7" s="97"/>
+      <c r="M7" s="40">
         <v>4.876712328767123E-2</v>
       </c>
-      <c r="P7" s="40">
+      <c r="N7" s="40">
         <v>5.3835616438356167E-2</v>
       </c>
-      <c r="Q7" s="28">
-        <f>B7-R7</f>
+      <c r="O7" s="28">
+        <f>B7-P7</f>
         <v>50590.004133060007</v>
       </c>
-      <c r="R7" s="28">
+      <c r="P7" s="28">
         <f t="shared" si="0"/>
         <v>3925.0865275650008</v>
       </c>
-      <c r="S7" s="32">
+      <c r="Q7" s="32">
         <f t="shared" si="8"/>
         <v>2467</v>
       </c>
-      <c r="T7" s="32">
+      <c r="R7" s="32">
         <f t="shared" si="9"/>
         <v>211</v>
       </c>
-      <c r="U7" s="11">
+      <c r="S7" s="11">
         <v>2436</v>
       </c>
-      <c r="V7" s="37">
+      <c r="T7" s="37">
         <v>0.81</v>
       </c>
-      <c r="W7" s="37">
+      <c r="U7" s="37">
         <v>0.82</v>
       </c>
-      <c r="X7" s="38">
+      <c r="V7" s="38">
         <f t="shared" si="2"/>
         <v>1617.9911999999999</v>
       </c>
-      <c r="Y7" s="34">
+      <c r="W7" s="34">
         <v>0.17</v>
       </c>
-      <c r="Z7" s="36">
+      <c r="X7" s="36">
         <f t="shared" si="3"/>
         <v>1342.9326959999999</v>
       </c>
-      <c r="AA7" s="36">
+      <c r="Y7" s="36">
         <f t="shared" si="4"/>
         <v>275.05850400000003</v>
       </c>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>2013</v>
       </c>
-      <c r="B8" s="113">
+      <c r="B8" s="103">
         <f t="shared" si="5"/>
         <v>57240.845193656263</v>
       </c>
-      <c r="C8" s="114">
+      <c r="C8" s="104">
         <f t="shared" si="6"/>
         <v>52037.131994232965</v>
       </c>
-      <c r="D8" s="115">
+      <c r="D8" s="105">
         <f t="shared" si="7"/>
         <v>5203.7131994232977</v>
       </c>
-      <c r="E8" s="118">
+      <c r="E8" s="108">
         <v>218</v>
       </c>
-      <c r="F8" s="121"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="113">
+      <c r="F8" s="110"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="103">
         <f>B8*7.2/100</f>
         <v>4121.3408539432512</v>
       </c>
-      <c r="I8" s="114"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="123">
-        <v>0.86</v>
-      </c>
-      <c r="M8" s="149">
-        <v>0.9</v>
-      </c>
-      <c r="N8" s="107"/>
-      <c r="O8" s="40">
+      <c r="I8" s="104"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="159"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="40">
         <v>5.2876712328767124E-2</v>
       </c>
-      <c r="P8" s="40">
+      <c r="N8" s="40">
         <v>6.2671232876712321E-2</v>
       </c>
-      <c r="Q8" s="28">
-        <f>B8-R8</f>
+      <c r="O8" s="28">
+        <f>B8-P8</f>
         <v>53119.504339713014</v>
       </c>
-      <c r="R8" s="28">
+      <c r="P8" s="28">
         <f t="shared" si="0"/>
         <v>4121.3408539432512</v>
       </c>
-      <c r="S8" s="32">
+      <c r="Q8" s="32">
         <f t="shared" si="8"/>
         <v>2809</v>
       </c>
-      <c r="T8" s="32">
+      <c r="R8" s="32">
         <f t="shared" si="9"/>
         <v>258</v>
       </c>
-      <c r="U8" s="11">
+      <c r="S8" s="11">
         <v>2978</v>
       </c>
-      <c r="V8" s="37">
+      <c r="T8" s="37">
         <v>0.81</v>
       </c>
-      <c r="W8" s="37">
+      <c r="U8" s="37">
         <v>0.82</v>
       </c>
-      <c r="X8" s="38">
+      <c r="V8" s="38">
         <f t="shared" si="2"/>
         <v>1977.9876000000002</v>
       </c>
-      <c r="Y8" s="34">
+      <c r="W8" s="34">
         <v>0.17</v>
       </c>
-      <c r="Z8" s="36">
+      <c r="X8" s="36">
         <f t="shared" si="3"/>
         <v>1641.7297080000001</v>
       </c>
-      <c r="AA8" s="36">
+      <c r="Y8" s="36">
         <f t="shared" si="4"/>
         <v>336.25789200000003</v>
       </c>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2014</v>
       </c>
-      <c r="B9" s="113">
+      <c r="B9" s="103">
         <f t="shared" si="5"/>
         <v>60102.887453339077</v>
       </c>
-      <c r="C9" s="114">
+      <c r="C9" s="104">
         <f t="shared" si="6"/>
         <v>54638.988593944618</v>
       </c>
-      <c r="D9" s="115">
+      <c r="D9" s="105">
         <f t="shared" si="7"/>
         <v>5463.8988593944632</v>
       </c>
-      <c r="E9" s="118">
+      <c r="E9" s="108">
         <v>219</v>
       </c>
-      <c r="F9" s="121"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="113">
+      <c r="F9" s="110"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="103">
         <f>B9*7.2/100</f>
         <v>4327.407896640414</v>
       </c>
-      <c r="I9" s="114"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="118">
+      <c r="I9" s="104"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="159">
         <v>0.88</v>
       </c>
-      <c r="L9" s="123">
-        <v>0.89</v>
-      </c>
-      <c r="M9" s="151">
-        <v>0.9</v>
-      </c>
-      <c r="N9" s="107"/>
-      <c r="O9" s="40">
+      <c r="L9" s="97"/>
+      <c r="M9" s="40">
         <v>5.1506849315068493E-2</v>
       </c>
-      <c r="P9" s="40">
+      <c r="N9" s="40">
         <v>5.321917808219178E-2</v>
       </c>
-      <c r="Q9" s="28">
-        <f>B9-R9</f>
+      <c r="O9" s="28">
+        <f>B9-P9</f>
         <v>55775.479556698665</v>
       </c>
-      <c r="R9" s="28">
+      <c r="P9" s="28">
         <f t="shared" si="0"/>
         <v>4327.407896640414</v>
       </c>
-      <c r="S9" s="32">
+      <c r="Q9" s="32">
         <f t="shared" si="8"/>
         <v>2873</v>
       </c>
-      <c r="T9" s="32">
+      <c r="R9" s="32">
         <f t="shared" si="9"/>
         <v>230</v>
       </c>
-      <c r="U9" s="11">
+      <c r="S9" s="11">
         <v>3269</v>
       </c>
-      <c r="V9" s="37">
+      <c r="T9" s="37">
         <v>0.81</v>
       </c>
-      <c r="W9" s="37">
+      <c r="U9" s="37">
         <v>0.82</v>
       </c>
-      <c r="X9" s="38">
+      <c r="V9" s="38">
         <f t="shared" si="2"/>
         <v>2171.2698</v>
       </c>
-      <c r="Y9" s="34">
+      <c r="W9" s="34">
         <v>0.17</v>
       </c>
-      <c r="Z9" s="36">
+      <c r="X9" s="36">
         <f t="shared" si="3"/>
         <v>1802.1539339999999</v>
       </c>
-      <c r="AA9" s="36">
+      <c r="Y9" s="36">
         <f t="shared" si="4"/>
         <v>369.11586600000004</v>
       </c>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2015</v>
       </c>
-      <c r="B10" s="113">
+      <c r="B10" s="103">
         <f t="shared" si="5"/>
         <v>63108.031826006038</v>
       </c>
-      <c r="C10" s="114">
+      <c r="C10" s="104">
         <f t="shared" si="6"/>
         <v>57370.938023641851</v>
       </c>
-      <c r="D10" s="115">
+      <c r="D10" s="105">
         <f t="shared" si="7"/>
         <v>5737.0938023641866</v>
       </c>
-      <c r="E10" s="118">
+      <c r="E10" s="108">
         <v>206</v>
       </c>
-      <c r="F10" s="121"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="113">
+      <c r="F10" s="110"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="103">
         <f>B10*7.2/100</f>
         <v>4543.7782914724348</v>
       </c>
-      <c r="I10" s="114"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="118">
+      <c r="I10" s="104"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="159">
         <v>0.88</v>
       </c>
-      <c r="L10" s="119">
-        <v>0.92</v>
-      </c>
-      <c r="M10" s="149">
-        <v>0.92</v>
-      </c>
-      <c r="N10" s="107"/>
-      <c r="O10" s="40">
+      <c r="L10" s="97"/>
+      <c r="M10" s="40">
         <v>6.6575342465753418E-2</v>
       </c>
-      <c r="P10" s="40">
+      <c r="N10" s="40">
         <v>6.7191780821917804E-2</v>
       </c>
-      <c r="Q10" s="28">
-        <f>B10-R10</f>
+      <c r="O10" s="28">
+        <f>B10-P10</f>
         <v>58564.2535345336</v>
       </c>
-      <c r="R10" s="28">
+      <c r="P10" s="28">
         <f t="shared" si="0"/>
         <v>4543.7782914724348</v>
       </c>
-      <c r="S10" s="32">
+      <c r="Q10" s="32">
         <f t="shared" si="8"/>
         <v>3899</v>
       </c>
-      <c r="T10" s="32">
+      <c r="R10" s="32">
         <f t="shared" si="9"/>
         <v>305</v>
       </c>
-      <c r="U10" s="11">
+      <c r="S10" s="11">
         <v>4865</v>
       </c>
-      <c r="V10" s="37">
+      <c r="T10" s="37">
         <v>0.81</v>
       </c>
-      <c r="W10" s="37">
+      <c r="U10" s="37">
         <v>0.82</v>
       </c>
-      <c r="X10" s="38">
+      <c r="V10" s="38">
         <f t="shared" si="2"/>
         <v>3231.3330000000001</v>
       </c>
-      <c r="Y10" s="35">
+      <c r="W10" s="35">
         <v>0.17</v>
       </c>
-      <c r="Z10" s="36">
+      <c r="X10" s="36">
         <f t="shared" si="3"/>
         <v>2682.00639</v>
       </c>
-      <c r="AA10" s="36">
+      <c r="Y10" s="36">
         <f t="shared" si="4"/>
         <v>549.32661000000007</v>
       </c>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2016</v>
       </c>
-      <c r="B11" s="113">
+      <c r="B11" s="103">
         <f t="shared" si="5"/>
         <v>66263.43341730634</v>
       </c>
-      <c r="C11" s="114">
+      <c r="C11" s="104">
         <f t="shared" si="6"/>
         <v>60239.484924823948</v>
       </c>
-      <c r="D11" s="115">
+      <c r="D11" s="105">
         <f t="shared" si="7"/>
         <v>6023.9484924823964</v>
       </c>
-      <c r="E11" s="118">
+      <c r="E11" s="108">
         <v>233</v>
       </c>
-      <c r="F11" s="121"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="113">
+      <c r="F11" s="110"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="103">
         <f>B11*7.2/100</f>
         <v>4770.9672060460571</v>
       </c>
-      <c r="I11" s="114"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="118">
+      <c r="I11" s="104"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="159">
         <v>0.89</v>
       </c>
-      <c r="L11" s="119">
-        <v>0.95</v>
-      </c>
-      <c r="M11" s="149">
-        <v>0.94</v>
-      </c>
-      <c r="N11" s="107"/>
-      <c r="O11" s="40">
+      <c r="L11" s="97"/>
+      <c r="M11" s="40">
         <v>6.3287671232876708E-2</v>
       </c>
-      <c r="P11" s="40">
+      <c r="N11" s="40">
         <v>6.9246575342465755E-2</v>
       </c>
-      <c r="Q11" s="28">
-        <f>B11-R11</f>
+      <c r="O11" s="28">
+        <f>B11-P11</f>
         <v>61492.466211260282</v>
       </c>
-      <c r="R11" s="28">
+      <c r="P11" s="28">
         <f t="shared" si="0"/>
         <v>4770.9672060460571</v>
       </c>
-      <c r="S11" s="32">
+      <c r="Q11" s="32">
         <f t="shared" si="8"/>
         <v>3892</v>
       </c>
-      <c r="T11" s="32">
+      <c r="R11" s="32">
         <f t="shared" si="9"/>
         <v>330</v>
       </c>
-      <c r="U11" s="11">
+      <c r="S11" s="11">
         <v>6265</v>
       </c>
-      <c r="V11" s="37">
+      <c r="T11" s="37">
         <v>0.81</v>
       </c>
-      <c r="W11" s="37">
+      <c r="U11" s="37">
         <v>0.82</v>
       </c>
-      <c r="X11" s="38">
+      <c r="V11" s="38">
         <f t="shared" si="2"/>
         <v>4161.2130000000006</v>
       </c>
-      <c r="Y11" s="35">
+      <c r="W11" s="35">
         <v>0.13</v>
       </c>
-      <c r="Z11" s="36">
+      <c r="X11" s="36">
         <f t="shared" si="3"/>
         <v>3620.2553100000005</v>
       </c>
-      <c r="AA11" s="36">
+      <c r="Y11" s="36">
         <f t="shared" si="4"/>
         <v>540.95769000000007</v>
       </c>
-      <c r="AB11" s="42">
+      <c r="Z11" s="42">
         <v>0.18</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2017</v>
       </c>
-      <c r="B12" s="113">
+      <c r="B12" s="103">
         <f t="shared" si="5"/>
         <v>69576.605088171666</v>
       </c>
-      <c r="C12" s="114">
+      <c r="C12" s="104">
         <f>1.05*C11</f>
         <v>63251.459171065151</v>
       </c>
-      <c r="D12" s="115">
+      <c r="D12" s="105">
         <f t="shared" si="7"/>
         <v>6325.1459171065162</v>
       </c>
-      <c r="E12" s="118">
+      <c r="E12" s="108">
         <v>194</v>
       </c>
-      <c r="F12" s="121"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="113">
+      <c r="F12" s="110"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="103">
         <f>B12*7.2/100</f>
         <v>5009.5155663483602</v>
       </c>
-      <c r="I12" s="114"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="120">
+      <c r="I12" s="104"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="160">
         <v>0.9</v>
       </c>
-      <c r="L12" s="121"/>
-      <c r="M12" s="150"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="40" t="e">
+      <c r="L12" s="97"/>
+      <c r="M12" s="40" t="e">
         <f>0.01*(#REF!*#REF!+#REF!*#REF!)/(#REF!+#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="P12" s="40">
+      <c r="N12" s="40">
         <v>4.6699999999999998E-2</v>
       </c>
-      <c r="Q12" s="28">
-        <f>B12-R12</f>
+      <c r="O12" s="28">
+        <f>B12-P12</f>
         <v>64567.089521823305</v>
       </c>
-      <c r="R12" s="28">
+      <c r="P12" s="28">
         <f t="shared" si="0"/>
         <v>5009.5155663483602</v>
       </c>
-      <c r="S12" s="12"/>
-      <c r="T12" s="32">
+      <c r="Q12" s="12"/>
+      <c r="R12" s="32">
         <f t="shared" si="9"/>
         <v>234</v>
       </c>
-      <c r="U12" s="11">
+      <c r="S12" s="11">
         <v>7289</v>
       </c>
-      <c r="V12" s="37">
+      <c r="T12" s="37">
         <v>0.81</v>
       </c>
-      <c r="W12" s="37">
+      <c r="U12" s="37">
         <v>0.7</v>
       </c>
-      <c r="X12" s="38">
+      <c r="V12" s="38">
         <f t="shared" si="2"/>
         <v>4132.8630000000003</v>
       </c>
-      <c r="Y12" s="34">
+      <c r="W12" s="34">
         <v>0.1</v>
       </c>
-      <c r="Z12" s="36">
+      <c r="X12" s="36">
         <f t="shared" si="3"/>
         <v>3719.5767000000001</v>
       </c>
-      <c r="AA12" s="36">
+      <c r="Y12" s="36">
         <f t="shared" si="4"/>
         <v>413.28630000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2018</v>
       </c>
-      <c r="B13" s="116"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="118">
+      <c r="B13" s="106"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="159">
         <v>0.9</v>
       </c>
-      <c r="L13" s="124"/>
-      <c r="M13" s="152"/>
-      <c r="N13" s="146"/>
-    </row>
-    <row r="14" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="142">
+      <c r="L13" s="132"/>
+    </row>
+    <row r="14" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="129">
         <v>2019</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="145"/>
-      <c r="M14" s="153"/>
-      <c r="N14" s="146"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="161"/>
+      <c r="L14" s="132"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G15" s="10"/>
-      <c r="Q15" s="147"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="O15" s="133"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="N16" s="10"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="N17" s="10"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="N18" s="10"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="G19" s="10"/>
-      <c r="N19" s="10"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="G20" s="10"/>
-      <c r="N20" s="10"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="G21" s="10"/>
-      <c r="N21" s="10"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L21" s="10"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="N22" s="10"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L22" s="10"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
-      <c r="N23" s="10"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
-      <c r="N24" s="10"/>
+      <c r="L24" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4857,195 +4713,195 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="154"/>
-      <c r="B1" s="155" t="s">
+      <c r="A1" s="134"/>
+      <c r="B1" s="135" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="136" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="136" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="156" t="s">
+      <c r="E1" s="151" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="156" t="s">
+      <c r="F1" s="136" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="171" t="s">
+      <c r="G1" s="137" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="156" t="s">
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="138" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="139">
+        <v>1</v>
+      </c>
+      <c r="C2" s="140">
+        <v>1</v>
+      </c>
+      <c r="D2" s="140">
+        <v>1</v>
+      </c>
+      <c r="E2" s="156">
+        <v>1</v>
+      </c>
+      <c r="F2" s="140">
+        <v>1</v>
+      </c>
+      <c r="G2" s="141">
+        <v>1</v>
+      </c>
+      <c r="I2" s="150" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="157" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="158" t="s">
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="150"/>
+      <c r="P2" s="150"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="142" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="143">
+        <v>1</v>
+      </c>
+      <c r="C3" s="144">
+        <v>1</v>
+      </c>
+      <c r="D3" s="144">
+        <v>1</v>
+      </c>
+      <c r="E3" s="154">
+        <v>1</v>
+      </c>
+      <c r="F3" s="144">
+        <v>1</v>
+      </c>
+      <c r="G3" s="145">
+        <v>1</v>
+      </c>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="159">
+      <c r="B4" s="143">
         <v>1</v>
       </c>
-      <c r="C2" s="160">
+      <c r="C4" s="144">
         <v>1</v>
       </c>
-      <c r="D2" s="160">
+      <c r="D4" s="144">
         <v>1</v>
       </c>
-      <c r="E2" s="176">
+      <c r="E4" s="154">
         <v>1</v>
       </c>
-      <c r="F2" s="160">
+      <c r="F4" s="144">
         <v>1</v>
       </c>
-      <c r="G2" s="161">
+      <c r="G4" s="145">
         <v>1</v>
       </c>
-      <c r="I2" s="170" t="s">
-        <v>118</v>
-      </c>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="170"/>
-      <c r="P2" s="170"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="162" t="s">
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="150"/>
+      <c r="O4" s="150"/>
+      <c r="P4" s="150"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="152" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="163">
+      <c r="B5" s="153">
         <v>1</v>
       </c>
-      <c r="C3" s="164">
+      <c r="C5" s="154">
         <v>1</v>
       </c>
-      <c r="D3" s="164">
+      <c r="D5" s="154">
         <v>1</v>
       </c>
-      <c r="E3" s="174">
+      <c r="E5" s="154">
         <v>1</v>
       </c>
-      <c r="F3" s="164">
+      <c r="F5" s="154">
         <v>1</v>
       </c>
-      <c r="G3" s="165">
+      <c r="G5" s="155">
         <v>1</v>
       </c>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="162" t="s">
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="150"/>
+      <c r="O5" s="150"/>
+      <c r="P5" s="150"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="142" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="163">
+      <c r="B6" s="143">
         <v>1</v>
       </c>
-      <c r="C4" s="164">
+      <c r="C6" s="144">
         <v>1</v>
       </c>
-      <c r="D4" s="164">
+      <c r="D6" s="144">
         <v>1</v>
       </c>
-      <c r="E4" s="174">
+      <c r="E6" s="154">
         <v>1</v>
       </c>
-      <c r="F4" s="164">
+      <c r="F6" s="144">
         <v>1</v>
       </c>
-      <c r="G4" s="165">
+      <c r="G6" s="145">
         <v>1</v>
       </c>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-      <c r="P4" s="170"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="172" t="s">
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="173">
+      <c r="B7" s="147">
         <v>1</v>
       </c>
-      <c r="C5" s="174">
+      <c r="C7" s="148">
         <v>1</v>
       </c>
-      <c r="D5" s="174">
+      <c r="D7" s="148">
         <v>1</v>
       </c>
-      <c r="E5" s="174">
+      <c r="E7" s="157">
         <v>1</v>
       </c>
-      <c r="F5" s="174">
+      <c r="F7" s="148">
         <v>1</v>
       </c>
-      <c r="G5" s="175">
-        <v>1</v>
-      </c>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="170"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="170"/>
-      <c r="N5" s="170"/>
-      <c r="O5" s="170"/>
-      <c r="P5" s="170"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="162" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="163">
-        <v>1</v>
-      </c>
-      <c r="C6" s="164">
-        <v>1</v>
-      </c>
-      <c r="D6" s="164">
-        <v>1</v>
-      </c>
-      <c r="E6" s="174">
-        <v>1</v>
-      </c>
-      <c r="F6" s="164">
-        <v>1</v>
-      </c>
-      <c r="G6" s="165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="166" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="167">
-        <v>1</v>
-      </c>
-      <c r="C7" s="168">
-        <v>1</v>
-      </c>
-      <c r="D7" s="168">
-        <v>1</v>
-      </c>
-      <c r="E7" s="177">
-        <v>1</v>
-      </c>
-      <c r="F7" s="168">
-        <v>1</v>
-      </c>
-      <c r="G7" s="169">
+      <c r="G7" s="149">
         <v>1</v>
       </c>
     </row>
@@ -5060,10 +4916,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL34"/>
+  <dimension ref="A1:AK34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5079,29 +4935,28 @@
     <col min="9" max="9" width="11" style="60" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="60" customWidth="1"/>
     <col min="11" max="11" width="13.140625" style="60" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="16" style="60" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="15" style="60" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" style="60" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.85546875" style="60" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28" style="60" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.85546875" style="60" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="28" style="60" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="28" style="60" customWidth="1"/>
-    <col min="32" max="32" width="13.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15" style="60" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.85546875" style="60" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15" style="60" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11" style="60" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15" style="60" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28" style="60" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28" style="60" bestFit="1" customWidth="1"/>
+    <col min="23" max="28" width="16" style="60" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="28" style="60" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15" style="60" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15" style="60" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11" style="60" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>83</v>
       </c>
@@ -5114,10 +4969,10 @@
       <c r="D1" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="172" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="173" t="s">
         <v>92</v>
       </c>
       <c r="G1" s="67" t="s">
@@ -5136,88 +4991,85 @@
         <v>22</v>
       </c>
       <c r="L1" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="172" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="173" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="172" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="173" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="T1" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="U1" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="V1" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="W1" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="X1" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="96" t="s">
+      <c r="Y1" s="162" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="101" t="s">
+      <c r="Z1" s="163" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="67" t="s">
+      <c r="AA1" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="68" t="s">
+      <c r="AB1" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="R1" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="S1" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="T1" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="U1" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="V1" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="W1" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="X1" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y1" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z1" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA1" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB1" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC1" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD1" s="108" t="s">
+      <c r="AC1" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="AE1" s="108" t="s">
+      <c r="AD1" s="98" t="s">
         <v>95</v>
       </c>
+      <c r="AE1" s="81" t="s">
+        <v>91</v>
+      </c>
       <c r="AF1" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG1" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG1" s="82" t="s">
         <v>76</v>
       </c>
       <c r="AH1" s="82" t="s">
         <v>76</v>
       </c>
       <c r="AI1" s="82" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ1" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="AK1" s="82" t="s">
+      <c r="AK1" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="AL1" s="83" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>84</v>
       </c>
@@ -5228,10 +5080,10 @@
       <c r="D2" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="174" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="175" t="s">
         <v>70</v>
       </c>
       <c r="G2" s="70" t="s">
@@ -5246,68 +5098,67 @@
       <c r="L2" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="70" t="s">
+      <c r="M2" s="174" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="175" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="97" t="s">
+      <c r="O2" s="174" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" s="175" t="s">
         <v>72</v>
-      </c>
-      <c r="O2" s="102" t="s">
-        <v>70</v>
-      </c>
-      <c r="P2" s="70" t="s">
-        <v>71</v>
       </c>
       <c r="Q2" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="R2" s="69" t="s">
+      <c r="R2" s="70"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="S2" s="70" t="s">
+      <c r="X2" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" s="164" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" s="165" t="s">
         <v>70</v>
       </c>
-      <c r="T2" s="70" t="s">
+      <c r="AA2" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="U2" s="70" t="s">
+      <c r="AB2" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC2" s="99"/>
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG2" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="V2" s="70" t="s">
+      <c r="AH2" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="W2" s="71" t="s">
+      <c r="AI2" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ2" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK2" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="109"/>
-      <c r="AE2" s="109"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH2" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI2" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ2" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK2" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL2" s="86" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>85</v>
       </c>
@@ -5318,10 +5169,10 @@
       <c r="D3" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="174" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="175" t="s">
         <v>98</v>
       </c>
       <c r="G3" s="70" t="s">
@@ -5338,72 +5189,69 @@
       </c>
       <c r="K3" s="31"/>
       <c r="L3" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="174" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="175" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" s="174" t="s">
+        <v>74</v>
+      </c>
+      <c r="P3" s="175" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q3" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="R3" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="S3" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="T3" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="U3" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="V3" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="W3" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="70" t="s">
+      <c r="X3" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="97" t="s">
+      <c r="Y3" s="164" t="s">
         <v>97</v>
       </c>
-      <c r="O3" s="102" t="s">
+      <c r="Z3" s="165" t="s">
         <v>98</v>
       </c>
-      <c r="P3" s="70" t="s">
+      <c r="AA3" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="Q3" s="71" t="s">
+      <c r="AB3" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="R3" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="S3" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="T3" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="U3" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="V3" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="W3" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="X3" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y3" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z3" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA3" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB3" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC3" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD3" s="109"/>
-      <c r="AE3" s="109"/>
-      <c r="AF3" s="84" t="s">
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="99"/>
+      <c r="AE3" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="AG3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="85"/>
       <c r="AH3" s="85"/>
       <c r="AI3" s="85"/>
       <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="86"/>
-    </row>
-    <row r="4" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK3" s="86"/>
+    </row>
+    <row r="4" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>2000</v>
       </c>
@@ -5416,10 +5264,10 @@
       <c r="D4" s="73">
         <v>1</v>
       </c>
-      <c r="E4" s="74">
+      <c r="E4" s="176">
         <v>0.03</v>
       </c>
-      <c r="F4" s="72">
+      <c r="F4" s="177">
         <v>1</v>
       </c>
       <c r="G4" s="73">
@@ -5438,63 +5286,65 @@
       <c r="L4" s="72">
         <v>1</v>
       </c>
-      <c r="M4" s="73">
-        <v>0</v>
-      </c>
-      <c r="N4" s="98">
-        <v>0</v>
-      </c>
-      <c r="O4" s="103">
-        <v>1</v>
-      </c>
-      <c r="P4" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="74">
-        <v>0</v>
-      </c>
-      <c r="R4" s="72">
-        <v>1</v>
-      </c>
-      <c r="S4" s="73">
+      <c r="M4" s="176">
         <v>10</v>
       </c>
-      <c r="T4" s="73">
+      <c r="N4" s="177">
         <v>0.5</v>
       </c>
-      <c r="U4" s="73">
+      <c r="O4" s="176">
         <v>4</v>
       </c>
-      <c r="V4" s="73">
+      <c r="P4" s="177">
         <f>3/12</f>
         <v>0.25</v>
       </c>
-      <c r="W4" s="74">
+      <c r="Q4" s="74">
         <f>3/12</f>
         <v>0.25</v>
       </c>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="72">
+      <c r="R4" s="73"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="72">
         <v>1</v>
       </c>
-      <c r="AB4" s="73">
+      <c r="U4" s="73">
         <v>1</v>
       </c>
-      <c r="AC4" s="74">
+      <c r="V4" s="74">
         <v>0.04</v>
       </c>
-      <c r="AD4" s="110">
+      <c r="W4" s="87">
         <v>1</v>
       </c>
-      <c r="AE4" s="110">
+      <c r="X4" s="88">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="166">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="167">
         <v>1</v>
       </c>
+      <c r="AA4" s="88">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="89">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="100">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="100">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="87">
+        <v>1</v>
+      </c>
       <c r="AF4" s="87">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="87">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="88">
         <v>0</v>
       </c>
       <c r="AH4" s="88">
@@ -5506,364 +5356,351 @@
       <c r="AJ4" s="88">
         <v>0</v>
       </c>
-      <c r="AK4" s="88">
+      <c r="AK4" s="89">
         <v>0</v>
       </c>
-      <c r="AL4" s="89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>2001</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="75"/>
       <c r="D5" s="76"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="75"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="179"/>
       <c r="G5" s="76"/>
       <c r="H5" s="77"/>
       <c r="I5" s="75"/>
       <c r="J5" s="77"/>
       <c r="K5" s="62"/>
       <c r="L5" s="75"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="76"/>
+      <c r="M5" s="178"/>
+      <c r="N5" s="179"/>
+      <c r="O5" s="178"/>
+      <c r="P5" s="179"/>
       <c r="Q5" s="77"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="75"/>
       <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="75"/>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="77"/>
-      <c r="AD5" s="111"/>
-      <c r="AE5" s="111"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="168"/>
+      <c r="Z5" s="169"/>
+      <c r="AA5" s="91"/>
+      <c r="AB5" s="92"/>
+      <c r="AC5" s="101"/>
+      <c r="AD5" s="101"/>
+      <c r="AE5" s="90"/>
       <c r="AF5" s="90"/>
-      <c r="AG5" s="90"/>
+      <c r="AG5" s="91"/>
       <c r="AH5" s="91"/>
       <c r="AI5" s="91"/>
       <c r="AJ5" s="91"/>
-      <c r="AK5" s="91"/>
-      <c r="AL5" s="92"/>
-    </row>
-    <row r="6" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK5" s="92"/>
+    </row>
+    <row r="6" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>2002</v>
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="75"/>
       <c r="D6" s="76"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="75"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="179"/>
       <c r="G6" s="76"/>
       <c r="H6" s="77"/>
       <c r="I6" s="75"/>
       <c r="J6" s="77"/>
       <c r="K6" s="62"/>
       <c r="L6" s="75"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="76"/>
+      <c r="M6" s="178"/>
+      <c r="N6" s="179"/>
+      <c r="O6" s="178"/>
+      <c r="P6" s="179"/>
       <c r="Q6" s="77"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="75"/>
       <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="75"/>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="111"/>
-      <c r="AE6" s="111"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="91"/>
+      <c r="Y6" s="168"/>
+      <c r="Z6" s="169"/>
+      <c r="AA6" s="91"/>
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="101"/>
+      <c r="AD6" s="101"/>
+      <c r="AE6" s="90"/>
       <c r="AF6" s="90"/>
-      <c r="AG6" s="90"/>
+      <c r="AG6" s="91"/>
       <c r="AH6" s="91"/>
       <c r="AI6" s="91"/>
       <c r="AJ6" s="91"/>
-      <c r="AK6" s="91"/>
-      <c r="AL6" s="92"/>
-    </row>
-    <row r="7" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK6" s="92"/>
+    </row>
+    <row r="7" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>2003</v>
       </c>
       <c r="B7" s="44"/>
       <c r="C7" s="75"/>
       <c r="D7" s="76"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="75"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="179"/>
       <c r="G7" s="76"/>
       <c r="H7" s="77"/>
       <c r="I7" s="75"/>
       <c r="J7" s="77"/>
       <c r="K7" s="62"/>
       <c r="L7" s="75"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="76"/>
+      <c r="M7" s="178"/>
+      <c r="N7" s="179"/>
+      <c r="O7" s="178"/>
+      <c r="P7" s="179"/>
       <c r="Q7" s="77"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="76"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="75"/>
       <c r="U7" s="76"/>
-      <c r="V7" s="76"/>
-      <c r="W7" s="77"/>
-      <c r="X7" s="75"/>
-      <c r="Y7" s="76"/>
-      <c r="Z7" s="77"/>
-      <c r="AA7" s="75"/>
-      <c r="AB7" s="76"/>
-      <c r="AC7" s="77"/>
-      <c r="AD7" s="111"/>
-      <c r="AE7" s="111"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="168"/>
+      <c r="Z7" s="169"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="92"/>
+      <c r="AC7" s="101"/>
+      <c r="AD7" s="101"/>
+      <c r="AE7" s="90"/>
       <c r="AF7" s="90"/>
-      <c r="AG7" s="90"/>
+      <c r="AG7" s="91"/>
       <c r="AH7" s="91"/>
       <c r="AI7" s="91"/>
       <c r="AJ7" s="91"/>
-      <c r="AK7" s="91"/>
-      <c r="AL7" s="92"/>
-    </row>
-    <row r="8" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK7" s="92"/>
+    </row>
+    <row r="8" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>2004</v>
       </c>
       <c r="B8" s="44"/>
       <c r="C8" s="75"/>
       <c r="D8" s="76"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="75"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="179"/>
       <c r="G8" s="76"/>
       <c r="H8" s="77"/>
       <c r="I8" s="75"/>
       <c r="J8" s="77"/>
       <c r="K8" s="62"/>
       <c r="L8" s="75"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="76"/>
+      <c r="M8" s="178"/>
+      <c r="N8" s="179"/>
+      <c r="O8" s="178"/>
+      <c r="P8" s="179"/>
       <c r="Q8" s="77"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="76"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="75"/>
       <c r="U8" s="76"/>
-      <c r="V8" s="76"/>
-      <c r="W8" s="77"/>
-      <c r="X8" s="75"/>
-      <c r="Y8" s="76"/>
-      <c r="Z8" s="77"/>
-      <c r="AA8" s="75"/>
-      <c r="AB8" s="76"/>
-      <c r="AC8" s="77"/>
-      <c r="AD8" s="111"/>
-      <c r="AE8" s="111"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="91"/>
+      <c r="Y8" s="168"/>
+      <c r="Z8" s="169"/>
+      <c r="AA8" s="91"/>
+      <c r="AB8" s="92"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="90"/>
       <c r="AF8" s="90"/>
-      <c r="AG8" s="90"/>
+      <c r="AG8" s="91"/>
       <c r="AH8" s="91"/>
       <c r="AI8" s="91"/>
       <c r="AJ8" s="91"/>
-      <c r="AK8" s="91"/>
-      <c r="AL8" s="92"/>
-    </row>
-    <row r="9" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK8" s="92"/>
+    </row>
+    <row r="9" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>2005</v>
       </c>
       <c r="B9" s="44"/>
       <c r="C9" s="75"/>
       <c r="D9" s="76"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="75"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="179"/>
       <c r="G9" s="76"/>
       <c r="H9" s="77"/>
       <c r="I9" s="75"/>
       <c r="J9" s="77"/>
       <c r="K9" s="62"/>
       <c r="L9" s="75"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="76"/>
+      <c r="M9" s="178"/>
+      <c r="N9" s="179"/>
+      <c r="O9" s="178"/>
+      <c r="P9" s="179"/>
       <c r="Q9" s="77"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="75"/>
       <c r="U9" s="76"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="77"/>
-      <c r="X9" s="75"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="77"/>
-      <c r="AA9" s="75"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="77"/>
-      <c r="AD9" s="111"/>
-      <c r="AE9" s="111"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="91"/>
+      <c r="Y9" s="168"/>
+      <c r="Z9" s="169"/>
+      <c r="AA9" s="91"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="101"/>
+      <c r="AE9" s="90"/>
       <c r="AF9" s="90"/>
-      <c r="AG9" s="90"/>
+      <c r="AG9" s="91"/>
       <c r="AH9" s="91"/>
       <c r="AI9" s="91"/>
       <c r="AJ9" s="91"/>
-      <c r="AK9" s="91"/>
-      <c r="AL9" s="92"/>
-    </row>
-    <row r="10" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK9" s="92"/>
+    </row>
+    <row r="10" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>2006</v>
       </c>
       <c r="B10" s="44"/>
       <c r="C10" s="75"/>
       <c r="D10" s="76"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="75"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="179"/>
       <c r="G10" s="76"/>
       <c r="H10" s="77"/>
       <c r="I10" s="75"/>
       <c r="J10" s="77"/>
       <c r="K10" s="62"/>
       <c r="L10" s="75"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="76"/>
+      <c r="M10" s="178"/>
+      <c r="N10" s="179"/>
+      <c r="O10" s="178"/>
+      <c r="P10" s="179"/>
       <c r="Q10" s="77"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="75"/>
       <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="77"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="77"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="77"/>
-      <c r="AD10" s="111"/>
-      <c r="AE10" s="111"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="91"/>
+      <c r="Y10" s="168"/>
+      <c r="Z10" s="169"/>
+      <c r="AA10" s="91"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="101"/>
+      <c r="AD10" s="101"/>
+      <c r="AE10" s="90"/>
       <c r="AF10" s="90"/>
-      <c r="AG10" s="90"/>
+      <c r="AG10" s="91"/>
       <c r="AH10" s="91"/>
       <c r="AI10" s="91"/>
       <c r="AJ10" s="91"/>
-      <c r="AK10" s="91"/>
-      <c r="AL10" s="92"/>
-    </row>
-    <row r="11" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK10" s="92"/>
+    </row>
+    <row r="11" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>2007</v>
       </c>
       <c r="B11" s="44"/>
       <c r="C11" s="75"/>
       <c r="D11" s="76"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="75"/>
+      <c r="E11" s="178"/>
+      <c r="F11" s="179"/>
       <c r="G11" s="76"/>
       <c r="H11" s="77"/>
       <c r="I11" s="75"/>
       <c r="J11" s="77"/>
       <c r="K11" s="62"/>
       <c r="L11" s="75"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="76"/>
+      <c r="M11" s="178"/>
+      <c r="N11" s="179"/>
+      <c r="O11" s="178"/>
+      <c r="P11" s="179"/>
       <c r="Q11" s="77"/>
-      <c r="R11" s="75"/>
-      <c r="S11" s="76"/>
-      <c r="T11" s="76"/>
+      <c r="R11" s="76">
+        <v>0.75</v>
+      </c>
+      <c r="S11" s="77">
+        <v>0.8</v>
+      </c>
+      <c r="T11" s="75"/>
       <c r="U11" s="76"/>
-      <c r="V11" s="76"/>
-      <c r="W11" s="77"/>
-      <c r="X11" s="75">
-        <v>0.7</v>
-      </c>
-      <c r="Y11" s="76">
-        <v>0.75</v>
-      </c>
-      <c r="Z11" s="77">
-        <v>0.8</v>
-      </c>
-      <c r="AA11" s="75"/>
-      <c r="AB11" s="76"/>
-      <c r="AC11" s="77"/>
-      <c r="AD11" s="111"/>
-      <c r="AE11" s="111"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="91"/>
+      <c r="Y11" s="168"/>
+      <c r="Z11" s="169"/>
+      <c r="AA11" s="91"/>
+      <c r="AB11" s="92"/>
+      <c r="AC11" s="101"/>
+      <c r="AD11" s="101"/>
+      <c r="AE11" s="90"/>
       <c r="AF11" s="90"/>
-      <c r="AG11" s="90"/>
+      <c r="AG11" s="91"/>
       <c r="AH11" s="91"/>
       <c r="AI11" s="91"/>
       <c r="AJ11" s="91"/>
-      <c r="AK11" s="91"/>
-      <c r="AL11" s="92"/>
-    </row>
-    <row r="12" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK11" s="92"/>
+    </row>
+    <row r="12" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>2008</v>
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="75"/>
       <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="75"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="179"/>
       <c r="G12" s="76"/>
       <c r="H12" s="77"/>
       <c r="I12" s="75"/>
       <c r="J12" s="77"/>
       <c r="K12" s="62"/>
       <c r="L12" s="75"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="104"/>
-      <c r="P12" s="76"/>
+      <c r="M12" s="178"/>
+      <c r="N12" s="179"/>
+      <c r="O12" s="178"/>
+      <c r="P12" s="179"/>
       <c r="Q12" s="77"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="75"/>
       <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="77"/>
-      <c r="X12" s="75"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="77"/>
-      <c r="AD12" s="111"/>
-      <c r="AE12" s="111"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="91"/>
+      <c r="Y12" s="168"/>
+      <c r="Z12" s="169"/>
+      <c r="AA12" s="91"/>
+      <c r="AB12" s="92"/>
+      <c r="AC12" s="101"/>
+      <c r="AD12" s="101"/>
+      <c r="AE12" s="90"/>
       <c r="AF12" s="90"/>
-      <c r="AG12" s="90"/>
+      <c r="AG12" s="91"/>
       <c r="AH12" s="91"/>
       <c r="AI12" s="91"/>
       <c r="AJ12" s="91"/>
-      <c r="AK12" s="91"/>
-      <c r="AL12" s="92"/>
-    </row>
-    <row r="13" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK12" s="92"/>
+    </row>
+    <row r="13" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>2009</v>
       </c>
       <c r="B13" s="44"/>
       <c r="C13" s="75"/>
       <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="75"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="179"/>
       <c r="G13" s="76"/>
       <c r="H13" s="77"/>
       <c r="I13" s="75">
@@ -5872,42 +5709,41 @@
       <c r="J13" s="77"/>
       <c r="K13" s="62"/>
       <c r="L13" s="75"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="104"/>
-      <c r="P13" s="76"/>
+      <c r="M13" s="178"/>
+      <c r="N13" s="179"/>
+      <c r="O13" s="178"/>
+      <c r="P13" s="179"/>
       <c r="Q13" s="77"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="75"/>
       <c r="U13" s="76"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="75"/>
-      <c r="Y13" s="76"/>
-      <c r="Z13" s="77"/>
-      <c r="AA13" s="75"/>
-      <c r="AB13" s="76"/>
-      <c r="AC13" s="77"/>
-      <c r="AD13" s="111"/>
-      <c r="AE13" s="111"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="91"/>
+      <c r="Y13" s="168"/>
+      <c r="Z13" s="169"/>
+      <c r="AA13" s="91"/>
+      <c r="AB13" s="92"/>
+      <c r="AC13" s="101"/>
+      <c r="AD13" s="101"/>
+      <c r="AE13" s="90"/>
       <c r="AF13" s="90"/>
-      <c r="AG13" s="90"/>
+      <c r="AG13" s="91"/>
       <c r="AH13" s="91"/>
       <c r="AI13" s="91"/>
       <c r="AJ13" s="91"/>
-      <c r="AK13" s="91"/>
-      <c r="AL13" s="92"/>
-    </row>
-    <row r="14" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK13" s="92"/>
+    </row>
+    <row r="14" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>2010</v>
       </c>
       <c r="B14" s="44"/>
       <c r="C14" s="75"/>
       <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="75"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="179"/>
       <c r="G14" s="76"/>
       <c r="H14" s="77"/>
       <c r="I14" s="75">
@@ -5918,48 +5754,45 @@
       </c>
       <c r="K14" s="62"/>
       <c r="L14" s="75"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="76"/>
+      <c r="M14" s="178"/>
+      <c r="N14" s="179"/>
+      <c r="O14" s="178"/>
+      <c r="P14" s="179"/>
       <c r="Q14" s="77"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="76"/>
+      <c r="R14" s="76">
+        <v>0.75</v>
+      </c>
+      <c r="S14" s="77">
+        <v>0.8</v>
+      </c>
+      <c r="T14" s="75"/>
       <c r="U14" s="76"/>
-      <c r="V14" s="76"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="75">
-        <v>0.7</v>
-      </c>
-      <c r="Y14" s="76">
-        <v>0.75</v>
-      </c>
-      <c r="Z14" s="77">
-        <v>0.8</v>
-      </c>
-      <c r="AA14" s="75"/>
-      <c r="AB14" s="76"/>
-      <c r="AC14" s="77"/>
-      <c r="AD14" s="111"/>
-      <c r="AE14" s="111"/>
+      <c r="V14" s="77"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="91"/>
+      <c r="Y14" s="168"/>
+      <c r="Z14" s="169"/>
+      <c r="AA14" s="91"/>
+      <c r="AB14" s="92"/>
+      <c r="AC14" s="101"/>
+      <c r="AD14" s="101"/>
+      <c r="AE14" s="90"/>
       <c r="AF14" s="90"/>
-      <c r="AG14" s="90"/>
+      <c r="AG14" s="91"/>
       <c r="AH14" s="91"/>
       <c r="AI14" s="91"/>
       <c r="AJ14" s="91"/>
-      <c r="AK14" s="91"/>
-      <c r="AL14" s="92"/>
-    </row>
-    <row r="15" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK14" s="92"/>
+    </row>
+    <row r="15" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>2011</v>
       </c>
       <c r="B15" s="44"/>
       <c r="C15" s="75"/>
       <c r="D15" s="76"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="75"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="179"/>
       <c r="G15" s="76"/>
       <c r="H15" s="77"/>
       <c r="I15" s="75"/>
@@ -5968,234 +5801,221 @@
       </c>
       <c r="K15" s="62"/>
       <c r="L15" s="75"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="104"/>
-      <c r="P15" s="76"/>
+      <c r="M15" s="178"/>
+      <c r="N15" s="179"/>
+      <c r="O15" s="178"/>
+      <c r="P15" s="179"/>
       <c r="Q15" s="77"/>
-      <c r="R15" s="75"/>
-      <c r="S15" s="76"/>
-      <c r="T15" s="76"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="75"/>
       <c r="U15" s="76"/>
-      <c r="V15" s="76"/>
-      <c r="W15" s="77"/>
-      <c r="X15" s="75"/>
-      <c r="Y15" s="76"/>
-      <c r="Z15" s="77"/>
-      <c r="AA15" s="75"/>
-      <c r="AB15" s="76"/>
-      <c r="AC15" s="77"/>
-      <c r="AD15" s="111"/>
-      <c r="AE15" s="111"/>
+      <c r="V15" s="77"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="91"/>
+      <c r="Y15" s="168"/>
+      <c r="Z15" s="169"/>
+      <c r="AA15" s="91"/>
+      <c r="AB15" s="92"/>
+      <c r="AC15" s="101"/>
+      <c r="AD15" s="101"/>
+      <c r="AE15" s="90"/>
       <c r="AF15" s="90"/>
-      <c r="AG15" s="90"/>
+      <c r="AG15" s="91"/>
       <c r="AH15" s="91"/>
       <c r="AI15" s="91"/>
       <c r="AJ15" s="91"/>
-      <c r="AK15" s="91"/>
-      <c r="AL15" s="92"/>
-    </row>
-    <row r="16" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK15" s="92"/>
+    </row>
+    <row r="16" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>2012</v>
       </c>
       <c r="B16" s="44"/>
       <c r="C16" s="75"/>
       <c r="D16" s="76"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="75"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="179"/>
       <c r="G16" s="76"/>
       <c r="H16" s="77"/>
       <c r="I16" s="75"/>
       <c r="J16" s="77"/>
       <c r="K16" s="62"/>
       <c r="L16" s="75"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="104"/>
-      <c r="P16" s="76"/>
+      <c r="M16" s="178"/>
+      <c r="N16" s="179"/>
+      <c r="O16" s="178"/>
+      <c r="P16" s="179"/>
       <c r="Q16" s="77"/>
-      <c r="R16" s="75"/>
-      <c r="S16" s="76"/>
-      <c r="T16" s="76"/>
+      <c r="R16" s="76">
+        <v>0.82</v>
+      </c>
+      <c r="S16" s="77">
+        <v>0.88</v>
+      </c>
+      <c r="T16" s="75"/>
       <c r="U16" s="76"/>
-      <c r="V16" s="76"/>
-      <c r="W16" s="77"/>
-      <c r="X16" s="75">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="Y16" s="76">
-        <v>0.82</v>
-      </c>
-      <c r="Z16" s="77">
-        <v>0.88</v>
-      </c>
-      <c r="AA16" s="75"/>
-      <c r="AB16" s="76"/>
-      <c r="AC16" s="77"/>
-      <c r="AD16" s="111"/>
-      <c r="AE16" s="111"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="90"/>
+      <c r="X16" s="91"/>
+      <c r="Y16" s="168"/>
+      <c r="Z16" s="169"/>
+      <c r="AA16" s="91"/>
+      <c r="AB16" s="92"/>
+      <c r="AC16" s="101"/>
+      <c r="AD16" s="101"/>
+      <c r="AE16" s="90"/>
       <c r="AF16" s="90"/>
-      <c r="AG16" s="90"/>
+      <c r="AG16" s="91"/>
       <c r="AH16" s="91"/>
       <c r="AI16" s="91"/>
       <c r="AJ16" s="91"/>
-      <c r="AK16" s="91"/>
-      <c r="AL16" s="92"/>
-    </row>
-    <row r="17" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK16" s="92"/>
+    </row>
+    <row r="17" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>2013</v>
       </c>
       <c r="B17" s="44"/>
       <c r="C17" s="75"/>
       <c r="D17" s="76"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="75"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="179"/>
       <c r="G17" s="76"/>
       <c r="H17" s="77"/>
       <c r="I17" s="75"/>
       <c r="J17" s="77"/>
       <c r="K17" s="62"/>
       <c r="L17" s="75"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="76"/>
+      <c r="M17" s="178"/>
+      <c r="N17" s="179"/>
+      <c r="O17" s="178"/>
+      <c r="P17" s="179"/>
       <c r="Q17" s="77"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="76"/>
+      <c r="R17" s="76">
+        <v>0.86</v>
+      </c>
+      <c r="S17" s="77">
+        <v>0.9</v>
+      </c>
+      <c r="T17" s="75"/>
       <c r="U17" s="76"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="77"/>
-      <c r="X17" s="75">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="Y17" s="76">
-        <v>0.86</v>
-      </c>
-      <c r="Z17" s="77">
-        <v>0.9</v>
-      </c>
-      <c r="AA17" s="75"/>
-      <c r="AB17" s="76"/>
-      <c r="AC17" s="77"/>
-      <c r="AD17" s="111"/>
-      <c r="AE17" s="111"/>
+      <c r="V17" s="77"/>
+      <c r="W17" s="90"/>
+      <c r="X17" s="91"/>
+      <c r="Y17" s="168"/>
+      <c r="Z17" s="169"/>
+      <c r="AA17" s="91"/>
+      <c r="AB17" s="92"/>
+      <c r="AC17" s="101"/>
+      <c r="AD17" s="101"/>
+      <c r="AE17" s="90"/>
       <c r="AF17" s="90"/>
-      <c r="AG17" s="90"/>
+      <c r="AG17" s="91"/>
       <c r="AH17" s="91"/>
       <c r="AI17" s="91"/>
       <c r="AJ17" s="91"/>
-      <c r="AK17" s="91"/>
-      <c r="AL17" s="92"/>
-    </row>
-    <row r="18" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK17" s="92"/>
+    </row>
+    <row r="18" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>2014</v>
       </c>
       <c r="B18" s="44"/>
       <c r="C18" s="75"/>
       <c r="D18" s="76"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="75"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="179"/>
       <c r="G18" s="76"/>
       <c r="H18" s="77"/>
       <c r="I18" s="75"/>
       <c r="J18" s="77"/>
       <c r="K18" s="62"/>
       <c r="L18" s="75"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="104"/>
-      <c r="P18" s="76"/>
+      <c r="M18" s="178"/>
+      <c r="N18" s="179"/>
+      <c r="O18" s="178"/>
+      <c r="P18" s="179"/>
       <c r="Q18" s="77"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="76"/>
-      <c r="T18" s="76"/>
+      <c r="R18" s="76">
+        <v>0.89</v>
+      </c>
+      <c r="S18" s="77">
+        <v>0.9</v>
+      </c>
+      <c r="T18" s="75"/>
       <c r="U18" s="76"/>
-      <c r="V18" s="76"/>
-      <c r="W18" s="77"/>
-      <c r="X18" s="75">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="Y18" s="76">
-        <v>0.89</v>
-      </c>
-      <c r="Z18" s="77">
-        <v>0.9</v>
-      </c>
-      <c r="AA18" s="75"/>
-      <c r="AB18" s="76"/>
-      <c r="AC18" s="77"/>
-      <c r="AD18" s="111"/>
-      <c r="AE18" s="111"/>
+      <c r="V18" s="77"/>
+      <c r="W18" s="90"/>
+      <c r="X18" s="91"/>
+      <c r="Y18" s="168"/>
+      <c r="Z18" s="169"/>
+      <c r="AA18" s="91"/>
+      <c r="AB18" s="92"/>
+      <c r="AC18" s="101"/>
+      <c r="AD18" s="101"/>
+      <c r="AE18" s="90"/>
       <c r="AF18" s="90"/>
-      <c r="AG18" s="90"/>
+      <c r="AG18" s="91"/>
       <c r="AH18" s="91"/>
       <c r="AI18" s="91"/>
       <c r="AJ18" s="91"/>
-      <c r="AK18" s="91"/>
-      <c r="AL18" s="92"/>
-    </row>
-    <row r="19" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK18" s="92"/>
+    </row>
+    <row r="19" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>2015</v>
       </c>
       <c r="B19" s="44"/>
       <c r="C19" s="75"/>
       <c r="D19" s="76"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="75"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="179"/>
       <c r="G19" s="76"/>
       <c r="H19" s="77"/>
       <c r="I19" s="75"/>
       <c r="J19" s="77"/>
       <c r="K19" s="62"/>
       <c r="L19" s="75"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="104"/>
-      <c r="P19" s="76"/>
+      <c r="M19" s="178"/>
+      <c r="N19" s="179"/>
+      <c r="O19" s="178"/>
+      <c r="P19" s="179"/>
       <c r="Q19" s="77"/>
-      <c r="R19" s="75"/>
-      <c r="S19" s="76"/>
-      <c r="T19" s="76"/>
+      <c r="R19" s="76">
+        <v>0.92</v>
+      </c>
+      <c r="S19" s="77">
+        <v>0.92</v>
+      </c>
+      <c r="T19" s="75"/>
       <c r="U19" s="76"/>
-      <c r="V19" s="76"/>
-      <c r="W19" s="77"/>
-      <c r="X19" s="75">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="Y19" s="76">
-        <v>0.92</v>
-      </c>
-      <c r="Z19" s="77">
-        <v>0.92</v>
-      </c>
-      <c r="AA19" s="75"/>
-      <c r="AB19" s="76"/>
-      <c r="AC19" s="77"/>
-      <c r="AD19" s="111"/>
-      <c r="AE19" s="111"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="91"/>
+      <c r="Y19" s="168"/>
+      <c r="Z19" s="169"/>
+      <c r="AA19" s="91"/>
+      <c r="AB19" s="92"/>
+      <c r="AC19" s="101"/>
+      <c r="AD19" s="101"/>
+      <c r="AE19" s="90"/>
       <c r="AF19" s="90"/>
-      <c r="AG19" s="90"/>
+      <c r="AG19" s="91"/>
       <c r="AH19" s="91"/>
       <c r="AI19" s="91"/>
       <c r="AJ19" s="91"/>
-      <c r="AK19" s="91"/>
-      <c r="AL19" s="92"/>
-    </row>
-    <row r="20" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK19" s="92"/>
+    </row>
+    <row r="20" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>2016</v>
       </c>
       <c r="B20" s="44"/>
       <c r="C20" s="75"/>
       <c r="D20" s="76"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="75"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="179"/>
       <c r="G20" s="76"/>
       <c r="H20" s="77"/>
       <c r="I20" s="75">
@@ -6206,266 +6026,259 @@
       </c>
       <c r="K20" s="62"/>
       <c r="L20" s="75"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="104"/>
-      <c r="P20" s="76"/>
+      <c r="M20" s="178"/>
+      <c r="N20" s="179"/>
+      <c r="O20" s="178"/>
+      <c r="P20" s="179"/>
       <c r="Q20" s="77"/>
-      <c r="R20" s="75"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="76"/>
+      <c r="R20" s="76">
+        <v>0.95</v>
+      </c>
+      <c r="S20" s="77">
+        <v>0.94</v>
+      </c>
+      <c r="T20" s="75"/>
       <c r="U20" s="76"/>
-      <c r="V20" s="76"/>
-      <c r="W20" s="77"/>
-      <c r="X20" s="75">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="Y20" s="76">
-        <v>0.95</v>
-      </c>
-      <c r="Z20" s="77">
-        <v>0.94</v>
-      </c>
-      <c r="AA20" s="75"/>
-      <c r="AB20" s="76"/>
-      <c r="AC20" s="77"/>
-      <c r="AD20" s="111"/>
-      <c r="AE20" s="111"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="91"/>
+      <c r="Y20" s="168"/>
+      <c r="Z20" s="169"/>
+      <c r="AA20" s="91"/>
+      <c r="AB20" s="92"/>
+      <c r="AC20" s="101"/>
+      <c r="AD20" s="101"/>
+      <c r="AE20" s="90"/>
       <c r="AF20" s="90"/>
-      <c r="AG20" s="90"/>
+      <c r="AG20" s="91"/>
       <c r="AH20" s="91"/>
       <c r="AI20" s="91"/>
       <c r="AJ20" s="91"/>
-      <c r="AK20" s="91"/>
-      <c r="AL20" s="92"/>
-    </row>
-    <row r="21" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK20" s="92"/>
+    </row>
+    <row r="21" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>2017</v>
       </c>
       <c r="B21" s="44"/>
       <c r="C21" s="75"/>
       <c r="D21" s="76"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="75"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="179"/>
       <c r="G21" s="76"/>
       <c r="H21" s="77"/>
       <c r="I21" s="75"/>
       <c r="J21" s="77"/>
       <c r="K21" s="62"/>
       <c r="L21" s="75"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="104"/>
-      <c r="P21" s="76"/>
+      <c r="M21" s="178"/>
+      <c r="N21" s="179"/>
+      <c r="O21" s="178"/>
+      <c r="P21" s="179"/>
       <c r="Q21" s="77"/>
-      <c r="R21" s="75"/>
-      <c r="S21" s="76"/>
-      <c r="T21" s="76"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="75"/>
       <c r="U21" s="76"/>
-      <c r="V21" s="76"/>
-      <c r="W21" s="77"/>
-      <c r="X21" s="75"/>
-      <c r="Y21" s="76"/>
-      <c r="Z21" s="77"/>
-      <c r="AA21" s="75"/>
-      <c r="AB21" s="76"/>
-      <c r="AC21" s="77"/>
-      <c r="AD21" s="111"/>
-      <c r="AE21" s="111"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="91"/>
+      <c r="Y21" s="168"/>
+      <c r="Z21" s="169"/>
+      <c r="AA21" s="91"/>
+      <c r="AB21" s="92"/>
+      <c r="AC21" s="101"/>
+      <c r="AD21" s="101"/>
+      <c r="AE21" s="90"/>
       <c r="AF21" s="90"/>
-      <c r="AG21" s="90"/>
+      <c r="AG21" s="91"/>
       <c r="AH21" s="91"/>
       <c r="AI21" s="91"/>
       <c r="AJ21" s="91"/>
-      <c r="AK21" s="91"/>
-      <c r="AL21" s="92"/>
-    </row>
-    <row r="22" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK21" s="92"/>
+    </row>
+    <row r="22" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>2018</v>
       </c>
       <c r="B22" s="44"/>
       <c r="C22" s="75"/>
       <c r="D22" s="76"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="75"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="179"/>
       <c r="G22" s="76"/>
       <c r="H22" s="77"/>
       <c r="I22" s="75"/>
       <c r="J22" s="77"/>
       <c r="K22" s="62"/>
       <c r="L22" s="75"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="104"/>
-      <c r="P22" s="76"/>
+      <c r="M22" s="178"/>
+      <c r="N22" s="179"/>
+      <c r="O22" s="178"/>
+      <c r="P22" s="179"/>
       <c r="Q22" s="77"/>
-      <c r="R22" s="75"/>
-      <c r="S22" s="76"/>
-      <c r="T22" s="76"/>
+      <c r="R22" s="76"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="75"/>
       <c r="U22" s="76"/>
-      <c r="V22" s="76"/>
-      <c r="W22" s="77"/>
-      <c r="X22" s="75"/>
-      <c r="Y22" s="76"/>
-      <c r="Z22" s="77"/>
-      <c r="AA22" s="75"/>
-      <c r="AB22" s="76"/>
-      <c r="AC22" s="77"/>
-      <c r="AD22" s="111"/>
-      <c r="AE22" s="111"/>
+      <c r="V22" s="77"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="91"/>
+      <c r="Y22" s="168"/>
+      <c r="Z22" s="169"/>
+      <c r="AA22" s="91"/>
+      <c r="AB22" s="92"/>
+      <c r="AC22" s="101"/>
+      <c r="AD22" s="101"/>
+      <c r="AE22" s="90"/>
       <c r="AF22" s="90"/>
-      <c r="AG22" s="90"/>
+      <c r="AG22" s="91"/>
       <c r="AH22" s="91"/>
       <c r="AI22" s="91"/>
       <c r="AJ22" s="91"/>
-      <c r="AK22" s="91"/>
-      <c r="AL22" s="92"/>
-    </row>
-    <row r="23" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK22" s="92"/>
+    </row>
+    <row r="23" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
         <v>2019</v>
       </c>
       <c r="B23" s="44"/>
       <c r="C23" s="75"/>
       <c r="D23" s="76"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="75"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="179"/>
       <c r="G23" s="76"/>
       <c r="H23" s="77"/>
       <c r="I23" s="75"/>
       <c r="J23" s="77"/>
       <c r="K23" s="62"/>
       <c r="L23" s="75"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="104"/>
-      <c r="P23" s="76"/>
+      <c r="M23" s="178"/>
+      <c r="N23" s="179"/>
+      <c r="O23" s="178"/>
+      <c r="P23" s="179"/>
       <c r="Q23" s="77"/>
-      <c r="R23" s="75"/>
-      <c r="S23" s="76"/>
-      <c r="T23" s="76"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="75"/>
       <c r="U23" s="76"/>
-      <c r="V23" s="76"/>
-      <c r="W23" s="77"/>
-      <c r="X23" s="75"/>
-      <c r="Y23" s="76"/>
-      <c r="Z23" s="77"/>
-      <c r="AA23" s="75"/>
-      <c r="AB23" s="76"/>
-      <c r="AC23" s="77"/>
-      <c r="AD23" s="111"/>
-      <c r="AE23" s="111"/>
+      <c r="V23" s="77"/>
+      <c r="W23" s="90"/>
+      <c r="X23" s="91"/>
+      <c r="Y23" s="168"/>
+      <c r="Z23" s="169"/>
+      <c r="AA23" s="91"/>
+      <c r="AB23" s="92"/>
+      <c r="AC23" s="101"/>
+      <c r="AD23" s="101"/>
+      <c r="AE23" s="90"/>
       <c r="AF23" s="90"/>
-      <c r="AG23" s="90"/>
+      <c r="AG23" s="91"/>
       <c r="AH23" s="91"/>
       <c r="AI23" s="91"/>
       <c r="AJ23" s="91"/>
-      <c r="AK23" s="91"/>
-      <c r="AL23" s="92"/>
-    </row>
-    <row r="24" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK23" s="92"/>
+    </row>
+    <row r="24" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="63">
         <v>2020</v>
       </c>
       <c r="B24" s="61"/>
       <c r="C24" s="78"/>
       <c r="D24" s="79"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="78"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="181"/>
       <c r="G24" s="79"/>
       <c r="H24" s="80"/>
       <c r="I24" s="78"/>
       <c r="J24" s="80"/>
       <c r="K24" s="64"/>
       <c r="L24" s="78"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="105"/>
-      <c r="P24" s="79"/>
+      <c r="M24" s="180"/>
+      <c r="N24" s="181"/>
+      <c r="O24" s="180"/>
+      <c r="P24" s="181"/>
       <c r="Q24" s="80"/>
-      <c r="R24" s="78"/>
-      <c r="S24" s="79"/>
-      <c r="T24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="80"/>
+      <c r="T24" s="78"/>
       <c r="U24" s="79"/>
-      <c r="V24" s="79"/>
-      <c r="W24" s="80"/>
-      <c r="X24" s="78"/>
-      <c r="Y24" s="79"/>
-      <c r="Z24" s="80"/>
-      <c r="AA24" s="78"/>
-      <c r="AB24" s="79"/>
-      <c r="AC24" s="80"/>
-      <c r="AD24" s="112"/>
-      <c r="AE24" s="112"/>
+      <c r="V24" s="80"/>
+      <c r="W24" s="93"/>
+      <c r="X24" s="94"/>
+      <c r="Y24" s="170"/>
+      <c r="Z24" s="171"/>
+      <c r="AA24" s="94"/>
+      <c r="AB24" s="95"/>
+      <c r="AC24" s="102"/>
+      <c r="AD24" s="102"/>
+      <c r="AE24" s="93"/>
       <c r="AF24" s="93"/>
-      <c r="AG24" s="93"/>
+      <c r="AG24" s="94"/>
       <c r="AH24" s="94"/>
       <c r="AI24" s="94"/>
       <c r="AJ24" s="94"/>
-      <c r="AK24" s="94"/>
-      <c r="AL24" s="95"/>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK24" s="95"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="31">
         <v>2021</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="31">
         <v>2022</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
         <v>2023</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
         <v>2024</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="63">
         <v>2025</v>
       </c>
-      <c r="Y29" s="60">
+      <c r="R29" s="60">
         <v>0.95</v>
       </c>
-      <c r="Z29" s="60">
+      <c r="S29" s="60">
         <v>0.95</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="31">
         <v>2026</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="31">
         <v>2027</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="31">
         <v>2028</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="31">
         <v>2029</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="63">
         <v>2030</v>
       </c>
-      <c r="Y34" s="60">
+      <c r="R34" s="60">
         <v>0.99</v>
       </c>
-      <c r="Z34" s="60">
+      <c r="S34" s="60">
         <v>0.99</v>
       </c>
     </row>
@@ -6480,7 +6293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -803,7 +803,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -823,7 +823,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Relative force of infection multiplier for each risk group </t>
+Number of people on PrEP. Seemed to make more sense than proportion of people on PrEP</t>
         </r>
       </text>
     </comment>
@@ -847,11 +847,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Relative force of infection multiplier for each risk group </t>
+Effectiveness of condoms. This number doesn't actually matter because it gets absorbed into the force of infection. But its needed for a gel condom analysis</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -871,11 +871,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Number of people on PrEP. Seemed to make more sense than proportion of people on PrEP</t>
+Time between HIV tests (in years)</t>
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -895,11 +895,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Effectiveness of condoms. This number doesn't actually matter because it gets absorbed into the force of infection. But its needed for a gel condom analysis</t>
+Effectiveness of each care stage in reducing infectiousness. The number of people in each infected compartment are multiplied by these values to get an overall relative proportion positive</t>
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -919,11 +919,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Time between HIV tests (in years)</t>
+Relative force of infection multiplier for each risk group </t>
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -943,11 +943,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Effectiveness of each care stage in reducing infectiousness. The number of people in each infected compartment are multiplied by these values to get an overall relative proportion positive</t>
+Relative force of infection multiplier for each risk group </t>
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -971,7 +971,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -992,30 +992,6 @@
           </rPr>
           <t xml:space="preserve">
 Condom usage between risk groups. Might be set this to zero then absorb any relative risk into the relative_foi parameter</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-This is the time (in years) in each undiagnosed group before people move on to the next one (if they don't get diagnosed). i.e. people spend 1 year in the "&lt;1 year since infection" group, then 2 years in the "1-3 years since infection" group, then stay in the "3+ years since infection" group until they get diagnosed</t>
         </r>
       </text>
     </comment>
@@ -1039,11 +1015,35 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Proportions of people changing to gel condoms. From the geldom analysis. Can just leave at 0.</t>
+This is the time (in years) in each undiagnosed group before people move on to the next one (if they don't get diagnosed). i.e. people spend 1 year in the "&lt;1 year since infection" group, then 2 years in the "1-3 years since infection" group, then stay in the "3+ years since infection" group until they get diagnosed</t>
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
+    <comment ref="AG1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Proportions of people changing to gel condoms. From the geldom analysis. Can just leave at 0.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1064,6 +1064,30 @@
           </rPr>
           <t xml:space="preserve">
 Time between tests for people within 1 year of infection</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Time between tests for people infected over 3 years ago</t>
         </r>
       </text>
     </comment>
@@ -1087,11 +1111,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Time between tests for people infected over 3 years ago</t>
+Proportion of diagnosed PLHIV who are on treatment</t>
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="0" shapeId="0">
+    <comment ref="N3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1111,11 +1135,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Proportion of diagnosed PLHIV who are on treatment</t>
+Proportion of PLHIV on treatment who are virally suppressed</t>
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="0" shapeId="0">
+    <comment ref="T4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1135,35 +1159,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Proportion of PLHIV on treatment who are virally suppressed</t>
+i.e. PrEP is 97% effective</t>
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-i.e. PrEP is 97% effective</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="W4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1308,7 +1308,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="118">
   <si>
     <t>Waiting list</t>
   </si>
@@ -1660,6 +1660,9 @@
   <si>
     <t>e.g. the first row represents the weighting with which low risk people who are medicare eligible interact with other groups.
 i.e. all 1's means that a low risk medicare eligible person is mixing uniformly with everyone</t>
+  </si>
+  <si>
+    <t>eff_prep</t>
   </si>
 </sst>
 </file>
@@ -2546,7 +2549,7 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2839,6 +2842,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Bad" xfId="15" builtinId="27" customBuiltin="1"/>
@@ -4916,435 +4929,441 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK34"/>
+  <dimension ref="A1:AL34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="44" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="60" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="60" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="60" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="60" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="60" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="60" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="15" style="60" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" style="60" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" style="60" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28" style="60" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.85546875" style="60" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28" style="60" bestFit="1" customWidth="1"/>
-    <col min="23" max="28" width="16" style="60" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="28" style="60" customWidth="1"/>
-    <col min="31" max="31" width="13.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15" style="60" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.85546875" style="60" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15" style="60" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11" style="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="60" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15" style="60" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28" style="60" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28" style="60" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" style="60" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" style="60" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="24" max="29" width="16" style="60" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="28" style="60" customWidth="1"/>
+    <col min="32" max="32" width="13.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15" style="60" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15" style="60" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11" style="60" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>83</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="172" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="173" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="172" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="173" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="R1" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="S1" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="172" t="s">
+      <c r="T1" s="182" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="173" t="s">
+      <c r="U1" s="183" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="V1" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="W1" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="J1" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="172" t="s">
-        <v>69</v>
-      </c>
-      <c r="N1" s="173" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" s="172" t="s">
-        <v>69</v>
-      </c>
-      <c r="P1" s="173" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="S1" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="T1" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="U1" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="V1" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="W1" s="81" t="s">
+      <c r="X1" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="X1" s="82" t="s">
+      <c r="Y1" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="Y1" s="162" t="s">
+      <c r="Z1" s="162" t="s">
         <v>75</v>
       </c>
-      <c r="Z1" s="163" t="s">
+      <c r="AA1" s="163" t="s">
         <v>75</v>
       </c>
-      <c r="AA1" s="82" t="s">
+      <c r="AB1" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="AB1" s="83" t="s">
+      <c r="AC1" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="AC1" s="98" t="s">
+      <c r="AD1" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="AD1" s="98" t="s">
+      <c r="AE1" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="AE1" s="81" t="s">
+      <c r="AF1" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="AF1" s="81" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG1" s="82" t="s">
+      <c r="AG1" s="81" t="s">
         <v>76</v>
       </c>
       <c r="AH1" s="82" t="s">
         <v>76</v>
       </c>
       <c r="AI1" s="82" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ1" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="AK1" s="83" t="s">
+      <c r="AK1" s="82" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL1" s="83" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="44"/>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="H2" s="174" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="175" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="174" t="s">
+      <c r="J2" s="174" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="175" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="175" t="s">
+      <c r="L2" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="70"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="S2" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="T2" s="184" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="69"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="69" t="s">
+      <c r="U2" s="185" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="174" t="s">
+      <c r="V2" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="X2" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="175" t="s">
+      <c r="Y2" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="174" t="s">
+      <c r="Z2" s="164" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA2" s="165" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="175" t="s">
+      <c r="AC2" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="71" t="s">
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="99"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH2" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI2" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="R2" s="70"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="84" t="s">
+      <c r="AJ2" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="X2" s="85" t="s">
+      <c r="AK2" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="Y2" s="164" t="s">
+      <c r="AL2" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="Z2" s="165" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA2" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB2" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="99"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG2" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH2" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI2" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ2" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK2" s="86" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="44"/>
+      <c r="D3" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="E3" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="G3" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="174" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="175" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="174" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="175" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="P3" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q3" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="174" t="s">
+      <c r="S3" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="175" t="s">
+      <c r="T3" s="184" t="s">
+        <v>97</v>
+      </c>
+      <c r="U3" s="185" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="70" t="s">
+      <c r="V3" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="W3" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="69" t="s">
+      <c r="X3" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="Y3" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z3" s="164" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA3" s="165" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="M3" s="174" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" s="175" t="s">
-        <v>73</v>
-      </c>
-      <c r="O3" s="174" t="s">
-        <v>74</v>
-      </c>
-      <c r="P3" s="175" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q3" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="R3" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="S3" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="T3" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="U3" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="V3" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="W3" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="X3" s="85" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y3" s="164" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z3" s="165" t="s">
+      <c r="AB3" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="AA3" s="85" t="s">
+      <c r="AC3" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="AB3" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC3" s="99"/>
       <c r="AD3" s="99"/>
-      <c r="AE3" s="84" t="s">
+      <c r="AE3" s="99"/>
+      <c r="AF3" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="85"/>
+      <c r="AG3" s="84"/>
       <c r="AH3" s="85"/>
       <c r="AI3" s="85"/>
       <c r="AJ3" s="85"/>
-      <c r="AK3" s="86"/>
-    </row>
-    <row r="4" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK3" s="85"/>
+      <c r="AL3" s="86"/>
+    </row>
+    <row r="4" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>2000</v>
       </c>
       <c r="B4" s="29">
         <v>0.13</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="29">
+        <v>0.97</v>
+      </c>
+      <c r="D4" s="72"/>
+      <c r="E4" s="74">
+        <v>0</v>
+      </c>
+      <c r="F4" s="65">
+        <v>0.7</v>
+      </c>
+      <c r="G4" s="72">
         <v>1</v>
       </c>
-      <c r="D4" s="73">
-        <v>1</v>
-      </c>
-      <c r="E4" s="176">
-        <v>0.03</v>
-      </c>
-      <c r="F4" s="177">
-        <v>1</v>
-      </c>
-      <c r="G4" s="73">
-        <v>1</v>
-      </c>
-      <c r="H4" s="74">
-        <v>0.03</v>
-      </c>
-      <c r="I4" s="72"/>
-      <c r="J4" s="74">
-        <v>0</v>
-      </c>
-      <c r="K4" s="65">
-        <v>0.7</v>
-      </c>
-      <c r="L4" s="72">
-        <v>1</v>
-      </c>
-      <c r="M4" s="176">
+      <c r="H4" s="176">
         <v>10</v>
       </c>
-      <c r="N4" s="177">
+      <c r="I4" s="177">
         <v>0.5</v>
       </c>
-      <c r="O4" s="176">
+      <c r="J4" s="176">
         <v>4</v>
       </c>
-      <c r="P4" s="177">
+      <c r="K4" s="177">
         <f>3/12</f>
         <v>0.25</v>
       </c>
-      <c r="Q4" s="74">
+      <c r="L4" s="74">
         <f>3/12</f>
         <v>0.25</v>
       </c>
-      <c r="R4" s="73"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="72">
+      <c r="M4" s="73"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="72">
         <v>1</v>
       </c>
-      <c r="U4" s="73">
+      <c r="P4" s="73">
         <v>1</v>
       </c>
-      <c r="V4" s="74">
+      <c r="Q4" s="74">
         <v>0.04</v>
       </c>
-      <c r="W4" s="87">
+      <c r="R4" s="87">
         <v>1</v>
       </c>
-      <c r="X4" s="88">
+      <c r="S4" s="88">
+        <v>1</v>
+      </c>
+      <c r="T4" s="186">
+        <v>0.03</v>
+      </c>
+      <c r="U4" s="187">
+        <v>1</v>
+      </c>
+      <c r="V4" s="88">
+        <v>1</v>
+      </c>
+      <c r="W4" s="89">
+        <v>0.03</v>
+      </c>
+      <c r="X4" s="87">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="88">
         <v>0</v>
       </c>
-      <c r="Y4" s="166">
+      <c r="Z4" s="166">
         <v>0</v>
       </c>
-      <c r="Z4" s="167">
+      <c r="AA4" s="167">
         <v>1</v>
       </c>
-      <c r="AA4" s="88">
+      <c r="AB4" s="88">
         <v>0</v>
       </c>
-      <c r="AB4" s="89">
+      <c r="AC4" s="89">
         <v>0</v>
-      </c>
-      <c r="AC4" s="100">
-        <v>1</v>
       </c>
       <c r="AD4" s="100">
         <v>1</v>
       </c>
-      <c r="AE4" s="87">
+      <c r="AE4" s="100">
         <v>1</v>
       </c>
       <c r="AF4" s="87">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="88">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="87">
         <v>0</v>
       </c>
       <c r="AH4" s="88">
@@ -5356,929 +5375,952 @@
       <c r="AJ4" s="88">
         <v>0</v>
       </c>
-      <c r="AK4" s="89">
+      <c r="AK4" s="88">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AL4" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>2001</v>
       </c>
       <c r="B5" s="44"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="178"/>
-      <c r="N5" s="179"/>
-      <c r="O5" s="178"/>
-      <c r="P5" s="179"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="179"/>
+      <c r="J5" s="178"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="76"/>
       <c r="Q5" s="77"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="75"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="91"/>
-      <c r="Y5" s="168"/>
-      <c r="Z5" s="169"/>
-      <c r="AA5" s="91"/>
-      <c r="AB5" s="92"/>
-      <c r="AC5" s="101"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="188"/>
+      <c r="U5" s="189"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="90"/>
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="168"/>
+      <c r="AA5" s="169"/>
+      <c r="AB5" s="91"/>
+      <c r="AC5" s="92"/>
       <c r="AD5" s="101"/>
-      <c r="AE5" s="90"/>
+      <c r="AE5" s="101"/>
       <c r="AF5" s="90"/>
-      <c r="AG5" s="91"/>
+      <c r="AG5" s="90"/>
       <c r="AH5" s="91"/>
       <c r="AI5" s="91"/>
       <c r="AJ5" s="91"/>
-      <c r="AK5" s="92"/>
-    </row>
-    <row r="6" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK5" s="91"/>
+      <c r="AL5" s="92"/>
+    </row>
+    <row r="6" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>2002</v>
       </c>
       <c r="B6" s="44"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="178"/>
-      <c r="N6" s="179"/>
-      <c r="O6" s="178"/>
-      <c r="P6" s="179"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="179"/>
+      <c r="J6" s="178"/>
+      <c r="K6" s="179"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="76"/>
       <c r="Q6" s="77"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="91"/>
-      <c r="Y6" s="168"/>
-      <c r="Z6" s="169"/>
-      <c r="AA6" s="91"/>
-      <c r="AB6" s="92"/>
-      <c r="AC6" s="101"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="91"/>
+      <c r="T6" s="188"/>
+      <c r="U6" s="189"/>
+      <c r="V6" s="91"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="90"/>
+      <c r="Y6" s="91"/>
+      <c r="Z6" s="168"/>
+      <c r="AA6" s="169"/>
+      <c r="AB6" s="91"/>
+      <c r="AC6" s="92"/>
       <c r="AD6" s="101"/>
-      <c r="AE6" s="90"/>
+      <c r="AE6" s="101"/>
       <c r="AF6" s="90"/>
-      <c r="AG6" s="91"/>
+      <c r="AG6" s="90"/>
       <c r="AH6" s="91"/>
       <c r="AI6" s="91"/>
       <c r="AJ6" s="91"/>
-      <c r="AK6" s="92"/>
-    </row>
-    <row r="7" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK6" s="91"/>
+      <c r="AL6" s="92"/>
+    </row>
+    <row r="7" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>2003</v>
       </c>
       <c r="B7" s="44"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="178"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="178"/>
-      <c r="P7" s="179"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="178"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="178"/>
+      <c r="K7" s="179"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="76"/>
       <c r="Q7" s="77"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="77"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="76"/>
-      <c r="V7" s="77"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="168"/>
-      <c r="Z7" s="169"/>
-      <c r="AA7" s="91"/>
-      <c r="AB7" s="92"/>
-      <c r="AC7" s="101"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="188"/>
+      <c r="U7" s="189"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="168"/>
+      <c r="AA7" s="169"/>
+      <c r="AB7" s="91"/>
+      <c r="AC7" s="92"/>
       <c r="AD7" s="101"/>
-      <c r="AE7" s="90"/>
+      <c r="AE7" s="101"/>
       <c r="AF7" s="90"/>
-      <c r="AG7" s="91"/>
+      <c r="AG7" s="90"/>
       <c r="AH7" s="91"/>
       <c r="AI7" s="91"/>
       <c r="AJ7" s="91"/>
-      <c r="AK7" s="92"/>
-    </row>
-    <row r="8" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK7" s="91"/>
+      <c r="AL7" s="92"/>
+    </row>
+    <row r="8" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>2004</v>
       </c>
       <c r="B8" s="44"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="178"/>
-      <c r="N8" s="179"/>
-      <c r="O8" s="178"/>
-      <c r="P8" s="179"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="76"/>
       <c r="Q8" s="77"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="77"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="77"/>
-      <c r="W8" s="90"/>
-      <c r="X8" s="91"/>
-      <c r="Y8" s="168"/>
-      <c r="Z8" s="169"/>
-      <c r="AA8" s="91"/>
-      <c r="AB8" s="92"/>
-      <c r="AC8" s="101"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="188"/>
+      <c r="U8" s="189"/>
+      <c r="V8" s="91"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="168"/>
+      <c r="AA8" s="169"/>
+      <c r="AB8" s="91"/>
+      <c r="AC8" s="92"/>
       <c r="AD8" s="101"/>
-      <c r="AE8" s="90"/>
+      <c r="AE8" s="101"/>
       <c r="AF8" s="90"/>
-      <c r="AG8" s="91"/>
+      <c r="AG8" s="90"/>
       <c r="AH8" s="91"/>
       <c r="AI8" s="91"/>
       <c r="AJ8" s="91"/>
-      <c r="AK8" s="92"/>
-    </row>
-    <row r="9" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK8" s="91"/>
+      <c r="AL8" s="92"/>
+    </row>
+    <row r="9" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>2005</v>
       </c>
       <c r="B9" s="44"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="178"/>
-      <c r="N9" s="179"/>
-      <c r="O9" s="178"/>
-      <c r="P9" s="179"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="179"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="76"/>
       <c r="Q9" s="77"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="77"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="91"/>
-      <c r="Y9" s="168"/>
-      <c r="Z9" s="169"/>
-      <c r="AA9" s="91"/>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="101"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="91"/>
+      <c r="T9" s="188"/>
+      <c r="U9" s="189"/>
+      <c r="V9" s="91"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="90"/>
+      <c r="Y9" s="91"/>
+      <c r="Z9" s="168"/>
+      <c r="AA9" s="169"/>
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="92"/>
       <c r="AD9" s="101"/>
-      <c r="AE9" s="90"/>
+      <c r="AE9" s="101"/>
       <c r="AF9" s="90"/>
-      <c r="AG9" s="91"/>
+      <c r="AG9" s="90"/>
       <c r="AH9" s="91"/>
       <c r="AI9" s="91"/>
       <c r="AJ9" s="91"/>
-      <c r="AK9" s="92"/>
-    </row>
-    <row r="10" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK9" s="91"/>
+      <c r="AL9" s="92"/>
+    </row>
+    <row r="10" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>2006</v>
       </c>
       <c r="B10" s="44"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="178"/>
-      <c r="N10" s="179"/>
-      <c r="O10" s="178"/>
-      <c r="P10" s="179"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="179"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="76"/>
       <c r="Q10" s="77"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="77"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="91"/>
-      <c r="Y10" s="168"/>
-      <c r="Z10" s="169"/>
-      <c r="AA10" s="91"/>
-      <c r="AB10" s="92"/>
-      <c r="AC10" s="101"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="188"/>
+      <c r="U10" s="189"/>
+      <c r="V10" s="91"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="90"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="168"/>
+      <c r="AA10" s="169"/>
+      <c r="AB10" s="91"/>
+      <c r="AC10" s="92"/>
       <c r="AD10" s="101"/>
-      <c r="AE10" s="90"/>
+      <c r="AE10" s="101"/>
       <c r="AF10" s="90"/>
-      <c r="AG10" s="91"/>
+      <c r="AG10" s="90"/>
       <c r="AH10" s="91"/>
       <c r="AI10" s="91"/>
       <c r="AJ10" s="91"/>
-      <c r="AK10" s="92"/>
-    </row>
-    <row r="11" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK10" s="91"/>
+      <c r="AL10" s="92"/>
+    </row>
+    <row r="11" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>2007</v>
       </c>
       <c r="B11" s="44"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="178"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="178"/>
-      <c r="N11" s="179"/>
-      <c r="O11" s="178"/>
-      <c r="P11" s="179"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="178"/>
+      <c r="K11" s="179"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="76">
+        <v>0.75</v>
+      </c>
+      <c r="N11" s="77">
+        <v>0.8</v>
+      </c>
+      <c r="O11" s="75"/>
+      <c r="P11" s="76"/>
       <c r="Q11" s="77"/>
-      <c r="R11" s="76">
-        <v>0.75</v>
-      </c>
-      <c r="S11" s="77">
-        <v>0.8</v>
-      </c>
-      <c r="T11" s="75"/>
-      <c r="U11" s="76"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="91"/>
-      <c r="Y11" s="168"/>
-      <c r="Z11" s="169"/>
-      <c r="AA11" s="91"/>
-      <c r="AB11" s="92"/>
-      <c r="AC11" s="101"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="188"/>
+      <c r="U11" s="189"/>
+      <c r="V11" s="91"/>
+      <c r="W11" s="92"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="91"/>
+      <c r="Z11" s="168"/>
+      <c r="AA11" s="169"/>
+      <c r="AB11" s="91"/>
+      <c r="AC11" s="92"/>
       <c r="AD11" s="101"/>
-      <c r="AE11" s="90"/>
+      <c r="AE11" s="101"/>
       <c r="AF11" s="90"/>
-      <c r="AG11" s="91"/>
+      <c r="AG11" s="90"/>
       <c r="AH11" s="91"/>
       <c r="AI11" s="91"/>
       <c r="AJ11" s="91"/>
-      <c r="AK11" s="92"/>
-    </row>
-    <row r="12" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK11" s="91"/>
+      <c r="AL11" s="92"/>
+    </row>
+    <row r="12" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>2008</v>
       </c>
       <c r="B12" s="44"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="178"/>
-      <c r="N12" s="179"/>
-      <c r="O12" s="178"/>
-      <c r="P12" s="179"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="179"/>
+      <c r="J12" s="178"/>
+      <c r="K12" s="179"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="76"/>
       <c r="Q12" s="77"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="77"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="91"/>
-      <c r="Y12" s="168"/>
-      <c r="Z12" s="169"/>
-      <c r="AA12" s="91"/>
-      <c r="AB12" s="92"/>
-      <c r="AC12" s="101"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="188"/>
+      <c r="U12" s="189"/>
+      <c r="V12" s="91"/>
+      <c r="W12" s="92"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="91"/>
+      <c r="Z12" s="168"/>
+      <c r="AA12" s="169"/>
+      <c r="AB12" s="91"/>
+      <c r="AC12" s="92"/>
       <c r="AD12" s="101"/>
-      <c r="AE12" s="90"/>
+      <c r="AE12" s="101"/>
       <c r="AF12" s="90"/>
-      <c r="AG12" s="91"/>
+      <c r="AG12" s="90"/>
       <c r="AH12" s="91"/>
       <c r="AI12" s="91"/>
       <c r="AJ12" s="91"/>
-      <c r="AK12" s="92"/>
-    </row>
-    <row r="13" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK12" s="91"/>
+      <c r="AL12" s="92"/>
+    </row>
+    <row r="13" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>2009</v>
       </c>
       <c r="B13" s="44"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="75">
+      <c r="C13" s="44"/>
+      <c r="D13" s="75">
         <v>0</v>
       </c>
-      <c r="J13" s="77"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="178"/>
-      <c r="N13" s="179"/>
-      <c r="O13" s="178"/>
-      <c r="P13" s="179"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="179"/>
+      <c r="J13" s="178"/>
+      <c r="K13" s="179"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="76"/>
       <c r="Q13" s="77"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="75"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="77"/>
-      <c r="W13" s="90"/>
-      <c r="X13" s="91"/>
-      <c r="Y13" s="168"/>
-      <c r="Z13" s="169"/>
-      <c r="AA13" s="91"/>
-      <c r="AB13" s="92"/>
-      <c r="AC13" s="101"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="188"/>
+      <c r="U13" s="189"/>
+      <c r="V13" s="91"/>
+      <c r="W13" s="92"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="91"/>
+      <c r="Z13" s="168"/>
+      <c r="AA13" s="169"/>
+      <c r="AB13" s="91"/>
+      <c r="AC13" s="92"/>
       <c r="AD13" s="101"/>
-      <c r="AE13" s="90"/>
+      <c r="AE13" s="101"/>
       <c r="AF13" s="90"/>
-      <c r="AG13" s="91"/>
+      <c r="AG13" s="90"/>
       <c r="AH13" s="91"/>
       <c r="AI13" s="91"/>
       <c r="AJ13" s="91"/>
-      <c r="AK13" s="92"/>
-    </row>
-    <row r="14" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK13" s="91"/>
+      <c r="AL13" s="92"/>
+    </row>
+    <row r="14" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>2010</v>
       </c>
       <c r="B14" s="44"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="75">
+      <c r="C14" s="44"/>
+      <c r="D14" s="75">
         <v>1500</v>
       </c>
-      <c r="J14" s="77">
+      <c r="E14" s="77">
         <v>0</v>
       </c>
-      <c r="K14" s="62"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="178"/>
-      <c r="N14" s="179"/>
-      <c r="O14" s="178"/>
-      <c r="P14" s="179"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="179"/>
+      <c r="J14" s="178"/>
+      <c r="K14" s="179"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="76">
+        <v>0.75</v>
+      </c>
+      <c r="N14" s="77">
+        <v>0.8</v>
+      </c>
+      <c r="O14" s="75"/>
+      <c r="P14" s="76"/>
       <c r="Q14" s="77"/>
-      <c r="R14" s="76">
-        <v>0.75</v>
-      </c>
-      <c r="S14" s="77">
-        <v>0.8</v>
-      </c>
-      <c r="T14" s="75"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="77"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="91"/>
-      <c r="Y14" s="168"/>
-      <c r="Z14" s="169"/>
-      <c r="AA14" s="91"/>
-      <c r="AB14" s="92"/>
-      <c r="AC14" s="101"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="91"/>
+      <c r="T14" s="188"/>
+      <c r="U14" s="189"/>
+      <c r="V14" s="91"/>
+      <c r="W14" s="92"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="91"/>
+      <c r="Z14" s="168"/>
+      <c r="AA14" s="169"/>
+      <c r="AB14" s="91"/>
+      <c r="AC14" s="92"/>
       <c r="AD14" s="101"/>
-      <c r="AE14" s="90"/>
+      <c r="AE14" s="101"/>
       <c r="AF14" s="90"/>
-      <c r="AG14" s="91"/>
+      <c r="AG14" s="90"/>
       <c r="AH14" s="91"/>
       <c r="AI14" s="91"/>
       <c r="AJ14" s="91"/>
-      <c r="AK14" s="92"/>
-    </row>
-    <row r="15" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK14" s="91"/>
+      <c r="AL14" s="92"/>
+    </row>
+    <row r="15" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>2011</v>
       </c>
       <c r="B15" s="44"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="77">
+      <c r="C15" s="44"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="77">
         <v>110</v>
       </c>
-      <c r="K15" s="62"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="178"/>
-      <c r="N15" s="179"/>
-      <c r="O15" s="178"/>
-      <c r="P15" s="179"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="178"/>
+      <c r="K15" s="179"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="76"/>
       <c r="Q15" s="77"/>
-      <c r="R15" s="76"/>
-      <c r="S15" s="77"/>
-      <c r="T15" s="75"/>
-      <c r="U15" s="76"/>
-      <c r="V15" s="77"/>
-      <c r="W15" s="90"/>
-      <c r="X15" s="91"/>
-      <c r="Y15" s="168"/>
-      <c r="Z15" s="169"/>
-      <c r="AA15" s="91"/>
-      <c r="AB15" s="92"/>
-      <c r="AC15" s="101"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="91"/>
+      <c r="T15" s="188"/>
+      <c r="U15" s="189"/>
+      <c r="V15" s="91"/>
+      <c r="W15" s="92"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="91"/>
+      <c r="Z15" s="168"/>
+      <c r="AA15" s="169"/>
+      <c r="AB15" s="91"/>
+      <c r="AC15" s="92"/>
       <c r="AD15" s="101"/>
-      <c r="AE15" s="90"/>
+      <c r="AE15" s="101"/>
       <c r="AF15" s="90"/>
-      <c r="AG15" s="91"/>
+      <c r="AG15" s="90"/>
       <c r="AH15" s="91"/>
       <c r="AI15" s="91"/>
       <c r="AJ15" s="91"/>
-      <c r="AK15" s="92"/>
-    </row>
-    <row r="16" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK15" s="91"/>
+      <c r="AL15" s="92"/>
+    </row>
+    <row r="16" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>2012</v>
       </c>
       <c r="B16" s="44"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="178"/>
-      <c r="N16" s="179"/>
-      <c r="O16" s="178"/>
-      <c r="P16" s="179"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="179"/>
+      <c r="J16" s="178"/>
+      <c r="K16" s="179"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="76">
+        <v>0.82</v>
+      </c>
+      <c r="N16" s="77">
+        <v>0.88</v>
+      </c>
+      <c r="O16" s="75"/>
+      <c r="P16" s="76"/>
       <c r="Q16" s="77"/>
-      <c r="R16" s="76">
-        <v>0.82</v>
-      </c>
-      <c r="S16" s="77">
-        <v>0.88</v>
-      </c>
-      <c r="T16" s="75"/>
-      <c r="U16" s="76"/>
-      <c r="V16" s="77"/>
-      <c r="W16" s="90"/>
-      <c r="X16" s="91"/>
-      <c r="Y16" s="168"/>
-      <c r="Z16" s="169"/>
-      <c r="AA16" s="91"/>
-      <c r="AB16" s="92"/>
-      <c r="AC16" s="101"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="91"/>
+      <c r="T16" s="188"/>
+      <c r="U16" s="189"/>
+      <c r="V16" s="91"/>
+      <c r="W16" s="92"/>
+      <c r="X16" s="90"/>
+      <c r="Y16" s="91"/>
+      <c r="Z16" s="168"/>
+      <c r="AA16" s="169"/>
+      <c r="AB16" s="91"/>
+      <c r="AC16" s="92"/>
       <c r="AD16" s="101"/>
-      <c r="AE16" s="90"/>
+      <c r="AE16" s="101"/>
       <c r="AF16" s="90"/>
-      <c r="AG16" s="91"/>
+      <c r="AG16" s="90"/>
       <c r="AH16" s="91"/>
       <c r="AI16" s="91"/>
       <c r="AJ16" s="91"/>
-      <c r="AK16" s="92"/>
-    </row>
-    <row r="17" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK16" s="91"/>
+      <c r="AL16" s="92"/>
+    </row>
+    <row r="17" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>2013</v>
       </c>
       <c r="B17" s="44"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="178"/>
-      <c r="N17" s="179"/>
-      <c r="O17" s="178"/>
-      <c r="P17" s="179"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="179"/>
+      <c r="J17" s="178"/>
+      <c r="K17" s="179"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="76">
+        <v>0.86</v>
+      </c>
+      <c r="N17" s="77">
+        <v>0.9</v>
+      </c>
+      <c r="O17" s="75"/>
+      <c r="P17" s="76"/>
       <c r="Q17" s="77"/>
-      <c r="R17" s="76">
-        <v>0.86</v>
-      </c>
-      <c r="S17" s="77">
-        <v>0.9</v>
-      </c>
-      <c r="T17" s="75"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="77"/>
-      <c r="W17" s="90"/>
-      <c r="X17" s="91"/>
-      <c r="Y17" s="168"/>
-      <c r="Z17" s="169"/>
-      <c r="AA17" s="91"/>
-      <c r="AB17" s="92"/>
-      <c r="AC17" s="101"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="91"/>
+      <c r="T17" s="188"/>
+      <c r="U17" s="189"/>
+      <c r="V17" s="91"/>
+      <c r="W17" s="92"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="91"/>
+      <c r="Z17" s="168"/>
+      <c r="AA17" s="169"/>
+      <c r="AB17" s="91"/>
+      <c r="AC17" s="92"/>
       <c r="AD17" s="101"/>
-      <c r="AE17" s="90"/>
+      <c r="AE17" s="101"/>
       <c r="AF17" s="90"/>
-      <c r="AG17" s="91"/>
+      <c r="AG17" s="90"/>
       <c r="AH17" s="91"/>
       <c r="AI17" s="91"/>
       <c r="AJ17" s="91"/>
-      <c r="AK17" s="92"/>
-    </row>
-    <row r="18" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK17" s="91"/>
+      <c r="AL17" s="92"/>
+    </row>
+    <row r="18" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>2014</v>
       </c>
       <c r="B18" s="44"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="178"/>
-      <c r="N18" s="179"/>
-      <c r="O18" s="178"/>
-      <c r="P18" s="179"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="179"/>
+      <c r="J18" s="178"/>
+      <c r="K18" s="179"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="76">
+        <v>0.89</v>
+      </c>
+      <c r="N18" s="77">
+        <v>0.9</v>
+      </c>
+      <c r="O18" s="75"/>
+      <c r="P18" s="76"/>
       <c r="Q18" s="77"/>
-      <c r="R18" s="76">
-        <v>0.89</v>
-      </c>
-      <c r="S18" s="77">
-        <v>0.9</v>
-      </c>
-      <c r="T18" s="75"/>
-      <c r="U18" s="76"/>
-      <c r="V18" s="77"/>
-      <c r="W18" s="90"/>
-      <c r="X18" s="91"/>
-      <c r="Y18" s="168"/>
-      <c r="Z18" s="169"/>
-      <c r="AA18" s="91"/>
-      <c r="AB18" s="92"/>
-      <c r="AC18" s="101"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="91"/>
+      <c r="T18" s="188"/>
+      <c r="U18" s="189"/>
+      <c r="V18" s="91"/>
+      <c r="W18" s="92"/>
+      <c r="X18" s="90"/>
+      <c r="Y18" s="91"/>
+      <c r="Z18" s="168"/>
+      <c r="AA18" s="169"/>
+      <c r="AB18" s="91"/>
+      <c r="AC18" s="92"/>
       <c r="AD18" s="101"/>
-      <c r="AE18" s="90"/>
+      <c r="AE18" s="101"/>
       <c r="AF18" s="90"/>
-      <c r="AG18" s="91"/>
+      <c r="AG18" s="90"/>
       <c r="AH18" s="91"/>
       <c r="AI18" s="91"/>
       <c r="AJ18" s="91"/>
-      <c r="AK18" s="92"/>
-    </row>
-    <row r="19" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK18" s="91"/>
+      <c r="AL18" s="92"/>
+    </row>
+    <row r="19" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>2015</v>
       </c>
       <c r="B19" s="44"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="178"/>
-      <c r="N19" s="179"/>
-      <c r="O19" s="178"/>
-      <c r="P19" s="179"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="179"/>
+      <c r="J19" s="178"/>
+      <c r="K19" s="179"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="76">
+        <v>0.92</v>
+      </c>
+      <c r="N19" s="77">
+        <v>0.92</v>
+      </c>
+      <c r="O19" s="75"/>
+      <c r="P19" s="76"/>
       <c r="Q19" s="77"/>
-      <c r="R19" s="76">
-        <v>0.92</v>
-      </c>
-      <c r="S19" s="77">
-        <v>0.92</v>
-      </c>
-      <c r="T19" s="75"/>
-      <c r="U19" s="76"/>
-      <c r="V19" s="77"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="91"/>
-      <c r="Y19" s="168"/>
-      <c r="Z19" s="169"/>
-      <c r="AA19" s="91"/>
-      <c r="AB19" s="92"/>
-      <c r="AC19" s="101"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="91"/>
+      <c r="T19" s="188"/>
+      <c r="U19" s="189"/>
+      <c r="V19" s="91"/>
+      <c r="W19" s="92"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="91"/>
+      <c r="Z19" s="168"/>
+      <c r="AA19" s="169"/>
+      <c r="AB19" s="91"/>
+      <c r="AC19" s="92"/>
       <c r="AD19" s="101"/>
-      <c r="AE19" s="90"/>
+      <c r="AE19" s="101"/>
       <c r="AF19" s="90"/>
-      <c r="AG19" s="91"/>
+      <c r="AG19" s="90"/>
       <c r="AH19" s="91"/>
       <c r="AI19" s="91"/>
       <c r="AJ19" s="91"/>
-      <c r="AK19" s="92"/>
-    </row>
-    <row r="20" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK19" s="91"/>
+      <c r="AL19" s="92"/>
+    </row>
+    <row r="20" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>2016</v>
       </c>
       <c r="B20" s="44"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="75">
+      <c r="C20" s="44"/>
+      <c r="D20" s="75">
         <v>4000</v>
       </c>
-      <c r="J20" s="77">
+      <c r="E20" s="77">
         <v>200</v>
       </c>
-      <c r="K20" s="62"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="178"/>
-      <c r="N20" s="179"/>
-      <c r="O20" s="178"/>
-      <c r="P20" s="179"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="179"/>
+      <c r="J20" s="178"/>
+      <c r="K20" s="179"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="76">
+        <v>0.95</v>
+      </c>
+      <c r="N20" s="77">
+        <v>0.94</v>
+      </c>
+      <c r="O20" s="75"/>
+      <c r="P20" s="76"/>
       <c r="Q20" s="77"/>
-      <c r="R20" s="76">
-        <v>0.95</v>
-      </c>
-      <c r="S20" s="77">
-        <v>0.94</v>
-      </c>
-      <c r="T20" s="75"/>
-      <c r="U20" s="76"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="91"/>
-      <c r="Y20" s="168"/>
-      <c r="Z20" s="169"/>
-      <c r="AA20" s="91"/>
-      <c r="AB20" s="92"/>
-      <c r="AC20" s="101"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="91"/>
+      <c r="T20" s="188"/>
+      <c r="U20" s="189"/>
+      <c r="V20" s="91"/>
+      <c r="W20" s="92"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="91"/>
+      <c r="Z20" s="168"/>
+      <c r="AA20" s="169"/>
+      <c r="AB20" s="91"/>
+      <c r="AC20" s="92"/>
       <c r="AD20" s="101"/>
-      <c r="AE20" s="90"/>
+      <c r="AE20" s="101"/>
       <c r="AF20" s="90"/>
-      <c r="AG20" s="91"/>
+      <c r="AG20" s="90"/>
       <c r="AH20" s="91"/>
       <c r="AI20" s="91"/>
       <c r="AJ20" s="91"/>
-      <c r="AK20" s="92"/>
-    </row>
-    <row r="21" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK20" s="91"/>
+      <c r="AL20" s="92"/>
+    </row>
+    <row r="21" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>2017</v>
       </c>
       <c r="B21" s="44"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="178"/>
-      <c r="N21" s="179"/>
-      <c r="O21" s="178"/>
-      <c r="P21" s="179"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="179"/>
+      <c r="J21" s="178"/>
+      <c r="K21" s="179"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="76"/>
       <c r="Q21" s="77"/>
-      <c r="R21" s="76"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="75"/>
-      <c r="U21" s="76"/>
-      <c r="V21" s="77"/>
-      <c r="W21" s="90"/>
-      <c r="X21" s="91"/>
-      <c r="Y21" s="168"/>
-      <c r="Z21" s="169"/>
-      <c r="AA21" s="91"/>
-      <c r="AB21" s="92"/>
-      <c r="AC21" s="101"/>
+      <c r="R21" s="90"/>
+      <c r="S21" s="91"/>
+      <c r="T21" s="188"/>
+      <c r="U21" s="189"/>
+      <c r="V21" s="91"/>
+      <c r="W21" s="92"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="91"/>
+      <c r="Z21" s="168"/>
+      <c r="AA21" s="169"/>
+      <c r="AB21" s="91"/>
+      <c r="AC21" s="92"/>
       <c r="AD21" s="101"/>
-      <c r="AE21" s="90"/>
+      <c r="AE21" s="101"/>
       <c r="AF21" s="90"/>
-      <c r="AG21" s="91"/>
+      <c r="AG21" s="90"/>
       <c r="AH21" s="91"/>
       <c r="AI21" s="91"/>
       <c r="AJ21" s="91"/>
-      <c r="AK21" s="92"/>
-    </row>
-    <row r="22" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK21" s="91"/>
+      <c r="AL21" s="92"/>
+    </row>
+    <row r="22" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>2018</v>
       </c>
       <c r="B22" s="44"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="178"/>
-      <c r="N22" s="179"/>
-      <c r="O22" s="178"/>
-      <c r="P22" s="179"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="178"/>
+      <c r="K22" s="179"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="76"/>
       <c r="Q22" s="77"/>
-      <c r="R22" s="76"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="75"/>
-      <c r="U22" s="76"/>
-      <c r="V22" s="77"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="91"/>
-      <c r="Y22" s="168"/>
-      <c r="Z22" s="169"/>
-      <c r="AA22" s="91"/>
-      <c r="AB22" s="92"/>
-      <c r="AC22" s="101"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="91"/>
+      <c r="T22" s="188"/>
+      <c r="U22" s="189"/>
+      <c r="V22" s="91"/>
+      <c r="W22" s="92"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="91"/>
+      <c r="Z22" s="168"/>
+      <c r="AA22" s="169"/>
+      <c r="AB22" s="91"/>
+      <c r="AC22" s="92"/>
       <c r="AD22" s="101"/>
-      <c r="AE22" s="90"/>
+      <c r="AE22" s="101"/>
       <c r="AF22" s="90"/>
-      <c r="AG22" s="91"/>
+      <c r="AG22" s="90"/>
       <c r="AH22" s="91"/>
       <c r="AI22" s="91"/>
       <c r="AJ22" s="91"/>
-      <c r="AK22" s="92"/>
-    </row>
-    <row r="23" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK22" s="91"/>
+      <c r="AL22" s="92"/>
+    </row>
+    <row r="23" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
         <v>2019</v>
       </c>
       <c r="B23" s="44"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="179"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="178"/>
-      <c r="N23" s="179"/>
-      <c r="O23" s="178"/>
-      <c r="P23" s="179"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="179"/>
+      <c r="J23" s="178"/>
+      <c r="K23" s="179"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="76"/>
       <c r="Q23" s="77"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="77"/>
-      <c r="T23" s="75"/>
-      <c r="U23" s="76"/>
-      <c r="V23" s="77"/>
-      <c r="W23" s="90"/>
-      <c r="X23" s="91"/>
-      <c r="Y23" s="168"/>
-      <c r="Z23" s="169"/>
-      <c r="AA23" s="91"/>
-      <c r="AB23" s="92"/>
-      <c r="AC23" s="101"/>
+      <c r="R23" s="90"/>
+      <c r="S23" s="91"/>
+      <c r="T23" s="188"/>
+      <c r="U23" s="189"/>
+      <c r="V23" s="91"/>
+      <c r="W23" s="92"/>
+      <c r="X23" s="90"/>
+      <c r="Y23" s="91"/>
+      <c r="Z23" s="168"/>
+      <c r="AA23" s="169"/>
+      <c r="AB23" s="91"/>
+      <c r="AC23" s="92"/>
       <c r="AD23" s="101"/>
-      <c r="AE23" s="90"/>
+      <c r="AE23" s="101"/>
       <c r="AF23" s="90"/>
-      <c r="AG23" s="91"/>
+      <c r="AG23" s="90"/>
       <c r="AH23" s="91"/>
       <c r="AI23" s="91"/>
       <c r="AJ23" s="91"/>
-      <c r="AK23" s="92"/>
-    </row>
-    <row r="24" spans="1:37" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK23" s="91"/>
+      <c r="AL23" s="92"/>
+    </row>
+    <row r="24" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="63">
         <v>2020</v>
       </c>
       <c r="B24" s="61"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="181"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="180"/>
-      <c r="N24" s="181"/>
-      <c r="O24" s="180"/>
-      <c r="P24" s="181"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="180"/>
+      <c r="I24" s="181"/>
+      <c r="J24" s="180"/>
+      <c r="K24" s="181"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="79"/>
       <c r="Q24" s="80"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="80"/>
-      <c r="T24" s="78"/>
-      <c r="U24" s="79"/>
-      <c r="V24" s="80"/>
-      <c r="W24" s="93"/>
-      <c r="X24" s="94"/>
-      <c r="Y24" s="170"/>
-      <c r="Z24" s="171"/>
-      <c r="AA24" s="94"/>
-      <c r="AB24" s="95"/>
-      <c r="AC24" s="102"/>
+      <c r="R24" s="93"/>
+      <c r="S24" s="94"/>
+      <c r="T24" s="190"/>
+      <c r="U24" s="191"/>
+      <c r="V24" s="94"/>
+      <c r="W24" s="95"/>
+      <c r="X24" s="93"/>
+      <c r="Y24" s="94"/>
+      <c r="Z24" s="170"/>
+      <c r="AA24" s="171"/>
+      <c r="AB24" s="94"/>
+      <c r="AC24" s="95"/>
       <c r="AD24" s="102"/>
-      <c r="AE24" s="93"/>
+      <c r="AE24" s="102"/>
       <c r="AF24" s="93"/>
-      <c r="AG24" s="94"/>
+      <c r="AG24" s="93"/>
       <c r="AH24" s="94"/>
       <c r="AI24" s="94"/>
       <c r="AJ24" s="94"/>
-      <c r="AK24" s="95"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK24" s="94"/>
+      <c r="AL24" s="95"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="31">
         <v>2021</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="31">
         <v>2022</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
         <v>2023</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
         <v>2024</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="63">
         <v>2025</v>
       </c>
-      <c r="R29" s="60">
+      <c r="M29" s="60">
         <v>0.95</v>
       </c>
-      <c r="S29" s="60">
+      <c r="N29" s="60">
         <v>0.95</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="31">
         <v>2026</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="31">
         <v>2027</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="31">
         <v>2028</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="31">
         <v>2029</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="63">
         <v>2030</v>
       </c>
-      <c r="R34" s="60">
+      <c r="M34" s="60">
         <v>0.99</v>
       </c>
-      <c r="S34" s="60">
+      <c r="N34" s="60">
         <v>0.99</v>
       </c>
     </row>

--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="pars" sheetId="24" r:id="rId1"/>
     <sheet name="data" sheetId="5" r:id="rId2"/>
     <sheet name="mixing" sheetId="27" r:id="rId3"/>
-    <sheet name="timepars" sheetId="20" r:id="rId4"/>
+    <sheet name="timepars_short" sheetId="28" r:id="rId4"/>
     <sheet name="scen_1" sheetId="25" r:id="rId5"/>
     <sheet name="scen_2" sheetId="26" r:id="rId6"/>
+    <sheet name="timepars_all" sheetId="20" r:id="rId7"/>
+    <sheet name="timepars" sheetId="30" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -899,150 +901,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Relative force of infection multiplier for each risk group </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Relative force of infection multiplier for each risk group </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Condom usage between risk groups. Might be set this to zero then absorb any relative risk into the relative_foi parameter</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Condom usage between risk groups. Might be set this to zero then absorb any relative risk into the relative_foi parameter</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AF1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-This is the time (in years) in each undiagnosed group before people move on to the next one (if they don't get diagnosed). i.e. people spend 1 year in the "&lt;1 year since infection" group, then 2 years in the "1-3 years since infection" group, then stay in the "3+ years since infection" group until they get diagnosed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AG1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Proportions of people changing to gel condoms. From the geldom analysis. Can just leave at 0.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1136,54 +994,6 @@
           </rPr>
           <t xml:space="preserve">
 Proportion of PLHIV on treatment who are virally suppressed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-i.e. PrEP is 97% effective</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-i.e. PrEP is 97% effective</t>
         </r>
       </text>
     </comment>
@@ -1307,8 +1117,652 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Tom Tidhar</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Proportion of the susceptible population that is at high risk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Number of people on PrEP. Seemed to make more sense than proportion of people on PrEP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Effectiveness of condoms. This number doesn't actually matter because it gets absorbed into the force of infection. But its needed for a gel condom analysis</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Time between HIV tests (in years)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Effectiveness of each care stage in reducing infectiousness. The number of people in each infected compartment are multiplied by these values to get an overall relative proportion positive</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Relative force of infection multiplier for each risk group </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Relative force of infection multiplier for each risk group </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Condom usage between risk groups. Might be set this to zero then absorb any relative risk into the relative_foi parameter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Condom usage between risk groups. Might be set this to zero then absorb any relative risk into the relative_foi parameter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This is the time (in years) in each undiagnosed group before people move on to the next one (if they don't get diagnosed). i.e. people spend 1 year in the "&lt;1 year since infection" group, then 2 years in the "1-3 years since infection" group, then stay in the "3+ years since infection" group until they get diagnosed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Proportions of people changing to gel condoms. From the geldom analysis. Can just leave at 0.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Time between tests for people within 1 year of infection</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Time between tests for people infected over 3 years ago</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Proportion of diagnosed PLHIV who are on treatment</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Proportion of PLHIV on treatment who are virally suppressed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+i.e. PrEP is 97% effective</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+i.e. PrEP is 97% effective</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Tom Tidhar</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Proportion of the susceptible population that is at high risk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Number of people on PrEP. Seemed to make more sense than proportion of people on PrEP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Effectiveness of condoms. This number doesn't actually matter because it gets absorbed into the force of infection. But its needed for a gel condom analysis</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Time between HIV tests (in years)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Effectiveness of each care stage in reducing infectiousness. The number of people in each infected compartment are multiplied by these values to get an overall relative proportion positive</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Time between tests for people within 1 year of infection</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Time between tests for people infected over 3 years ago</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Proportion of diagnosed PLHIV who are on treatment</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Proportion of PLHIV on treatment who are virally suppressed</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="118">
   <si>
     <t>Waiting list</t>
   </si>
@@ -2800,9 +3254,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2852,6 +3303,9 @@
     <xf numFmtId="2" fontId="0" fillId="7" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Bad" xfId="15" builtinId="27" customBuiltin="1"/>
@@ -3722,7 +4176,7 @@
       <c r="J1" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="158" t="s">
+      <c r="K1" s="157" t="s">
         <v>108</v>
       </c>
       <c r="L1" s="123"/>
@@ -3789,12 +4243,12 @@
       <c r="F2" s="110"/>
       <c r="G2" s="112"/>
       <c r="H2" s="103">
-        <f>B2*7.2/100</f>
+        <f t="shared" ref="H2:H12" si="0">B2*7.2/100</f>
         <v>3075.4079999999999</v>
       </c>
       <c r="I2" s="104"/>
       <c r="J2" s="105"/>
-      <c r="K2" s="159">
+      <c r="K2" s="158">
         <v>0.7</v>
       </c>
       <c r="L2" s="96"/>
@@ -3805,11 +4259,11 @@
         <v>3.4931506849315071E-2</v>
       </c>
       <c r="O2" s="28">
-        <f>B2-P2</f>
+        <f t="shared" ref="O2:O12" si="1">B2-P2</f>
         <v>39638.591999999997</v>
       </c>
       <c r="P2" s="28">
-        <f t="shared" ref="P2:P12" si="0">H2</f>
+        <f t="shared" ref="P2:P12" si="2">H2</f>
         <v>3075.4079999999999</v>
       </c>
       <c r="Q2" s="33">
@@ -3817,7 +4271,7 @@
         <v>923</v>
       </c>
       <c r="R2" s="33">
-        <f t="shared" ref="R2" si="1">ROUND(N2*P2,0)</f>
+        <f t="shared" ref="R2" si="3">ROUND(N2*P2,0)</f>
         <v>107</v>
       </c>
       <c r="S2" s="11">
@@ -3867,21 +4321,21 @@
       <c r="F3" s="110"/>
       <c r="G3" s="112"/>
       <c r="H3" s="103">
-        <f>B3*7.2/100</f>
+        <f t="shared" si="0"/>
         <v>3229.1783999999998</v>
       </c>
       <c r="I3" s="104"/>
       <c r="J3" s="105"/>
-      <c r="K3" s="160"/>
+      <c r="K3" s="159"/>
       <c r="L3" s="97"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
       <c r="O3" s="28">
-        <f>B3-P3</f>
+        <f t="shared" si="1"/>
         <v>41620.5216</v>
       </c>
       <c r="P3" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3229.1783999999998</v>
       </c>
       <c r="Q3" s="12"/>
@@ -3896,18 +4350,18 @@
         <v>0.82</v>
       </c>
       <c r="V3" s="38">
-        <f t="shared" ref="V3:V12" si="2">S3*T3*U3</f>
+        <f t="shared" ref="V3:V12" si="4">S3*T3*U3</f>
         <v>612.39239999999995</v>
       </c>
       <c r="W3" s="34">
         <v>0.17</v>
       </c>
       <c r="X3" s="36">
-        <f t="shared" ref="X3:X12" si="3">V3-Y3</f>
+        <f t="shared" ref="X3:X12" si="5">V3-Y3</f>
         <v>508.28569199999993</v>
       </c>
       <c r="Y3" s="36">
-        <f t="shared" ref="Y3:Y12" si="4">V3*W3</f>
+        <f t="shared" ref="Y3:Y12" si="6">V3*W3</f>
         <v>104.106708</v>
       </c>
       <c r="Z3" s="13"/>
@@ -3918,36 +4372,36 @@
         <v>2009</v>
       </c>
       <c r="B4" s="103">
-        <f t="shared" ref="B4:B12" si="5">SUM(C4:D4)</f>
+        <f t="shared" ref="B4:B12" si="7">SUM(C4:D4)</f>
         <v>47092.184999999998</v>
       </c>
       <c r="C4" s="104">
-        <f t="shared" ref="C4:C11" si="6">1.05*C3</f>
+        <f t="shared" ref="C4:C11" si="8">1.05*C3</f>
         <v>42811.077272727271</v>
       </c>
       <c r="D4" s="105">
-        <f t="shared" ref="D4:D12" si="7">D3*1.05</f>
+        <f t="shared" ref="D4:D12" si="9">D3*1.05</f>
         <v>4281.107727272728</v>
       </c>
       <c r="E4" s="116"/>
       <c r="F4" s="110"/>
       <c r="G4" s="112"/>
       <c r="H4" s="103">
-        <f>B4*7.2/100</f>
+        <f t="shared" si="0"/>
         <v>3390.6373200000003</v>
       </c>
       <c r="I4" s="104"/>
       <c r="J4" s="105"/>
-      <c r="K4" s="160"/>
+      <c r="K4" s="159"/>
       <c r="L4" s="97"/>
       <c r="M4" s="40"/>
       <c r="N4" s="40"/>
       <c r="O4" s="28">
-        <f>B4-P4</f>
+        <f t="shared" si="1"/>
         <v>43701.547679999996</v>
       </c>
       <c r="P4" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3390.6373200000003</v>
       </c>
       <c r="Q4" s="12"/>
@@ -3962,18 +4416,18 @@
         <v>0.82</v>
       </c>
       <c r="V4" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>983.01600000000008</v>
       </c>
       <c r="W4" s="34">
         <v>0.17</v>
       </c>
       <c r="X4" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>815.90328</v>
       </c>
       <c r="Y4" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>167.11272000000002</v>
       </c>
       <c r="Z4" s="14"/>
@@ -3984,15 +4438,15 @@
         <v>2010</v>
       </c>
       <c r="B5" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>49446.794249999999</v>
       </c>
       <c r="C5" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44951.631136363634</v>
       </c>
       <c r="D5" s="105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4495.1631136363649</v>
       </c>
       <c r="E5" s="108">
@@ -4001,12 +4455,12 @@
       <c r="F5" s="110"/>
       <c r="G5" s="112"/>
       <c r="H5" s="103">
-        <f>B5*7.2/100</f>
+        <f t="shared" si="0"/>
         <v>3560.1691859999996</v>
       </c>
       <c r="I5" s="104"/>
       <c r="J5" s="105"/>
-      <c r="K5" s="159"/>
+      <c r="K5" s="158"/>
       <c r="L5" s="97"/>
       <c r="M5" s="40">
         <v>4.0273972602739724E-2</v>
@@ -4015,19 +4469,19 @@
         <v>4.3150684931506846E-2</v>
       </c>
       <c r="O5" s="28">
-        <f>B5-P5</f>
+        <f t="shared" si="1"/>
         <v>45886.625064</v>
       </c>
       <c r="P5" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3560.1691859999996</v>
       </c>
       <c r="Q5" s="32">
-        <f t="shared" ref="Q5:Q11" si="8">ROUND(M5*O5,0)</f>
+        <f t="shared" ref="Q5:Q11" si="10">ROUND(M5*O5,0)</f>
         <v>1848</v>
       </c>
       <c r="R5" s="32">
-        <f t="shared" ref="R5:R12" si="9">ROUND(N5*P5,0)</f>
+        <f t="shared" ref="R5:R12" si="11">ROUND(N5*P5,0)</f>
         <v>154</v>
       </c>
       <c r="S5" s="11">
@@ -4040,18 +4494,18 @@
         <v>0.82</v>
       </c>
       <c r="V5" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1167.6635999999999</v>
       </c>
       <c r="W5" s="34">
         <v>0.17</v>
       </c>
       <c r="X5" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>969.16078799999991</v>
       </c>
       <c r="Y5" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>198.50281199999998</v>
       </c>
       <c r="Z5" s="14"/>
@@ -4062,15 +4516,15 @@
         <v>2011</v>
       </c>
       <c r="B6" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>51919.133962500004</v>
       </c>
       <c r="C6" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>47199.21269318182</v>
       </c>
       <c r="D6" s="105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4719.9212693181835</v>
       </c>
       <c r="E6" s="108">
@@ -4079,12 +4533,12 @@
       <c r="F6" s="110"/>
       <c r="G6" s="112"/>
       <c r="H6" s="103">
-        <f>B6*7.2/100</f>
+        <f t="shared" si="0"/>
         <v>3738.1776453000002</v>
       </c>
       <c r="I6" s="104"/>
       <c r="J6" s="105"/>
-      <c r="K6" s="160"/>
+      <c r="K6" s="159"/>
       <c r="L6" s="97"/>
       <c r="M6" s="40">
         <v>3.7534246575342468E-2</v>
@@ -4093,19 +4547,19 @@
         <v>4.726027397260274E-2</v>
       </c>
       <c r="O6" s="28">
-        <f>B6-P6</f>
+        <f t="shared" si="1"/>
         <v>48180.956317200005</v>
       </c>
       <c r="P6" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3738.1776453000002</v>
       </c>
       <c r="Q6" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1808</v>
       </c>
       <c r="R6" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>177</v>
       </c>
       <c r="S6" s="11">
@@ -4118,18 +4572,18 @@
         <v>0.82</v>
       </c>
       <c r="V6" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1237.4046000000001</v>
       </c>
       <c r="W6" s="34">
         <v>0.17</v>
       </c>
       <c r="X6" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1027.0458180000001</v>
       </c>
       <c r="Y6" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>210.35878200000002</v>
       </c>
       <c r="Z6" s="14"/>
@@ -4140,15 +4594,15 @@
         <v>2012</v>
       </c>
       <c r="B7" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>54515.090660625006</v>
       </c>
       <c r="C7" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>49559.173327840916</v>
       </c>
       <c r="D7" s="105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4955.9173327840927</v>
       </c>
       <c r="E7" s="108">
@@ -4157,12 +4611,12 @@
       <c r="F7" s="110"/>
       <c r="G7" s="112"/>
       <c r="H7" s="103">
-        <f>B7*7.2/100</f>
+        <f t="shared" si="0"/>
         <v>3925.0865275650008</v>
       </c>
       <c r="I7" s="104"/>
       <c r="J7" s="105"/>
-      <c r="K7" s="159">
+      <c r="K7" s="158">
         <v>0.91200000000000003</v>
       </c>
       <c r="L7" s="97"/>
@@ -4173,19 +4627,19 @@
         <v>5.3835616438356167E-2</v>
       </c>
       <c r="O7" s="28">
-        <f>B7-P7</f>
+        <f t="shared" si="1"/>
         <v>50590.004133060007</v>
       </c>
       <c r="P7" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3925.0865275650008</v>
       </c>
       <c r="Q7" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2467</v>
       </c>
       <c r="R7" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>211</v>
       </c>
       <c r="S7" s="11">
@@ -4198,18 +4652,18 @@
         <v>0.82</v>
       </c>
       <c r="V7" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1617.9911999999999</v>
       </c>
       <c r="W7" s="34">
         <v>0.17</v>
       </c>
       <c r="X7" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1342.9326959999999</v>
       </c>
       <c r="Y7" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>275.05850400000003</v>
       </c>
       <c r="Z7" s="14"/>
@@ -4220,15 +4674,15 @@
         <v>2013</v>
       </c>
       <c r="B8" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>57240.845193656263</v>
       </c>
       <c r="C8" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>52037.131994232965</v>
       </c>
       <c r="D8" s="105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5203.7131994232977</v>
       </c>
       <c r="E8" s="108">
@@ -4237,12 +4691,12 @@
       <c r="F8" s="110"/>
       <c r="G8" s="112"/>
       <c r="H8" s="103">
-        <f>B8*7.2/100</f>
+        <f t="shared" si="0"/>
         <v>4121.3408539432512</v>
       </c>
       <c r="I8" s="104"/>
       <c r="J8" s="105"/>
-      <c r="K8" s="159"/>
+      <c r="K8" s="158"/>
       <c r="L8" s="97"/>
       <c r="M8" s="40">
         <v>5.2876712328767124E-2</v>
@@ -4251,19 +4705,19 @@
         <v>6.2671232876712321E-2</v>
       </c>
       <c r="O8" s="28">
-        <f>B8-P8</f>
+        <f t="shared" si="1"/>
         <v>53119.504339713014</v>
       </c>
       <c r="P8" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4121.3408539432512</v>
       </c>
       <c r="Q8" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2809</v>
       </c>
       <c r="R8" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>258</v>
       </c>
       <c r="S8" s="11">
@@ -4276,18 +4730,18 @@
         <v>0.82</v>
       </c>
       <c r="V8" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1977.9876000000002</v>
       </c>
       <c r="W8" s="34">
         <v>0.17</v>
       </c>
       <c r="X8" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1641.7297080000001</v>
       </c>
       <c r="Y8" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>336.25789200000003</v>
       </c>
       <c r="Z8" s="14"/>
@@ -4298,15 +4752,15 @@
         <v>2014</v>
       </c>
       <c r="B9" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>60102.887453339077</v>
       </c>
       <c r="C9" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>54638.988593944618</v>
       </c>
       <c r="D9" s="105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5463.8988593944632</v>
       </c>
       <c r="E9" s="108">
@@ -4315,12 +4769,12 @@
       <c r="F9" s="110"/>
       <c r="G9" s="112"/>
       <c r="H9" s="103">
-        <f>B9*7.2/100</f>
+        <f t="shared" si="0"/>
         <v>4327.407896640414</v>
       </c>
       <c r="I9" s="104"/>
       <c r="J9" s="105"/>
-      <c r="K9" s="159">
+      <c r="K9" s="158">
         <v>0.88</v>
       </c>
       <c r="L9" s="97"/>
@@ -4331,19 +4785,19 @@
         <v>5.321917808219178E-2</v>
       </c>
       <c r="O9" s="28">
-        <f>B9-P9</f>
+        <f t="shared" si="1"/>
         <v>55775.479556698665</v>
       </c>
       <c r="P9" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4327.407896640414</v>
       </c>
       <c r="Q9" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2873</v>
       </c>
       <c r="R9" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>230</v>
       </c>
       <c r="S9" s="11">
@@ -4356,18 +4810,18 @@
         <v>0.82</v>
       </c>
       <c r="V9" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2171.2698</v>
       </c>
       <c r="W9" s="34">
         <v>0.17</v>
       </c>
       <c r="X9" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1802.1539339999999</v>
       </c>
       <c r="Y9" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>369.11586600000004</v>
       </c>
       <c r="Z9" s="14"/>
@@ -4378,15 +4832,15 @@
         <v>2015</v>
       </c>
       <c r="B10" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>63108.031826006038</v>
       </c>
       <c r="C10" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>57370.938023641851</v>
       </c>
       <c r="D10" s="105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5737.0938023641866</v>
       </c>
       <c r="E10" s="108">
@@ -4395,12 +4849,12 @@
       <c r="F10" s="110"/>
       <c r="G10" s="112"/>
       <c r="H10" s="103">
-        <f>B10*7.2/100</f>
+        <f t="shared" si="0"/>
         <v>4543.7782914724348</v>
       </c>
       <c r="I10" s="104"/>
       <c r="J10" s="105"/>
-      <c r="K10" s="159">
+      <c r="K10" s="158">
         <v>0.88</v>
       </c>
       <c r="L10" s="97"/>
@@ -4411,19 +4865,19 @@
         <v>6.7191780821917804E-2</v>
       </c>
       <c r="O10" s="28">
-        <f>B10-P10</f>
+        <f t="shared" si="1"/>
         <v>58564.2535345336</v>
       </c>
       <c r="P10" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4543.7782914724348</v>
       </c>
       <c r="Q10" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3899</v>
       </c>
       <c r="R10" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>305</v>
       </c>
       <c r="S10" s="11">
@@ -4436,18 +4890,18 @@
         <v>0.82</v>
       </c>
       <c r="V10" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3231.3330000000001</v>
       </c>
       <c r="W10" s="35">
         <v>0.17</v>
       </c>
       <c r="X10" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2682.00639</v>
       </c>
       <c r="Y10" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>549.32661000000007</v>
       </c>
       <c r="Z10" s="14"/>
@@ -4458,15 +4912,15 @@
         <v>2016</v>
       </c>
       <c r="B11" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>66263.43341730634</v>
       </c>
       <c r="C11" s="104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>60239.484924823948</v>
       </c>
       <c r="D11" s="105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6023.9484924823964</v>
       </c>
       <c r="E11" s="108">
@@ -4475,12 +4929,12 @@
       <c r="F11" s="110"/>
       <c r="G11" s="112"/>
       <c r="H11" s="103">
-        <f>B11*7.2/100</f>
+        <f t="shared" si="0"/>
         <v>4770.9672060460571</v>
       </c>
       <c r="I11" s="104"/>
       <c r="J11" s="105"/>
-      <c r="K11" s="159">
+      <c r="K11" s="158">
         <v>0.89</v>
       </c>
       <c r="L11" s="97"/>
@@ -4491,19 +4945,19 @@
         <v>6.9246575342465755E-2</v>
       </c>
       <c r="O11" s="28">
-        <f>B11-P11</f>
+        <f t="shared" si="1"/>
         <v>61492.466211260282</v>
       </c>
       <c r="P11" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4770.9672060460571</v>
       </c>
       <c r="Q11" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3892</v>
       </c>
       <c r="R11" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>330</v>
       </c>
       <c r="S11" s="11">
@@ -4516,18 +4970,18 @@
         <v>0.82</v>
       </c>
       <c r="V11" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4161.2130000000006</v>
       </c>
       <c r="W11" s="35">
         <v>0.13</v>
       </c>
       <c r="X11" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3620.2553100000005</v>
       </c>
       <c r="Y11" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>540.95769000000007</v>
       </c>
       <c r="Z11" s="42">
@@ -4539,7 +4993,7 @@
         <v>2017</v>
       </c>
       <c r="B12" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>69576.605088171666</v>
       </c>
       <c r="C12" s="104">
@@ -4547,7 +5001,7 @@
         <v>63251.459171065151</v>
       </c>
       <c r="D12" s="105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6325.1459171065162</v>
       </c>
       <c r="E12" s="108">
@@ -4556,12 +5010,12 @@
       <c r="F12" s="110"/>
       <c r="G12" s="112"/>
       <c r="H12" s="103">
-        <f>B12*7.2/100</f>
+        <f t="shared" si="0"/>
         <v>5009.5155663483602</v>
       </c>
       <c r="I12" s="104"/>
       <c r="J12" s="105"/>
-      <c r="K12" s="160">
+      <c r="K12" s="159">
         <v>0.9</v>
       </c>
       <c r="L12" s="97"/>
@@ -4573,16 +5027,16 @@
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="O12" s="28">
-        <f>B12-P12</f>
+        <f t="shared" si="1"/>
         <v>64567.089521823305</v>
       </c>
       <c r="P12" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5009.5155663483602</v>
       </c>
       <c r="Q12" s="12"/>
       <c r="R12" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>234</v>
       </c>
       <c r="S12" s="11">
@@ -4595,18 +5049,18 @@
         <v>0.7</v>
       </c>
       <c r="V12" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4132.8630000000003</v>
       </c>
       <c r="W12" s="34">
         <v>0.1</v>
       </c>
       <c r="X12" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3719.5767000000001</v>
       </c>
       <c r="Y12" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>413.28630000000004</v>
       </c>
     </row>
@@ -4623,7 +5077,7 @@
       <c r="H13" s="113"/>
       <c r="I13" s="114"/>
       <c r="J13" s="115"/>
-      <c r="K13" s="159">
+      <c r="K13" s="158">
         <v>0.9</v>
       </c>
       <c r="L13" s="132"/>
@@ -4641,7 +5095,7 @@
       <c r="H14" s="113"/>
       <c r="I14" s="114"/>
       <c r="J14" s="115"/>
-      <c r="K14" s="161"/>
+      <c r="K14" s="160"/>
       <c r="L14" s="132"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
@@ -4736,7 +5190,7 @@
       <c r="D1" s="136" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="151" t="s">
+      <c r="E1" s="150" t="s">
         <v>113</v>
       </c>
       <c r="F1" s="136" t="s">
@@ -4759,7 +5213,7 @@
       <c r="D2" s="140">
         <v>1</v>
       </c>
-      <c r="E2" s="156">
+      <c r="E2" s="155">
         <v>1</v>
       </c>
       <c r="F2" s="140">
@@ -4768,16 +5222,16 @@
       <c r="G2" s="141">
         <v>1</v>
       </c>
-      <c r="I2" s="150" t="s">
+      <c r="I2" s="191" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
-      <c r="P2" s="150"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="191"/>
+      <c r="P2" s="191"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="142" t="s">
@@ -4792,7 +5246,7 @@
       <c r="D3" s="144">
         <v>1</v>
       </c>
-      <c r="E3" s="154">
+      <c r="E3" s="153">
         <v>1</v>
       </c>
       <c r="F3" s="144">
@@ -4801,14 +5255,14 @@
       <c r="G3" s="145">
         <v>1</v>
       </c>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="150"/>
-      <c r="P3" s="150"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="191"/>
+      <c r="P3" s="191"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="142" t="s">
@@ -4823,7 +5277,7 @@
       <c r="D4" s="144">
         <v>1</v>
       </c>
-      <c r="E4" s="154">
+      <c r="E4" s="153">
         <v>1</v>
       </c>
       <c r="F4" s="144">
@@ -4832,45 +5286,45 @@
       <c r="G4" s="145">
         <v>1</v>
       </c>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="150"/>
-      <c r="P4" s="150"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
+      <c r="L4" s="191"/>
+      <c r="M4" s="191"/>
+      <c r="N4" s="191"/>
+      <c r="O4" s="191"/>
+      <c r="P4" s="191"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="151" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="153">
+      <c r="B5" s="152">
         <v>1</v>
       </c>
-      <c r="C5" s="154">
+      <c r="C5" s="153">
         <v>1</v>
       </c>
-      <c r="D5" s="154">
+      <c r="D5" s="153">
         <v>1</v>
       </c>
-      <c r="E5" s="154">
+      <c r="E5" s="153">
         <v>1</v>
       </c>
-      <c r="F5" s="154">
+      <c r="F5" s="153">
         <v>1</v>
       </c>
-      <c r="G5" s="155">
+      <c r="G5" s="154">
         <v>1</v>
       </c>
-      <c r="I5" s="150"/>
-      <c r="J5" s="150"/>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
-      <c r="M5" s="150"/>
-      <c r="N5" s="150"/>
-      <c r="O5" s="150"/>
-      <c r="P5" s="150"/>
+      <c r="I5" s="191"/>
+      <c r="J5" s="191"/>
+      <c r="K5" s="191"/>
+      <c r="L5" s="191"/>
+      <c r="M5" s="191"/>
+      <c r="N5" s="191"/>
+      <c r="O5" s="191"/>
+      <c r="P5" s="191"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="142" t="s">
@@ -4885,7 +5339,7 @@
       <c r="D6" s="144">
         <v>1</v>
       </c>
-      <c r="E6" s="154">
+      <c r="E6" s="153">
         <v>1</v>
       </c>
       <c r="F6" s="144">
@@ -4908,7 +5362,7 @@
       <c r="D7" s="148">
         <v>1</v>
       </c>
-      <c r="E7" s="157">
+      <c r="E7" s="156">
         <v>1</v>
       </c>
       <c r="F7" s="148">
@@ -4929,10 +5383,1447 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q34"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11" style="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="60" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15" style="60" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28" style="60" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28" style="60" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="171" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="172" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="171" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="172" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="68" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="173" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="174" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="173" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="174" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="70"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="71"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="G3" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="173" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="174" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="173" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="174" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="P3" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q3" s="71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="29">
+        <v>0.13</v>
+      </c>
+      <c r="C4" s="29">
+        <v>0.97</v>
+      </c>
+      <c r="D4" s="72"/>
+      <c r="E4" s="74">
+        <v>0</v>
+      </c>
+      <c r="F4" s="65">
+        <v>0.7</v>
+      </c>
+      <c r="G4" s="72">
+        <v>1</v>
+      </c>
+      <c r="H4" s="175">
+        <v>10</v>
+      </c>
+      <c r="I4" s="176">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="175">
+        <v>4</v>
+      </c>
+      <c r="K4" s="176">
+        <f>3/12</f>
+        <v>0.25</v>
+      </c>
+      <c r="L4" s="74">
+        <f>3/12</f>
+        <v>0.25</v>
+      </c>
+      <c r="M4" s="73"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="72">
+        <v>1</v>
+      </c>
+      <c r="P4" s="73">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="74">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="178"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="178"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="77"/>
+    </row>
+    <row r="6" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="177"/>
+      <c r="K6" s="178"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="77"/>
+    </row>
+    <row r="7" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
+        <v>2003</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="178"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="77"/>
+    </row>
+    <row r="8" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <v>2004</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="178"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="77"/>
+    </row>
+    <row r="9" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <v>2005</v>
+      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="178"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="77"/>
+    </row>
+    <row r="10" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
+        <v>2006</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="77"/>
+    </row>
+    <row r="11" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
+        <v>2007</v>
+      </c>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="76">
+        <v>0.75</v>
+      </c>
+      <c r="N11" s="77">
+        <v>0.8</v>
+      </c>
+      <c r="O11" s="75"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="77"/>
+    </row>
+    <row r="12" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
+        <v>2008</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="178"/>
+      <c r="J12" s="177"/>
+      <c r="K12" s="178"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="77"/>
+    </row>
+    <row r="13" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
+        <v>2009</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="75">
+        <v>0</v>
+      </c>
+      <c r="E13" s="77"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="178"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="77"/>
+    </row>
+    <row r="14" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="75">
+        <v>1500</v>
+      </c>
+      <c r="E14" s="77">
+        <v>0</v>
+      </c>
+      <c r="F14" s="62"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="178"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="76">
+        <v>0.75</v>
+      </c>
+      <c r="N14" s="77">
+        <v>0.8</v>
+      </c>
+      <c r="O14" s="75"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="77"/>
+    </row>
+    <row r="15" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="77">
+        <v>110</v>
+      </c>
+      <c r="F15" s="62"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="178"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="77"/>
+    </row>
+    <row r="16" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
+        <v>2012</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="178"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="76">
+        <v>0.82</v>
+      </c>
+      <c r="N16" s="77">
+        <v>0.88</v>
+      </c>
+      <c r="O16" s="75"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="77"/>
+    </row>
+    <row r="17" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
+        <v>2013</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="178"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="178"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="76">
+        <v>0.86</v>
+      </c>
+      <c r="N17" s="77">
+        <v>0.9</v>
+      </c>
+      <c r="O17" s="75"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="77"/>
+    </row>
+    <row r="18" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="178"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="76">
+        <v>0.89</v>
+      </c>
+      <c r="N18" s="77">
+        <v>0.9</v>
+      </c>
+      <c r="O18" s="75"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="77"/>
+    </row>
+    <row r="19" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="177"/>
+      <c r="K19" s="178"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="76">
+        <v>0.92</v>
+      </c>
+      <c r="N19" s="77">
+        <v>0.92</v>
+      </c>
+      <c r="O19" s="75"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="77"/>
+    </row>
+    <row r="20" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
+        <v>2016</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="75">
+        <v>4000</v>
+      </c>
+      <c r="E20" s="77">
+        <v>200</v>
+      </c>
+      <c r="F20" s="62"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="178"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="178"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="76">
+        <v>0.95</v>
+      </c>
+      <c r="N20" s="77">
+        <v>0.94</v>
+      </c>
+      <c r="O20" s="75"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="77"/>
+    </row>
+    <row r="21" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="178"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="77"/>
+    </row>
+    <row r="22" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="31">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="177"/>
+      <c r="K22" s="178"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="77"/>
+    </row>
+    <row r="23" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="177"/>
+      <c r="K23" s="178"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="77"/>
+    </row>
+    <row r="24" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="31">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="177"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="177"/>
+      <c r="K24" s="178"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="77"/>
+    </row>
+    <row r="25" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="177"/>
+      <c r="I25" s="178"/>
+      <c r="J25" s="177"/>
+      <c r="K25" s="178"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="77"/>
+    </row>
+    <row r="26" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="177"/>
+      <c r="K26" s="178"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="77"/>
+    </row>
+    <row r="27" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="31">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="177"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="177"/>
+      <c r="K27" s="178"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="77"/>
+    </row>
+    <row r="28" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="31">
+        <v>2024</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="178"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="77"/>
+    </row>
+    <row r="29" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="31">
+        <v>2025</v>
+      </c>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="177"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="177"/>
+      <c r="K29" s="178"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="76">
+        <v>0.95</v>
+      </c>
+      <c r="N29" s="77">
+        <v>0.95</v>
+      </c>
+      <c r="O29" s="75"/>
+      <c r="P29" s="76"/>
+      <c r="Q29" s="77"/>
+    </row>
+    <row r="30" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="31">
+        <v>2026</v>
+      </c>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="177"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="177"/>
+      <c r="K30" s="178"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="76"/>
+      <c r="Q30" s="77"/>
+    </row>
+    <row r="31" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="31">
+        <v>2027</v>
+      </c>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="177"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="177"/>
+      <c r="K31" s="178"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="76"/>
+      <c r="Q31" s="77"/>
+    </row>
+    <row r="32" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="31">
+        <v>2028</v>
+      </c>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="177"/>
+      <c r="I32" s="178"/>
+      <c r="J32" s="177"/>
+      <c r="K32" s="178"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="76"/>
+      <c r="Q32" s="77"/>
+    </row>
+    <row r="33" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="31">
+        <v>2029</v>
+      </c>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="177"/>
+      <c r="I33" s="178"/>
+      <c r="J33" s="177"/>
+      <c r="K33" s="178"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="77"/>
+    </row>
+    <row r="34" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="63">
+        <v>2030</v>
+      </c>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="179"/>
+      <c r="I34" s="180"/>
+      <c r="J34" s="179"/>
+      <c r="K34" s="180"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="79">
+        <v>0.99</v>
+      </c>
+      <c r="N34" s="80">
+        <v>0.99</v>
+      </c>
+      <c r="O34" s="78"/>
+      <c r="P34" s="79"/>
+      <c r="Q34" s="80"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="60" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="71"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="72"/>
+      <c r="C4" s="74"/>
+    </row>
+    <row r="5" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="75"/>
+      <c r="C5" s="77"/>
+    </row>
+    <row r="6" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="75"/>
+      <c r="C6" s="77"/>
+    </row>
+    <row r="7" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
+        <v>2003</v>
+      </c>
+      <c r="B7" s="75"/>
+      <c r="C7" s="77"/>
+    </row>
+    <row r="8" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <v>2004</v>
+      </c>
+      <c r="B8" s="75"/>
+      <c r="C8" s="77"/>
+    </row>
+    <row r="9" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <v>2005</v>
+      </c>
+      <c r="B9" s="75"/>
+      <c r="C9" s="77"/>
+    </row>
+    <row r="10" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
+        <v>2006</v>
+      </c>
+      <c r="B10" s="75"/>
+      <c r="C10" s="77"/>
+    </row>
+    <row r="11" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
+        <v>2007</v>
+      </c>
+      <c r="B11" s="75"/>
+      <c r="C11" s="77"/>
+    </row>
+    <row r="12" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
+        <v>2008</v>
+      </c>
+      <c r="B12" s="75"/>
+      <c r="C12" s="77"/>
+    </row>
+    <row r="13" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
+        <v>2009</v>
+      </c>
+      <c r="B13" s="75">
+        <v>0</v>
+      </c>
+      <c r="C13" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="75"/>
+      <c r="C14" s="77"/>
+    </row>
+    <row r="15" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="75"/>
+      <c r="C15" s="77"/>
+    </row>
+    <row r="16" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
+        <v>2012</v>
+      </c>
+      <c r="B16" s="75"/>
+      <c r="C16" s="77"/>
+    </row>
+    <row r="17" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
+        <v>2013</v>
+      </c>
+      <c r="B17" s="75"/>
+      <c r="C17" s="77"/>
+    </row>
+    <row r="18" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="75"/>
+      <c r="C18" s="77"/>
+    </row>
+    <row r="19" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="75"/>
+      <c r="C19" s="77"/>
+    </row>
+    <row r="20" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
+        <v>2016</v>
+      </c>
+      <c r="B20" s="75"/>
+      <c r="C20" s="77"/>
+    </row>
+    <row r="21" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="75"/>
+      <c r="C21" s="77"/>
+    </row>
+    <row r="22" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="31">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="75"/>
+      <c r="C22" s="77"/>
+    </row>
+    <row r="23" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="75"/>
+      <c r="C23" s="77"/>
+    </row>
+    <row r="24" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="63">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="78"/>
+      <c r="C24" s="80"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15" style="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
+    </row>
+    <row r="5" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+    </row>
+    <row r="6" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="75"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
+    </row>
+    <row r="7" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
+        <v>2003</v>
+      </c>
+      <c r="B7" s="75"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="77"/>
+    </row>
+    <row r="8" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <v>2004</v>
+      </c>
+      <c r="B8" s="75"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="77"/>
+    </row>
+    <row r="9" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <v>2005</v>
+      </c>
+      <c r="B9" s="75"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="77"/>
+    </row>
+    <row r="10" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
+        <v>2006</v>
+      </c>
+      <c r="B10" s="75"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
+    </row>
+    <row r="11" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
+        <v>2007</v>
+      </c>
+      <c r="B11" s="75"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
+    </row>
+    <row r="12" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
+        <v>2008</v>
+      </c>
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="77"/>
+    </row>
+    <row r="13" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
+        <v>2009</v>
+      </c>
+      <c r="B13" s="75"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="77"/>
+    </row>
+    <row r="14" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="75"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="77"/>
+    </row>
+    <row r="15" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="75"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="77"/>
+    </row>
+    <row r="16" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
+        <v>2012</v>
+      </c>
+      <c r="B16" s="75"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="77"/>
+    </row>
+    <row r="17" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
+        <v>2013</v>
+      </c>
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="77"/>
+    </row>
+    <row r="18" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="75"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="77"/>
+    </row>
+    <row r="19" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="76">
+        <v>5</v>
+      </c>
+      <c r="D19" s="76">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="76">
+        <v>2</v>
+      </c>
+      <c r="F19" s="76">
+        <v>0.125</v>
+      </c>
+      <c r="G19" s="77">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
+        <v>2016</v>
+      </c>
+      <c r="B20" s="75"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="77"/>
+    </row>
+    <row r="21" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="75"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="77"/>
+    </row>
+    <row r="22" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="31">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="75"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="77"/>
+    </row>
+    <row r="23" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="75"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="77"/>
+    </row>
+    <row r="24" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="63">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="80"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4992,16 +6883,16 @@
       <c r="G1" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="172" t="s">
+      <c r="H1" s="171" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="173" t="s">
+      <c r="I1" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="172" t="s">
+      <c r="J1" s="171" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="173" t="s">
+      <c r="K1" s="172" t="s">
         <v>69</v>
       </c>
       <c r="L1" s="68" t="s">
@@ -5028,10 +6919,10 @@
       <c r="S1" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="T1" s="182" t="s">
+      <c r="T1" s="181" t="s">
         <v>92</v>
       </c>
-      <c r="U1" s="183" t="s">
+      <c r="U1" s="182" t="s">
         <v>92</v>
       </c>
       <c r="V1" s="82" t="s">
@@ -5046,10 +6937,10 @@
       <c r="Y1" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="Z1" s="162" t="s">
+      <c r="Z1" s="161" t="s">
         <v>75</v>
       </c>
-      <c r="AA1" s="163" t="s">
+      <c r="AA1" s="162" t="s">
         <v>75</v>
       </c>
       <c r="AB1" s="82" t="s">
@@ -5098,16 +6989,16 @@
       <c r="G2" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="174" t="s">
+      <c r="H2" s="173" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="175" t="s">
+      <c r="I2" s="174" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="174" t="s">
+      <c r="J2" s="173" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="175" t="s">
+      <c r="K2" s="174" t="s">
         <v>72</v>
       </c>
       <c r="L2" s="71" t="s">
@@ -5124,10 +7015,10 @@
       <c r="S2" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="T2" s="184" t="s">
+      <c r="T2" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="U2" s="185" t="s">
+      <c r="U2" s="184" t="s">
         <v>70</v>
       </c>
       <c r="V2" s="85" t="s">
@@ -5142,10 +7033,10 @@
       <c r="Y2" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" s="164" t="s">
+      <c r="Z2" s="163" t="s">
         <v>72</v>
       </c>
-      <c r="AA2" s="165" t="s">
+      <c r="AA2" s="164" t="s">
         <v>70</v>
       </c>
       <c r="AB2" s="85" t="s">
@@ -5192,16 +7083,16 @@
       <c r="G3" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="174" t="s">
+      <c r="H3" s="173" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="175" t="s">
+      <c r="I3" s="174" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="174" t="s">
+      <c r="J3" s="173" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="175" t="s">
+      <c r="K3" s="174" t="s">
         <v>73</v>
       </c>
       <c r="L3" s="71" t="s">
@@ -5228,10 +7119,10 @@
       <c r="S3" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="T3" s="184" t="s">
+      <c r="T3" s="183" t="s">
         <v>97</v>
       </c>
-      <c r="U3" s="185" t="s">
+      <c r="U3" s="184" t="s">
         <v>98</v>
       </c>
       <c r="V3" s="85" t="s">
@@ -5246,10 +7137,10 @@
       <c r="Y3" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" s="164" t="s">
+      <c r="Z3" s="163" t="s">
         <v>97</v>
       </c>
-      <c r="AA3" s="165" t="s">
+      <c r="AA3" s="164" t="s">
         <v>98</v>
       </c>
       <c r="AB3" s="85" t="s">
@@ -5290,16 +7181,16 @@
       <c r="G4" s="72">
         <v>1</v>
       </c>
-      <c r="H4" s="176">
+      <c r="H4" s="175">
         <v>10</v>
       </c>
-      <c r="I4" s="177">
+      <c r="I4" s="176">
         <v>0.5</v>
       </c>
-      <c r="J4" s="176">
+      <c r="J4" s="175">
         <v>4</v>
       </c>
-      <c r="K4" s="177">
+      <c r="K4" s="176">
         <f>3/12</f>
         <v>0.25</v>
       </c>
@@ -5324,10 +7215,10 @@
       <c r="S4" s="88">
         <v>1</v>
       </c>
-      <c r="T4" s="186">
+      <c r="T4" s="185">
         <v>0.03</v>
       </c>
-      <c r="U4" s="187">
+      <c r="U4" s="186">
         <v>1</v>
       </c>
       <c r="V4" s="88">
@@ -5342,10 +7233,10 @@
       <c r="Y4" s="88">
         <v>0</v>
       </c>
-      <c r="Z4" s="166">
+      <c r="Z4" s="165">
         <v>0</v>
       </c>
-      <c r="AA4" s="167">
+      <c r="AA4" s="166">
         <v>1</v>
       </c>
       <c r="AB4" s="88">
@@ -5392,10 +7283,10 @@
       <c r="E5" s="77"/>
       <c r="F5" s="62"/>
       <c r="G5" s="75"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="179"/>
-      <c r="J5" s="178"/>
-      <c r="K5" s="179"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="178"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="178"/>
       <c r="L5" s="77"/>
       <c r="M5" s="76"/>
       <c r="N5" s="77"/>
@@ -5404,14 +7295,14 @@
       <c r="Q5" s="77"/>
       <c r="R5" s="90"/>
       <c r="S5" s="91"/>
-      <c r="T5" s="188"/>
-      <c r="U5" s="189"/>
+      <c r="T5" s="187"/>
+      <c r="U5" s="188"/>
       <c r="V5" s="91"/>
       <c r="W5" s="92"/>
       <c r="X5" s="90"/>
       <c r="Y5" s="91"/>
-      <c r="Z5" s="168"/>
-      <c r="AA5" s="169"/>
+      <c r="Z5" s="167"/>
+      <c r="AA5" s="168"/>
       <c r="AB5" s="91"/>
       <c r="AC5" s="92"/>
       <c r="AD5" s="101"/>
@@ -5434,10 +7325,10 @@
       <c r="E6" s="77"/>
       <c r="F6" s="62"/>
       <c r="G6" s="75"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="179"/>
-      <c r="J6" s="178"/>
-      <c r="K6" s="179"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="177"/>
+      <c r="K6" s="178"/>
       <c r="L6" s="77"/>
       <c r="M6" s="76"/>
       <c r="N6" s="77"/>
@@ -5446,14 +7337,14 @@
       <c r="Q6" s="77"/>
       <c r="R6" s="90"/>
       <c r="S6" s="91"/>
-      <c r="T6" s="188"/>
-      <c r="U6" s="189"/>
+      <c r="T6" s="187"/>
+      <c r="U6" s="188"/>
       <c r="V6" s="91"/>
       <c r="W6" s="92"/>
       <c r="X6" s="90"/>
       <c r="Y6" s="91"/>
-      <c r="Z6" s="168"/>
-      <c r="AA6" s="169"/>
+      <c r="Z6" s="167"/>
+      <c r="AA6" s="168"/>
       <c r="AB6" s="91"/>
       <c r="AC6" s="92"/>
       <c r="AD6" s="101"/>
@@ -5476,10 +7367,10 @@
       <c r="E7" s="77"/>
       <c r="F7" s="62"/>
       <c r="G7" s="75"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="178"/>
-      <c r="K7" s="179"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="178"/>
       <c r="L7" s="77"/>
       <c r="M7" s="76"/>
       <c r="N7" s="77"/>
@@ -5488,14 +7379,14 @@
       <c r="Q7" s="77"/>
       <c r="R7" s="90"/>
       <c r="S7" s="91"/>
-      <c r="T7" s="188"/>
-      <c r="U7" s="189"/>
+      <c r="T7" s="187"/>
+      <c r="U7" s="188"/>
       <c r="V7" s="91"/>
       <c r="W7" s="92"/>
       <c r="X7" s="90"/>
       <c r="Y7" s="91"/>
-      <c r="Z7" s="168"/>
-      <c r="AA7" s="169"/>
+      <c r="Z7" s="167"/>
+      <c r="AA7" s="168"/>
       <c r="AB7" s="91"/>
       <c r="AC7" s="92"/>
       <c r="AD7" s="101"/>
@@ -5518,10 +7409,10 @@
       <c r="E8" s="77"/>
       <c r="F8" s="62"/>
       <c r="G8" s="75"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="179"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="178"/>
       <c r="L8" s="77"/>
       <c r="M8" s="76"/>
       <c r="N8" s="77"/>
@@ -5530,14 +7421,14 @@
       <c r="Q8" s="77"/>
       <c r="R8" s="90"/>
       <c r="S8" s="91"/>
-      <c r="T8" s="188"/>
-      <c r="U8" s="189"/>
+      <c r="T8" s="187"/>
+      <c r="U8" s="188"/>
       <c r="V8" s="91"/>
       <c r="W8" s="92"/>
       <c r="X8" s="90"/>
       <c r="Y8" s="91"/>
-      <c r="Z8" s="168"/>
-      <c r="AA8" s="169"/>
+      <c r="Z8" s="167"/>
+      <c r="AA8" s="168"/>
       <c r="AB8" s="91"/>
       <c r="AC8" s="92"/>
       <c r="AD8" s="101"/>
@@ -5560,10 +7451,10 @@
       <c r="E9" s="77"/>
       <c r="F9" s="62"/>
       <c r="G9" s="75"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="179"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="179"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="178"/>
       <c r="L9" s="77"/>
       <c r="M9" s="76"/>
       <c r="N9" s="77"/>
@@ -5572,14 +7463,14 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="90"/>
       <c r="S9" s="91"/>
-      <c r="T9" s="188"/>
-      <c r="U9" s="189"/>
+      <c r="T9" s="187"/>
+      <c r="U9" s="188"/>
       <c r="V9" s="91"/>
       <c r="W9" s="92"/>
       <c r="X9" s="90"/>
       <c r="Y9" s="91"/>
-      <c r="Z9" s="168"/>
-      <c r="AA9" s="169"/>
+      <c r="Z9" s="167"/>
+      <c r="AA9" s="168"/>
       <c r="AB9" s="91"/>
       <c r="AC9" s="92"/>
       <c r="AD9" s="101"/>
@@ -5602,10 +7493,10 @@
       <c r="E10" s="77"/>
       <c r="F10" s="62"/>
       <c r="G10" s="75"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="179"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="178"/>
       <c r="L10" s="77"/>
       <c r="M10" s="76"/>
       <c r="N10" s="77"/>
@@ -5614,14 +7505,14 @@
       <c r="Q10" s="77"/>
       <c r="R10" s="90"/>
       <c r="S10" s="91"/>
-      <c r="T10" s="188"/>
-      <c r="U10" s="189"/>
+      <c r="T10" s="187"/>
+      <c r="U10" s="188"/>
       <c r="V10" s="91"/>
       <c r="W10" s="92"/>
       <c r="X10" s="90"/>
       <c r="Y10" s="91"/>
-      <c r="Z10" s="168"/>
-      <c r="AA10" s="169"/>
+      <c r="Z10" s="167"/>
+      <c r="AA10" s="168"/>
       <c r="AB10" s="91"/>
       <c r="AC10" s="92"/>
       <c r="AD10" s="101"/>
@@ -5644,10 +7535,10 @@
       <c r="E11" s="77"/>
       <c r="F11" s="62"/>
       <c r="G11" s="75"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="178"/>
-      <c r="K11" s="179"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="178"/>
       <c r="L11" s="77"/>
       <c r="M11" s="76">
         <v>0.75</v>
@@ -5660,14 +7551,14 @@
       <c r="Q11" s="77"/>
       <c r="R11" s="90"/>
       <c r="S11" s="91"/>
-      <c r="T11" s="188"/>
-      <c r="U11" s="189"/>
+      <c r="T11" s="187"/>
+      <c r="U11" s="188"/>
       <c r="V11" s="91"/>
       <c r="W11" s="92"/>
       <c r="X11" s="90"/>
       <c r="Y11" s="91"/>
-      <c r="Z11" s="168"/>
-      <c r="AA11" s="169"/>
+      <c r="Z11" s="167"/>
+      <c r="AA11" s="168"/>
       <c r="AB11" s="91"/>
       <c r="AC11" s="92"/>
       <c r="AD11" s="101"/>
@@ -5690,10 +7581,10 @@
       <c r="E12" s="77"/>
       <c r="F12" s="62"/>
       <c r="G12" s="75"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="179"/>
-      <c r="J12" s="178"/>
-      <c r="K12" s="179"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="178"/>
+      <c r="J12" s="177"/>
+      <c r="K12" s="178"/>
       <c r="L12" s="77"/>
       <c r="M12" s="76"/>
       <c r="N12" s="77"/>
@@ -5702,14 +7593,14 @@
       <c r="Q12" s="77"/>
       <c r="R12" s="90"/>
       <c r="S12" s="91"/>
-      <c r="T12" s="188"/>
-      <c r="U12" s="189"/>
+      <c r="T12" s="187"/>
+      <c r="U12" s="188"/>
       <c r="V12" s="91"/>
       <c r="W12" s="92"/>
       <c r="X12" s="90"/>
       <c r="Y12" s="91"/>
-      <c r="Z12" s="168"/>
-      <c r="AA12" s="169"/>
+      <c r="Z12" s="167"/>
+      <c r="AA12" s="168"/>
       <c r="AB12" s="91"/>
       <c r="AC12" s="92"/>
       <c r="AD12" s="101"/>
@@ -5734,10 +7625,10 @@
       <c r="E13" s="77"/>
       <c r="F13" s="62"/>
       <c r="G13" s="75"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="179"/>
-      <c r="J13" s="178"/>
-      <c r="K13" s="179"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="178"/>
       <c r="L13" s="77"/>
       <c r="M13" s="76"/>
       <c r="N13" s="77"/>
@@ -5746,14 +7637,14 @@
       <c r="Q13" s="77"/>
       <c r="R13" s="90"/>
       <c r="S13" s="91"/>
-      <c r="T13" s="188"/>
-      <c r="U13" s="189"/>
+      <c r="T13" s="187"/>
+      <c r="U13" s="188"/>
       <c r="V13" s="91"/>
       <c r="W13" s="92"/>
       <c r="X13" s="90"/>
       <c r="Y13" s="91"/>
-      <c r="Z13" s="168"/>
-      <c r="AA13" s="169"/>
+      <c r="Z13" s="167"/>
+      <c r="AA13" s="168"/>
       <c r="AB13" s="91"/>
       <c r="AC13" s="92"/>
       <c r="AD13" s="101"/>
@@ -5780,10 +7671,10 @@
       </c>
       <c r="F14" s="62"/>
       <c r="G14" s="75"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="179"/>
-      <c r="J14" s="178"/>
-      <c r="K14" s="179"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="178"/>
       <c r="L14" s="77"/>
       <c r="M14" s="76">
         <v>0.75</v>
@@ -5796,14 +7687,14 @@
       <c r="Q14" s="77"/>
       <c r="R14" s="90"/>
       <c r="S14" s="91"/>
-      <c r="T14" s="188"/>
-      <c r="U14" s="189"/>
+      <c r="T14" s="187"/>
+      <c r="U14" s="188"/>
       <c r="V14" s="91"/>
       <c r="W14" s="92"/>
       <c r="X14" s="90"/>
       <c r="Y14" s="91"/>
-      <c r="Z14" s="168"/>
-      <c r="AA14" s="169"/>
+      <c r="Z14" s="167"/>
+      <c r="AA14" s="168"/>
       <c r="AB14" s="91"/>
       <c r="AC14" s="92"/>
       <c r="AD14" s="101"/>
@@ -5828,10 +7719,10 @@
       </c>
       <c r="F15" s="62"/>
       <c r="G15" s="75"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="179"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="179"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="178"/>
       <c r="L15" s="77"/>
       <c r="M15" s="76"/>
       <c r="N15" s="77"/>
@@ -5840,14 +7731,14 @@
       <c r="Q15" s="77"/>
       <c r="R15" s="90"/>
       <c r="S15" s="91"/>
-      <c r="T15" s="188"/>
-      <c r="U15" s="189"/>
+      <c r="T15" s="187"/>
+      <c r="U15" s="188"/>
       <c r="V15" s="91"/>
       <c r="W15" s="92"/>
       <c r="X15" s="90"/>
       <c r="Y15" s="91"/>
-      <c r="Z15" s="168"/>
-      <c r="AA15" s="169"/>
+      <c r="Z15" s="167"/>
+      <c r="AA15" s="168"/>
       <c r="AB15" s="91"/>
       <c r="AC15" s="92"/>
       <c r="AD15" s="101"/>
@@ -5870,10 +7761,10 @@
       <c r="E16" s="77"/>
       <c r="F16" s="62"/>
       <c r="G16" s="75"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="178"/>
-      <c r="K16" s="179"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="178"/>
       <c r="L16" s="77"/>
       <c r="M16" s="76">
         <v>0.82</v>
@@ -5886,14 +7777,14 @@
       <c r="Q16" s="77"/>
       <c r="R16" s="90"/>
       <c r="S16" s="91"/>
-      <c r="T16" s="188"/>
-      <c r="U16" s="189"/>
+      <c r="T16" s="187"/>
+      <c r="U16" s="188"/>
       <c r="V16" s="91"/>
       <c r="W16" s="92"/>
       <c r="X16" s="90"/>
       <c r="Y16" s="91"/>
-      <c r="Z16" s="168"/>
-      <c r="AA16" s="169"/>
+      <c r="Z16" s="167"/>
+      <c r="AA16" s="168"/>
       <c r="AB16" s="91"/>
       <c r="AC16" s="92"/>
       <c r="AD16" s="101"/>
@@ -5916,10 +7807,10 @@
       <c r="E17" s="77"/>
       <c r="F17" s="62"/>
       <c r="G17" s="75"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="179"/>
-      <c r="J17" s="178"/>
-      <c r="K17" s="179"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="178"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="178"/>
       <c r="L17" s="77"/>
       <c r="M17" s="76">
         <v>0.86</v>
@@ -5932,14 +7823,14 @@
       <c r="Q17" s="77"/>
       <c r="R17" s="90"/>
       <c r="S17" s="91"/>
-      <c r="T17" s="188"/>
-      <c r="U17" s="189"/>
+      <c r="T17" s="187"/>
+      <c r="U17" s="188"/>
       <c r="V17" s="91"/>
       <c r="W17" s="92"/>
       <c r="X17" s="90"/>
       <c r="Y17" s="91"/>
-      <c r="Z17" s="168"/>
-      <c r="AA17" s="169"/>
+      <c r="Z17" s="167"/>
+      <c r="AA17" s="168"/>
       <c r="AB17" s="91"/>
       <c r="AC17" s="92"/>
       <c r="AD17" s="101"/>
@@ -5962,10 +7853,10 @@
       <c r="E18" s="77"/>
       <c r="F18" s="62"/>
       <c r="G18" s="75"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="179"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="179"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="178"/>
       <c r="L18" s="77"/>
       <c r="M18" s="76">
         <v>0.89</v>
@@ -5978,14 +7869,14 @@
       <c r="Q18" s="77"/>
       <c r="R18" s="90"/>
       <c r="S18" s="91"/>
-      <c r="T18" s="188"/>
-      <c r="U18" s="189"/>
+      <c r="T18" s="187"/>
+      <c r="U18" s="188"/>
       <c r="V18" s="91"/>
       <c r="W18" s="92"/>
       <c r="X18" s="90"/>
       <c r="Y18" s="91"/>
-      <c r="Z18" s="168"/>
-      <c r="AA18" s="169"/>
+      <c r="Z18" s="167"/>
+      <c r="AA18" s="168"/>
       <c r="AB18" s="91"/>
       <c r="AC18" s="92"/>
       <c r="AD18" s="101"/>
@@ -6008,10 +7899,10 @@
       <c r="E19" s="77"/>
       <c r="F19" s="62"/>
       <c r="G19" s="75"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="178"/>
-      <c r="K19" s="179"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="177"/>
+      <c r="K19" s="178"/>
       <c r="L19" s="77"/>
       <c r="M19" s="76">
         <v>0.92</v>
@@ -6024,14 +7915,14 @@
       <c r="Q19" s="77"/>
       <c r="R19" s="90"/>
       <c r="S19" s="91"/>
-      <c r="T19" s="188"/>
-      <c r="U19" s="189"/>
+      <c r="T19" s="187"/>
+      <c r="U19" s="188"/>
       <c r="V19" s="91"/>
       <c r="W19" s="92"/>
       <c r="X19" s="90"/>
       <c r="Y19" s="91"/>
-      <c r="Z19" s="168"/>
-      <c r="AA19" s="169"/>
+      <c r="Z19" s="167"/>
+      <c r="AA19" s="168"/>
       <c r="AB19" s="91"/>
       <c r="AC19" s="92"/>
       <c r="AD19" s="101"/>
@@ -6058,10 +7949,10 @@
       </c>
       <c r="F20" s="62"/>
       <c r="G20" s="75"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="179"/>
-      <c r="J20" s="178"/>
-      <c r="K20" s="179"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="178"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="178"/>
       <c r="L20" s="77"/>
       <c r="M20" s="76">
         <v>0.95</v>
@@ -6074,14 +7965,14 @@
       <c r="Q20" s="77"/>
       <c r="R20" s="90"/>
       <c r="S20" s="91"/>
-      <c r="T20" s="188"/>
-      <c r="U20" s="189"/>
+      <c r="T20" s="187"/>
+      <c r="U20" s="188"/>
       <c r="V20" s="91"/>
       <c r="W20" s="92"/>
       <c r="X20" s="90"/>
       <c r="Y20" s="91"/>
-      <c r="Z20" s="168"/>
-      <c r="AA20" s="169"/>
+      <c r="Z20" s="167"/>
+      <c r="AA20" s="168"/>
       <c r="AB20" s="91"/>
       <c r="AC20" s="92"/>
       <c r="AD20" s="101"/>
@@ -6104,10 +7995,10 @@
       <c r="E21" s="77"/>
       <c r="F21" s="62"/>
       <c r="G21" s="75"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="178"/>
-      <c r="K21" s="179"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="178"/>
       <c r="L21" s="77"/>
       <c r="M21" s="76"/>
       <c r="N21" s="77"/>
@@ -6116,14 +8007,14 @@
       <c r="Q21" s="77"/>
       <c r="R21" s="90"/>
       <c r="S21" s="91"/>
-      <c r="T21" s="188"/>
-      <c r="U21" s="189"/>
+      <c r="T21" s="187"/>
+      <c r="U21" s="188"/>
       <c r="V21" s="91"/>
       <c r="W21" s="92"/>
       <c r="X21" s="90"/>
       <c r="Y21" s="91"/>
-      <c r="Z21" s="168"/>
-      <c r="AA21" s="169"/>
+      <c r="Z21" s="167"/>
+      <c r="AA21" s="168"/>
       <c r="AB21" s="91"/>
       <c r="AC21" s="92"/>
       <c r="AD21" s="101"/>
@@ -6146,10 +8037,10 @@
       <c r="E22" s="77"/>
       <c r="F22" s="62"/>
       <c r="G22" s="75"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="179"/>
-      <c r="J22" s="178"/>
-      <c r="K22" s="179"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="177"/>
+      <c r="K22" s="178"/>
       <c r="L22" s="77"/>
       <c r="M22" s="76"/>
       <c r="N22" s="77"/>
@@ -6158,14 +8049,14 @@
       <c r="Q22" s="77"/>
       <c r="R22" s="90"/>
       <c r="S22" s="91"/>
-      <c r="T22" s="188"/>
-      <c r="U22" s="189"/>
+      <c r="T22" s="187"/>
+      <c r="U22" s="188"/>
       <c r="V22" s="91"/>
       <c r="W22" s="92"/>
       <c r="X22" s="90"/>
       <c r="Y22" s="91"/>
-      <c r="Z22" s="168"/>
-      <c r="AA22" s="169"/>
+      <c r="Z22" s="167"/>
+      <c r="AA22" s="168"/>
       <c r="AB22" s="91"/>
       <c r="AC22" s="92"/>
       <c r="AD22" s="101"/>
@@ -6188,10 +8079,10 @@
       <c r="E23" s="77"/>
       <c r="F23" s="62"/>
       <c r="G23" s="75"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="179"/>
-      <c r="J23" s="178"/>
-      <c r="K23" s="179"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="177"/>
+      <c r="K23" s="178"/>
       <c r="L23" s="77"/>
       <c r="M23" s="76"/>
       <c r="N23" s="77"/>
@@ -6200,14 +8091,14 @@
       <c r="Q23" s="77"/>
       <c r="R23" s="90"/>
       <c r="S23" s="91"/>
-      <c r="T23" s="188"/>
-      <c r="U23" s="189"/>
+      <c r="T23" s="187"/>
+      <c r="U23" s="188"/>
       <c r="V23" s="91"/>
       <c r="W23" s="92"/>
       <c r="X23" s="90"/>
       <c r="Y23" s="91"/>
-      <c r="Z23" s="168"/>
-      <c r="AA23" s="169"/>
+      <c r="Z23" s="167"/>
+      <c r="AA23" s="168"/>
       <c r="AB23" s="91"/>
       <c r="AC23" s="92"/>
       <c r="AD23" s="101"/>
@@ -6221,108 +8112,474 @@
       <c r="AL23" s="92"/>
     </row>
     <row r="24" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="63">
+      <c r="A24" s="31">
         <v>2020</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="181"/>
-      <c r="J24" s="180"/>
-      <c r="K24" s="181"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="80"/>
-      <c r="R24" s="93"/>
-      <c r="S24" s="94"/>
-      <c r="T24" s="190"/>
-      <c r="U24" s="191"/>
-      <c r="V24" s="94"/>
-      <c r="W24" s="95"/>
-      <c r="X24" s="93"/>
-      <c r="Y24" s="94"/>
-      <c r="Z24" s="170"/>
-      <c r="AA24" s="171"/>
-      <c r="AB24" s="94"/>
-      <c r="AC24" s="95"/>
-      <c r="AD24" s="102"/>
-      <c r="AE24" s="102"/>
-      <c r="AF24" s="93"/>
-      <c r="AG24" s="93"/>
-      <c r="AH24" s="94"/>
-      <c r="AI24" s="94"/>
-      <c r="AJ24" s="94"/>
-      <c r="AK24" s="94"/>
-      <c r="AL24" s="95"/>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="177"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="177"/>
+      <c r="K24" s="178"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="91"/>
+      <c r="T24" s="187"/>
+      <c r="U24" s="188"/>
+      <c r="V24" s="91"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="90"/>
+      <c r="Y24" s="91"/>
+      <c r="Z24" s="167"/>
+      <c r="AA24" s="168"/>
+      <c r="AB24" s="91"/>
+      <c r="AC24" s="92"/>
+      <c r="AD24" s="101"/>
+      <c r="AE24" s="101"/>
+      <c r="AF24" s="90"/>
+      <c r="AG24" s="90"/>
+      <c r="AH24" s="91"/>
+      <c r="AI24" s="91"/>
+      <c r="AJ24" s="91"/>
+      <c r="AK24" s="91"/>
+      <c r="AL24" s="92"/>
+    </row>
+    <row r="25" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31">
         <v>2021</v>
       </c>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="177"/>
+      <c r="I25" s="178"/>
+      <c r="J25" s="177"/>
+      <c r="K25" s="178"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="90"/>
+      <c r="S25" s="91"/>
+      <c r="T25" s="187"/>
+      <c r="U25" s="188"/>
+      <c r="V25" s="91"/>
+      <c r="W25" s="92"/>
+      <c r="X25" s="90"/>
+      <c r="Y25" s="91"/>
+      <c r="Z25" s="167"/>
+      <c r="AA25" s="168"/>
+      <c r="AB25" s="91"/>
+      <c r="AC25" s="92"/>
+      <c r="AD25" s="101"/>
+      <c r="AE25" s="101"/>
+      <c r="AF25" s="90"/>
+      <c r="AG25" s="90"/>
+      <c r="AH25" s="91"/>
+      <c r="AI25" s="91"/>
+      <c r="AJ25" s="91"/>
+      <c r="AK25" s="91"/>
+      <c r="AL25" s="92"/>
+    </row>
+    <row r="26" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="31">
         <v>2022</v>
       </c>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="177"/>
+      <c r="K26" s="178"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="90"/>
+      <c r="S26" s="91"/>
+      <c r="T26" s="187"/>
+      <c r="U26" s="188"/>
+      <c r="V26" s="91"/>
+      <c r="W26" s="92"/>
+      <c r="X26" s="90"/>
+      <c r="Y26" s="91"/>
+      <c r="Z26" s="167"/>
+      <c r="AA26" s="168"/>
+      <c r="AB26" s="91"/>
+      <c r="AC26" s="92"/>
+      <c r="AD26" s="101"/>
+      <c r="AE26" s="101"/>
+      <c r="AF26" s="90"/>
+      <c r="AG26" s="90"/>
+      <c r="AH26" s="91"/>
+      <c r="AI26" s="91"/>
+      <c r="AJ26" s="91"/>
+      <c r="AK26" s="91"/>
+      <c r="AL26" s="92"/>
+    </row>
+    <row r="27" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
         <v>2023</v>
       </c>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="177"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="177"/>
+      <c r="K27" s="178"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="90"/>
+      <c r="S27" s="91"/>
+      <c r="T27" s="187"/>
+      <c r="U27" s="188"/>
+      <c r="V27" s="91"/>
+      <c r="W27" s="92"/>
+      <c r="X27" s="90"/>
+      <c r="Y27" s="91"/>
+      <c r="Z27" s="167"/>
+      <c r="AA27" s="168"/>
+      <c r="AB27" s="91"/>
+      <c r="AC27" s="92"/>
+      <c r="AD27" s="101"/>
+      <c r="AE27" s="101"/>
+      <c r="AF27" s="90"/>
+      <c r="AG27" s="90"/>
+      <c r="AH27" s="91"/>
+      <c r="AI27" s="91"/>
+      <c r="AJ27" s="91"/>
+      <c r="AK27" s="91"/>
+      <c r="AL27" s="92"/>
+    </row>
+    <row r="28" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
         <v>2024</v>
       </c>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A29" s="63">
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="178"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="77"/>
+      <c r="R28" s="90"/>
+      <c r="S28" s="91"/>
+      <c r="T28" s="187"/>
+      <c r="U28" s="188"/>
+      <c r="V28" s="91"/>
+      <c r="W28" s="92"/>
+      <c r="X28" s="90"/>
+      <c r="Y28" s="91"/>
+      <c r="Z28" s="167"/>
+      <c r="AA28" s="168"/>
+      <c r="AB28" s="91"/>
+      <c r="AC28" s="92"/>
+      <c r="AD28" s="101"/>
+      <c r="AE28" s="101"/>
+      <c r="AF28" s="90"/>
+      <c r="AG28" s="90"/>
+      <c r="AH28" s="91"/>
+      <c r="AI28" s="91"/>
+      <c r="AJ28" s="91"/>
+      <c r="AK28" s="91"/>
+      <c r="AL28" s="92"/>
+    </row>
+    <row r="29" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="31">
         <v>2025</v>
       </c>
-      <c r="M29" s="60">
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="177"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="177"/>
+      <c r="K29" s="178"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="76">
         <v>0.95</v>
       </c>
-      <c r="N29" s="60">
+      <c r="N29" s="77">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="O29" s="75"/>
+      <c r="P29" s="76"/>
+      <c r="Q29" s="77"/>
+      <c r="R29" s="90"/>
+      <c r="S29" s="91"/>
+      <c r="T29" s="187"/>
+      <c r="U29" s="188"/>
+      <c r="V29" s="91"/>
+      <c r="W29" s="92"/>
+      <c r="X29" s="90"/>
+      <c r="Y29" s="91"/>
+      <c r="Z29" s="167"/>
+      <c r="AA29" s="168"/>
+      <c r="AB29" s="91"/>
+      <c r="AC29" s="92"/>
+      <c r="AD29" s="101"/>
+      <c r="AE29" s="101"/>
+      <c r="AF29" s="90"/>
+      <c r="AG29" s="90"/>
+      <c r="AH29" s="91"/>
+      <c r="AI29" s="91"/>
+      <c r="AJ29" s="91"/>
+      <c r="AK29" s="91"/>
+      <c r="AL29" s="92"/>
+    </row>
+    <row r="30" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31">
         <v>2026</v>
       </c>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="177"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="177"/>
+      <c r="K30" s="178"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="76"/>
+      <c r="Q30" s="77"/>
+      <c r="R30" s="90"/>
+      <c r="S30" s="91"/>
+      <c r="T30" s="187"/>
+      <c r="U30" s="188"/>
+      <c r="V30" s="91"/>
+      <c r="W30" s="92"/>
+      <c r="X30" s="90"/>
+      <c r="Y30" s="91"/>
+      <c r="Z30" s="167"/>
+      <c r="AA30" s="168"/>
+      <c r="AB30" s="91"/>
+      <c r="AC30" s="92"/>
+      <c r="AD30" s="101"/>
+      <c r="AE30" s="101"/>
+      <c r="AF30" s="90"/>
+      <c r="AG30" s="90"/>
+      <c r="AH30" s="91"/>
+      <c r="AI30" s="91"/>
+      <c r="AJ30" s="91"/>
+      <c r="AK30" s="91"/>
+      <c r="AL30" s="92"/>
+    </row>
+    <row r="31" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="31">
         <v>2027</v>
       </c>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="177"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="177"/>
+      <c r="K31" s="178"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="76"/>
+      <c r="Q31" s="77"/>
+      <c r="R31" s="90"/>
+      <c r="S31" s="91"/>
+      <c r="T31" s="187"/>
+      <c r="U31" s="188"/>
+      <c r="V31" s="91"/>
+      <c r="W31" s="92"/>
+      <c r="X31" s="90"/>
+      <c r="Y31" s="91"/>
+      <c r="Z31" s="167"/>
+      <c r="AA31" s="168"/>
+      <c r="AB31" s="91"/>
+      <c r="AC31" s="92"/>
+      <c r="AD31" s="101"/>
+      <c r="AE31" s="101"/>
+      <c r="AF31" s="90"/>
+      <c r="AG31" s="90"/>
+      <c r="AH31" s="91"/>
+      <c r="AI31" s="91"/>
+      <c r="AJ31" s="91"/>
+      <c r="AK31" s="91"/>
+      <c r="AL31" s="92"/>
+    </row>
+    <row r="32" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="31">
         <v>2028</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="177"/>
+      <c r="I32" s="178"/>
+      <c r="J32" s="177"/>
+      <c r="K32" s="178"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="76"/>
+      <c r="Q32" s="77"/>
+      <c r="R32" s="90"/>
+      <c r="S32" s="91"/>
+      <c r="T32" s="187"/>
+      <c r="U32" s="188"/>
+      <c r="V32" s="91"/>
+      <c r="W32" s="92"/>
+      <c r="X32" s="90"/>
+      <c r="Y32" s="91"/>
+      <c r="Z32" s="167"/>
+      <c r="AA32" s="168"/>
+      <c r="AB32" s="91"/>
+      <c r="AC32" s="92"/>
+      <c r="AD32" s="101"/>
+      <c r="AE32" s="101"/>
+      <c r="AF32" s="90"/>
+      <c r="AG32" s="90"/>
+      <c r="AH32" s="91"/>
+      <c r="AI32" s="91"/>
+      <c r="AJ32" s="91"/>
+      <c r="AK32" s="91"/>
+      <c r="AL32" s="92"/>
+    </row>
+    <row r="33" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="31">
         <v>2029</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="177"/>
+      <c r="I33" s="178"/>
+      <c r="J33" s="177"/>
+      <c r="K33" s="178"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="77"/>
+      <c r="R33" s="90"/>
+      <c r="S33" s="91"/>
+      <c r="T33" s="187"/>
+      <c r="U33" s="188"/>
+      <c r="V33" s="91"/>
+      <c r="W33" s="92"/>
+      <c r="X33" s="90"/>
+      <c r="Y33" s="91"/>
+      <c r="Z33" s="167"/>
+      <c r="AA33" s="168"/>
+      <c r="AB33" s="91"/>
+      <c r="AC33" s="92"/>
+      <c r="AD33" s="101"/>
+      <c r="AE33" s="101"/>
+      <c r="AF33" s="90"/>
+      <c r="AG33" s="90"/>
+      <c r="AH33" s="91"/>
+      <c r="AI33" s="91"/>
+      <c r="AJ33" s="91"/>
+      <c r="AK33" s="91"/>
+      <c r="AL33" s="92"/>
+    </row>
+    <row r="34" spans="1:38" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="63">
         <v>2030</v>
       </c>
-      <c r="M34" s="60">
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="179"/>
+      <c r="I34" s="180"/>
+      <c r="J34" s="179"/>
+      <c r="K34" s="180"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="79">
         <v>0.99</v>
       </c>
-      <c r="N34" s="60">
+      <c r="N34" s="80">
         <v>0.99</v>
       </c>
+      <c r="O34" s="78"/>
+      <c r="P34" s="79"/>
+      <c r="Q34" s="80"/>
+      <c r="R34" s="93"/>
+      <c r="S34" s="94"/>
+      <c r="T34" s="189"/>
+      <c r="U34" s="190"/>
+      <c r="V34" s="94"/>
+      <c r="W34" s="95"/>
+      <c r="X34" s="93"/>
+      <c r="Y34" s="94"/>
+      <c r="Z34" s="169"/>
+      <c r="AA34" s="170"/>
+      <c r="AB34" s="94"/>
+      <c r="AC34" s="95"/>
+      <c r="AD34" s="102"/>
+      <c r="AE34" s="102"/>
+      <c r="AF34" s="93"/>
+      <c r="AG34" s="93"/>
+      <c r="AH34" s="94"/>
+      <c r="AI34" s="94"/>
+      <c r="AJ34" s="94"/>
+      <c r="AK34" s="94"/>
+      <c r="AL34" s="95"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6331,539 +8588,894 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="60" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="43"/>
+    <col min="2" max="2" width="15.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11" style="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="60" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15" style="60" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28" style="60" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28" style="60" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="E1" s="68" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F1" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="171" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="172" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="171" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="172" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="68" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="71"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="173" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="174" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="173" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="174" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="70"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="71"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="E3" s="71" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="31"/>
+      <c r="G3" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="173" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="174" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="173" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="174" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="P3" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q3" s="71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>2000</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="74"/>
-    </row>
-    <row r="5" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="29">
+        <v>0.13</v>
+      </c>
+      <c r="C4" s="29">
+        <v>0.97</v>
+      </c>
+      <c r="D4" s="72"/>
+      <c r="E4" s="74">
+        <v>0</v>
+      </c>
+      <c r="F4" s="65">
+        <v>0.7</v>
+      </c>
+      <c r="G4" s="72">
+        <v>1</v>
+      </c>
+      <c r="H4" s="175">
+        <v>10</v>
+      </c>
+      <c r="I4" s="176">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="175">
+        <v>4</v>
+      </c>
+      <c r="K4" s="176">
+        <f>3/12</f>
+        <v>0.25</v>
+      </c>
+      <c r="L4" s="74">
+        <f>3/12</f>
+        <v>0.25</v>
+      </c>
+      <c r="M4" s="73"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="72">
+        <v>1</v>
+      </c>
+      <c r="P4" s="73">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="74">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>2001</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="77"/>
-    </row>
-    <row r="6" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="178"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="178"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="77"/>
+    </row>
+    <row r="6" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>2002</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="77"/>
-    </row>
-    <row r="7" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="177"/>
+      <c r="K6" s="178"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="77"/>
+    </row>
+    <row r="7" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>2003</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="77"/>
-    </row>
-    <row r="8" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="178"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="77"/>
+    </row>
+    <row r="8" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>2004</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="77"/>
-    </row>
-    <row r="9" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="178"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="77"/>
+    </row>
+    <row r="9" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>2005</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="77"/>
-    </row>
-    <row r="10" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="178"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="77"/>
+    </row>
+    <row r="10" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>2006</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="77"/>
-    </row>
-    <row r="11" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="77"/>
+    </row>
+    <row r="11" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>2007</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="77"/>
-    </row>
-    <row r="12" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="76">
+        <v>0.75</v>
+      </c>
+      <c r="N11" s="77">
+        <v>0.8</v>
+      </c>
+      <c r="O11" s="75"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="77"/>
+    </row>
+    <row r="12" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>2008</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="77"/>
-    </row>
-    <row r="13" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="178"/>
+      <c r="J12" s="177"/>
+      <c r="K12" s="178"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="77"/>
+    </row>
+    <row r="13" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>2009</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="75">
         <v>0</v>
       </c>
-      <c r="C13" s="77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="77"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="178"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="77"/>
+    </row>
+    <row r="14" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>2010</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="77"/>
-    </row>
-    <row r="15" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="75">
+        <v>1500</v>
+      </c>
+      <c r="E14" s="77">
+        <v>0</v>
+      </c>
+      <c r="F14" s="62"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="178"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="76">
+        <v>0.75</v>
+      </c>
+      <c r="N14" s="77">
+        <v>0.8</v>
+      </c>
+      <c r="O14" s="75"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="77"/>
+    </row>
+    <row r="15" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>2011</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="77"/>
-    </row>
-    <row r="16" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="77">
+        <v>110</v>
+      </c>
+      <c r="F15" s="62"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="178"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="77"/>
+    </row>
+    <row r="16" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>2012</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="77"/>
-    </row>
-    <row r="17" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="178"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="76">
+        <v>0.82</v>
+      </c>
+      <c r="N16" s="77">
+        <v>0.88</v>
+      </c>
+      <c r="O16" s="75"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="77"/>
+    </row>
+    <row r="17" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>2013</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="77"/>
-    </row>
-    <row r="18" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="178"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="178"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="76">
+        <v>0.86</v>
+      </c>
+      <c r="N17" s="77">
+        <v>0.9</v>
+      </c>
+      <c r="O17" s="75"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="77"/>
+    </row>
+    <row r="18" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>2014</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="77"/>
-    </row>
-    <row r="19" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="178"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="76">
+        <v>0.89</v>
+      </c>
+      <c r="N18" s="77">
+        <v>0.9</v>
+      </c>
+      <c r="O18" s="75"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="77"/>
+    </row>
+    <row r="19" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>2015</v>
       </c>
-      <c r="B19" s="75"/>
-      <c r="C19" s="77"/>
-    </row>
-    <row r="20" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="177"/>
+      <c r="K19" s="178"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="76">
+        <v>0.92</v>
+      </c>
+      <c r="N19" s="77">
+        <v>0.92</v>
+      </c>
+      <c r="O19" s="75"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="77"/>
+    </row>
+    <row r="20" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>2016</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="77"/>
-    </row>
-    <row r="21" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="75">
+        <v>4000</v>
+      </c>
+      <c r="E20" s="77">
+        <v>200</v>
+      </c>
+      <c r="F20" s="62"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="178"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="178"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="76">
+        <v>0.95</v>
+      </c>
+      <c r="N20" s="77">
+        <v>0.94</v>
+      </c>
+      <c r="O20" s="75"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="77"/>
+    </row>
+    <row r="21" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>2017</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="77"/>
-    </row>
-    <row r="22" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="178"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="77"/>
+    </row>
+    <row r="22" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>2018</v>
       </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="77"/>
-    </row>
-    <row r="23" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="177"/>
+      <c r="K22" s="178"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="77"/>
+    </row>
+    <row r="23" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
         <v>2019</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="77"/>
-    </row>
-    <row r="24" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="63">
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="177"/>
+      <c r="K23" s="178"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="77"/>
+    </row>
+    <row r="24" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="31">
         <v>2020</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="80"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15" style="60" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="68" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="71" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="71" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
-        <v>2000</v>
-      </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-    </row>
-    <row r="5" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
-        <v>2001</v>
-      </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-    </row>
-    <row r="6" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
-        <v>2002</v>
-      </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77"/>
-    </row>
-    <row r="7" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
-        <v>2003</v>
-      </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="77"/>
-    </row>
-    <row r="8" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>2004</v>
-      </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="77"/>
-    </row>
-    <row r="9" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>2005</v>
-      </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="77"/>
-    </row>
-    <row r="10" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
-        <v>2006</v>
-      </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="77"/>
-    </row>
-    <row r="11" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
-        <v>2007</v>
-      </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="77"/>
-    </row>
-    <row r="12" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
-        <v>2008</v>
-      </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="77"/>
-    </row>
-    <row r="13" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
-        <v>2009</v>
-      </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="77"/>
-    </row>
-    <row r="14" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
-        <v>2010</v>
-      </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="77"/>
-    </row>
-    <row r="15" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
-        <v>2011</v>
-      </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="77"/>
-    </row>
-    <row r="16" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
-        <v>2012</v>
-      </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="77"/>
-    </row>
-    <row r="17" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
-        <v>2013</v>
-      </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="77"/>
-    </row>
-    <row r="18" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
-        <v>2014</v>
-      </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="77"/>
-    </row>
-    <row r="19" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="75">
-        <v>0.5</v>
-      </c>
-      <c r="C19" s="76">
-        <v>5</v>
-      </c>
-      <c r="D19" s="76">
-        <v>0.25</v>
-      </c>
-      <c r="E19" s="76">
-        <v>2</v>
-      </c>
-      <c r="F19" s="76">
-        <v>0.125</v>
-      </c>
-      <c r="G19" s="77">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31">
-        <v>2016</v>
-      </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="77"/>
-    </row>
-    <row r="21" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31">
-        <v>2017</v>
-      </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="77"/>
-    </row>
-    <row r="22" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31">
-        <v>2018</v>
-      </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="77"/>
-    </row>
-    <row r="23" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31">
-        <v>2019</v>
-      </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="77"/>
-    </row>
-    <row r="24" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="63">
-        <v>2020</v>
-      </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="80"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="177"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="177"/>
+      <c r="K24" s="178"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="77"/>
+    </row>
+    <row r="25" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="177"/>
+      <c r="I25" s="178"/>
+      <c r="J25" s="177"/>
+      <c r="K25" s="178"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="77"/>
+    </row>
+    <row r="26" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="177"/>
+      <c r="K26" s="178"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="77"/>
+    </row>
+    <row r="27" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="31">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="177"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="177"/>
+      <c r="K27" s="178"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="77"/>
+    </row>
+    <row r="28" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="31">
+        <v>2024</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="178"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="77"/>
+    </row>
+    <row r="29" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="31">
+        <v>2025</v>
+      </c>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="177"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="177"/>
+      <c r="K29" s="178"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="76">
+        <v>0.95</v>
+      </c>
+      <c r="N29" s="77">
+        <v>0.95</v>
+      </c>
+      <c r="O29" s="75"/>
+      <c r="P29" s="76"/>
+      <c r="Q29" s="77"/>
+    </row>
+    <row r="30" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="31">
+        <v>2026</v>
+      </c>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="177"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="177"/>
+      <c r="K30" s="178"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="76"/>
+      <c r="Q30" s="77"/>
+    </row>
+    <row r="31" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="31">
+        <v>2027</v>
+      </c>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="177"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="177"/>
+      <c r="K31" s="178"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="76"/>
+      <c r="Q31" s="77"/>
+    </row>
+    <row r="32" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="31">
+        <v>2028</v>
+      </c>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="177"/>
+      <c r="I32" s="178"/>
+      <c r="J32" s="177"/>
+      <c r="K32" s="178"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="76"/>
+      <c r="Q32" s="77"/>
+    </row>
+    <row r="33" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="31">
+        <v>2029</v>
+      </c>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="177"/>
+      <c r="I33" s="178"/>
+      <c r="J33" s="177"/>
+      <c r="K33" s="178"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="77"/>
+    </row>
+    <row r="34" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="63">
+        <v>2030</v>
+      </c>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="179"/>
+      <c r="I34" s="180"/>
+      <c r="J34" s="179"/>
+      <c r="K34" s="180"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="79">
+        <v>0.99</v>
+      </c>
+      <c r="N34" s="80">
+        <v>0.99</v>
+      </c>
+      <c r="O34" s="78"/>
+      <c r="P34" s="79"/>
+      <c r="Q34" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="pars" sheetId="24" r:id="rId1"/>
@@ -5173,8 +5173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8592,7 +8592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>

--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -9,17 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="pars" sheetId="24" r:id="rId1"/>
     <sheet name="data" sheetId="5" r:id="rId2"/>
     <sheet name="mixing" sheetId="27" r:id="rId3"/>
-    <sheet name="timepars_short" sheetId="28" r:id="rId4"/>
+    <sheet name="timepars" sheetId="28" r:id="rId4"/>
     <sheet name="scen_1" sheetId="25" r:id="rId5"/>
     <sheet name="scen_2" sheetId="26" r:id="rId6"/>
     <sheet name="timepars_all" sheetId="20" r:id="rId7"/>
-    <sheet name="timepars" sheetId="30" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -1535,234 +1534,8 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Tom Tidhar</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Proportion of the susceptible population that is at high risk</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Number of people on PrEP. Seemed to make more sense than proportion of people on PrEP</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Effectiveness of condoms. This number doesn't actually matter because it gets absorbed into the force of infection. But its needed for a gel condom analysis</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Time between HIV tests (in years)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Effectiveness of each care stage in reducing infectiousness. The number of people in each infected compartment are multiplied by these values to get an overall relative proportion positive</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Time between tests for people within 1 year of infection</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Time between tests for people infected over 3 years ago</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Proportion of diagnosed PLHIV who are on treatment</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Proportion of PLHIV on treatment who are virally suppressed</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="118">
   <si>
     <t>Waiting list</t>
   </si>
@@ -5173,7 +4946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -5385,8 +5158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5561,16 +5334,16 @@
         <v>0.7</v>
       </c>
       <c r="G4" s="72">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H4" s="175">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="I4" s="176">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="J4" s="175">
-        <v>4</v>
+        <v>0.75</v>
       </c>
       <c r="K4" s="176">
         <f>3/12</f>
@@ -6485,7 +6258,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6741,13 +6514,13 @@
         <v>0.5</v>
       </c>
       <c r="C19" s="76">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="D19" s="76">
         <v>0.25</v>
       </c>
       <c r="E19" s="76">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="F19" s="76">
         <v>0.125</v>
@@ -8586,900 +8359,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q34"/>
-  <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="60" customWidth="1"/>
-    <col min="4" max="4" width="11" style="60" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="60" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15" style="60" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="60" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" style="60" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28" style="60" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.85546875" style="60" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28" style="60" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="171" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="172" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="171" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="172" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="O1" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="P1" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q1" s="68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="173" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="174" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="173" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" s="174" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="M2" s="70"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="71"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="69" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="173" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="174" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="173" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" s="174" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="M3" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="N3" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="O3" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="P3" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q3" s="71" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
-        <v>2000</v>
-      </c>
-      <c r="B4" s="29">
-        <v>0.13</v>
-      </c>
-      <c r="C4" s="29">
-        <v>0.97</v>
-      </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="74">
-        <v>0</v>
-      </c>
-      <c r="F4" s="65">
-        <v>0.7</v>
-      </c>
-      <c r="G4" s="72">
-        <v>1</v>
-      </c>
-      <c r="H4" s="175">
-        <v>10</v>
-      </c>
-      <c r="I4" s="176">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="175">
-        <v>4</v>
-      </c>
-      <c r="K4" s="176">
-        <f>3/12</f>
-        <v>0.25</v>
-      </c>
-      <c r="L4" s="74">
-        <f>3/12</f>
-        <v>0.25</v>
-      </c>
-      <c r="M4" s="73"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="72">
-        <v>1</v>
-      </c>
-      <c r="P4" s="73">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="74">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
-        <v>2001</v>
-      </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="177"/>
-      <c r="I5" s="178"/>
-      <c r="J5" s="177"/>
-      <c r="K5" s="178"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="77"/>
-    </row>
-    <row r="6" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
-        <v>2002</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="177"/>
-      <c r="K6" s="178"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="77"/>
-    </row>
-    <row r="7" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
-        <v>2003</v>
-      </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="177"/>
-      <c r="K7" s="178"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="77"/>
-    </row>
-    <row r="8" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>2004</v>
-      </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="177"/>
-      <c r="K8" s="178"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="77"/>
-    </row>
-    <row r="9" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>2005</v>
-      </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="177"/>
-      <c r="K9" s="178"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="77"/>
-    </row>
-    <row r="10" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
-        <v>2006</v>
-      </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="177"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="77"/>
-    </row>
-    <row r="11" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
-        <v>2007</v>
-      </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="177"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="76">
-        <v>0.75</v>
-      </c>
-      <c r="N11" s="77">
-        <v>0.8</v>
-      </c>
-      <c r="O11" s="75"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="77"/>
-    </row>
-    <row r="12" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
-        <v>2008</v>
-      </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="177"/>
-      <c r="K12" s="178"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="77"/>
-    </row>
-    <row r="13" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
-        <v>2009</v>
-      </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="75">
-        <v>0</v>
-      </c>
-      <c r="E13" s="77"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="177"/>
-      <c r="K13" s="178"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="77"/>
-    </row>
-    <row r="14" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
-        <v>2010</v>
-      </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="75">
-        <v>1500</v>
-      </c>
-      <c r="E14" s="77">
-        <v>0</v>
-      </c>
-      <c r="F14" s="62"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="177"/>
-      <c r="K14" s="178"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="76">
-        <v>0.75</v>
-      </c>
-      <c r="N14" s="77">
-        <v>0.8</v>
-      </c>
-      <c r="O14" s="75"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="77"/>
-    </row>
-    <row r="15" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
-        <v>2011</v>
-      </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="77">
-        <v>110</v>
-      </c>
-      <c r="F15" s="62"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="177"/>
-      <c r="K15" s="178"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="77"/>
-    </row>
-    <row r="16" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
-        <v>2012</v>
-      </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="177"/>
-      <c r="K16" s="178"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="76">
-        <v>0.82</v>
-      </c>
-      <c r="N16" s="77">
-        <v>0.88</v>
-      </c>
-      <c r="O16" s="75"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="77"/>
-    </row>
-    <row r="17" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
-        <v>2013</v>
-      </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="177"/>
-      <c r="K17" s="178"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="76">
-        <v>0.86</v>
-      </c>
-      <c r="N17" s="77">
-        <v>0.9</v>
-      </c>
-      <c r="O17" s="75"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="77"/>
-    </row>
-    <row r="18" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
-        <v>2014</v>
-      </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="177"/>
-      <c r="K18" s="178"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="76">
-        <v>0.89</v>
-      </c>
-      <c r="N18" s="77">
-        <v>0.9</v>
-      </c>
-      <c r="O18" s="75"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="77"/>
-    </row>
-    <row r="19" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="177"/>
-      <c r="K19" s="178"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="76">
-        <v>0.92</v>
-      </c>
-      <c r="N19" s="77">
-        <v>0.92</v>
-      </c>
-      <c r="O19" s="75"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="77"/>
-    </row>
-    <row r="20" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31">
-        <v>2016</v>
-      </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="75">
-        <v>4000</v>
-      </c>
-      <c r="E20" s="77">
-        <v>200</v>
-      </c>
-      <c r="F20" s="62"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="177"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="177"/>
-      <c r="K20" s="178"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="76">
-        <v>0.95</v>
-      </c>
-      <c r="N20" s="77">
-        <v>0.94</v>
-      </c>
-      <c r="O20" s="75"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="77"/>
-    </row>
-    <row r="21" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31">
-        <v>2017</v>
-      </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="177"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="177"/>
-      <c r="K21" s="178"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="77"/>
-    </row>
-    <row r="22" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31">
-        <v>2018</v>
-      </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="177"/>
-      <c r="K22" s="178"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="77"/>
-    </row>
-    <row r="23" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31">
-        <v>2019</v>
-      </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="177"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="177"/>
-      <c r="K23" s="178"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="75"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="77"/>
-    </row>
-    <row r="24" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31">
-        <v>2020</v>
-      </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="177"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="177"/>
-      <c r="K24" s="178"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="77"/>
-    </row>
-    <row r="25" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
-        <v>2021</v>
-      </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="177"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="177"/>
-      <c r="K25" s="178"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="77"/>
-    </row>
-    <row r="26" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31">
-        <v>2022</v>
-      </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="177"/>
-      <c r="K26" s="178"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="77"/>
-    </row>
-    <row r="27" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31">
-        <v>2023</v>
-      </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="177"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="177"/>
-      <c r="K27" s="178"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="77"/>
-    </row>
-    <row r="28" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31">
-        <v>2024</v>
-      </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="177"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="177"/>
-      <c r="K28" s="178"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="77"/>
-    </row>
-    <row r="29" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31">
-        <v>2025</v>
-      </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="177"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="177"/>
-      <c r="K29" s="178"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="76">
-        <v>0.95</v>
-      </c>
-      <c r="N29" s="77">
-        <v>0.95</v>
-      </c>
-      <c r="O29" s="75"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="77"/>
-    </row>
-    <row r="30" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31">
-        <v>2026</v>
-      </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="177"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="177"/>
-      <c r="K30" s="178"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="77"/>
-    </row>
-    <row r="31" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31">
-        <v>2027</v>
-      </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="177"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="177"/>
-      <c r="K31" s="178"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="75"/>
-      <c r="P31" s="76"/>
-      <c r="Q31" s="77"/>
-    </row>
-    <row r="32" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31">
-        <v>2028</v>
-      </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="177"/>
-      <c r="I32" s="178"/>
-      <c r="J32" s="177"/>
-      <c r="K32" s="178"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="75"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="77"/>
-    </row>
-    <row r="33" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31">
-        <v>2029</v>
-      </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="177"/>
-      <c r="I33" s="178"/>
-      <c r="J33" s="177"/>
-      <c r="K33" s="178"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="75"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="77"/>
-    </row>
-    <row r="34" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="63">
-        <v>2030</v>
-      </c>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="179"/>
-      <c r="I34" s="180"/>
-      <c r="J34" s="179"/>
-      <c r="K34" s="180"/>
-      <c r="L34" s="80"/>
-      <c r="M34" s="79">
-        <v>0.99</v>
-      </c>
-      <c r="N34" s="80">
-        <v>0.99</v>
-      </c>
-      <c r="O34" s="78"/>
-      <c r="P34" s="79"/>
-      <c r="Q34" s="80"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -18,7 +18,7 @@
     <sheet name="timepars" sheetId="28" r:id="rId4"/>
     <sheet name="scen_1" sheetId="25" r:id="rId5"/>
     <sheet name="scen_2" sheetId="26" r:id="rId6"/>
-    <sheet name="timepars_all" sheetId="20" r:id="rId7"/>
+    <sheet name="timepars_old" sheetId="20" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -801,6 +801,30 @@
           </rPr>
           <t xml:space="preserve">
 Proportion of the susceptible population that is at high risk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Effectiveness of PrEP</t>
         </r>
       </text>
     </comment>
@@ -5159,7 +5183,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5340,10 +5364,10 @@
         <v>1.5</v>
       </c>
       <c r="I4" s="176">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J4" s="175">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K4" s="176">
         <f>3/12</f>

--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pars" sheetId="24" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="scen_2" sheetId="26" r:id="rId6"/>
     <sheet name="timepars_old" sheetId="20" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -215,6 +215,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Michael Traeger</author>
+    <author>Kathleen Ryan</author>
     <author>Tom Tidhar</author>
   </authors>
   <commentList>
@@ -245,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1" shapeId="0">
+    <comment ref="C1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -255,7 +256,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Tom Tidhar:</t>
+          <t>Kathleen Ryan:</t>
         </r>
         <r>
           <rPr>
@@ -265,11 +266,18 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-It is assumed that 7.2% of MSM are HIV+ (see excel formula for this column)</t>
+census estiamte of male population in victoria aged 15-64 *0.018 as that is assume % of msm
+then minus the number of PLHIV
+note: census estiamtes at 5 years and avergae increase in between
+census data:
+2016:30713
+2011:33375
+2016:36315
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0">
+    <comment ref="D1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -279,6 +287,57 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Kathleen Ryan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+data from 
+https://internationaleducation.gov.au/research/DataVisualisations/Pages/Student-number.aspx
+estimate is 50% of visas, 1.88% of visas msm
+I think the numbers are too low though...</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kathleen Ryan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+data for these 3 columns comes from DHHS data request. Restricted to HIV notifications among MSM and then splot by assumed medicare</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Tom Tidhar:</t>
         </r>
         <r>
@@ -289,7 +348,10 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mostly from Kirby reports</t>
+It is assumed that 7.2% of MSM are HIV+ (see excel formula for this column)
+KR:
+Have updated this to the number of men living with HIV in VIC according to DHHS PLHIV dataset. Not restricted to MSM, but can cut 10% to drop non-MSM if needed.
+Will need to request the numbers officially from DHHS for publications? but dont need data request because aggregate needed only</t>
         </r>
       </text>
     </comment>
@@ -303,6 +365,54 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Kathleen Ryan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not sure how to do PLHIV split by medicare status because te status of people will change over time...</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mostly from Kirby reports</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Tom Tidhar:</t>
         </r>
         <r>
@@ -319,7 +429,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="1" shapeId="0">
+    <comment ref="S1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -343,7 +453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="1" shapeId="0">
+    <comment ref="T1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -367,7 +477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="1" shapeId="0">
+    <comment ref="U1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -391,7 +501,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="1" shapeId="0">
+    <comment ref="W1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -419,7 +529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="1" shapeId="0">
+    <comment ref="X1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -444,7 +554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="1" shapeId="0">
+    <comment ref="Y1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -470,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="1" shapeId="0">
+    <comment ref="Z1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -499,7 +609,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="1" shapeId="0">
+    <comment ref="AA1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -525,7 +635,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="1" shapeId="0">
+    <comment ref="AB1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -549,7 +659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="1" shapeId="0">
+    <comment ref="AC1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -573,7 +683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="1" shapeId="0">
+    <comment ref="AE2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -583,7 +693,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Tom Tidhar:</t>
+          <t>Kathleen Ryan:</t>
         </r>
         <r>
           <rPr>
@@ -593,11 +703,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-https://www2.health.vic.gov.au/public-health/infectious-diseases/infectious-diseases-surveillance/search-infectious-diseases-data/HIVAIDS%20monthly%20surveillance%20report%20-%20December%202013</t>
+estimate from 2006</t>
         </r>
       </text>
     </comment>
-    <comment ref="K7" authorId="1" shapeId="0">
+    <comment ref="O8" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -621,7 +731,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K8" authorId="1" shapeId="0">
+    <comment ref="O9" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -645,7 +755,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K11" authorId="0" shapeId="0">
+    <comment ref="O12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -673,7 +783,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z11" authorId="0" shapeId="0">
+    <comment ref="AD12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -697,7 +807,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="1" shapeId="0">
+    <comment ref="R13" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -717,35 +827,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-https://www2.health.vic.gov.au/public-health/infectious-diseases/infectious-diseases-surveillance/search-infectious-diseases-data/hiv-in-victoria-surveillance-report-for-april-june-2018</t>
+From PrEPX data. Data collected from July 2016 onwards. Longitudinal study so hard to assign to a specific year</t>
         </r>
       </text>
     </comment>
-    <comment ref="N12" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-From PrEPX data. Data collected from July 2016 onwards. Longitudinal study so hard to assign to a specific year</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A13" authorId="1" shapeId="0">
+    <comment ref="A14" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -778,6 +864,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Tom Tidhar</author>
+    <author>Kathleen Ryan</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0">
@@ -788,7 +875,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tom Tidhar:</t>
         </r>
@@ -797,7 +884,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Proportion of the susceptible population that is at high risk</t>
@@ -812,7 +899,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tom Tidhar:</t>
         </r>
@@ -821,7 +908,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Effectiveness of PrEP</t>
@@ -836,7 +923,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tom Tidhar:</t>
         </r>
@@ -845,10 +932,37 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Number of people on PrEP. Seemed to make more sense than proportion of people on PrEP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kathleen Ryan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Medland https://doi.org/10.1186/s12879-018-3325-0
+2016: ~3%, 2017:~7%
+PRONTO! redcap: ~10% 
+BUT this is among asian MSM attending for testing so lower in general pop. Incremental increase from 2% in 2016 to 9% in 2018?</t>
         </r>
       </text>
     </comment>
@@ -860,7 +974,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tom Tidhar:</t>
         </r>
@@ -869,7 +983,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Effectiveness of condoms. This number doesn't actually matter because it gets absorbed into the force of infection. But its needed for a gel condom analysis</t>
@@ -884,7 +998,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tom Tidhar:</t>
         </r>
@@ -893,14 +1007,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Time between HIV tests (in years)</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -908,7 +1022,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tom Tidhar:</t>
         </r>
@@ -917,14 +1031,38 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Time between HIV tests (in years)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Effectiveness of each care stage in reducing infectiousness. The number of people in each infected compartment are multiplied by these values to get an overall relative proportion positive</t>
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -932,7 +1070,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tom Tidhar:</t>
         </r>
@@ -941,14 +1079,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Time between tests for people within 1 year of infection</t>
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -956,7 +1094,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tom Tidhar:</t>
         </r>
@@ -965,14 +1103,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Time between tests for people infected over 3 years ago</t>
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -980,7 +1118,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tom Tidhar:</t>
         </r>
@@ -989,14 +1127,87 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Time between tests for people within 1 year of infection</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Time between tests for people infected over 3 years ago</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kathleen Ryan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Before PrEp was made available I have used the % of HIV -ve and untestedmen in GCPS thtat reported any CAI
+After prEP was implemented I used the % of HIV -ve men not on PrEP from paper published by Holt - only 2 years provided in paper</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Proportion of diagnosed PLHIV who are on treatment</t>
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
+    <comment ref="T3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1004,7 +1215,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tom Tidhar:</t>
         </r>
@@ -1013,10 +1224,35 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Proportion of PLHIV on treatment who are virally suppressed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kathleen Ryan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+for prep estimates ive used the total estimated to be covered in a month in the VicPrEP or PrEPX study +25% as ~25% reported previous use.
+During PBS years I've just used estimate from PBS</t>
         </r>
       </text>
     </comment>
@@ -1038,7 +1274,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tom Tidhar:</t>
         </r>
@@ -1047,7 +1283,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Number of people on PrEP. Seemed to make more sense than proportion of people on PrEP</t>
@@ -1072,7 +1308,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tom Tidhar:</t>
         </r>
@@ -1081,7 +1317,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Time between HIV tests (in years)</t>
@@ -1096,7 +1332,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tom Tidhar:</t>
         </r>
@@ -1105,7 +1341,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Time between tests for people within 1 year of infection</t>
@@ -1120,7 +1356,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tom Tidhar:</t>
         </r>
@@ -1129,7 +1365,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Time between tests for people infected over 3 years ago</t>
@@ -1154,7 +1390,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tom Tidhar:</t>
         </r>
@@ -1163,7 +1399,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Proportion of the susceptible population that is at high risk</t>
@@ -1178,7 +1414,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tom Tidhar:</t>
         </r>
@@ -1187,7 +1423,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Number of people on PrEP. Seemed to make more sense than proportion of people on PrEP</t>
@@ -1202,7 +1438,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tom Tidhar:</t>
         </r>
@@ -1211,7 +1447,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Effectiveness of condoms. This number doesn't actually matter because it gets absorbed into the force of infection. But its needed for a gel condom analysis</t>
@@ -1226,7 +1462,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tom Tidhar:</t>
         </r>
@@ -1235,7 +1471,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Time between HIV tests (in years)</t>
@@ -1250,7 +1486,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tom Tidhar:</t>
         </r>
@@ -1259,7 +1495,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Effectiveness of each care stage in reducing infectiousness. The number of people in each infected compartment are multiplied by these values to get an overall relative proportion positive</t>
@@ -1274,7 +1510,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tom Tidhar:</t>
         </r>
@@ -1283,7 +1519,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Relative force of infection multiplier for each risk group </t>
@@ -1298,7 +1534,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tom Tidhar:</t>
         </r>
@@ -1307,7 +1543,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Relative force of infection multiplier for each risk group </t>
@@ -1322,7 +1558,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tom Tidhar:</t>
         </r>
@@ -1331,7 +1567,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Condom usage between risk groups. Might be set this to zero then absorb any relative risk into the relative_foi parameter</t>
@@ -1346,7 +1582,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tom Tidhar:</t>
         </r>
@@ -1355,7 +1591,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Condom usage between risk groups. Might be set this to zero then absorb any relative risk into the relative_foi parameter</t>
@@ -1370,7 +1606,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tom Tidhar:</t>
         </r>
@@ -1379,7 +1615,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This is the time (in years) in each undiagnosed group before people move on to the next one (if they don't get diagnosed). i.e. people spend 1 year in the "&lt;1 year since infection" group, then 2 years in the "1-3 years since infection" group, then stay in the "3+ years since infection" group until they get diagnosed</t>
@@ -1394,7 +1630,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tom Tidhar:</t>
         </r>
@@ -1403,7 +1639,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Proportions of people changing to gel condoms. From the geldom analysis. Can just leave at 0.</t>
@@ -1418,7 +1654,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tom Tidhar:</t>
         </r>
@@ -1427,7 +1663,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Time between tests for people within 1 year of infection</t>
@@ -1442,7 +1678,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tom Tidhar:</t>
         </r>
@@ -1451,7 +1687,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Time between tests for people infected over 3 years ago</t>
@@ -1466,7 +1702,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tom Tidhar:</t>
         </r>
@@ -1475,7 +1711,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Proportion of diagnosed PLHIV who are on treatment</t>
@@ -1490,7 +1726,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tom Tidhar:</t>
         </r>
@@ -1499,7 +1735,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Proportion of PLHIV on treatment who are virally suppressed</t>
@@ -1514,7 +1750,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tom Tidhar:</t>
         </r>
@@ -1523,7 +1759,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 i.e. PrEP is 97% effective</t>
@@ -1538,7 +1774,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Tom Tidhar:</t>
         </r>
@@ -1547,7 +1783,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 i.e. PrEP is 97% effective</t>
@@ -1559,7 +1795,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="130">
   <si>
     <t>Waiting list</t>
   </si>
@@ -1862,15 +2098,6 @@
   </si>
   <si>
     <t>PLHIV_tot</t>
-  </si>
-  <si>
-    <t>HIV_diag_tot</t>
-  </si>
-  <si>
-    <t>HIV_diag_aus</t>
-  </si>
-  <si>
-    <t>HIV_diag_int</t>
   </si>
   <si>
     <t>PLHIV_aus</t>
@@ -1914,6 +2141,51 @@
   </si>
   <si>
     <t>eff_prep</t>
+  </si>
+  <si>
+    <t>census</t>
+  </si>
+  <si>
+    <t xml:space="preserve">census avg </t>
+  </si>
+  <si>
+    <t>HIV_diag_tot_all</t>
+  </si>
+  <si>
+    <t>HIV_diag_aus_all</t>
+  </si>
+  <si>
+    <t>HIV_diag_int_all</t>
+  </si>
+  <si>
+    <t>HIV_diag_new_aus</t>
+  </si>
+  <si>
+    <t>HIV_diag_old_aus</t>
+  </si>
+  <si>
+    <t>HIV_diag_new_int</t>
+  </si>
+  <si>
+    <t>HIV_diag_old_int</t>
+  </si>
+  <si>
+    <t>lo_new</t>
+  </si>
+  <si>
+    <t>lo_old</t>
+  </si>
+  <si>
+    <t>hi_new</t>
+  </si>
+  <si>
+    <t>hi_old</t>
+  </si>
+  <si>
+    <t>pr_new</t>
+  </si>
+  <si>
+    <t>pr_old</t>
   </si>
 </sst>
 </file>
@@ -1926,7 +2198,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2043,19 +2315,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
@@ -2063,7 +2322,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2106,8 +2365,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7FFD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="54">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -2780,6 +3045,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2800,7 +3085,7 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2948,31 +3233,16 @@
     <xf numFmtId="2" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="8" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
@@ -3013,9 +3283,6 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3053,11 +3320,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3100,6 +3367,92 @@
     <xf numFmtId="2" fontId="0" fillId="7" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3125,6 +3478,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD7FFD5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3618,12 +3976,12 @@
         <v>6</v>
       </c>
       <c r="I7" s="39">
-        <f>((data!B12/data!B2) ^ (C2/((data!A12-data!A2))) - 1)</f>
-        <v>4.0741237836483535E-3</v>
+        <f>((data!B13/data!B3) ^ (C2/((data!A13-data!A3))) - 1)</f>
+        <v>-3.0280607750013955E-3</v>
       </c>
       <c r="J7" s="43">
-        <f>(data!B7-data!B2)/(data!A7-data!A2)/data!B2*C2</f>
-        <v>4.6046927083333352E-3</v>
+        <f>(data!B8-data!B3)/(data!A8-data!A3)/data!B3*C2</f>
+        <v>-5.6035491876199814E-3</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3645,7 +4003,7 @@
         <v>0.13650000000000001</v>
       </c>
       <c r="J8" s="43" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3906,11 +4264,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L24" sqref="L24"/>
+      <selection pane="topRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3918,1046 +4276,1256 @@
     <col min="1" max="1" width="5" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.28515625" style="43" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11" style="43" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="43" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="62.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11" style="43" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" style="43" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="62.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+    <row r="1" spans="1:32" s="121" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="113" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="114" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="115" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="115" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="116" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="117" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="114" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" s="115" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="114" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="115" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="151" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="119" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="120" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="121" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="122" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="120" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="118" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" s="119" t="s">
-        <v>104</v>
-      </c>
-      <c r="J1" s="120" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" s="157" t="s">
-        <v>108</v>
-      </c>
-      <c r="L1" s="123"/>
-      <c r="M1" s="124" t="s">
+      <c r="P1" s="118"/>
+      <c r="Q1" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="124" t="s">
+      <c r="R1" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="124" t="s">
+      <c r="S1" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="124" t="s">
+      <c r="T1" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="124" t="s">
+      <c r="U1" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="124" t="s">
+      <c r="V1" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="S1" s="124" t="s">
+      <c r="W1" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="T1" s="124" t="s">
+      <c r="X1" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="124" t="s">
+      <c r="Y1" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="124" t="s">
+      <c r="Z1" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="W1" s="124" t="s">
+      <c r="AA1" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="X1" s="124" t="s">
+      <c r="AB1" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" s="124" t="s">
+      <c r="AC1" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" s="125" t="s">
+      <c r="AD1" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="126"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="AE1" s="199" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF1" s="199" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="202">
+        <v>2006</v>
+      </c>
+      <c r="B2" s="203"/>
+      <c r="C2" s="213">
+        <f t="shared" ref="C2:C15" si="0">AF2-(D2+L2)</f>
+        <v>30713</v>
+      </c>
+      <c r="D2" s="205"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="204"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="210"/>
+      <c r="S2" s="210"/>
+      <c r="T2" s="210"/>
+      <c r="U2" s="210"/>
+      <c r="V2" s="210"/>
+      <c r="W2" s="210"/>
+      <c r="X2" s="210"/>
+      <c r="Y2" s="210"/>
+      <c r="Z2" s="210"/>
+      <c r="AA2" s="210"/>
+      <c r="AB2" s="210"/>
+      <c r="AC2" s="210"/>
+      <c r="AD2" s="211"/>
+      <c r="AE2" s="195">
+        <v>30713</v>
+      </c>
+      <c r="AF2" s="195">
+        <v>30713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>2007</v>
       </c>
-      <c r="B2" s="103">
+      <c r="B3" s="191">
         <v>42714</v>
       </c>
-      <c r="C2" s="104">
-        <f>B2-D2</f>
-        <v>38830.909090909088</v>
-      </c>
-      <c r="D2" s="105">
-        <f>B2/11</f>
-        <v>3883.090909090909</v>
-      </c>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="103">
-        <f t="shared" ref="H2:H12" si="0">B2*7.2/100</f>
-        <v>3075.4079999999999</v>
-      </c>
-      <c r="I2" s="104"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="158">
+      <c r="C3" s="213">
+        <f t="shared" si="0"/>
+        <v>31245.4</v>
+      </c>
+      <c r="D3" s="185"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="214"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="152">
         <v>0.7</v>
       </c>
-      <c r="L2" s="96"/>
-      <c r="M2" s="40">
+      <c r="P3" s="96"/>
+      <c r="Q3" s="40">
         <v>2.32876712328767E-2</v>
       </c>
-      <c r="N2" s="40">
+      <c r="R3" s="40">
         <v>3.4931506849315071E-2</v>
       </c>
-      <c r="O2" s="28">
-        <f t="shared" ref="O2:O12" si="1">B2-P2</f>
-        <v>39638.591999999997</v>
-      </c>
-      <c r="P2" s="28">
-        <f t="shared" ref="P2:P12" si="2">H2</f>
-        <v>3075.4079999999999</v>
-      </c>
-      <c r="Q2" s="33">
-        <f>ROUND(M2*O2,0)</f>
-        <v>923</v>
-      </c>
-      <c r="R2" s="33">
-        <f t="shared" ref="R2" si="3">ROUND(N2*P2,0)</f>
-        <v>107</v>
-      </c>
-      <c r="S2" s="11">
+      <c r="S3" s="28">
+        <f t="shared" ref="S3:S13" si="1">B3-T3</f>
+        <v>42714</v>
+      </c>
+      <c r="T3" s="28">
+        <f t="shared" ref="T3:T14" si="2">L3</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="33">
+        <f>ROUND(Q3*S3,0)</f>
+        <v>995</v>
+      </c>
+      <c r="V3" s="33">
+        <f t="shared" ref="V3" si="3">ROUND(R3*T3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="11">
         <v>1007</v>
       </c>
-      <c r="T2" s="37">
+      <c r="X3" s="37">
         <v>0.81</v>
       </c>
-      <c r="U2" s="37">
+      <c r="Y3" s="37">
         <v>0.82</v>
       </c>
-      <c r="V2" s="38">
-        <f>S2*T2*U2</f>
+      <c r="Z3" s="38">
+        <f>W3*X3*Y3</f>
         <v>668.84940000000006</v>
       </c>
-      <c r="W2" s="34">
+      <c r="AA3" s="34">
         <v>0.17</v>
       </c>
-      <c r="X2" s="36">
-        <f>V2-Y2</f>
+      <c r="AB3" s="36">
+        <f>Z3-AC3</f>
         <v>555.14500200000009</v>
       </c>
-      <c r="Y2" s="36">
-        <f>V2*W2</f>
+      <c r="AC3" s="36">
+        <f>Z3*AA3</f>
         <v>113.70439800000001</v>
       </c>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="201"/>
+      <c r="AF3" s="212">
+        <f>AF2+532.4</f>
+        <v>31245.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>2008</v>
       </c>
-      <c r="B3" s="103">
-        <f>SUM(C3:D3)</f>
-        <v>44849.7</v>
-      </c>
-      <c r="C3" s="104">
-        <f>1.05*C2</f>
-        <v>40772.454545454544</v>
-      </c>
-      <c r="D3" s="105">
-        <f>D2*1.05</f>
-        <v>4077.2454545454548</v>
-      </c>
-      <c r="E3" s="116"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="103">
+      <c r="B4" s="191">
+        <f>SUM(C4:D4)</f>
+        <v>27291.800000000003</v>
+      </c>
+      <c r="C4" s="213">
         <f t="shared" si="0"/>
-        <v>3229.1783999999998</v>
-      </c>
-      <c r="I3" s="104"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="28">
+        <v>27291.800000000003</v>
+      </c>
+      <c r="D4" s="185"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="214"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="191">
+        <v>4486</v>
+      </c>
+      <c r="M4" s="103"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="28">
         <f t="shared" si="1"/>
-        <v>41620.5216</v>
-      </c>
-      <c r="P3" s="28">
+        <v>22805.800000000003</v>
+      </c>
+      <c r="T4" s="28">
         <f t="shared" si="2"/>
-        <v>3229.1783999999998</v>
-      </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="11">
+        <v>4486</v>
+      </c>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="11">
         <v>922</v>
       </c>
-      <c r="T3" s="37">
+      <c r="X4" s="37">
         <v>0.81</v>
       </c>
-      <c r="U3" s="37">
+      <c r="Y4" s="37">
         <v>0.82</v>
       </c>
-      <c r="V3" s="38">
-        <f t="shared" ref="V3:V12" si="4">S3*T3*U3</f>
+      <c r="Z4" s="38">
+        <f t="shared" ref="Z4:Z13" si="4">W4*X4*Y4</f>
         <v>612.39239999999995</v>
       </c>
-      <c r="W3" s="34">
+      <c r="AA4" s="34">
         <v>0.17</v>
       </c>
-      <c r="X3" s="36">
-        <f t="shared" ref="X3:X12" si="5">V3-Y3</f>
+      <c r="AB4" s="36">
+        <f t="shared" ref="AB4:AB13" si="5">Z4-AC4</f>
         <v>508.28569199999993</v>
       </c>
-      <c r="Y3" s="36">
-        <f t="shared" ref="Y3:Y12" si="6">V3*W3</f>
+      <c r="AC4" s="36">
+        <f t="shared" ref="AC4:AC13" si="6">Z4*AA4</f>
         <v>104.106708</v>
       </c>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="201"/>
+      <c r="AF4" s="212">
+        <f t="shared" ref="AF4:AF7" si="7">AF3+532.4</f>
+        <v>31777.800000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>2009</v>
       </c>
-      <c r="B4" s="103">
-        <f t="shared" ref="B4:B12" si="7">SUM(C4:D4)</f>
-        <v>47092.184999999998</v>
-      </c>
-      <c r="C4" s="104">
-        <f t="shared" ref="C4:C11" si="8">1.05*C3</f>
-        <v>42811.077272727271</v>
-      </c>
-      <c r="D4" s="105">
-        <f t="shared" ref="D4:D12" si="9">D3*1.05</f>
-        <v>4281.107727272728</v>
-      </c>
-      <c r="E4" s="116"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="103">
+      <c r="B5" s="191">
+        <f t="shared" ref="B5:B15" si="8">SUM(C5:D5)</f>
+        <v>27545.200000000004</v>
+      </c>
+      <c r="C5" s="213">
         <f t="shared" si="0"/>
-        <v>3390.6373200000003</v>
-      </c>
-      <c r="I4" s="104"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="28">
+        <v>27545.200000000004</v>
+      </c>
+      <c r="D5" s="185"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="214"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="191">
+        <v>4765</v>
+      </c>
+      <c r="M5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="153"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="28">
         <f t="shared" si="1"/>
-        <v>43701.547679999996</v>
-      </c>
-      <c r="P4" s="28">
+        <v>22780.200000000004</v>
+      </c>
+      <c r="T5" s="28">
         <f t="shared" si="2"/>
-        <v>3390.6373200000003</v>
-      </c>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="11">
+        <v>4765</v>
+      </c>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="11">
         <v>1480</v>
       </c>
-      <c r="T4" s="37">
+      <c r="X5" s="37">
         <v>0.81</v>
       </c>
-      <c r="U4" s="37">
+      <c r="Y5" s="37">
         <v>0.82</v>
       </c>
-      <c r="V4" s="38">
+      <c r="Z5" s="38">
         <f t="shared" si="4"/>
         <v>983.01600000000008</v>
       </c>
-      <c r="W4" s="34">
+      <c r="AA5" s="34">
         <v>0.17</v>
       </c>
-      <c r="X4" s="36">
+      <c r="AB5" s="36">
         <f t="shared" si="5"/>
         <v>815.90328</v>
       </c>
-      <c r="Y4" s="36">
+      <c r="AC5" s="36">
         <f t="shared" si="6"/>
         <v>167.11272000000002</v>
       </c>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="201"/>
+      <c r="AF5" s="212">
+        <f t="shared" si="7"/>
+        <v>32310.200000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>2010</v>
       </c>
-      <c r="B5" s="103">
-        <f t="shared" si="7"/>
-        <v>49446.794249999999</v>
-      </c>
-      <c r="C5" s="104">
+      <c r="B6" s="191">
         <f t="shared" si="8"/>
-        <v>44951.631136363634</v>
-      </c>
-      <c r="D5" s="105">
-        <f t="shared" si="9"/>
-        <v>4495.1631136363649</v>
-      </c>
-      <c r="E5" s="108">
-        <v>178</v>
-      </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="103">
+        <v>27788.600000000006</v>
+      </c>
+      <c r="C6" s="213">
         <f t="shared" si="0"/>
-        <v>3560.1691859999996</v>
-      </c>
-      <c r="I5" s="104"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="158"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="40">
+        <v>26472.496600000006</v>
+      </c>
+      <c r="D6" s="186">
+        <v>1316.1034</v>
+      </c>
+      <c r="E6" s="122"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="214"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="191">
+        <v>5054</v>
+      </c>
+      <c r="M6" s="103"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="152"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="40">
         <v>4.0273972602739724E-2</v>
       </c>
-      <c r="N5" s="40">
+      <c r="R6" s="40">
         <v>4.3150684931506846E-2</v>
       </c>
-      <c r="O5" s="28">
+      <c r="S6" s="28">
         <f t="shared" si="1"/>
-        <v>45886.625064</v>
-      </c>
-      <c r="P5" s="28">
+        <v>22734.600000000006</v>
+      </c>
+      <c r="T6" s="28">
         <f t="shared" si="2"/>
-        <v>3560.1691859999996</v>
-      </c>
-      <c r="Q5" s="32">
-        <f t="shared" ref="Q5:Q11" si="10">ROUND(M5*O5,0)</f>
-        <v>1848</v>
-      </c>
-      <c r="R5" s="32">
-        <f t="shared" ref="R5:R12" si="11">ROUND(N5*P5,0)</f>
-        <v>154</v>
-      </c>
-      <c r="S5" s="11">
+        <v>5054</v>
+      </c>
+      <c r="U6" s="32">
+        <f t="shared" ref="U6:U12" si="9">ROUND(Q6*S6,0)</f>
+        <v>916</v>
+      </c>
+      <c r="V6" s="32">
+        <f t="shared" ref="V6:V13" si="10">ROUND(R6*T6,0)</f>
+        <v>218</v>
+      </c>
+      <c r="W6" s="11">
         <v>1758</v>
       </c>
-      <c r="T5" s="37">
+      <c r="X6" s="37">
         <v>0.81</v>
       </c>
-      <c r="U5" s="37">
+      <c r="Y6" s="37">
         <v>0.82</v>
       </c>
-      <c r="V5" s="38">
+      <c r="Z6" s="38">
         <f t="shared" si="4"/>
         <v>1167.6635999999999</v>
       </c>
-      <c r="W5" s="34">
+      <c r="AA6" s="34">
         <v>0.17</v>
       </c>
-      <c r="X5" s="36">
+      <c r="AB6" s="36">
         <f t="shared" si="5"/>
         <v>969.16078799999991</v>
       </c>
-      <c r="Y5" s="36">
+      <c r="AC6" s="36">
         <f t="shared" si="6"/>
         <v>198.50281199999998</v>
       </c>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="201"/>
+      <c r="AF6" s="212">
+        <f t="shared" si="7"/>
+        <v>32842.600000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>2011</v>
       </c>
-      <c r="B6" s="103">
-        <f t="shared" si="7"/>
-        <v>51919.133962500004</v>
-      </c>
-      <c r="C6" s="104">
-        <f t="shared" si="8"/>
-        <v>47199.21269318182</v>
-      </c>
-      <c r="D6" s="105">
+      <c r="B7" s="191">
+        <f>SUM(C7:D7)</f>
+        <v>28074.000000000007</v>
+      </c>
+      <c r="C7" s="213">
+        <f t="shared" si="0"/>
+        <v>26900.372400000007</v>
+      </c>
+      <c r="D7" s="186">
+        <v>1173.6276</v>
+      </c>
+      <c r="E7" s="122"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="216"/>
+      <c r="L7" s="191">
+        <v>5301</v>
+      </c>
+      <c r="M7" s="103"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="153"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="40">
+        <v>3.7534246575342468E-2</v>
+      </c>
+      <c r="R7" s="40">
+        <v>4.726027397260274E-2</v>
+      </c>
+      <c r="S7" s="28">
+        <f t="shared" si="1"/>
+        <v>22773.000000000007</v>
+      </c>
+      <c r="T7" s="28">
+        <f t="shared" si="2"/>
+        <v>5301</v>
+      </c>
+      <c r="U7" s="32">
         <f t="shared" si="9"/>
-        <v>4719.9212693181835</v>
-      </c>
-      <c r="E6" s="108">
-        <v>218</v>
-      </c>
-      <c r="F6" s="110"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="103">
-        <f t="shared" si="0"/>
-        <v>3738.1776453000002</v>
-      </c>
-      <c r="I6" s="104"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="159"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="40">
-        <v>3.7534246575342468E-2</v>
-      </c>
-      <c r="N6" s="40">
-        <v>4.726027397260274E-2</v>
-      </c>
-      <c r="O6" s="28">
-        <f t="shared" si="1"/>
-        <v>48180.956317200005</v>
-      </c>
-      <c r="P6" s="28">
-        <f t="shared" si="2"/>
-        <v>3738.1776453000002</v>
-      </c>
-      <c r="Q6" s="32">
+        <v>855</v>
+      </c>
+      <c r="V7" s="32">
         <f t="shared" si="10"/>
-        <v>1808</v>
-      </c>
-      <c r="R6" s="32">
-        <f t="shared" si="11"/>
-        <v>177</v>
-      </c>
-      <c r="S6" s="11">
+        <v>251</v>
+      </c>
+      <c r="W7" s="11">
         <v>1863</v>
       </c>
-      <c r="T6" s="37">
+      <c r="X7" s="37">
         <v>0.81</v>
       </c>
-      <c r="U6" s="37">
+      <c r="Y7" s="37">
         <v>0.82</v>
       </c>
-      <c r="V6" s="38">
+      <c r="Z7" s="38">
         <f t="shared" si="4"/>
         <v>1237.4046000000001</v>
       </c>
-      <c r="W6" s="34">
+      <c r="AA7" s="34">
         <v>0.17</v>
       </c>
-      <c r="X6" s="36">
+      <c r="AB7" s="36">
         <f t="shared" si="5"/>
         <v>1027.0458180000001</v>
       </c>
-      <c r="Y6" s="36">
+      <c r="AC7" s="36">
         <f t="shared" si="6"/>
         <v>210.35878200000002</v>
       </c>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="195">
+        <v>33375</v>
+      </c>
+      <c r="AF7" s="212">
+        <f t="shared" si="7"/>
+        <v>33375.000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>2012</v>
       </c>
-      <c r="B7" s="103">
-        <f t="shared" si="7"/>
-        <v>54515.090660625006</v>
-      </c>
-      <c r="C7" s="104">
+      <c r="B8" s="191">
         <f t="shared" si="8"/>
-        <v>49559.173327840916</v>
-      </c>
-      <c r="D7" s="105">
+        <v>28353.000000000007</v>
+      </c>
+      <c r="C8" s="213">
+        <f t="shared" si="0"/>
+        <v>27248.744400000007</v>
+      </c>
+      <c r="D8" s="186">
+        <v>1104.2556</v>
+      </c>
+      <c r="E8" s="187">
+        <v>206</v>
+      </c>
+      <c r="F8" s="188">
+        <v>172</v>
+      </c>
+      <c r="G8" s="189">
+        <v>34</v>
+      </c>
+      <c r="H8" s="122"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="215"/>
+      <c r="K8" s="216"/>
+      <c r="L8" s="191">
+        <v>5610</v>
+      </c>
+      <c r="M8" s="103"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="152">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="40">
+        <v>4.876712328767123E-2</v>
+      </c>
+      <c r="R8" s="40">
+        <v>5.3835616438356167E-2</v>
+      </c>
+      <c r="S8" s="28">
+        <f t="shared" si="1"/>
+        <v>22743.000000000007</v>
+      </c>
+      <c r="T8" s="28">
+        <f t="shared" si="2"/>
+        <v>5610</v>
+      </c>
+      <c r="U8" s="32">
         <f t="shared" si="9"/>
-        <v>4955.9173327840927</v>
-      </c>
-      <c r="E7" s="108">
-        <v>200</v>
-      </c>
-      <c r="F7" s="110"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="103">
-        <f t="shared" si="0"/>
-        <v>3925.0865275650008</v>
-      </c>
-      <c r="I7" s="104"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="158">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="L7" s="97"/>
-      <c r="M7" s="40">
-        <v>4.876712328767123E-2</v>
-      </c>
-      <c r="N7" s="40">
-        <v>5.3835616438356167E-2</v>
-      </c>
-      <c r="O7" s="28">
-        <f t="shared" si="1"/>
-        <v>50590.004133060007</v>
-      </c>
-      <c r="P7" s="28">
-        <f t="shared" si="2"/>
-        <v>3925.0865275650008</v>
-      </c>
-      <c r="Q7" s="32">
+        <v>1109</v>
+      </c>
+      <c r="V8" s="32">
         <f t="shared" si="10"/>
-        <v>2467</v>
-      </c>
-      <c r="R7" s="32">
-        <f t="shared" si="11"/>
-        <v>211</v>
-      </c>
-      <c r="S7" s="11">
+        <v>302</v>
+      </c>
+      <c r="W8" s="11">
         <v>2436</v>
       </c>
-      <c r="T7" s="37">
+      <c r="X8" s="37">
         <v>0.81</v>
       </c>
-      <c r="U7" s="37">
+      <c r="Y8" s="37">
         <v>0.82</v>
       </c>
-      <c r="V7" s="38">
+      <c r="Z8" s="38">
         <f t="shared" si="4"/>
         <v>1617.9911999999999</v>
       </c>
-      <c r="W7" s="34">
+      <c r="AA8" s="34">
         <v>0.17</v>
       </c>
-      <c r="X7" s="36">
+      <c r="AB8" s="36">
         <f t="shared" si="5"/>
         <v>1342.9326959999999</v>
       </c>
-      <c r="Y7" s="36">
+      <c r="AC8" s="36">
         <f t="shared" si="6"/>
         <v>275.05850400000003</v>
       </c>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="201"/>
+      <c r="AF8" s="201">
+        <f>AF7+588</f>
+        <v>33963.000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>2013</v>
       </c>
-      <c r="B8" s="103">
-        <f t="shared" si="7"/>
-        <v>57240.845193656263</v>
-      </c>
-      <c r="C8" s="104">
+      <c r="B9" s="191">
         <f t="shared" si="8"/>
-        <v>52037.131994232965</v>
-      </c>
-      <c r="D8" s="105">
+        <v>28657.000000000007</v>
+      </c>
+      <c r="C9" s="213">
+        <f t="shared" si="0"/>
+        <v>27511.205800000007</v>
+      </c>
+      <c r="D9" s="186">
+        <v>1145.7942</v>
+      </c>
+      <c r="E9" s="187">
+        <v>233</v>
+      </c>
+      <c r="F9" s="188">
+        <v>184</v>
+      </c>
+      <c r="G9" s="189">
+        <v>49</v>
+      </c>
+      <c r="H9" s="122"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="215"/>
+      <c r="K9" s="216"/>
+      <c r="L9" s="191">
+        <v>5894</v>
+      </c>
+      <c r="M9" s="103"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="152"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="40">
+        <v>5.2876712328767124E-2</v>
+      </c>
+      <c r="R9" s="40">
+        <v>6.2671232876712321E-2</v>
+      </c>
+      <c r="S9" s="28">
+        <f t="shared" si="1"/>
+        <v>22763.000000000007</v>
+      </c>
+      <c r="T9" s="28">
+        <f t="shared" si="2"/>
+        <v>5894</v>
+      </c>
+      <c r="U9" s="32">
         <f t="shared" si="9"/>
-        <v>5203.7131994232977</v>
-      </c>
-      <c r="E8" s="108">
-        <v>218</v>
-      </c>
-      <c r="F8" s="110"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="103">
-        <f t="shared" si="0"/>
-        <v>4121.3408539432512</v>
-      </c>
-      <c r="I8" s="104"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="158"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="40">
-        <v>5.2876712328767124E-2</v>
-      </c>
-      <c r="N8" s="40">
-        <v>6.2671232876712321E-2</v>
-      </c>
-      <c r="O8" s="28">
-        <f t="shared" si="1"/>
-        <v>53119.504339713014</v>
-      </c>
-      <c r="P8" s="28">
-        <f t="shared" si="2"/>
-        <v>4121.3408539432512</v>
-      </c>
-      <c r="Q8" s="32">
+        <v>1204</v>
+      </c>
+      <c r="V9" s="32">
         <f t="shared" si="10"/>
-        <v>2809</v>
-      </c>
-      <c r="R8" s="32">
-        <f t="shared" si="11"/>
-        <v>258</v>
-      </c>
-      <c r="S8" s="11">
+        <v>369</v>
+      </c>
+      <c r="W9" s="11">
         <v>2978</v>
       </c>
-      <c r="T8" s="37">
+      <c r="X9" s="37">
         <v>0.81</v>
       </c>
-      <c r="U8" s="37">
+      <c r="Y9" s="37">
         <v>0.82</v>
       </c>
-      <c r="V8" s="38">
+      <c r="Z9" s="38">
         <f t="shared" si="4"/>
         <v>1977.9876000000002</v>
       </c>
-      <c r="W8" s="34">
+      <c r="AA9" s="34">
         <v>0.17</v>
       </c>
-      <c r="X8" s="36">
+      <c r="AB9" s="36">
         <f t="shared" si="5"/>
         <v>1641.7297080000001</v>
       </c>
-      <c r="Y8" s="36">
+      <c r="AC9" s="36">
         <f t="shared" si="6"/>
         <v>336.25789200000003</v>
       </c>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="201"/>
+      <c r="AF9" s="201">
+        <f t="shared" ref="AF9:AF15" si="11">AF8+588</f>
+        <v>34551.000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>2014</v>
       </c>
-      <c r="B9" s="103">
-        <f t="shared" si="7"/>
-        <v>60102.887453339077</v>
-      </c>
-      <c r="C9" s="104">
+      <c r="B10" s="191">
         <f t="shared" si="8"/>
-        <v>54638.988593944618</v>
-      </c>
-      <c r="D9" s="105">
+        <v>28939.000000000007</v>
+      </c>
+      <c r="C10" s="213">
+        <f t="shared" si="0"/>
+        <v>27635.934400000006</v>
+      </c>
+      <c r="D10" s="186">
+        <v>1303.0656000000001</v>
+      </c>
+      <c r="E10" s="187">
+        <v>235</v>
+      </c>
+      <c r="F10" s="188">
+        <v>200</v>
+      </c>
+      <c r="G10" s="189">
+        <v>35</v>
+      </c>
+      <c r="H10" s="122"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="215"/>
+      <c r="K10" s="216"/>
+      <c r="L10" s="191">
+        <v>6200</v>
+      </c>
+      <c r="M10" s="103"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="152">
+        <v>0.88</v>
+      </c>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="40">
+        <v>5.1506849315068493E-2</v>
+      </c>
+      <c r="R10" s="40">
+        <v>5.321917808219178E-2</v>
+      </c>
+      <c r="S10" s="28">
+        <f t="shared" si="1"/>
+        <v>22739.000000000007</v>
+      </c>
+      <c r="T10" s="28">
+        <f t="shared" si="2"/>
+        <v>6200</v>
+      </c>
+      <c r="U10" s="32">
         <f t="shared" si="9"/>
-        <v>5463.8988593944632</v>
-      </c>
-      <c r="E9" s="108">
-        <v>219</v>
-      </c>
-      <c r="F9" s="110"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="103">
-        <f t="shared" si="0"/>
-        <v>4327.407896640414</v>
-      </c>
-      <c r="I9" s="104"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="158">
-        <v>0.88</v>
-      </c>
-      <c r="L9" s="97"/>
-      <c r="M9" s="40">
-        <v>5.1506849315068493E-2</v>
-      </c>
-      <c r="N9" s="40">
-        <v>5.321917808219178E-2</v>
-      </c>
-      <c r="O9" s="28">
-        <f t="shared" si="1"/>
-        <v>55775.479556698665</v>
-      </c>
-      <c r="P9" s="28">
-        <f t="shared" si="2"/>
-        <v>4327.407896640414</v>
-      </c>
-      <c r="Q9" s="32">
+        <v>1171</v>
+      </c>
+      <c r="V10" s="32">
         <f t="shared" si="10"/>
-        <v>2873</v>
-      </c>
-      <c r="R9" s="32">
-        <f t="shared" si="11"/>
-        <v>230</v>
-      </c>
-      <c r="S9" s="11">
+        <v>330</v>
+      </c>
+      <c r="W10" s="11">
         <v>3269</v>
       </c>
-      <c r="T9" s="37">
+      <c r="X10" s="37">
         <v>0.81</v>
       </c>
-      <c r="U9" s="37">
+      <c r="Y10" s="37">
         <v>0.82</v>
       </c>
-      <c r="V9" s="38">
+      <c r="Z10" s="38">
         <f t="shared" si="4"/>
         <v>2171.2698</v>
       </c>
-      <c r="W9" s="34">
+      <c r="AA10" s="34">
         <v>0.17</v>
       </c>
-      <c r="X9" s="36">
+      <c r="AB10" s="36">
         <f t="shared" si="5"/>
         <v>1802.1539339999999</v>
       </c>
-      <c r="Y9" s="36">
+      <c r="AC10" s="36">
         <f t="shared" si="6"/>
         <v>369.11586600000004</v>
       </c>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="201"/>
+      <c r="AF10" s="201">
+        <f t="shared" si="11"/>
+        <v>35139.000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>2015</v>
       </c>
-      <c r="B10" s="103">
-        <f t="shared" si="7"/>
-        <v>63108.031826006038</v>
-      </c>
-      <c r="C10" s="104">
+      <c r="B11" s="191">
         <f t="shared" si="8"/>
-        <v>57370.938023641851</v>
-      </c>
-      <c r="D10" s="105">
+        <v>29178.000000000007</v>
+      </c>
+      <c r="C11" s="213">
+        <f t="shared" si="0"/>
+        <v>27722.579200000007</v>
+      </c>
+      <c r="D11" s="186">
+        <v>1455.4208000000001</v>
+      </c>
+      <c r="E11" s="187">
+        <v>218</v>
+      </c>
+      <c r="F11" s="188">
+        <v>177</v>
+      </c>
+      <c r="G11" s="189">
+        <v>41</v>
+      </c>
+      <c r="H11" s="122"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="215"/>
+      <c r="K11" s="216"/>
+      <c r="L11" s="191">
+        <v>6549</v>
+      </c>
+      <c r="M11" s="103"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="152">
+        <v>0.88</v>
+      </c>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="40">
+        <v>6.6575342465753418E-2</v>
+      </c>
+      <c r="R11" s="40">
+        <v>6.7191780821917804E-2</v>
+      </c>
+      <c r="S11" s="28">
+        <f t="shared" si="1"/>
+        <v>22629.000000000007</v>
+      </c>
+      <c r="T11" s="28">
+        <f t="shared" si="2"/>
+        <v>6549</v>
+      </c>
+      <c r="U11" s="32">
         <f t="shared" si="9"/>
-        <v>5737.0938023641866</v>
-      </c>
-      <c r="E10" s="108">
-        <v>206</v>
-      </c>
-      <c r="F10" s="110"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="103">
-        <f t="shared" si="0"/>
-        <v>4543.7782914724348</v>
-      </c>
-      <c r="I10" s="104"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="158">
-        <v>0.88</v>
-      </c>
-      <c r="L10" s="97"/>
-      <c r="M10" s="40">
-        <v>6.6575342465753418E-2</v>
-      </c>
-      <c r="N10" s="40">
-        <v>6.7191780821917804E-2</v>
-      </c>
-      <c r="O10" s="28">
-        <f t="shared" si="1"/>
-        <v>58564.2535345336</v>
-      </c>
-      <c r="P10" s="28">
-        <f t="shared" si="2"/>
-        <v>4543.7782914724348</v>
-      </c>
-      <c r="Q10" s="32">
+        <v>1507</v>
+      </c>
+      <c r="V11" s="32">
         <f t="shared" si="10"/>
-        <v>3899</v>
-      </c>
-      <c r="R10" s="32">
-        <f t="shared" si="11"/>
-        <v>305</v>
-      </c>
-      <c r="S10" s="11">
+        <v>440</v>
+      </c>
+      <c r="W11" s="11">
         <v>4865</v>
       </c>
-      <c r="T10" s="37">
+      <c r="X11" s="37">
         <v>0.81</v>
       </c>
-      <c r="U10" s="37">
+      <c r="Y11" s="37">
         <v>0.82</v>
       </c>
-      <c r="V10" s="38">
+      <c r="Z11" s="38">
         <f t="shared" si="4"/>
         <v>3231.3330000000001</v>
       </c>
-      <c r="W10" s="35">
+      <c r="AA11" s="35">
         <v>0.17</v>
       </c>
-      <c r="X10" s="36">
+      <c r="AB11" s="36">
         <f t="shared" si="5"/>
         <v>2682.00639</v>
       </c>
-      <c r="Y10" s="36">
+      <c r="AC11" s="36">
         <f t="shared" si="6"/>
         <v>549.32661000000007</v>
       </c>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="201"/>
+      <c r="AF11" s="201">
+        <f t="shared" si="11"/>
+        <v>35727.000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>2016</v>
       </c>
-      <c r="B11" s="103">
-        <f t="shared" si="7"/>
-        <v>66263.43341730634</v>
-      </c>
-      <c r="C11" s="104">
-        <f t="shared" si="8"/>
-        <v>60239.484924823948</v>
-      </c>
-      <c r="D11" s="105">
+      <c r="B12" s="191">
+        <f>SUM(C12:D12)</f>
+        <v>29456.000000000007</v>
+      </c>
+      <c r="C12" s="213">
+        <f t="shared" si="0"/>
+        <v>27809.524200000007</v>
+      </c>
+      <c r="D12" s="186">
+        <v>1646.4758000000002</v>
+      </c>
+      <c r="E12" s="187">
+        <v>244</v>
+      </c>
+      <c r="F12" s="188">
+        <v>180</v>
+      </c>
+      <c r="G12" s="189">
+        <v>64</v>
+      </c>
+      <c r="H12" s="122"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="215"/>
+      <c r="K12" s="216"/>
+      <c r="L12" s="191">
+        <v>6859</v>
+      </c>
+      <c r="M12" s="103"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="152">
+        <v>0.89</v>
+      </c>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="40">
+        <v>6.3287671232876708E-2</v>
+      </c>
+      <c r="R12" s="40">
+        <v>6.9246575342465755E-2</v>
+      </c>
+      <c r="S12" s="28">
+        <f t="shared" si="1"/>
+        <v>22597.000000000007</v>
+      </c>
+      <c r="T12" s="28">
+        <f t="shared" si="2"/>
+        <v>6859</v>
+      </c>
+      <c r="U12" s="32">
         <f t="shared" si="9"/>
-        <v>6023.9484924823964</v>
-      </c>
-      <c r="E11" s="108">
-        <v>233</v>
-      </c>
-      <c r="F11" s="110"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="103">
-        <f t="shared" si="0"/>
-        <v>4770.9672060460571</v>
-      </c>
-      <c r="I11" s="104"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="158">
-        <v>0.89</v>
-      </c>
-      <c r="L11" s="97"/>
-      <c r="M11" s="40">
-        <v>6.3287671232876708E-2</v>
-      </c>
-      <c r="N11" s="40">
-        <v>6.9246575342465755E-2</v>
-      </c>
-      <c r="O11" s="28">
-        <f t="shared" si="1"/>
-        <v>61492.466211260282</v>
-      </c>
-      <c r="P11" s="28">
-        <f t="shared" si="2"/>
-        <v>4770.9672060460571</v>
-      </c>
-      <c r="Q11" s="32">
+        <v>1430</v>
+      </c>
+      <c r="V12" s="32">
         <f t="shared" si="10"/>
-        <v>3892</v>
-      </c>
-      <c r="R11" s="32">
-        <f t="shared" si="11"/>
-        <v>330</v>
-      </c>
-      <c r="S11" s="11">
+        <v>475</v>
+      </c>
+      <c r="W12" s="11">
         <v>6265</v>
       </c>
-      <c r="T11" s="37">
+      <c r="X12" s="37">
         <v>0.81</v>
       </c>
-      <c r="U11" s="37">
+      <c r="Y12" s="37">
         <v>0.82</v>
       </c>
-      <c r="V11" s="38">
+      <c r="Z12" s="38">
         <f t="shared" si="4"/>
         <v>4161.2130000000006</v>
       </c>
-      <c r="W11" s="35">
+      <c r="AA12" s="35">
         <v>0.13</v>
       </c>
-      <c r="X11" s="36">
+      <c r="AB12" s="36">
         <f t="shared" si="5"/>
         <v>3620.2553100000005</v>
       </c>
-      <c r="Y11" s="36">
+      <c r="AC12" s="36">
         <f t="shared" si="6"/>
         <v>540.95769000000007</v>
       </c>
-      <c r="Z11" s="42">
+      <c r="AD12" s="42">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="AE12" s="195">
+        <v>36315</v>
+      </c>
+      <c r="AF12" s="201">
+        <f t="shared" si="11"/>
+        <v>36315.000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>2017</v>
       </c>
-      <c r="B12" s="103">
-        <f t="shared" si="7"/>
-        <v>69576.605088171666</v>
-      </c>
-      <c r="C12" s="104">
-        <f>1.05*C11</f>
-        <v>63251.459171065151</v>
-      </c>
-      <c r="D12" s="105">
-        <f t="shared" si="9"/>
-        <v>6325.1459171065162</v>
-      </c>
-      <c r="E12" s="108">
-        <v>194</v>
-      </c>
-      <c r="F12" s="110"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="103">
+      <c r="B13" s="191">
+        <f t="shared" si="8"/>
+        <v>29684.000000000011</v>
+      </c>
+      <c r="C13" s="213">
         <f t="shared" si="0"/>
-        <v>5009.5155663483602</v>
-      </c>
-      <c r="I12" s="104"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="159">
+        <v>27801.781600000009</v>
+      </c>
+      <c r="D13" s="186">
+        <v>1882.2184</v>
+      </c>
+      <c r="E13" s="187">
+        <v>207</v>
+      </c>
+      <c r="F13" s="188">
+        <v>147</v>
+      </c>
+      <c r="G13" s="189">
+        <v>60</v>
+      </c>
+      <c r="H13" s="122"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="215"/>
+      <c r="K13" s="216"/>
+      <c r="L13" s="191">
+        <v>7219</v>
+      </c>
+      <c r="M13" s="103"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="153">
         <v>0.9</v>
       </c>
-      <c r="L12" s="97"/>
-      <c r="M12" s="40" t="e">
+      <c r="P13" s="97"/>
+      <c r="Q13" s="40" t="e">
         <f>0.01*(#REF!*#REF!+#REF!*#REF!)/(#REF!+#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N12" s="40">
+      <c r="R13" s="40">
         <v>4.6699999999999998E-2</v>
       </c>
-      <c r="O12" s="28">
+      <c r="S13" s="28">
         <f t="shared" si="1"/>
-        <v>64567.089521823305</v>
-      </c>
-      <c r="P12" s="28">
+        <v>22465.000000000011</v>
+      </c>
+      <c r="T13" s="28">
         <f t="shared" si="2"/>
-        <v>5009.5155663483602</v>
-      </c>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="32">
-        <f t="shared" si="11"/>
-        <v>234</v>
-      </c>
-      <c r="S12" s="11">
+        <v>7219</v>
+      </c>
+      <c r="U13" s="12"/>
+      <c r="V13" s="32">
+        <f t="shared" si="10"/>
+        <v>337</v>
+      </c>
+      <c r="W13" s="11">
         <v>7289</v>
       </c>
-      <c r="T12" s="37">
+      <c r="X13" s="37">
         <v>0.81</v>
       </c>
-      <c r="U12" s="37">
+      <c r="Y13" s="37">
         <v>0.7</v>
       </c>
-      <c r="V12" s="38">
+      <c r="Z13" s="38">
         <f t="shared" si="4"/>
         <v>4132.8630000000003</v>
       </c>
-      <c r="W12" s="34">
+      <c r="AA13" s="34">
         <v>0.1</v>
       </c>
-      <c r="X12" s="36">
+      <c r="AB13" s="36">
         <f t="shared" si="5"/>
         <v>3719.5767000000001</v>
       </c>
-      <c r="Y12" s="36">
+      <c r="AC13" s="36">
         <f t="shared" si="6"/>
         <v>413.28630000000004</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="AE13" s="201"/>
+      <c r="AF13" s="201">
+        <f>AF12+588</f>
+        <v>36903.000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
         <v>2018</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="158">
+      <c r="B14" s="191">
+        <f t="shared" si="8"/>
+        <v>29987.000000000007</v>
+      </c>
+      <c r="C14" s="213">
+        <f t="shared" si="0"/>
+        <v>27854.027200000008</v>
+      </c>
+      <c r="D14" s="186">
+        <v>2132.9728</v>
+      </c>
+      <c r="E14" s="187">
+        <v>174</v>
+      </c>
+      <c r="F14" s="188">
+        <v>120</v>
+      </c>
+      <c r="G14" s="190">
+        <v>54</v>
+      </c>
+      <c r="H14" s="122"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="191">
+        <v>7504</v>
+      </c>
+      <c r="M14" s="109"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="152">
         <v>0.9</v>
       </c>
-      <c r="L13" s="132"/>
-    </row>
-    <row r="14" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="129">
+      <c r="P14" s="126"/>
+      <c r="T14" s="28">
+        <f t="shared" si="2"/>
+        <v>7504</v>
+      </c>
+      <c r="AE14" s="200"/>
+      <c r="AF14" s="201">
+        <f t="shared" si="11"/>
+        <v>37491.000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="123">
         <v>2019</v>
       </c>
-      <c r="B14" s="113"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="160"/>
-      <c r="L14" s="132"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G15" s="10"/>
-      <c r="O15" s="133"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="B15" s="191">
+        <f t="shared" si="8"/>
+        <v>38079.000000000007</v>
+      </c>
+      <c r="C15" s="213">
+        <f t="shared" si="0"/>
+        <v>35727.806200000006</v>
+      </c>
+      <c r="D15" s="186">
+        <v>2351.1938</v>
+      </c>
+      <c r="E15" s="122"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="110"/>
+      <c r="O15" s="154"/>
+      <c r="P15" s="126"/>
+      <c r="AE15" s="201"/>
+      <c r="AF15" s="201">
+        <f t="shared" si="11"/>
+        <v>38079.000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G16" s="10"/>
-      <c r="L16" s="10"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H16" s="217"/>
+      <c r="I16" s="217"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="123"/>
+      <c r="S16" s="127"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="L17" s="10"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="P17" s="10"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="L18" s="10"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="P18" s="10"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="G19" s="10"/>
-      <c r="L19" s="10"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="P19" s="10"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="G20" s="10"/>
-      <c r="L20" s="10"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="P20" s="10"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="G21" s="10"/>
-      <c r="L21" s="10"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="P21" s="10"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="L22" s="10"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="P22" s="10"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
-      <c r="L23" s="10"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="P23" s="10"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
-      <c r="L24" s="10"/>
+      <c r="P24" s="10"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="P25" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4971,201 +5539,201 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="134"/>
-      <c r="B1" s="135" t="s">
+      <c r="A1" s="128"/>
+      <c r="B1" s="129" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="130" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="130" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="144" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="136" t="s">
+      <c r="F1" s="130" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="136" t="s">
+      <c r="G1" s="131" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="150" t="s">
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="132" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="133">
+        <v>1</v>
+      </c>
+      <c r="C2" s="134">
+        <v>1</v>
+      </c>
+      <c r="D2" s="134">
+        <v>1</v>
+      </c>
+      <c r="E2" s="149">
+        <v>1</v>
+      </c>
+      <c r="F2" s="134">
+        <v>1</v>
+      </c>
+      <c r="G2" s="135">
+        <v>1</v>
+      </c>
+      <c r="I2" s="225" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="136" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="137" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="138" t="s">
+      <c r="J2" s="225"/>
+      <c r="K2" s="225"/>
+      <c r="L2" s="225"/>
+      <c r="M2" s="225"/>
+      <c r="N2" s="225"/>
+      <c r="O2" s="225"/>
+      <c r="P2" s="225"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="136" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="137">
+        <v>1</v>
+      </c>
+      <c r="C3" s="138">
+        <v>1</v>
+      </c>
+      <c r="D3" s="138">
+        <v>1</v>
+      </c>
+      <c r="E3" s="147">
+        <v>1</v>
+      </c>
+      <c r="F3" s="138">
+        <v>1</v>
+      </c>
+      <c r="G3" s="139">
+        <v>1</v>
+      </c>
+      <c r="I3" s="225"/>
+      <c r="J3" s="225"/>
+      <c r="K3" s="225"/>
+      <c r="L3" s="225"/>
+      <c r="M3" s="225"/>
+      <c r="N3" s="225"/>
+      <c r="O3" s="225"/>
+      <c r="P3" s="225"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="136" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="137">
+        <v>1</v>
+      </c>
+      <c r="C4" s="138">
+        <v>1</v>
+      </c>
+      <c r="D4" s="138">
+        <v>1</v>
+      </c>
+      <c r="E4" s="147">
+        <v>1</v>
+      </c>
+      <c r="F4" s="138">
+        <v>1</v>
+      </c>
+      <c r="G4" s="139">
+        <v>1</v>
+      </c>
+      <c r="I4" s="225"/>
+      <c r="J4" s="225"/>
+      <c r="K4" s="225"/>
+      <c r="L4" s="225"/>
+      <c r="M4" s="225"/>
+      <c r="N4" s="225"/>
+      <c r="O4" s="225"/>
+      <c r="P4" s="225"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="145" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="139">
+      <c r="B5" s="146">
         <v>1</v>
       </c>
-      <c r="C2" s="140">
+      <c r="C5" s="147">
         <v>1</v>
       </c>
-      <c r="D2" s="140">
+      <c r="D5" s="147">
         <v>1</v>
       </c>
-      <c r="E2" s="155">
+      <c r="E5" s="147">
         <v>1</v>
       </c>
-      <c r="F2" s="140">
+      <c r="F5" s="147">
         <v>1</v>
       </c>
-      <c r="G2" s="141">
+      <c r="G5" s="148">
         <v>1</v>
       </c>
-      <c r="I2" s="191" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="191"/>
-      <c r="P2" s="191"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="142" t="s">
+      <c r="I5" s="225"/>
+      <c r="J5" s="225"/>
+      <c r="K5" s="225"/>
+      <c r="L5" s="225"/>
+      <c r="M5" s="225"/>
+      <c r="N5" s="225"/>
+      <c r="O5" s="225"/>
+      <c r="P5" s="225"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="136" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="143">
+      <c r="B6" s="137">
         <v>1</v>
       </c>
-      <c r="C3" s="144">
+      <c r="C6" s="138">
         <v>1</v>
       </c>
-      <c r="D3" s="144">
+      <c r="D6" s="138">
         <v>1</v>
       </c>
-      <c r="E3" s="153">
+      <c r="E6" s="147">
         <v>1</v>
       </c>
-      <c r="F3" s="144">
+      <c r="F6" s="138">
         <v>1</v>
       </c>
-      <c r="G3" s="145">
+      <c r="G6" s="139">
         <v>1</v>
       </c>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="191"/>
-      <c r="P3" s="191"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="142" t="s">
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="140" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="143">
+      <c r="B7" s="141">
         <v>1</v>
       </c>
-      <c r="C4" s="144">
+      <c r="C7" s="142">
         <v>1</v>
       </c>
-      <c r="D4" s="144">
+      <c r="D7" s="142">
         <v>1</v>
       </c>
-      <c r="E4" s="153">
+      <c r="E7" s="150">
         <v>1</v>
       </c>
-      <c r="F4" s="144">
+      <c r="F7" s="142">
         <v>1</v>
       </c>
-      <c r="G4" s="145">
-        <v>1</v>
-      </c>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="191"/>
-      <c r="N4" s="191"/>
-      <c r="O4" s="191"/>
-      <c r="P4" s="191"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="151" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="152">
-        <v>1</v>
-      </c>
-      <c r="C5" s="153">
-        <v>1</v>
-      </c>
-      <c r="D5" s="153">
-        <v>1</v>
-      </c>
-      <c r="E5" s="153">
-        <v>1</v>
-      </c>
-      <c r="F5" s="153">
-        <v>1</v>
-      </c>
-      <c r="G5" s="154">
-        <v>1</v>
-      </c>
-      <c r="I5" s="191"/>
-      <c r="J5" s="191"/>
-      <c r="K5" s="191"/>
-      <c r="L5" s="191"/>
-      <c r="M5" s="191"/>
-      <c r="N5" s="191"/>
-      <c r="O5" s="191"/>
-      <c r="P5" s="191"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="142" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="143">
-        <v>1</v>
-      </c>
-      <c r="C6" s="144">
-        <v>1</v>
-      </c>
-      <c r="D6" s="144">
-        <v>1</v>
-      </c>
-      <c r="E6" s="153">
-        <v>1</v>
-      </c>
-      <c r="F6" s="144">
-        <v>1</v>
-      </c>
-      <c r="G6" s="145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="146" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="147">
-        <v>1</v>
-      </c>
-      <c r="C7" s="148">
-        <v>1</v>
-      </c>
-      <c r="D7" s="148">
-        <v>1</v>
-      </c>
-      <c r="E7" s="156">
-        <v>1</v>
-      </c>
-      <c r="F7" s="148">
-        <v>1</v>
-      </c>
-      <c r="G7" s="149">
+      <c r="G7" s="143">
         <v>1</v>
       </c>
     </row>
@@ -5180,10 +5748,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5194,20 +5762,27 @@
     <col min="4" max="4" width="11" style="60" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="60" customWidth="1"/>
     <col min="6" max="6" width="13.140625" style="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15" style="60" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="60" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" style="60" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28" style="60" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.85546875" style="60" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28" style="60" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="43"/>
+    <col min="7" max="7" width="13.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28" style="60" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28" style="60" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>83</v>
       </c>
@@ -5215,7 +5790,7 @@
         <v>94</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D1" s="66" t="s">
         <v>93</v>
@@ -5229,38 +5804,56 @@
       <c r="G1" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="171" t="s">
+      <c r="H1" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="172" t="s">
+      <c r="I1" s="166" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="171" t="s">
+      <c r="J1" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="172" t="s">
+      <c r="K1" s="166" t="s">
         <v>69</v>
       </c>
       <c r="L1" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="165" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="166" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="165" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="166" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="68" t="s">
+      <c r="T1" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="66" t="s">
+      <c r="U1" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="67" t="s">
+      <c r="V1" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="68" t="s">
+      <c r="W1" s="68" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>84</v>
       </c>
@@ -5270,30 +5863,48 @@
       <c r="E2" s="71"/>
       <c r="F2" s="31"/>
       <c r="G2" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="173" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="174" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="173" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" s="174" t="s">
-        <v>72</v>
+        <v>124</v>
+      </c>
+      <c r="H2" s="167" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="168" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="167" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" s="168" t="s">
+        <v>128</v>
       </c>
       <c r="L2" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="M2" s="70"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="71"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="M2" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" s="167" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="168" t="s">
+        <v>126</v>
+      </c>
+      <c r="P2" s="167" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q2" s="168" t="s">
+        <v>128</v>
+      </c>
+      <c r="R2" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="S2" s="70"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="71"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>85</v>
       </c>
@@ -5306,47 +5917,63 @@
         <v>98</v>
       </c>
       <c r="F3" s="31"/>
-      <c r="G3" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="173" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="174" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="173" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" s="174" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="M3" s="70" t="s">
+      <c r="G3" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" s="221" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="222" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" s="223" t="s">
+        <v>98</v>
+      </c>
+      <c r="P3" s="222" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q3" s="223" t="s">
+        <v>98</v>
+      </c>
+      <c r="R3" s="224" t="s">
+        <v>98</v>
+      </c>
+      <c r="S3" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="N3" s="71" t="s">
+      <c r="T3" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="O3" s="69" t="s">
+      <c r="U3" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="P3" s="70" t="s">
+      <c r="V3" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="Q3" s="71" t="s">
+      <c r="W3" s="71" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>2000</v>
       </c>
-      <c r="B4" s="29">
-        <v>0.13</v>
-      </c>
+      <c r="B4" s="29"/>
       <c r="C4" s="29">
         <v>0.97</v>
       </c>
@@ -5357,39 +5984,39 @@
       <c r="F4" s="65">
         <v>0.7</v>
       </c>
-      <c r="G4" s="72">
-        <v>1.5</v>
-      </c>
-      <c r="H4" s="175">
-        <v>1.5</v>
-      </c>
-      <c r="I4" s="176">
+      <c r="G4" s="72"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="170">
+        <v>0.25</v>
+      </c>
+      <c r="L4" s="74">
+        <v>0.25</v>
+      </c>
+      <c r="M4" s="72"/>
+      <c r="N4" s="169"/>
+      <c r="O4" s="170"/>
+      <c r="P4" s="169"/>
+      <c r="Q4" s="170">
+        <v>0.25</v>
+      </c>
+      <c r="R4" s="74">
+        <v>0.25</v>
+      </c>
+      <c r="S4" s="73"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="72">
         <v>1</v>
       </c>
-      <c r="J4" s="175">
+      <c r="V4" s="73">
         <v>1</v>
       </c>
-      <c r="K4" s="176">
-        <f>3/12</f>
-        <v>0.25</v>
-      </c>
-      <c r="L4" s="74">
-        <f>3/12</f>
-        <v>0.25</v>
-      </c>
-      <c r="M4" s="73"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="72">
-        <v>1</v>
-      </c>
-      <c r="P4" s="73">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="74">
+      <c r="W4" s="74">
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>2001</v>
       </c>
@@ -5399,18 +6026,24 @@
       <c r="E5" s="77"/>
       <c r="F5" s="62"/>
       <c r="G5" s="75"/>
-      <c r="H5" s="177"/>
-      <c r="I5" s="178"/>
-      <c r="J5" s="177"/>
-      <c r="K5" s="178"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="172"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="172"/>
       <c r="L5" s="77"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="77"/>
-    </row>
-    <row r="6" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="75"/>
+      <c r="N5" s="171"/>
+      <c r="O5" s="172"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="172"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="77"/>
+    </row>
+    <row r="6" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>2002</v>
       </c>
@@ -5420,415 +6053,698 @@
       <c r="E6" s="77"/>
       <c r="F6" s="62"/>
       <c r="G6" s="75"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="177"/>
-      <c r="K6" s="178"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="171"/>
+      <c r="K6" s="172"/>
       <c r="L6" s="77"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="77"/>
-    </row>
-    <row r="7" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="75"/>
+      <c r="N6" s="171"/>
+      <c r="O6" s="172"/>
+      <c r="P6" s="171"/>
+      <c r="Q6" s="172"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="77"/>
+    </row>
+    <row r="7" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>2003</v>
       </c>
-      <c r="B7" s="44"/>
+      <c r="B7" s="193">
+        <v>0.26</v>
+      </c>
       <c r="C7" s="44"/>
       <c r="D7" s="75"/>
       <c r="E7" s="77"/>
       <c r="F7" s="62"/>
       <c r="G7" s="75"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="177"/>
-      <c r="K7" s="178"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="171"/>
+      <c r="K7" s="172"/>
       <c r="L7" s="77"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="77"/>
-    </row>
-    <row r="8" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="75"/>
+      <c r="N7" s="171"/>
+      <c r="O7" s="172"/>
+      <c r="P7" s="171"/>
+      <c r="Q7" s="172"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="76"/>
+      <c r="W7" s="77"/>
+    </row>
+    <row r="8" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>2004</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="193">
+        <v>0.24</v>
+      </c>
       <c r="C8" s="44"/>
       <c r="D8" s="75"/>
       <c r="E8" s="77"/>
       <c r="F8" s="62"/>
       <c r="G8" s="75"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="177"/>
-      <c r="K8" s="178"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="171"/>
+      <c r="K8" s="172"/>
       <c r="L8" s="77"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="77"/>
-    </row>
-    <row r="9" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="75"/>
+      <c r="N8" s="171"/>
+      <c r="O8" s="172"/>
+      <c r="P8" s="171"/>
+      <c r="Q8" s="172"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="77"/>
+    </row>
+    <row r="9" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>2005</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="193">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="C9" s="44"/>
       <c r="D9" s="75"/>
       <c r="E9" s="77"/>
       <c r="F9" s="62"/>
       <c r="G9" s="75"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="177"/>
-      <c r="K9" s="178"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="171"/>
+      <c r="K9" s="172"/>
       <c r="L9" s="77"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="77"/>
-    </row>
-    <row r="10" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="75"/>
+      <c r="N9" s="171"/>
+      <c r="O9" s="172"/>
+      <c r="P9" s="171"/>
+      <c r="Q9" s="172"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="77"/>
+    </row>
+    <row r="10" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>2006</v>
       </c>
-      <c r="B10" s="44"/>
+      <c r="B10" s="193">
+        <v>0.26</v>
+      </c>
       <c r="C10" s="44"/>
       <c r="D10" s="75"/>
       <c r="E10" s="77"/>
       <c r="F10" s="62"/>
       <c r="G10" s="75"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="177"/>
-      <c r="K10" s="178"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="171"/>
+      <c r="K10" s="172"/>
       <c r="L10" s="77"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="77"/>
-    </row>
-    <row r="11" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="75"/>
+      <c r="N10" s="171"/>
+      <c r="O10" s="172"/>
+      <c r="P10" s="171"/>
+      <c r="Q10" s="172"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="77"/>
+    </row>
+    <row r="11" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>2007</v>
       </c>
-      <c r="B11" s="44"/>
+      <c r="B11" s="193">
+        <v>0.26</v>
+      </c>
       <c r="C11" s="44"/>
       <c r="D11" s="75"/>
       <c r="E11" s="77"/>
       <c r="F11" s="62"/>
       <c r="G11" s="75"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="177"/>
-      <c r="K11" s="178"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="171"/>
+      <c r="K11" s="172"/>
       <c r="L11" s="77"/>
-      <c r="M11" s="76">
+      <c r="M11" s="75"/>
+      <c r="N11" s="171"/>
+      <c r="O11" s="172"/>
+      <c r="P11" s="171"/>
+      <c r="Q11" s="172"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="76">
         <v>0.75</v>
       </c>
-      <c r="N11" s="77">
+      <c r="T11" s="77">
         <v>0.8</v>
       </c>
-      <c r="O11" s="75"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="77"/>
-    </row>
-    <row r="12" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U11" s="75"/>
+      <c r="V11" s="76"/>
+      <c r="W11" s="77"/>
+    </row>
+    <row r="12" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>2008</v>
       </c>
-      <c r="B12" s="44"/>
+      <c r="B12" s="193">
+        <v>0.27</v>
+      </c>
       <c r="C12" s="44"/>
       <c r="D12" s="75"/>
       <c r="E12" s="77"/>
       <c r="F12" s="62"/>
       <c r="G12" s="75"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="177"/>
-      <c r="K12" s="178"/>
+      <c r="H12" s="171"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="171"/>
+      <c r="K12" s="172"/>
       <c r="L12" s="77"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="77"/>
-    </row>
-    <row r="13" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="75"/>
+      <c r="N12" s="171"/>
+      <c r="O12" s="172"/>
+      <c r="P12" s="171"/>
+      <c r="Q12" s="172"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="77"/>
+    </row>
+    <row r="13" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>2009</v>
       </c>
-      <c r="B13" s="44"/>
+      <c r="B13" s="193">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="C13" s="44"/>
-      <c r="D13" s="75">
+      <c r="D13" s="192">
         <v>0</v>
       </c>
-      <c r="E13" s="77"/>
       <c r="F13" s="62"/>
       <c r="G13" s="75"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="177"/>
-      <c r="K13" s="178"/>
+      <c r="H13" s="171"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="171"/>
+      <c r="K13" s="172"/>
       <c r="L13" s="77"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="77"/>
-    </row>
-    <row r="14" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="75"/>
+      <c r="N13" s="171"/>
+      <c r="O13" s="172"/>
+      <c r="P13" s="171"/>
+      <c r="Q13" s="218"/>
+      <c r="R13" s="219"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="76"/>
+      <c r="W13" s="77"/>
+    </row>
+    <row r="14" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>2010</v>
       </c>
-      <c r="B14" s="44"/>
+      <c r="B14" s="193">
+        <v>0.32</v>
+      </c>
       <c r="C14" s="44"/>
-      <c r="D14" s="75">
-        <v>1500</v>
-      </c>
-      <c r="E14" s="77">
+      <c r="D14" s="192">
         <v>0</v>
       </c>
       <c r="F14" s="62"/>
       <c r="G14" s="75"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="177"/>
-      <c r="K14" s="178"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="76">
+      <c r="H14" s="171"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="171"/>
+      <c r="K14" s="218"/>
+      <c r="L14" s="219"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="171"/>
+      <c r="O14" s="172"/>
+      <c r="P14" s="171"/>
+      <c r="Q14" s="218"/>
+      <c r="R14" s="219"/>
+      <c r="S14" s="76">
         <v>0.75</v>
       </c>
-      <c r="N14" s="77">
+      <c r="T14" s="77">
         <v>0.8</v>
       </c>
-      <c r="O14" s="75"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="77"/>
-    </row>
-    <row r="15" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U14" s="75"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="77"/>
+    </row>
+    <row r="15" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>2011</v>
       </c>
-      <c r="B15" s="44"/>
+      <c r="B15" s="193">
+        <v>0.31</v>
+      </c>
       <c r="C15" s="44"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="77">
-        <v>110</v>
+      <c r="D15" s="192">
+        <v>0</v>
       </c>
       <c r="F15" s="62"/>
       <c r="G15" s="75"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="177"/>
-      <c r="K15" s="178"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="77"/>
-    </row>
-    <row r="16" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="171"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="171"/>
+      <c r="K15" s="218"/>
+      <c r="L15" s="219"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="171"/>
+      <c r="O15" s="172"/>
+      <c r="P15" s="171"/>
+      <c r="Q15" s="218"/>
+      <c r="R15" s="219"/>
+      <c r="S15" s="76"/>
+      <c r="T15" s="77"/>
+      <c r="U15" s="75"/>
+      <c r="V15" s="76"/>
+      <c r="W15" s="77"/>
+    </row>
+    <row r="16" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>2012</v>
       </c>
-      <c r="B16" s="44"/>
+      <c r="B16" s="193">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="C16" s="44"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="77"/>
+      <c r="D16" s="192">
+        <v>0</v>
+      </c>
       <c r="F16" s="62"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="177"/>
-      <c r="K16" s="178"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="76">
+      <c r="G16" s="196">
+        <v>0.6</v>
+      </c>
+      <c r="H16" s="197">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I16" s="198">
+        <v>0.6</v>
+      </c>
+      <c r="J16" s="197">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K16" s="218"/>
+      <c r="L16" s="220"/>
+      <c r="M16" s="196">
+        <v>0.5</v>
+      </c>
+      <c r="N16" s="197">
+        <v>3.3</v>
+      </c>
+      <c r="O16" s="198">
+        <v>0.5</v>
+      </c>
+      <c r="P16" s="197">
+        <v>3.3</v>
+      </c>
+      <c r="Q16" s="218"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="76">
         <v>0.82</v>
       </c>
-      <c r="N16" s="77">
+      <c r="T16" s="77">
         <v>0.88</v>
       </c>
-      <c r="O16" s="75"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="77"/>
-    </row>
-    <row r="17" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U16" s="75"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="77"/>
+    </row>
+    <row r="17" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>2013</v>
       </c>
-      <c r="B17" s="44"/>
+      <c r="B17" s="193">
+        <v>0.3</v>
+      </c>
       <c r="C17" s="44"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="77"/>
+      <c r="D17" s="192">
+        <v>0</v>
+      </c>
       <c r="F17" s="62"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="177"/>
-      <c r="K17" s="178"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="76">
+      <c r="G17" s="196">
+        <v>0.9</v>
+      </c>
+      <c r="H17" s="197">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I17" s="198">
+        <v>0.9</v>
+      </c>
+      <c r="J17" s="197">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K17" s="218"/>
+      <c r="L17" s="220"/>
+      <c r="M17" s="196">
+        <v>0.6</v>
+      </c>
+      <c r="N17" s="197">
+        <v>4.2</v>
+      </c>
+      <c r="O17" s="198">
+        <v>0.6</v>
+      </c>
+      <c r="P17" s="197">
+        <v>4.2</v>
+      </c>
+      <c r="Q17" s="218"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="76">
         <v>0.86</v>
       </c>
-      <c r="N17" s="77">
+      <c r="T17" s="77">
         <v>0.9</v>
       </c>
-      <c r="O17" s="75"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="77"/>
-    </row>
-    <row r="18" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U17" s="75"/>
+      <c r="V17" s="76"/>
+      <c r="W17" s="77"/>
+    </row>
+    <row r="18" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>2014</v>
       </c>
-      <c r="B18" s="44"/>
+      <c r="B18" s="193"/>
       <c r="C18" s="44"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="77"/>
+      <c r="D18" s="192">
+        <v>143</v>
+      </c>
+      <c r="E18" s="194">
+        <v>0</v>
+      </c>
       <c r="F18" s="62"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="177"/>
-      <c r="K18" s="178"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="76">
+      <c r="G18" s="196">
+        <v>0.8</v>
+      </c>
+      <c r="H18" s="197">
+        <v>3.5</v>
+      </c>
+      <c r="I18" s="198">
+        <v>0.8</v>
+      </c>
+      <c r="J18" s="197">
+        <v>3.5</v>
+      </c>
+      <c r="K18" s="218"/>
+      <c r="L18" s="220"/>
+      <c r="M18" s="196">
+        <v>0.8</v>
+      </c>
+      <c r="N18" s="197">
+        <v>1.7</v>
+      </c>
+      <c r="O18" s="198">
+        <v>0.8</v>
+      </c>
+      <c r="P18" s="197">
+        <v>1.7</v>
+      </c>
+      <c r="Q18" s="218"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="76">
         <v>0.89</v>
       </c>
-      <c r="N18" s="77">
+      <c r="T18" s="77">
         <v>0.9</v>
       </c>
-      <c r="O18" s="75"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="77"/>
-    </row>
-    <row r="19" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U18" s="75"/>
+      <c r="V18" s="76"/>
+      <c r="W18" s="77"/>
+    </row>
+    <row r="19" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>2015</v>
       </c>
-      <c r="B19" s="44"/>
+      <c r="B19" s="193"/>
       <c r="C19" s="44"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="77"/>
+      <c r="D19" s="192">
+        <v>143</v>
+      </c>
+      <c r="E19" s="194">
+        <v>0</v>
+      </c>
       <c r="F19" s="62"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="177"/>
-      <c r="K19" s="178"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="76">
+      <c r="G19" s="196">
+        <v>1.2</v>
+      </c>
+      <c r="H19" s="197">
+        <v>3.9</v>
+      </c>
+      <c r="I19" s="198">
+        <v>1.2</v>
+      </c>
+      <c r="J19" s="197">
+        <v>3.9</v>
+      </c>
+      <c r="K19" s="218"/>
+      <c r="L19" s="220"/>
+      <c r="M19" s="196">
+        <v>0.9</v>
+      </c>
+      <c r="N19" s="197">
+        <v>2.4</v>
+      </c>
+      <c r="O19" s="198">
+        <v>0.9</v>
+      </c>
+      <c r="P19" s="197">
+        <v>2.4</v>
+      </c>
+      <c r="Q19" s="218"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="76">
         <v>0.92</v>
       </c>
-      <c r="N19" s="77">
+      <c r="T19" s="77">
         <v>0.92</v>
       </c>
-      <c r="O19" s="75"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="77"/>
-    </row>
-    <row r="20" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U19" s="75"/>
+      <c r="V19" s="76"/>
+      <c r="W19" s="77"/>
+    </row>
+    <row r="20" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>2016</v>
       </c>
-      <c r="B20" s="44"/>
+      <c r="B20" s="194">
+        <v>0.31</v>
+      </c>
       <c r="C20" s="44"/>
-      <c r="D20" s="75">
-        <v>4000</v>
-      </c>
-      <c r="E20" s="77">
-        <v>200</v>
+      <c r="D20" s="192">
+        <v>2841</v>
+      </c>
+      <c r="E20" s="194">
+        <f>data!D12*0.03</f>
+        <v>49.394274000000003</v>
       </c>
       <c r="F20" s="62"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="177"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="177"/>
-      <c r="K20" s="178"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="76">
+      <c r="G20" s="196">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H20" s="197">
+        <v>5.8</v>
+      </c>
+      <c r="I20" s="198">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J20" s="197">
+        <v>5.8</v>
+      </c>
+      <c r="K20" s="218"/>
+      <c r="L20" s="220"/>
+      <c r="M20" s="196">
+        <v>2</v>
+      </c>
+      <c r="N20" s="197">
+        <v>3.5</v>
+      </c>
+      <c r="O20" s="198">
+        <v>2</v>
+      </c>
+      <c r="P20" s="197">
+        <v>3.5</v>
+      </c>
+      <c r="Q20" s="218"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="76">
         <v>0.95</v>
       </c>
-      <c r="N20" s="77">
+      <c r="T20" s="77">
         <v>0.94</v>
       </c>
-      <c r="O20" s="75"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="77"/>
-    </row>
-    <row r="21" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U20" s="75"/>
+      <c r="V20" s="76"/>
+      <c r="W20" s="77"/>
+    </row>
+    <row r="21" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>2017</v>
       </c>
-      <c r="B21" s="44"/>
+      <c r="B21" s="193">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="C21" s="44"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="77"/>
+      <c r="D21" s="192">
+        <v>3727</v>
+      </c>
+      <c r="E21" s="194">
+        <f>data!D13*0.07</f>
+        <v>131.75528800000001</v>
+      </c>
       <c r="F21" s="62"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="177"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="177"/>
-      <c r="K21" s="178"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="77"/>
-    </row>
-    <row r="22" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="196">
+        <v>1.7</v>
+      </c>
+      <c r="H21" s="197">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I21" s="198">
+        <v>1.7</v>
+      </c>
+      <c r="J21" s="197">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K21" s="218"/>
+      <c r="L21" s="220"/>
+      <c r="M21" s="196">
+        <v>0.9</v>
+      </c>
+      <c r="N21" s="197">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O21" s="198">
+        <v>0.9</v>
+      </c>
+      <c r="P21" s="197">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Q21" s="218"/>
+      <c r="R21" s="219"/>
+      <c r="S21" s="76"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="76"/>
+      <c r="W21" s="77"/>
+    </row>
+    <row r="22" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>2018</v>
       </c>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="77"/>
+      <c r="D22" s="192">
+        <v>3995</v>
+      </c>
+      <c r="E22" s="194">
+        <f>data!D14*0.07</f>
+        <v>149.30809600000001</v>
+      </c>
       <c r="F22" s="62"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="177"/>
-      <c r="K22" s="178"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="77"/>
-    </row>
-    <row r="23" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="196">
+        <v>1.4</v>
+      </c>
+      <c r="H22" s="197">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I22" s="198">
+        <v>1.4</v>
+      </c>
+      <c r="J22" s="197">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K22" s="218"/>
+      <c r="L22" s="220"/>
+      <c r="M22" s="196">
+        <v>0.6</v>
+      </c>
+      <c r="N22" s="197">
+        <v>4</v>
+      </c>
+      <c r="O22" s="198">
+        <v>0.6</v>
+      </c>
+      <c r="P22" s="197">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="218"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="76"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="76"/>
+      <c r="W22" s="77"/>
+    </row>
+    <row r="23" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
         <v>2019</v>
       </c>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="77"/>
+      <c r="D23" s="192">
+        <v>4525</v>
+      </c>
+      <c r="E23" s="194">
+        <f>data!D15*0.07</f>
+        <v>164.58356600000002</v>
+      </c>
       <c r="F23" s="62"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="177"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="177"/>
-      <c r="K23" s="178"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="75"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="77"/>
-    </row>
-    <row r="24" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="196">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H23" s="197">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I23" s="198">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J23" s="197">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K23" s="218"/>
+      <c r="L23" s="220"/>
+      <c r="M23" s="196">
+        <v>0.5</v>
+      </c>
+      <c r="N23" s="197">
+        <v>3.6</v>
+      </c>
+      <c r="O23" s="198">
+        <v>0.5</v>
+      </c>
+      <c r="P23" s="197">
+        <v>3.6</v>
+      </c>
+      <c r="Q23" s="218"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="76"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="76"/>
+      <c r="W23" s="77"/>
+    </row>
+    <row r="24" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="31">
         <v>2020</v>
       </c>
@@ -5838,18 +6754,24 @@
       <c r="E24" s="77"/>
       <c r="F24" s="62"/>
       <c r="G24" s="75"/>
-      <c r="H24" s="177"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="177"/>
-      <c r="K24" s="178"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="77"/>
-    </row>
-    <row r="25" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="171"/>
+      <c r="I24" s="172"/>
+      <c r="J24" s="171"/>
+      <c r="K24" s="218"/>
+      <c r="L24" s="219"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="171"/>
+      <c r="O24" s="172"/>
+      <c r="P24" s="171"/>
+      <c r="Q24" s="218"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="76"/>
+      <c r="T24" s="77"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="76"/>
+      <c r="W24" s="77"/>
+    </row>
+    <row r="25" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31">
         <v>2021</v>
       </c>
@@ -5859,18 +6781,24 @@
       <c r="E25" s="77"/>
       <c r="F25" s="62"/>
       <c r="G25" s="75"/>
-      <c r="H25" s="177"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="177"/>
-      <c r="K25" s="178"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="172"/>
+      <c r="J25" s="171"/>
+      <c r="K25" s="172"/>
       <c r="L25" s="77"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="77"/>
-    </row>
-    <row r="26" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M25" s="75"/>
+      <c r="N25" s="171"/>
+      <c r="O25" s="172"/>
+      <c r="P25" s="171"/>
+      <c r="Q25" s="172"/>
+      <c r="R25" s="77"/>
+      <c r="S25" s="76"/>
+      <c r="T25" s="77"/>
+      <c r="U25" s="75"/>
+      <c r="V25" s="76"/>
+      <c r="W25" s="77"/>
+    </row>
+    <row r="26" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="31">
         <v>2022</v>
       </c>
@@ -5880,18 +6808,24 @@
       <c r="E26" s="77"/>
       <c r="F26" s="62"/>
       <c r="G26" s="75"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="177"/>
-      <c r="K26" s="178"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="172"/>
+      <c r="J26" s="171"/>
+      <c r="K26" s="172"/>
       <c r="L26" s="77"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="77"/>
-    </row>
-    <row r="27" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="75"/>
+      <c r="N26" s="171"/>
+      <c r="O26" s="172"/>
+      <c r="P26" s="171"/>
+      <c r="Q26" s="172"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="76"/>
+      <c r="T26" s="77"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="76"/>
+      <c r="W26" s="77"/>
+    </row>
+    <row r="27" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
         <v>2023</v>
       </c>
@@ -5901,18 +6835,24 @@
       <c r="E27" s="77"/>
       <c r="F27" s="62"/>
       <c r="G27" s="75"/>
-      <c r="H27" s="177"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="177"/>
-      <c r="K27" s="178"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="172"/>
+      <c r="J27" s="171"/>
+      <c r="K27" s="172"/>
       <c r="L27" s="77"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="77"/>
-    </row>
-    <row r="28" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M27" s="75"/>
+      <c r="N27" s="171"/>
+      <c r="O27" s="172"/>
+      <c r="P27" s="171"/>
+      <c r="Q27" s="172"/>
+      <c r="R27" s="77"/>
+      <c r="S27" s="76"/>
+      <c r="T27" s="77"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="76"/>
+      <c r="W27" s="77"/>
+    </row>
+    <row r="28" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
         <v>2024</v>
       </c>
@@ -5922,18 +6862,24 @@
       <c r="E28" s="77"/>
       <c r="F28" s="62"/>
       <c r="G28" s="75"/>
-      <c r="H28" s="177"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="177"/>
-      <c r="K28" s="178"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="172"/>
+      <c r="J28" s="171"/>
+      <c r="K28" s="172"/>
       <c r="L28" s="77"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="77"/>
-    </row>
-    <row r="29" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M28" s="75"/>
+      <c r="N28" s="171"/>
+      <c r="O28" s="172"/>
+      <c r="P28" s="171"/>
+      <c r="Q28" s="172"/>
+      <c r="R28" s="77"/>
+      <c r="S28" s="76"/>
+      <c r="T28" s="77"/>
+      <c r="U28" s="75"/>
+      <c r="V28" s="76"/>
+      <c r="W28" s="77"/>
+    </row>
+    <row r="29" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
         <v>2025</v>
       </c>
@@ -5943,22 +6889,28 @@
       <c r="E29" s="77"/>
       <c r="F29" s="62"/>
       <c r="G29" s="75"/>
-      <c r="H29" s="177"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="177"/>
-      <c r="K29" s="178"/>
+      <c r="H29" s="171"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="171"/>
+      <c r="K29" s="172"/>
       <c r="L29" s="77"/>
-      <c r="M29" s="76">
+      <c r="M29" s="75"/>
+      <c r="N29" s="171"/>
+      <c r="O29" s="172"/>
+      <c r="P29" s="171"/>
+      <c r="Q29" s="172"/>
+      <c r="R29" s="77"/>
+      <c r="S29" s="76">
         <v>0.95</v>
       </c>
-      <c r="N29" s="77">
+      <c r="T29" s="77">
         <v>0.95</v>
       </c>
-      <c r="O29" s="75"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="77"/>
-    </row>
-    <row r="30" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U29" s="75"/>
+      <c r="V29" s="76"/>
+      <c r="W29" s="77"/>
+    </row>
+    <row r="30" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31">
         <v>2026</v>
       </c>
@@ -5968,18 +6920,24 @@
       <c r="E30" s="77"/>
       <c r="F30" s="62"/>
       <c r="G30" s="75"/>
-      <c r="H30" s="177"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="177"/>
-      <c r="K30" s="178"/>
+      <c r="H30" s="171"/>
+      <c r="I30" s="172"/>
+      <c r="J30" s="171"/>
+      <c r="K30" s="172"/>
       <c r="L30" s="77"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="77"/>
-    </row>
-    <row r="31" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M30" s="75"/>
+      <c r="N30" s="171"/>
+      <c r="O30" s="172"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="172"/>
+      <c r="R30" s="77"/>
+      <c r="S30" s="76"/>
+      <c r="T30" s="77"/>
+      <c r="U30" s="75"/>
+      <c r="V30" s="76"/>
+      <c r="W30" s="77"/>
+    </row>
+    <row r="31" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="31">
         <v>2027</v>
       </c>
@@ -5989,18 +6947,24 @@
       <c r="E31" s="77"/>
       <c r="F31" s="62"/>
       <c r="G31" s="75"/>
-      <c r="H31" s="177"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="177"/>
-      <c r="K31" s="178"/>
+      <c r="H31" s="171"/>
+      <c r="I31" s="172"/>
+      <c r="J31" s="171"/>
+      <c r="K31" s="172"/>
       <c r="L31" s="77"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="75"/>
-      <c r="P31" s="76"/>
-      <c r="Q31" s="77"/>
-    </row>
-    <row r="32" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M31" s="75"/>
+      <c r="N31" s="171"/>
+      <c r="O31" s="172"/>
+      <c r="P31" s="171"/>
+      <c r="Q31" s="172"/>
+      <c r="R31" s="77"/>
+      <c r="S31" s="76"/>
+      <c r="T31" s="77"/>
+      <c r="U31" s="75"/>
+      <c r="V31" s="76"/>
+      <c r="W31" s="77"/>
+    </row>
+    <row r="32" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="31">
         <v>2028</v>
       </c>
@@ -6010,18 +6974,24 @@
       <c r="E32" s="77"/>
       <c r="F32" s="62"/>
       <c r="G32" s="75"/>
-      <c r="H32" s="177"/>
-      <c r="I32" s="178"/>
-      <c r="J32" s="177"/>
-      <c r="K32" s="178"/>
+      <c r="H32" s="171"/>
+      <c r="I32" s="172"/>
+      <c r="J32" s="171"/>
+      <c r="K32" s="172"/>
       <c r="L32" s="77"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="75"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="77"/>
-    </row>
-    <row r="33" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M32" s="75"/>
+      <c r="N32" s="171"/>
+      <c r="O32" s="172"/>
+      <c r="P32" s="171"/>
+      <c r="Q32" s="172"/>
+      <c r="R32" s="77"/>
+      <c r="S32" s="76"/>
+      <c r="T32" s="77"/>
+      <c r="U32" s="75"/>
+      <c r="V32" s="76"/>
+      <c r="W32" s="77"/>
+    </row>
+    <row r="33" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="31">
         <v>2029</v>
       </c>
@@ -6031,18 +7001,24 @@
       <c r="E33" s="77"/>
       <c r="F33" s="62"/>
       <c r="G33" s="75"/>
-      <c r="H33" s="177"/>
-      <c r="I33" s="178"/>
-      <c r="J33" s="177"/>
-      <c r="K33" s="178"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="172"/>
+      <c r="J33" s="171"/>
+      <c r="K33" s="172"/>
       <c r="L33" s="77"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="75"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="77"/>
-    </row>
-    <row r="34" spans="1:17" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M33" s="75"/>
+      <c r="N33" s="171"/>
+      <c r="O33" s="172"/>
+      <c r="P33" s="171"/>
+      <c r="Q33" s="172"/>
+      <c r="R33" s="77"/>
+      <c r="S33" s="76"/>
+      <c r="T33" s="77"/>
+      <c r="U33" s="75"/>
+      <c r="V33" s="76"/>
+      <c r="W33" s="77"/>
+    </row>
+    <row r="34" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="63">
         <v>2030</v>
       </c>
@@ -6052,20 +7028,26 @@
       <c r="E34" s="80"/>
       <c r="F34" s="64"/>
       <c r="G34" s="78"/>
-      <c r="H34" s="179"/>
-      <c r="I34" s="180"/>
-      <c r="J34" s="179"/>
-      <c r="K34" s="180"/>
+      <c r="H34" s="173"/>
+      <c r="I34" s="174"/>
+      <c r="J34" s="173"/>
+      <c r="K34" s="174"/>
       <c r="L34" s="80"/>
-      <c r="M34" s="79">
+      <c r="M34" s="78"/>
+      <c r="N34" s="173"/>
+      <c r="O34" s="174"/>
+      <c r="P34" s="173"/>
+      <c r="Q34" s="174"/>
+      <c r="R34" s="80"/>
+      <c r="S34" s="79">
         <v>0.99</v>
       </c>
-      <c r="N34" s="80">
+      <c r="T34" s="80">
         <v>0.99</v>
       </c>
-      <c r="O34" s="78"/>
-      <c r="P34" s="79"/>
-      <c r="Q34" s="80"/>
+      <c r="U34" s="78"/>
+      <c r="V34" s="79"/>
+      <c r="W34" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6666,7 +7648,7 @@
         <v>94</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D1" s="66" t="s">
         <v>93</v>
@@ -6680,16 +7662,16 @@
       <c r="G1" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="171" t="s">
+      <c r="H1" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="172" t="s">
+      <c r="I1" s="166" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="171" t="s">
+      <c r="J1" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="172" t="s">
+      <c r="K1" s="166" t="s">
         <v>69</v>
       </c>
       <c r="L1" s="68" t="s">
@@ -6716,10 +7698,10 @@
       <c r="S1" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="T1" s="181" t="s">
+      <c r="T1" s="175" t="s">
         <v>92</v>
       </c>
-      <c r="U1" s="182" t="s">
+      <c r="U1" s="176" t="s">
         <v>92</v>
       </c>
       <c r="V1" s="82" t="s">
@@ -6734,10 +7716,10 @@
       <c r="Y1" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="Z1" s="161" t="s">
+      <c r="Z1" s="155" t="s">
         <v>75</v>
       </c>
-      <c r="AA1" s="162" t="s">
+      <c r="AA1" s="156" t="s">
         <v>75</v>
       </c>
       <c r="AB1" s="82" t="s">
@@ -6786,16 +7768,16 @@
       <c r="G2" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="173" t="s">
+      <c r="H2" s="167" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="174" t="s">
+      <c r="I2" s="168" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="173" t="s">
+      <c r="J2" s="167" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="174" t="s">
+      <c r="K2" s="168" t="s">
         <v>72</v>
       </c>
       <c r="L2" s="71" t="s">
@@ -6812,10 +7794,10 @@
       <c r="S2" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="T2" s="183" t="s">
+      <c r="T2" s="177" t="s">
         <v>72</v>
       </c>
-      <c r="U2" s="184" t="s">
+      <c r="U2" s="178" t="s">
         <v>70</v>
       </c>
       <c r="V2" s="85" t="s">
@@ -6830,10 +7812,10 @@
       <c r="Y2" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" s="163" t="s">
+      <c r="Z2" s="157" t="s">
         <v>72</v>
       </c>
-      <c r="AA2" s="164" t="s">
+      <c r="AA2" s="158" t="s">
         <v>70</v>
       </c>
       <c r="AB2" s="85" t="s">
@@ -6880,16 +7862,16 @@
       <c r="G3" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="173" t="s">
+      <c r="H3" s="167" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="174" t="s">
+      <c r="I3" s="168" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="173" t="s">
+      <c r="J3" s="167" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="174" t="s">
+      <c r="K3" s="168" t="s">
         <v>73</v>
       </c>
       <c r="L3" s="71" t="s">
@@ -6916,10 +7898,10 @@
       <c r="S3" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="T3" s="183" t="s">
+      <c r="T3" s="177" t="s">
         <v>97</v>
       </c>
-      <c r="U3" s="184" t="s">
+      <c r="U3" s="178" t="s">
         <v>98</v>
       </c>
       <c r="V3" s="85" t="s">
@@ -6934,10 +7916,10 @@
       <c r="Y3" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" s="163" t="s">
+      <c r="Z3" s="157" t="s">
         <v>97</v>
       </c>
-      <c r="AA3" s="164" t="s">
+      <c r="AA3" s="158" t="s">
         <v>98</v>
       </c>
       <c r="AB3" s="85" t="s">
@@ -6978,16 +7960,16 @@
       <c r="G4" s="72">
         <v>1</v>
       </c>
-      <c r="H4" s="175">
+      <c r="H4" s="169">
         <v>10</v>
       </c>
-      <c r="I4" s="176">
+      <c r="I4" s="170">
         <v>0.5</v>
       </c>
-      <c r="J4" s="175">
+      <c r="J4" s="169">
         <v>4</v>
       </c>
-      <c r="K4" s="176">
+      <c r="K4" s="170">
         <f>3/12</f>
         <v>0.25</v>
       </c>
@@ -7012,10 +7994,10 @@
       <c r="S4" s="88">
         <v>1</v>
       </c>
-      <c r="T4" s="185">
+      <c r="T4" s="179">
         <v>0.03</v>
       </c>
-      <c r="U4" s="186">
+      <c r="U4" s="180">
         <v>1</v>
       </c>
       <c r="V4" s="88">
@@ -7030,10 +8012,10 @@
       <c r="Y4" s="88">
         <v>0</v>
       </c>
-      <c r="Z4" s="165">
+      <c r="Z4" s="159">
         <v>0</v>
       </c>
-      <c r="AA4" s="166">
+      <c r="AA4" s="160">
         <v>1</v>
       </c>
       <c r="AB4" s="88">
@@ -7080,10 +8062,10 @@
       <c r="E5" s="77"/>
       <c r="F5" s="62"/>
       <c r="G5" s="75"/>
-      <c r="H5" s="177"/>
-      <c r="I5" s="178"/>
-      <c r="J5" s="177"/>
-      <c r="K5" s="178"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="172"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="172"/>
       <c r="L5" s="77"/>
       <c r="M5" s="76"/>
       <c r="N5" s="77"/>
@@ -7092,14 +8074,14 @@
       <c r="Q5" s="77"/>
       <c r="R5" s="90"/>
       <c r="S5" s="91"/>
-      <c r="T5" s="187"/>
-      <c r="U5" s="188"/>
+      <c r="T5" s="181"/>
+      <c r="U5" s="182"/>
       <c r="V5" s="91"/>
       <c r="W5" s="92"/>
       <c r="X5" s="90"/>
       <c r="Y5" s="91"/>
-      <c r="Z5" s="167"/>
-      <c r="AA5" s="168"/>
+      <c r="Z5" s="161"/>
+      <c r="AA5" s="162"/>
       <c r="AB5" s="91"/>
       <c r="AC5" s="92"/>
       <c r="AD5" s="101"/>
@@ -7122,10 +8104,10 @@
       <c r="E6" s="77"/>
       <c r="F6" s="62"/>
       <c r="G6" s="75"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="177"/>
-      <c r="K6" s="178"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="171"/>
+      <c r="K6" s="172"/>
       <c r="L6" s="77"/>
       <c r="M6" s="76"/>
       <c r="N6" s="77"/>
@@ -7134,14 +8116,14 @@
       <c r="Q6" s="77"/>
       <c r="R6" s="90"/>
       <c r="S6" s="91"/>
-      <c r="T6" s="187"/>
-      <c r="U6" s="188"/>
+      <c r="T6" s="181"/>
+      <c r="U6" s="182"/>
       <c r="V6" s="91"/>
       <c r="W6" s="92"/>
       <c r="X6" s="90"/>
       <c r="Y6" s="91"/>
-      <c r="Z6" s="167"/>
-      <c r="AA6" s="168"/>
+      <c r="Z6" s="161"/>
+      <c r="AA6" s="162"/>
       <c r="AB6" s="91"/>
       <c r="AC6" s="92"/>
       <c r="AD6" s="101"/>
@@ -7164,10 +8146,10 @@
       <c r="E7" s="77"/>
       <c r="F7" s="62"/>
       <c r="G7" s="75"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="177"/>
-      <c r="K7" s="178"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="171"/>
+      <c r="K7" s="172"/>
       <c r="L7" s="77"/>
       <c r="M7" s="76"/>
       <c r="N7" s="77"/>
@@ -7176,14 +8158,14 @@
       <c r="Q7" s="77"/>
       <c r="R7" s="90"/>
       <c r="S7" s="91"/>
-      <c r="T7" s="187"/>
-      <c r="U7" s="188"/>
+      <c r="T7" s="181"/>
+      <c r="U7" s="182"/>
       <c r="V7" s="91"/>
       <c r="W7" s="92"/>
       <c r="X7" s="90"/>
       <c r="Y7" s="91"/>
-      <c r="Z7" s="167"/>
-      <c r="AA7" s="168"/>
+      <c r="Z7" s="161"/>
+      <c r="AA7" s="162"/>
       <c r="AB7" s="91"/>
       <c r="AC7" s="92"/>
       <c r="AD7" s="101"/>
@@ -7206,10 +8188,10 @@
       <c r="E8" s="77"/>
       <c r="F8" s="62"/>
       <c r="G8" s="75"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="177"/>
-      <c r="K8" s="178"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="171"/>
+      <c r="K8" s="172"/>
       <c r="L8" s="77"/>
       <c r="M8" s="76"/>
       <c r="N8" s="77"/>
@@ -7218,14 +8200,14 @@
       <c r="Q8" s="77"/>
       <c r="R8" s="90"/>
       <c r="S8" s="91"/>
-      <c r="T8" s="187"/>
-      <c r="U8" s="188"/>
+      <c r="T8" s="181"/>
+      <c r="U8" s="182"/>
       <c r="V8" s="91"/>
       <c r="W8" s="92"/>
       <c r="X8" s="90"/>
       <c r="Y8" s="91"/>
-      <c r="Z8" s="167"/>
-      <c r="AA8" s="168"/>
+      <c r="Z8" s="161"/>
+      <c r="AA8" s="162"/>
       <c r="AB8" s="91"/>
       <c r="AC8" s="92"/>
       <c r="AD8" s="101"/>
@@ -7248,10 +8230,10 @@
       <c r="E9" s="77"/>
       <c r="F9" s="62"/>
       <c r="G9" s="75"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="177"/>
-      <c r="K9" s="178"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="171"/>
+      <c r="K9" s="172"/>
       <c r="L9" s="77"/>
       <c r="M9" s="76"/>
       <c r="N9" s="77"/>
@@ -7260,14 +8242,14 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="90"/>
       <c r="S9" s="91"/>
-      <c r="T9" s="187"/>
-      <c r="U9" s="188"/>
+      <c r="T9" s="181"/>
+      <c r="U9" s="182"/>
       <c r="V9" s="91"/>
       <c r="W9" s="92"/>
       <c r="X9" s="90"/>
       <c r="Y9" s="91"/>
-      <c r="Z9" s="167"/>
-      <c r="AA9" s="168"/>
+      <c r="Z9" s="161"/>
+      <c r="AA9" s="162"/>
       <c r="AB9" s="91"/>
       <c r="AC9" s="92"/>
       <c r="AD9" s="101"/>
@@ -7290,10 +8272,10 @@
       <c r="E10" s="77"/>
       <c r="F10" s="62"/>
       <c r="G10" s="75"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="177"/>
-      <c r="K10" s="178"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="171"/>
+      <c r="K10" s="172"/>
       <c r="L10" s="77"/>
       <c r="M10" s="76"/>
       <c r="N10" s="77"/>
@@ -7302,14 +8284,14 @@
       <c r="Q10" s="77"/>
       <c r="R10" s="90"/>
       <c r="S10" s="91"/>
-      <c r="T10" s="187"/>
-      <c r="U10" s="188"/>
+      <c r="T10" s="181"/>
+      <c r="U10" s="182"/>
       <c r="V10" s="91"/>
       <c r="W10" s="92"/>
       <c r="X10" s="90"/>
       <c r="Y10" s="91"/>
-      <c r="Z10" s="167"/>
-      <c r="AA10" s="168"/>
+      <c r="Z10" s="161"/>
+      <c r="AA10" s="162"/>
       <c r="AB10" s="91"/>
       <c r="AC10" s="92"/>
       <c r="AD10" s="101"/>
@@ -7332,10 +8314,10 @@
       <c r="E11" s="77"/>
       <c r="F11" s="62"/>
       <c r="G11" s="75"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="177"/>
-      <c r="K11" s="178"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="171"/>
+      <c r="K11" s="172"/>
       <c r="L11" s="77"/>
       <c r="M11" s="76">
         <v>0.75</v>
@@ -7348,14 +8330,14 @@
       <c r="Q11" s="77"/>
       <c r="R11" s="90"/>
       <c r="S11" s="91"/>
-      <c r="T11" s="187"/>
-      <c r="U11" s="188"/>
+      <c r="T11" s="181"/>
+      <c r="U11" s="182"/>
       <c r="V11" s="91"/>
       <c r="W11" s="92"/>
       <c r="X11" s="90"/>
       <c r="Y11" s="91"/>
-      <c r="Z11" s="167"/>
-      <c r="AA11" s="168"/>
+      <c r="Z11" s="161"/>
+      <c r="AA11" s="162"/>
       <c r="AB11" s="91"/>
       <c r="AC11" s="92"/>
       <c r="AD11" s="101"/>
@@ -7378,10 +8360,10 @@
       <c r="E12" s="77"/>
       <c r="F12" s="62"/>
       <c r="G12" s="75"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="177"/>
-      <c r="K12" s="178"/>
+      <c r="H12" s="171"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="171"/>
+      <c r="K12" s="172"/>
       <c r="L12" s="77"/>
       <c r="M12" s="76"/>
       <c r="N12" s="77"/>
@@ -7390,14 +8372,14 @@
       <c r="Q12" s="77"/>
       <c r="R12" s="90"/>
       <c r="S12" s="91"/>
-      <c r="T12" s="187"/>
-      <c r="U12" s="188"/>
+      <c r="T12" s="181"/>
+      <c r="U12" s="182"/>
       <c r="V12" s="91"/>
       <c r="W12" s="92"/>
       <c r="X12" s="90"/>
       <c r="Y12" s="91"/>
-      <c r="Z12" s="167"/>
-      <c r="AA12" s="168"/>
+      <c r="Z12" s="161"/>
+      <c r="AA12" s="162"/>
       <c r="AB12" s="91"/>
       <c r="AC12" s="92"/>
       <c r="AD12" s="101"/>
@@ -7422,10 +8404,10 @@
       <c r="E13" s="77"/>
       <c r="F13" s="62"/>
       <c r="G13" s="75"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="177"/>
-      <c r="K13" s="178"/>
+      <c r="H13" s="171"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="171"/>
+      <c r="K13" s="172"/>
       <c r="L13" s="77"/>
       <c r="M13" s="76"/>
       <c r="N13" s="77"/>
@@ -7434,14 +8416,14 @@
       <c r="Q13" s="77"/>
       <c r="R13" s="90"/>
       <c r="S13" s="91"/>
-      <c r="T13" s="187"/>
-      <c r="U13" s="188"/>
+      <c r="T13" s="181"/>
+      <c r="U13" s="182"/>
       <c r="V13" s="91"/>
       <c r="W13" s="92"/>
       <c r="X13" s="90"/>
       <c r="Y13" s="91"/>
-      <c r="Z13" s="167"/>
-      <c r="AA13" s="168"/>
+      <c r="Z13" s="161"/>
+      <c r="AA13" s="162"/>
       <c r="AB13" s="91"/>
       <c r="AC13" s="92"/>
       <c r="AD13" s="101"/>
@@ -7468,10 +8450,10 @@
       </c>
       <c r="F14" s="62"/>
       <c r="G14" s="75"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="177"/>
-      <c r="K14" s="178"/>
+      <c r="H14" s="171"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="171"/>
+      <c r="K14" s="172"/>
       <c r="L14" s="77"/>
       <c r="M14" s="76">
         <v>0.75</v>
@@ -7484,14 +8466,14 @@
       <c r="Q14" s="77"/>
       <c r="R14" s="90"/>
       <c r="S14" s="91"/>
-      <c r="T14" s="187"/>
-      <c r="U14" s="188"/>
+      <c r="T14" s="181"/>
+      <c r="U14" s="182"/>
       <c r="V14" s="91"/>
       <c r="W14" s="92"/>
       <c r="X14" s="90"/>
       <c r="Y14" s="91"/>
-      <c r="Z14" s="167"/>
-      <c r="AA14" s="168"/>
+      <c r="Z14" s="161"/>
+      <c r="AA14" s="162"/>
       <c r="AB14" s="91"/>
       <c r="AC14" s="92"/>
       <c r="AD14" s="101"/>
@@ -7516,10 +8498,10 @@
       </c>
       <c r="F15" s="62"/>
       <c r="G15" s="75"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="177"/>
-      <c r="K15" s="178"/>
+      <c r="H15" s="171"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="171"/>
+      <c r="K15" s="172"/>
       <c r="L15" s="77"/>
       <c r="M15" s="76"/>
       <c r="N15" s="77"/>
@@ -7528,14 +8510,14 @@
       <c r="Q15" s="77"/>
       <c r="R15" s="90"/>
       <c r="S15" s="91"/>
-      <c r="T15" s="187"/>
-      <c r="U15" s="188"/>
+      <c r="T15" s="181"/>
+      <c r="U15" s="182"/>
       <c r="V15" s="91"/>
       <c r="W15" s="92"/>
       <c r="X15" s="90"/>
       <c r="Y15" s="91"/>
-      <c r="Z15" s="167"/>
-      <c r="AA15" s="168"/>
+      <c r="Z15" s="161"/>
+      <c r="AA15" s="162"/>
       <c r="AB15" s="91"/>
       <c r="AC15" s="92"/>
       <c r="AD15" s="101"/>
@@ -7558,10 +8540,10 @@
       <c r="E16" s="77"/>
       <c r="F16" s="62"/>
       <c r="G16" s="75"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="177"/>
-      <c r="K16" s="178"/>
+      <c r="H16" s="171"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="171"/>
+      <c r="K16" s="172"/>
       <c r="L16" s="77"/>
       <c r="M16" s="76">
         <v>0.82</v>
@@ -7574,14 +8556,14 @@
       <c r="Q16" s="77"/>
       <c r="R16" s="90"/>
       <c r="S16" s="91"/>
-      <c r="T16" s="187"/>
-      <c r="U16" s="188"/>
+      <c r="T16" s="181"/>
+      <c r="U16" s="182"/>
       <c r="V16" s="91"/>
       <c r="W16" s="92"/>
       <c r="X16" s="90"/>
       <c r="Y16" s="91"/>
-      <c r="Z16" s="167"/>
-      <c r="AA16" s="168"/>
+      <c r="Z16" s="161"/>
+      <c r="AA16" s="162"/>
       <c r="AB16" s="91"/>
       <c r="AC16" s="92"/>
       <c r="AD16" s="101"/>
@@ -7604,10 +8586,10 @@
       <c r="E17" s="77"/>
       <c r="F17" s="62"/>
       <c r="G17" s="75"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="177"/>
-      <c r="K17" s="178"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="171"/>
+      <c r="K17" s="172"/>
       <c r="L17" s="77"/>
       <c r="M17" s="76">
         <v>0.86</v>
@@ -7620,14 +8602,14 @@
       <c r="Q17" s="77"/>
       <c r="R17" s="90"/>
       <c r="S17" s="91"/>
-      <c r="T17" s="187"/>
-      <c r="U17" s="188"/>
+      <c r="T17" s="181"/>
+      <c r="U17" s="182"/>
       <c r="V17" s="91"/>
       <c r="W17" s="92"/>
       <c r="X17" s="90"/>
       <c r="Y17" s="91"/>
-      <c r="Z17" s="167"/>
-      <c r="AA17" s="168"/>
+      <c r="Z17" s="161"/>
+      <c r="AA17" s="162"/>
       <c r="AB17" s="91"/>
       <c r="AC17" s="92"/>
       <c r="AD17" s="101"/>
@@ -7650,10 +8632,10 @@
       <c r="E18" s="77"/>
       <c r="F18" s="62"/>
       <c r="G18" s="75"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="177"/>
-      <c r="K18" s="178"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="171"/>
+      <c r="K18" s="172"/>
       <c r="L18" s="77"/>
       <c r="M18" s="76">
         <v>0.89</v>
@@ -7666,14 +8648,14 @@
       <c r="Q18" s="77"/>
       <c r="R18" s="90"/>
       <c r="S18" s="91"/>
-      <c r="T18" s="187"/>
-      <c r="U18" s="188"/>
+      <c r="T18" s="181"/>
+      <c r="U18" s="182"/>
       <c r="V18" s="91"/>
       <c r="W18" s="92"/>
       <c r="X18" s="90"/>
       <c r="Y18" s="91"/>
-      <c r="Z18" s="167"/>
-      <c r="AA18" s="168"/>
+      <c r="Z18" s="161"/>
+      <c r="AA18" s="162"/>
       <c r="AB18" s="91"/>
       <c r="AC18" s="92"/>
       <c r="AD18" s="101"/>
@@ -7696,10 +8678,10 @@
       <c r="E19" s="77"/>
       <c r="F19" s="62"/>
       <c r="G19" s="75"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="177"/>
-      <c r="K19" s="178"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="171"/>
+      <c r="K19" s="172"/>
       <c r="L19" s="77"/>
       <c r="M19" s="76">
         <v>0.92</v>
@@ -7712,14 +8694,14 @@
       <c r="Q19" s="77"/>
       <c r="R19" s="90"/>
       <c r="S19" s="91"/>
-      <c r="T19" s="187"/>
-      <c r="U19" s="188"/>
+      <c r="T19" s="181"/>
+      <c r="U19" s="182"/>
       <c r="V19" s="91"/>
       <c r="W19" s="92"/>
       <c r="X19" s="90"/>
       <c r="Y19" s="91"/>
-      <c r="Z19" s="167"/>
-      <c r="AA19" s="168"/>
+      <c r="Z19" s="161"/>
+      <c r="AA19" s="162"/>
       <c r="AB19" s="91"/>
       <c r="AC19" s="92"/>
       <c r="AD19" s="101"/>
@@ -7746,10 +8728,10 @@
       </c>
       <c r="F20" s="62"/>
       <c r="G20" s="75"/>
-      <c r="H20" s="177"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="177"/>
-      <c r="K20" s="178"/>
+      <c r="H20" s="171"/>
+      <c r="I20" s="172"/>
+      <c r="J20" s="171"/>
+      <c r="K20" s="172"/>
       <c r="L20" s="77"/>
       <c r="M20" s="76">
         <v>0.95</v>
@@ -7762,14 +8744,14 @@
       <c r="Q20" s="77"/>
       <c r="R20" s="90"/>
       <c r="S20" s="91"/>
-      <c r="T20" s="187"/>
-      <c r="U20" s="188"/>
+      <c r="T20" s="181"/>
+      <c r="U20" s="182"/>
       <c r="V20" s="91"/>
       <c r="W20" s="92"/>
       <c r="X20" s="90"/>
       <c r="Y20" s="91"/>
-      <c r="Z20" s="167"/>
-      <c r="AA20" s="168"/>
+      <c r="Z20" s="161"/>
+      <c r="AA20" s="162"/>
       <c r="AB20" s="91"/>
       <c r="AC20" s="92"/>
       <c r="AD20" s="101"/>
@@ -7792,10 +8774,10 @@
       <c r="E21" s="77"/>
       <c r="F21" s="62"/>
       <c r="G21" s="75"/>
-      <c r="H21" s="177"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="177"/>
-      <c r="K21" s="178"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="171"/>
+      <c r="K21" s="172"/>
       <c r="L21" s="77"/>
       <c r="M21" s="76"/>
       <c r="N21" s="77"/>
@@ -7804,14 +8786,14 @@
       <c r="Q21" s="77"/>
       <c r="R21" s="90"/>
       <c r="S21" s="91"/>
-      <c r="T21" s="187"/>
-      <c r="U21" s="188"/>
+      <c r="T21" s="181"/>
+      <c r="U21" s="182"/>
       <c r="V21" s="91"/>
       <c r="W21" s="92"/>
       <c r="X21" s="90"/>
       <c r="Y21" s="91"/>
-      <c r="Z21" s="167"/>
-      <c r="AA21" s="168"/>
+      <c r="Z21" s="161"/>
+      <c r="AA21" s="162"/>
       <c r="AB21" s="91"/>
       <c r="AC21" s="92"/>
       <c r="AD21" s="101"/>
@@ -7834,10 +8816,10 @@
       <c r="E22" s="77"/>
       <c r="F22" s="62"/>
       <c r="G22" s="75"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="177"/>
-      <c r="K22" s="178"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="172"/>
+      <c r="J22" s="171"/>
+      <c r="K22" s="172"/>
       <c r="L22" s="77"/>
       <c r="M22" s="76"/>
       <c r="N22" s="77"/>
@@ -7846,14 +8828,14 @@
       <c r="Q22" s="77"/>
       <c r="R22" s="90"/>
       <c r="S22" s="91"/>
-      <c r="T22" s="187"/>
-      <c r="U22" s="188"/>
+      <c r="T22" s="181"/>
+      <c r="U22" s="182"/>
       <c r="V22" s="91"/>
       <c r="W22" s="92"/>
       <c r="X22" s="90"/>
       <c r="Y22" s="91"/>
-      <c r="Z22" s="167"/>
-      <c r="AA22" s="168"/>
+      <c r="Z22" s="161"/>
+      <c r="AA22" s="162"/>
       <c r="AB22" s="91"/>
       <c r="AC22" s="92"/>
       <c r="AD22" s="101"/>
@@ -7876,10 +8858,10 @@
       <c r="E23" s="77"/>
       <c r="F23" s="62"/>
       <c r="G23" s="75"/>
-      <c r="H23" s="177"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="177"/>
-      <c r="K23" s="178"/>
+      <c r="H23" s="171"/>
+      <c r="I23" s="172"/>
+      <c r="J23" s="171"/>
+      <c r="K23" s="172"/>
       <c r="L23" s="77"/>
       <c r="M23" s="76"/>
       <c r="N23" s="77"/>
@@ -7888,14 +8870,14 @@
       <c r="Q23" s="77"/>
       <c r="R23" s="90"/>
       <c r="S23" s="91"/>
-      <c r="T23" s="187"/>
-      <c r="U23" s="188"/>
+      <c r="T23" s="181"/>
+      <c r="U23" s="182"/>
       <c r="V23" s="91"/>
       <c r="W23" s="92"/>
       <c r="X23" s="90"/>
       <c r="Y23" s="91"/>
-      <c r="Z23" s="167"/>
-      <c r="AA23" s="168"/>
+      <c r="Z23" s="161"/>
+      <c r="AA23" s="162"/>
       <c r="AB23" s="91"/>
       <c r="AC23" s="92"/>
       <c r="AD23" s="101"/>
@@ -7918,10 +8900,10 @@
       <c r="E24" s="77"/>
       <c r="F24" s="62"/>
       <c r="G24" s="75"/>
-      <c r="H24" s="177"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="177"/>
-      <c r="K24" s="178"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="172"/>
+      <c r="J24" s="171"/>
+      <c r="K24" s="172"/>
       <c r="L24" s="77"/>
       <c r="M24" s="76"/>
       <c r="N24" s="77"/>
@@ -7930,14 +8912,14 @@
       <c r="Q24" s="77"/>
       <c r="R24" s="90"/>
       <c r="S24" s="91"/>
-      <c r="T24" s="187"/>
-      <c r="U24" s="188"/>
+      <c r="T24" s="181"/>
+      <c r="U24" s="182"/>
       <c r="V24" s="91"/>
       <c r="W24" s="92"/>
       <c r="X24" s="90"/>
       <c r="Y24" s="91"/>
-      <c r="Z24" s="167"/>
-      <c r="AA24" s="168"/>
+      <c r="Z24" s="161"/>
+      <c r="AA24" s="162"/>
       <c r="AB24" s="91"/>
       <c r="AC24" s="92"/>
       <c r="AD24" s="101"/>
@@ -7960,10 +8942,10 @@
       <c r="E25" s="77"/>
       <c r="F25" s="62"/>
       <c r="G25" s="75"/>
-      <c r="H25" s="177"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="177"/>
-      <c r="K25" s="178"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="172"/>
+      <c r="J25" s="171"/>
+      <c r="K25" s="172"/>
       <c r="L25" s="77"/>
       <c r="M25" s="76"/>
       <c r="N25" s="77"/>
@@ -7972,14 +8954,14 @@
       <c r="Q25" s="77"/>
       <c r="R25" s="90"/>
       <c r="S25" s="91"/>
-      <c r="T25" s="187"/>
-      <c r="U25" s="188"/>
+      <c r="T25" s="181"/>
+      <c r="U25" s="182"/>
       <c r="V25" s="91"/>
       <c r="W25" s="92"/>
       <c r="X25" s="90"/>
       <c r="Y25" s="91"/>
-      <c r="Z25" s="167"/>
-      <c r="AA25" s="168"/>
+      <c r="Z25" s="161"/>
+      <c r="AA25" s="162"/>
       <c r="AB25" s="91"/>
       <c r="AC25" s="92"/>
       <c r="AD25" s="101"/>
@@ -8002,10 +8984,10 @@
       <c r="E26" s="77"/>
       <c r="F26" s="62"/>
       <c r="G26" s="75"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="177"/>
-      <c r="K26" s="178"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="172"/>
+      <c r="J26" s="171"/>
+      <c r="K26" s="172"/>
       <c r="L26" s="77"/>
       <c r="M26" s="76"/>
       <c r="N26" s="77"/>
@@ -8014,14 +8996,14 @@
       <c r="Q26" s="77"/>
       <c r="R26" s="90"/>
       <c r="S26" s="91"/>
-      <c r="T26" s="187"/>
-      <c r="U26" s="188"/>
+      <c r="T26" s="181"/>
+      <c r="U26" s="182"/>
       <c r="V26" s="91"/>
       <c r="W26" s="92"/>
       <c r="X26" s="90"/>
       <c r="Y26" s="91"/>
-      <c r="Z26" s="167"/>
-      <c r="AA26" s="168"/>
+      <c r="Z26" s="161"/>
+      <c r="AA26" s="162"/>
       <c r="AB26" s="91"/>
       <c r="AC26" s="92"/>
       <c r="AD26" s="101"/>
@@ -8044,10 +9026,10 @@
       <c r="E27" s="77"/>
       <c r="F27" s="62"/>
       <c r="G27" s="75"/>
-      <c r="H27" s="177"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="177"/>
-      <c r="K27" s="178"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="172"/>
+      <c r="J27" s="171"/>
+      <c r="K27" s="172"/>
       <c r="L27" s="77"/>
       <c r="M27" s="76"/>
       <c r="N27" s="77"/>
@@ -8056,14 +9038,14 @@
       <c r="Q27" s="77"/>
       <c r="R27" s="90"/>
       <c r="S27" s="91"/>
-      <c r="T27" s="187"/>
-      <c r="U27" s="188"/>
+      <c r="T27" s="181"/>
+      <c r="U27" s="182"/>
       <c r="V27" s="91"/>
       <c r="W27" s="92"/>
       <c r="X27" s="90"/>
       <c r="Y27" s="91"/>
-      <c r="Z27" s="167"/>
-      <c r="AA27" s="168"/>
+      <c r="Z27" s="161"/>
+      <c r="AA27" s="162"/>
       <c r="AB27" s="91"/>
       <c r="AC27" s="92"/>
       <c r="AD27" s="101"/>
@@ -8086,10 +9068,10 @@
       <c r="E28" s="77"/>
       <c r="F28" s="62"/>
       <c r="G28" s="75"/>
-      <c r="H28" s="177"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="177"/>
-      <c r="K28" s="178"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="172"/>
+      <c r="J28" s="171"/>
+      <c r="K28" s="172"/>
       <c r="L28" s="77"/>
       <c r="M28" s="76"/>
       <c r="N28" s="77"/>
@@ -8098,14 +9080,14 @@
       <c r="Q28" s="77"/>
       <c r="R28" s="90"/>
       <c r="S28" s="91"/>
-      <c r="T28" s="187"/>
-      <c r="U28" s="188"/>
+      <c r="T28" s="181"/>
+      <c r="U28" s="182"/>
       <c r="V28" s="91"/>
       <c r="W28" s="92"/>
       <c r="X28" s="90"/>
       <c r="Y28" s="91"/>
-      <c r="Z28" s="167"/>
-      <c r="AA28" s="168"/>
+      <c r="Z28" s="161"/>
+      <c r="AA28" s="162"/>
       <c r="AB28" s="91"/>
       <c r="AC28" s="92"/>
       <c r="AD28" s="101"/>
@@ -8128,10 +9110,10 @@
       <c r="E29" s="77"/>
       <c r="F29" s="62"/>
       <c r="G29" s="75"/>
-      <c r="H29" s="177"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="177"/>
-      <c r="K29" s="178"/>
+      <c r="H29" s="171"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="171"/>
+      <c r="K29" s="172"/>
       <c r="L29" s="77"/>
       <c r="M29" s="76">
         <v>0.95</v>
@@ -8144,14 +9126,14 @@
       <c r="Q29" s="77"/>
       <c r="R29" s="90"/>
       <c r="S29" s="91"/>
-      <c r="T29" s="187"/>
-      <c r="U29" s="188"/>
+      <c r="T29" s="181"/>
+      <c r="U29" s="182"/>
       <c r="V29" s="91"/>
       <c r="W29" s="92"/>
       <c r="X29" s="90"/>
       <c r="Y29" s="91"/>
-      <c r="Z29" s="167"/>
-      <c r="AA29" s="168"/>
+      <c r="Z29" s="161"/>
+      <c r="AA29" s="162"/>
       <c r="AB29" s="91"/>
       <c r="AC29" s="92"/>
       <c r="AD29" s="101"/>
@@ -8174,10 +9156,10 @@
       <c r="E30" s="77"/>
       <c r="F30" s="62"/>
       <c r="G30" s="75"/>
-      <c r="H30" s="177"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="177"/>
-      <c r="K30" s="178"/>
+      <c r="H30" s="171"/>
+      <c r="I30" s="172"/>
+      <c r="J30" s="171"/>
+      <c r="K30" s="172"/>
       <c r="L30" s="77"/>
       <c r="M30" s="76"/>
       <c r="N30" s="77"/>
@@ -8186,14 +9168,14 @@
       <c r="Q30" s="77"/>
       <c r="R30" s="90"/>
       <c r="S30" s="91"/>
-      <c r="T30" s="187"/>
-      <c r="U30" s="188"/>
+      <c r="T30" s="181"/>
+      <c r="U30" s="182"/>
       <c r="V30" s="91"/>
       <c r="W30" s="92"/>
       <c r="X30" s="90"/>
       <c r="Y30" s="91"/>
-      <c r="Z30" s="167"/>
-      <c r="AA30" s="168"/>
+      <c r="Z30" s="161"/>
+      <c r="AA30" s="162"/>
       <c r="AB30" s="91"/>
       <c r="AC30" s="92"/>
       <c r="AD30" s="101"/>
@@ -8216,10 +9198,10 @@
       <c r="E31" s="77"/>
       <c r="F31" s="62"/>
       <c r="G31" s="75"/>
-      <c r="H31" s="177"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="177"/>
-      <c r="K31" s="178"/>
+      <c r="H31" s="171"/>
+      <c r="I31" s="172"/>
+      <c r="J31" s="171"/>
+      <c r="K31" s="172"/>
       <c r="L31" s="77"/>
       <c r="M31" s="76"/>
       <c r="N31" s="77"/>
@@ -8228,14 +9210,14 @@
       <c r="Q31" s="77"/>
       <c r="R31" s="90"/>
       <c r="S31" s="91"/>
-      <c r="T31" s="187"/>
-      <c r="U31" s="188"/>
+      <c r="T31" s="181"/>
+      <c r="U31" s="182"/>
       <c r="V31" s="91"/>
       <c r="W31" s="92"/>
       <c r="X31" s="90"/>
       <c r="Y31" s="91"/>
-      <c r="Z31" s="167"/>
-      <c r="AA31" s="168"/>
+      <c r="Z31" s="161"/>
+      <c r="AA31" s="162"/>
       <c r="AB31" s="91"/>
       <c r="AC31" s="92"/>
       <c r="AD31" s="101"/>
@@ -8258,10 +9240,10 @@
       <c r="E32" s="77"/>
       <c r="F32" s="62"/>
       <c r="G32" s="75"/>
-      <c r="H32" s="177"/>
-      <c r="I32" s="178"/>
-      <c r="J32" s="177"/>
-      <c r="K32" s="178"/>
+      <c r="H32" s="171"/>
+      <c r="I32" s="172"/>
+      <c r="J32" s="171"/>
+      <c r="K32" s="172"/>
       <c r="L32" s="77"/>
       <c r="M32" s="76"/>
       <c r="N32" s="77"/>
@@ -8270,14 +9252,14 @@
       <c r="Q32" s="77"/>
       <c r="R32" s="90"/>
       <c r="S32" s="91"/>
-      <c r="T32" s="187"/>
-      <c r="U32" s="188"/>
+      <c r="T32" s="181"/>
+      <c r="U32" s="182"/>
       <c r="V32" s="91"/>
       <c r="W32" s="92"/>
       <c r="X32" s="90"/>
       <c r="Y32" s="91"/>
-      <c r="Z32" s="167"/>
-      <c r="AA32" s="168"/>
+      <c r="Z32" s="161"/>
+      <c r="AA32" s="162"/>
       <c r="AB32" s="91"/>
       <c r="AC32" s="92"/>
       <c r="AD32" s="101"/>
@@ -8300,10 +9282,10 @@
       <c r="E33" s="77"/>
       <c r="F33" s="62"/>
       <c r="G33" s="75"/>
-      <c r="H33" s="177"/>
-      <c r="I33" s="178"/>
-      <c r="J33" s="177"/>
-      <c r="K33" s="178"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="172"/>
+      <c r="J33" s="171"/>
+      <c r="K33" s="172"/>
       <c r="L33" s="77"/>
       <c r="M33" s="76"/>
       <c r="N33" s="77"/>
@@ -8312,14 +9294,14 @@
       <c r="Q33" s="77"/>
       <c r="R33" s="90"/>
       <c r="S33" s="91"/>
-      <c r="T33" s="187"/>
-      <c r="U33" s="188"/>
+      <c r="T33" s="181"/>
+      <c r="U33" s="182"/>
       <c r="V33" s="91"/>
       <c r="W33" s="92"/>
       <c r="X33" s="90"/>
       <c r="Y33" s="91"/>
-      <c r="Z33" s="167"/>
-      <c r="AA33" s="168"/>
+      <c r="Z33" s="161"/>
+      <c r="AA33" s="162"/>
       <c r="AB33" s="91"/>
       <c r="AC33" s="92"/>
       <c r="AD33" s="101"/>
@@ -8342,10 +9324,10 @@
       <c r="E34" s="80"/>
       <c r="F34" s="64"/>
       <c r="G34" s="78"/>
-      <c r="H34" s="179"/>
-      <c r="I34" s="180"/>
-      <c r="J34" s="179"/>
-      <c r="K34" s="180"/>
+      <c r="H34" s="173"/>
+      <c r="I34" s="174"/>
+      <c r="J34" s="173"/>
+      <c r="K34" s="174"/>
       <c r="L34" s="80"/>
       <c r="M34" s="79">
         <v>0.99</v>
@@ -8358,14 +9340,14 @@
       <c r="Q34" s="80"/>
       <c r="R34" s="93"/>
       <c r="S34" s="94"/>
-      <c r="T34" s="189"/>
-      <c r="U34" s="190"/>
+      <c r="T34" s="183"/>
+      <c r="U34" s="184"/>
       <c r="V34" s="94"/>
       <c r="W34" s="95"/>
       <c r="X34" s="93"/>
       <c r="Y34" s="94"/>
-      <c r="Z34" s="169"/>
-      <c r="AA34" s="170"/>
+      <c r="Z34" s="163"/>
+      <c r="AA34" s="164"/>
       <c r="AB34" s="94"/>
       <c r="AC34" s="95"/>
       <c r="AD34" s="102"/>

--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="pars" sheetId="24" r:id="rId1"/>
@@ -3085,7 +3085,7 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3233,12 +3233,6 @@
     <xf numFmtId="2" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3453,6 +3447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3975,13 +3970,13 @@
       <c r="G7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="39" t="e">
         <f>((data!B13/data!B3) ^ (C2/((data!A13-data!A3))) - 1)</f>
-        <v>-3.0280607750013955E-3</v>
-      </c>
-      <c r="J7" s="43">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" s="43" t="e">
         <f>(data!B8-data!B3)/(data!A8-data!A3)/data!B3*C2</f>
-        <v>-5.6035491876199814E-3</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4266,9 +4261,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J16" sqref="J16"/>
+      <selection pane="topRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4304,142 +4299,139 @@
     <col min="31" max="31" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="121" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
+    <row r="1" spans="1:32" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="111" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="114" t="s">
+      <c r="C1" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="114" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="117" t="s">
+      <c r="F1" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="115" t="s">
+      <c r="G1" s="113" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="116" t="s">
+      <c r="H1" s="114" t="s">
         <v>120</v>
       </c>
-      <c r="I1" s="117" t="s">
+      <c r="I1" s="115" t="s">
         <v>121</v>
       </c>
-      <c r="J1" s="114" t="s">
+      <c r="J1" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="K1" s="115" t="s">
+      <c r="K1" s="113" t="s">
         <v>123</v>
       </c>
-      <c r="L1" s="113" t="s">
+      <c r="L1" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="M1" s="114" t="s">
+      <c r="M1" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="N1" s="115" t="s">
+      <c r="N1" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="O1" s="151" t="s">
+      <c r="O1" s="149" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="119" t="s">
+      <c r="P1" s="116"/>
+      <c r="Q1" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="119" t="s">
+      <c r="R1" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="119" t="s">
+      <c r="S1" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="119" t="s">
+      <c r="T1" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="119" t="s">
+      <c r="U1" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="119" t="s">
+      <c r="V1" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="119" t="s">
+      <c r="W1" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="X1" s="119" t="s">
+      <c r="X1" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="119" t="s">
+      <c r="Y1" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="119" t="s">
+      <c r="Z1" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" s="119" t="s">
+      <c r="AA1" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" s="119" t="s">
+      <c r="AB1" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" s="119" t="s">
+      <c r="AC1" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="120" t="s">
+      <c r="AD1" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="AE1" s="199" t="s">
+      <c r="AE1" s="197" t="s">
         <v>115</v>
       </c>
-      <c r="AF1" s="199" t="s">
+      <c r="AF1" s="197" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:32" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202">
+      <c r="A2" s="200">
         <v>2006</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="213">
-        <f t="shared" ref="C2:C15" si="0">AF2-(D2+L2)</f>
+      <c r="B2" s="201"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="207"/>
+      <c r="Q2" s="208"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="208"/>
+      <c r="T2" s="208"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="208"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="208"/>
+      <c r="AB2" s="208"/>
+      <c r="AC2" s="208"/>
+      <c r="AD2" s="209"/>
+      <c r="AE2" s="193">
         <v>30713</v>
       </c>
-      <c r="D2" s="205"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="204"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="204"/>
-      <c r="N2" s="205"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="210"/>
-      <c r="S2" s="210"/>
-      <c r="T2" s="210"/>
-      <c r="U2" s="210"/>
-      <c r="V2" s="210"/>
-      <c r="W2" s="210"/>
-      <c r="X2" s="210"/>
-      <c r="Y2" s="210"/>
-      <c r="Z2" s="210"/>
-      <c r="AA2" s="210"/>
-      <c r="AB2" s="210"/>
-      <c r="AC2" s="210"/>
-      <c r="AD2" s="211"/>
-      <c r="AE2" s="195">
-        <v>30713</v>
-      </c>
-      <c r="AF2" s="195">
+      <c r="AF2" s="193">
         <v>30713</v>
       </c>
     </row>
@@ -4447,25 +4439,20 @@
       <c r="A3" s="10">
         <v>2007</v>
       </c>
-      <c r="B3" s="191">
-        <v>42714</v>
-      </c>
-      <c r="C3" s="213">
-        <f t="shared" si="0"/>
-        <v>31245.4</v>
-      </c>
-      <c r="D3" s="185"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="214"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="152">
+      <c r="B3" s="189"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="150">
         <v>0.7</v>
       </c>
       <c r="P3" s="96"/>
@@ -4476,19 +4463,19 @@
         <v>3.4931506849315071E-2</v>
       </c>
       <c r="S3" s="28">
-        <f t="shared" ref="S3:S13" si="1">B3-T3</f>
-        <v>42714</v>
+        <f t="shared" ref="S3:S13" si="0">B3-T3</f>
+        <v>0</v>
       </c>
       <c r="T3" s="28">
-        <f t="shared" ref="T3:T14" si="2">L3</f>
+        <f t="shared" ref="T3:T14" si="1">L3</f>
         <v>0</v>
       </c>
       <c r="U3" s="33">
         <f>ROUND(Q3*S3,0)</f>
-        <v>995</v>
+        <v>0</v>
       </c>
       <c r="V3" s="33">
-        <f t="shared" ref="V3" si="3">ROUND(R3*T3,0)</f>
+        <f t="shared" ref="V3" si="2">ROUND(R3*T3,0)</f>
         <v>0</v>
       </c>
       <c r="W3" s="11">
@@ -4516,8 +4503,8 @@
         <v>113.70439800000001</v>
       </c>
       <c r="AD3" s="13"/>
-      <c r="AE3" s="201"/>
-      <c r="AF3" s="212">
+      <c r="AE3" s="199"/>
+      <c r="AF3" s="210">
         <f>AF2+532.4</f>
         <v>31245.4</v>
       </c>
@@ -4526,37 +4513,43 @@
       <c r="A4" s="10">
         <v>2008</v>
       </c>
-      <c r="B4" s="191">
+      <c r="B4" s="189">
         <f>SUM(C4:D4)</f>
         <v>27291.800000000003</v>
       </c>
-      <c r="C4" s="213">
-        <f t="shared" si="0"/>
+      <c r="C4" s="211">
+        <f t="shared" ref="C4:C15" si="3">AF4-(D4+L4)</f>
         <v>27291.800000000003</v>
       </c>
-      <c r="D4" s="185"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="214"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="191">
+      <c r="D4" s="183"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="189">
         <v>4486</v>
       </c>
-      <c r="M4" s="103"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="153"/>
+      <c r="M4" s="193">
+        <f>L4*0.78</f>
+        <v>3499.08</v>
+      </c>
+      <c r="N4" s="183">
+        <f>L4*0.22</f>
+        <v>986.92</v>
+      </c>
+      <c r="O4" s="151"/>
       <c r="P4" s="97"/>
       <c r="Q4" s="40"/>
       <c r="R4" s="40"/>
       <c r="S4" s="28">
+        <f t="shared" si="0"/>
+        <v>22805.800000000003</v>
+      </c>
+      <c r="T4" s="28">
         <f t="shared" si="1"/>
-        <v>22805.800000000003</v>
-      </c>
-      <c r="T4" s="28">
-        <f t="shared" si="2"/>
         <v>4486</v>
       </c>
       <c r="U4" s="12"/>
@@ -4586,8 +4579,8 @@
         <v>104.106708</v>
       </c>
       <c r="AD4" s="13"/>
-      <c r="AE4" s="201"/>
-      <c r="AF4" s="212">
+      <c r="AE4" s="199"/>
+      <c r="AF4" s="210">
         <f t="shared" ref="AF4:AF7" si="7">AF3+532.4</f>
         <v>31777.800000000003</v>
       </c>
@@ -4596,37 +4589,43 @@
       <c r="A5" s="10">
         <v>2009</v>
       </c>
-      <c r="B5" s="191">
+      <c r="B5" s="189">
         <f t="shared" ref="B5:B15" si="8">SUM(C5:D5)</f>
         <v>27545.200000000004</v>
       </c>
-      <c r="C5" s="213">
-        <f t="shared" si="0"/>
+      <c r="C5" s="211">
+        <f t="shared" si="3"/>
         <v>27545.200000000004</v>
       </c>
-      <c r="D5" s="185"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="214"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="191">
+      <c r="D5" s="183"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="212"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="189">
         <v>4765</v>
       </c>
-      <c r="M5" s="103"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="153"/>
+      <c r="M5" s="193">
+        <f t="shared" ref="M5:M14" si="9">L5*0.78</f>
+        <v>3716.7000000000003</v>
+      </c>
+      <c r="N5" s="183">
+        <f t="shared" ref="N5:N14" si="10">L5*0.22</f>
+        <v>1048.3</v>
+      </c>
+      <c r="O5" s="151"/>
       <c r="P5" s="97"/>
       <c r="Q5" s="40"/>
       <c r="R5" s="40"/>
       <c r="S5" s="28">
+        <f t="shared" si="0"/>
+        <v>22780.200000000004</v>
+      </c>
+      <c r="T5" s="28">
         <f t="shared" si="1"/>
-        <v>22780.200000000004</v>
-      </c>
-      <c r="T5" s="28">
-        <f t="shared" si="2"/>
         <v>4765</v>
       </c>
       <c r="U5" s="12"/>
@@ -4656,8 +4655,8 @@
         <v>167.11272000000002</v>
       </c>
       <c r="AD5" s="14"/>
-      <c r="AE5" s="201"/>
-      <c r="AF5" s="212">
+      <c r="AE5" s="199"/>
+      <c r="AF5" s="210">
         <f t="shared" si="7"/>
         <v>32310.200000000004</v>
       </c>
@@ -4666,30 +4665,36 @@
       <c r="A6" s="10">
         <v>2010</v>
       </c>
-      <c r="B6" s="191">
+      <c r="B6" s="189">
         <f t="shared" si="8"/>
         <v>27788.600000000006</v>
       </c>
-      <c r="C6" s="213">
-        <f t="shared" si="0"/>
+      <c r="C6" s="211">
+        <f t="shared" si="3"/>
         <v>26472.496600000006</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="184">
         <v>1316.1034</v>
       </c>
-      <c r="E6" s="122"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="214"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="191">
+      <c r="E6" s="120"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="212"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="189">
         <v>5054</v>
       </c>
-      <c r="M6" s="103"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="152"/>
+      <c r="M6" s="193">
+        <f t="shared" si="9"/>
+        <v>3942.1200000000003</v>
+      </c>
+      <c r="N6" s="183">
+        <f t="shared" si="10"/>
+        <v>1111.8800000000001</v>
+      </c>
+      <c r="O6" s="150"/>
       <c r="P6" s="97"/>
       <c r="Q6" s="40">
         <v>4.0273972602739724E-2</v>
@@ -4698,19 +4703,19 @@
         <v>4.3150684931506846E-2</v>
       </c>
       <c r="S6" s="28">
+        <f t="shared" si="0"/>
+        <v>22734.600000000006</v>
+      </c>
+      <c r="T6" s="28">
         <f t="shared" si="1"/>
-        <v>22734.600000000006</v>
-      </c>
-      <c r="T6" s="28">
-        <f t="shared" si="2"/>
         <v>5054</v>
       </c>
       <c r="U6" s="32">
-        <f t="shared" ref="U6:U12" si="9">ROUND(Q6*S6,0)</f>
+        <f t="shared" ref="U6:U12" si="11">ROUND(Q6*S6,0)</f>
         <v>916</v>
       </c>
       <c r="V6" s="32">
-        <f t="shared" ref="V6:V13" si="10">ROUND(R6*T6,0)</f>
+        <f t="shared" ref="V6:V13" si="12">ROUND(R6*T6,0)</f>
         <v>218</v>
       </c>
       <c r="W6" s="11">
@@ -4738,8 +4743,8 @@
         <v>198.50281199999998</v>
       </c>
       <c r="AD6" s="14"/>
-      <c r="AE6" s="201"/>
-      <c r="AF6" s="212">
+      <c r="AE6" s="199"/>
+      <c r="AF6" s="210">
         <f t="shared" si="7"/>
         <v>32842.600000000006</v>
       </c>
@@ -4748,30 +4753,36 @@
       <c r="A7" s="10">
         <v>2011</v>
       </c>
-      <c r="B7" s="191">
+      <c r="B7" s="189">
         <f>SUM(C7:D7)</f>
         <v>28074.000000000007</v>
       </c>
-      <c r="C7" s="213">
-        <f t="shared" si="0"/>
+      <c r="C7" s="211">
+        <f t="shared" si="3"/>
         <v>26900.372400000007</v>
       </c>
-      <c r="D7" s="186">
+      <c r="D7" s="184">
         <v>1173.6276</v>
       </c>
-      <c r="E7" s="122"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="215"/>
-      <c r="K7" s="216"/>
-      <c r="L7" s="191">
+      <c r="E7" s="120"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="213"/>
+      <c r="K7" s="214"/>
+      <c r="L7" s="189">
         <v>5301</v>
       </c>
-      <c r="M7" s="103"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="153"/>
+      <c r="M7" s="193">
+        <f t="shared" si="9"/>
+        <v>4134.78</v>
+      </c>
+      <c r="N7" s="183">
+        <f t="shared" si="10"/>
+        <v>1166.22</v>
+      </c>
+      <c r="O7" s="151"/>
       <c r="P7" s="97"/>
       <c r="Q7" s="40">
         <v>3.7534246575342468E-2</v>
@@ -4780,19 +4791,19 @@
         <v>4.726027397260274E-2</v>
       </c>
       <c r="S7" s="28">
+        <f t="shared" si="0"/>
+        <v>22773.000000000007</v>
+      </c>
+      <c r="T7" s="28">
         <f t="shared" si="1"/>
-        <v>22773.000000000007</v>
-      </c>
-      <c r="T7" s="28">
-        <f t="shared" si="2"/>
         <v>5301</v>
       </c>
       <c r="U7" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>855</v>
       </c>
       <c r="V7" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>251</v>
       </c>
       <c r="W7" s="11">
@@ -4820,10 +4831,10 @@
         <v>210.35878200000002</v>
       </c>
       <c r="AD7" s="14"/>
-      <c r="AE7" s="195">
+      <c r="AE7" s="193">
         <v>33375</v>
       </c>
-      <c r="AF7" s="212">
+      <c r="AF7" s="210">
         <f t="shared" si="7"/>
         <v>33375.000000000007</v>
       </c>
@@ -4832,36 +4843,50 @@
       <c r="A8" s="10">
         <v>2012</v>
       </c>
-      <c r="B8" s="191">
+      <c r="B8" s="189">
         <f t="shared" si="8"/>
         <v>28353.000000000007</v>
       </c>
-      <c r="C8" s="213">
-        <f t="shared" si="0"/>
+      <c r="C8" s="211">
+        <f t="shared" si="3"/>
         <v>27248.744400000007</v>
       </c>
-      <c r="D8" s="186">
+      <c r="D8" s="184">
         <v>1104.2556</v>
       </c>
-      <c r="E8" s="187">
+      <c r="E8" s="185">
         <v>206</v>
       </c>
-      <c r="F8" s="188">
+      <c r="F8" s="186">
         <v>172</v>
       </c>
-      <c r="G8" s="189">
+      <c r="G8" s="187">
         <v>34</v>
       </c>
-      <c r="H8" s="122"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="215"/>
-      <c r="K8" s="216"/>
-      <c r="L8" s="191">
+      <c r="H8" s="185">
+        <v>71</v>
+      </c>
+      <c r="I8" s="186">
+        <v>101</v>
+      </c>
+      <c r="J8" s="223">
+        <v>24</v>
+      </c>
+      <c r="K8" s="187">
+        <v>10</v>
+      </c>
+      <c r="L8" s="189">
         <v>5610</v>
       </c>
-      <c r="M8" s="103"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="152">
+      <c r="M8" s="193">
+        <f t="shared" si="9"/>
+        <v>4375.8</v>
+      </c>
+      <c r="N8" s="183">
+        <f t="shared" si="10"/>
+        <v>1234.2</v>
+      </c>
+      <c r="O8" s="150">
         <v>0.91200000000000003</v>
       </c>
       <c r="P8" s="97"/>
@@ -4872,19 +4897,19 @@
         <v>5.3835616438356167E-2</v>
       </c>
       <c r="S8" s="28">
+        <f t="shared" si="0"/>
+        <v>22743.000000000007</v>
+      </c>
+      <c r="T8" s="28">
         <f t="shared" si="1"/>
-        <v>22743.000000000007</v>
-      </c>
-      <c r="T8" s="28">
-        <f t="shared" si="2"/>
         <v>5610</v>
       </c>
       <c r="U8" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1109</v>
       </c>
       <c r="V8" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>302</v>
       </c>
       <c r="W8" s="11">
@@ -4912,8 +4937,8 @@
         <v>275.05850400000003</v>
       </c>
       <c r="AD8" s="14"/>
-      <c r="AE8" s="201"/>
-      <c r="AF8" s="201">
+      <c r="AE8" s="199"/>
+      <c r="AF8" s="199">
         <f>AF7+588</f>
         <v>33963.000000000007</v>
       </c>
@@ -4922,36 +4947,50 @@
       <c r="A9" s="10">
         <v>2013</v>
       </c>
-      <c r="B9" s="191">
+      <c r="B9" s="189">
         <f t="shared" si="8"/>
         <v>28657.000000000007</v>
       </c>
-      <c r="C9" s="213">
-        <f t="shared" si="0"/>
+      <c r="C9" s="211">
+        <f t="shared" si="3"/>
         <v>27511.205800000007</v>
       </c>
-      <c r="D9" s="186">
+      <c r="D9" s="184">
         <v>1145.7942</v>
       </c>
-      <c r="E9" s="187">
+      <c r="E9" s="185">
         <v>233</v>
       </c>
-      <c r="F9" s="188">
+      <c r="F9" s="186">
         <v>184</v>
       </c>
-      <c r="G9" s="189">
+      <c r="G9" s="187">
         <v>49</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="215"/>
-      <c r="K9" s="216"/>
-      <c r="L9" s="191">
+      <c r="H9" s="185">
+        <v>78</v>
+      </c>
+      <c r="I9" s="186">
+        <v>106</v>
+      </c>
+      <c r="J9" s="223">
+        <v>35</v>
+      </c>
+      <c r="K9" s="187">
+        <v>14</v>
+      </c>
+      <c r="L9" s="189">
         <v>5894</v>
       </c>
-      <c r="M9" s="103"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="152"/>
+      <c r="M9" s="193">
+        <f t="shared" si="9"/>
+        <v>4597.32</v>
+      </c>
+      <c r="N9" s="183">
+        <f t="shared" si="10"/>
+        <v>1296.68</v>
+      </c>
+      <c r="O9" s="150"/>
       <c r="P9" s="97"/>
       <c r="Q9" s="40">
         <v>5.2876712328767124E-2</v>
@@ -4960,19 +4999,19 @@
         <v>6.2671232876712321E-2</v>
       </c>
       <c r="S9" s="28">
+        <f t="shared" si="0"/>
+        <v>22763.000000000007</v>
+      </c>
+      <c r="T9" s="28">
         <f t="shared" si="1"/>
-        <v>22763.000000000007</v>
-      </c>
-      <c r="T9" s="28">
-        <f t="shared" si="2"/>
         <v>5894</v>
       </c>
       <c r="U9" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1204</v>
       </c>
       <c r="V9" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>369</v>
       </c>
       <c r="W9" s="11">
@@ -5000,9 +5039,9 @@
         <v>336.25789200000003</v>
       </c>
       <c r="AD9" s="14"/>
-      <c r="AE9" s="201"/>
-      <c r="AF9" s="201">
-        <f t="shared" ref="AF9:AF15" si="11">AF8+588</f>
+      <c r="AE9" s="199"/>
+      <c r="AF9" s="199">
+        <f t="shared" ref="AF9:AF15" si="13">AF8+588</f>
         <v>34551.000000000007</v>
       </c>
     </row>
@@ -5010,36 +5049,50 @@
       <c r="A10" s="10">
         <v>2014</v>
       </c>
-      <c r="B10" s="191">
+      <c r="B10" s="189">
         <f t="shared" si="8"/>
         <v>28939.000000000007</v>
       </c>
-      <c r="C10" s="213">
-        <f t="shared" si="0"/>
+      <c r="C10" s="211">
+        <f t="shared" si="3"/>
         <v>27635.934400000006</v>
       </c>
-      <c r="D10" s="186">
+      <c r="D10" s="184">
         <v>1303.0656000000001</v>
       </c>
-      <c r="E10" s="187">
+      <c r="E10" s="185">
         <v>235</v>
       </c>
-      <c r="F10" s="188">
+      <c r="F10" s="186">
         <v>200</v>
       </c>
-      <c r="G10" s="189">
+      <c r="G10" s="187">
         <v>35</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="215"/>
-      <c r="K10" s="216"/>
-      <c r="L10" s="191">
+      <c r="H10" s="185">
+        <v>67</v>
+      </c>
+      <c r="I10" s="186">
+        <v>133</v>
+      </c>
+      <c r="J10" s="223">
+        <v>10</v>
+      </c>
+      <c r="K10" s="187">
+        <v>25</v>
+      </c>
+      <c r="L10" s="189">
         <v>6200</v>
       </c>
-      <c r="M10" s="103"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="152">
+      <c r="M10" s="193">
+        <f t="shared" si="9"/>
+        <v>4836</v>
+      </c>
+      <c r="N10" s="183">
+        <f t="shared" si="10"/>
+        <v>1364</v>
+      </c>
+      <c r="O10" s="150">
         <v>0.88</v>
       </c>
       <c r="P10" s="97"/>
@@ -5050,19 +5103,19 @@
         <v>5.321917808219178E-2</v>
       </c>
       <c r="S10" s="28">
+        <f t="shared" si="0"/>
+        <v>22739.000000000007</v>
+      </c>
+      <c r="T10" s="28">
         <f t="shared" si="1"/>
-        <v>22739.000000000007</v>
-      </c>
-      <c r="T10" s="28">
-        <f t="shared" si="2"/>
         <v>6200</v>
       </c>
       <c r="U10" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1171</v>
       </c>
       <c r="V10" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>330</v>
       </c>
       <c r="W10" s="11">
@@ -5090,9 +5143,9 @@
         <v>369.11586600000004</v>
       </c>
       <c r="AD10" s="14"/>
-      <c r="AE10" s="201"/>
-      <c r="AF10" s="201">
-        <f t="shared" si="11"/>
+      <c r="AE10" s="199"/>
+      <c r="AF10" s="199">
+        <f t="shared" si="13"/>
         <v>35139.000000000007</v>
       </c>
     </row>
@@ -5100,36 +5153,50 @@
       <c r="A11" s="10">
         <v>2015</v>
       </c>
-      <c r="B11" s="191">
+      <c r="B11" s="189">
         <f t="shared" si="8"/>
         <v>29178.000000000007</v>
       </c>
-      <c r="C11" s="213">
-        <f t="shared" si="0"/>
+      <c r="C11" s="211">
+        <f t="shared" si="3"/>
         <v>27722.579200000007</v>
       </c>
-      <c r="D11" s="186">
+      <c r="D11" s="184">
         <v>1455.4208000000001</v>
       </c>
-      <c r="E11" s="187">
+      <c r="E11" s="185">
         <v>218</v>
       </c>
-      <c r="F11" s="188">
+      <c r="F11" s="186">
         <v>177</v>
       </c>
-      <c r="G11" s="189">
+      <c r="G11" s="187">
         <v>41</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="215"/>
-      <c r="K11" s="216"/>
-      <c r="L11" s="191">
+      <c r="H11" s="185">
+        <v>62</v>
+      </c>
+      <c r="I11" s="186">
+        <v>115</v>
+      </c>
+      <c r="J11" s="223">
+        <v>18</v>
+      </c>
+      <c r="K11" s="187">
+        <v>23</v>
+      </c>
+      <c r="L11" s="189">
         <v>6549</v>
       </c>
-      <c r="M11" s="103"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="152">
+      <c r="M11" s="193">
+        <f t="shared" si="9"/>
+        <v>5108.22</v>
+      </c>
+      <c r="N11" s="183">
+        <f t="shared" si="10"/>
+        <v>1440.78</v>
+      </c>
+      <c r="O11" s="150">
         <v>0.88</v>
       </c>
       <c r="P11" s="97"/>
@@ -5140,19 +5207,19 @@
         <v>6.7191780821917804E-2</v>
       </c>
       <c r="S11" s="28">
+        <f t="shared" si="0"/>
+        <v>22629.000000000007</v>
+      </c>
+      <c r="T11" s="28">
         <f t="shared" si="1"/>
-        <v>22629.000000000007</v>
-      </c>
-      <c r="T11" s="28">
-        <f t="shared" si="2"/>
         <v>6549</v>
       </c>
       <c r="U11" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1507</v>
       </c>
       <c r="V11" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>440</v>
       </c>
       <c r="W11" s="11">
@@ -5180,9 +5247,9 @@
         <v>549.32661000000007</v>
       </c>
       <c r="AD11" s="14"/>
-      <c r="AE11" s="201"/>
-      <c r="AF11" s="201">
-        <f t="shared" si="11"/>
+      <c r="AE11" s="199"/>
+      <c r="AF11" s="199">
+        <f t="shared" si="13"/>
         <v>35727.000000000007</v>
       </c>
     </row>
@@ -5190,36 +5257,50 @@
       <c r="A12" s="10">
         <v>2016</v>
       </c>
-      <c r="B12" s="191">
+      <c r="B12" s="189">
         <f>SUM(C12:D12)</f>
         <v>29456.000000000007</v>
       </c>
-      <c r="C12" s="213">
-        <f t="shared" si="0"/>
+      <c r="C12" s="211">
+        <f t="shared" si="3"/>
         <v>27809.524200000007</v>
       </c>
-      <c r="D12" s="186">
+      <c r="D12" s="184">
         <v>1646.4758000000002</v>
       </c>
-      <c r="E12" s="187">
+      <c r="E12" s="185">
         <v>244</v>
       </c>
-      <c r="F12" s="188">
+      <c r="F12" s="186">
         <v>180</v>
       </c>
-      <c r="G12" s="189">
+      <c r="G12" s="187">
         <v>64</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="215"/>
-      <c r="K12" s="216"/>
-      <c r="L12" s="191">
+      <c r="H12" s="185">
+        <v>78</v>
+      </c>
+      <c r="I12" s="186">
+        <v>102</v>
+      </c>
+      <c r="J12" s="223">
+        <v>32</v>
+      </c>
+      <c r="K12" s="187">
+        <v>32</v>
+      </c>
+      <c r="L12" s="189">
         <v>6859</v>
       </c>
-      <c r="M12" s="103"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="152">
+      <c r="M12" s="193">
+        <f t="shared" si="9"/>
+        <v>5350.02</v>
+      </c>
+      <c r="N12" s="183">
+        <f t="shared" si="10"/>
+        <v>1508.98</v>
+      </c>
+      <c r="O12" s="150">
         <v>0.89</v>
       </c>
       <c r="P12" s="97"/>
@@ -5230,19 +5311,19 @@
         <v>6.9246575342465755E-2</v>
       </c>
       <c r="S12" s="28">
+        <f t="shared" si="0"/>
+        <v>22597.000000000007</v>
+      </c>
+      <c r="T12" s="28">
         <f t="shared" si="1"/>
-        <v>22597.000000000007</v>
-      </c>
-      <c r="T12" s="28">
-        <f t="shared" si="2"/>
         <v>6859</v>
       </c>
       <c r="U12" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1430</v>
       </c>
       <c r="V12" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>475</v>
       </c>
       <c r="W12" s="11">
@@ -5272,11 +5353,11 @@
       <c r="AD12" s="42">
         <v>0.18</v>
       </c>
-      <c r="AE12" s="195">
+      <c r="AE12" s="193">
         <v>36315</v>
       </c>
-      <c r="AF12" s="201">
-        <f t="shared" si="11"/>
+      <c r="AF12" s="199">
+        <f t="shared" si="13"/>
         <v>36315.000000000007</v>
       </c>
     </row>
@@ -5284,36 +5365,50 @@
       <c r="A13" s="10">
         <v>2017</v>
       </c>
-      <c r="B13" s="191">
+      <c r="B13" s="189">
         <f t="shared" si="8"/>
         <v>29684.000000000011</v>
       </c>
-      <c r="C13" s="213">
-        <f t="shared" si="0"/>
+      <c r="C13" s="211">
+        <f t="shared" si="3"/>
         <v>27801.781600000009</v>
       </c>
-      <c r="D13" s="186">
+      <c r="D13" s="184">
         <v>1882.2184</v>
       </c>
-      <c r="E13" s="187">
+      <c r="E13" s="185">
         <v>207</v>
       </c>
-      <c r="F13" s="188">
+      <c r="F13" s="186">
         <v>147</v>
       </c>
-      <c r="G13" s="189">
+      <c r="G13" s="187">
         <v>60</v>
       </c>
-      <c r="H13" s="122"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="215"/>
-      <c r="K13" s="216"/>
-      <c r="L13" s="191">
+      <c r="H13" s="185">
+        <v>73</v>
+      </c>
+      <c r="I13" s="186">
+        <v>74</v>
+      </c>
+      <c r="J13" s="223">
+        <v>33</v>
+      </c>
+      <c r="K13" s="187">
+        <v>27</v>
+      </c>
+      <c r="L13" s="189">
         <v>7219</v>
       </c>
-      <c r="M13" s="103"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="153">
+      <c r="M13" s="193">
+        <f t="shared" si="9"/>
+        <v>5630.8200000000006</v>
+      </c>
+      <c r="N13" s="183">
+        <f t="shared" si="10"/>
+        <v>1588.18</v>
+      </c>
+      <c r="O13" s="151">
         <v>0.9</v>
       </c>
       <c r="P13" s="97"/>
@@ -5325,16 +5420,16 @@
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="S13" s="28">
+        <f t="shared" si="0"/>
+        <v>22465.000000000011</v>
+      </c>
+      <c r="T13" s="28">
         <f t="shared" si="1"/>
-        <v>22465.000000000011</v>
-      </c>
-      <c r="T13" s="28">
-        <f t="shared" si="2"/>
         <v>7219</v>
       </c>
       <c r="U13" s="12"/>
       <c r="V13" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>337</v>
       </c>
       <c r="W13" s="11">
@@ -5361,8 +5456,8 @@
         <f t="shared" si="6"/>
         <v>413.28630000000004</v>
       </c>
-      <c r="AE13" s="201"/>
-      <c r="AF13" s="201">
+      <c r="AE13" s="199"/>
+      <c r="AF13" s="199">
         <f>AF12+588</f>
         <v>36903.000000000007</v>
       </c>
@@ -5371,89 +5466,103 @@
       <c r="A14" s="10">
         <v>2018</v>
       </c>
-      <c r="B14" s="191">
+      <c r="B14" s="189">
         <f t="shared" si="8"/>
         <v>29987.000000000007</v>
       </c>
-      <c r="C14" s="213">
-        <f t="shared" si="0"/>
+      <c r="C14" s="211">
+        <f t="shared" si="3"/>
         <v>27854.027200000008</v>
       </c>
-      <c r="D14" s="186">
+      <c r="D14" s="184">
         <v>2132.9728</v>
       </c>
-      <c r="E14" s="187">
+      <c r="E14" s="185">
         <v>174</v>
       </c>
-      <c r="F14" s="188">
+      <c r="F14" s="186">
         <v>120</v>
       </c>
-      <c r="G14" s="190">
+      <c r="G14" s="188">
         <v>54</v>
       </c>
-      <c r="H14" s="122"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="191">
+      <c r="H14" s="185">
+        <v>60</v>
+      </c>
+      <c r="I14" s="186">
+        <v>60</v>
+      </c>
+      <c r="J14" s="186">
+        <v>35</v>
+      </c>
+      <c r="K14" s="188">
+        <v>19</v>
+      </c>
+      <c r="L14" s="189">
         <v>7504</v>
       </c>
-      <c r="M14" s="109"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="152">
+      <c r="M14" s="193">
+        <f t="shared" si="9"/>
+        <v>5853.12</v>
+      </c>
+      <c r="N14" s="183">
+        <f t="shared" si="10"/>
+        <v>1650.88</v>
+      </c>
+      <c r="O14" s="150">
         <v>0.9</v>
       </c>
-      <c r="P14" s="126"/>
+      <c r="P14" s="124"/>
       <c r="T14" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7504</v>
       </c>
-      <c r="AE14" s="200"/>
-      <c r="AF14" s="201">
-        <f t="shared" si="11"/>
+      <c r="AE14" s="198"/>
+      <c r="AF14" s="199">
+        <f t="shared" si="13"/>
         <v>37491.000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="123">
+      <c r="A15" s="121">
         <v>2019</v>
       </c>
-      <c r="B15" s="191">
+      <c r="B15" s="189">
         <f t="shared" si="8"/>
         <v>38079.000000000007</v>
       </c>
-      <c r="C15" s="213">
-        <f t="shared" si="0"/>
+      <c r="C15" s="211">
+        <f t="shared" si="3"/>
         <v>35727.806200000006</v>
       </c>
-      <c r="D15" s="186">
+      <c r="D15" s="184">
         <v>2351.1938</v>
       </c>
-      <c r="E15" s="122"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="110"/>
-      <c r="O15" s="154"/>
-      <c r="P15" s="126"/>
-      <c r="AE15" s="201"/>
-      <c r="AF15" s="201">
-        <f t="shared" si="11"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="152"/>
+      <c r="P15" s="124"/>
+      <c r="AE15" s="199"/>
+      <c r="AF15" s="199">
+        <f t="shared" si="13"/>
         <v>38079.000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G16" s="10"/>
-      <c r="H16" s="217"/>
-      <c r="I16" s="217"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="S16" s="127"/>
+      <c r="H16" s="215"/>
+      <c r="I16" s="215"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="S16" s="125"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
@@ -5545,195 +5654,195 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="128"/>
-      <c r="B1" s="129" t="s">
+      <c r="A1" s="126"/>
+      <c r="B1" s="127" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="130" t="s">
+      <c r="C1" s="128" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="130" t="s">
+      <c r="D1" s="128" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="144" t="s">
+      <c r="E1" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="130" t="s">
+      <c r="F1" s="128" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="131" t="s">
+      <c r="G1" s="129" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="130" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="133">
+      <c r="B2" s="131">
         <v>1</v>
       </c>
-      <c r="C2" s="134">
+      <c r="C2" s="132">
         <v>1</v>
       </c>
-      <c r="D2" s="134">
+      <c r="D2" s="132">
         <v>1</v>
       </c>
-      <c r="E2" s="149">
+      <c r="E2" s="147">
         <v>1</v>
       </c>
-      <c r="F2" s="134">
+      <c r="F2" s="132">
         <v>1</v>
       </c>
-      <c r="G2" s="135">
+      <c r="G2" s="133">
         <v>1</v>
       </c>
-      <c r="I2" s="225" t="s">
+      <c r="I2" s="224" t="s">
         <v>113</v>
       </c>
-      <c r="J2" s="225"/>
-      <c r="K2" s="225"/>
-      <c r="L2" s="225"/>
-      <c r="M2" s="225"/>
-      <c r="N2" s="225"/>
-      <c r="O2" s="225"/>
-      <c r="P2" s="225"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="M2" s="224"/>
+      <c r="N2" s="224"/>
+      <c r="O2" s="224"/>
+      <c r="P2" s="224"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="134" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="137">
+      <c r="B3" s="135">
         <v>1</v>
       </c>
-      <c r="C3" s="138">
+      <c r="C3" s="136">
         <v>1</v>
       </c>
-      <c r="D3" s="138">
+      <c r="D3" s="136">
         <v>1</v>
       </c>
-      <c r="E3" s="147">
+      <c r="E3" s="145">
         <v>1</v>
       </c>
-      <c r="F3" s="138">
+      <c r="F3" s="136">
         <v>1</v>
       </c>
-      <c r="G3" s="139">
+      <c r="G3" s="137">
         <v>1</v>
       </c>
-      <c r="I3" s="225"/>
-      <c r="J3" s="225"/>
-      <c r="K3" s="225"/>
-      <c r="L3" s="225"/>
-      <c r="M3" s="225"/>
-      <c r="N3" s="225"/>
-      <c r="O3" s="225"/>
-      <c r="P3" s="225"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="224"/>
+      <c r="N3" s="224"/>
+      <c r="O3" s="224"/>
+      <c r="P3" s="224"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="136" t="s">
+      <c r="A4" s="134" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="137">
+      <c r="B4" s="135">
         <v>1</v>
       </c>
-      <c r="C4" s="138">
+      <c r="C4" s="136">
         <v>1</v>
       </c>
-      <c r="D4" s="138">
+      <c r="D4" s="136">
         <v>1</v>
       </c>
-      <c r="E4" s="147">
+      <c r="E4" s="145">
         <v>1</v>
       </c>
-      <c r="F4" s="138">
+      <c r="F4" s="136">
         <v>1</v>
       </c>
-      <c r="G4" s="139">
+      <c r="G4" s="137">
         <v>1</v>
       </c>
-      <c r="I4" s="225"/>
-      <c r="J4" s="225"/>
-      <c r="K4" s="225"/>
-      <c r="L4" s="225"/>
-      <c r="M4" s="225"/>
-      <c r="N4" s="225"/>
-      <c r="O4" s="225"/>
-      <c r="P4" s="225"/>
+      <c r="I4" s="224"/>
+      <c r="J4" s="224"/>
+      <c r="K4" s="224"/>
+      <c r="L4" s="224"/>
+      <c r="M4" s="224"/>
+      <c r="N4" s="224"/>
+      <c r="O4" s="224"/>
+      <c r="P4" s="224"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="143" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="146">
+      <c r="B5" s="144">
         <v>1</v>
       </c>
-      <c r="C5" s="147">
+      <c r="C5" s="145">
         <v>1</v>
       </c>
-      <c r="D5" s="147">
+      <c r="D5" s="145">
         <v>1</v>
       </c>
-      <c r="E5" s="147">
+      <c r="E5" s="145">
         <v>1</v>
       </c>
-      <c r="F5" s="147">
+      <c r="F5" s="145">
         <v>1</v>
       </c>
-      <c r="G5" s="148">
+      <c r="G5" s="146">
         <v>1</v>
       </c>
-      <c r="I5" s="225"/>
-      <c r="J5" s="225"/>
-      <c r="K5" s="225"/>
-      <c r="L5" s="225"/>
-      <c r="M5" s="225"/>
-      <c r="N5" s="225"/>
-      <c r="O5" s="225"/>
-      <c r="P5" s="225"/>
+      <c r="I5" s="224"/>
+      <c r="J5" s="224"/>
+      <c r="K5" s="224"/>
+      <c r="L5" s="224"/>
+      <c r="M5" s="224"/>
+      <c r="N5" s="224"/>
+      <c r="O5" s="224"/>
+      <c r="P5" s="224"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="136" t="s">
+      <c r="A6" s="134" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="137">
+      <c r="B6" s="135">
         <v>1</v>
       </c>
-      <c r="C6" s="138">
+      <c r="C6" s="136">
         <v>1</v>
       </c>
-      <c r="D6" s="138">
+      <c r="D6" s="136">
         <v>1</v>
       </c>
-      <c r="E6" s="147">
+      <c r="E6" s="145">
         <v>1</v>
       </c>
-      <c r="F6" s="138">
+      <c r="F6" s="136">
         <v>1</v>
       </c>
-      <c r="G6" s="139">
+      <c r="G6" s="137">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="140" t="s">
+      <c r="A7" s="138" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="141">
+      <c r="B7" s="139">
         <v>1</v>
       </c>
-      <c r="C7" s="142">
+      <c r="C7" s="140">
         <v>1</v>
       </c>
-      <c r="D7" s="142">
+      <c r="D7" s="140">
         <v>1</v>
       </c>
-      <c r="E7" s="150">
+      <c r="E7" s="148">
         <v>1</v>
       </c>
-      <c r="F7" s="142">
+      <c r="F7" s="140">
         <v>1</v>
       </c>
-      <c r="G7" s="143">
+      <c r="G7" s="141">
         <v>1</v>
       </c>
     </row>
@@ -5750,8 +5859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5804,16 +5913,16 @@
       <c r="G1" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="165" t="s">
+      <c r="H1" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="166" t="s">
+      <c r="I1" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="165" t="s">
+      <c r="J1" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="166" t="s">
+      <c r="K1" s="164" t="s">
         <v>69</v>
       </c>
       <c r="L1" s="68" t="s">
@@ -5822,16 +5931,16 @@
       <c r="M1" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="165" t="s">
+      <c r="N1" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="166" t="s">
+      <c r="O1" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="165" t="s">
+      <c r="P1" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="166" t="s">
+      <c r="Q1" s="164" t="s">
         <v>69</v>
       </c>
       <c r="R1" s="68" t="s">
@@ -5865,16 +5974,16 @@
       <c r="G2" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="167" t="s">
+      <c r="H2" s="165" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="168" t="s">
+      <c r="I2" s="166" t="s">
         <v>126</v>
       </c>
-      <c r="J2" s="167" t="s">
+      <c r="J2" s="165" t="s">
         <v>127</v>
       </c>
-      <c r="K2" s="168" t="s">
+      <c r="K2" s="166" t="s">
         <v>128</v>
       </c>
       <c r="L2" s="71" t="s">
@@ -5883,16 +5992,16 @@
       <c r="M2" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="N2" s="167" t="s">
+      <c r="N2" s="165" t="s">
         <v>125</v>
       </c>
-      <c r="O2" s="168" t="s">
+      <c r="O2" s="166" t="s">
         <v>126</v>
       </c>
-      <c r="P2" s="167" t="s">
+      <c r="P2" s="165" t="s">
         <v>127</v>
       </c>
-      <c r="Q2" s="168" t="s">
+      <c r="Q2" s="166" t="s">
         <v>128</v>
       </c>
       <c r="R2" s="71" t="s">
@@ -5935,22 +6044,22 @@
       <c r="L3" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="221" t="s">
+      <c r="M3" s="219" t="s">
         <v>98</v>
       </c>
-      <c r="N3" s="222" t="s">
+      <c r="N3" s="220" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="223" t="s">
+      <c r="O3" s="221" t="s">
         <v>98</v>
       </c>
-      <c r="P3" s="222" t="s">
+      <c r="P3" s="220" t="s">
         <v>98</v>
       </c>
-      <c r="Q3" s="223" t="s">
+      <c r="Q3" s="221" t="s">
         <v>98</v>
       </c>
-      <c r="R3" s="224" t="s">
+      <c r="R3" s="222" t="s">
         <v>98</v>
       </c>
       <c r="S3" s="70" t="s">
@@ -5977,7 +6086,9 @@
       <c r="C4" s="29">
         <v>0.97</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="74">
+        <v>0</v>
+      </c>
       <c r="E4" s="74">
         <v>0</v>
       </c>
@@ -5985,20 +6096,20 @@
         <v>0.7</v>
       </c>
       <c r="G4" s="72"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="170">
+      <c r="H4" s="167"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="168">
         <v>0.25</v>
       </c>
       <c r="L4" s="74">
         <v>0.25</v>
       </c>
       <c r="M4" s="72"/>
-      <c r="N4" s="169"/>
-      <c r="O4" s="170"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="170">
+      <c r="N4" s="167"/>
+      <c r="O4" s="168"/>
+      <c r="P4" s="167"/>
+      <c r="Q4" s="168">
         <v>0.25</v>
       </c>
       <c r="R4" s="74">
@@ -6026,16 +6137,16 @@
       <c r="E5" s="77"/>
       <c r="F5" s="62"/>
       <c r="G5" s="75"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="172"/>
-      <c r="J5" s="171"/>
-      <c r="K5" s="172"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="170"/>
       <c r="L5" s="77"/>
       <c r="M5" s="75"/>
-      <c r="N5" s="171"/>
-      <c r="O5" s="172"/>
-      <c r="P5" s="171"/>
-      <c r="Q5" s="172"/>
+      <c r="N5" s="169"/>
+      <c r="O5" s="170"/>
+      <c r="P5" s="169"/>
+      <c r="Q5" s="170"/>
       <c r="R5" s="77"/>
       <c r="S5" s="76"/>
       <c r="T5" s="77"/>
@@ -6053,16 +6164,16 @@
       <c r="E6" s="77"/>
       <c r="F6" s="62"/>
       <c r="G6" s="75"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="172"/>
-      <c r="J6" s="171"/>
-      <c r="K6" s="172"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="170"/>
       <c r="L6" s="77"/>
       <c r="M6" s="75"/>
-      <c r="N6" s="171"/>
-      <c r="O6" s="172"/>
-      <c r="P6" s="171"/>
-      <c r="Q6" s="172"/>
+      <c r="N6" s="169"/>
+      <c r="O6" s="170"/>
+      <c r="P6" s="169"/>
+      <c r="Q6" s="170"/>
       <c r="R6" s="77"/>
       <c r="S6" s="76"/>
       <c r="T6" s="77"/>
@@ -6074,7 +6185,7 @@
       <c r="A7" s="31">
         <v>2003</v>
       </c>
-      <c r="B7" s="193">
+      <c r="B7" s="191">
         <v>0.26</v>
       </c>
       <c r="C7" s="44"/>
@@ -6082,16 +6193,16 @@
       <c r="E7" s="77"/>
       <c r="F7" s="62"/>
       <c r="G7" s="75"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="171"/>
-      <c r="K7" s="172"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="170"/>
       <c r="L7" s="77"/>
       <c r="M7" s="75"/>
-      <c r="N7" s="171"/>
-      <c r="O7" s="172"/>
-      <c r="P7" s="171"/>
-      <c r="Q7" s="172"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="169"/>
+      <c r="Q7" s="170"/>
       <c r="R7" s="77"/>
       <c r="S7" s="76"/>
       <c r="T7" s="77"/>
@@ -6103,7 +6214,7 @@
       <c r="A8" s="31">
         <v>2004</v>
       </c>
-      <c r="B8" s="193">
+      <c r="B8" s="191">
         <v>0.24</v>
       </c>
       <c r="C8" s="44"/>
@@ -6111,16 +6222,16 @@
       <c r="E8" s="77"/>
       <c r="F8" s="62"/>
       <c r="G8" s="75"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="171"/>
-      <c r="K8" s="172"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="169"/>
+      <c r="K8" s="170"/>
       <c r="L8" s="77"/>
       <c r="M8" s="75"/>
-      <c r="N8" s="171"/>
-      <c r="O8" s="172"/>
-      <c r="P8" s="171"/>
-      <c r="Q8" s="172"/>
+      <c r="N8" s="169"/>
+      <c r="O8" s="170"/>
+      <c r="P8" s="169"/>
+      <c r="Q8" s="170"/>
       <c r="R8" s="77"/>
       <c r="S8" s="76"/>
       <c r="T8" s="77"/>
@@ -6132,7 +6243,7 @@
       <c r="A9" s="31">
         <v>2005</v>
       </c>
-      <c r="B9" s="193">
+      <c r="B9" s="191">
         <v>0.28000000000000003</v>
       </c>
       <c r="C9" s="44"/>
@@ -6140,16 +6251,16 @@
       <c r="E9" s="77"/>
       <c r="F9" s="62"/>
       <c r="G9" s="75"/>
-      <c r="H9" s="171"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="171"/>
-      <c r="K9" s="172"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="170"/>
       <c r="L9" s="77"/>
       <c r="M9" s="75"/>
-      <c r="N9" s="171"/>
-      <c r="O9" s="172"/>
-      <c r="P9" s="171"/>
-      <c r="Q9" s="172"/>
+      <c r="N9" s="169"/>
+      <c r="O9" s="170"/>
+      <c r="P9" s="169"/>
+      <c r="Q9" s="170"/>
       <c r="R9" s="77"/>
       <c r="S9" s="76"/>
       <c r="T9" s="77"/>
@@ -6161,7 +6272,7 @@
       <c r="A10" s="31">
         <v>2006</v>
       </c>
-      <c r="B10" s="193">
+      <c r="B10" s="191">
         <v>0.26</v>
       </c>
       <c r="C10" s="44"/>
@@ -6169,16 +6280,16 @@
       <c r="E10" s="77"/>
       <c r="F10" s="62"/>
       <c r="G10" s="75"/>
-      <c r="H10" s="171"/>
-      <c r="I10" s="172"/>
-      <c r="J10" s="171"/>
-      <c r="K10" s="172"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="170"/>
       <c r="L10" s="77"/>
       <c r="M10" s="75"/>
-      <c r="N10" s="171"/>
-      <c r="O10" s="172"/>
-      <c r="P10" s="171"/>
-      <c r="Q10" s="172"/>
+      <c r="N10" s="169"/>
+      <c r="O10" s="170"/>
+      <c r="P10" s="169"/>
+      <c r="Q10" s="170"/>
       <c r="R10" s="77"/>
       <c r="S10" s="76"/>
       <c r="T10" s="77"/>
@@ -6190,7 +6301,7 @@
       <c r="A11" s="31">
         <v>2007</v>
       </c>
-      <c r="B11" s="193">
+      <c r="B11" s="191">
         <v>0.26</v>
       </c>
       <c r="C11" s="44"/>
@@ -6198,16 +6309,16 @@
       <c r="E11" s="77"/>
       <c r="F11" s="62"/>
       <c r="G11" s="75"/>
-      <c r="H11" s="171"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="171"/>
-      <c r="K11" s="172"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="170"/>
       <c r="L11" s="77"/>
       <c r="M11" s="75"/>
-      <c r="N11" s="171"/>
-      <c r="O11" s="172"/>
-      <c r="P11" s="171"/>
-      <c r="Q11" s="172"/>
+      <c r="N11" s="169"/>
+      <c r="O11" s="170"/>
+      <c r="P11" s="169"/>
+      <c r="Q11" s="170"/>
       <c r="R11" s="77"/>
       <c r="S11" s="76">
         <v>0.75</v>
@@ -6223,7 +6334,7 @@
       <c r="A12" s="31">
         <v>2008</v>
       </c>
-      <c r="B12" s="193">
+      <c r="B12" s="191">
         <v>0.27</v>
       </c>
       <c r="C12" s="44"/>
@@ -6231,16 +6342,16 @@
       <c r="E12" s="77"/>
       <c r="F12" s="62"/>
       <c r="G12" s="75"/>
-      <c r="H12" s="171"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="171"/>
-      <c r="K12" s="172"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="169"/>
+      <c r="K12" s="170"/>
       <c r="L12" s="77"/>
       <c r="M12" s="75"/>
-      <c r="N12" s="171"/>
-      <c r="O12" s="172"/>
-      <c r="P12" s="171"/>
-      <c r="Q12" s="172"/>
+      <c r="N12" s="169"/>
+      <c r="O12" s="170"/>
+      <c r="P12" s="169"/>
+      <c r="Q12" s="170"/>
       <c r="R12" s="77"/>
       <c r="S12" s="76"/>
       <c r="T12" s="77"/>
@@ -6252,26 +6363,26 @@
       <c r="A13" s="31">
         <v>2009</v>
       </c>
-      <c r="B13" s="193">
+      <c r="B13" s="191">
         <v>0.28999999999999998</v>
       </c>
       <c r="C13" s="44"/>
-      <c r="D13" s="192">
+      <c r="D13" s="190">
         <v>0</v>
       </c>
       <c r="F13" s="62"/>
       <c r="G13" s="75"/>
-      <c r="H13" s="171"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="171"/>
-      <c r="K13" s="172"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="169"/>
+      <c r="K13" s="170"/>
       <c r="L13" s="77"/>
       <c r="M13" s="75"/>
-      <c r="N13" s="171"/>
-      <c r="O13" s="172"/>
-      <c r="P13" s="171"/>
-      <c r="Q13" s="218"/>
-      <c r="R13" s="219"/>
+      <c r="N13" s="169"/>
+      <c r="O13" s="170"/>
+      <c r="P13" s="169"/>
+      <c r="Q13" s="216"/>
+      <c r="R13" s="217"/>
       <c r="S13" s="76"/>
       <c r="T13" s="77"/>
       <c r="U13" s="75"/>
@@ -6282,26 +6393,26 @@
       <c r="A14" s="31">
         <v>2010</v>
       </c>
-      <c r="B14" s="193">
+      <c r="B14" s="191">
         <v>0.32</v>
       </c>
       <c r="C14" s="44"/>
-      <c r="D14" s="192">
+      <c r="D14" s="190">
         <v>0</v>
       </c>
       <c r="F14" s="62"/>
       <c r="G14" s="75"/>
-      <c r="H14" s="171"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="171"/>
-      <c r="K14" s="218"/>
-      <c r="L14" s="219"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="216"/>
+      <c r="L14" s="217"/>
       <c r="M14" s="75"/>
-      <c r="N14" s="171"/>
-      <c r="O14" s="172"/>
-      <c r="P14" s="171"/>
-      <c r="Q14" s="218"/>
-      <c r="R14" s="219"/>
+      <c r="N14" s="169"/>
+      <c r="O14" s="170"/>
+      <c r="P14" s="169"/>
+      <c r="Q14" s="216"/>
+      <c r="R14" s="217"/>
       <c r="S14" s="76">
         <v>0.75</v>
       </c>
@@ -6316,26 +6427,26 @@
       <c r="A15" s="31">
         <v>2011</v>
       </c>
-      <c r="B15" s="193">
+      <c r="B15" s="191">
         <v>0.31</v>
       </c>
       <c r="C15" s="44"/>
-      <c r="D15" s="192">
+      <c r="D15" s="190">
         <v>0</v>
       </c>
       <c r="F15" s="62"/>
       <c r="G15" s="75"/>
-      <c r="H15" s="171"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="171"/>
-      <c r="K15" s="218"/>
-      <c r="L15" s="219"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="169"/>
+      <c r="K15" s="216"/>
+      <c r="L15" s="217"/>
       <c r="M15" s="75"/>
-      <c r="N15" s="171"/>
-      <c r="O15" s="172"/>
-      <c r="P15" s="171"/>
-      <c r="Q15" s="218"/>
-      <c r="R15" s="219"/>
+      <c r="N15" s="169"/>
+      <c r="O15" s="170"/>
+      <c r="P15" s="169"/>
+      <c r="Q15" s="216"/>
+      <c r="R15" s="217"/>
       <c r="S15" s="76"/>
       <c r="T15" s="77"/>
       <c r="U15" s="75"/>
@@ -6346,41 +6457,41 @@
       <c r="A16" s="31">
         <v>2012</v>
       </c>
-      <c r="B16" s="193">
+      <c r="B16" s="191">
         <v>0.28000000000000003</v>
       </c>
       <c r="C16" s="44"/>
-      <c r="D16" s="192">
+      <c r="D16" s="190">
         <v>0</v>
       </c>
       <c r="F16" s="62"/>
-      <c r="G16" s="196">
+      <c r="G16" s="194">
         <v>0.6</v>
       </c>
-      <c r="H16" s="197">
+      <c r="H16" s="195">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I16" s="198">
+      <c r="I16" s="196">
         <v>0.6</v>
       </c>
-      <c r="J16" s="197">
+      <c r="J16" s="195">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K16" s="218"/>
-      <c r="L16" s="220"/>
-      <c r="M16" s="196">
+      <c r="K16" s="216"/>
+      <c r="L16" s="218"/>
+      <c r="M16" s="194">
         <v>0.5</v>
       </c>
-      <c r="N16" s="197">
+      <c r="N16" s="195">
         <v>3.3</v>
       </c>
-      <c r="O16" s="198">
+      <c r="O16" s="196">
         <v>0.5</v>
       </c>
-      <c r="P16" s="197">
+      <c r="P16" s="195">
         <v>3.3</v>
       </c>
-      <c r="Q16" s="218"/>
+      <c r="Q16" s="216"/>
       <c r="R16" s="77"/>
       <c r="S16" s="76">
         <v>0.82</v>
@@ -6396,41 +6507,41 @@
       <c r="A17" s="31">
         <v>2013</v>
       </c>
-      <c r="B17" s="193">
+      <c r="B17" s="191">
         <v>0.3</v>
       </c>
       <c r="C17" s="44"/>
-      <c r="D17" s="192">
+      <c r="D17" s="190">
         <v>0</v>
       </c>
       <c r="F17" s="62"/>
-      <c r="G17" s="196">
+      <c r="G17" s="194">
         <v>0.9</v>
       </c>
-      <c r="H17" s="197">
+      <c r="H17" s="195">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I17" s="198">
+      <c r="I17" s="196">
         <v>0.9</v>
       </c>
-      <c r="J17" s="197">
+      <c r="J17" s="195">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K17" s="218"/>
-      <c r="L17" s="220"/>
-      <c r="M17" s="196">
+      <c r="K17" s="216"/>
+      <c r="L17" s="218"/>
+      <c r="M17" s="194">
         <v>0.6</v>
       </c>
-      <c r="N17" s="197">
+      <c r="N17" s="195">
         <v>4.2</v>
       </c>
-      <c r="O17" s="198">
+      <c r="O17" s="196">
         <v>0.6</v>
       </c>
-      <c r="P17" s="197">
+      <c r="P17" s="195">
         <v>4.2</v>
       </c>
-      <c r="Q17" s="218"/>
+      <c r="Q17" s="216"/>
       <c r="R17" s="77"/>
       <c r="S17" s="76">
         <v>0.86</v>
@@ -6446,42 +6557,42 @@
       <c r="A18" s="31">
         <v>2014</v>
       </c>
-      <c r="B18" s="193"/>
+      <c r="B18" s="191"/>
       <c r="C18" s="44"/>
-      <c r="D18" s="192">
+      <c r="D18" s="190">
         <v>143</v>
       </c>
-      <c r="E18" s="194">
+      <c r="E18" s="192">
         <v>0</v>
       </c>
       <c r="F18" s="62"/>
-      <c r="G18" s="196">
+      <c r="G18" s="194">
         <v>0.8</v>
       </c>
-      <c r="H18" s="197">
+      <c r="H18" s="195">
         <v>3.5</v>
       </c>
-      <c r="I18" s="198">
+      <c r="I18" s="196">
         <v>0.8</v>
       </c>
-      <c r="J18" s="197">
+      <c r="J18" s="195">
         <v>3.5</v>
       </c>
-      <c r="K18" s="218"/>
-      <c r="L18" s="220"/>
-      <c r="M18" s="196">
+      <c r="K18" s="216"/>
+      <c r="L18" s="218"/>
+      <c r="M18" s="194">
         <v>0.8</v>
       </c>
-      <c r="N18" s="197">
+      <c r="N18" s="195">
         <v>1.7</v>
       </c>
-      <c r="O18" s="198">
+      <c r="O18" s="196">
         <v>0.8</v>
       </c>
-      <c r="P18" s="197">
+      <c r="P18" s="195">
         <v>1.7</v>
       </c>
-      <c r="Q18" s="218"/>
+      <c r="Q18" s="216"/>
       <c r="R18" s="77"/>
       <c r="S18" s="76">
         <v>0.89</v>
@@ -6497,42 +6608,42 @@
       <c r="A19" s="31">
         <v>2015</v>
       </c>
-      <c r="B19" s="193"/>
+      <c r="B19" s="191"/>
       <c r="C19" s="44"/>
-      <c r="D19" s="192">
+      <c r="D19" s="190">
         <v>143</v>
       </c>
-      <c r="E19" s="194">
+      <c r="E19" s="192">
         <v>0</v>
       </c>
       <c r="F19" s="62"/>
-      <c r="G19" s="196">
+      <c r="G19" s="194">
         <v>1.2</v>
       </c>
-      <c r="H19" s="197">
+      <c r="H19" s="195">
         <v>3.9</v>
       </c>
-      <c r="I19" s="198">
+      <c r="I19" s="196">
         <v>1.2</v>
       </c>
-      <c r="J19" s="197">
+      <c r="J19" s="195">
         <v>3.9</v>
       </c>
-      <c r="K19" s="218"/>
-      <c r="L19" s="220"/>
-      <c r="M19" s="196">
+      <c r="K19" s="216"/>
+      <c r="L19" s="218"/>
+      <c r="M19" s="194">
         <v>0.9</v>
       </c>
-      <c r="N19" s="197">
+      <c r="N19" s="195">
         <v>2.4</v>
       </c>
-      <c r="O19" s="198">
+      <c r="O19" s="196">
         <v>0.9</v>
       </c>
-      <c r="P19" s="197">
+      <c r="P19" s="195">
         <v>2.4</v>
       </c>
-      <c r="Q19" s="218"/>
+      <c r="Q19" s="216"/>
       <c r="R19" s="77"/>
       <c r="S19" s="76">
         <v>0.92</v>
@@ -6548,45 +6659,45 @@
       <c r="A20" s="31">
         <v>2016</v>
       </c>
-      <c r="B20" s="194">
+      <c r="B20" s="192">
         <v>0.31</v>
       </c>
       <c r="C20" s="44"/>
-      <c r="D20" s="192">
+      <c r="D20" s="190">
         <v>2841</v>
       </c>
-      <c r="E20" s="194">
+      <c r="E20" s="192">
         <f>data!D12*0.03</f>
         <v>49.394274000000003</v>
       </c>
       <c r="F20" s="62"/>
-      <c r="G20" s="196">
+      <c r="G20" s="194">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H20" s="197">
+      <c r="H20" s="195">
         <v>5.8</v>
       </c>
-      <c r="I20" s="198">
+      <c r="I20" s="196">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J20" s="197">
+      <c r="J20" s="195">
         <v>5.8</v>
       </c>
-      <c r="K20" s="218"/>
-      <c r="L20" s="220"/>
-      <c r="M20" s="196">
+      <c r="K20" s="216"/>
+      <c r="L20" s="218"/>
+      <c r="M20" s="194">
         <v>2</v>
       </c>
-      <c r="N20" s="197">
+      <c r="N20" s="195">
         <v>3.5</v>
       </c>
-      <c r="O20" s="198">
+      <c r="O20" s="196">
         <v>2</v>
       </c>
-      <c r="P20" s="197">
+      <c r="P20" s="195">
         <v>3.5</v>
       </c>
-      <c r="Q20" s="218"/>
+      <c r="Q20" s="216"/>
       <c r="R20" s="77"/>
       <c r="S20" s="76">
         <v>0.95</v>
@@ -6602,46 +6713,46 @@
       <c r="A21" s="31">
         <v>2017</v>
       </c>
-      <c r="B21" s="193">
+      <c r="B21" s="191">
         <v>0.28999999999999998</v>
       </c>
       <c r="C21" s="44"/>
-      <c r="D21" s="192">
+      <c r="D21" s="190">
         <v>3727</v>
       </c>
-      <c r="E21" s="194">
+      <c r="E21" s="192">
         <f>data!D13*0.07</f>
         <v>131.75528800000001</v>
       </c>
       <c r="F21" s="62"/>
-      <c r="G21" s="196">
+      <c r="G21" s="194">
         <v>1.7</v>
       </c>
-      <c r="H21" s="197">
+      <c r="H21" s="195">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I21" s="198">
+      <c r="I21" s="196">
         <v>1.7</v>
       </c>
-      <c r="J21" s="197">
+      <c r="J21" s="195">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K21" s="218"/>
-      <c r="L21" s="220"/>
-      <c r="M21" s="196">
+      <c r="K21" s="216"/>
+      <c r="L21" s="218"/>
+      <c r="M21" s="194">
         <v>0.9</v>
       </c>
-      <c r="N21" s="197">
+      <c r="N21" s="195">
         <v>4.0999999999999996</v>
       </c>
-      <c r="O21" s="198">
+      <c r="O21" s="196">
         <v>0.9</v>
       </c>
-      <c r="P21" s="197">
+      <c r="P21" s="195">
         <v>4.0999999999999996</v>
       </c>
-      <c r="Q21" s="218"/>
-      <c r="R21" s="219"/>
+      <c r="Q21" s="216"/>
+      <c r="R21" s="217"/>
       <c r="S21" s="76"/>
       <c r="T21" s="77"/>
       <c r="U21" s="75"/>
@@ -6654,41 +6765,41 @@
       </c>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
-      <c r="D22" s="192">
+      <c r="D22" s="190">
         <v>3995</v>
       </c>
-      <c r="E22" s="194">
+      <c r="E22" s="192">
         <f>data!D14*0.07</f>
         <v>149.30809600000001</v>
       </c>
       <c r="F22" s="62"/>
-      <c r="G22" s="196">
+      <c r="G22" s="194">
         <v>1.4</v>
       </c>
-      <c r="H22" s="197">
+      <c r="H22" s="195">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I22" s="198">
+      <c r="I22" s="196">
         <v>1.4</v>
       </c>
-      <c r="J22" s="197">
+      <c r="J22" s="195">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K22" s="218"/>
-      <c r="L22" s="220"/>
-      <c r="M22" s="196">
+      <c r="K22" s="216"/>
+      <c r="L22" s="218"/>
+      <c r="M22" s="194">
         <v>0.6</v>
       </c>
-      <c r="N22" s="197">
+      <c r="N22" s="195">
         <v>4</v>
       </c>
-      <c r="O22" s="198">
+      <c r="O22" s="196">
         <v>0.6</v>
       </c>
-      <c r="P22" s="197">
+      <c r="P22" s="195">
         <v>4</v>
       </c>
-      <c r="Q22" s="218"/>
+      <c r="Q22" s="216"/>
       <c r="R22" s="77"/>
       <c r="S22" s="76"/>
       <c r="T22" s="77"/>
@@ -6702,41 +6813,41 @@
       </c>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
-      <c r="D23" s="192">
+      <c r="D23" s="190">
         <v>4525</v>
       </c>
-      <c r="E23" s="194">
+      <c r="E23" s="192">
         <f>data!D15*0.07</f>
         <v>164.58356600000002</v>
       </c>
       <c r="F23" s="62"/>
-      <c r="G23" s="196">
+      <c r="G23" s="194">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H23" s="197">
+      <c r="H23" s="195">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I23" s="198">
+      <c r="I23" s="196">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J23" s="197">
+      <c r="J23" s="195">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K23" s="218"/>
-      <c r="L23" s="220"/>
-      <c r="M23" s="196">
+      <c r="K23" s="216"/>
+      <c r="L23" s="218"/>
+      <c r="M23" s="194">
         <v>0.5</v>
       </c>
-      <c r="N23" s="197">
+      <c r="N23" s="195">
         <v>3.6</v>
       </c>
-      <c r="O23" s="198">
+      <c r="O23" s="196">
         <v>0.5</v>
       </c>
-      <c r="P23" s="197">
+      <c r="P23" s="195">
         <v>3.6</v>
       </c>
-      <c r="Q23" s="218"/>
+      <c r="Q23" s="216"/>
       <c r="R23" s="77"/>
       <c r="S23" s="76"/>
       <c r="T23" s="77"/>
@@ -6754,16 +6865,16 @@
       <c r="E24" s="77"/>
       <c r="F24" s="62"/>
       <c r="G24" s="75"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="171"/>
-      <c r="K24" s="218"/>
-      <c r="L24" s="219"/>
+      <c r="H24" s="169"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="169"/>
+      <c r="K24" s="216"/>
+      <c r="L24" s="217"/>
       <c r="M24" s="75"/>
-      <c r="N24" s="171"/>
-      <c r="O24" s="172"/>
-      <c r="P24" s="171"/>
-      <c r="Q24" s="218"/>
+      <c r="N24" s="169"/>
+      <c r="O24" s="170"/>
+      <c r="P24" s="169"/>
+      <c r="Q24" s="216"/>
       <c r="R24" s="77"/>
       <c r="S24" s="76"/>
       <c r="T24" s="77"/>
@@ -6781,16 +6892,16 @@
       <c r="E25" s="77"/>
       <c r="F25" s="62"/>
       <c r="G25" s="75"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="171"/>
-      <c r="K25" s="172"/>
+      <c r="H25" s="169"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="169"/>
+      <c r="K25" s="170"/>
       <c r="L25" s="77"/>
       <c r="M25" s="75"/>
-      <c r="N25" s="171"/>
-      <c r="O25" s="172"/>
-      <c r="P25" s="171"/>
-      <c r="Q25" s="172"/>
+      <c r="N25" s="169"/>
+      <c r="O25" s="170"/>
+      <c r="P25" s="169"/>
+      <c r="Q25" s="170"/>
       <c r="R25" s="77"/>
       <c r="S25" s="76"/>
       <c r="T25" s="77"/>
@@ -6808,16 +6919,16 @@
       <c r="E26" s="77"/>
       <c r="F26" s="62"/>
       <c r="G26" s="75"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="171"/>
-      <c r="K26" s="172"/>
+      <c r="H26" s="169"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="169"/>
+      <c r="K26" s="170"/>
       <c r="L26" s="77"/>
       <c r="M26" s="75"/>
-      <c r="N26" s="171"/>
-      <c r="O26" s="172"/>
-      <c r="P26" s="171"/>
-      <c r="Q26" s="172"/>
+      <c r="N26" s="169"/>
+      <c r="O26" s="170"/>
+      <c r="P26" s="169"/>
+      <c r="Q26" s="170"/>
       <c r="R26" s="77"/>
       <c r="S26" s="76"/>
       <c r="T26" s="77"/>
@@ -6835,16 +6946,16 @@
       <c r="E27" s="77"/>
       <c r="F27" s="62"/>
       <c r="G27" s="75"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="172"/>
-      <c r="J27" s="171"/>
-      <c r="K27" s="172"/>
+      <c r="H27" s="169"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="169"/>
+      <c r="K27" s="170"/>
       <c r="L27" s="77"/>
       <c r="M27" s="75"/>
-      <c r="N27" s="171"/>
-      <c r="O27" s="172"/>
-      <c r="P27" s="171"/>
-      <c r="Q27" s="172"/>
+      <c r="N27" s="169"/>
+      <c r="O27" s="170"/>
+      <c r="P27" s="169"/>
+      <c r="Q27" s="170"/>
       <c r="R27" s="77"/>
       <c r="S27" s="76"/>
       <c r="T27" s="77"/>
@@ -6862,16 +6973,16 @@
       <c r="E28" s="77"/>
       <c r="F28" s="62"/>
       <c r="G28" s="75"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="171"/>
-      <c r="K28" s="172"/>
+      <c r="H28" s="169"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="169"/>
+      <c r="K28" s="170"/>
       <c r="L28" s="77"/>
       <c r="M28" s="75"/>
-      <c r="N28" s="171"/>
-      <c r="O28" s="172"/>
-      <c r="P28" s="171"/>
-      <c r="Q28" s="172"/>
+      <c r="N28" s="169"/>
+      <c r="O28" s="170"/>
+      <c r="P28" s="169"/>
+      <c r="Q28" s="170"/>
       <c r="R28" s="77"/>
       <c r="S28" s="76"/>
       <c r="T28" s="77"/>
@@ -6889,16 +7000,16 @@
       <c r="E29" s="77"/>
       <c r="F29" s="62"/>
       <c r="G29" s="75"/>
-      <c r="H29" s="171"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="171"/>
-      <c r="K29" s="172"/>
+      <c r="H29" s="169"/>
+      <c r="I29" s="170"/>
+      <c r="J29" s="169"/>
+      <c r="K29" s="170"/>
       <c r="L29" s="77"/>
       <c r="M29" s="75"/>
-      <c r="N29" s="171"/>
-      <c r="O29" s="172"/>
-      <c r="P29" s="171"/>
-      <c r="Q29" s="172"/>
+      <c r="N29" s="169"/>
+      <c r="O29" s="170"/>
+      <c r="P29" s="169"/>
+      <c r="Q29" s="170"/>
       <c r="R29" s="77"/>
       <c r="S29" s="76">
         <v>0.95</v>
@@ -6920,16 +7031,16 @@
       <c r="E30" s="77"/>
       <c r="F30" s="62"/>
       <c r="G30" s="75"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="171"/>
-      <c r="K30" s="172"/>
+      <c r="H30" s="169"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="169"/>
+      <c r="K30" s="170"/>
       <c r="L30" s="77"/>
       <c r="M30" s="75"/>
-      <c r="N30" s="171"/>
-      <c r="O30" s="172"/>
-      <c r="P30" s="171"/>
-      <c r="Q30" s="172"/>
+      <c r="N30" s="169"/>
+      <c r="O30" s="170"/>
+      <c r="P30" s="169"/>
+      <c r="Q30" s="170"/>
       <c r="R30" s="77"/>
       <c r="S30" s="76"/>
       <c r="T30" s="77"/>
@@ -6947,16 +7058,16 @@
       <c r="E31" s="77"/>
       <c r="F31" s="62"/>
       <c r="G31" s="75"/>
-      <c r="H31" s="171"/>
-      <c r="I31" s="172"/>
-      <c r="J31" s="171"/>
-      <c r="K31" s="172"/>
+      <c r="H31" s="169"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="169"/>
+      <c r="K31" s="170"/>
       <c r="L31" s="77"/>
       <c r="M31" s="75"/>
-      <c r="N31" s="171"/>
-      <c r="O31" s="172"/>
-      <c r="P31" s="171"/>
-      <c r="Q31" s="172"/>
+      <c r="N31" s="169"/>
+      <c r="O31" s="170"/>
+      <c r="P31" s="169"/>
+      <c r="Q31" s="170"/>
       <c r="R31" s="77"/>
       <c r="S31" s="76"/>
       <c r="T31" s="77"/>
@@ -6974,16 +7085,16 @@
       <c r="E32" s="77"/>
       <c r="F32" s="62"/>
       <c r="G32" s="75"/>
-      <c r="H32" s="171"/>
-      <c r="I32" s="172"/>
-      <c r="J32" s="171"/>
-      <c r="K32" s="172"/>
+      <c r="H32" s="169"/>
+      <c r="I32" s="170"/>
+      <c r="J32" s="169"/>
+      <c r="K32" s="170"/>
       <c r="L32" s="77"/>
       <c r="M32" s="75"/>
-      <c r="N32" s="171"/>
-      <c r="O32" s="172"/>
-      <c r="P32" s="171"/>
-      <c r="Q32" s="172"/>
+      <c r="N32" s="169"/>
+      <c r="O32" s="170"/>
+      <c r="P32" s="169"/>
+      <c r="Q32" s="170"/>
       <c r="R32" s="77"/>
       <c r="S32" s="76"/>
       <c r="T32" s="77"/>
@@ -7001,16 +7112,16 @@
       <c r="E33" s="77"/>
       <c r="F33" s="62"/>
       <c r="G33" s="75"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="172"/>
-      <c r="J33" s="171"/>
-      <c r="K33" s="172"/>
+      <c r="H33" s="169"/>
+      <c r="I33" s="170"/>
+      <c r="J33" s="169"/>
+      <c r="K33" s="170"/>
       <c r="L33" s="77"/>
       <c r="M33" s="75"/>
-      <c r="N33" s="171"/>
-      <c r="O33" s="172"/>
-      <c r="P33" s="171"/>
-      <c r="Q33" s="172"/>
+      <c r="N33" s="169"/>
+      <c r="O33" s="170"/>
+      <c r="P33" s="169"/>
+      <c r="Q33" s="170"/>
       <c r="R33" s="77"/>
       <c r="S33" s="76"/>
       <c r="T33" s="77"/>
@@ -7028,16 +7139,16 @@
       <c r="E34" s="80"/>
       <c r="F34" s="64"/>
       <c r="G34" s="78"/>
-      <c r="H34" s="173"/>
-      <c r="I34" s="174"/>
-      <c r="J34" s="173"/>
-      <c r="K34" s="174"/>
+      <c r="H34" s="171"/>
+      <c r="I34" s="172"/>
+      <c r="J34" s="171"/>
+      <c r="K34" s="172"/>
       <c r="L34" s="80"/>
       <c r="M34" s="78"/>
-      <c r="N34" s="173"/>
-      <c r="O34" s="174"/>
-      <c r="P34" s="173"/>
-      <c r="Q34" s="174"/>
+      <c r="N34" s="171"/>
+      <c r="O34" s="172"/>
+      <c r="P34" s="171"/>
+      <c r="Q34" s="172"/>
       <c r="R34" s="80"/>
       <c r="S34" s="79">
         <v>0.99</v>
@@ -7662,16 +7773,16 @@
       <c r="G1" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="165" t="s">
+      <c r="H1" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="166" t="s">
+      <c r="I1" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="165" t="s">
+      <c r="J1" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="166" t="s">
+      <c r="K1" s="164" t="s">
         <v>69</v>
       </c>
       <c r="L1" s="68" t="s">
@@ -7698,10 +7809,10 @@
       <c r="S1" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="T1" s="175" t="s">
+      <c r="T1" s="173" t="s">
         <v>92</v>
       </c>
-      <c r="U1" s="176" t="s">
+      <c r="U1" s="174" t="s">
         <v>92</v>
       </c>
       <c r="V1" s="82" t="s">
@@ -7716,10 +7827,10 @@
       <c r="Y1" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="Z1" s="155" t="s">
+      <c r="Z1" s="153" t="s">
         <v>75</v>
       </c>
-      <c r="AA1" s="156" t="s">
+      <c r="AA1" s="154" t="s">
         <v>75</v>
       </c>
       <c r="AB1" s="82" t="s">
@@ -7768,16 +7879,16 @@
       <c r="G2" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="167" t="s">
+      <c r="H2" s="165" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="168" t="s">
+      <c r="I2" s="166" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="167" t="s">
+      <c r="J2" s="165" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="168" t="s">
+      <c r="K2" s="166" t="s">
         <v>72</v>
       </c>
       <c r="L2" s="71" t="s">
@@ -7794,10 +7905,10 @@
       <c r="S2" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="T2" s="177" t="s">
+      <c r="T2" s="175" t="s">
         <v>72</v>
       </c>
-      <c r="U2" s="178" t="s">
+      <c r="U2" s="176" t="s">
         <v>70</v>
       </c>
       <c r="V2" s="85" t="s">
@@ -7812,10 +7923,10 @@
       <c r="Y2" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" s="157" t="s">
+      <c r="Z2" s="155" t="s">
         <v>72</v>
       </c>
-      <c r="AA2" s="158" t="s">
+      <c r="AA2" s="156" t="s">
         <v>70</v>
       </c>
       <c r="AB2" s="85" t="s">
@@ -7862,16 +7973,16 @@
       <c r="G3" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="167" t="s">
+      <c r="H3" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="168" t="s">
+      <c r="I3" s="166" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="167" t="s">
+      <c r="J3" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="168" t="s">
+      <c r="K3" s="166" t="s">
         <v>73</v>
       </c>
       <c r="L3" s="71" t="s">
@@ -7898,10 +8009,10 @@
       <c r="S3" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="T3" s="177" t="s">
+      <c r="T3" s="175" t="s">
         <v>97</v>
       </c>
-      <c r="U3" s="178" t="s">
+      <c r="U3" s="176" t="s">
         <v>98</v>
       </c>
       <c r="V3" s="85" t="s">
@@ -7916,10 +8027,10 @@
       <c r="Y3" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" s="157" t="s">
+      <c r="Z3" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="AA3" s="158" t="s">
+      <c r="AA3" s="156" t="s">
         <v>98</v>
       </c>
       <c r="AB3" s="85" t="s">
@@ -7960,16 +8071,16 @@
       <c r="G4" s="72">
         <v>1</v>
       </c>
-      <c r="H4" s="169">
+      <c r="H4" s="167">
         <v>10</v>
       </c>
-      <c r="I4" s="170">
+      <c r="I4" s="168">
         <v>0.5</v>
       </c>
-      <c r="J4" s="169">
+      <c r="J4" s="167">
         <v>4</v>
       </c>
-      <c r="K4" s="170">
+      <c r="K4" s="168">
         <f>3/12</f>
         <v>0.25</v>
       </c>
@@ -7994,10 +8105,10 @@
       <c r="S4" s="88">
         <v>1</v>
       </c>
-      <c r="T4" s="179">
+      <c r="T4" s="177">
         <v>0.03</v>
       </c>
-      <c r="U4" s="180">
+      <c r="U4" s="178">
         <v>1</v>
       </c>
       <c r="V4" s="88">
@@ -8012,10 +8123,10 @@
       <c r="Y4" s="88">
         <v>0</v>
       </c>
-      <c r="Z4" s="159">
+      <c r="Z4" s="157">
         <v>0</v>
       </c>
-      <c r="AA4" s="160">
+      <c r="AA4" s="158">
         <v>1</v>
       </c>
       <c r="AB4" s="88">
@@ -8062,10 +8173,10 @@
       <c r="E5" s="77"/>
       <c r="F5" s="62"/>
       <c r="G5" s="75"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="172"/>
-      <c r="J5" s="171"/>
-      <c r="K5" s="172"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="170"/>
       <c r="L5" s="77"/>
       <c r="M5" s="76"/>
       <c r="N5" s="77"/>
@@ -8074,14 +8185,14 @@
       <c r="Q5" s="77"/>
       <c r="R5" s="90"/>
       <c r="S5" s="91"/>
-      <c r="T5" s="181"/>
-      <c r="U5" s="182"/>
+      <c r="T5" s="179"/>
+      <c r="U5" s="180"/>
       <c r="V5" s="91"/>
       <c r="W5" s="92"/>
       <c r="X5" s="90"/>
       <c r="Y5" s="91"/>
-      <c r="Z5" s="161"/>
-      <c r="AA5" s="162"/>
+      <c r="Z5" s="159"/>
+      <c r="AA5" s="160"/>
       <c r="AB5" s="91"/>
       <c r="AC5" s="92"/>
       <c r="AD5" s="101"/>
@@ -8104,10 +8215,10 @@
       <c r="E6" s="77"/>
       <c r="F6" s="62"/>
       <c r="G6" s="75"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="172"/>
-      <c r="J6" s="171"/>
-      <c r="K6" s="172"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="170"/>
       <c r="L6" s="77"/>
       <c r="M6" s="76"/>
       <c r="N6" s="77"/>
@@ -8116,14 +8227,14 @@
       <c r="Q6" s="77"/>
       <c r="R6" s="90"/>
       <c r="S6" s="91"/>
-      <c r="T6" s="181"/>
-      <c r="U6" s="182"/>
+      <c r="T6" s="179"/>
+      <c r="U6" s="180"/>
       <c r="V6" s="91"/>
       <c r="W6" s="92"/>
       <c r="X6" s="90"/>
       <c r="Y6" s="91"/>
-      <c r="Z6" s="161"/>
-      <c r="AA6" s="162"/>
+      <c r="Z6" s="159"/>
+      <c r="AA6" s="160"/>
       <c r="AB6" s="91"/>
       <c r="AC6" s="92"/>
       <c r="AD6" s="101"/>
@@ -8146,10 +8257,10 @@
       <c r="E7" s="77"/>
       <c r="F7" s="62"/>
       <c r="G7" s="75"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="171"/>
-      <c r="K7" s="172"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="170"/>
       <c r="L7" s="77"/>
       <c r="M7" s="76"/>
       <c r="N7" s="77"/>
@@ -8158,14 +8269,14 @@
       <c r="Q7" s="77"/>
       <c r="R7" s="90"/>
       <c r="S7" s="91"/>
-      <c r="T7" s="181"/>
-      <c r="U7" s="182"/>
+      <c r="T7" s="179"/>
+      <c r="U7" s="180"/>
       <c r="V7" s="91"/>
       <c r="W7" s="92"/>
       <c r="X7" s="90"/>
       <c r="Y7" s="91"/>
-      <c r="Z7" s="161"/>
-      <c r="AA7" s="162"/>
+      <c r="Z7" s="159"/>
+      <c r="AA7" s="160"/>
       <c r="AB7" s="91"/>
       <c r="AC7" s="92"/>
       <c r="AD7" s="101"/>
@@ -8188,10 +8299,10 @@
       <c r="E8" s="77"/>
       <c r="F8" s="62"/>
       <c r="G8" s="75"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="171"/>
-      <c r="K8" s="172"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="169"/>
+      <c r="K8" s="170"/>
       <c r="L8" s="77"/>
       <c r="M8" s="76"/>
       <c r="N8" s="77"/>
@@ -8200,14 +8311,14 @@
       <c r="Q8" s="77"/>
       <c r="R8" s="90"/>
       <c r="S8" s="91"/>
-      <c r="T8" s="181"/>
-      <c r="U8" s="182"/>
+      <c r="T8" s="179"/>
+      <c r="U8" s="180"/>
       <c r="V8" s="91"/>
       <c r="W8" s="92"/>
       <c r="X8" s="90"/>
       <c r="Y8" s="91"/>
-      <c r="Z8" s="161"/>
-      <c r="AA8" s="162"/>
+      <c r="Z8" s="159"/>
+      <c r="AA8" s="160"/>
       <c r="AB8" s="91"/>
       <c r="AC8" s="92"/>
       <c r="AD8" s="101"/>
@@ -8230,10 +8341,10 @@
       <c r="E9" s="77"/>
       <c r="F9" s="62"/>
       <c r="G9" s="75"/>
-      <c r="H9" s="171"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="171"/>
-      <c r="K9" s="172"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="170"/>
       <c r="L9" s="77"/>
       <c r="M9" s="76"/>
       <c r="N9" s="77"/>
@@ -8242,14 +8353,14 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="90"/>
       <c r="S9" s="91"/>
-      <c r="T9" s="181"/>
-      <c r="U9" s="182"/>
+      <c r="T9" s="179"/>
+      <c r="U9" s="180"/>
       <c r="V9" s="91"/>
       <c r="W9" s="92"/>
       <c r="X9" s="90"/>
       <c r="Y9" s="91"/>
-      <c r="Z9" s="161"/>
-      <c r="AA9" s="162"/>
+      <c r="Z9" s="159"/>
+      <c r="AA9" s="160"/>
       <c r="AB9" s="91"/>
       <c r="AC9" s="92"/>
       <c r="AD9" s="101"/>
@@ -8272,10 +8383,10 @@
       <c r="E10" s="77"/>
       <c r="F10" s="62"/>
       <c r="G10" s="75"/>
-      <c r="H10" s="171"/>
-      <c r="I10" s="172"/>
-      <c r="J10" s="171"/>
-      <c r="K10" s="172"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="170"/>
       <c r="L10" s="77"/>
       <c r="M10" s="76"/>
       <c r="N10" s="77"/>
@@ -8284,14 +8395,14 @@
       <c r="Q10" s="77"/>
       <c r="R10" s="90"/>
       <c r="S10" s="91"/>
-      <c r="T10" s="181"/>
-      <c r="U10" s="182"/>
+      <c r="T10" s="179"/>
+      <c r="U10" s="180"/>
       <c r="V10" s="91"/>
       <c r="W10" s="92"/>
       <c r="X10" s="90"/>
       <c r="Y10" s="91"/>
-      <c r="Z10" s="161"/>
-      <c r="AA10" s="162"/>
+      <c r="Z10" s="159"/>
+      <c r="AA10" s="160"/>
       <c r="AB10" s="91"/>
       <c r="AC10" s="92"/>
       <c r="AD10" s="101"/>
@@ -8314,10 +8425,10 @@
       <c r="E11" s="77"/>
       <c r="F11" s="62"/>
       <c r="G11" s="75"/>
-      <c r="H11" s="171"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="171"/>
-      <c r="K11" s="172"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="170"/>
       <c r="L11" s="77"/>
       <c r="M11" s="76">
         <v>0.75</v>
@@ -8330,14 +8441,14 @@
       <c r="Q11" s="77"/>
       <c r="R11" s="90"/>
       <c r="S11" s="91"/>
-      <c r="T11" s="181"/>
-      <c r="U11" s="182"/>
+      <c r="T11" s="179"/>
+      <c r="U11" s="180"/>
       <c r="V11" s="91"/>
       <c r="W11" s="92"/>
       <c r="X11" s="90"/>
       <c r="Y11" s="91"/>
-      <c r="Z11" s="161"/>
-      <c r="AA11" s="162"/>
+      <c r="Z11" s="159"/>
+      <c r="AA11" s="160"/>
       <c r="AB11" s="91"/>
       <c r="AC11" s="92"/>
       <c r="AD11" s="101"/>
@@ -8360,10 +8471,10 @@
       <c r="E12" s="77"/>
       <c r="F12" s="62"/>
       <c r="G12" s="75"/>
-      <c r="H12" s="171"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="171"/>
-      <c r="K12" s="172"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="169"/>
+      <c r="K12" s="170"/>
       <c r="L12" s="77"/>
       <c r="M12" s="76"/>
       <c r="N12" s="77"/>
@@ -8372,14 +8483,14 @@
       <c r="Q12" s="77"/>
       <c r="R12" s="90"/>
       <c r="S12" s="91"/>
-      <c r="T12" s="181"/>
-      <c r="U12" s="182"/>
+      <c r="T12" s="179"/>
+      <c r="U12" s="180"/>
       <c r="V12" s="91"/>
       <c r="W12" s="92"/>
       <c r="X12" s="90"/>
       <c r="Y12" s="91"/>
-      <c r="Z12" s="161"/>
-      <c r="AA12" s="162"/>
+      <c r="Z12" s="159"/>
+      <c r="AA12" s="160"/>
       <c r="AB12" s="91"/>
       <c r="AC12" s="92"/>
       <c r="AD12" s="101"/>
@@ -8404,10 +8515,10 @@
       <c r="E13" s="77"/>
       <c r="F13" s="62"/>
       <c r="G13" s="75"/>
-      <c r="H13" s="171"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="171"/>
-      <c r="K13" s="172"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="169"/>
+      <c r="K13" s="170"/>
       <c r="L13" s="77"/>
       <c r="M13" s="76"/>
       <c r="N13" s="77"/>
@@ -8416,14 +8527,14 @@
       <c r="Q13" s="77"/>
       <c r="R13" s="90"/>
       <c r="S13" s="91"/>
-      <c r="T13" s="181"/>
-      <c r="U13" s="182"/>
+      <c r="T13" s="179"/>
+      <c r="U13" s="180"/>
       <c r="V13" s="91"/>
       <c r="W13" s="92"/>
       <c r="X13" s="90"/>
       <c r="Y13" s="91"/>
-      <c r="Z13" s="161"/>
-      <c r="AA13" s="162"/>
+      <c r="Z13" s="159"/>
+      <c r="AA13" s="160"/>
       <c r="AB13" s="91"/>
       <c r="AC13" s="92"/>
       <c r="AD13" s="101"/>
@@ -8450,10 +8561,10 @@
       </c>
       <c r="F14" s="62"/>
       <c r="G14" s="75"/>
-      <c r="H14" s="171"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="171"/>
-      <c r="K14" s="172"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="170"/>
       <c r="L14" s="77"/>
       <c r="M14" s="76">
         <v>0.75</v>
@@ -8466,14 +8577,14 @@
       <c r="Q14" s="77"/>
       <c r="R14" s="90"/>
       <c r="S14" s="91"/>
-      <c r="T14" s="181"/>
-      <c r="U14" s="182"/>
+      <c r="T14" s="179"/>
+      <c r="U14" s="180"/>
       <c r="V14" s="91"/>
       <c r="W14" s="92"/>
       <c r="X14" s="90"/>
       <c r="Y14" s="91"/>
-      <c r="Z14" s="161"/>
-      <c r="AA14" s="162"/>
+      <c r="Z14" s="159"/>
+      <c r="AA14" s="160"/>
       <c r="AB14" s="91"/>
       <c r="AC14" s="92"/>
       <c r="AD14" s="101"/>
@@ -8498,10 +8609,10 @@
       </c>
       <c r="F15" s="62"/>
       <c r="G15" s="75"/>
-      <c r="H15" s="171"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="171"/>
-      <c r="K15" s="172"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="169"/>
+      <c r="K15" s="170"/>
       <c r="L15" s="77"/>
       <c r="M15" s="76"/>
       <c r="N15" s="77"/>
@@ -8510,14 +8621,14 @@
       <c r="Q15" s="77"/>
       <c r="R15" s="90"/>
       <c r="S15" s="91"/>
-      <c r="T15" s="181"/>
-      <c r="U15" s="182"/>
+      <c r="T15" s="179"/>
+      <c r="U15" s="180"/>
       <c r="V15" s="91"/>
       <c r="W15" s="92"/>
       <c r="X15" s="90"/>
       <c r="Y15" s="91"/>
-      <c r="Z15" s="161"/>
-      <c r="AA15" s="162"/>
+      <c r="Z15" s="159"/>
+      <c r="AA15" s="160"/>
       <c r="AB15" s="91"/>
       <c r="AC15" s="92"/>
       <c r="AD15" s="101"/>
@@ -8540,10 +8651,10 @@
       <c r="E16" s="77"/>
       <c r="F16" s="62"/>
       <c r="G16" s="75"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="171"/>
-      <c r="K16" s="172"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="169"/>
+      <c r="K16" s="170"/>
       <c r="L16" s="77"/>
       <c r="M16" s="76">
         <v>0.82</v>
@@ -8556,14 +8667,14 @@
       <c r="Q16" s="77"/>
       <c r="R16" s="90"/>
       <c r="S16" s="91"/>
-      <c r="T16" s="181"/>
-      <c r="U16" s="182"/>
+      <c r="T16" s="179"/>
+      <c r="U16" s="180"/>
       <c r="V16" s="91"/>
       <c r="W16" s="92"/>
       <c r="X16" s="90"/>
       <c r="Y16" s="91"/>
-      <c r="Z16" s="161"/>
-      <c r="AA16" s="162"/>
+      <c r="Z16" s="159"/>
+      <c r="AA16" s="160"/>
       <c r="AB16" s="91"/>
       <c r="AC16" s="92"/>
       <c r="AD16" s="101"/>
@@ -8586,10 +8697,10 @@
       <c r="E17" s="77"/>
       <c r="F17" s="62"/>
       <c r="G17" s="75"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="171"/>
-      <c r="K17" s="172"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="170"/>
       <c r="L17" s="77"/>
       <c r="M17" s="76">
         <v>0.86</v>
@@ -8602,14 +8713,14 @@
       <c r="Q17" s="77"/>
       <c r="R17" s="90"/>
       <c r="S17" s="91"/>
-      <c r="T17" s="181"/>
-      <c r="U17" s="182"/>
+      <c r="T17" s="179"/>
+      <c r="U17" s="180"/>
       <c r="V17" s="91"/>
       <c r="W17" s="92"/>
       <c r="X17" s="90"/>
       <c r="Y17" s="91"/>
-      <c r="Z17" s="161"/>
-      <c r="AA17" s="162"/>
+      <c r="Z17" s="159"/>
+      <c r="AA17" s="160"/>
       <c r="AB17" s="91"/>
       <c r="AC17" s="92"/>
       <c r="AD17" s="101"/>
@@ -8632,10 +8743,10 @@
       <c r="E18" s="77"/>
       <c r="F18" s="62"/>
       <c r="G18" s="75"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="171"/>
-      <c r="K18" s="172"/>
+      <c r="H18" s="169"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="169"/>
+      <c r="K18" s="170"/>
       <c r="L18" s="77"/>
       <c r="M18" s="76">
         <v>0.89</v>
@@ -8648,14 +8759,14 @@
       <c r="Q18" s="77"/>
       <c r="R18" s="90"/>
       <c r="S18" s="91"/>
-      <c r="T18" s="181"/>
-      <c r="U18" s="182"/>
+      <c r="T18" s="179"/>
+      <c r="U18" s="180"/>
       <c r="V18" s="91"/>
       <c r="W18" s="92"/>
       <c r="X18" s="90"/>
       <c r="Y18" s="91"/>
-      <c r="Z18" s="161"/>
-      <c r="AA18" s="162"/>
+      <c r="Z18" s="159"/>
+      <c r="AA18" s="160"/>
       <c r="AB18" s="91"/>
       <c r="AC18" s="92"/>
       <c r="AD18" s="101"/>
@@ -8678,10 +8789,10 @@
       <c r="E19" s="77"/>
       <c r="F19" s="62"/>
       <c r="G19" s="75"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="172"/>
-      <c r="J19" s="171"/>
-      <c r="K19" s="172"/>
+      <c r="H19" s="169"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="169"/>
+      <c r="K19" s="170"/>
       <c r="L19" s="77"/>
       <c r="M19" s="76">
         <v>0.92</v>
@@ -8694,14 +8805,14 @@
       <c r="Q19" s="77"/>
       <c r="R19" s="90"/>
       <c r="S19" s="91"/>
-      <c r="T19" s="181"/>
-      <c r="U19" s="182"/>
+      <c r="T19" s="179"/>
+      <c r="U19" s="180"/>
       <c r="V19" s="91"/>
       <c r="W19" s="92"/>
       <c r="X19" s="90"/>
       <c r="Y19" s="91"/>
-      <c r="Z19" s="161"/>
-      <c r="AA19" s="162"/>
+      <c r="Z19" s="159"/>
+      <c r="AA19" s="160"/>
       <c r="AB19" s="91"/>
       <c r="AC19" s="92"/>
       <c r="AD19" s="101"/>
@@ -8728,10 +8839,10 @@
       </c>
       <c r="F20" s="62"/>
       <c r="G20" s="75"/>
-      <c r="H20" s="171"/>
-      <c r="I20" s="172"/>
-      <c r="J20" s="171"/>
-      <c r="K20" s="172"/>
+      <c r="H20" s="169"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="169"/>
+      <c r="K20" s="170"/>
       <c r="L20" s="77"/>
       <c r="M20" s="76">
         <v>0.95</v>
@@ -8744,14 +8855,14 @@
       <c r="Q20" s="77"/>
       <c r="R20" s="90"/>
       <c r="S20" s="91"/>
-      <c r="T20" s="181"/>
-      <c r="U20" s="182"/>
+      <c r="T20" s="179"/>
+      <c r="U20" s="180"/>
       <c r="V20" s="91"/>
       <c r="W20" s="92"/>
       <c r="X20" s="90"/>
       <c r="Y20" s="91"/>
-      <c r="Z20" s="161"/>
-      <c r="AA20" s="162"/>
+      <c r="Z20" s="159"/>
+      <c r="AA20" s="160"/>
       <c r="AB20" s="91"/>
       <c r="AC20" s="92"/>
       <c r="AD20" s="101"/>
@@ -8774,10 +8885,10 @@
       <c r="E21" s="77"/>
       <c r="F21" s="62"/>
       <c r="G21" s="75"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="171"/>
-      <c r="K21" s="172"/>
+      <c r="H21" s="169"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="169"/>
+      <c r="K21" s="170"/>
       <c r="L21" s="77"/>
       <c r="M21" s="76"/>
       <c r="N21" s="77"/>
@@ -8786,14 +8897,14 @@
       <c r="Q21" s="77"/>
       <c r="R21" s="90"/>
       <c r="S21" s="91"/>
-      <c r="T21" s="181"/>
-      <c r="U21" s="182"/>
+      <c r="T21" s="179"/>
+      <c r="U21" s="180"/>
       <c r="V21" s="91"/>
       <c r="W21" s="92"/>
       <c r="X21" s="90"/>
       <c r="Y21" s="91"/>
-      <c r="Z21" s="161"/>
-      <c r="AA21" s="162"/>
+      <c r="Z21" s="159"/>
+      <c r="AA21" s="160"/>
       <c r="AB21" s="91"/>
       <c r="AC21" s="92"/>
       <c r="AD21" s="101"/>
@@ -8816,10 +8927,10 @@
       <c r="E22" s="77"/>
       <c r="F22" s="62"/>
       <c r="G22" s="75"/>
-      <c r="H22" s="171"/>
-      <c r="I22" s="172"/>
-      <c r="J22" s="171"/>
-      <c r="K22" s="172"/>
+      <c r="H22" s="169"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="169"/>
+      <c r="K22" s="170"/>
       <c r="L22" s="77"/>
       <c r="M22" s="76"/>
       <c r="N22" s="77"/>
@@ -8828,14 +8939,14 @@
       <c r="Q22" s="77"/>
       <c r="R22" s="90"/>
       <c r="S22" s="91"/>
-      <c r="T22" s="181"/>
-      <c r="U22" s="182"/>
+      <c r="T22" s="179"/>
+      <c r="U22" s="180"/>
       <c r="V22" s="91"/>
       <c r="W22" s="92"/>
       <c r="X22" s="90"/>
       <c r="Y22" s="91"/>
-      <c r="Z22" s="161"/>
-      <c r="AA22" s="162"/>
+      <c r="Z22" s="159"/>
+      <c r="AA22" s="160"/>
       <c r="AB22" s="91"/>
       <c r="AC22" s="92"/>
       <c r="AD22" s="101"/>
@@ -8858,10 +8969,10 @@
       <c r="E23" s="77"/>
       <c r="F23" s="62"/>
       <c r="G23" s="75"/>
-      <c r="H23" s="171"/>
-      <c r="I23" s="172"/>
-      <c r="J23" s="171"/>
-      <c r="K23" s="172"/>
+      <c r="H23" s="169"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="169"/>
+      <c r="K23" s="170"/>
       <c r="L23" s="77"/>
       <c r="M23" s="76"/>
       <c r="N23" s="77"/>
@@ -8870,14 +8981,14 @@
       <c r="Q23" s="77"/>
       <c r="R23" s="90"/>
       <c r="S23" s="91"/>
-      <c r="T23" s="181"/>
-      <c r="U23" s="182"/>
+      <c r="T23" s="179"/>
+      <c r="U23" s="180"/>
       <c r="V23" s="91"/>
       <c r="W23" s="92"/>
       <c r="X23" s="90"/>
       <c r="Y23" s="91"/>
-      <c r="Z23" s="161"/>
-      <c r="AA23" s="162"/>
+      <c r="Z23" s="159"/>
+      <c r="AA23" s="160"/>
       <c r="AB23" s="91"/>
       <c r="AC23" s="92"/>
       <c r="AD23" s="101"/>
@@ -8900,10 +9011,10 @@
       <c r="E24" s="77"/>
       <c r="F24" s="62"/>
       <c r="G24" s="75"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="171"/>
-      <c r="K24" s="172"/>
+      <c r="H24" s="169"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="169"/>
+      <c r="K24" s="170"/>
       <c r="L24" s="77"/>
       <c r="M24" s="76"/>
       <c r="N24" s="77"/>
@@ -8912,14 +9023,14 @@
       <c r="Q24" s="77"/>
       <c r="R24" s="90"/>
       <c r="S24" s="91"/>
-      <c r="T24" s="181"/>
-      <c r="U24" s="182"/>
+      <c r="T24" s="179"/>
+      <c r="U24" s="180"/>
       <c r="V24" s="91"/>
       <c r="W24" s="92"/>
       <c r="X24" s="90"/>
       <c r="Y24" s="91"/>
-      <c r="Z24" s="161"/>
-      <c r="AA24" s="162"/>
+      <c r="Z24" s="159"/>
+      <c r="AA24" s="160"/>
       <c r="AB24" s="91"/>
       <c r="AC24" s="92"/>
       <c r="AD24" s="101"/>
@@ -8942,10 +9053,10 @@
       <c r="E25" s="77"/>
       <c r="F25" s="62"/>
       <c r="G25" s="75"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="171"/>
-      <c r="K25" s="172"/>
+      <c r="H25" s="169"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="169"/>
+      <c r="K25" s="170"/>
       <c r="L25" s="77"/>
       <c r="M25" s="76"/>
       <c r="N25" s="77"/>
@@ -8954,14 +9065,14 @@
       <c r="Q25" s="77"/>
       <c r="R25" s="90"/>
       <c r="S25" s="91"/>
-      <c r="T25" s="181"/>
-      <c r="U25" s="182"/>
+      <c r="T25" s="179"/>
+      <c r="U25" s="180"/>
       <c r="V25" s="91"/>
       <c r="W25" s="92"/>
       <c r="X25" s="90"/>
       <c r="Y25" s="91"/>
-      <c r="Z25" s="161"/>
-      <c r="AA25" s="162"/>
+      <c r="Z25" s="159"/>
+      <c r="AA25" s="160"/>
       <c r="AB25" s="91"/>
       <c r="AC25" s="92"/>
       <c r="AD25" s="101"/>
@@ -8984,10 +9095,10 @@
       <c r="E26" s="77"/>
       <c r="F26" s="62"/>
       <c r="G26" s="75"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="171"/>
-      <c r="K26" s="172"/>
+      <c r="H26" s="169"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="169"/>
+      <c r="K26" s="170"/>
       <c r="L26" s="77"/>
       <c r="M26" s="76"/>
       <c r="N26" s="77"/>
@@ -8996,14 +9107,14 @@
       <c r="Q26" s="77"/>
       <c r="R26" s="90"/>
       <c r="S26" s="91"/>
-      <c r="T26" s="181"/>
-      <c r="U26" s="182"/>
+      <c r="T26" s="179"/>
+      <c r="U26" s="180"/>
       <c r="V26" s="91"/>
       <c r="W26" s="92"/>
       <c r="X26" s="90"/>
       <c r="Y26" s="91"/>
-      <c r="Z26" s="161"/>
-      <c r="AA26" s="162"/>
+      <c r="Z26" s="159"/>
+      <c r="AA26" s="160"/>
       <c r="AB26" s="91"/>
       <c r="AC26" s="92"/>
       <c r="AD26" s="101"/>
@@ -9026,10 +9137,10 @@
       <c r="E27" s="77"/>
       <c r="F27" s="62"/>
       <c r="G27" s="75"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="172"/>
-      <c r="J27" s="171"/>
-      <c r="K27" s="172"/>
+      <c r="H27" s="169"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="169"/>
+      <c r="K27" s="170"/>
       <c r="L27" s="77"/>
       <c r="M27" s="76"/>
       <c r="N27" s="77"/>
@@ -9038,14 +9149,14 @@
       <c r="Q27" s="77"/>
       <c r="R27" s="90"/>
       <c r="S27" s="91"/>
-      <c r="T27" s="181"/>
-      <c r="U27" s="182"/>
+      <c r="T27" s="179"/>
+      <c r="U27" s="180"/>
       <c r="V27" s="91"/>
       <c r="W27" s="92"/>
       <c r="X27" s="90"/>
       <c r="Y27" s="91"/>
-      <c r="Z27" s="161"/>
-      <c r="AA27" s="162"/>
+      <c r="Z27" s="159"/>
+      <c r="AA27" s="160"/>
       <c r="AB27" s="91"/>
       <c r="AC27" s="92"/>
       <c r="AD27" s="101"/>
@@ -9068,10 +9179,10 @@
       <c r="E28" s="77"/>
       <c r="F28" s="62"/>
       <c r="G28" s="75"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="171"/>
-      <c r="K28" s="172"/>
+      <c r="H28" s="169"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="169"/>
+      <c r="K28" s="170"/>
       <c r="L28" s="77"/>
       <c r="M28" s="76"/>
       <c r="N28" s="77"/>
@@ -9080,14 +9191,14 @@
       <c r="Q28" s="77"/>
       <c r="R28" s="90"/>
       <c r="S28" s="91"/>
-      <c r="T28" s="181"/>
-      <c r="U28" s="182"/>
+      <c r="T28" s="179"/>
+      <c r="U28" s="180"/>
       <c r="V28" s="91"/>
       <c r="W28" s="92"/>
       <c r="X28" s="90"/>
       <c r="Y28" s="91"/>
-      <c r="Z28" s="161"/>
-      <c r="AA28" s="162"/>
+      <c r="Z28" s="159"/>
+      <c r="AA28" s="160"/>
       <c r="AB28" s="91"/>
       <c r="AC28" s="92"/>
       <c r="AD28" s="101"/>
@@ -9110,10 +9221,10 @@
       <c r="E29" s="77"/>
       <c r="F29" s="62"/>
       <c r="G29" s="75"/>
-      <c r="H29" s="171"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="171"/>
-      <c r="K29" s="172"/>
+      <c r="H29" s="169"/>
+      <c r="I29" s="170"/>
+      <c r="J29" s="169"/>
+      <c r="K29" s="170"/>
       <c r="L29" s="77"/>
       <c r="M29" s="76">
         <v>0.95</v>
@@ -9126,14 +9237,14 @@
       <c r="Q29" s="77"/>
       <c r="R29" s="90"/>
       <c r="S29" s="91"/>
-      <c r="T29" s="181"/>
-      <c r="U29" s="182"/>
+      <c r="T29" s="179"/>
+      <c r="U29" s="180"/>
       <c r="V29" s="91"/>
       <c r="W29" s="92"/>
       <c r="X29" s="90"/>
       <c r="Y29" s="91"/>
-      <c r="Z29" s="161"/>
-      <c r="AA29" s="162"/>
+      <c r="Z29" s="159"/>
+      <c r="AA29" s="160"/>
       <c r="AB29" s="91"/>
       <c r="AC29" s="92"/>
       <c r="AD29" s="101"/>
@@ -9156,10 +9267,10 @@
       <c r="E30" s="77"/>
       <c r="F30" s="62"/>
       <c r="G30" s="75"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="171"/>
-      <c r="K30" s="172"/>
+      <c r="H30" s="169"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="169"/>
+      <c r="K30" s="170"/>
       <c r="L30" s="77"/>
       <c r="M30" s="76"/>
       <c r="N30" s="77"/>
@@ -9168,14 +9279,14 @@
       <c r="Q30" s="77"/>
       <c r="R30" s="90"/>
       <c r="S30" s="91"/>
-      <c r="T30" s="181"/>
-      <c r="U30" s="182"/>
+      <c r="T30" s="179"/>
+      <c r="U30" s="180"/>
       <c r="V30" s="91"/>
       <c r="W30" s="92"/>
       <c r="X30" s="90"/>
       <c r="Y30" s="91"/>
-      <c r="Z30" s="161"/>
-      <c r="AA30" s="162"/>
+      <c r="Z30" s="159"/>
+      <c r="AA30" s="160"/>
       <c r="AB30" s="91"/>
       <c r="AC30" s="92"/>
       <c r="AD30" s="101"/>
@@ -9198,10 +9309,10 @@
       <c r="E31" s="77"/>
       <c r="F31" s="62"/>
       <c r="G31" s="75"/>
-      <c r="H31" s="171"/>
-      <c r="I31" s="172"/>
-      <c r="J31" s="171"/>
-      <c r="K31" s="172"/>
+      <c r="H31" s="169"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="169"/>
+      <c r="K31" s="170"/>
       <c r="L31" s="77"/>
       <c r="M31" s="76"/>
       <c r="N31" s="77"/>
@@ -9210,14 +9321,14 @@
       <c r="Q31" s="77"/>
       <c r="R31" s="90"/>
       <c r="S31" s="91"/>
-      <c r="T31" s="181"/>
-      <c r="U31" s="182"/>
+      <c r="T31" s="179"/>
+      <c r="U31" s="180"/>
       <c r="V31" s="91"/>
       <c r="W31" s="92"/>
       <c r="X31" s="90"/>
       <c r="Y31" s="91"/>
-      <c r="Z31" s="161"/>
-      <c r="AA31" s="162"/>
+      <c r="Z31" s="159"/>
+      <c r="AA31" s="160"/>
       <c r="AB31" s="91"/>
       <c r="AC31" s="92"/>
       <c r="AD31" s="101"/>
@@ -9240,10 +9351,10 @@
       <c r="E32" s="77"/>
       <c r="F32" s="62"/>
       <c r="G32" s="75"/>
-      <c r="H32" s="171"/>
-      <c r="I32" s="172"/>
-      <c r="J32" s="171"/>
-      <c r="K32" s="172"/>
+      <c r="H32" s="169"/>
+      <c r="I32" s="170"/>
+      <c r="J32" s="169"/>
+      <c r="K32" s="170"/>
       <c r="L32" s="77"/>
       <c r="M32" s="76"/>
       <c r="N32" s="77"/>
@@ -9252,14 +9363,14 @@
       <c r="Q32" s="77"/>
       <c r="R32" s="90"/>
       <c r="S32" s="91"/>
-      <c r="T32" s="181"/>
-      <c r="U32" s="182"/>
+      <c r="T32" s="179"/>
+      <c r="U32" s="180"/>
       <c r="V32" s="91"/>
       <c r="W32" s="92"/>
       <c r="X32" s="90"/>
       <c r="Y32" s="91"/>
-      <c r="Z32" s="161"/>
-      <c r="AA32" s="162"/>
+      <c r="Z32" s="159"/>
+      <c r="AA32" s="160"/>
       <c r="AB32" s="91"/>
       <c r="AC32" s="92"/>
       <c r="AD32" s="101"/>
@@ -9282,10 +9393,10 @@
       <c r="E33" s="77"/>
       <c r="F33" s="62"/>
       <c r="G33" s="75"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="172"/>
-      <c r="J33" s="171"/>
-      <c r="K33" s="172"/>
+      <c r="H33" s="169"/>
+      <c r="I33" s="170"/>
+      <c r="J33" s="169"/>
+      <c r="K33" s="170"/>
       <c r="L33" s="77"/>
       <c r="M33" s="76"/>
       <c r="N33" s="77"/>
@@ -9294,14 +9405,14 @@
       <c r="Q33" s="77"/>
       <c r="R33" s="90"/>
       <c r="S33" s="91"/>
-      <c r="T33" s="181"/>
-      <c r="U33" s="182"/>
+      <c r="T33" s="179"/>
+      <c r="U33" s="180"/>
       <c r="V33" s="91"/>
       <c r="W33" s="92"/>
       <c r="X33" s="90"/>
       <c r="Y33" s="91"/>
-      <c r="Z33" s="161"/>
-      <c r="AA33" s="162"/>
+      <c r="Z33" s="159"/>
+      <c r="AA33" s="160"/>
       <c r="AB33" s="91"/>
       <c r="AC33" s="92"/>
       <c r="AD33" s="101"/>
@@ -9324,10 +9435,10 @@
       <c r="E34" s="80"/>
       <c r="F34" s="64"/>
       <c r="G34" s="78"/>
-      <c r="H34" s="173"/>
-      <c r="I34" s="174"/>
-      <c r="J34" s="173"/>
-      <c r="K34" s="174"/>
+      <c r="H34" s="171"/>
+      <c r="I34" s="172"/>
+      <c r="J34" s="171"/>
+      <c r="K34" s="172"/>
       <c r="L34" s="80"/>
       <c r="M34" s="79">
         <v>0.99</v>
@@ -9340,14 +9451,14 @@
       <c r="Q34" s="80"/>
       <c r="R34" s="93"/>
       <c r="S34" s="94"/>
-      <c r="T34" s="183"/>
-      <c r="U34" s="184"/>
+      <c r="T34" s="181"/>
+      <c r="U34" s="182"/>
       <c r="V34" s="94"/>
       <c r="W34" s="95"/>
       <c r="X34" s="93"/>
       <c r="Y34" s="94"/>
-      <c r="Z34" s="163"/>
-      <c r="AA34" s="164"/>
+      <c r="Z34" s="161"/>
+      <c r="AA34" s="162"/>
       <c r="AB34" s="94"/>
       <c r="AC34" s="95"/>
       <c r="AD34" s="102"/>

--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -1795,7 +1795,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="132">
   <si>
     <t>Waiting list</t>
   </si>
@@ -2186,6 +2186,12 @@
   </si>
   <si>
     <t>pr_old</t>
+  </si>
+  <si>
+    <t>ineligibility_duration</t>
+  </si>
+  <si>
+    <t>proportion_stay</t>
   </si>
 </sst>
 </file>
@@ -4263,7 +4269,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J11" sqref="J11"/>
+      <selection pane="topRight" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5857,10 +5863,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:Y34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5888,10 +5894,12 @@
     <col min="21" max="21" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19.85546875" style="60" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="28" style="60" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="43"/>
+    <col min="24" max="24" width="20" style="43" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>83</v>
       </c>
@@ -5961,8 +5969,14 @@
       <c r="W1" s="68" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X1" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y1" s="68" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>84</v>
       </c>
@@ -6012,8 +6026,10 @@
       <c r="U2" s="69"/>
       <c r="V2" s="70"/>
       <c r="W2" s="71"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X2" s="70"/>
+      <c r="Y2" s="71"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>85</v>
       </c>
@@ -6077,8 +6093,14 @@
       <c r="W3" s="71" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X3" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y3" s="71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>2000</v>
       </c>
@@ -6126,8 +6148,14 @@
       <c r="W4" s="74">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X4" s="73">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="74">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>2001</v>
       </c>
@@ -6153,8 +6181,10 @@
       <c r="U5" s="75"/>
       <c r="V5" s="76"/>
       <c r="W5" s="77"/>
-    </row>
-    <row r="6" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X5" s="76"/>
+      <c r="Y5" s="77"/>
+    </row>
+    <row r="6" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>2002</v>
       </c>
@@ -6180,8 +6210,10 @@
       <c r="U6" s="75"/>
       <c r="V6" s="76"/>
       <c r="W6" s="77"/>
-    </row>
-    <row r="7" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X6" s="76"/>
+      <c r="Y6" s="77"/>
+    </row>
+    <row r="7" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>2003</v>
       </c>
@@ -6209,8 +6241,10 @@
       <c r="U7" s="75"/>
       <c r="V7" s="76"/>
       <c r="W7" s="77"/>
-    </row>
-    <row r="8" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X7" s="76"/>
+      <c r="Y7" s="77"/>
+    </row>
+    <row r="8" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>2004</v>
       </c>
@@ -6238,8 +6272,10 @@
       <c r="U8" s="75"/>
       <c r="V8" s="76"/>
       <c r="W8" s="77"/>
-    </row>
-    <row r="9" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X8" s="76"/>
+      <c r="Y8" s="77"/>
+    </row>
+    <row r="9" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>2005</v>
       </c>
@@ -6267,8 +6303,10 @@
       <c r="U9" s="75"/>
       <c r="V9" s="76"/>
       <c r="W9" s="77"/>
-    </row>
-    <row r="10" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X9" s="76"/>
+      <c r="Y9" s="77"/>
+    </row>
+    <row r="10" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>2006</v>
       </c>
@@ -6296,8 +6334,10 @@
       <c r="U10" s="75"/>
       <c r="V10" s="76"/>
       <c r="W10" s="77"/>
-    </row>
-    <row r="11" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X10" s="76"/>
+      <c r="Y10" s="77"/>
+    </row>
+    <row r="11" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>2007</v>
       </c>
@@ -6329,8 +6369,10 @@
       <c r="U11" s="75"/>
       <c r="V11" s="76"/>
       <c r="W11" s="77"/>
-    </row>
-    <row r="12" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X11" s="76"/>
+      <c r="Y11" s="77"/>
+    </row>
+    <row r="12" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>2008</v>
       </c>
@@ -6358,8 +6400,10 @@
       <c r="U12" s="75"/>
       <c r="V12" s="76"/>
       <c r="W12" s="77"/>
-    </row>
-    <row r="13" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X12" s="76"/>
+      <c r="Y12" s="77"/>
+    </row>
+    <row r="13" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>2009</v>
       </c>
@@ -6388,8 +6432,10 @@
       <c r="U13" s="75"/>
       <c r="V13" s="76"/>
       <c r="W13" s="77"/>
-    </row>
-    <row r="14" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X13" s="76"/>
+      <c r="Y13" s="77"/>
+    </row>
+    <row r="14" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>2010</v>
       </c>
@@ -6422,8 +6468,10 @@
       <c r="U14" s="75"/>
       <c r="V14" s="76"/>
       <c r="W14" s="77"/>
-    </row>
-    <row r="15" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X14" s="76"/>
+      <c r="Y14" s="77"/>
+    </row>
+    <row r="15" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>2011</v>
       </c>
@@ -6452,8 +6500,10 @@
       <c r="U15" s="75"/>
       <c r="V15" s="76"/>
       <c r="W15" s="77"/>
-    </row>
-    <row r="16" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X15" s="76"/>
+      <c r="Y15" s="77"/>
+    </row>
+    <row r="16" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>2012</v>
       </c>
@@ -6502,8 +6552,10 @@
       <c r="U16" s="75"/>
       <c r="V16" s="76"/>
       <c r="W16" s="77"/>
-    </row>
-    <row r="17" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X16" s="76"/>
+      <c r="Y16" s="77"/>
+    </row>
+    <row r="17" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>2013</v>
       </c>
@@ -6552,8 +6604,10 @@
       <c r="U17" s="75"/>
       <c r="V17" s="76"/>
       <c r="W17" s="77"/>
-    </row>
-    <row r="18" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X17" s="76"/>
+      <c r="Y17" s="77"/>
+    </row>
+    <row r="18" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>2014</v>
       </c>
@@ -6603,8 +6657,10 @@
       <c r="U18" s="75"/>
       <c r="V18" s="76"/>
       <c r="W18" s="77"/>
-    </row>
-    <row r="19" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X18" s="76"/>
+      <c r="Y18" s="77"/>
+    </row>
+    <row r="19" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>2015</v>
       </c>
@@ -6654,8 +6710,10 @@
       <c r="U19" s="75"/>
       <c r="V19" s="76"/>
       <c r="W19" s="77"/>
-    </row>
-    <row r="20" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X19" s="76"/>
+      <c r="Y19" s="77"/>
+    </row>
+    <row r="20" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>2016</v>
       </c>
@@ -6708,8 +6766,10 @@
       <c r="U20" s="75"/>
       <c r="V20" s="76"/>
       <c r="W20" s="77"/>
-    </row>
-    <row r="21" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X20" s="76"/>
+      <c r="Y20" s="77"/>
+    </row>
+    <row r="21" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>2017</v>
       </c>
@@ -6758,8 +6818,10 @@
       <c r="U21" s="75"/>
       <c r="V21" s="76"/>
       <c r="W21" s="77"/>
-    </row>
-    <row r="22" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X21" s="76"/>
+      <c r="Y21" s="77"/>
+    </row>
+    <row r="22" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>2018</v>
       </c>
@@ -6806,8 +6868,10 @@
       <c r="U22" s="75"/>
       <c r="V22" s="76"/>
       <c r="W22" s="77"/>
-    </row>
-    <row r="23" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X22" s="76"/>
+      <c r="Y22" s="77"/>
+    </row>
+    <row r="23" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
         <v>2019</v>
       </c>
@@ -6854,8 +6918,10 @@
       <c r="U23" s="75"/>
       <c r="V23" s="76"/>
       <c r="W23" s="77"/>
-    </row>
-    <row r="24" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X23" s="76"/>
+      <c r="Y23" s="77"/>
+    </row>
+    <row r="24" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="31">
         <v>2020</v>
       </c>
@@ -6881,8 +6947,10 @@
       <c r="U24" s="75"/>
       <c r="V24" s="76"/>
       <c r="W24" s="77"/>
-    </row>
-    <row r="25" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X24" s="76"/>
+      <c r="Y24" s="77"/>
+    </row>
+    <row r="25" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31">
         <v>2021</v>
       </c>
@@ -6908,8 +6976,10 @@
       <c r="U25" s="75"/>
       <c r="V25" s="76"/>
       <c r="W25" s="77"/>
-    </row>
-    <row r="26" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X25" s="76"/>
+      <c r="Y25" s="77"/>
+    </row>
+    <row r="26" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="31">
         <v>2022</v>
       </c>
@@ -6935,8 +7005,10 @@
       <c r="U26" s="75"/>
       <c r="V26" s="76"/>
       <c r="W26" s="77"/>
-    </row>
-    <row r="27" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X26" s="76"/>
+      <c r="Y26" s="77"/>
+    </row>
+    <row r="27" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
         <v>2023</v>
       </c>
@@ -6962,8 +7034,10 @@
       <c r="U27" s="75"/>
       <c r="V27" s="76"/>
       <c r="W27" s="77"/>
-    </row>
-    <row r="28" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X27" s="76"/>
+      <c r="Y27" s="77"/>
+    </row>
+    <row r="28" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
         <v>2024</v>
       </c>
@@ -6989,8 +7063,10 @@
       <c r="U28" s="75"/>
       <c r="V28" s="76"/>
       <c r="W28" s="77"/>
-    </row>
-    <row r="29" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X28" s="76"/>
+      <c r="Y28" s="77"/>
+    </row>
+    <row r="29" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
         <v>2025</v>
       </c>
@@ -7020,8 +7096,10 @@
       <c r="U29" s="75"/>
       <c r="V29" s="76"/>
       <c r="W29" s="77"/>
-    </row>
-    <row r="30" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X29" s="76"/>
+      <c r="Y29" s="77"/>
+    </row>
+    <row r="30" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31">
         <v>2026</v>
       </c>
@@ -7047,8 +7125,10 @@
       <c r="U30" s="75"/>
       <c r="V30" s="76"/>
       <c r="W30" s="77"/>
-    </row>
-    <row r="31" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X30" s="76"/>
+      <c r="Y30" s="77"/>
+    </row>
+    <row r="31" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="31">
         <v>2027</v>
       </c>
@@ -7074,8 +7154,10 @@
       <c r="U31" s="75"/>
       <c r="V31" s="76"/>
       <c r="W31" s="77"/>
-    </row>
-    <row r="32" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X31" s="76"/>
+      <c r="Y31" s="77"/>
+    </row>
+    <row r="32" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="31">
         <v>2028</v>
       </c>
@@ -7101,8 +7183,10 @@
       <c r="U32" s="75"/>
       <c r="V32" s="76"/>
       <c r="W32" s="77"/>
-    </row>
-    <row r="33" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X32" s="76"/>
+      <c r="Y32" s="77"/>
+    </row>
+    <row r="33" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="31">
         <v>2029</v>
       </c>
@@ -7128,8 +7212,10 @@
       <c r="U33" s="75"/>
       <c r="V33" s="76"/>
       <c r="W33" s="77"/>
-    </row>
-    <row r="34" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X33" s="76"/>
+      <c r="Y33" s="77"/>
+    </row>
+    <row r="34" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="63">
         <v>2030</v>
       </c>
@@ -7159,6 +7245,8 @@
       <c r="U34" s="78"/>
       <c r="V34" s="79"/>
       <c r="W34" s="80"/>
+      <c r="X34" s="79"/>
+      <c r="Y34" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="pars" sheetId="24" r:id="rId1"/>
@@ -1324,7 +1324,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Time between HIV tests (in years)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1348,7 +1372,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Time between tests for people infected over 3 years ago</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Time between tests for people within 1 year of infection</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1795,7 +1867,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="132">
   <si>
     <t>Waiting list</t>
   </si>
@@ -4269,7 +4341,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N19" sqref="N19"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5865,8 +5937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7260,7 +7332,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7460,334 +7532,533 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15" style="60" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="43"/>
+    <col min="2" max="2" width="13.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>83</v>
       </c>
       <c r="B1" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="164" t="s">
         <v>69</v>
       </c>
       <c r="G1" s="68" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="163" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="164" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="163" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="164" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="70" t="s">
-        <v>72</v>
+        <v>124</v>
+      </c>
+      <c r="C2" s="165" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="166" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="165" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="166" t="s">
+        <v>128</v>
       </c>
       <c r="G2" s="71" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="H2" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="165" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" s="166" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" s="165" t="s">
+        <v>127</v>
+      </c>
+      <c r="L2" s="166" t="s">
+        <v>128</v>
+      </c>
+      <c r="M2" s="71" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="71" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="219" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="220" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="221" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="220" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="221" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" s="222" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>2000</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-    </row>
-    <row r="5" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="168">
+        <v>0.25</v>
+      </c>
+      <c r="C4" s="168">
+        <v>0.25</v>
+      </c>
+      <c r="D4" s="168">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="168">
+        <v>0.25</v>
+      </c>
+      <c r="F4" s="168">
+        <v>0.25</v>
+      </c>
+      <c r="G4" s="168">
+        <v>0.25</v>
+      </c>
+      <c r="H4" s="168">
+        <v>0.25</v>
+      </c>
+      <c r="I4" s="168">
+        <v>0.25</v>
+      </c>
+      <c r="J4" s="168">
+        <v>0.25</v>
+      </c>
+      <c r="K4" s="168">
+        <v>0.25</v>
+      </c>
+      <c r="L4" s="168">
+        <v>0.25</v>
+      </c>
+      <c r="M4" s="168">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>2001</v>
       </c>
       <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="170"/>
       <c r="G5" s="77"/>
-    </row>
-    <row r="6" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="75"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="170"/>
+      <c r="K5" s="169"/>
+      <c r="L5" s="170"/>
+      <c r="M5" s="77"/>
+    </row>
+    <row r="6" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>2002</v>
       </c>
       <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="170"/>
       <c r="G6" s="77"/>
-    </row>
-    <row r="7" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="75"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="170"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="170"/>
+      <c r="M6" s="77"/>
+    </row>
+    <row r="7" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>2003</v>
       </c>
       <c r="B7" s="75"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="170"/>
       <c r="G7" s="77"/>
-    </row>
-    <row r="8" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="75"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="169"/>
+      <c r="L7" s="170"/>
+      <c r="M7" s="77"/>
+    </row>
+    <row r="8" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>2004</v>
       </c>
       <c r="B8" s="75"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="170"/>
       <c r="G8" s="77"/>
-    </row>
-    <row r="9" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="75"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="77"/>
+    </row>
+    <row r="9" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>2005</v>
       </c>
       <c r="B9" s="75"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="170"/>
       <c r="G9" s="77"/>
-    </row>
-    <row r="10" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="75"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="169"/>
+      <c r="L9" s="170"/>
+      <c r="M9" s="77"/>
+    </row>
+    <row r="10" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>2006</v>
       </c>
       <c r="B10" s="75"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="170"/>
       <c r="G10" s="77"/>
-    </row>
-    <row r="11" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="75"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="169"/>
+      <c r="L10" s="170"/>
+      <c r="M10" s="77"/>
+    </row>
+    <row r="11" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>2007</v>
       </c>
       <c r="B11" s="75"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="170"/>
       <c r="G11" s="77"/>
-    </row>
-    <row r="12" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="75"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="169"/>
+      <c r="L11" s="170"/>
+      <c r="M11" s="77"/>
+    </row>
+    <row r="12" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>2008</v>
       </c>
       <c r="B12" s="75"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
+      <c r="C12" s="169"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="170"/>
       <c r="G12" s="77"/>
-    </row>
-    <row r="13" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="75"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="169"/>
+      <c r="L12" s="170"/>
+      <c r="M12" s="77"/>
+    </row>
+    <row r="13" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>2009</v>
       </c>
       <c r="B13" s="75"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="170"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="170"/>
       <c r="G13" s="77"/>
-    </row>
-    <row r="14" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="75"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="170"/>
+      <c r="K13" s="169"/>
+      <c r="L13" s="216"/>
+      <c r="M13" s="217"/>
+    </row>
+    <row r="14" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>2010</v>
       </c>
       <c r="B14" s="75"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="77"/>
-    </row>
-    <row r="15" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="169"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="216"/>
+      <c r="G14" s="217"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="169"/>
+      <c r="L14" s="216"/>
+      <c r="M14" s="217"/>
+    </row>
+    <row r="15" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>2011</v>
       </c>
       <c r="B15" s="75"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="77"/>
-    </row>
-    <row r="16" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="169"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="216"/>
+      <c r="G15" s="217"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="170"/>
+      <c r="K15" s="169"/>
+      <c r="L15" s="216"/>
+      <c r="M15" s="217"/>
+    </row>
+    <row r="16" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>2012</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="77"/>
-    </row>
-    <row r="17" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="194"/>
+      <c r="C16" s="195"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="195"/>
+      <c r="F16" s="216"/>
+      <c r="G16" s="218"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="196"/>
+      <c r="K16" s="195"/>
+      <c r="L16" s="216"/>
+      <c r="M16" s="77"/>
+    </row>
+    <row r="17" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>2013</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="77"/>
-    </row>
-    <row r="18" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="194"/>
+      <c r="C17" s="195"/>
+      <c r="D17" s="196"/>
+      <c r="E17" s="195"/>
+      <c r="F17" s="216"/>
+      <c r="G17" s="218"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="195"/>
+      <c r="J17" s="196"/>
+      <c r="K17" s="195"/>
+      <c r="L17" s="216"/>
+      <c r="M17" s="77"/>
+    </row>
+    <row r="18" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>2014</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="77"/>
-    </row>
-    <row r="19" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="194"/>
+      <c r="C18" s="195"/>
+      <c r="D18" s="196"/>
+      <c r="E18" s="195"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="195"/>
+      <c r="J18" s="196"/>
+      <c r="K18" s="195"/>
+      <c r="L18" s="216"/>
+      <c r="M18" s="77"/>
+    </row>
+    <row r="19" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>2015</v>
       </c>
-      <c r="B19" s="75">
-        <v>0.5</v>
-      </c>
-      <c r="C19" s="76">
-        <v>0.5</v>
-      </c>
-      <c r="D19" s="76">
-        <v>0.25</v>
-      </c>
-      <c r="E19" s="76">
-        <v>0.25</v>
-      </c>
-      <c r="F19" s="76">
-        <v>0.125</v>
-      </c>
-      <c r="G19" s="77">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="194"/>
+      <c r="C19" s="195"/>
+      <c r="D19" s="196"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="216"/>
+      <c r="G19" s="218"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="195"/>
+      <c r="J19" s="196"/>
+      <c r="K19" s="195"/>
+      <c r="L19" s="216"/>
+      <c r="M19" s="77"/>
+    </row>
+    <row r="20" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>2016</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="77"/>
-    </row>
-    <row r="21" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="194"/>
+      <c r="C20" s="195"/>
+      <c r="D20" s="196"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="216"/>
+      <c r="G20" s="218"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="195"/>
+      <c r="J20" s="196"/>
+      <c r="K20" s="195"/>
+      <c r="L20" s="216"/>
+      <c r="M20" s="77"/>
+    </row>
+    <row r="21" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>2017</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="77"/>
-    </row>
-    <row r="22" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="194"/>
+      <c r="C21" s="195"/>
+      <c r="D21" s="196"/>
+      <c r="E21" s="195"/>
+      <c r="F21" s="216"/>
+      <c r="G21" s="218"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="195"/>
+      <c r="J21" s="196"/>
+      <c r="K21" s="195"/>
+      <c r="L21" s="216"/>
+      <c r="M21" s="217"/>
+    </row>
+    <row r="22" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>2018</v>
       </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="77"/>
-    </row>
-    <row r="23" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="194"/>
+      <c r="C22" s="195"/>
+      <c r="D22" s="196"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="216"/>
+      <c r="G22" s="218"/>
+      <c r="H22" s="194"/>
+      <c r="I22" s="195"/>
+      <c r="J22" s="196"/>
+      <c r="K22" s="195"/>
+      <c r="L22" s="216"/>
+      <c r="M22" s="77"/>
+    </row>
+    <row r="23" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
         <v>2019</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="77"/>
-    </row>
-    <row r="24" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="63">
+      <c r="B23" s="194"/>
+      <c r="C23" s="195"/>
+      <c r="D23" s="196"/>
+      <c r="E23" s="195"/>
+      <c r="F23" s="216"/>
+      <c r="G23" s="218"/>
+      <c r="H23" s="194"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="196"/>
+      <c r="K23" s="195"/>
+      <c r="L23" s="216"/>
+      <c r="M23" s="77"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="44">
         <v>2020</v>
       </c>
       <c r="B24" s="78"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
+      <c r="C24" s="171"/>
+      <c r="D24" s="172"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="172"/>
       <c r="G24" s="80"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="171"/>
+      <c r="J24" s="172"/>
+      <c r="K24" s="171"/>
+      <c r="L24" s="172"/>
+      <c r="M24" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="pars" sheetId="24" r:id="rId1"/>
@@ -1300,7 +1300,7 @@
     <author>Tom Tidhar</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1320,11 +1320,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Time between HIV tests (in years)</t>
+Proportion of diagnosed PLHIV who are on treatment</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1344,103 +1344,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Time between HIV tests (in years)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Time between tests for people within 1 year of infection</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Time between tests for people infected over 3 years ago</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Time between tests for people within 1 year of infection</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Time between tests for people infected over 3 years ago</t>
+Proportion of PLHIV on treatment who are virally suppressed</t>
         </r>
       </text>
     </comment>
@@ -1867,7 +1771,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="132">
   <si>
     <t>Waiting list</t>
   </si>
@@ -5937,8 +5841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:R1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6587,31 +6491,31 @@
         <v>0</v>
       </c>
       <c r="F16" s="62"/>
-      <c r="G16" s="194">
-        <v>0.6</v>
-      </c>
-      <c r="H16" s="195">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I16" s="196">
-        <v>0.6</v>
-      </c>
-      <c r="J16" s="195">
-        <v>4.4000000000000004</v>
+      <c r="G16" s="43">
+        <v>1.91</v>
+      </c>
+      <c r="H16" s="43">
+        <v>1.91</v>
+      </c>
+      <c r="I16" s="43">
+        <v>1.91</v>
+      </c>
+      <c r="J16" s="43">
+        <v>1.91</v>
       </c>
       <c r="K16" s="216"/>
       <c r="L16" s="218"/>
-      <c r="M16" s="194">
-        <v>0.5</v>
-      </c>
-      <c r="N16" s="195">
-        <v>3.3</v>
-      </c>
-      <c r="O16" s="196">
-        <v>0.5</v>
-      </c>
-      <c r="P16" s="195">
-        <v>3.3</v>
+      <c r="M16" s="43">
+        <v>2.37</v>
+      </c>
+      <c r="N16" s="43">
+        <v>2.37</v>
+      </c>
+      <c r="O16" s="43">
+        <v>2.37</v>
+      </c>
+      <c r="P16" s="43">
+        <v>2.37</v>
       </c>
       <c r="Q16" s="216"/>
       <c r="R16" s="77"/>
@@ -6639,31 +6543,31 @@
         <v>0</v>
       </c>
       <c r="F17" s="62"/>
-      <c r="G17" s="194">
-        <v>0.9</v>
-      </c>
-      <c r="H17" s="195">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="I17" s="196">
-        <v>0.9</v>
-      </c>
-      <c r="J17" s="195">
-        <v>4.9000000000000004</v>
+      <c r="G17" s="43">
+        <v>2.34</v>
+      </c>
+      <c r="H17" s="43">
+        <v>2.34</v>
+      </c>
+      <c r="I17" s="43">
+        <v>2.34</v>
+      </c>
+      <c r="J17" s="43">
+        <v>2.34</v>
       </c>
       <c r="K17" s="216"/>
       <c r="L17" s="218"/>
-      <c r="M17" s="194">
-        <v>0.6</v>
-      </c>
-      <c r="N17" s="195">
-        <v>4.2</v>
-      </c>
-      <c r="O17" s="196">
-        <v>0.6</v>
-      </c>
-      <c r="P17" s="195">
-        <v>4.2</v>
+      <c r="M17" s="43">
+        <v>2.84</v>
+      </c>
+      <c r="N17" s="43">
+        <v>2.84</v>
+      </c>
+      <c r="O17" s="43">
+        <v>2.84</v>
+      </c>
+      <c r="P17" s="43">
+        <v>2.84</v>
       </c>
       <c r="Q17" s="216"/>
       <c r="R17" s="77"/>
@@ -6692,31 +6596,31 @@
         <v>0</v>
       </c>
       <c r="F18" s="62"/>
-      <c r="G18" s="194">
-        <v>0.8</v>
-      </c>
-      <c r="H18" s="195">
-        <v>3.5</v>
-      </c>
-      <c r="I18" s="196">
-        <v>0.8</v>
-      </c>
-      <c r="J18" s="195">
-        <v>3.5</v>
+      <c r="G18" s="43">
+        <v>1.5</v>
+      </c>
+      <c r="H18" s="43">
+        <v>1.5</v>
+      </c>
+      <c r="I18" s="43">
+        <v>1.5</v>
+      </c>
+      <c r="J18" s="43">
+        <v>1.5</v>
       </c>
       <c r="K18" s="216"/>
       <c r="L18" s="218"/>
-      <c r="M18" s="194">
-        <v>0.8</v>
-      </c>
-      <c r="N18" s="195">
-        <v>1.7</v>
-      </c>
-      <c r="O18" s="196">
-        <v>0.8</v>
-      </c>
-      <c r="P18" s="195">
-        <v>1.7</v>
+      <c r="M18" s="43">
+        <v>0.96</v>
+      </c>
+      <c r="N18" s="43">
+        <v>0.96</v>
+      </c>
+      <c r="O18" s="43">
+        <v>0.96</v>
+      </c>
+      <c r="P18" s="43">
+        <v>0.96</v>
       </c>
       <c r="Q18" s="216"/>
       <c r="R18" s="77"/>
@@ -6745,31 +6649,31 @@
         <v>0</v>
       </c>
       <c r="F19" s="62"/>
-      <c r="G19" s="194">
-        <v>1.2</v>
-      </c>
-      <c r="H19" s="195">
-        <v>3.9</v>
-      </c>
-      <c r="I19" s="196">
-        <v>1.2</v>
-      </c>
-      <c r="J19" s="195">
-        <v>3.9</v>
+      <c r="G19" s="43">
+        <v>2.08</v>
+      </c>
+      <c r="H19" s="43">
+        <v>2.08</v>
+      </c>
+      <c r="I19" s="43">
+        <v>2.08</v>
+      </c>
+      <c r="J19" s="43">
+        <v>2.08</v>
       </c>
       <c r="K19" s="216"/>
       <c r="L19" s="218"/>
-      <c r="M19" s="194">
-        <v>0.9</v>
-      </c>
-      <c r="N19" s="195">
-        <v>2.4</v>
-      </c>
-      <c r="O19" s="196">
-        <v>0.9</v>
-      </c>
-      <c r="P19" s="195">
-        <v>2.4</v>
+      <c r="M19" s="43">
+        <v>1.45</v>
+      </c>
+      <c r="N19" s="43">
+        <v>1.45</v>
+      </c>
+      <c r="O19" s="43">
+        <v>1.45</v>
+      </c>
+      <c r="P19" s="43">
+        <v>1.45</v>
       </c>
       <c r="Q19" s="216"/>
       <c r="R19" s="77"/>
@@ -6801,31 +6705,31 @@
         <v>49.394274000000003</v>
       </c>
       <c r="F20" s="62"/>
-      <c r="G20" s="194">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H20" s="195">
-        <v>5.8</v>
-      </c>
-      <c r="I20" s="196">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J20" s="195">
-        <v>5.8</v>
+      <c r="G20" s="43">
+        <v>2.73</v>
+      </c>
+      <c r="H20" s="43">
+        <v>2.73</v>
+      </c>
+      <c r="I20" s="43">
+        <v>2.73</v>
+      </c>
+      <c r="J20" s="43">
+        <v>2.73</v>
       </c>
       <c r="K20" s="216"/>
       <c r="L20" s="218"/>
-      <c r="M20" s="194">
-        <v>2</v>
-      </c>
-      <c r="N20" s="195">
-        <v>3.5</v>
-      </c>
-      <c r="O20" s="196">
-        <v>2</v>
-      </c>
-      <c r="P20" s="195">
-        <v>3.5</v>
+      <c r="M20" s="43">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="N20" s="43">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="O20" s="43">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="P20" s="43">
+        <v>2.5499999999999998</v>
       </c>
       <c r="Q20" s="216"/>
       <c r="R20" s="77"/>
@@ -6857,31 +6761,31 @@
         <v>131.75528800000001</v>
       </c>
       <c r="F21" s="62"/>
-      <c r="G21" s="194">
-        <v>1.7</v>
-      </c>
-      <c r="H21" s="195">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I21" s="196">
-        <v>1.7</v>
-      </c>
-      <c r="J21" s="195">
-        <v>4.0999999999999996</v>
+      <c r="G21" s="43">
+        <v>2.71</v>
+      </c>
+      <c r="H21" s="43">
+        <v>2.71</v>
+      </c>
+      <c r="I21" s="43">
+        <v>2.71</v>
+      </c>
+      <c r="J21" s="43">
+        <v>2.71</v>
       </c>
       <c r="K21" s="216"/>
       <c r="L21" s="218"/>
-      <c r="M21" s="194">
-        <v>0.9</v>
-      </c>
-      <c r="N21" s="195">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="O21" s="196">
-        <v>0.9</v>
-      </c>
-      <c r="P21" s="195">
-        <v>4.0999999999999996</v>
+      <c r="M21" s="43">
+        <v>2.23</v>
+      </c>
+      <c r="N21" s="43">
+        <v>2.23</v>
+      </c>
+      <c r="O21" s="43">
+        <v>2.23</v>
+      </c>
+      <c r="P21" s="43">
+        <v>2.23</v>
       </c>
       <c r="Q21" s="216"/>
       <c r="R21" s="217"/>
@@ -6907,31 +6811,31 @@
         <v>149.30809600000001</v>
       </c>
       <c r="F22" s="62"/>
-      <c r="G22" s="194">
-        <v>1.4</v>
-      </c>
-      <c r="H22" s="195">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I22" s="196">
-        <v>1.4</v>
-      </c>
-      <c r="J22" s="195">
-        <v>4.5999999999999996</v>
+      <c r="G22" s="43">
+        <v>2.75</v>
+      </c>
+      <c r="H22" s="43">
+        <v>2.75</v>
+      </c>
+      <c r="I22" s="43">
+        <v>2.75</v>
+      </c>
+      <c r="J22" s="43">
+        <v>2.75</v>
       </c>
       <c r="K22" s="216"/>
       <c r="L22" s="218"/>
-      <c r="M22" s="194">
-        <v>0.6</v>
-      </c>
-      <c r="N22" s="195">
-        <v>4</v>
-      </c>
-      <c r="O22" s="196">
-        <v>0.6</v>
-      </c>
-      <c r="P22" s="195">
-        <v>4</v>
+      <c r="M22" s="43">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="N22" s="43">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="O22" s="43">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="P22" s="43">
+        <v>2.2599999999999998</v>
       </c>
       <c r="Q22" s="216"/>
       <c r="R22" s="77"/>
@@ -6957,32 +6861,16 @@
         <v>164.58356600000002</v>
       </c>
       <c r="F23" s="62"/>
-      <c r="G23" s="194">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H23" s="195">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I23" s="196">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J23" s="195">
-        <v>4.0999999999999996</v>
-      </c>
+      <c r="G23" s="194"/>
+      <c r="H23" s="195"/>
+      <c r="I23" s="196"/>
+      <c r="J23" s="195"/>
       <c r="K23" s="216"/>
       <c r="L23" s="218"/>
-      <c r="M23" s="194">
-        <v>0.5</v>
-      </c>
-      <c r="N23" s="195">
-        <v>3.6</v>
-      </c>
-      <c r="O23" s="196">
-        <v>0.5</v>
-      </c>
-      <c r="P23" s="195">
-        <v>3.6</v>
-      </c>
+      <c r="M23" s="194"/>
+      <c r="N23" s="195"/>
+      <c r="O23" s="196"/>
+      <c r="P23" s="195"/>
       <c r="Q23" s="216"/>
       <c r="R23" s="77"/>
       <c r="S23" s="76"/>
@@ -7532,533 +7420,219 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="60" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="60" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="60" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="60" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="60" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="60" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="60" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="60" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="43"/>
+    <col min="2" max="2" width="19.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="163" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="164" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="163" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="164" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="163" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="164" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="163" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="164" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="68" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="165" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="166" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="165" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="166" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" s="165" t="s">
-        <v>125</v>
-      </c>
-      <c r="J2" s="166" t="s">
-        <v>126</v>
-      </c>
-      <c r="K2" s="165" t="s">
-        <v>127</v>
-      </c>
-      <c r="L2" s="166" t="s">
-        <v>128</v>
-      </c>
-      <c r="M2" s="71" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="219" t="s">
-        <v>98</v>
-      </c>
-      <c r="I3" s="220" t="s">
-        <v>98</v>
-      </c>
-      <c r="J3" s="221" t="s">
-        <v>98</v>
-      </c>
-      <c r="K3" s="220" t="s">
-        <v>98</v>
-      </c>
-      <c r="L3" s="221" t="s">
-        <v>98</v>
-      </c>
-      <c r="M3" s="222" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>2000</v>
       </c>
-      <c r="B4" s="168">
-        <v>0.25</v>
-      </c>
-      <c r="C4" s="168">
-        <v>0.25</v>
-      </c>
-      <c r="D4" s="168">
-        <v>0.25</v>
-      </c>
-      <c r="E4" s="168">
-        <v>0.25</v>
-      </c>
-      <c r="F4" s="168">
-        <v>0.25</v>
-      </c>
-      <c r="G4" s="168">
-        <v>0.25</v>
-      </c>
-      <c r="H4" s="168">
-        <v>0.25</v>
-      </c>
-      <c r="I4" s="168">
-        <v>0.25</v>
-      </c>
-      <c r="J4" s="168">
-        <v>0.25</v>
-      </c>
-      <c r="K4" s="168">
-        <v>0.25</v>
-      </c>
-      <c r="L4" s="168">
-        <v>0.25</v>
-      </c>
-      <c r="M4" s="168">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+    </row>
+    <row r="5" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>2001</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="169"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="169"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="77"/>
-    </row>
-    <row r="6" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
+    </row>
+    <row r="6" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>2002</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="170"/>
-      <c r="K6" s="169"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="77"/>
-    </row>
-    <row r="7" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
+    </row>
+    <row r="7" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>2003</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="169"/>
-      <c r="L7" s="170"/>
-      <c r="M7" s="77"/>
-    </row>
-    <row r="8" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="76"/>
+      <c r="C7" s="77"/>
+    </row>
+    <row r="8" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>2004</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="170"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="77"/>
-    </row>
-    <row r="9" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
+    </row>
+    <row r="9" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>2005</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="169"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="169"/>
-      <c r="L9" s="170"/>
-      <c r="M9" s="77"/>
-    </row>
-    <row r="10" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="76"/>
+      <c r="C9" s="77"/>
+    </row>
+    <row r="10" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>2006</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="169"/>
-      <c r="L10" s="170"/>
-      <c r="M10" s="77"/>
-    </row>
-    <row r="11" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
+    </row>
+    <row r="11" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>2007</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="169"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="169"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="169"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="169"/>
-      <c r="L11" s="170"/>
-      <c r="M11" s="77"/>
-    </row>
-    <row r="12" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="76">
+        <v>0.75</v>
+      </c>
+      <c r="C11" s="77">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>2008</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="169"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="169"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="169"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="169"/>
-      <c r="L12" s="170"/>
-      <c r="M12" s="77"/>
-    </row>
-    <row r="13" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="76"/>
+      <c r="C12" s="77"/>
+    </row>
+    <row r="13" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>2009</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="169"/>
-      <c r="J13" s="170"/>
-      <c r="K13" s="169"/>
-      <c r="L13" s="216"/>
-      <c r="M13" s="217"/>
-    </row>
-    <row r="14" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="76"/>
+      <c r="C13" s="77"/>
+    </row>
+    <row r="14" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>2010</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="169"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="216"/>
-      <c r="G14" s="217"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="169"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="169"/>
-      <c r="L14" s="216"/>
-      <c r="M14" s="217"/>
-    </row>
-    <row r="15" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="76">
+        <v>0.75</v>
+      </c>
+      <c r="C14" s="77">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>2011</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="216"/>
-      <c r="G15" s="217"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="169"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="169"/>
-      <c r="L15" s="216"/>
-      <c r="M15" s="217"/>
-    </row>
-    <row r="16" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="76"/>
+      <c r="C15" s="77"/>
+    </row>
+    <row r="16" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>2012</v>
       </c>
-      <c r="B16" s="194"/>
-      <c r="C16" s="195"/>
-      <c r="D16" s="196"/>
-      <c r="E16" s="195"/>
-      <c r="F16" s="216"/>
-      <c r="G16" s="218"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="195"/>
-      <c r="J16" s="196"/>
-      <c r="K16" s="195"/>
-      <c r="L16" s="216"/>
-      <c r="M16" s="77"/>
-    </row>
-    <row r="17" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="76">
+        <v>0.82</v>
+      </c>
+      <c r="C16" s="77">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>2013</v>
       </c>
-      <c r="B17" s="194"/>
-      <c r="C17" s="195"/>
-      <c r="D17" s="196"/>
-      <c r="E17" s="195"/>
-      <c r="F17" s="216"/>
-      <c r="G17" s="218"/>
-      <c r="H17" s="194"/>
-      <c r="I17" s="195"/>
-      <c r="J17" s="196"/>
-      <c r="K17" s="195"/>
-      <c r="L17" s="216"/>
-      <c r="M17" s="77"/>
-    </row>
-    <row r="18" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="76">
+        <v>0.86</v>
+      </c>
+      <c r="C17" s="77">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>2014</v>
       </c>
-      <c r="B18" s="194"/>
-      <c r="C18" s="195"/>
-      <c r="D18" s="196"/>
-      <c r="E18" s="195"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="218"/>
-      <c r="H18" s="194"/>
-      <c r="I18" s="195"/>
-      <c r="J18" s="196"/>
-      <c r="K18" s="195"/>
-      <c r="L18" s="216"/>
-      <c r="M18" s="77"/>
-    </row>
-    <row r="19" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="76">
+        <v>0.89</v>
+      </c>
+      <c r="C18" s="77">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>2015</v>
       </c>
-      <c r="B19" s="194"/>
-      <c r="C19" s="195"/>
-      <c r="D19" s="196"/>
-      <c r="E19" s="195"/>
-      <c r="F19" s="216"/>
-      <c r="G19" s="218"/>
-      <c r="H19" s="194"/>
-      <c r="I19" s="195"/>
-      <c r="J19" s="196"/>
-      <c r="K19" s="195"/>
-      <c r="L19" s="216"/>
-      <c r="M19" s="77"/>
-    </row>
-    <row r="20" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="76">
+        <v>0.92</v>
+      </c>
+      <c r="C19" s="77">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>2016</v>
       </c>
-      <c r="B20" s="194"/>
-      <c r="C20" s="195"/>
-      <c r="D20" s="196"/>
-      <c r="E20" s="195"/>
-      <c r="F20" s="216"/>
-      <c r="G20" s="218"/>
-      <c r="H20" s="194"/>
-      <c r="I20" s="195"/>
-      <c r="J20" s="196"/>
-      <c r="K20" s="195"/>
-      <c r="L20" s="216"/>
-      <c r="M20" s="77"/>
-    </row>
-    <row r="21" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="76"/>
+      <c r="C20" s="77"/>
+    </row>
+    <row r="21" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>2017</v>
       </c>
-      <c r="B21" s="194"/>
-      <c r="C21" s="195"/>
-      <c r="D21" s="196"/>
-      <c r="E21" s="195"/>
-      <c r="F21" s="216"/>
-      <c r="G21" s="218"/>
-      <c r="H21" s="194"/>
-      <c r="I21" s="195"/>
-      <c r="J21" s="196"/>
-      <c r="K21" s="195"/>
-      <c r="L21" s="216"/>
-      <c r="M21" s="217"/>
-    </row>
-    <row r="22" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="76"/>
+      <c r="C21" s="77"/>
+    </row>
+    <row r="22" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>2018</v>
       </c>
-      <c r="B22" s="194"/>
-      <c r="C22" s="195"/>
-      <c r="D22" s="196"/>
-      <c r="E22" s="195"/>
-      <c r="F22" s="216"/>
-      <c r="G22" s="218"/>
-      <c r="H22" s="194"/>
-      <c r="I22" s="195"/>
-      <c r="J22" s="196"/>
-      <c r="K22" s="195"/>
-      <c r="L22" s="216"/>
-      <c r="M22" s="77"/>
-    </row>
-    <row r="23" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="76"/>
+      <c r="C22" s="77"/>
+    </row>
+    <row r="23" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
         <v>2019</v>
       </c>
-      <c r="B23" s="194"/>
-      <c r="C23" s="195"/>
-      <c r="D23" s="196"/>
-      <c r="E23" s="195"/>
-      <c r="F23" s="216"/>
-      <c r="G23" s="218"/>
-      <c r="H23" s="194"/>
-      <c r="I23" s="195"/>
-      <c r="J23" s="196"/>
-      <c r="K23" s="195"/>
-      <c r="L23" s="216"/>
-      <c r="M23" s="77"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="76"/>
+      <c r="C23" s="77"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="44">
         <v>2020</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="171"/>
-      <c r="D24" s="172"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="172"/>
-      <c r="K24" s="171"/>
-      <c r="L24" s="172"/>
-      <c r="M24" s="80"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="77"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -5841,8 +5841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6108,10 +6108,10 @@
       <c r="O4" s="168"/>
       <c r="P4" s="167"/>
       <c r="Q4" s="168">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R4" s="74">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S4" s="73"/>
       <c r="T4" s="74"/>

--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="pars" sheetId="24" r:id="rId1"/>
@@ -1062,6 +1062,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="X1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Kathleen Ryan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+source: https://research.treasury.gov.au/external-paper/shaping-a-nation/</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1300,6 +1324,30 @@
     <author>Tom Tidhar</author>
   </authors>
   <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom Tidhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Time between HIV tests (in years)</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1320,7 +1368,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Proportion of diagnosed PLHIV who are on treatment</t>
+Time between tests for people within 1 year of infection</t>
         </r>
       </text>
     </comment>
@@ -1344,7 +1392,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Proportion of PLHIV on treatment who are virally suppressed</t>
+Time between tests for people infected over 3 years ago</t>
         </r>
       </text>
     </comment>
@@ -1771,7 +1819,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="132">
   <si>
     <t>Waiting list</t>
   </si>
@@ -2180,7 +2228,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2233,12 +2281,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2302,6 +2344,31 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3063,11 +3130,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3092,17 +3159,17 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3124,27 +3191,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="13" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="13" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="8" fillId="4" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="0" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="4" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -3204,10 +3271,10 @@
     <xf numFmtId="2" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3215,67 +3282,66 @@
     <xf numFmtId="2" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
@@ -3296,21 +3362,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3343,77 +3409,77 @@
     <xf numFmtId="2" fontId="0" fillId="7" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
@@ -3430,6 +3496,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4245,7 +4323,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="topRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4281,139 +4359,153 @@
     <col min="31" max="31" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:32" s="118" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="114" t="s">
+      <c r="E1" s="113" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="114" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="113" t="s">
+      <c r="G1" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="114" t="s">
+      <c r="H1" s="113" t="s">
         <v>120</v>
       </c>
-      <c r="I1" s="115" t="s">
+      <c r="I1" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="J1" s="112" t="s">
+      <c r="J1" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="K1" s="113" t="s">
+      <c r="K1" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="L1" s="111" t="s">
+      <c r="L1" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="M1" s="112" t="s">
+      <c r="M1" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="N1" s="113" t="s">
+      <c r="N1" s="112" t="s">
         <v>99</v>
       </c>
-      <c r="O1" s="149" t="s">
+      <c r="O1" s="148" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="117" t="s">
+      <c r="P1" s="115"/>
+      <c r="Q1" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="117" t="s">
+      <c r="R1" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="117" t="s">
+      <c r="S1" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="117" t="s">
+      <c r="T1" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="117" t="s">
+      <c r="U1" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="117" t="s">
+      <c r="V1" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="117" t="s">
+      <c r="W1" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="X1" s="117" t="s">
+      <c r="X1" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="117" t="s">
+      <c r="Y1" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="117" t="s">
+      <c r="Z1" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" s="117" t="s">
+      <c r="AA1" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" s="117" t="s">
+      <c r="AB1" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" s="117" t="s">
+      <c r="AC1" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="118" t="s">
+      <c r="AD1" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="AE1" s="197" t="s">
+      <c r="AE1" s="196" t="s">
         <v>115</v>
       </c>
-      <c r="AF1" s="197" t="s">
+      <c r="AF1" s="196" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:32" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="200">
+      <c r="A2" s="199">
         <v>2006</v>
       </c>
-      <c r="B2" s="201"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="207"/>
-      <c r="Q2" s="208"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="208"/>
-      <c r="U2" s="208"/>
-      <c r="V2" s="208"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="208"/>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="208"/>
-      <c r="AB2" s="208"/>
-      <c r="AC2" s="208"/>
-      <c r="AD2" s="209"/>
-      <c r="AE2" s="193">
+      <c r="B2" s="200"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="103">
+        <v>199</v>
+      </c>
+      <c r="F2" s="104">
+        <v>186</v>
+      </c>
+      <c r="G2" s="223">
+        <v>13</v>
+      </c>
+      <c r="H2" s="203">
+        <v>81</v>
+      </c>
+      <c r="I2" s="204">
+        <v>105</v>
+      </c>
+      <c r="J2" s="201">
+        <v>6</v>
+      </c>
+      <c r="K2" s="202">
+        <v>7</v>
+      </c>
+      <c r="L2" s="200"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="202"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="207"/>
+      <c r="R2" s="207"/>
+      <c r="S2" s="207"/>
+      <c r="T2" s="207"/>
+      <c r="U2" s="207"/>
+      <c r="V2" s="207"/>
+      <c r="W2" s="207"/>
+      <c r="X2" s="207"/>
+      <c r="Y2" s="207"/>
+      <c r="Z2" s="207"/>
+      <c r="AA2" s="207"/>
+      <c r="AB2" s="207"/>
+      <c r="AC2" s="207"/>
+      <c r="AD2" s="208"/>
+      <c r="AE2" s="192">
         <v>30713</v>
       </c>
-      <c r="AF2" s="193">
+      <c r="AF2" s="192">
         <v>30713</v>
       </c>
     </row>
@@ -4421,20 +4513,34 @@
       <c r="A3" s="10">
         <v>2007</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="211"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="212"/>
-      <c r="K3" s="105"/>
+      <c r="B3" s="188"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="103">
+        <v>184</v>
+      </c>
+      <c r="F3" s="104">
+        <v>167</v>
+      </c>
+      <c r="G3" s="224">
+        <v>17</v>
+      </c>
+      <c r="H3" s="103">
+        <v>69</v>
+      </c>
+      <c r="I3" s="104">
+        <v>98</v>
+      </c>
+      <c r="J3" s="211">
+        <v>7</v>
+      </c>
+      <c r="K3" s="105">
+        <v>10</v>
+      </c>
       <c r="L3" s="106"/>
       <c r="M3" s="107"/>
       <c r="N3" s="108"/>
-      <c r="O3" s="150">
+      <c r="O3" s="149">
         <v>0.7</v>
       </c>
       <c r="P3" s="96"/>
@@ -4485,8 +4591,8 @@
         <v>113.70439800000001</v>
       </c>
       <c r="AD3" s="13"/>
-      <c r="AE3" s="199"/>
-      <c r="AF3" s="210">
+      <c r="AE3" s="198"/>
+      <c r="AF3" s="209">
         <f>AF2+532.4</f>
         <v>31245.4</v>
       </c>
@@ -4495,34 +4601,48 @@
       <c r="A4" s="10">
         <v>2008</v>
       </c>
-      <c r="B4" s="189">
+      <c r="B4" s="188">
         <f>SUM(C4:D4)</f>
         <v>27291.800000000003</v>
       </c>
-      <c r="C4" s="211">
+      <c r="C4" s="210">
         <f t="shared" ref="C4:C15" si="3">AF4-(D4+L4)</f>
         <v>27291.800000000003</v>
       </c>
-      <c r="D4" s="183"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="212"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="189">
+      <c r="D4" s="182"/>
+      <c r="E4" s="226">
+        <v>181</v>
+      </c>
+      <c r="F4" s="104">
+        <v>165</v>
+      </c>
+      <c r="G4" s="224">
+        <v>16</v>
+      </c>
+      <c r="H4" s="103">
+        <v>71</v>
+      </c>
+      <c r="I4" s="104">
+        <v>94</v>
+      </c>
+      <c r="J4" s="211">
+        <v>8</v>
+      </c>
+      <c r="K4" s="105">
+        <v>8</v>
+      </c>
+      <c r="L4" s="188">
         <v>4486</v>
       </c>
-      <c r="M4" s="193">
+      <c r="M4" s="192">
         <f>L4*0.78</f>
         <v>3499.08</v>
       </c>
-      <c r="N4" s="183">
+      <c r="N4" s="182">
         <f>L4*0.22</f>
         <v>986.92</v>
       </c>
-      <c r="O4" s="151"/>
+      <c r="O4" s="150"/>
       <c r="P4" s="97"/>
       <c r="Q4" s="40"/>
       <c r="R4" s="40"/>
@@ -4561,8 +4681,8 @@
         <v>104.106708</v>
       </c>
       <c r="AD4" s="13"/>
-      <c r="AE4" s="199"/>
-      <c r="AF4" s="210">
+      <c r="AE4" s="198"/>
+      <c r="AF4" s="209">
         <f t="shared" ref="AF4:AF7" si="7">AF3+532.4</f>
         <v>31777.800000000003</v>
       </c>
@@ -4571,34 +4691,48 @@
       <c r="A5" s="10">
         <v>2009</v>
       </c>
-      <c r="B5" s="189">
+      <c r="B5" s="188">
         <f t="shared" ref="B5:B15" si="8">SUM(C5:D5)</f>
         <v>27545.200000000004</v>
       </c>
-      <c r="C5" s="211">
+      <c r="C5" s="210">
         <f t="shared" si="3"/>
         <v>27545.200000000004</v>
       </c>
-      <c r="D5" s="183"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="212"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="189">
+      <c r="D5" s="182"/>
+      <c r="E5" s="225">
+        <v>197</v>
+      </c>
+      <c r="F5" s="104">
+        <v>183</v>
+      </c>
+      <c r="G5" s="224">
+        <v>14</v>
+      </c>
+      <c r="H5" s="103">
+        <v>85</v>
+      </c>
+      <c r="I5" s="104">
+        <v>98</v>
+      </c>
+      <c r="J5" s="211">
+        <v>7</v>
+      </c>
+      <c r="K5" s="105">
+        <v>7</v>
+      </c>
+      <c r="L5" s="188">
         <v>4765</v>
       </c>
-      <c r="M5" s="193">
+      <c r="M5" s="192">
         <f t="shared" ref="M5:M14" si="9">L5*0.78</f>
         <v>3716.7000000000003</v>
       </c>
-      <c r="N5" s="183">
+      <c r="N5" s="182">
         <f t="shared" ref="N5:N14" si="10">L5*0.22</f>
         <v>1048.3</v>
       </c>
-      <c r="O5" s="151"/>
+      <c r="O5" s="150"/>
       <c r="P5" s="97"/>
       <c r="Q5" s="40"/>
       <c r="R5" s="40"/>
@@ -4637,8 +4771,8 @@
         <v>167.11272000000002</v>
       </c>
       <c r="AD5" s="14"/>
-      <c r="AE5" s="199"/>
-      <c r="AF5" s="210">
+      <c r="AE5" s="198"/>
+      <c r="AF5" s="209">
         <f t="shared" si="7"/>
         <v>32310.200000000004</v>
       </c>
@@ -4647,36 +4781,50 @@
       <c r="A6" s="10">
         <v>2010</v>
       </c>
-      <c r="B6" s="189">
+      <c r="B6" s="188">
         <f t="shared" si="8"/>
         <v>27788.600000000006</v>
       </c>
-      <c r="C6" s="211">
+      <c r="C6" s="210">
         <f t="shared" si="3"/>
         <v>26472.496600000006</v>
       </c>
-      <c r="D6" s="184">
+      <c r="D6" s="183">
         <v>1316.1034</v>
       </c>
-      <c r="E6" s="120"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="212"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="189">
+      <c r="E6" s="119">
+        <v>174</v>
+      </c>
+      <c r="F6" s="104">
+        <v>153</v>
+      </c>
+      <c r="G6" s="224">
+        <v>21</v>
+      </c>
+      <c r="H6" s="103">
+        <v>85</v>
+      </c>
+      <c r="I6" s="104">
+        <v>68</v>
+      </c>
+      <c r="J6" s="211">
+        <v>7</v>
+      </c>
+      <c r="K6" s="105">
+        <v>14</v>
+      </c>
+      <c r="L6" s="188">
         <v>5054</v>
       </c>
-      <c r="M6" s="193">
+      <c r="M6" s="192">
         <f t="shared" si="9"/>
         <v>3942.1200000000003</v>
       </c>
-      <c r="N6" s="183">
+      <c r="N6" s="182">
         <f t="shared" si="10"/>
         <v>1111.8800000000001</v>
       </c>
-      <c r="O6" s="150"/>
+      <c r="O6" s="149"/>
       <c r="P6" s="97"/>
       <c r="Q6" s="40">
         <v>4.0273972602739724E-2</v>
@@ -4725,8 +4873,8 @@
         <v>198.50281199999998</v>
       </c>
       <c r="AD6" s="14"/>
-      <c r="AE6" s="199"/>
-      <c r="AF6" s="210">
+      <c r="AE6" s="198"/>
+      <c r="AF6" s="209">
         <f t="shared" si="7"/>
         <v>32842.600000000006</v>
       </c>
@@ -4735,36 +4883,50 @@
       <c r="A7" s="10">
         <v>2011</v>
       </c>
-      <c r="B7" s="189">
+      <c r="B7" s="188">
         <f>SUM(C7:D7)</f>
         <v>28074.000000000007</v>
       </c>
-      <c r="C7" s="211">
+      <c r="C7" s="210">
         <f t="shared" si="3"/>
         <v>26900.372400000007</v>
       </c>
-      <c r="D7" s="184">
+      <c r="D7" s="183">
         <v>1173.6276</v>
       </c>
-      <c r="E7" s="120"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="213"/>
-      <c r="K7" s="214"/>
-      <c r="L7" s="189">
+      <c r="E7" s="119">
+        <v>210</v>
+      </c>
+      <c r="F7" s="104">
+        <v>190</v>
+      </c>
+      <c r="G7" s="224">
+        <v>20</v>
+      </c>
+      <c r="H7" s="119">
+        <v>99</v>
+      </c>
+      <c r="I7" s="121">
+        <v>91</v>
+      </c>
+      <c r="J7" s="212">
+        <v>7</v>
+      </c>
+      <c r="K7" s="213">
+        <v>13</v>
+      </c>
+      <c r="L7" s="188">
         <v>5301</v>
       </c>
-      <c r="M7" s="193">
+      <c r="M7" s="192">
         <f t="shared" si="9"/>
         <v>4134.78</v>
       </c>
-      <c r="N7" s="183">
+      <c r="N7" s="182">
         <f t="shared" si="10"/>
         <v>1166.22</v>
       </c>
-      <c r="O7" s="151"/>
+      <c r="O7" s="150"/>
       <c r="P7" s="97"/>
       <c r="Q7" s="40">
         <v>3.7534246575342468E-2</v>
@@ -4813,10 +4975,10 @@
         <v>210.35878200000002</v>
       </c>
       <c r="AD7" s="14"/>
-      <c r="AE7" s="193">
+      <c r="AE7" s="192">
         <v>33375</v>
       </c>
-      <c r="AF7" s="210">
+      <c r="AF7" s="209">
         <f t="shared" si="7"/>
         <v>33375.000000000007</v>
       </c>
@@ -4825,50 +4987,50 @@
       <c r="A8" s="10">
         <v>2012</v>
       </c>
-      <c r="B8" s="189">
+      <c r="B8" s="188">
         <f t="shared" si="8"/>
         <v>28353.000000000007</v>
       </c>
-      <c r="C8" s="211">
+      <c r="C8" s="210">
         <f t="shared" si="3"/>
         <v>27248.744400000007</v>
       </c>
-      <c r="D8" s="184">
+      <c r="D8" s="183">
         <v>1104.2556</v>
       </c>
-      <c r="E8" s="185">
+      <c r="E8" s="184">
         <v>206</v>
       </c>
-      <c r="F8" s="186">
+      <c r="F8" s="185">
         <v>172</v>
       </c>
-      <c r="G8" s="187">
+      <c r="G8" s="186">
         <v>34</v>
       </c>
       <c r="H8" s="185">
+        <v>101</v>
+      </c>
+      <c r="I8" s="184">
         <v>71</v>
       </c>
-      <c r="I8" s="186">
-        <v>101</v>
-      </c>
-      <c r="J8" s="223">
+      <c r="J8" s="186">
+        <v>10</v>
+      </c>
+      <c r="K8" s="222">
         <v>24</v>
       </c>
-      <c r="K8" s="187">
-        <v>10</v>
-      </c>
-      <c r="L8" s="189">
+      <c r="L8" s="188">
         <v>5610</v>
       </c>
-      <c r="M8" s="193">
+      <c r="M8" s="192">
         <f t="shared" si="9"/>
         <v>4375.8</v>
       </c>
-      <c r="N8" s="183">
+      <c r="N8" s="182">
         <f t="shared" si="10"/>
         <v>1234.2</v>
       </c>
-      <c r="O8" s="150">
+      <c r="O8" s="149">
         <v>0.91200000000000003</v>
       </c>
       <c r="P8" s="97"/>
@@ -4919,8 +5081,8 @@
         <v>275.05850400000003</v>
       </c>
       <c r="AD8" s="14"/>
-      <c r="AE8" s="199"/>
-      <c r="AF8" s="199">
+      <c r="AE8" s="198"/>
+      <c r="AF8" s="198">
         <f>AF7+588</f>
         <v>33963.000000000007</v>
       </c>
@@ -4929,50 +5091,50 @@
       <c r="A9" s="10">
         <v>2013</v>
       </c>
-      <c r="B9" s="189">
+      <c r="B9" s="188">
         <f t="shared" si="8"/>
         <v>28657.000000000007</v>
       </c>
-      <c r="C9" s="211">
+      <c r="C9" s="210">
         <f t="shared" si="3"/>
         <v>27511.205800000007</v>
       </c>
-      <c r="D9" s="184">
+      <c r="D9" s="183">
         <v>1145.7942</v>
       </c>
-      <c r="E9" s="185">
+      <c r="E9" s="184">
         <v>233</v>
       </c>
-      <c r="F9" s="186">
+      <c r="F9" s="185">
         <v>184</v>
       </c>
-      <c r="G9" s="187">
+      <c r="G9" s="186">
         <v>49</v>
       </c>
       <c r="H9" s="185">
+        <v>106</v>
+      </c>
+      <c r="I9" s="184">
         <v>78</v>
       </c>
-      <c r="I9" s="186">
-        <v>106</v>
-      </c>
-      <c r="J9" s="223">
+      <c r="J9" s="186">
+        <v>14</v>
+      </c>
+      <c r="K9" s="222">
         <v>35</v>
       </c>
-      <c r="K9" s="187">
-        <v>14</v>
-      </c>
-      <c r="L9" s="189">
+      <c r="L9" s="188">
         <v>5894</v>
       </c>
-      <c r="M9" s="193">
+      <c r="M9" s="192">
         <f t="shared" si="9"/>
         <v>4597.32</v>
       </c>
-      <c r="N9" s="183">
+      <c r="N9" s="182">
         <f t="shared" si="10"/>
         <v>1296.68</v>
       </c>
-      <c r="O9" s="150"/>
+      <c r="O9" s="149"/>
       <c r="P9" s="97"/>
       <c r="Q9" s="40">
         <v>5.2876712328767124E-2</v>
@@ -5021,8 +5183,8 @@
         <v>336.25789200000003</v>
       </c>
       <c r="AD9" s="14"/>
-      <c r="AE9" s="199"/>
-      <c r="AF9" s="199">
+      <c r="AE9" s="198"/>
+      <c r="AF9" s="198">
         <f t="shared" ref="AF9:AF15" si="13">AF8+588</f>
         <v>34551.000000000007</v>
       </c>
@@ -5031,50 +5193,50 @@
       <c r="A10" s="10">
         <v>2014</v>
       </c>
-      <c r="B10" s="189">
+      <c r="B10" s="188">
         <f t="shared" si="8"/>
         <v>28939.000000000007</v>
       </c>
-      <c r="C10" s="211">
+      <c r="C10" s="210">
         <f t="shared" si="3"/>
         <v>27635.934400000006</v>
       </c>
-      <c r="D10" s="184">
+      <c r="D10" s="183">
         <v>1303.0656000000001</v>
       </c>
-      <c r="E10" s="185">
+      <c r="E10" s="184">
         <v>235</v>
       </c>
-      <c r="F10" s="186">
+      <c r="F10" s="185">
         <v>200</v>
       </c>
-      <c r="G10" s="187">
+      <c r="G10" s="186">
         <v>35</v>
       </c>
       <c r="H10" s="185">
+        <v>133</v>
+      </c>
+      <c r="I10" s="184">
         <v>67</v>
       </c>
-      <c r="I10" s="186">
-        <v>133</v>
-      </c>
-      <c r="J10" s="223">
+      <c r="J10" s="186">
+        <v>25</v>
+      </c>
+      <c r="K10" s="222">
         <v>10</v>
       </c>
-      <c r="K10" s="187">
-        <v>25</v>
-      </c>
-      <c r="L10" s="189">
+      <c r="L10" s="188">
         <v>6200</v>
       </c>
-      <c r="M10" s="193">
+      <c r="M10" s="192">
         <f t="shared" si="9"/>
         <v>4836</v>
       </c>
-      <c r="N10" s="183">
+      <c r="N10" s="182">
         <f t="shared" si="10"/>
         <v>1364</v>
       </c>
-      <c r="O10" s="150">
+      <c r="O10" s="149">
         <v>0.88</v>
       </c>
       <c r="P10" s="97"/>
@@ -5125,8 +5287,8 @@
         <v>369.11586600000004</v>
       </c>
       <c r="AD10" s="14"/>
-      <c r="AE10" s="199"/>
-      <c r="AF10" s="199">
+      <c r="AE10" s="198"/>
+      <c r="AF10" s="198">
         <f t="shared" si="13"/>
         <v>35139.000000000007</v>
       </c>
@@ -5135,50 +5297,50 @@
       <c r="A11" s="10">
         <v>2015</v>
       </c>
-      <c r="B11" s="189">
+      <c r="B11" s="188">
         <f t="shared" si="8"/>
         <v>29178.000000000007</v>
       </c>
-      <c r="C11" s="211">
+      <c r="C11" s="210">
         <f t="shared" si="3"/>
         <v>27722.579200000007</v>
       </c>
-      <c r="D11" s="184">
+      <c r="D11" s="183">
         <v>1455.4208000000001</v>
       </c>
-      <c r="E11" s="185">
+      <c r="E11" s="184">
         <v>218</v>
       </c>
-      <c r="F11" s="186">
+      <c r="F11" s="185">
         <v>177</v>
       </c>
-      <c r="G11" s="187">
+      <c r="G11" s="186">
         <v>41</v>
       </c>
       <c r="H11" s="185">
+        <v>115</v>
+      </c>
+      <c r="I11" s="184">
         <v>62</v>
       </c>
-      <c r="I11" s="186">
-        <v>115</v>
-      </c>
-      <c r="J11" s="223">
+      <c r="J11" s="186">
+        <v>23</v>
+      </c>
+      <c r="K11" s="222">
         <v>18</v>
       </c>
-      <c r="K11" s="187">
-        <v>23</v>
-      </c>
-      <c r="L11" s="189">
+      <c r="L11" s="188">
         <v>6549</v>
       </c>
-      <c r="M11" s="193">
+      <c r="M11" s="192">
         <f t="shared" si="9"/>
         <v>5108.22</v>
       </c>
-      <c r="N11" s="183">
+      <c r="N11" s="182">
         <f t="shared" si="10"/>
         <v>1440.78</v>
       </c>
-      <c r="O11" s="150">
+      <c r="O11" s="149">
         <v>0.88</v>
       </c>
       <c r="P11" s="97"/>
@@ -5229,8 +5391,8 @@
         <v>549.32661000000007</v>
       </c>
       <c r="AD11" s="14"/>
-      <c r="AE11" s="199"/>
-      <c r="AF11" s="199">
+      <c r="AE11" s="198"/>
+      <c r="AF11" s="198">
         <f t="shared" si="13"/>
         <v>35727.000000000007</v>
       </c>
@@ -5239,50 +5401,50 @@
       <c r="A12" s="10">
         <v>2016</v>
       </c>
-      <c r="B12" s="189">
+      <c r="B12" s="188">
         <f>SUM(C12:D12)</f>
         <v>29456.000000000007</v>
       </c>
-      <c r="C12" s="211">
+      <c r="C12" s="210">
         <f t="shared" si="3"/>
         <v>27809.524200000007</v>
       </c>
-      <c r="D12" s="184">
+      <c r="D12" s="183">
         <v>1646.4758000000002</v>
       </c>
-      <c r="E12" s="185">
+      <c r="E12" s="184">
         <v>244</v>
       </c>
-      <c r="F12" s="186">
+      <c r="F12" s="185">
         <v>180</v>
       </c>
-      <c r="G12" s="187">
+      <c r="G12" s="186">
         <v>64</v>
       </c>
       <c r="H12" s="185">
+        <v>102</v>
+      </c>
+      <c r="I12" s="184">
         <v>78</v>
       </c>
-      <c r="I12" s="186">
-        <v>102</v>
-      </c>
-      <c r="J12" s="223">
+      <c r="J12" s="186">
         <v>32</v>
       </c>
-      <c r="K12" s="187">
+      <c r="K12" s="222">
         <v>32</v>
       </c>
-      <c r="L12" s="189">
+      <c r="L12" s="188">
         <v>6859</v>
       </c>
-      <c r="M12" s="193">
+      <c r="M12" s="192">
         <f t="shared" si="9"/>
         <v>5350.02</v>
       </c>
-      <c r="N12" s="183">
+      <c r="N12" s="182">
         <f t="shared" si="10"/>
         <v>1508.98</v>
       </c>
-      <c r="O12" s="150">
+      <c r="O12" s="149">
         <v>0.89</v>
       </c>
       <c r="P12" s="97"/>
@@ -5335,10 +5497,10 @@
       <c r="AD12" s="42">
         <v>0.18</v>
       </c>
-      <c r="AE12" s="193">
+      <c r="AE12" s="192">
         <v>36315</v>
       </c>
-      <c r="AF12" s="199">
+      <c r="AF12" s="198">
         <f t="shared" si="13"/>
         <v>36315.000000000007</v>
       </c>
@@ -5347,50 +5509,50 @@
       <c r="A13" s="10">
         <v>2017</v>
       </c>
-      <c r="B13" s="189">
+      <c r="B13" s="188">
         <f t="shared" si="8"/>
         <v>29684.000000000011</v>
       </c>
-      <c r="C13" s="211">
+      <c r="C13" s="210">
         <f t="shared" si="3"/>
         <v>27801.781600000009</v>
       </c>
-      <c r="D13" s="184">
+      <c r="D13" s="183">
         <v>1882.2184</v>
       </c>
-      <c r="E13" s="185">
+      <c r="E13" s="184">
         <v>207</v>
       </c>
-      <c r="F13" s="186">
+      <c r="F13" s="185">
         <v>147</v>
       </c>
-      <c r="G13" s="187">
+      <c r="G13" s="186">
         <v>60</v>
       </c>
       <c r="H13" s="185">
+        <v>74</v>
+      </c>
+      <c r="I13" s="184">
         <v>73</v>
       </c>
-      <c r="I13" s="186">
-        <v>74</v>
-      </c>
-      <c r="J13" s="223">
+      <c r="J13" s="186">
+        <v>27</v>
+      </c>
+      <c r="K13" s="222">
         <v>33</v>
       </c>
-      <c r="K13" s="187">
-        <v>27</v>
-      </c>
-      <c r="L13" s="189">
+      <c r="L13" s="188">
         <v>7219</v>
       </c>
-      <c r="M13" s="193">
+      <c r="M13" s="192">
         <f t="shared" si="9"/>
         <v>5630.8200000000006</v>
       </c>
-      <c r="N13" s="183">
+      <c r="N13" s="182">
         <f t="shared" si="10"/>
         <v>1588.18</v>
       </c>
-      <c r="O13" s="151">
+      <c r="O13" s="150">
         <v>0.9</v>
       </c>
       <c r="P13" s="97"/>
@@ -5438,8 +5600,8 @@
         <f t="shared" si="6"/>
         <v>413.28630000000004</v>
       </c>
-      <c r="AE13" s="199"/>
-      <c r="AF13" s="199">
+      <c r="AE13" s="198"/>
+      <c r="AF13" s="198">
         <f>AF12+588</f>
         <v>36903.000000000007</v>
       </c>
@@ -5448,103 +5610,103 @@
       <c r="A14" s="10">
         <v>2018</v>
       </c>
-      <c r="B14" s="189">
+      <c r="B14" s="188">
         <f t="shared" si="8"/>
         <v>29987.000000000007</v>
       </c>
-      <c r="C14" s="211">
+      <c r="C14" s="210">
         <f t="shared" si="3"/>
         <v>27854.027200000008</v>
       </c>
-      <c r="D14" s="184">
+      <c r="D14" s="183">
         <v>2132.9728</v>
       </c>
-      <c r="E14" s="185">
+      <c r="E14" s="184">
         <v>174</v>
       </c>
-      <c r="F14" s="186">
+      <c r="F14" s="185">
         <v>120</v>
       </c>
-      <c r="G14" s="188">
+      <c r="G14" s="187">
         <v>54</v>
       </c>
       <c r="H14" s="185">
         <v>60</v>
       </c>
-      <c r="I14" s="186">
+      <c r="I14" s="184">
         <v>60</v>
       </c>
-      <c r="J14" s="186">
+      <c r="J14" s="187">
+        <v>19</v>
+      </c>
+      <c r="K14" s="185">
         <v>35</v>
       </c>
-      <c r="K14" s="188">
-        <v>19</v>
-      </c>
-      <c r="L14" s="189">
+      <c r="L14" s="188">
         <v>7504</v>
       </c>
-      <c r="M14" s="193">
+      <c r="M14" s="192">
         <f t="shared" si="9"/>
         <v>5853.12</v>
       </c>
-      <c r="N14" s="183">
+      <c r="N14" s="182">
         <f t="shared" si="10"/>
         <v>1650.88</v>
       </c>
-      <c r="O14" s="150">
+      <c r="O14" s="149">
         <v>0.9</v>
       </c>
-      <c r="P14" s="124"/>
+      <c r="P14" s="123"/>
       <c r="T14" s="28">
         <f t="shared" si="1"/>
         <v>7504</v>
       </c>
-      <c r="AE14" s="198"/>
-      <c r="AF14" s="199">
+      <c r="AE14" s="197"/>
+      <c r="AF14" s="198">
         <f t="shared" si="13"/>
         <v>37491.000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:32" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="121">
+      <c r="A15" s="120">
         <v>2019</v>
       </c>
-      <c r="B15" s="189">
+      <c r="B15" s="188">
         <f t="shared" si="8"/>
         <v>38079.000000000007</v>
       </c>
-      <c r="C15" s="211">
+      <c r="C15" s="210">
         <f t="shared" si="3"/>
         <v>35727.806200000006</v>
       </c>
-      <c r="D15" s="184">
+      <c r="D15" s="183">
         <v>2351.1938</v>
       </c>
-      <c r="E15" s="120"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="123"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="122"/>
       <c r="L15" s="106"/>
       <c r="M15" s="107"/>
       <c r="N15" s="108"/>
-      <c r="O15" s="152"/>
-      <c r="P15" s="124"/>
-      <c r="AE15" s="199"/>
-      <c r="AF15" s="199">
+      <c r="O15" s="151"/>
+      <c r="P15" s="123"/>
+      <c r="AE15" s="198"/>
+      <c r="AF15" s="198">
         <f t="shared" si="13"/>
         <v>38079.000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="G16" s="10"/>
-      <c r="H16" s="215"/>
-      <c r="I16" s="215"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="S16" s="125"/>
+      <c r="H16" s="214"/>
+      <c r="I16" s="214"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="S16" s="124"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
@@ -5561,7 +5723,6 @@
       <c r="D18" s="10"/>
       <c r="G18" s="10"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
       <c r="P18" s="10"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -5570,7 +5731,6 @@
       <c r="D19" s="10"/>
       <c r="G19" s="10"/>
       <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
       <c r="P19" s="10"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
@@ -5579,7 +5739,6 @@
       <c r="D20" s="10"/>
       <c r="G20" s="10"/>
       <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
       <c r="P20" s="10"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -5588,7 +5747,6 @@
       <c r="D21" s="10"/>
       <c r="G21" s="10"/>
       <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
       <c r="P21" s="10"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -5597,7 +5755,6 @@
       <c r="D22" s="10"/>
       <c r="G22" s="10"/>
       <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
       <c r="P22" s="10"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -5636,195 +5793,195 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="126"/>
-      <c r="B1" s="127" t="s">
+      <c r="A1" s="125"/>
+      <c r="B1" s="126" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="128" t="s">
+      <c r="C1" s="127" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="128" t="s">
+      <c r="D1" s="127" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="142" t="s">
+      <c r="E1" s="141" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="128" t="s">
+      <c r="F1" s="127" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="129" t="s">
+      <c r="G1" s="128" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="129" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="131">
+      <c r="B2" s="130">
         <v>1</v>
       </c>
-      <c r="C2" s="132">
+      <c r="C2" s="131">
         <v>1</v>
       </c>
-      <c r="D2" s="132">
+      <c r="D2" s="131">
         <v>1</v>
       </c>
-      <c r="E2" s="147">
+      <c r="E2" s="146">
         <v>1</v>
       </c>
-      <c r="F2" s="132">
+      <c r="F2" s="131">
         <v>1</v>
       </c>
-      <c r="G2" s="133">
+      <c r="G2" s="132">
         <v>1</v>
       </c>
-      <c r="I2" s="224" t="s">
+      <c r="I2" s="227" t="s">
         <v>113</v>
       </c>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="224"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="224"/>
-      <c r="P2" s="224"/>
+      <c r="J2" s="227"/>
+      <c r="K2" s="227"/>
+      <c r="L2" s="227"/>
+      <c r="M2" s="227"/>
+      <c r="N2" s="227"/>
+      <c r="O2" s="227"/>
+      <c r="P2" s="227"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="135">
+      <c r="B3" s="134">
         <v>1</v>
       </c>
-      <c r="C3" s="136">
+      <c r="C3" s="135">
         <v>1</v>
       </c>
-      <c r="D3" s="136">
+      <c r="D3" s="135">
         <v>1</v>
       </c>
-      <c r="E3" s="145">
+      <c r="E3" s="144">
         <v>1</v>
       </c>
-      <c r="F3" s="136">
+      <c r="F3" s="135">
         <v>1</v>
       </c>
-      <c r="G3" s="137">
+      <c r="G3" s="136">
         <v>1</v>
       </c>
-      <c r="I3" s="224"/>
-      <c r="J3" s="224"/>
-      <c r="K3" s="224"/>
-      <c r="L3" s="224"/>
-      <c r="M3" s="224"/>
-      <c r="N3" s="224"/>
-      <c r="O3" s="224"/>
-      <c r="P3" s="224"/>
+      <c r="I3" s="227"/>
+      <c r="J3" s="227"/>
+      <c r="K3" s="227"/>
+      <c r="L3" s="227"/>
+      <c r="M3" s="227"/>
+      <c r="N3" s="227"/>
+      <c r="O3" s="227"/>
+      <c r="P3" s="227"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="133" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="135">
+      <c r="B4" s="134">
         <v>1</v>
       </c>
-      <c r="C4" s="136">
+      <c r="C4" s="135">
         <v>1</v>
       </c>
-      <c r="D4" s="136">
+      <c r="D4" s="135">
         <v>1</v>
       </c>
-      <c r="E4" s="145">
+      <c r="E4" s="144">
         <v>1</v>
       </c>
-      <c r="F4" s="136">
+      <c r="F4" s="135">
         <v>1</v>
       </c>
-      <c r="G4" s="137">
+      <c r="G4" s="136">
         <v>1</v>
       </c>
-      <c r="I4" s="224"/>
-      <c r="J4" s="224"/>
-      <c r="K4" s="224"/>
-      <c r="L4" s="224"/>
-      <c r="M4" s="224"/>
-      <c r="N4" s="224"/>
-      <c r="O4" s="224"/>
-      <c r="P4" s="224"/>
+      <c r="I4" s="227"/>
+      <c r="J4" s="227"/>
+      <c r="K4" s="227"/>
+      <c r="L4" s="227"/>
+      <c r="M4" s="227"/>
+      <c r="N4" s="227"/>
+      <c r="O4" s="227"/>
+      <c r="P4" s="227"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="144">
+      <c r="B5" s="143">
         <v>1</v>
       </c>
-      <c r="C5" s="145">
+      <c r="C5" s="144">
         <v>1</v>
       </c>
-      <c r="D5" s="145">
+      <c r="D5" s="144">
         <v>1</v>
       </c>
-      <c r="E5" s="145">
+      <c r="E5" s="144">
         <v>1</v>
       </c>
-      <c r="F5" s="145">
+      <c r="F5" s="144">
         <v>1</v>
       </c>
-      <c r="G5" s="146">
+      <c r="G5" s="145">
         <v>1</v>
       </c>
-      <c r="I5" s="224"/>
-      <c r="J5" s="224"/>
-      <c r="K5" s="224"/>
-      <c r="L5" s="224"/>
-      <c r="M5" s="224"/>
-      <c r="N5" s="224"/>
-      <c r="O5" s="224"/>
-      <c r="P5" s="224"/>
+      <c r="I5" s="227"/>
+      <c r="J5" s="227"/>
+      <c r="K5" s="227"/>
+      <c r="L5" s="227"/>
+      <c r="M5" s="227"/>
+      <c r="N5" s="227"/>
+      <c r="O5" s="227"/>
+      <c r="P5" s="227"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="133" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="135">
+      <c r="B6" s="134">
         <v>1</v>
       </c>
-      <c r="C6" s="136">
+      <c r="C6" s="135">
         <v>1</v>
       </c>
-      <c r="D6" s="136">
+      <c r="D6" s="135">
         <v>1</v>
       </c>
-      <c r="E6" s="145">
+      <c r="E6" s="144">
         <v>1</v>
       </c>
-      <c r="F6" s="136">
+      <c r="F6" s="135">
         <v>1</v>
       </c>
-      <c r="G6" s="137">
+      <c r="G6" s="136">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="138" t="s">
+      <c r="A7" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="139">
+      <c r="B7" s="138">
         <v>1</v>
       </c>
-      <c r="C7" s="140">
+      <c r="C7" s="139">
         <v>1</v>
       </c>
-      <c r="D7" s="140">
+      <c r="D7" s="139">
         <v>1</v>
       </c>
-      <c r="E7" s="148">
+      <c r="E7" s="147">
         <v>1</v>
       </c>
-      <c r="F7" s="140">
+      <c r="F7" s="139">
         <v>1</v>
       </c>
-      <c r="G7" s="141">
+      <c r="G7" s="140">
         <v>1</v>
       </c>
     </row>
@@ -5842,7 +5999,7 @@
   <dimension ref="A1:Y34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5897,16 +6054,16 @@
       <c r="G1" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="163" t="s">
+      <c r="H1" s="162" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="164" t="s">
+      <c r="I1" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="163" t="s">
+      <c r="J1" s="162" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="164" t="s">
+      <c r="K1" s="163" t="s">
         <v>69</v>
       </c>
       <c r="L1" s="68" t="s">
@@ -5915,16 +6072,16 @@
       <c r="M1" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="163" t="s">
+      <c r="N1" s="162" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="164" t="s">
+      <c r="O1" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="163" t="s">
+      <c r="P1" s="162" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="164" t="s">
+      <c r="Q1" s="163" t="s">
         <v>69</v>
       </c>
       <c r="R1" s="68" t="s">
@@ -5964,16 +6121,16 @@
       <c r="G2" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="165" t="s">
+      <c r="H2" s="164" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="166" t="s">
+      <c r="I2" s="165" t="s">
         <v>126</v>
       </c>
-      <c r="J2" s="165" t="s">
+      <c r="J2" s="164" t="s">
         <v>127</v>
       </c>
-      <c r="K2" s="166" t="s">
+      <c r="K2" s="165" t="s">
         <v>128</v>
       </c>
       <c r="L2" s="71" t="s">
@@ -5982,16 +6139,16 @@
       <c r="M2" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="N2" s="165" t="s">
+      <c r="N2" s="164" t="s">
         <v>125</v>
       </c>
-      <c r="O2" s="166" t="s">
+      <c r="O2" s="165" t="s">
         <v>126</v>
       </c>
-      <c r="P2" s="165" t="s">
+      <c r="P2" s="164" t="s">
         <v>127</v>
       </c>
-      <c r="Q2" s="166" t="s">
+      <c r="Q2" s="165" t="s">
         <v>128</v>
       </c>
       <c r="R2" s="71" t="s">
@@ -6036,22 +6193,22 @@
       <c r="L3" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="219" t="s">
+      <c r="M3" s="218" t="s">
         <v>98</v>
       </c>
-      <c r="N3" s="220" t="s">
+      <c r="N3" s="219" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="221" t="s">
+      <c r="O3" s="220" t="s">
         <v>98</v>
       </c>
-      <c r="P3" s="220" t="s">
+      <c r="P3" s="219" t="s">
         <v>98</v>
       </c>
-      <c r="Q3" s="221" t="s">
+      <c r="Q3" s="220" t="s">
         <v>98</v>
       </c>
-      <c r="R3" s="222" t="s">
+      <c r="R3" s="221" t="s">
         <v>98</v>
       </c>
       <c r="S3" s="70" t="s">
@@ -6094,24 +6251,24 @@
         <v>0.7</v>
       </c>
       <c r="G4" s="72"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="168">
+      <c r="H4" s="166"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="167">
         <v>0.25</v>
       </c>
       <c r="L4" s="74">
         <v>0.25</v>
       </c>
       <c r="M4" s="72"/>
-      <c r="N4" s="167"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="167"/>
-      <c r="Q4" s="168">
-        <v>0.5</v>
+      <c r="N4" s="166"/>
+      <c r="O4" s="167"/>
+      <c r="P4" s="166"/>
+      <c r="Q4" s="167">
+        <v>0.25</v>
       </c>
       <c r="R4" s="74">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="73"/>
       <c r="T4" s="74"/>
@@ -6125,10 +6282,10 @@
         <v>0.04</v>
       </c>
       <c r="X4" s="73">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Y4" s="74">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="5" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -6141,16 +6298,16 @@
       <c r="E5" s="77"/>
       <c r="F5" s="62"/>
       <c r="G5" s="75"/>
-      <c r="H5" s="169"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="169"/>
-      <c r="K5" s="170"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="168"/>
+      <c r="K5" s="169"/>
       <c r="L5" s="77"/>
       <c r="M5" s="75"/>
-      <c r="N5" s="169"/>
-      <c r="O5" s="170"/>
-      <c r="P5" s="169"/>
-      <c r="Q5" s="170"/>
+      <c r="N5" s="168"/>
+      <c r="O5" s="169"/>
+      <c r="P5" s="168"/>
+      <c r="Q5" s="169"/>
       <c r="R5" s="77"/>
       <c r="S5" s="76"/>
       <c r="T5" s="77"/>
@@ -6170,16 +6327,16 @@
       <c r="E6" s="77"/>
       <c r="F6" s="62"/>
       <c r="G6" s="75"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="169"/>
-      <c r="K6" s="170"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="169"/>
       <c r="L6" s="77"/>
       <c r="M6" s="75"/>
-      <c r="N6" s="169"/>
-      <c r="O6" s="170"/>
-      <c r="P6" s="169"/>
-      <c r="Q6" s="170"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="169"/>
+      <c r="P6" s="168"/>
+      <c r="Q6" s="169"/>
       <c r="R6" s="77"/>
       <c r="S6" s="76"/>
       <c r="T6" s="77"/>
@@ -6193,7 +6350,7 @@
       <c r="A7" s="31">
         <v>2003</v>
       </c>
-      <c r="B7" s="191">
+      <c r="B7" s="190">
         <v>0.26</v>
       </c>
       <c r="C7" s="44"/>
@@ -6201,16 +6358,16 @@
       <c r="E7" s="77"/>
       <c r="F7" s="62"/>
       <c r="G7" s="75"/>
-      <c r="H7" s="169"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="169"/>
-      <c r="K7" s="170"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="169"/>
       <c r="L7" s="77"/>
       <c r="M7" s="75"/>
-      <c r="N7" s="169"/>
-      <c r="O7" s="170"/>
-      <c r="P7" s="169"/>
-      <c r="Q7" s="170"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="169"/>
+      <c r="P7" s="168"/>
+      <c r="Q7" s="169"/>
       <c r="R7" s="77"/>
       <c r="S7" s="76"/>
       <c r="T7" s="77"/>
@@ -6224,7 +6381,7 @@
       <c r="A8" s="31">
         <v>2004</v>
       </c>
-      <c r="B8" s="191">
+      <c r="B8" s="190">
         <v>0.24</v>
       </c>
       <c r="C8" s="44"/>
@@ -6232,16 +6389,16 @@
       <c r="E8" s="77"/>
       <c r="F8" s="62"/>
       <c r="G8" s="75"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="170"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="168"/>
+      <c r="K8" s="169"/>
       <c r="L8" s="77"/>
       <c r="M8" s="75"/>
-      <c r="N8" s="169"/>
-      <c r="O8" s="170"/>
-      <c r="P8" s="169"/>
-      <c r="Q8" s="170"/>
+      <c r="N8" s="168"/>
+      <c r="O8" s="169"/>
+      <c r="P8" s="168"/>
+      <c r="Q8" s="169"/>
       <c r="R8" s="77"/>
       <c r="S8" s="76"/>
       <c r="T8" s="77"/>
@@ -6255,7 +6412,7 @@
       <c r="A9" s="31">
         <v>2005</v>
       </c>
-      <c r="B9" s="191">
+      <c r="B9" s="190">
         <v>0.28000000000000003</v>
       </c>
       <c r="C9" s="44"/>
@@ -6263,16 +6420,16 @@
       <c r="E9" s="77"/>
       <c r="F9" s="62"/>
       <c r="G9" s="75"/>
-      <c r="H9" s="169"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="169"/>
-      <c r="K9" s="170"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="168"/>
+      <c r="K9" s="169"/>
       <c r="L9" s="77"/>
       <c r="M9" s="75"/>
-      <c r="N9" s="169"/>
-      <c r="O9" s="170"/>
-      <c r="P9" s="169"/>
-      <c r="Q9" s="170"/>
+      <c r="N9" s="168"/>
+      <c r="O9" s="169"/>
+      <c r="P9" s="168"/>
+      <c r="Q9" s="169"/>
       <c r="R9" s="77"/>
       <c r="S9" s="76"/>
       <c r="T9" s="77"/>
@@ -6286,24 +6443,40 @@
       <c r="A10" s="31">
         <v>2006</v>
       </c>
-      <c r="B10" s="191">
+      <c r="B10" s="190">
         <v>0.26</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="75"/>
       <c r="E10" s="77"/>
       <c r="F10" s="62"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="169"/>
-      <c r="K10" s="170"/>
+      <c r="G10" s="75">
+        <v>2.82</v>
+      </c>
+      <c r="H10" s="75">
+        <v>2.82</v>
+      </c>
+      <c r="I10" s="75">
+        <v>2.82</v>
+      </c>
+      <c r="J10" s="75">
+        <v>2.82</v>
+      </c>
+      <c r="K10" s="169"/>
       <c r="L10" s="77"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="169"/>
-      <c r="O10" s="170"/>
-      <c r="P10" s="169"/>
-      <c r="Q10" s="170"/>
+      <c r="M10" s="75">
+        <v>2.46</v>
+      </c>
+      <c r="N10" s="75">
+        <v>2.46</v>
+      </c>
+      <c r="O10" s="75">
+        <v>2.46</v>
+      </c>
+      <c r="P10" s="75">
+        <v>2.46</v>
+      </c>
+      <c r="Q10" s="169"/>
       <c r="R10" s="77"/>
       <c r="S10" s="76"/>
       <c r="T10" s="77"/>
@@ -6317,24 +6490,40 @@
       <c r="A11" s="31">
         <v>2007</v>
       </c>
-      <c r="B11" s="191">
+      <c r="B11" s="190">
         <v>0.26</v>
       </c>
       <c r="C11" s="44"/>
       <c r="D11" s="75"/>
       <c r="E11" s="77"/>
       <c r="F11" s="62"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="169"/>
-      <c r="K11" s="170"/>
+      <c r="G11" s="75">
+        <v>3.06</v>
+      </c>
+      <c r="H11" s="75">
+        <v>3.06</v>
+      </c>
+      <c r="I11" s="75">
+        <v>3.06</v>
+      </c>
+      <c r="J11" s="75">
+        <v>3.06</v>
+      </c>
+      <c r="K11" s="169"/>
       <c r="L11" s="77"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="169"/>
-      <c r="O11" s="170"/>
-      <c r="P11" s="169"/>
-      <c r="Q11" s="170"/>
+      <c r="M11" s="75">
+        <v>2.77</v>
+      </c>
+      <c r="N11" s="75">
+        <v>2.77</v>
+      </c>
+      <c r="O11" s="75">
+        <v>2.77</v>
+      </c>
+      <c r="P11" s="75">
+        <v>2.77</v>
+      </c>
+      <c r="Q11" s="169"/>
       <c r="R11" s="77"/>
       <c r="S11" s="76">
         <v>0.75</v>
@@ -6352,24 +6541,40 @@
       <c r="A12" s="31">
         <v>2008</v>
       </c>
-      <c r="B12" s="191">
+      <c r="B12" s="190">
         <v>0.27</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="75"/>
       <c r="E12" s="77"/>
       <c r="F12" s="62"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="169"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="169"/>
-      <c r="K12" s="170"/>
+      <c r="G12" s="75">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H12" s="75">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="I12" s="75">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="J12" s="75">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="K12" s="169"/>
       <c r="L12" s="77"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="169"/>
-      <c r="O12" s="170"/>
-      <c r="P12" s="169"/>
-      <c r="Q12" s="170"/>
+      <c r="M12" s="75">
+        <v>2.91</v>
+      </c>
+      <c r="N12" s="75">
+        <v>2.91</v>
+      </c>
+      <c r="O12" s="75">
+        <v>2.91</v>
+      </c>
+      <c r="P12" s="75">
+        <v>2.91</v>
+      </c>
+      <c r="Q12" s="169"/>
       <c r="R12" s="77"/>
       <c r="S12" s="76"/>
       <c r="T12" s="77"/>
@@ -6383,26 +6588,42 @@
       <c r="A13" s="31">
         <v>2009</v>
       </c>
-      <c r="B13" s="191">
+      <c r="B13" s="190">
         <v>0.28999999999999998</v>
       </c>
       <c r="C13" s="44"/>
-      <c r="D13" s="190">
+      <c r="D13" s="189">
         <v>0</v>
       </c>
       <c r="F13" s="62"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="169"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="169"/>
-      <c r="K13" s="170"/>
+      <c r="G13" s="75">
+        <v>2.65</v>
+      </c>
+      <c r="H13" s="75">
+        <v>2.65</v>
+      </c>
+      <c r="I13" s="75">
+        <v>2.65</v>
+      </c>
+      <c r="J13" s="75">
+        <v>2.65</v>
+      </c>
+      <c r="K13" s="169"/>
       <c r="L13" s="77"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="169"/>
-      <c r="O13" s="170"/>
-      <c r="P13" s="169"/>
-      <c r="Q13" s="216"/>
-      <c r="R13" s="217"/>
+      <c r="M13" s="75">
+        <v>1.07</v>
+      </c>
+      <c r="N13" s="75">
+        <v>1.07</v>
+      </c>
+      <c r="O13" s="75">
+        <v>1.07</v>
+      </c>
+      <c r="P13" s="75">
+        <v>1.07</v>
+      </c>
+      <c r="Q13" s="215"/>
+      <c r="R13" s="216"/>
       <c r="S13" s="76"/>
       <c r="T13" s="77"/>
       <c r="U13" s="75"/>
@@ -6415,26 +6636,42 @@
       <c r="A14" s="31">
         <v>2010</v>
       </c>
-      <c r="B14" s="191">
+      <c r="B14" s="190">
         <v>0.32</v>
       </c>
       <c r="C14" s="44"/>
-      <c r="D14" s="190">
+      <c r="D14" s="189">
         <v>0</v>
       </c>
       <c r="F14" s="62"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="169"/>
-      <c r="K14" s="216"/>
-      <c r="L14" s="217"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="169"/>
-      <c r="O14" s="170"/>
-      <c r="P14" s="169"/>
-      <c r="Q14" s="216"/>
-      <c r="R14" s="217"/>
+      <c r="G14" s="75">
+        <v>2.23</v>
+      </c>
+      <c r="H14" s="75">
+        <v>2.23</v>
+      </c>
+      <c r="I14" s="75">
+        <v>2.23</v>
+      </c>
+      <c r="J14" s="75">
+        <v>2.23</v>
+      </c>
+      <c r="K14" s="215"/>
+      <c r="L14" s="216"/>
+      <c r="M14" s="75">
+        <v>2.71</v>
+      </c>
+      <c r="N14" s="75">
+        <v>2.71</v>
+      </c>
+      <c r="O14" s="75">
+        <v>2.71</v>
+      </c>
+      <c r="P14" s="75">
+        <v>2.71</v>
+      </c>
+      <c r="Q14" s="215"/>
+      <c r="R14" s="216"/>
       <c r="S14" s="76">
         <v>0.75</v>
       </c>
@@ -6451,26 +6688,42 @@
       <c r="A15" s="31">
         <v>2011</v>
       </c>
-      <c r="B15" s="191">
+      <c r="B15" s="190">
         <v>0.31</v>
       </c>
       <c r="C15" s="44"/>
-      <c r="D15" s="190">
+      <c r="D15" s="189">
         <v>0</v>
       </c>
       <c r="F15" s="62"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="169"/>
-      <c r="K15" s="216"/>
-      <c r="L15" s="217"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="169"/>
-      <c r="O15" s="170"/>
-      <c r="P15" s="169"/>
-      <c r="Q15" s="216"/>
-      <c r="R15" s="217"/>
+      <c r="G15" s="75">
+        <v>1.92</v>
+      </c>
+      <c r="H15" s="75">
+        <v>1.92</v>
+      </c>
+      <c r="I15" s="75">
+        <v>1.92</v>
+      </c>
+      <c r="J15" s="75">
+        <v>1.92</v>
+      </c>
+      <c r="K15" s="215"/>
+      <c r="L15" s="216"/>
+      <c r="M15" s="75">
+        <v>1.92</v>
+      </c>
+      <c r="N15" s="75">
+        <v>1.92</v>
+      </c>
+      <c r="O15" s="75">
+        <v>1.92</v>
+      </c>
+      <c r="P15" s="75">
+        <v>1.92</v>
+      </c>
+      <c r="Q15" s="215"/>
+      <c r="R15" s="216"/>
       <c r="S15" s="76"/>
       <c r="T15" s="77"/>
       <c r="U15" s="75"/>
@@ -6483,11 +6736,11 @@
       <c r="A16" s="31">
         <v>2012</v>
       </c>
-      <c r="B16" s="191">
+      <c r="B16" s="190">
         <v>0.28000000000000003</v>
       </c>
       <c r="C16" s="44"/>
-      <c r="D16" s="190">
+      <c r="D16" s="189">
         <v>0</v>
       </c>
       <c r="F16" s="62"/>
@@ -6503,8 +6756,8 @@
       <c r="J16" s="43">
         <v>1.91</v>
       </c>
-      <c r="K16" s="216"/>
-      <c r="L16" s="218"/>
+      <c r="K16" s="215"/>
+      <c r="L16" s="217"/>
       <c r="M16" s="43">
         <v>2.37</v>
       </c>
@@ -6517,7 +6770,7 @@
       <c r="P16" s="43">
         <v>2.37</v>
       </c>
-      <c r="Q16" s="216"/>
+      <c r="Q16" s="215"/>
       <c r="R16" s="77"/>
       <c r="S16" s="76">
         <v>0.82</v>
@@ -6535,11 +6788,11 @@
       <c r="A17" s="31">
         <v>2013</v>
       </c>
-      <c r="B17" s="191">
+      <c r="B17" s="190">
         <v>0.3</v>
       </c>
       <c r="C17" s="44"/>
-      <c r="D17" s="190">
+      <c r="D17" s="189">
         <v>0</v>
       </c>
       <c r="F17" s="62"/>
@@ -6555,8 +6808,8 @@
       <c r="J17" s="43">
         <v>2.34</v>
       </c>
-      <c r="K17" s="216"/>
-      <c r="L17" s="218"/>
+      <c r="K17" s="215"/>
+      <c r="L17" s="217"/>
       <c r="M17" s="43">
         <v>2.84</v>
       </c>
@@ -6569,7 +6822,7 @@
       <c r="P17" s="43">
         <v>2.84</v>
       </c>
-      <c r="Q17" s="216"/>
+      <c r="Q17" s="215"/>
       <c r="R17" s="77"/>
       <c r="S17" s="76">
         <v>0.86</v>
@@ -6587,12 +6840,14 @@
       <c r="A18" s="31">
         <v>2014</v>
       </c>
-      <c r="B18" s="191"/>
+      <c r="B18" s="190">
+        <v>0.32</v>
+      </c>
       <c r="C18" s="44"/>
-      <c r="D18" s="190">
+      <c r="D18" s="189">
         <v>143</v>
       </c>
-      <c r="E18" s="192">
+      <c r="E18" s="191">
         <v>0</v>
       </c>
       <c r="F18" s="62"/>
@@ -6608,8 +6863,8 @@
       <c r="J18" s="43">
         <v>1.5</v>
       </c>
-      <c r="K18" s="216"/>
-      <c r="L18" s="218"/>
+      <c r="K18" s="215"/>
+      <c r="L18" s="217"/>
       <c r="M18" s="43">
         <v>0.96</v>
       </c>
@@ -6622,7 +6877,7 @@
       <c r="P18" s="43">
         <v>0.96</v>
       </c>
-      <c r="Q18" s="216"/>
+      <c r="Q18" s="215"/>
       <c r="R18" s="77"/>
       <c r="S18" s="76">
         <v>0.89</v>
@@ -6640,12 +6895,14 @@
       <c r="A19" s="31">
         <v>2015</v>
       </c>
-      <c r="B19" s="191"/>
+      <c r="B19" s="190">
+        <v>0.35</v>
+      </c>
       <c r="C19" s="44"/>
-      <c r="D19" s="190">
+      <c r="D19" s="189">
         <v>143</v>
       </c>
-      <c r="E19" s="192">
+      <c r="E19" s="191">
         <v>0</v>
       </c>
       <c r="F19" s="62"/>
@@ -6661,8 +6918,8 @@
       <c r="J19" s="43">
         <v>2.08</v>
       </c>
-      <c r="K19" s="216"/>
-      <c r="L19" s="218"/>
+      <c r="K19" s="215"/>
+      <c r="L19" s="217"/>
       <c r="M19" s="43">
         <v>1.45</v>
       </c>
@@ -6675,7 +6932,7 @@
       <c r="P19" s="43">
         <v>1.45</v>
       </c>
-      <c r="Q19" s="216"/>
+      <c r="Q19" s="215"/>
       <c r="R19" s="77"/>
       <c r="S19" s="76">
         <v>0.92</v>
@@ -6693,14 +6950,14 @@
       <c r="A20" s="31">
         <v>2016</v>
       </c>
-      <c r="B20" s="192">
-        <v>0.31</v>
+      <c r="B20" s="191">
+        <v>0.37</v>
       </c>
       <c r="C20" s="44"/>
-      <c r="D20" s="190">
+      <c r="D20" s="189">
         <v>2841</v>
       </c>
-      <c r="E20" s="192">
+      <c r="E20" s="191">
         <f>data!D12*0.03</f>
         <v>49.394274000000003</v>
       </c>
@@ -6717,8 +6974,8 @@
       <c r="J20" s="43">
         <v>2.73</v>
       </c>
-      <c r="K20" s="216"/>
-      <c r="L20" s="218"/>
+      <c r="K20" s="215"/>
+      <c r="L20" s="217"/>
       <c r="M20" s="43">
         <v>2.5499999999999998</v>
       </c>
@@ -6731,7 +6988,7 @@
       <c r="P20" s="43">
         <v>2.5499999999999998</v>
       </c>
-      <c r="Q20" s="216"/>
+      <c r="Q20" s="215"/>
       <c r="R20" s="77"/>
       <c r="S20" s="76">
         <v>0.95</v>
@@ -6749,14 +7006,14 @@
       <c r="A21" s="31">
         <v>2017</v>
       </c>
-      <c r="B21" s="191">
-        <v>0.28999999999999998</v>
+      <c r="B21" s="190">
+        <v>0.4</v>
       </c>
       <c r="C21" s="44"/>
-      <c r="D21" s="190">
+      <c r="D21" s="189">
         <v>3727</v>
       </c>
-      <c r="E21" s="192">
+      <c r="E21" s="191">
         <f>data!D13*0.07</f>
         <v>131.75528800000001</v>
       </c>
@@ -6773,8 +7030,8 @@
       <c r="J21" s="43">
         <v>2.71</v>
       </c>
-      <c r="K21" s="216"/>
-      <c r="L21" s="218"/>
+      <c r="K21" s="215"/>
+      <c r="L21" s="217"/>
       <c r="M21" s="43">
         <v>2.23</v>
       </c>
@@ -6787,8 +7044,8 @@
       <c r="P21" s="43">
         <v>2.23</v>
       </c>
-      <c r="Q21" s="216"/>
-      <c r="R21" s="217"/>
+      <c r="Q21" s="215"/>
+      <c r="R21" s="216"/>
       <c r="S21" s="76"/>
       <c r="T21" s="77"/>
       <c r="U21" s="75"/>
@@ -6801,12 +7058,14 @@
       <c r="A22" s="31">
         <v>2018</v>
       </c>
-      <c r="B22" s="44"/>
+      <c r="B22" s="44">
+        <v>0.4</v>
+      </c>
       <c r="C22" s="44"/>
-      <c r="D22" s="190">
+      <c r="D22" s="189">
         <v>3995</v>
       </c>
-      <c r="E22" s="192">
+      <c r="E22" s="191">
         <f>data!D14*0.07</f>
         <v>149.30809600000001</v>
       </c>
@@ -6823,8 +7082,8 @@
       <c r="J22" s="43">
         <v>2.75</v>
       </c>
-      <c r="K22" s="216"/>
-      <c r="L22" s="218"/>
+      <c r="K22" s="215"/>
+      <c r="L22" s="217"/>
       <c r="M22" s="43">
         <v>2.2599999999999998</v>
       </c>
@@ -6837,7 +7096,7 @@
       <c r="P22" s="43">
         <v>2.2599999999999998</v>
       </c>
-      <c r="Q22" s="216"/>
+      <c r="Q22" s="215"/>
       <c r="R22" s="77"/>
       <c r="S22" s="76"/>
       <c r="T22" s="77"/>
@@ -6853,25 +7112,25 @@
       </c>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
-      <c r="D23" s="190">
+      <c r="D23" s="189">
         <v>4525</v>
       </c>
-      <c r="E23" s="192">
+      <c r="E23" s="191">
         <f>data!D15*0.07</f>
         <v>164.58356600000002</v>
       </c>
       <c r="F23" s="62"/>
-      <c r="G23" s="194"/>
-      <c r="H23" s="195"/>
-      <c r="I23" s="196"/>
-      <c r="J23" s="195"/>
-      <c r="K23" s="216"/>
-      <c r="L23" s="218"/>
-      <c r="M23" s="194"/>
-      <c r="N23" s="195"/>
-      <c r="O23" s="196"/>
-      <c r="P23" s="195"/>
-      <c r="Q23" s="216"/>
+      <c r="G23" s="193"/>
+      <c r="H23" s="194"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="194"/>
+      <c r="K23" s="215"/>
+      <c r="L23" s="217"/>
+      <c r="M23" s="193"/>
+      <c r="N23" s="194"/>
+      <c r="O23" s="195"/>
+      <c r="P23" s="194"/>
+      <c r="Q23" s="215"/>
       <c r="R23" s="77"/>
       <c r="S23" s="76"/>
       <c r="T23" s="77"/>
@@ -6891,16 +7150,16 @@
       <c r="E24" s="77"/>
       <c r="F24" s="62"/>
       <c r="G24" s="75"/>
-      <c r="H24" s="169"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="169"/>
-      <c r="K24" s="216"/>
-      <c r="L24" s="217"/>
+      <c r="H24" s="168"/>
+      <c r="I24" s="169"/>
+      <c r="J24" s="168"/>
+      <c r="K24" s="215"/>
+      <c r="L24" s="216"/>
       <c r="M24" s="75"/>
-      <c r="N24" s="169"/>
-      <c r="O24" s="170"/>
-      <c r="P24" s="169"/>
-      <c r="Q24" s="216"/>
+      <c r="N24" s="168"/>
+      <c r="O24" s="169"/>
+      <c r="P24" s="168"/>
+      <c r="Q24" s="215"/>
       <c r="R24" s="77"/>
       <c r="S24" s="76"/>
       <c r="T24" s="77"/>
@@ -6920,16 +7179,16 @@
       <c r="E25" s="77"/>
       <c r="F25" s="62"/>
       <c r="G25" s="75"/>
-      <c r="H25" s="169"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="169"/>
-      <c r="K25" s="170"/>
+      <c r="H25" s="168"/>
+      <c r="I25" s="169"/>
+      <c r="J25" s="168"/>
+      <c r="K25" s="169"/>
       <c r="L25" s="77"/>
       <c r="M25" s="75"/>
-      <c r="N25" s="169"/>
-      <c r="O25" s="170"/>
-      <c r="P25" s="169"/>
-      <c r="Q25" s="170"/>
+      <c r="N25" s="168"/>
+      <c r="O25" s="169"/>
+      <c r="P25" s="168"/>
+      <c r="Q25" s="169"/>
       <c r="R25" s="77"/>
       <c r="S25" s="76"/>
       <c r="T25" s="77"/>
@@ -6949,16 +7208,16 @@
       <c r="E26" s="77"/>
       <c r="F26" s="62"/>
       <c r="G26" s="75"/>
-      <c r="H26" s="169"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="169"/>
-      <c r="K26" s="170"/>
+      <c r="H26" s="168"/>
+      <c r="I26" s="169"/>
+      <c r="J26" s="168"/>
+      <c r="K26" s="169"/>
       <c r="L26" s="77"/>
       <c r="M26" s="75"/>
-      <c r="N26" s="169"/>
-      <c r="O26" s="170"/>
-      <c r="P26" s="169"/>
-      <c r="Q26" s="170"/>
+      <c r="N26" s="168"/>
+      <c r="O26" s="169"/>
+      <c r="P26" s="168"/>
+      <c r="Q26" s="169"/>
       <c r="R26" s="77"/>
       <c r="S26" s="76"/>
       <c r="T26" s="77"/>
@@ -6978,16 +7237,16 @@
       <c r="E27" s="77"/>
       <c r="F27" s="62"/>
       <c r="G27" s="75"/>
-      <c r="H27" s="169"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="169"/>
-      <c r="K27" s="170"/>
+      <c r="H27" s="168"/>
+      <c r="I27" s="169"/>
+      <c r="J27" s="168"/>
+      <c r="K27" s="169"/>
       <c r="L27" s="77"/>
       <c r="M27" s="75"/>
-      <c r="N27" s="169"/>
-      <c r="O27" s="170"/>
-      <c r="P27" s="169"/>
-      <c r="Q27" s="170"/>
+      <c r="N27" s="168"/>
+      <c r="O27" s="169"/>
+      <c r="P27" s="168"/>
+      <c r="Q27" s="169"/>
       <c r="R27" s="77"/>
       <c r="S27" s="76"/>
       <c r="T27" s="77"/>
@@ -7007,16 +7266,16 @@
       <c r="E28" s="77"/>
       <c r="F28" s="62"/>
       <c r="G28" s="75"/>
-      <c r="H28" s="169"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="169"/>
-      <c r="K28" s="170"/>
+      <c r="H28" s="168"/>
+      <c r="I28" s="169"/>
+      <c r="J28" s="168"/>
+      <c r="K28" s="169"/>
       <c r="L28" s="77"/>
       <c r="M28" s="75"/>
-      <c r="N28" s="169"/>
-      <c r="O28" s="170"/>
-      <c r="P28" s="169"/>
-      <c r="Q28" s="170"/>
+      <c r="N28" s="168"/>
+      <c r="O28" s="169"/>
+      <c r="P28" s="168"/>
+      <c r="Q28" s="169"/>
       <c r="R28" s="77"/>
       <c r="S28" s="76"/>
       <c r="T28" s="77"/>
@@ -7036,16 +7295,16 @@
       <c r="E29" s="77"/>
       <c r="F29" s="62"/>
       <c r="G29" s="75"/>
-      <c r="H29" s="169"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="169"/>
-      <c r="K29" s="170"/>
+      <c r="H29" s="168"/>
+      <c r="I29" s="169"/>
+      <c r="J29" s="168"/>
+      <c r="K29" s="169"/>
       <c r="L29" s="77"/>
       <c r="M29" s="75"/>
-      <c r="N29" s="169"/>
-      <c r="O29" s="170"/>
-      <c r="P29" s="169"/>
-      <c r="Q29" s="170"/>
+      <c r="N29" s="168"/>
+      <c r="O29" s="169"/>
+      <c r="P29" s="168"/>
+      <c r="Q29" s="169"/>
       <c r="R29" s="77"/>
       <c r="S29" s="76">
         <v>0.95</v>
@@ -7069,16 +7328,16 @@
       <c r="E30" s="77"/>
       <c r="F30" s="62"/>
       <c r="G30" s="75"/>
-      <c r="H30" s="169"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="169"/>
-      <c r="K30" s="170"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="169"/>
+      <c r="J30" s="168"/>
+      <c r="K30" s="169"/>
       <c r="L30" s="77"/>
       <c r="M30" s="75"/>
-      <c r="N30" s="169"/>
-      <c r="O30" s="170"/>
-      <c r="P30" s="169"/>
-      <c r="Q30" s="170"/>
+      <c r="N30" s="168"/>
+      <c r="O30" s="169"/>
+      <c r="P30" s="168"/>
+      <c r="Q30" s="169"/>
       <c r="R30" s="77"/>
       <c r="S30" s="76"/>
       <c r="T30" s="77"/>
@@ -7098,16 +7357,16 @@
       <c r="E31" s="77"/>
       <c r="F31" s="62"/>
       <c r="G31" s="75"/>
-      <c r="H31" s="169"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="169"/>
-      <c r="K31" s="170"/>
+      <c r="H31" s="168"/>
+      <c r="I31" s="169"/>
+      <c r="J31" s="168"/>
+      <c r="K31" s="169"/>
       <c r="L31" s="77"/>
       <c r="M31" s="75"/>
-      <c r="N31" s="169"/>
-      <c r="O31" s="170"/>
-      <c r="P31" s="169"/>
-      <c r="Q31" s="170"/>
+      <c r="N31" s="168"/>
+      <c r="O31" s="169"/>
+      <c r="P31" s="168"/>
+      <c r="Q31" s="169"/>
       <c r="R31" s="77"/>
       <c r="S31" s="76"/>
       <c r="T31" s="77"/>
@@ -7127,16 +7386,16 @@
       <c r="E32" s="77"/>
       <c r="F32" s="62"/>
       <c r="G32" s="75"/>
-      <c r="H32" s="169"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="169"/>
-      <c r="K32" s="170"/>
+      <c r="H32" s="168"/>
+      <c r="I32" s="169"/>
+      <c r="J32" s="168"/>
+      <c r="K32" s="169"/>
       <c r="L32" s="77"/>
       <c r="M32" s="75"/>
-      <c r="N32" s="169"/>
-      <c r="O32" s="170"/>
-      <c r="P32" s="169"/>
-      <c r="Q32" s="170"/>
+      <c r="N32" s="168"/>
+      <c r="O32" s="169"/>
+      <c r="P32" s="168"/>
+      <c r="Q32" s="169"/>
       <c r="R32" s="77"/>
       <c r="S32" s="76"/>
       <c r="T32" s="77"/>
@@ -7156,16 +7415,16 @@
       <c r="E33" s="77"/>
       <c r="F33" s="62"/>
       <c r="G33" s="75"/>
-      <c r="H33" s="169"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="169"/>
-      <c r="K33" s="170"/>
+      <c r="H33" s="168"/>
+      <c r="I33" s="169"/>
+      <c r="J33" s="168"/>
+      <c r="K33" s="169"/>
       <c r="L33" s="77"/>
       <c r="M33" s="75"/>
-      <c r="N33" s="169"/>
-      <c r="O33" s="170"/>
-      <c r="P33" s="169"/>
-      <c r="Q33" s="170"/>
+      <c r="N33" s="168"/>
+      <c r="O33" s="169"/>
+      <c r="P33" s="168"/>
+      <c r="Q33" s="169"/>
       <c r="R33" s="77"/>
       <c r="S33" s="76"/>
       <c r="T33" s="77"/>
@@ -7185,16 +7444,16 @@
       <c r="E34" s="80"/>
       <c r="F34" s="64"/>
       <c r="G34" s="78"/>
-      <c r="H34" s="171"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="171"/>
-      <c r="K34" s="172"/>
+      <c r="H34" s="170"/>
+      <c r="I34" s="171"/>
+      <c r="J34" s="170"/>
+      <c r="K34" s="171"/>
       <c r="L34" s="80"/>
       <c r="M34" s="78"/>
-      <c r="N34" s="171"/>
-      <c r="O34" s="172"/>
-      <c r="P34" s="171"/>
-      <c r="Q34" s="172"/>
+      <c r="N34" s="170"/>
+      <c r="O34" s="171"/>
+      <c r="P34" s="170"/>
+      <c r="Q34" s="171"/>
       <c r="R34" s="80"/>
       <c r="S34" s="79">
         <v>0.99</v>
@@ -7220,7 +7479,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7420,219 +7679,334 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="43"/>
+    <col min="2" max="2" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15" style="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="71" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>2000</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="74"/>
-    </row>
-    <row r="5" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
+    </row>
+    <row r="5" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>2001</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="77"/>
-    </row>
-    <row r="6" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+    </row>
+    <row r="6" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>2002</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="77"/>
-    </row>
-    <row r="7" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="75"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
+    </row>
+    <row r="7" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>2003</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="77"/>
-    </row>
-    <row r="8" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="75"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="77"/>
+    </row>
+    <row r="8" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>2004</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="77"/>
-    </row>
-    <row r="9" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="75"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="77"/>
+    </row>
+    <row r="9" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>2005</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="77"/>
-    </row>
-    <row r="10" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="75"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="77"/>
+    </row>
+    <row r="10" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>2006</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="77"/>
-    </row>
-    <row r="11" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="75"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
+    </row>
+    <row r="11" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>2007</v>
       </c>
-      <c r="B11" s="76">
-        <v>0.75</v>
-      </c>
-      <c r="C11" s="77">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="75"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
+    </row>
+    <row r="12" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>2008</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="77"/>
-    </row>
-    <row r="13" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="77"/>
+    </row>
+    <row r="13" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>2009</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="77"/>
-    </row>
-    <row r="14" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="75"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="77"/>
+    </row>
+    <row r="14" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>2010</v>
       </c>
-      <c r="B14" s="76">
-        <v>0.75</v>
-      </c>
-      <c r="C14" s="77">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="75"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="77"/>
+    </row>
+    <row r="15" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>2011</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="77"/>
-    </row>
-    <row r="16" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="75"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="77"/>
+    </row>
+    <row r="16" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>2012</v>
       </c>
-      <c r="B16" s="76">
-        <v>0.82</v>
-      </c>
-      <c r="C16" s="77">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="75"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="77"/>
+    </row>
+    <row r="17" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>2013</v>
       </c>
-      <c r="B17" s="76">
-        <v>0.86</v>
-      </c>
-      <c r="C17" s="77">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="77"/>
+    </row>
+    <row r="18" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>2014</v>
       </c>
-      <c r="B18" s="76">
-        <v>0.89</v>
-      </c>
-      <c r="C18" s="77">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="75"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="77"/>
+    </row>
+    <row r="19" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>2015</v>
       </c>
-      <c r="B19" s="76">
-        <v>0.92</v>
-      </c>
-      <c r="C19" s="77">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="76">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="76">
+        <v>0.25</v>
+      </c>
+      <c r="F19" s="76">
+        <v>0.125</v>
+      </c>
+      <c r="G19" s="77">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>2016</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="77"/>
-    </row>
-    <row r="21" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="75"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="77"/>
+    </row>
+    <row r="21" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>2017</v>
       </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="77"/>
-    </row>
-    <row r="22" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="75"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="77"/>
+    </row>
+    <row r="22" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>2018</v>
       </c>
-      <c r="B22" s="76"/>
-      <c r="C22" s="77"/>
-    </row>
-    <row r="23" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="75"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="77"/>
+    </row>
+    <row r="23" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
         <v>2019</v>
       </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="77"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="44">
+      <c r="B23" s="75"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="77"/>
+    </row>
+    <row r="24" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="63">
         <v>2020</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="77"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7706,16 +8080,16 @@
       <c r="G1" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="163" t="s">
+      <c r="H1" s="162" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="164" t="s">
+      <c r="I1" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="163" t="s">
+      <c r="J1" s="162" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="164" t="s">
+      <c r="K1" s="163" t="s">
         <v>69</v>
       </c>
       <c r="L1" s="68" t="s">
@@ -7742,10 +8116,10 @@
       <c r="S1" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="T1" s="173" t="s">
+      <c r="T1" s="172" t="s">
         <v>92</v>
       </c>
-      <c r="U1" s="174" t="s">
+      <c r="U1" s="173" t="s">
         <v>92</v>
       </c>
       <c r="V1" s="82" t="s">
@@ -7760,10 +8134,10 @@
       <c r="Y1" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="Z1" s="153" t="s">
+      <c r="Z1" s="152" t="s">
         <v>75</v>
       </c>
-      <c r="AA1" s="154" t="s">
+      <c r="AA1" s="153" t="s">
         <v>75</v>
       </c>
       <c r="AB1" s="82" t="s">
@@ -7812,16 +8186,16 @@
       <c r="G2" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="165" t="s">
+      <c r="H2" s="164" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="166" t="s">
+      <c r="I2" s="165" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="165" t="s">
+      <c r="J2" s="164" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="166" t="s">
+      <c r="K2" s="165" t="s">
         <v>72</v>
       </c>
       <c r="L2" s="71" t="s">
@@ -7838,10 +8212,10 @@
       <c r="S2" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="T2" s="175" t="s">
+      <c r="T2" s="174" t="s">
         <v>72</v>
       </c>
-      <c r="U2" s="176" t="s">
+      <c r="U2" s="175" t="s">
         <v>70</v>
       </c>
       <c r="V2" s="85" t="s">
@@ -7856,10 +8230,10 @@
       <c r="Y2" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" s="155" t="s">
+      <c r="Z2" s="154" t="s">
         <v>72</v>
       </c>
-      <c r="AA2" s="156" t="s">
+      <c r="AA2" s="155" t="s">
         <v>70</v>
       </c>
       <c r="AB2" s="85" t="s">
@@ -7906,16 +8280,16 @@
       <c r="G3" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="165" t="s">
+      <c r="H3" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="166" t="s">
+      <c r="I3" s="165" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="165" t="s">
+      <c r="J3" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="166" t="s">
+      <c r="K3" s="165" t="s">
         <v>73</v>
       </c>
       <c r="L3" s="71" t="s">
@@ -7942,10 +8316,10 @@
       <c r="S3" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="T3" s="175" t="s">
+      <c r="T3" s="174" t="s">
         <v>97</v>
       </c>
-      <c r="U3" s="176" t="s">
+      <c r="U3" s="175" t="s">
         <v>98</v>
       </c>
       <c r="V3" s="85" t="s">
@@ -7960,10 +8334,10 @@
       <c r="Y3" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" s="155" t="s">
+      <c r="Z3" s="154" t="s">
         <v>97</v>
       </c>
-      <c r="AA3" s="156" t="s">
+      <c r="AA3" s="155" t="s">
         <v>98</v>
       </c>
       <c r="AB3" s="85" t="s">
@@ -8004,16 +8378,16 @@
       <c r="G4" s="72">
         <v>1</v>
       </c>
-      <c r="H4" s="167">
+      <c r="H4" s="166">
         <v>10</v>
       </c>
-      <c r="I4" s="168">
+      <c r="I4" s="167">
         <v>0.5</v>
       </c>
-      <c r="J4" s="167">
+      <c r="J4" s="166">
         <v>4</v>
       </c>
-      <c r="K4" s="168">
+      <c r="K4" s="167">
         <f>3/12</f>
         <v>0.25</v>
       </c>
@@ -8038,10 +8412,10 @@
       <c r="S4" s="88">
         <v>1</v>
       </c>
-      <c r="T4" s="177">
+      <c r="T4" s="176">
         <v>0.03</v>
       </c>
-      <c r="U4" s="178">
+      <c r="U4" s="177">
         <v>1</v>
       </c>
       <c r="V4" s="88">
@@ -8056,10 +8430,10 @@
       <c r="Y4" s="88">
         <v>0</v>
       </c>
-      <c r="Z4" s="157">
+      <c r="Z4" s="156">
         <v>0</v>
       </c>
-      <c r="AA4" s="158">
+      <c r="AA4" s="157">
         <v>1</v>
       </c>
       <c r="AB4" s="88">
@@ -8106,10 +8480,10 @@
       <c r="E5" s="77"/>
       <c r="F5" s="62"/>
       <c r="G5" s="75"/>
-      <c r="H5" s="169"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="169"/>
-      <c r="K5" s="170"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="168"/>
+      <c r="K5" s="169"/>
       <c r="L5" s="77"/>
       <c r="M5" s="76"/>
       <c r="N5" s="77"/>
@@ -8118,14 +8492,14 @@
       <c r="Q5" s="77"/>
       <c r="R5" s="90"/>
       <c r="S5" s="91"/>
-      <c r="T5" s="179"/>
-      <c r="U5" s="180"/>
+      <c r="T5" s="178"/>
+      <c r="U5" s="179"/>
       <c r="V5" s="91"/>
       <c r="W5" s="92"/>
       <c r="X5" s="90"/>
       <c r="Y5" s="91"/>
-      <c r="Z5" s="159"/>
-      <c r="AA5" s="160"/>
+      <c r="Z5" s="158"/>
+      <c r="AA5" s="159"/>
       <c r="AB5" s="91"/>
       <c r="AC5" s="92"/>
       <c r="AD5" s="101"/>
@@ -8148,10 +8522,10 @@
       <c r="E6" s="77"/>
       <c r="F6" s="62"/>
       <c r="G6" s="75"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="169"/>
-      <c r="K6" s="170"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="169"/>
       <c r="L6" s="77"/>
       <c r="M6" s="76"/>
       <c r="N6" s="77"/>
@@ -8160,14 +8534,14 @@
       <c r="Q6" s="77"/>
       <c r="R6" s="90"/>
       <c r="S6" s="91"/>
-      <c r="T6" s="179"/>
-      <c r="U6" s="180"/>
+      <c r="T6" s="178"/>
+      <c r="U6" s="179"/>
       <c r="V6" s="91"/>
       <c r="W6" s="92"/>
       <c r="X6" s="90"/>
       <c r="Y6" s="91"/>
-      <c r="Z6" s="159"/>
-      <c r="AA6" s="160"/>
+      <c r="Z6" s="158"/>
+      <c r="AA6" s="159"/>
       <c r="AB6" s="91"/>
       <c r="AC6" s="92"/>
       <c r="AD6" s="101"/>
@@ -8190,10 +8564,10 @@
       <c r="E7" s="77"/>
       <c r="F7" s="62"/>
       <c r="G7" s="75"/>
-      <c r="H7" s="169"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="169"/>
-      <c r="K7" s="170"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="169"/>
       <c r="L7" s="77"/>
       <c r="M7" s="76"/>
       <c r="N7" s="77"/>
@@ -8202,14 +8576,14 @@
       <c r="Q7" s="77"/>
       <c r="R7" s="90"/>
       <c r="S7" s="91"/>
-      <c r="T7" s="179"/>
-      <c r="U7" s="180"/>
+      <c r="T7" s="178"/>
+      <c r="U7" s="179"/>
       <c r="V7" s="91"/>
       <c r="W7" s="92"/>
       <c r="X7" s="90"/>
       <c r="Y7" s="91"/>
-      <c r="Z7" s="159"/>
-      <c r="AA7" s="160"/>
+      <c r="Z7" s="158"/>
+      <c r="AA7" s="159"/>
       <c r="AB7" s="91"/>
       <c r="AC7" s="92"/>
       <c r="AD7" s="101"/>
@@ -8232,10 +8606,10 @@
       <c r="E8" s="77"/>
       <c r="F8" s="62"/>
       <c r="G8" s="75"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="170"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="168"/>
+      <c r="K8" s="169"/>
       <c r="L8" s="77"/>
       <c r="M8" s="76"/>
       <c r="N8" s="77"/>
@@ -8244,14 +8618,14 @@
       <c r="Q8" s="77"/>
       <c r="R8" s="90"/>
       <c r="S8" s="91"/>
-      <c r="T8" s="179"/>
-      <c r="U8" s="180"/>
+      <c r="T8" s="178"/>
+      <c r="U8" s="179"/>
       <c r="V8" s="91"/>
       <c r="W8" s="92"/>
       <c r="X8" s="90"/>
       <c r="Y8" s="91"/>
-      <c r="Z8" s="159"/>
-      <c r="AA8" s="160"/>
+      <c r="Z8" s="158"/>
+      <c r="AA8" s="159"/>
       <c r="AB8" s="91"/>
       <c r="AC8" s="92"/>
       <c r="AD8" s="101"/>
@@ -8274,10 +8648,10 @@
       <c r="E9" s="77"/>
       <c r="F9" s="62"/>
       <c r="G9" s="75"/>
-      <c r="H9" s="169"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="169"/>
-      <c r="K9" s="170"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="168"/>
+      <c r="K9" s="169"/>
       <c r="L9" s="77"/>
       <c r="M9" s="76"/>
       <c r="N9" s="77"/>
@@ -8286,14 +8660,14 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="90"/>
       <c r="S9" s="91"/>
-      <c r="T9" s="179"/>
-      <c r="U9" s="180"/>
+      <c r="T9" s="178"/>
+      <c r="U9" s="179"/>
       <c r="V9" s="91"/>
       <c r="W9" s="92"/>
       <c r="X9" s="90"/>
       <c r="Y9" s="91"/>
-      <c r="Z9" s="159"/>
-      <c r="AA9" s="160"/>
+      <c r="Z9" s="158"/>
+      <c r="AA9" s="159"/>
       <c r="AB9" s="91"/>
       <c r="AC9" s="92"/>
       <c r="AD9" s="101"/>
@@ -8316,10 +8690,10 @@
       <c r="E10" s="77"/>
       <c r="F10" s="62"/>
       <c r="G10" s="75"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="169"/>
-      <c r="K10" s="170"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="168"/>
+      <c r="K10" s="169"/>
       <c r="L10" s="77"/>
       <c r="M10" s="76"/>
       <c r="N10" s="77"/>
@@ -8328,14 +8702,14 @@
       <c r="Q10" s="77"/>
       <c r="R10" s="90"/>
       <c r="S10" s="91"/>
-      <c r="T10" s="179"/>
-      <c r="U10" s="180"/>
+      <c r="T10" s="178"/>
+      <c r="U10" s="179"/>
       <c r="V10" s="91"/>
       <c r="W10" s="92"/>
       <c r="X10" s="90"/>
       <c r="Y10" s="91"/>
-      <c r="Z10" s="159"/>
-      <c r="AA10" s="160"/>
+      <c r="Z10" s="158"/>
+      <c r="AA10" s="159"/>
       <c r="AB10" s="91"/>
       <c r="AC10" s="92"/>
       <c r="AD10" s="101"/>
@@ -8358,10 +8732,10 @@
       <c r="E11" s="77"/>
       <c r="F11" s="62"/>
       <c r="G11" s="75"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="169"/>
-      <c r="K11" s="170"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="168"/>
+      <c r="K11" s="169"/>
       <c r="L11" s="77"/>
       <c r="M11" s="76">
         <v>0.75</v>
@@ -8374,14 +8748,14 @@
       <c r="Q11" s="77"/>
       <c r="R11" s="90"/>
       <c r="S11" s="91"/>
-      <c r="T11" s="179"/>
-      <c r="U11" s="180"/>
+      <c r="T11" s="178"/>
+      <c r="U11" s="179"/>
       <c r="V11" s="91"/>
       <c r="W11" s="92"/>
       <c r="X11" s="90"/>
       <c r="Y11" s="91"/>
-      <c r="Z11" s="159"/>
-      <c r="AA11" s="160"/>
+      <c r="Z11" s="158"/>
+      <c r="AA11" s="159"/>
       <c r="AB11" s="91"/>
       <c r="AC11" s="92"/>
       <c r="AD11" s="101"/>
@@ -8404,10 +8778,10 @@
       <c r="E12" s="77"/>
       <c r="F12" s="62"/>
       <c r="G12" s="75"/>
-      <c r="H12" s="169"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="169"/>
-      <c r="K12" s="170"/>
+      <c r="H12" s="168"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="168"/>
+      <c r="K12" s="169"/>
       <c r="L12" s="77"/>
       <c r="M12" s="76"/>
       <c r="N12" s="77"/>
@@ -8416,14 +8790,14 @@
       <c r="Q12" s="77"/>
       <c r="R12" s="90"/>
       <c r="S12" s="91"/>
-      <c r="T12" s="179"/>
-      <c r="U12" s="180"/>
+      <c r="T12" s="178"/>
+      <c r="U12" s="179"/>
       <c r="V12" s="91"/>
       <c r="W12" s="92"/>
       <c r="X12" s="90"/>
       <c r="Y12" s="91"/>
-      <c r="Z12" s="159"/>
-      <c r="AA12" s="160"/>
+      <c r="Z12" s="158"/>
+      <c r="AA12" s="159"/>
       <c r="AB12" s="91"/>
       <c r="AC12" s="92"/>
       <c r="AD12" s="101"/>
@@ -8448,10 +8822,10 @@
       <c r="E13" s="77"/>
       <c r="F13" s="62"/>
       <c r="G13" s="75"/>
-      <c r="H13" s="169"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="169"/>
-      <c r="K13" s="170"/>
+      <c r="H13" s="168"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="168"/>
+      <c r="K13" s="169"/>
       <c r="L13" s="77"/>
       <c r="M13" s="76"/>
       <c r="N13" s="77"/>
@@ -8460,14 +8834,14 @@
       <c r="Q13" s="77"/>
       <c r="R13" s="90"/>
       <c r="S13" s="91"/>
-      <c r="T13" s="179"/>
-      <c r="U13" s="180"/>
+      <c r="T13" s="178"/>
+      <c r="U13" s="179"/>
       <c r="V13" s="91"/>
       <c r="W13" s="92"/>
       <c r="X13" s="90"/>
       <c r="Y13" s="91"/>
-      <c r="Z13" s="159"/>
-      <c r="AA13" s="160"/>
+      <c r="Z13" s="158"/>
+      <c r="AA13" s="159"/>
       <c r="AB13" s="91"/>
       <c r="AC13" s="92"/>
       <c r="AD13" s="101"/>
@@ -8494,10 +8868,10 @@
       </c>
       <c r="F14" s="62"/>
       <c r="G14" s="75"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="169"/>
-      <c r="K14" s="170"/>
+      <c r="H14" s="168"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="168"/>
+      <c r="K14" s="169"/>
       <c r="L14" s="77"/>
       <c r="M14" s="76">
         <v>0.75</v>
@@ -8510,14 +8884,14 @@
       <c r="Q14" s="77"/>
       <c r="R14" s="90"/>
       <c r="S14" s="91"/>
-      <c r="T14" s="179"/>
-      <c r="U14" s="180"/>
+      <c r="T14" s="178"/>
+      <c r="U14" s="179"/>
       <c r="V14" s="91"/>
       <c r="W14" s="92"/>
       <c r="X14" s="90"/>
       <c r="Y14" s="91"/>
-      <c r="Z14" s="159"/>
-      <c r="AA14" s="160"/>
+      <c r="Z14" s="158"/>
+      <c r="AA14" s="159"/>
       <c r="AB14" s="91"/>
       <c r="AC14" s="92"/>
       <c r="AD14" s="101"/>
@@ -8542,10 +8916,10 @@
       </c>
       <c r="F15" s="62"/>
       <c r="G15" s="75"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="169"/>
-      <c r="K15" s="170"/>
+      <c r="H15" s="168"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="168"/>
+      <c r="K15" s="169"/>
       <c r="L15" s="77"/>
       <c r="M15" s="76"/>
       <c r="N15" s="77"/>
@@ -8554,14 +8928,14 @@
       <c r="Q15" s="77"/>
       <c r="R15" s="90"/>
       <c r="S15" s="91"/>
-      <c r="T15" s="179"/>
-      <c r="U15" s="180"/>
+      <c r="T15" s="178"/>
+      <c r="U15" s="179"/>
       <c r="V15" s="91"/>
       <c r="W15" s="92"/>
       <c r="X15" s="90"/>
       <c r="Y15" s="91"/>
-      <c r="Z15" s="159"/>
-      <c r="AA15" s="160"/>
+      <c r="Z15" s="158"/>
+      <c r="AA15" s="159"/>
       <c r="AB15" s="91"/>
       <c r="AC15" s="92"/>
       <c r="AD15" s="101"/>
@@ -8584,10 +8958,10 @@
       <c r="E16" s="77"/>
       <c r="F16" s="62"/>
       <c r="G16" s="75"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="169"/>
-      <c r="K16" s="170"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="168"/>
+      <c r="K16" s="169"/>
       <c r="L16" s="77"/>
       <c r="M16" s="76">
         <v>0.82</v>
@@ -8600,14 +8974,14 @@
       <c r="Q16" s="77"/>
       <c r="R16" s="90"/>
       <c r="S16" s="91"/>
-      <c r="T16" s="179"/>
-      <c r="U16" s="180"/>
+      <c r="T16" s="178"/>
+      <c r="U16" s="179"/>
       <c r="V16" s="91"/>
       <c r="W16" s="92"/>
       <c r="X16" s="90"/>
       <c r="Y16" s="91"/>
-      <c r="Z16" s="159"/>
-      <c r="AA16" s="160"/>
+      <c r="Z16" s="158"/>
+      <c r="AA16" s="159"/>
       <c r="AB16" s="91"/>
       <c r="AC16" s="92"/>
       <c r="AD16" s="101"/>
@@ -8630,10 +9004,10 @@
       <c r="E17" s="77"/>
       <c r="F17" s="62"/>
       <c r="G17" s="75"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="169"/>
-      <c r="K17" s="170"/>
+      <c r="H17" s="168"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="168"/>
+      <c r="K17" s="169"/>
       <c r="L17" s="77"/>
       <c r="M17" s="76">
         <v>0.86</v>
@@ -8646,14 +9020,14 @@
       <c r="Q17" s="77"/>
       <c r="R17" s="90"/>
       <c r="S17" s="91"/>
-      <c r="T17" s="179"/>
-      <c r="U17" s="180"/>
+      <c r="T17" s="178"/>
+      <c r="U17" s="179"/>
       <c r="V17" s="91"/>
       <c r="W17" s="92"/>
       <c r="X17" s="90"/>
       <c r="Y17" s="91"/>
-      <c r="Z17" s="159"/>
-      <c r="AA17" s="160"/>
+      <c r="Z17" s="158"/>
+      <c r="AA17" s="159"/>
       <c r="AB17" s="91"/>
       <c r="AC17" s="92"/>
       <c r="AD17" s="101"/>
@@ -8676,10 +9050,10 @@
       <c r="E18" s="77"/>
       <c r="F18" s="62"/>
       <c r="G18" s="75"/>
-      <c r="H18" s="169"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="169"/>
-      <c r="K18" s="170"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="169"/>
+      <c r="J18" s="168"/>
+      <c r="K18" s="169"/>
       <c r="L18" s="77"/>
       <c r="M18" s="76">
         <v>0.89</v>
@@ -8692,14 +9066,14 @@
       <c r="Q18" s="77"/>
       <c r="R18" s="90"/>
       <c r="S18" s="91"/>
-      <c r="T18" s="179"/>
-      <c r="U18" s="180"/>
+      <c r="T18" s="178"/>
+      <c r="U18" s="179"/>
       <c r="V18" s="91"/>
       <c r="W18" s="92"/>
       <c r="X18" s="90"/>
       <c r="Y18" s="91"/>
-      <c r="Z18" s="159"/>
-      <c r="AA18" s="160"/>
+      <c r="Z18" s="158"/>
+      <c r="AA18" s="159"/>
       <c r="AB18" s="91"/>
       <c r="AC18" s="92"/>
       <c r="AD18" s="101"/>
@@ -8722,10 +9096,10 @@
       <c r="E19" s="77"/>
       <c r="F19" s="62"/>
       <c r="G19" s="75"/>
-      <c r="H19" s="169"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="169"/>
-      <c r="K19" s="170"/>
+      <c r="H19" s="168"/>
+      <c r="I19" s="169"/>
+      <c r="J19" s="168"/>
+      <c r="K19" s="169"/>
       <c r="L19" s="77"/>
       <c r="M19" s="76">
         <v>0.92</v>
@@ -8738,14 +9112,14 @@
       <c r="Q19" s="77"/>
       <c r="R19" s="90"/>
       <c r="S19" s="91"/>
-      <c r="T19" s="179"/>
-      <c r="U19" s="180"/>
+      <c r="T19" s="178"/>
+      <c r="U19" s="179"/>
       <c r="V19" s="91"/>
       <c r="W19" s="92"/>
       <c r="X19" s="90"/>
       <c r="Y19" s="91"/>
-      <c r="Z19" s="159"/>
-      <c r="AA19" s="160"/>
+      <c r="Z19" s="158"/>
+      <c r="AA19" s="159"/>
       <c r="AB19" s="91"/>
       <c r="AC19" s="92"/>
       <c r="AD19" s="101"/>
@@ -8772,10 +9146,10 @@
       </c>
       <c r="F20" s="62"/>
       <c r="G20" s="75"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="169"/>
-      <c r="K20" s="170"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="169"/>
+      <c r="J20" s="168"/>
+      <c r="K20" s="169"/>
       <c r="L20" s="77"/>
       <c r="M20" s="76">
         <v>0.95</v>
@@ -8788,14 +9162,14 @@
       <c r="Q20" s="77"/>
       <c r="R20" s="90"/>
       <c r="S20" s="91"/>
-      <c r="T20" s="179"/>
-      <c r="U20" s="180"/>
+      <c r="T20" s="178"/>
+      <c r="U20" s="179"/>
       <c r="V20" s="91"/>
       <c r="W20" s="92"/>
       <c r="X20" s="90"/>
       <c r="Y20" s="91"/>
-      <c r="Z20" s="159"/>
-      <c r="AA20" s="160"/>
+      <c r="Z20" s="158"/>
+      <c r="AA20" s="159"/>
       <c r="AB20" s="91"/>
       <c r="AC20" s="92"/>
       <c r="AD20" s="101"/>
@@ -8818,10 +9192,10 @@
       <c r="E21" s="77"/>
       <c r="F21" s="62"/>
       <c r="G21" s="75"/>
-      <c r="H21" s="169"/>
-      <c r="I21" s="170"/>
-      <c r="J21" s="169"/>
-      <c r="K21" s="170"/>
+      <c r="H21" s="168"/>
+      <c r="I21" s="169"/>
+      <c r="J21" s="168"/>
+      <c r="K21" s="169"/>
       <c r="L21" s="77"/>
       <c r="M21" s="76"/>
       <c r="N21" s="77"/>
@@ -8830,14 +9204,14 @@
       <c r="Q21" s="77"/>
       <c r="R21" s="90"/>
       <c r="S21" s="91"/>
-      <c r="T21" s="179"/>
-      <c r="U21" s="180"/>
+      <c r="T21" s="178"/>
+      <c r="U21" s="179"/>
       <c r="V21" s="91"/>
       <c r="W21" s="92"/>
       <c r="X21" s="90"/>
       <c r="Y21" s="91"/>
-      <c r="Z21" s="159"/>
-      <c r="AA21" s="160"/>
+      <c r="Z21" s="158"/>
+      <c r="AA21" s="159"/>
       <c r="AB21" s="91"/>
       <c r="AC21" s="92"/>
       <c r="AD21" s="101"/>
@@ -8860,10 +9234,10 @@
       <c r="E22" s="77"/>
       <c r="F22" s="62"/>
       <c r="G22" s="75"/>
-      <c r="H22" s="169"/>
-      <c r="I22" s="170"/>
-      <c r="J22" s="169"/>
-      <c r="K22" s="170"/>
+      <c r="H22" s="168"/>
+      <c r="I22" s="169"/>
+      <c r="J22" s="168"/>
+      <c r="K22" s="169"/>
       <c r="L22" s="77"/>
       <c r="M22" s="76"/>
       <c r="N22" s="77"/>
@@ -8872,14 +9246,14 @@
       <c r="Q22" s="77"/>
       <c r="R22" s="90"/>
       <c r="S22" s="91"/>
-      <c r="T22" s="179"/>
-      <c r="U22" s="180"/>
+      <c r="T22" s="178"/>
+      <c r="U22" s="179"/>
       <c r="V22" s="91"/>
       <c r="W22" s="92"/>
       <c r="X22" s="90"/>
       <c r="Y22" s="91"/>
-      <c r="Z22" s="159"/>
-      <c r="AA22" s="160"/>
+      <c r="Z22" s="158"/>
+      <c r="AA22" s="159"/>
       <c r="AB22" s="91"/>
       <c r="AC22" s="92"/>
       <c r="AD22" s="101"/>
@@ -8902,10 +9276,10 @@
       <c r="E23" s="77"/>
       <c r="F23" s="62"/>
       <c r="G23" s="75"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="169"/>
-      <c r="K23" s="170"/>
+      <c r="H23" s="168"/>
+      <c r="I23" s="169"/>
+      <c r="J23" s="168"/>
+      <c r="K23" s="169"/>
       <c r="L23" s="77"/>
       <c r="M23" s="76"/>
       <c r="N23" s="77"/>
@@ -8914,14 +9288,14 @@
       <c r="Q23" s="77"/>
       <c r="R23" s="90"/>
       <c r="S23" s="91"/>
-      <c r="T23" s="179"/>
-      <c r="U23" s="180"/>
+      <c r="T23" s="178"/>
+      <c r="U23" s="179"/>
       <c r="V23" s="91"/>
       <c r="W23" s="92"/>
       <c r="X23" s="90"/>
       <c r="Y23" s="91"/>
-      <c r="Z23" s="159"/>
-      <c r="AA23" s="160"/>
+      <c r="Z23" s="158"/>
+      <c r="AA23" s="159"/>
       <c r="AB23" s="91"/>
       <c r="AC23" s="92"/>
       <c r="AD23" s="101"/>
@@ -8944,10 +9318,10 @@
       <c r="E24" s="77"/>
       <c r="F24" s="62"/>
       <c r="G24" s="75"/>
-      <c r="H24" s="169"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="169"/>
-      <c r="K24" s="170"/>
+      <c r="H24" s="168"/>
+      <c r="I24" s="169"/>
+      <c r="J24" s="168"/>
+      <c r="K24" s="169"/>
       <c r="L24" s="77"/>
       <c r="M24" s="76"/>
       <c r="N24" s="77"/>
@@ -8956,14 +9330,14 @@
       <c r="Q24" s="77"/>
       <c r="R24" s="90"/>
       <c r="S24" s="91"/>
-      <c r="T24" s="179"/>
-      <c r="U24" s="180"/>
+      <c r="T24" s="178"/>
+      <c r="U24" s="179"/>
       <c r="V24" s="91"/>
       <c r="W24" s="92"/>
       <c r="X24" s="90"/>
       <c r="Y24" s="91"/>
-      <c r="Z24" s="159"/>
-      <c r="AA24" s="160"/>
+      <c r="Z24" s="158"/>
+      <c r="AA24" s="159"/>
       <c r="AB24" s="91"/>
       <c r="AC24" s="92"/>
       <c r="AD24" s="101"/>
@@ -8986,10 +9360,10 @@
       <c r="E25" s="77"/>
       <c r="F25" s="62"/>
       <c r="G25" s="75"/>
-      <c r="H25" s="169"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="169"/>
-      <c r="K25" s="170"/>
+      <c r="H25" s="168"/>
+      <c r="I25" s="169"/>
+      <c r="J25" s="168"/>
+      <c r="K25" s="169"/>
       <c r="L25" s="77"/>
       <c r="M25" s="76"/>
       <c r="N25" s="77"/>
@@ -8998,14 +9372,14 @@
       <c r="Q25" s="77"/>
       <c r="R25" s="90"/>
       <c r="S25" s="91"/>
-      <c r="T25" s="179"/>
-      <c r="U25" s="180"/>
+      <c r="T25" s="178"/>
+      <c r="U25" s="179"/>
       <c r="V25" s="91"/>
       <c r="W25" s="92"/>
       <c r="X25" s="90"/>
       <c r="Y25" s="91"/>
-      <c r="Z25" s="159"/>
-      <c r="AA25" s="160"/>
+      <c r="Z25" s="158"/>
+      <c r="AA25" s="159"/>
       <c r="AB25" s="91"/>
       <c r="AC25" s="92"/>
       <c r="AD25" s="101"/>
@@ -9028,10 +9402,10 @@
       <c r="E26" s="77"/>
       <c r="F26" s="62"/>
       <c r="G26" s="75"/>
-      <c r="H26" s="169"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="169"/>
-      <c r="K26" s="170"/>
+      <c r="H26" s="168"/>
+      <c r="I26" s="169"/>
+      <c r="J26" s="168"/>
+      <c r="K26" s="169"/>
       <c r="L26" s="77"/>
       <c r="M26" s="76"/>
       <c r="N26" s="77"/>
@@ -9040,14 +9414,14 @@
       <c r="Q26" s="77"/>
       <c r="R26" s="90"/>
       <c r="S26" s="91"/>
-      <c r="T26" s="179"/>
-      <c r="U26" s="180"/>
+      <c r="T26" s="178"/>
+      <c r="U26" s="179"/>
       <c r="V26" s="91"/>
       <c r="W26" s="92"/>
       <c r="X26" s="90"/>
       <c r="Y26" s="91"/>
-      <c r="Z26" s="159"/>
-      <c r="AA26" s="160"/>
+      <c r="Z26" s="158"/>
+      <c r="AA26" s="159"/>
       <c r="AB26" s="91"/>
       <c r="AC26" s="92"/>
       <c r="AD26" s="101"/>
@@ -9070,10 +9444,10 @@
       <c r="E27" s="77"/>
       <c r="F27" s="62"/>
       <c r="G27" s="75"/>
-      <c r="H27" s="169"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="169"/>
-      <c r="K27" s="170"/>
+      <c r="H27" s="168"/>
+      <c r="I27" s="169"/>
+      <c r="J27" s="168"/>
+      <c r="K27" s="169"/>
       <c r="L27" s="77"/>
       <c r="M27" s="76"/>
       <c r="N27" s="77"/>
@@ -9082,14 +9456,14 @@
       <c r="Q27" s="77"/>
       <c r="R27" s="90"/>
       <c r="S27" s="91"/>
-      <c r="T27" s="179"/>
-      <c r="U27" s="180"/>
+      <c r="T27" s="178"/>
+      <c r="U27" s="179"/>
       <c r="V27" s="91"/>
       <c r="W27" s="92"/>
       <c r="X27" s="90"/>
       <c r="Y27" s="91"/>
-      <c r="Z27" s="159"/>
-      <c r="AA27" s="160"/>
+      <c r="Z27" s="158"/>
+      <c r="AA27" s="159"/>
       <c r="AB27" s="91"/>
       <c r="AC27" s="92"/>
       <c r="AD27" s="101"/>
@@ -9112,10 +9486,10 @@
       <c r="E28" s="77"/>
       <c r="F28" s="62"/>
       <c r="G28" s="75"/>
-      <c r="H28" s="169"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="169"/>
-      <c r="K28" s="170"/>
+      <c r="H28" s="168"/>
+      <c r="I28" s="169"/>
+      <c r="J28" s="168"/>
+      <c r="K28" s="169"/>
       <c r="L28" s="77"/>
       <c r="M28" s="76"/>
       <c r="N28" s="77"/>
@@ -9124,14 +9498,14 @@
       <c r="Q28" s="77"/>
       <c r="R28" s="90"/>
       <c r="S28" s="91"/>
-      <c r="T28" s="179"/>
-      <c r="U28" s="180"/>
+      <c r="T28" s="178"/>
+      <c r="U28" s="179"/>
       <c r="V28" s="91"/>
       <c r="W28" s="92"/>
       <c r="X28" s="90"/>
       <c r="Y28" s="91"/>
-      <c r="Z28" s="159"/>
-      <c r="AA28" s="160"/>
+      <c r="Z28" s="158"/>
+      <c r="AA28" s="159"/>
       <c r="AB28" s="91"/>
       <c r="AC28" s="92"/>
       <c r="AD28" s="101"/>
@@ -9154,10 +9528,10 @@
       <c r="E29" s="77"/>
       <c r="F29" s="62"/>
       <c r="G29" s="75"/>
-      <c r="H29" s="169"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="169"/>
-      <c r="K29" s="170"/>
+      <c r="H29" s="168"/>
+      <c r="I29" s="169"/>
+      <c r="J29" s="168"/>
+      <c r="K29" s="169"/>
       <c r="L29" s="77"/>
       <c r="M29" s="76">
         <v>0.95</v>
@@ -9170,14 +9544,14 @@
       <c r="Q29" s="77"/>
       <c r="R29" s="90"/>
       <c r="S29" s="91"/>
-      <c r="T29" s="179"/>
-      <c r="U29" s="180"/>
+      <c r="T29" s="178"/>
+      <c r="U29" s="179"/>
       <c r="V29" s="91"/>
       <c r="W29" s="92"/>
       <c r="X29" s="90"/>
       <c r="Y29" s="91"/>
-      <c r="Z29" s="159"/>
-      <c r="AA29" s="160"/>
+      <c r="Z29" s="158"/>
+      <c r="AA29" s="159"/>
       <c r="AB29" s="91"/>
       <c r="AC29" s="92"/>
       <c r="AD29" s="101"/>
@@ -9200,10 +9574,10 @@
       <c r="E30" s="77"/>
       <c r="F30" s="62"/>
       <c r="G30" s="75"/>
-      <c r="H30" s="169"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="169"/>
-      <c r="K30" s="170"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="169"/>
+      <c r="J30" s="168"/>
+      <c r="K30" s="169"/>
       <c r="L30" s="77"/>
       <c r="M30" s="76"/>
       <c r="N30" s="77"/>
@@ -9212,14 +9586,14 @@
       <c r="Q30" s="77"/>
       <c r="R30" s="90"/>
       <c r="S30" s="91"/>
-      <c r="T30" s="179"/>
-      <c r="U30" s="180"/>
+      <c r="T30" s="178"/>
+      <c r="U30" s="179"/>
       <c r="V30" s="91"/>
       <c r="W30" s="92"/>
       <c r="X30" s="90"/>
       <c r="Y30" s="91"/>
-      <c r="Z30" s="159"/>
-      <c r="AA30" s="160"/>
+      <c r="Z30" s="158"/>
+      <c r="AA30" s="159"/>
       <c r="AB30" s="91"/>
       <c r="AC30" s="92"/>
       <c r="AD30" s="101"/>
@@ -9242,10 +9616,10 @@
       <c r="E31" s="77"/>
       <c r="F31" s="62"/>
       <c r="G31" s="75"/>
-      <c r="H31" s="169"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="169"/>
-      <c r="K31" s="170"/>
+      <c r="H31" s="168"/>
+      <c r="I31" s="169"/>
+      <c r="J31" s="168"/>
+      <c r="K31" s="169"/>
       <c r="L31" s="77"/>
       <c r="M31" s="76"/>
       <c r="N31" s="77"/>
@@ -9254,14 +9628,14 @@
       <c r="Q31" s="77"/>
       <c r="R31" s="90"/>
       <c r="S31" s="91"/>
-      <c r="T31" s="179"/>
-      <c r="U31" s="180"/>
+      <c r="T31" s="178"/>
+      <c r="U31" s="179"/>
       <c r="V31" s="91"/>
       <c r="W31" s="92"/>
       <c r="X31" s="90"/>
       <c r="Y31" s="91"/>
-      <c r="Z31" s="159"/>
-      <c r="AA31" s="160"/>
+      <c r="Z31" s="158"/>
+      <c r="AA31" s="159"/>
       <c r="AB31" s="91"/>
       <c r="AC31" s="92"/>
       <c r="AD31" s="101"/>
@@ -9284,10 +9658,10 @@
       <c r="E32" s="77"/>
       <c r="F32" s="62"/>
       <c r="G32" s="75"/>
-      <c r="H32" s="169"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="169"/>
-      <c r="K32" s="170"/>
+      <c r="H32" s="168"/>
+      <c r="I32" s="169"/>
+      <c r="J32" s="168"/>
+      <c r="K32" s="169"/>
       <c r="L32" s="77"/>
       <c r="M32" s="76"/>
       <c r="N32" s="77"/>
@@ -9296,14 +9670,14 @@
       <c r="Q32" s="77"/>
       <c r="R32" s="90"/>
       <c r="S32" s="91"/>
-      <c r="T32" s="179"/>
-      <c r="U32" s="180"/>
+      <c r="T32" s="178"/>
+      <c r="U32" s="179"/>
       <c r="V32" s="91"/>
       <c r="W32" s="92"/>
       <c r="X32" s="90"/>
       <c r="Y32" s="91"/>
-      <c r="Z32" s="159"/>
-      <c r="AA32" s="160"/>
+      <c r="Z32" s="158"/>
+      <c r="AA32" s="159"/>
       <c r="AB32" s="91"/>
       <c r="AC32" s="92"/>
       <c r="AD32" s="101"/>
@@ -9326,10 +9700,10 @@
       <c r="E33" s="77"/>
       <c r="F33" s="62"/>
       <c r="G33" s="75"/>
-      <c r="H33" s="169"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="169"/>
-      <c r="K33" s="170"/>
+      <c r="H33" s="168"/>
+      <c r="I33" s="169"/>
+      <c r="J33" s="168"/>
+      <c r="K33" s="169"/>
       <c r="L33" s="77"/>
       <c r="M33" s="76"/>
       <c r="N33" s="77"/>
@@ -9338,14 +9712,14 @@
       <c r="Q33" s="77"/>
       <c r="R33" s="90"/>
       <c r="S33" s="91"/>
-      <c r="T33" s="179"/>
-      <c r="U33" s="180"/>
+      <c r="T33" s="178"/>
+      <c r="U33" s="179"/>
       <c r="V33" s="91"/>
       <c r="W33" s="92"/>
       <c r="X33" s="90"/>
       <c r="Y33" s="91"/>
-      <c r="Z33" s="159"/>
-      <c r="AA33" s="160"/>
+      <c r="Z33" s="158"/>
+      <c r="AA33" s="159"/>
       <c r="AB33" s="91"/>
       <c r="AC33" s="92"/>
       <c r="AD33" s="101"/>
@@ -9368,10 +9742,10 @@
       <c r="E34" s="80"/>
       <c r="F34" s="64"/>
       <c r="G34" s="78"/>
-      <c r="H34" s="171"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="171"/>
-      <c r="K34" s="172"/>
+      <c r="H34" s="170"/>
+      <c r="I34" s="171"/>
+      <c r="J34" s="170"/>
+      <c r="K34" s="171"/>
       <c r="L34" s="80"/>
       <c r="M34" s="79">
         <v>0.99</v>
@@ -9384,14 +9758,14 @@
       <c r="Q34" s="80"/>
       <c r="R34" s="93"/>
       <c r="S34" s="94"/>
-      <c r="T34" s="181"/>
-      <c r="U34" s="182"/>
+      <c r="T34" s="180"/>
+      <c r="U34" s="181"/>
       <c r="V34" s="94"/>
       <c r="W34" s="95"/>
       <c r="X34" s="93"/>
       <c r="Y34" s="94"/>
-      <c r="Z34" s="161"/>
-      <c r="AA34" s="162"/>
+      <c r="Z34" s="160"/>
+      <c r="AA34" s="161"/>
       <c r="AB34" s="94"/>
       <c r="AC34" s="95"/>
       <c r="AD34" s="102"/>

--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="pars" sheetId="24" r:id="rId1"/>
@@ -1324,30 +1324,6 @@
     <author>Tom Tidhar</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tom Tidhar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Time between HIV tests (in years)</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1368,7 +1344,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Time between tests for people within 1 year of infection</t>
+Proportion of diagnosed PLHIV who are on treatment</t>
         </r>
       </text>
     </comment>
@@ -1392,7 +1368,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Time between tests for people infected over 3 years ago</t>
+Proportion of PLHIV on treatment who are virally suppressed</t>
         </r>
       </text>
     </comment>
@@ -1819,7 +1795,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="132">
   <si>
     <t>Waiting list</t>
   </si>
@@ -4323,7 +4299,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H8" sqref="H8"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5731,6 +5707,7 @@
       <c r="D19" s="10"/>
       <c r="G19" s="10"/>
       <c r="J19" s="10"/>
+      <c r="L19" s="43"/>
       <c r="P19" s="10"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
@@ -5739,6 +5716,7 @@
       <c r="D20" s="10"/>
       <c r="G20" s="10"/>
       <c r="J20" s="10"/>
+      <c r="L20" s="43"/>
       <c r="P20" s="10"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -5747,6 +5725,7 @@
       <c r="D21" s="10"/>
       <c r="G21" s="10"/>
       <c r="J21" s="10"/>
+      <c r="L21" s="43"/>
       <c r="P21" s="10"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -5755,24 +5734,28 @@
       <c r="D22" s="10"/>
       <c r="G22" s="10"/>
       <c r="J22" s="10"/>
+      <c r="L22" s="43"/>
       <c r="P22" s="10"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
+      <c r="L23" s="43"/>
       <c r="P23" s="10"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
+      <c r="L24" s="43"/>
       <c r="P24" s="10"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
+      <c r="L25" s="43"/>
       <c r="P25" s="10"/>
     </row>
   </sheetData>
@@ -5998,7 +5981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
@@ -7679,334 +7662,219 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15" style="60" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="43"/>
+    <col min="2" max="2" width="19.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="68" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="71" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="71" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>2000</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-    </row>
-    <row r="5" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+    </row>
+    <row r="5" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>2001</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-    </row>
-    <row r="6" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
+    </row>
+    <row r="6" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>2002</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77"/>
-    </row>
-    <row r="7" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
+    </row>
+    <row r="7" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>2003</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="77"/>
-    </row>
-    <row r="8" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="76"/>
+      <c r="C7" s="77"/>
+    </row>
+    <row r="8" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>2004</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="77"/>
-    </row>
-    <row r="9" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
+    </row>
+    <row r="9" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>2005</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="77"/>
-    </row>
-    <row r="10" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="76"/>
+      <c r="C9" s="77"/>
+    </row>
+    <row r="10" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>2006</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="77"/>
-    </row>
-    <row r="11" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
+    </row>
+    <row r="11" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>2007</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="77"/>
-    </row>
-    <row r="12" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="76">
+        <v>0.75</v>
+      </c>
+      <c r="C11" s="77">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>2008</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="77"/>
-    </row>
-    <row r="13" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="76"/>
+      <c r="C12" s="77"/>
+    </row>
+    <row r="13" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>2009</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="77"/>
-    </row>
-    <row r="14" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="76"/>
+      <c r="C13" s="77"/>
+    </row>
+    <row r="14" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>2010</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="77"/>
-    </row>
-    <row r="15" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="76">
+        <v>0.75</v>
+      </c>
+      <c r="C14" s="77">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>2011</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="77"/>
-    </row>
-    <row r="16" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="76"/>
+      <c r="C15" s="77"/>
+    </row>
+    <row r="16" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>2012</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="77"/>
-    </row>
-    <row r="17" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="76">
+        <v>0.82</v>
+      </c>
+      <c r="C16" s="77">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>2013</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="77"/>
-    </row>
-    <row r="18" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="76">
+        <v>0.86</v>
+      </c>
+      <c r="C17" s="77">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>2014</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="77"/>
-    </row>
-    <row r="19" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="76">
+        <v>0.89</v>
+      </c>
+      <c r="C18" s="77">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>2015</v>
       </c>
-      <c r="B19" s="75">
-        <v>0.5</v>
-      </c>
-      <c r="C19" s="76">
-        <v>0.5</v>
-      </c>
-      <c r="D19" s="76">
-        <v>0.25</v>
-      </c>
-      <c r="E19" s="76">
-        <v>0.25</v>
-      </c>
-      <c r="F19" s="76">
-        <v>0.125</v>
-      </c>
-      <c r="G19" s="77">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="76">
+        <v>0.92</v>
+      </c>
+      <c r="C19" s="77">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>2016</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="77"/>
-    </row>
-    <row r="21" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="76"/>
+      <c r="C20" s="77"/>
+    </row>
+    <row r="21" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>2017</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="77"/>
-    </row>
-    <row r="22" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="76"/>
+      <c r="C21" s="77"/>
+    </row>
+    <row r="22" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>2018</v>
       </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="77"/>
-    </row>
-    <row r="23" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="76"/>
+      <c r="C22" s="77"/>
+    </row>
+    <row r="23" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
         <v>2019</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="77"/>
-    </row>
-    <row r="24" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="63">
+      <c r="B23" s="76"/>
+      <c r="C23" s="77"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="44">
         <v>2020</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="80"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="77"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="pars" sheetId="24" r:id="rId1"/>
@@ -5981,8 +5981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29:T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7289,12 +7289,8 @@
       <c r="P29" s="168"/>
       <c r="Q29" s="169"/>
       <c r="R29" s="77"/>
-      <c r="S29" s="76">
-        <v>0.95</v>
-      </c>
-      <c r="T29" s="77">
-        <v>0.95</v>
-      </c>
+      <c r="S29" s="76"/>
+      <c r="T29" s="77"/>
       <c r="U29" s="75"/>
       <c r="V29" s="76"/>
       <c r="W29" s="77"/>
@@ -7664,8 +7660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7834,12 +7830,8 @@
       <c r="A19" s="31">
         <v>2015</v>
       </c>
-      <c r="B19" s="76">
-        <v>0.92</v>
-      </c>
-      <c r="C19" s="77">
-        <v>0.92</v>
-      </c>
+      <c r="B19" s="76"/>
+      <c r="C19" s="77"/>
     </row>
     <row r="20" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31">

--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="pars" sheetId="24" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="scen_2" sheetId="26" r:id="rId6"/>
     <sheet name="timepars_old" sheetId="20" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1795,7 +1795,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="133">
   <si>
     <t>Waiting list</t>
   </si>
@@ -2192,6 +2192,9 @@
   </si>
   <si>
     <t>proportion_stay</t>
+  </si>
+  <si>
+    <t>years each person is in model</t>
   </si>
 </sst>
 </file>
@@ -3814,8 +3817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3914,16 +3917,16 @@
         <v>9</v>
       </c>
       <c r="C4" s="47">
-        <f>0.001*12*C2</f>
-        <v>1E-3</v>
+        <f>1 - EXP(-$C$2 / $H$8)</f>
+        <v>1.8501382321644E-3</v>
       </c>
       <c r="D4" s="19">
         <f t="shared" si="0"/>
-        <v>9.5E-4</v>
+        <v>1.7576313205561801E-3</v>
       </c>
       <c r="E4" s="16">
         <f t="shared" si="1"/>
-        <v>1.0499999999999999E-3</v>
+        <v>1.9426451437726199E-3</v>
       </c>
       <c r="L4" s="48"/>
       <c r="M4" s="43" t="s">
@@ -4032,6 +4035,12 @@
       <c r="E8" s="18">
         <f t="shared" si="1"/>
         <v>0.13650000000000001</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="43">
+        <v>45</v>
       </c>
       <c r="J8" s="43" t="s">
         <v>106</v>
@@ -5981,7 +5990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S29" sqref="S29:T29"/>
     </sheetView>
   </sheetViews>

--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tom.tidhar\Documents\GitHub\STI-HIV-coinfection\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9780" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="pars" sheetId="24" r:id="rId1"/>
@@ -20,7 +15,7 @@
     <sheet name="scen_2" sheetId="26" r:id="rId6"/>
     <sheet name="timepars_old" sheetId="20" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -31,7 +26,7 @@
     <author>Michael Traeger</author>
   </authors>
   <commentList>
-    <comment ref="M4" authorId="0" shapeId="0">
+    <comment ref="M4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,10 +50,10 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="1" shapeId="0">
+    <comment ref="C8" authorId="1">
       <text/>
     </comment>
-    <comment ref="C11" authorId="1" shapeId="0">
+    <comment ref="C11" authorId="1">
       <text>
         <r>
           <rPr>
@@ -82,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0">
+    <comment ref="C12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0">
+    <comment ref="C16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0" shapeId="0">
+    <comment ref="C17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -183,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0" shapeId="0">
+    <comment ref="C18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -219,7 +214,7 @@
     <author>Tom Tidhar</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -246,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0">
+    <comment ref="C1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -277,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0">
+    <comment ref="D1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -304,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0">
+    <comment ref="E1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -328,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="2" shapeId="0">
+    <comment ref="L1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -355,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="1" shapeId="0">
+    <comment ref="M1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -379,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="2" shapeId="0">
+    <comment ref="O1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -403,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="2" shapeId="0">
+    <comment ref="Q1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -429,7 +424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="2" shapeId="0">
+    <comment ref="S1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -453,7 +448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="2" shapeId="0">
+    <comment ref="T1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -477,7 +472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="2" shapeId="0">
+    <comment ref="U1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -501,7 +496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="2" shapeId="0">
+    <comment ref="W1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -529,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="2" shapeId="0">
+    <comment ref="X1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -554,7 +549,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="2" shapeId="0">
+    <comment ref="Y1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -580,7 +575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="2" shapeId="0">
+    <comment ref="Z1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -609,7 +604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="2" shapeId="0">
+    <comment ref="AA1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -635,7 +630,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="2" shapeId="0">
+    <comment ref="AB1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -659,7 +654,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="2" shapeId="0">
+    <comment ref="AC1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -683,7 +678,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE2" authorId="1" shapeId="0">
+    <comment ref="AE2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -707,7 +702,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="2" shapeId="0">
+    <comment ref="O8" authorId="2">
       <text>
         <r>
           <rPr>
@@ -731,7 +726,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O9" authorId="2" shapeId="0">
+    <comment ref="O9" authorId="2">
       <text>
         <r>
           <rPr>
@@ -755,7 +750,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O12" authorId="0" shapeId="0">
+    <comment ref="O12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -783,7 +778,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD12" authorId="0" shapeId="0">
+    <comment ref="AD12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -807,7 +802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R13" authorId="2" shapeId="0">
+    <comment ref="R13" authorId="2">
       <text>
         <r>
           <rPr>
@@ -831,7 +826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="2" shapeId="0">
+    <comment ref="A14" authorId="2">
       <text>
         <r>
           <rPr>
@@ -867,7 +862,7 @@
     <author>Kathleen Ryan</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -891,7 +886,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -915,7 +910,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -939,7 +934,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0">
+    <comment ref="E1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -966,7 +961,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -990,7 +985,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1014,7 +1009,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1038,7 +1033,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1062,7 +1057,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="1" shapeId="0">
+    <comment ref="X1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1086,7 +1081,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1110,7 +1105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1134,7 +1129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1158,7 +1153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1182,7 +1177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="1" shapeId="0">
+    <comment ref="B3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1207,7 +1202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="0" shapeId="0">
+    <comment ref="S3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1231,7 +1226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="0" shapeId="0">
+    <comment ref="T3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1255,7 +1250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="1" shapeId="0">
+    <comment ref="D18" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1290,7 +1285,7 @@
     <author>Tom Tidhar</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1324,7 +1319,7 @@
     <author>Tom Tidhar</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1348,7 +1343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1382,7 +1377,7 @@
     <author>Tom Tidhar</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1406,7 +1401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1430,7 +1425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1454,7 +1449,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1478,7 +1473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1502,7 +1497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1526,7 +1521,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1550,7 +1545,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1574,7 +1569,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1598,7 +1593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0">
+    <comment ref="AF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1622,7 +1617,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0">
+    <comment ref="AG1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1646,7 +1641,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1670,7 +1665,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1694,7 +1689,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1718,7 +1713,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1742,7 +1737,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T4" authorId="0" shapeId="0">
+    <comment ref="T4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1766,7 +1761,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W4" authorId="0" shapeId="0">
+    <comment ref="W4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2200,7 +2195,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -3113,7 +3108,7 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3490,6 +3485,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Bad" xfId="15" builtinId="27" customBuiltin="1"/>
@@ -3817,7 +3814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -4308,7 +4305,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <selection pane="topRight" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4468,7 +4465,9 @@
       <c r="K2" s="202">
         <v>7</v>
       </c>
-      <c r="L2" s="200"/>
+      <c r="L2" s="200">
+        <v>4216</v>
+      </c>
       <c r="M2" s="201"/>
       <c r="N2" s="202"/>
       <c r="O2" s="205"/>
@@ -4522,7 +4521,9 @@
       <c r="K3" s="105">
         <v>10</v>
       </c>
-      <c r="L3" s="106"/>
+      <c r="L3" s="106">
+        <v>4491</v>
+      </c>
       <c r="M3" s="107"/>
       <c r="N3" s="108"/>
       <c r="O3" s="149">
@@ -4537,19 +4538,19 @@
       </c>
       <c r="S3" s="28">
         <f t="shared" ref="S3:S13" si="0">B3-T3</f>
-        <v>0</v>
+        <v>-4491</v>
       </c>
       <c r="T3" s="28">
         <f t="shared" ref="T3:T14" si="1">L3</f>
-        <v>0</v>
+        <v>4491</v>
       </c>
       <c r="U3" s="33">
         <f>ROUND(Q3*S3,0)</f>
-        <v>0</v>
+        <v>-105</v>
       </c>
       <c r="V3" s="33">
         <f t="shared" ref="V3" si="2">ROUND(R3*T3,0)</f>
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="W3" s="11">
         <v>1007</v>
@@ -4588,11 +4589,11 @@
       </c>
       <c r="B4" s="188">
         <f>SUM(C4:D4)</f>
-        <v>27291.800000000003</v>
+        <v>27007.800000000003</v>
       </c>
       <c r="C4" s="210">
         <f t="shared" ref="C4:C15" si="3">AF4-(D4+L4)</f>
-        <v>27291.800000000003</v>
+        <v>27007.800000000003</v>
       </c>
       <c r="D4" s="182"/>
       <c r="E4" s="226">
@@ -4617,27 +4618,21 @@
         <v>8</v>
       </c>
       <c r="L4" s="188">
-        <v>4486</v>
-      </c>
-      <c r="M4" s="192">
-        <f>L4*0.78</f>
-        <v>3499.08</v>
-      </c>
-      <c r="N4" s="182">
-        <f>L4*0.22</f>
-        <v>986.92</v>
-      </c>
+        <v>4770</v>
+      </c>
+      <c r="M4" s="192"/>
+      <c r="N4" s="182"/>
       <c r="O4" s="150"/>
       <c r="P4" s="97"/>
       <c r="Q4" s="40"/>
       <c r="R4" s="40"/>
       <c r="S4" s="28">
         <f t="shared" si="0"/>
-        <v>22805.800000000003</v>
+        <v>22237.800000000003</v>
       </c>
       <c r="T4" s="28">
         <f t="shared" si="1"/>
-        <v>4486</v>
+        <v>4770</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12"/>
@@ -4678,11 +4673,11 @@
       </c>
       <c r="B5" s="188">
         <f t="shared" ref="B5:B15" si="8">SUM(C5:D5)</f>
-        <v>27545.200000000004</v>
+        <v>27251.200000000004</v>
       </c>
       <c r="C5" s="210">
         <f t="shared" si="3"/>
-        <v>27545.200000000004</v>
+        <v>27251.200000000004</v>
       </c>
       <c r="D5" s="182"/>
       <c r="E5" s="225">
@@ -4707,27 +4702,21 @@
         <v>7</v>
       </c>
       <c r="L5" s="188">
-        <v>4765</v>
-      </c>
-      <c r="M5" s="192">
-        <f t="shared" ref="M5:M14" si="9">L5*0.78</f>
-        <v>3716.7000000000003</v>
-      </c>
-      <c r="N5" s="182">
-        <f t="shared" ref="N5:N14" si="10">L5*0.22</f>
-        <v>1048.3</v>
-      </c>
+        <v>5059</v>
+      </c>
+      <c r="M5" s="192"/>
+      <c r="N5" s="182"/>
       <c r="O5" s="150"/>
       <c r="P5" s="97"/>
       <c r="Q5" s="40"/>
       <c r="R5" s="40"/>
       <c r="S5" s="28">
         <f t="shared" si="0"/>
-        <v>22780.200000000004</v>
+        <v>22192.200000000004</v>
       </c>
       <c r="T5" s="28">
         <f t="shared" si="1"/>
-        <v>4765</v>
+        <v>5059</v>
       </c>
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
@@ -4768,11 +4757,11 @@
       </c>
       <c r="B6" s="188">
         <f t="shared" si="8"/>
-        <v>27788.600000000006</v>
+        <v>27536.600000000006</v>
       </c>
       <c r="C6" s="210">
         <f t="shared" si="3"/>
-        <v>26472.496600000006</v>
+        <v>26220.496600000006</v>
       </c>
       <c r="D6" s="183">
         <v>1316.1034</v>
@@ -4799,16 +4788,10 @@
         <v>14</v>
       </c>
       <c r="L6" s="188">
-        <v>5054</v>
-      </c>
-      <c r="M6" s="192">
-        <f t="shared" si="9"/>
-        <v>3942.1200000000003</v>
-      </c>
-      <c r="N6" s="182">
-        <f t="shared" si="10"/>
-        <v>1111.8800000000001</v>
-      </c>
+        <v>5306</v>
+      </c>
+      <c r="M6" s="192"/>
+      <c r="N6" s="182"/>
       <c r="O6" s="149"/>
       <c r="P6" s="97"/>
       <c r="Q6" s="40">
@@ -4819,19 +4802,19 @@
       </c>
       <c r="S6" s="28">
         <f t="shared" si="0"/>
-        <v>22734.600000000006</v>
+        <v>22230.600000000006</v>
       </c>
       <c r="T6" s="28">
         <f t="shared" si="1"/>
-        <v>5054</v>
+        <v>5306</v>
       </c>
       <c r="U6" s="32">
-        <f t="shared" ref="U6:U12" si="11">ROUND(Q6*S6,0)</f>
-        <v>916</v>
+        <f t="shared" ref="U6:U12" si="9">ROUND(Q6*S6,0)</f>
+        <v>895</v>
       </c>
       <c r="V6" s="32">
-        <f t="shared" ref="V6:V13" si="12">ROUND(R6*T6,0)</f>
-        <v>218</v>
+        <f t="shared" ref="V6:V13" si="10">ROUND(R6*T6,0)</f>
+        <v>229</v>
       </c>
       <c r="W6" s="11">
         <v>1758</v>
@@ -4870,11 +4853,11 @@
       </c>
       <c r="B7" s="188">
         <f>SUM(C7:D7)</f>
-        <v>28074.000000000007</v>
+        <v>27760.000000000007</v>
       </c>
       <c r="C7" s="210">
         <f t="shared" si="3"/>
-        <v>26900.372400000007</v>
+        <v>26586.372400000007</v>
       </c>
       <c r="D7" s="183">
         <v>1173.6276</v>
@@ -4901,16 +4884,10 @@
         <v>13</v>
       </c>
       <c r="L7" s="188">
-        <v>5301</v>
-      </c>
-      <c r="M7" s="192">
-        <f t="shared" si="9"/>
-        <v>4134.78</v>
-      </c>
-      <c r="N7" s="182">
-        <f t="shared" si="10"/>
-        <v>1166.22</v>
-      </c>
+        <v>5615</v>
+      </c>
+      <c r="M7" s="192"/>
+      <c r="N7" s="182"/>
       <c r="O7" s="150"/>
       <c r="P7" s="97"/>
       <c r="Q7" s="40">
@@ -4921,19 +4898,19 @@
       </c>
       <c r="S7" s="28">
         <f t="shared" si="0"/>
-        <v>22773.000000000007</v>
+        <v>22145.000000000007</v>
       </c>
       <c r="T7" s="28">
         <f t="shared" si="1"/>
-        <v>5301</v>
+        <v>5615</v>
       </c>
       <c r="U7" s="32">
-        <f t="shared" si="11"/>
-        <v>855</v>
+        <f t="shared" si="9"/>
+        <v>831</v>
       </c>
       <c r="V7" s="32">
-        <f t="shared" si="12"/>
-        <v>251</v>
+        <f t="shared" si="10"/>
+        <v>265</v>
       </c>
       <c r="W7" s="11">
         <v>1863</v>
@@ -4974,11 +4951,11 @@
       </c>
       <c r="B8" s="188">
         <f t="shared" si="8"/>
-        <v>28353.000000000007</v>
+        <v>28064.000000000007</v>
       </c>
       <c r="C8" s="210">
         <f t="shared" si="3"/>
-        <v>27248.744400000007</v>
+        <v>26959.744400000007</v>
       </c>
       <c r="D8" s="183">
         <v>1104.2556</v>
@@ -5005,16 +4982,10 @@
         <v>24</v>
       </c>
       <c r="L8" s="188">
-        <v>5610</v>
-      </c>
-      <c r="M8" s="192">
-        <f t="shared" si="9"/>
-        <v>4375.8</v>
-      </c>
-      <c r="N8" s="182">
-        <f t="shared" si="10"/>
-        <v>1234.2</v>
-      </c>
+        <v>5899</v>
+      </c>
+      <c r="M8" s="192"/>
+      <c r="N8" s="182"/>
       <c r="O8" s="149">
         <v>0.91200000000000003</v>
       </c>
@@ -5027,19 +4998,19 @@
       </c>
       <c r="S8" s="28">
         <f t="shared" si="0"/>
-        <v>22743.000000000007</v>
+        <v>22165.000000000007</v>
       </c>
       <c r="T8" s="28">
         <f t="shared" si="1"/>
-        <v>5610</v>
+        <v>5899</v>
       </c>
       <c r="U8" s="32">
-        <f t="shared" si="11"/>
-        <v>1109</v>
+        <f t="shared" si="9"/>
+        <v>1081</v>
       </c>
       <c r="V8" s="32">
-        <f t="shared" si="12"/>
-        <v>302</v>
+        <f t="shared" si="10"/>
+        <v>318</v>
       </c>
       <c r="W8" s="11">
         <v>2436</v>
@@ -5078,11 +5049,11 @@
       </c>
       <c r="B9" s="188">
         <f t="shared" si="8"/>
-        <v>28657.000000000007</v>
+        <v>28346.000000000007</v>
       </c>
       <c r="C9" s="210">
         <f t="shared" si="3"/>
-        <v>27511.205800000007</v>
+        <v>27200.205800000007</v>
       </c>
       <c r="D9" s="183">
         <v>1145.7942</v>
@@ -5109,16 +5080,10 @@
         <v>35</v>
       </c>
       <c r="L9" s="188">
-        <v>5894</v>
-      </c>
-      <c r="M9" s="192">
-        <f t="shared" si="9"/>
-        <v>4597.32</v>
-      </c>
-      <c r="N9" s="182">
-        <f t="shared" si="10"/>
-        <v>1296.68</v>
-      </c>
+        <v>6205</v>
+      </c>
+      <c r="M9" s="192"/>
+      <c r="N9" s="182"/>
       <c r="O9" s="149"/>
       <c r="P9" s="97"/>
       <c r="Q9" s="40">
@@ -5129,19 +5094,19 @@
       </c>
       <c r="S9" s="28">
         <f t="shared" si="0"/>
-        <v>22763.000000000007</v>
+        <v>22141.000000000007</v>
       </c>
       <c r="T9" s="28">
         <f t="shared" si="1"/>
-        <v>5894</v>
+        <v>6205</v>
       </c>
       <c r="U9" s="32">
-        <f t="shared" si="11"/>
-        <v>1204</v>
+        <f t="shared" si="9"/>
+        <v>1171</v>
       </c>
       <c r="V9" s="32">
-        <f t="shared" si="12"/>
-        <v>369</v>
+        <f t="shared" si="10"/>
+        <v>389</v>
       </c>
       <c r="W9" s="11">
         <v>2978</v>
@@ -5170,7 +5135,7 @@
       <c r="AD9" s="14"/>
       <c r="AE9" s="198"/>
       <c r="AF9" s="198">
-        <f t="shared" ref="AF9:AF15" si="13">AF8+588</f>
+        <f t="shared" ref="AF9:AF15" si="11">AF8+588</f>
         <v>34551.000000000007</v>
       </c>
     </row>
@@ -5180,11 +5145,11 @@
       </c>
       <c r="B10" s="188">
         <f t="shared" si="8"/>
-        <v>28939.000000000007</v>
+        <v>28585.000000000007</v>
       </c>
       <c r="C10" s="210">
         <f t="shared" si="3"/>
-        <v>27635.934400000006</v>
+        <v>27281.934400000006</v>
       </c>
       <c r="D10" s="183">
         <v>1303.0656000000001</v>
@@ -5211,16 +5176,10 @@
         <v>10</v>
       </c>
       <c r="L10" s="188">
-        <v>6200</v>
-      </c>
-      <c r="M10" s="192">
-        <f t="shared" si="9"/>
-        <v>4836</v>
-      </c>
-      <c r="N10" s="182">
-        <f t="shared" si="10"/>
-        <v>1364</v>
-      </c>
+        <v>6554</v>
+      </c>
+      <c r="M10" s="192"/>
+      <c r="N10" s="182"/>
       <c r="O10" s="149">
         <v>0.88</v>
       </c>
@@ -5233,19 +5192,19 @@
       </c>
       <c r="S10" s="28">
         <f t="shared" si="0"/>
-        <v>22739.000000000007</v>
+        <v>22031.000000000007</v>
       </c>
       <c r="T10" s="28">
         <f t="shared" si="1"/>
-        <v>6200</v>
+        <v>6554</v>
       </c>
       <c r="U10" s="32">
-        <f t="shared" si="11"/>
-        <v>1171</v>
+        <f t="shared" si="9"/>
+        <v>1135</v>
       </c>
       <c r="V10" s="32">
-        <f t="shared" si="12"/>
-        <v>330</v>
+        <f t="shared" si="10"/>
+        <v>349</v>
       </c>
       <c r="W10" s="11">
         <v>3269</v>
@@ -5274,7 +5233,7 @@
       <c r="AD10" s="14"/>
       <c r="AE10" s="198"/>
       <c r="AF10" s="198">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>35139.000000000007</v>
       </c>
     </row>
@@ -5284,11 +5243,11 @@
       </c>
       <c r="B11" s="188">
         <f t="shared" si="8"/>
-        <v>29178.000000000007</v>
+        <v>28863.000000000007</v>
       </c>
       <c r="C11" s="210">
         <f t="shared" si="3"/>
-        <v>27722.579200000007</v>
+        <v>27407.579200000007</v>
       </c>
       <c r="D11" s="183">
         <v>1455.4208000000001</v>
@@ -5315,16 +5274,10 @@
         <v>18</v>
       </c>
       <c r="L11" s="188">
-        <v>6549</v>
-      </c>
-      <c r="M11" s="192">
-        <f t="shared" si="9"/>
-        <v>5108.22</v>
-      </c>
-      <c r="N11" s="182">
-        <f t="shared" si="10"/>
-        <v>1440.78</v>
-      </c>
+        <v>6864</v>
+      </c>
+      <c r="M11" s="192"/>
+      <c r="N11" s="182"/>
       <c r="O11" s="149">
         <v>0.88</v>
       </c>
@@ -5337,19 +5290,19 @@
       </c>
       <c r="S11" s="28">
         <f t="shared" si="0"/>
-        <v>22629.000000000007</v>
+        <v>21999.000000000007</v>
       </c>
       <c r="T11" s="28">
         <f t="shared" si="1"/>
-        <v>6549</v>
+        <v>6864</v>
       </c>
       <c r="U11" s="32">
-        <f t="shared" si="11"/>
-        <v>1507</v>
+        <f t="shared" si="9"/>
+        <v>1465</v>
       </c>
       <c r="V11" s="32">
-        <f t="shared" si="12"/>
-        <v>440</v>
+        <f t="shared" si="10"/>
+        <v>461</v>
       </c>
       <c r="W11" s="11">
         <v>4865</v>
@@ -5378,7 +5331,7 @@
       <c r="AD11" s="14"/>
       <c r="AE11" s="198"/>
       <c r="AF11" s="198">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>35727.000000000007</v>
       </c>
     </row>
@@ -5388,11 +5341,11 @@
       </c>
       <c r="B12" s="188">
         <f>SUM(C12:D12)</f>
-        <v>29456.000000000007</v>
+        <v>29091.000000000007</v>
       </c>
       <c r="C12" s="210">
         <f t="shared" si="3"/>
-        <v>27809.524200000007</v>
+        <v>27444.524200000007</v>
       </c>
       <c r="D12" s="183">
         <v>1646.4758000000002</v>
@@ -5419,16 +5372,10 @@
         <v>32</v>
       </c>
       <c r="L12" s="188">
-        <v>6859</v>
-      </c>
-      <c r="M12" s="192">
-        <f t="shared" si="9"/>
-        <v>5350.02</v>
-      </c>
-      <c r="N12" s="182">
-        <f t="shared" si="10"/>
-        <v>1508.98</v>
-      </c>
+        <v>7224</v>
+      </c>
+      <c r="M12" s="192"/>
+      <c r="N12" s="182"/>
       <c r="O12" s="149">
         <v>0.89</v>
       </c>
@@ -5441,19 +5388,19 @@
       </c>
       <c r="S12" s="28">
         <f t="shared" si="0"/>
-        <v>22597.000000000007</v>
+        <v>21867.000000000007</v>
       </c>
       <c r="T12" s="28">
         <f t="shared" si="1"/>
-        <v>6859</v>
+        <v>7224</v>
       </c>
       <c r="U12" s="32">
-        <f t="shared" si="11"/>
-        <v>1430</v>
+        <f t="shared" si="9"/>
+        <v>1384</v>
       </c>
       <c r="V12" s="32">
-        <f t="shared" si="12"/>
-        <v>475</v>
+        <f t="shared" si="10"/>
+        <v>500</v>
       </c>
       <c r="W12" s="11">
         <v>6265</v>
@@ -5486,7 +5433,7 @@
         <v>36315</v>
       </c>
       <c r="AF12" s="198">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>36315.000000000007</v>
       </c>
     </row>
@@ -5496,11 +5443,11 @@
       </c>
       <c r="B13" s="188">
         <f t="shared" si="8"/>
-        <v>29684.000000000011</v>
+        <v>29394.000000000011</v>
       </c>
       <c r="C13" s="210">
         <f t="shared" si="3"/>
-        <v>27801.781600000009</v>
+        <v>27511.781600000009</v>
       </c>
       <c r="D13" s="183">
         <v>1882.2184</v>
@@ -5527,16 +5474,10 @@
         <v>33</v>
       </c>
       <c r="L13" s="188">
-        <v>7219</v>
-      </c>
-      <c r="M13" s="192">
-        <f t="shared" si="9"/>
-        <v>5630.8200000000006</v>
-      </c>
-      <c r="N13" s="182">
-        <f t="shared" si="10"/>
-        <v>1588.18</v>
-      </c>
+        <v>7509</v>
+      </c>
+      <c r="M13" s="192"/>
+      <c r="N13" s="182"/>
       <c r="O13" s="150">
         <v>0.9</v>
       </c>
@@ -5550,16 +5491,16 @@
       </c>
       <c r="S13" s="28">
         <f t="shared" si="0"/>
-        <v>22465.000000000011</v>
+        <v>21885.000000000011</v>
       </c>
       <c r="T13" s="28">
         <f t="shared" si="1"/>
-        <v>7219</v>
+        <v>7509</v>
       </c>
       <c r="U13" s="12"/>
       <c r="V13" s="32">
-        <f t="shared" si="12"/>
-        <v>337</v>
+        <f t="shared" si="10"/>
+        <v>351</v>
       </c>
       <c r="W13" s="11">
         <v>7289</v>
@@ -5597,11 +5538,11 @@
       </c>
       <c r="B14" s="188">
         <f t="shared" si="8"/>
-        <v>29987.000000000007</v>
+        <v>37491.000000000007</v>
       </c>
       <c r="C14" s="210">
         <f t="shared" si="3"/>
-        <v>27854.027200000008</v>
+        <v>35358.027200000004</v>
       </c>
       <c r="D14" s="183">
         <v>2132.9728</v>
@@ -5627,28 +5568,20 @@
       <c r="K14" s="185">
         <v>35</v>
       </c>
-      <c r="L14" s="188">
-        <v>7504</v>
-      </c>
-      <c r="M14" s="192">
-        <f t="shared" si="9"/>
-        <v>5853.12</v>
-      </c>
-      <c r="N14" s="182">
-        <f t="shared" si="10"/>
-        <v>1650.88</v>
-      </c>
+      <c r="L14" s="188"/>
+      <c r="M14" s="192"/>
+      <c r="N14" s="182"/>
       <c r="O14" s="149">
         <v>0.9</v>
       </c>
       <c r="P14" s="123"/>
       <c r="T14" s="28">
         <f t="shared" si="1"/>
-        <v>7504</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="197"/>
       <c r="AF14" s="198">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>37491.000000000007</v>
       </c>
     </row>
@@ -5681,7 +5614,7 @@
       <c r="P15" s="123"/>
       <c r="AE15" s="198"/>
       <c r="AF15" s="198">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>38079.000000000007</v>
       </c>
     </row>
@@ -5990,8 +5923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29:T29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6832,8 +6765,8 @@
       <c r="A18" s="31">
         <v>2014</v>
       </c>
-      <c r="B18" s="190">
-        <v>0.32</v>
+      <c r="B18" s="228">
+        <v>0.32297447280799113</v>
       </c>
       <c r="C18" s="44"/>
       <c r="D18" s="189">
@@ -6887,8 +6820,8 @@
       <c r="A19" s="31">
         <v>2015</v>
       </c>
-      <c r="B19" s="190">
-        <v>0.35</v>
+      <c r="B19" s="228">
+        <v>0.35719557195571955</v>
       </c>
       <c r="C19" s="44"/>
       <c r="D19" s="189">
@@ -6943,7 +6876,7 @@
         <v>2016</v>
       </c>
       <c r="B20" s="191">
-        <v>0.37</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C20" s="44"/>
       <c r="D20" s="189">
@@ -6998,8 +6931,8 @@
       <c r="A21" s="31">
         <v>2017</v>
       </c>
-      <c r="B21" s="190">
-        <v>0.4</v>
+      <c r="B21" s="228">
+        <v>0.49761417859577367</v>
       </c>
       <c r="C21" s="44"/>
       <c r="D21" s="189">
@@ -7050,8 +6983,8 @@
       <c r="A22" s="31">
         <v>2018</v>
       </c>
-      <c r="B22" s="44">
-        <v>0.4</v>
+      <c r="B22" s="229">
+        <v>0.53368660105980315</v>
       </c>
       <c r="C22" s="44"/>
       <c r="D22" s="189">
@@ -7102,7 +7035,9 @@
       <c r="A23" s="31">
         <v>2019</v>
       </c>
-      <c r="B23" s="44"/>
+      <c r="B23" s="229">
+        <v>0.59571788413098237</v>
+      </c>
       <c r="C23" s="44"/>
       <c r="D23" s="189">
         <v>4525</v>

--- a/data_sti.xlsx
+++ b/data_sti.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tom.tidhar\Documents\GitHub\STI-HIV-coinfection\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9780" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pars" sheetId="24" r:id="rId1"/>
@@ -15,7 +20,7 @@
     <sheet name="scen_2" sheetId="26" r:id="rId6"/>
     <sheet name="timepars_old" sheetId="20" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -26,7 +31,7 @@
     <author>Michael Traeger</author>
   </authors>
   <commentList>
-    <comment ref="M4" authorId="0">
+    <comment ref="M4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,10 +55,10 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="1">
+    <comment ref="C8" authorId="1" shapeId="0">
       <text/>
     </comment>
-    <comment ref="C11" authorId="1">
+    <comment ref="C11" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0">
+    <comment ref="C12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0">
+    <comment ref="C16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0">
+    <comment ref="C17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0">
+    <comment ref="C18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +219,7 @@
     <author>Tom Tidhar</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -241,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1">
+    <comment ref="C1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -272,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="1">
+    <comment ref="D1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -299,7 +304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="1">
+    <comment ref="E1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -323,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="2">
+    <comment ref="N1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -350,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="1">
+    <comment ref="O1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -374,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="2">
+    <comment ref="Q1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -398,7 +403,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="2">
+    <comment ref="S1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -424,7 +429,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="2">
+    <comment ref="U1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -448,7 +453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="2">
+    <comment ref="V1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -472,7 +477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="2">
+    <comment ref="W1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -496,7 +501,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="2">
+    <comment ref="Y1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -524,7 +529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="2">
+    <comment ref="Z1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -549,7 +554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="2">
+    <comment ref="AA1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -575,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="2">
+    <comment ref="AB1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -604,7 +609,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="2">
+    <comment ref="AC1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -630,7 +635,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="2">
+    <comment ref="AD1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -654,7 +659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="2">
+    <comment ref="AE1" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -678,7 +683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE2" authorId="1">
+    <comment ref="AG2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -702,7 +707,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="2">
+    <comment ref="Q8" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -726,7 +731,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O9" authorId="2">
+    <comment ref="Q9" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -750,7 +755,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O12" authorId="0">
+    <comment ref="Q12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -778,7 +783,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD12" authorId="0">
+    <comment ref="AF12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -802,7 +807,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R13" authorId="2">
+    <comment ref="T13" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -826,7 +831,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="2">
+    <comment ref="A14" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -862,7 +867,7 @@
     <author>Kathleen Ryan</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -886,7 +891,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -910,7 +915,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -934,7 +939,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="1">
+    <comment ref="E1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -961,7 +966,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -985,7 +990,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1009,7 +1014,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1033,7 +1038,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1057,7 +1062,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="1">
+    <comment ref="X1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1081,7 +1086,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1105,7 +1110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1129,7 +1134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0">
+    <comment ref="M2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1153,7 +1158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0">
+    <comment ref="N2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1177,7 +1182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="1">
+    <comment ref="B3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1202,7 +1207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="0">
+    <comment ref="S3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1226,7 +1231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="0">
+    <comment ref="T3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1250,7 +1255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="1">
+    <comment ref="D18" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1285,7 +1290,7 @@
     <author>Tom Tidhar</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1319,7 +1324,7 @@
     <author>Tom Tidhar</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1343,7 +1348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1377,7 +1382,7 @@
     <author>Tom Tidhar</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1401,7 +1406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1425,7 +1430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1449,7 +1454,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1473,7 +1478,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1497,7 +1502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1521,7 +1526,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1545,7 +1550,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1569,7 +1574,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1593,7 +1598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0">
+    <comment ref="AF1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1617,7 +1622,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0">
+    <comment ref="AG1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1641,7 +1646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1665,7 +1670,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1689,7 +1694,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0">
+    <comment ref="M3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1713,7 +1718,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0">
+    <comment ref="N3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1737,7 +1742,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T4" authorId="0">
+    <comment ref="T4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1761,7 +1766,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W4" authorId="0">
+    <comment ref="W4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1790,7 +1795,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="135">
   <si>
     <t>Waiting list</t>
   </si>
@@ -2190,12 +2195,18 @@
   </si>
   <si>
     <t>years each person is in model</t>
+  </si>
+  <si>
+    <t>HIV_diag_new_tot</t>
+  </si>
+  <si>
+    <t>HIV_diag_old_tot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -3108,7 +3119,7 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3482,11 +3493,14 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Bad" xfId="15" builtinId="27" customBuiltin="1"/>
@@ -4301,11 +4315,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF25"/>
+  <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M19" sqref="M19"/>
+      <selection pane="topRight" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4316,32 +4330,34 @@
     <col min="5" max="5" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11" style="43" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" style="43" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="62.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11" style="43" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" style="43" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="62.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="118" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="109" t="s">
         <v>21</v>
       </c>
@@ -4363,81 +4379,87 @@
       <c r="G1" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="113" t="s">
+      <c r="H1" s="116" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="116" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="113" t="s">
         <v>120</v>
       </c>
-      <c r="I1" s="114" t="s">
+      <c r="K1" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="J1" s="111" t="s">
+      <c r="L1" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="K1" s="112" t="s">
+      <c r="M1" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="L1" s="110" t="s">
+      <c r="N1" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="M1" s="111" t="s">
+      <c r="O1" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="N1" s="112" t="s">
+      <c r="P1" s="112" t="s">
         <v>99</v>
       </c>
-      <c r="O1" s="148" t="s">
+      <c r="Q1" s="148" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="116" t="s">
+      <c r="R1" s="115"/>
+      <c r="S1" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="116" t="s">
+      <c r="T1" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="116" t="s">
+      <c r="U1" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="116" t="s">
+      <c r="V1" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="116" t="s">
+      <c r="W1" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="116" t="s">
+      <c r="X1" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="116" t="s">
+      <c r="Y1" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="X1" s="116" t="s">
+      <c r="Z1" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="116" t="s">
+      <c r="AA1" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="116" t="s">
+      <c r="AB1" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" s="116" t="s">
+      <c r="AC1" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" s="116" t="s">
+      <c r="AD1" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" s="116" t="s">
+      <c r="AE1" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="117" t="s">
+      <c r="AF1" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="AE1" s="196" t="s">
+      <c r="AG1" s="196" t="s">
         <v>115</v>
       </c>
-      <c r="AF1" s="196" t="s">
+      <c r="AH1" s="196" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="199">
         <v>2006</v>
       </c>
@@ -4453,27 +4475,33 @@
       <c r="G2" s="223">
         <v>13</v>
       </c>
-      <c r="H2" s="203">
+      <c r="H2" s="230">
+        <f>J2+L2</f>
+        <v>87</v>
+      </c>
+      <c r="I2" s="230">
+        <f>K2+M2</f>
+        <v>112<